--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>143574</v>
       </c>
       <c r="G4">
         <v>87</v>
@@ -18890,7 +18890,7 @@
         </is>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>205163</v>
       </c>
       <c r="G281">
         <v>113</v>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R359"/>
+  <dimension ref="A1:S359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,11 @@
           <t>2020-04-06</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +519,9 @@
       <c r="R2">
         <v>1626</v>
       </c>
+      <c r="S2">
+        <v>1673</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -580,6 +588,9 @@
       <c r="R3">
         <v>14</v>
       </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -646,6 +657,9 @@
       <c r="R4">
         <v>125</v>
       </c>
+      <c r="S4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -712,6 +726,9 @@
       <c r="R5">
         <v>49</v>
       </c>
+      <c r="S5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -778,6 +795,9 @@
       <c r="R6">
         <v>45</v>
       </c>
+      <c r="S6">
+        <v>45</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -844,6 +864,9 @@
       <c r="R7">
         <v>3</v>
       </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -910,6 +933,9 @@
       <c r="R8">
         <v>0</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -976,6 +1002,9 @@
       <c r="R9">
         <v>0</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1042,6 +1071,9 @@
       <c r="R10">
         <v>6</v>
       </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1108,6 +1140,9 @@
       <c r="R11">
         <v>6</v>
       </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1174,6 +1209,9 @@
       <c r="R12">
         <v>12</v>
       </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1240,6 +1278,9 @@
       <c r="R13">
         <v>12</v>
       </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1306,6 +1347,9 @@
       <c r="R14">
         <v>13</v>
       </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1372,6 +1416,9 @@
       <c r="R15">
         <v>11</v>
       </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1438,6 +1485,9 @@
       <c r="R16">
         <v>13</v>
       </c>
+      <c r="S16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1504,6 +1554,9 @@
       <c r="R17">
         <v>0</v>
       </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1570,6 +1623,9 @@
       <c r="R18">
         <v>0</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1636,6 +1692,9 @@
       <c r="R19">
         <v>3</v>
       </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1702,6 +1761,9 @@
       <c r="R20">
         <v>0</v>
       </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1768,6 +1830,9 @@
       <c r="R21">
         <v>1</v>
       </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1834,6 +1899,9 @@
       <c r="R22">
         <v>19</v>
       </c>
+      <c r="S22">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1900,6 +1968,9 @@
       <c r="R23">
         <v>34</v>
       </c>
+      <c r="S23">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1966,6 +2037,9 @@
       <c r="R24">
         <v>0</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2032,6 +2106,9 @@
       <c r="R25">
         <v>11</v>
       </c>
+      <c r="S25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2098,6 +2175,9 @@
       <c r="R26">
         <v>19</v>
       </c>
+      <c r="S26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2164,6 +2244,9 @@
       <c r="R27">
         <v>14</v>
       </c>
+      <c r="S27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2230,6 +2313,9 @@
       <c r="R28">
         <v>25</v>
       </c>
+      <c r="S28">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2296,6 +2382,9 @@
       <c r="R29">
         <v>1</v>
       </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2362,6 +2451,9 @@
       <c r="R30">
         <v>4</v>
       </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2428,6 +2520,9 @@
       <c r="R31">
         <v>3</v>
       </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2494,6 +2589,9 @@
       <c r="R32">
         <v>7</v>
       </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2560,6 +2658,9 @@
       <c r="R33">
         <v>2</v>
       </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2626,6 +2727,9 @@
       <c r="R34">
         <v>6</v>
       </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2692,6 +2796,9 @@
       <c r="R35">
         <v>0</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2758,6 +2865,9 @@
       <c r="R36">
         <v>0</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2824,6 +2934,9 @@
       <c r="R37">
         <v>6</v>
       </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2890,6 +3003,9 @@
       <c r="R38">
         <v>5</v>
       </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2956,6 +3072,9 @@
       <c r="R39">
         <v>0</v>
       </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3022,6 +3141,9 @@
       <c r="R40">
         <v>10</v>
       </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3088,6 +3210,9 @@
       <c r="R41">
         <v>0</v>
       </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3154,6 +3279,9 @@
       <c r="R42">
         <v>0</v>
       </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3220,6 +3348,9 @@
       <c r="R43">
         <v>0</v>
       </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3286,6 +3417,9 @@
       <c r="R44">
         <v>1</v>
       </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3352,6 +3486,9 @@
       <c r="R45">
         <v>2</v>
       </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3418,6 +3555,9 @@
       <c r="R46">
         <v>2</v>
       </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3484,6 +3624,9 @@
       <c r="R47">
         <v>0</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3550,6 +3693,9 @@
       <c r="R48">
         <v>3</v>
       </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3616,6 +3762,9 @@
       <c r="R49">
         <v>4</v>
       </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3682,6 +3831,9 @@
       <c r="R50">
         <v>1</v>
       </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3748,6 +3900,9 @@
       <c r="R51">
         <v>2</v>
       </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3814,6 +3969,9 @@
       <c r="R52">
         <v>27</v>
       </c>
+      <c r="S52">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3880,6 +4038,9 @@
       <c r="R53">
         <v>2</v>
       </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3946,6 +4107,9 @@
       <c r="R54">
         <v>0</v>
       </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4012,6 +4176,9 @@
       <c r="R55">
         <v>2</v>
       </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4078,6 +4245,9 @@
       <c r="R56">
         <v>4</v>
       </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4144,6 +4314,9 @@
       <c r="R57">
         <v>3</v>
       </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4210,6 +4383,9 @@
       <c r="R58">
         <v>0</v>
       </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4276,6 +4452,9 @@
       <c r="R59">
         <v>0</v>
       </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4342,6 +4521,9 @@
       <c r="R60">
         <v>2</v>
       </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4408,6 +4590,9 @@
       <c r="R61">
         <v>3</v>
       </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4474,6 +4659,9 @@
       <c r="R62">
         <v>1</v>
       </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4540,6 +4728,9 @@
       <c r="R63">
         <v>1</v>
       </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4606,6 +4797,9 @@
       <c r="R64">
         <v>0</v>
       </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4672,6 +4866,9 @@
       <c r="R65">
         <v>5</v>
       </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4738,6 +4935,9 @@
       <c r="R66">
         <v>0</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4804,6 +5004,9 @@
       <c r="R67">
         <v>0</v>
       </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4870,6 +5073,9 @@
       <c r="R68">
         <v>5</v>
       </c>
+      <c r="S68">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4936,6 +5142,9 @@
       <c r="R69">
         <v>0</v>
       </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5002,6 +5211,9 @@
       <c r="R70">
         <v>0</v>
       </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5068,6 +5280,9 @@
       <c r="R71">
         <v>0</v>
       </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5134,6 +5349,9 @@
       <c r="R72">
         <v>4</v>
       </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5200,6 +5418,9 @@
       <c r="R73">
         <v>0</v>
       </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5266,6 +5487,9 @@
       <c r="R74">
         <v>0</v>
       </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5332,6 +5556,9 @@
       <c r="R75">
         <v>0</v>
       </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5398,6 +5625,9 @@
       <c r="R76">
         <v>1</v>
       </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5464,6 +5694,9 @@
       <c r="R77">
         <v>0</v>
       </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5530,6 +5763,9 @@
       <c r="R78">
         <v>1</v>
       </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5596,6 +5832,9 @@
       <c r="R79">
         <v>0</v>
       </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5662,6 +5901,9 @@
       <c r="R80">
         <v>0</v>
       </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5728,6 +5970,9 @@
       <c r="R81">
         <v>0</v>
       </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5794,6 +6039,9 @@
       <c r="R82">
         <v>0</v>
       </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5860,6 +6108,9 @@
       <c r="R83">
         <v>1</v>
       </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5926,6 +6177,9 @@
       <c r="R84">
         <v>3</v>
       </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5992,6 +6246,9 @@
       <c r="R85">
         <v>3</v>
       </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6058,6 +6315,9 @@
       <c r="R86">
         <v>5</v>
       </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6124,6 +6384,9 @@
       <c r="R87">
         <v>0</v>
       </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6190,6 +6453,9 @@
       <c r="R88">
         <v>0</v>
       </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6256,6 +6522,9 @@
       <c r="R89">
         <v>3</v>
       </c>
+      <c r="S89">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6322,6 +6591,9 @@
       <c r="R90">
         <v>0</v>
       </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6388,6 +6660,9 @@
       <c r="R91">
         <v>0</v>
       </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6454,6 +6729,9 @@
       <c r="R92">
         <v>0</v>
       </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6520,6 +6798,9 @@
       <c r="R93">
         <v>22</v>
       </c>
+      <c r="S93">
+        <v>24</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6586,6 +6867,9 @@
       <c r="R94">
         <v>78</v>
       </c>
+      <c r="S94">
+        <v>78</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6652,6 +6936,9 @@
       <c r="R95">
         <v>40</v>
       </c>
+      <c r="S95">
+        <v>40</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6718,6 +7005,9 @@
       <c r="R96">
         <v>62</v>
       </c>
+      <c r="S96">
+        <v>69</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6784,6 +7074,9 @@
       <c r="R97">
         <v>138</v>
       </c>
+      <c r="S97">
+        <v>140</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6850,6 +7143,9 @@
       <c r="R98">
         <v>19</v>
       </c>
+      <c r="S98">
+        <v>19</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6916,6 +7212,9 @@
       <c r="R99">
         <v>6</v>
       </c>
+      <c r="S99">
+        <v>6</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6982,6 +7281,9 @@
       <c r="R100">
         <v>2</v>
       </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7048,6 +7350,9 @@
       <c r="R101">
         <v>1</v>
       </c>
+      <c r="S101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7114,6 +7419,9 @@
       <c r="R102">
         <v>1</v>
       </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7180,6 +7488,9 @@
       <c r="R103">
         <v>43</v>
       </c>
+      <c r="S103">
+        <v>44</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7246,6 +7557,9 @@
       <c r="R104">
         <v>1</v>
       </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7312,6 +7626,9 @@
       <c r="R105">
         <v>1</v>
       </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7378,6 +7695,9 @@
       <c r="R106">
         <v>2</v>
       </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7444,6 +7764,9 @@
       <c r="R107">
         <v>6</v>
       </c>
+      <c r="S107">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7510,6 +7833,9 @@
       <c r="R108">
         <v>21</v>
       </c>
+      <c r="S108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7576,6 +7902,9 @@
       <c r="R109">
         <v>87</v>
       </c>
+      <c r="S109">
+        <v>88</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7642,6 +7971,9 @@
       <c r="R110">
         <v>16</v>
       </c>
+      <c r="S110">
+        <v>16</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7708,6 +8040,9 @@
       <c r="R111">
         <v>16</v>
       </c>
+      <c r="S111">
+        <v>16</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7774,6 +8109,9 @@
       <c r="R112">
         <v>43</v>
       </c>
+      <c r="S112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7840,6 +8178,9 @@
       <c r="R113">
         <v>322</v>
       </c>
+      <c r="S113">
+        <v>327</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7906,6 +8247,9 @@
       <c r="R114">
         <v>136</v>
       </c>
+      <c r="S114">
+        <v>138</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7972,6 +8316,9 @@
       <c r="R115">
         <v>5</v>
       </c>
+      <c r="S115">
+        <v>5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8038,6 +8385,9 @@
       <c r="R116">
         <v>18</v>
       </c>
+      <c r="S116">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8104,6 +8454,9 @@
       <c r="R117">
         <v>30</v>
       </c>
+      <c r="S117">
+        <v>31</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8170,6 +8523,9 @@
       <c r="R118">
         <v>68</v>
       </c>
+      <c r="S118">
+        <v>71</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8236,6 +8592,9 @@
       <c r="R119">
         <v>120</v>
       </c>
+      <c r="S119">
+        <v>120</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8302,6 +8661,9 @@
       <c r="R120">
         <v>44</v>
       </c>
+      <c r="S120">
+        <v>44</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8368,6 +8730,9 @@
       <c r="R121">
         <v>7</v>
       </c>
+      <c r="S121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8434,6 +8799,9 @@
       <c r="R122">
         <v>48</v>
       </c>
+      <c r="S122">
+        <v>48</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8500,6 +8868,9 @@
       <c r="R123">
         <v>12</v>
       </c>
+      <c r="S123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8566,6 +8937,9 @@
       <c r="R124">
         <v>28</v>
       </c>
+      <c r="S124">
+        <v>28</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8632,6 +9006,9 @@
       <c r="R125">
         <v>15</v>
       </c>
+      <c r="S125">
+        <v>16</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8698,6 +9075,9 @@
       <c r="R126">
         <v>2</v>
       </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8764,6 +9144,9 @@
       <c r="R127">
         <v>10</v>
       </c>
+      <c r="S127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8830,6 +9213,9 @@
       <c r="R128">
         <v>1</v>
       </c>
+      <c r="S128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8896,6 +9282,9 @@
       <c r="R129">
         <v>7</v>
       </c>
+      <c r="S129">
+        <v>15</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8962,6 +9351,9 @@
       <c r="R130">
         <v>9</v>
       </c>
+      <c r="S130">
+        <v>9</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9028,6 +9420,9 @@
       <c r="R131">
         <v>8</v>
       </c>
+      <c r="S131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9094,6 +9489,9 @@
       <c r="R132">
         <v>13</v>
       </c>
+      <c r="S132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9160,6 +9558,9 @@
       <c r="R133">
         <v>43</v>
       </c>
+      <c r="S133">
+        <v>43</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9226,6 +9627,9 @@
       <c r="R134">
         <v>0</v>
       </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9292,6 +9696,9 @@
       <c r="R135">
         <v>0</v>
       </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9358,6 +9765,9 @@
       <c r="R136">
         <v>10</v>
       </c>
+      <c r="S136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9424,6 +9834,9 @@
       <c r="R137">
         <v>4</v>
       </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9490,6 +9903,9 @@
       <c r="R138">
         <v>24</v>
       </c>
+      <c r="S138">
+        <v>25</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9556,6 +9972,9 @@
       <c r="R139">
         <v>1</v>
       </c>
+      <c r="S139">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9622,6 +10041,9 @@
       <c r="R140">
         <v>1</v>
       </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9688,6 +10110,9 @@
       <c r="R141">
         <v>2</v>
       </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9754,6 +10179,9 @@
       <c r="R142">
         <v>5</v>
       </c>
+      <c r="S142">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9820,6 +10248,9 @@
       <c r="R143">
         <v>9</v>
       </c>
+      <c r="S143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9886,6 +10317,9 @@
       <c r="R144">
         <v>1</v>
       </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9952,6 +10386,9 @@
       <c r="R145">
         <v>70</v>
       </c>
+      <c r="S145">
+        <v>71</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10018,6 +10455,9 @@
       <c r="R146">
         <v>30</v>
       </c>
+      <c r="S146">
+        <v>30</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10084,6 +10524,9 @@
       <c r="R147">
         <v>14</v>
       </c>
+      <c r="S147">
+        <v>14</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10150,6 +10593,9 @@
       <c r="R148">
         <v>56</v>
       </c>
+      <c r="S148">
+        <v>56</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10216,6 +10662,9 @@
       <c r="R149">
         <v>11</v>
       </c>
+      <c r="S149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10282,6 +10731,9 @@
       <c r="R150">
         <v>31</v>
       </c>
+      <c r="S150">
+        <v>31</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10348,6 +10800,9 @@
       <c r="R151">
         <v>0</v>
       </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10414,6 +10869,9 @@
       <c r="R152">
         <v>11</v>
       </c>
+      <c r="S152">
+        <v>13</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10480,6 +10938,9 @@
       <c r="R153">
         <v>3</v>
       </c>
+      <c r="S153">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10546,6 +11007,9 @@
       <c r="R154">
         <v>5</v>
       </c>
+      <c r="S154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10612,6 +11076,9 @@
       <c r="R155">
         <v>3</v>
       </c>
+      <c r="S155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10678,6 +11145,9 @@
       <c r="R156">
         <v>2</v>
       </c>
+      <c r="S156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10744,6 +11214,9 @@
       <c r="R157">
         <v>11</v>
       </c>
+      <c r="S157">
+        <v>11</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10810,6 +11283,9 @@
       <c r="R158">
         <v>2</v>
       </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10876,6 +11352,9 @@
       <c r="R159">
         <v>4</v>
       </c>
+      <c r="S159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10942,6 +11421,9 @@
       <c r="R160">
         <v>0</v>
       </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11008,6 +11490,9 @@
       <c r="R161">
         <v>0</v>
       </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11074,6 +11559,9 @@
       <c r="R162">
         <v>2</v>
       </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11140,6 +11628,9 @@
       <c r="R163">
         <v>0</v>
       </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11206,6 +11697,9 @@
       <c r="R164">
         <v>0</v>
       </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11272,6 +11766,9 @@
       <c r="R165">
         <v>1</v>
       </c>
+      <c r="S165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11338,6 +11835,9 @@
       <c r="R166">
         <v>0</v>
       </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11404,6 +11904,9 @@
       <c r="R167">
         <v>0</v>
       </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11470,6 +11973,9 @@
       <c r="R168">
         <v>5</v>
       </c>
+      <c r="S168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11536,6 +12042,9 @@
       <c r="R169">
         <v>2</v>
       </c>
+      <c r="S169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11602,6 +12111,9 @@
       <c r="R170">
         <v>1</v>
       </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11668,6 +12180,9 @@
       <c r="R171">
         <v>3</v>
       </c>
+      <c r="S171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11734,6 +12249,9 @@
       <c r="R172">
         <v>1</v>
       </c>
+      <c r="S172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11800,6 +12318,9 @@
       <c r="R173">
         <v>13</v>
       </c>
+      <c r="S173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11866,6 +12387,9 @@
       <c r="R174">
         <v>36</v>
       </c>
+      <c r="S174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11932,6 +12456,9 @@
       <c r="R175">
         <v>1</v>
       </c>
+      <c r="S175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11998,6 +12525,9 @@
       <c r="R176">
         <v>8</v>
       </c>
+      <c r="S176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12064,6 +12594,9 @@
       <c r="R177">
         <v>2</v>
       </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12130,6 +12663,9 @@
       <c r="R178">
         <v>5</v>
       </c>
+      <c r="S178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12196,6 +12732,9 @@
       <c r="R179">
         <v>4</v>
       </c>
+      <c r="S179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12262,6 +12801,9 @@
       <c r="R180">
         <v>10</v>
       </c>
+      <c r="S180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12328,6 +12870,9 @@
       <c r="R181">
         <v>9</v>
       </c>
+      <c r="S181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12394,6 +12939,9 @@
       <c r="R182">
         <v>1</v>
       </c>
+      <c r="S182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12460,6 +13008,9 @@
       <c r="R183">
         <v>1</v>
       </c>
+      <c r="S183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12526,6 +13077,9 @@
       <c r="R184">
         <v>0</v>
       </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12592,6 +13146,9 @@
       <c r="R185">
         <v>1</v>
       </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12658,6 +13215,9 @@
       <c r="R186">
         <v>9</v>
       </c>
+      <c r="S186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12724,6 +13284,9 @@
       <c r="R187">
         <v>0</v>
       </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12790,6 +13353,9 @@
       <c r="R188">
         <v>0</v>
       </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12856,6 +13422,9 @@
       <c r="R189">
         <v>0</v>
       </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12922,6 +13491,9 @@
       <c r="R190">
         <v>21</v>
       </c>
+      <c r="S190">
+        <v>21</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12988,6 +13560,9 @@
       <c r="R191">
         <v>17</v>
       </c>
+      <c r="S191">
+        <v>17</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13054,6 +13629,9 @@
       <c r="R192">
         <v>48</v>
       </c>
+      <c r="S192">
+        <v>49</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13120,6 +13698,9 @@
       <c r="R193">
         <v>34</v>
       </c>
+      <c r="S193">
+        <v>35</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13186,6 +13767,9 @@
       <c r="R194">
         <v>20</v>
       </c>
+      <c r="S194">
+        <v>20</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13252,6 +13836,9 @@
       <c r="R195">
         <v>8</v>
       </c>
+      <c r="S195">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13318,6 +13905,9 @@
       <c r="R196">
         <v>37</v>
       </c>
+      <c r="S196">
+        <v>37</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13384,6 +13974,9 @@
       <c r="R197">
         <v>4</v>
       </c>
+      <c r="S197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13450,6 +14043,9 @@
       <c r="R198">
         <v>21</v>
       </c>
+      <c r="S198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13516,6 +14112,9 @@
       <c r="R199">
         <v>2</v>
       </c>
+      <c r="S199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13582,6 +14181,9 @@
       <c r="R200">
         <v>5</v>
       </c>
+      <c r="S200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13648,6 +14250,9 @@
       <c r="R201">
         <v>1</v>
       </c>
+      <c r="S201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13714,6 +14319,9 @@
       <c r="R202">
         <v>1</v>
       </c>
+      <c r="S202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13780,6 +14388,9 @@
       <c r="R203">
         <v>2</v>
       </c>
+      <c r="S203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -13846,6 +14457,9 @@
       <c r="R204">
         <v>0</v>
       </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13912,6 +14526,9 @@
       <c r="R205">
         <v>1</v>
       </c>
+      <c r="S205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13978,6 +14595,9 @@
       <c r="R206">
         <v>0</v>
       </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14044,6 +14664,9 @@
       <c r="R207">
         <v>0</v>
       </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14110,6 +14733,9 @@
       <c r="R208">
         <v>0</v>
       </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14176,6 +14802,9 @@
       <c r="R209">
         <v>0</v>
       </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14242,6 +14871,9 @@
       <c r="R210">
         <v>0</v>
       </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14308,6 +14940,9 @@
       <c r="R211">
         <v>0</v>
       </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14374,6 +15009,9 @@
       <c r="R212">
         <v>2</v>
       </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14440,6 +15078,9 @@
       <c r="R213">
         <v>0</v>
       </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14506,6 +15147,9 @@
       <c r="R214">
         <v>1</v>
       </c>
+      <c r="S214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14572,6 +15216,9 @@
       <c r="R215">
         <v>23</v>
       </c>
+      <c r="S215">
+        <v>23</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14638,6 +15285,9 @@
       <c r="R216">
         <v>151</v>
       </c>
+      <c r="S216">
+        <v>156</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -14704,6 +15354,9 @@
       <c r="R217">
         <v>9</v>
       </c>
+      <c r="S217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14770,6 +15423,9 @@
       <c r="R218">
         <v>11</v>
       </c>
+      <c r="S218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -14836,6 +15492,9 @@
       <c r="R219">
         <v>0</v>
       </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -14902,6 +15561,9 @@
       <c r="R220">
         <v>2</v>
       </c>
+      <c r="S220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -14968,6 +15630,9 @@
       <c r="R221">
         <v>0</v>
       </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15034,6 +15699,9 @@
       <c r="R222">
         <v>0</v>
       </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15100,6 +15768,9 @@
       <c r="R223">
         <v>2</v>
       </c>
+      <c r="S223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15166,6 +15837,9 @@
       <c r="R224">
         <v>7</v>
       </c>
+      <c r="S224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15232,6 +15906,9 @@
       <c r="R225">
         <v>3</v>
       </c>
+      <c r="S225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15298,6 +15975,9 @@
       <c r="R226">
         <v>1</v>
       </c>
+      <c r="S226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15364,6 +16044,9 @@
       <c r="R227">
         <v>1</v>
       </c>
+      <c r="S227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15430,6 +16113,9 @@
       <c r="R228">
         <v>2</v>
       </c>
+      <c r="S228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15496,6 +16182,9 @@
       <c r="R229">
         <v>2</v>
       </c>
+      <c r="S229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15562,6 +16251,9 @@
       <c r="R230">
         <v>0</v>
       </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15628,6 +16320,9 @@
       <c r="R231">
         <v>3</v>
       </c>
+      <c r="S231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15694,6 +16389,9 @@
       <c r="R232">
         <v>6</v>
       </c>
+      <c r="S232">
+        <v>6</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -15760,6 +16458,9 @@
       <c r="R233">
         <v>0</v>
       </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -15826,6 +16527,9 @@
       <c r="R234">
         <v>4</v>
       </c>
+      <c r="S234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -15892,6 +16596,9 @@
       <c r="R235">
         <v>1</v>
       </c>
+      <c r="S235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -15958,6 +16665,9 @@
       <c r="R236">
         <v>1</v>
       </c>
+      <c r="S236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16024,6 +16734,9 @@
       <c r="R237">
         <v>1</v>
       </c>
+      <c r="S237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16090,6 +16803,9 @@
       <c r="R238">
         <v>351</v>
       </c>
+      <c r="S238">
+        <v>356</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16156,6 +16872,9 @@
       <c r="R239">
         <v>8</v>
       </c>
+      <c r="S239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16222,6 +16941,9 @@
       <c r="R240">
         <v>4</v>
       </c>
+      <c r="S240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16288,6 +17010,9 @@
       <c r="R241">
         <v>3</v>
       </c>
+      <c r="S241">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16354,6 +17079,9 @@
       <c r="R242">
         <v>4</v>
       </c>
+      <c r="S242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16420,6 +17148,9 @@
       <c r="R243">
         <v>6</v>
       </c>
+      <c r="S243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16486,6 +17217,9 @@
       <c r="R244">
         <v>7</v>
       </c>
+      <c r="S244">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16552,6 +17286,9 @@
       <c r="R245">
         <v>0</v>
       </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16618,6 +17355,9 @@
       <c r="R246">
         <v>4</v>
       </c>
+      <c r="S246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16684,6 +17424,9 @@
       <c r="R247">
         <v>0</v>
       </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -16750,6 +17493,9 @@
       <c r="R248">
         <v>0</v>
       </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -16816,6 +17562,9 @@
       <c r="R249">
         <v>2</v>
       </c>
+      <c r="S249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -16882,6 +17631,9 @@
       <c r="R250">
         <v>24</v>
       </c>
+      <c r="S250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -16948,6 +17700,9 @@
       <c r="R251">
         <v>9</v>
       </c>
+      <c r="S251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17014,6 +17769,9 @@
       <c r="R252">
         <v>0</v>
       </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -17080,6 +17838,9 @@
       <c r="R253">
         <v>15</v>
       </c>
+      <c r="S253">
+        <v>14</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17146,6 +17907,9 @@
       <c r="R254">
         <v>4</v>
       </c>
+      <c r="S254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17212,6 +17976,9 @@
       <c r="R255">
         <v>40</v>
       </c>
+      <c r="S255">
+        <v>40</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17278,6 +18045,9 @@
       <c r="R256">
         <v>27</v>
       </c>
+      <c r="S256">
+        <v>27</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17344,6 +18114,9 @@
       <c r="R257">
         <v>1</v>
       </c>
+      <c r="S257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17410,6 +18183,9 @@
       <c r="R258">
         <v>0</v>
       </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -17476,6 +18252,9 @@
       <c r="R259">
         <v>0</v>
       </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17542,6 +18321,9 @@
       <c r="R260">
         <v>17</v>
       </c>
+      <c r="S260">
+        <v>17</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -17608,6 +18390,9 @@
       <c r="R261">
         <v>0</v>
       </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -17674,6 +18459,9 @@
       <c r="R262">
         <v>0</v>
       </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -17740,6 +18528,9 @@
       <c r="R263">
         <v>0</v>
       </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -17806,6 +18597,9 @@
       <c r="R264">
         <v>0</v>
       </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -17872,6 +18666,9 @@
       <c r="R265">
         <v>3</v>
       </c>
+      <c r="S265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -17938,6 +18735,9 @@
       <c r="R266">
         <v>0</v>
       </c>
+      <c r="S266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18004,6 +18804,9 @@
       <c r="R267">
         <v>2</v>
       </c>
+      <c r="S267">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18070,6 +18873,9 @@
       <c r="R268">
         <v>0</v>
       </c>
+      <c r="S268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18136,6 +18942,9 @@
       <c r="R269">
         <v>7</v>
       </c>
+      <c r="S269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -18202,6 +19011,9 @@
       <c r="R270">
         <v>0</v>
       </c>
+      <c r="S270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -18268,6 +19080,9 @@
       <c r="R271">
         <v>0</v>
       </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -18334,6 +19149,9 @@
       <c r="R272">
         <v>1</v>
       </c>
+      <c r="S272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -18400,6 +19218,9 @@
       <c r="R273">
         <v>4</v>
       </c>
+      <c r="S273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -18466,6 +19287,9 @@
       <c r="R274">
         <v>0</v>
       </c>
+      <c r="S274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -18532,6 +19356,9 @@
       <c r="R275">
         <v>0</v>
       </c>
+      <c r="S275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -18598,6 +19425,9 @@
       <c r="R276">
         <v>17</v>
       </c>
+      <c r="S276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -18664,6 +19494,9 @@
       <c r="R277">
         <v>0</v>
       </c>
+      <c r="S277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -18730,6 +19563,9 @@
       <c r="R278">
         <v>0</v>
       </c>
+      <c r="S278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -18796,6 +19632,9 @@
       <c r="R279">
         <v>4</v>
       </c>
+      <c r="S279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -18862,6 +19701,9 @@
       <c r="R280">
         <v>11</v>
       </c>
+      <c r="S280">
+        <v>11</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -18928,6 +19770,9 @@
       <c r="R281">
         <v>198</v>
       </c>
+      <c r="S281">
+        <v>200</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -18994,6 +19839,9 @@
       <c r="R282">
         <v>15</v>
       </c>
+      <c r="S282">
+        <v>15</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -19060,6 +19908,9 @@
       <c r="R283">
         <v>5</v>
       </c>
+      <c r="S283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -19126,6 +19977,9 @@
       <c r="R284">
         <v>0</v>
       </c>
+      <c r="S284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -19192,6 +20046,9 @@
       <c r="R285">
         <v>0</v>
       </c>
+      <c r="S285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -19258,6 +20115,9 @@
       <c r="R286">
         <v>8</v>
       </c>
+      <c r="S286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -19324,6 +20184,9 @@
       <c r="R287">
         <v>5</v>
       </c>
+      <c r="S287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -19390,6 +20253,9 @@
       <c r="R288">
         <v>0</v>
       </c>
+      <c r="S288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -19456,6 +20322,9 @@
       <c r="R289">
         <v>1</v>
       </c>
+      <c r="S289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -19522,6 +20391,9 @@
       <c r="R290">
         <v>7</v>
       </c>
+      <c r="S290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -19588,6 +20460,9 @@
       <c r="R291">
         <v>3</v>
       </c>
+      <c r="S291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -19654,6 +20529,9 @@
       <c r="R292">
         <v>5</v>
       </c>
+      <c r="S292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -19720,6 +20598,9 @@
       <c r="R293">
         <v>9</v>
       </c>
+      <c r="S293">
+        <v>9</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -19786,6 +20667,9 @@
       <c r="R294">
         <v>6</v>
       </c>
+      <c r="S294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -19852,6 +20736,9 @@
       <c r="R295">
         <v>0</v>
       </c>
+      <c r="S295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -19918,6 +20805,9 @@
       <c r="R296">
         <v>1</v>
       </c>
+      <c r="S296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -19984,6 +20874,9 @@
       <c r="R297">
         <v>7</v>
       </c>
+      <c r="S297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -20050,6 +20943,9 @@
       <c r="R298">
         <v>28</v>
       </c>
+      <c r="S298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -20116,6 +21012,9 @@
       <c r="R299">
         <v>18</v>
       </c>
+      <c r="S299">
+        <v>18</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -20182,6 +21081,9 @@
       <c r="R300">
         <v>13</v>
       </c>
+      <c r="S300">
+        <v>13</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -20248,6 +21150,9 @@
       <c r="R301">
         <v>0</v>
       </c>
+      <c r="S301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -20314,6 +21219,9 @@
       <c r="R302">
         <v>0</v>
       </c>
+      <c r="S302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -20380,6 +21288,9 @@
       <c r="R303">
         <v>0</v>
       </c>
+      <c r="S303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -20446,6 +21357,9 @@
       <c r="R304">
         <v>0</v>
       </c>
+      <c r="S304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -20512,6 +21426,9 @@
       <c r="R305">
         <v>3</v>
       </c>
+      <c r="S305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -20578,6 +21495,9 @@
       <c r="R306">
         <v>1</v>
       </c>
+      <c r="S306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -20644,6 +21564,9 @@
       <c r="R307">
         <v>4</v>
       </c>
+      <c r="S307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -20710,6 +21633,9 @@
       <c r="R308">
         <v>0</v>
       </c>
+      <c r="S308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -20776,6 +21702,9 @@
       <c r="R309">
         <v>0</v>
       </c>
+      <c r="S309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -20842,6 +21771,9 @@
       <c r="R310">
         <v>7</v>
       </c>
+      <c r="S310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -20908,6 +21840,9 @@
       <c r="R311">
         <v>2</v>
       </c>
+      <c r="S311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -20974,6 +21909,9 @@
       <c r="R312">
         <v>1</v>
       </c>
+      <c r="S312">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -21040,6 +21978,9 @@
       <c r="R313">
         <v>2</v>
       </c>
+      <c r="S313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -21106,6 +22047,9 @@
       <c r="R314">
         <v>10</v>
       </c>
+      <c r="S314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -21172,6 +22116,9 @@
       <c r="R315">
         <v>1</v>
       </c>
+      <c r="S315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -21238,6 +22185,9 @@
       <c r="R316">
         <v>11</v>
       </c>
+      <c r="S316">
+        <v>12</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -21304,6 +22254,9 @@
       <c r="R317">
         <v>0</v>
       </c>
+      <c r="S317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -21370,6 +22323,9 @@
       <c r="R318">
         <v>0</v>
       </c>
+      <c r="S318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -21436,6 +22392,9 @@
       <c r="R319">
         <v>107</v>
       </c>
+      <c r="S319">
+        <v>110</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -21502,6 +22461,9 @@
       <c r="R320">
         <v>4</v>
       </c>
+      <c r="S320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -21568,6 +22530,9 @@
       <c r="R321">
         <v>5</v>
       </c>
+      <c r="S321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -21634,6 +22599,9 @@
       <c r="R322">
         <v>1</v>
       </c>
+      <c r="S322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -21700,6 +22668,9 @@
       <c r="R323">
         <v>3</v>
       </c>
+      <c r="S323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -21766,6 +22737,9 @@
       <c r="R324">
         <v>14</v>
       </c>
+      <c r="S324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -21832,6 +22806,9 @@
       <c r="R325">
         <v>1</v>
       </c>
+      <c r="S325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -21898,6 +22875,9 @@
       <c r="R326">
         <v>1</v>
       </c>
+      <c r="S326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -21964,6 +22944,9 @@
       <c r="R327">
         <v>0</v>
       </c>
+      <c r="S327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -22030,6 +23013,9 @@
       <c r="R328">
         <v>0</v>
       </c>
+      <c r="S328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -22096,6 +23082,9 @@
       <c r="R329">
         <v>3</v>
       </c>
+      <c r="S329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -22162,6 +23151,9 @@
       <c r="R330">
         <v>1</v>
       </c>
+      <c r="S330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -22228,6 +23220,9 @@
       <c r="R331">
         <v>2</v>
       </c>
+      <c r="S331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -22294,6 +23289,9 @@
       <c r="R332">
         <v>0</v>
       </c>
+      <c r="S332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -22360,6 +23358,9 @@
       <c r="R333">
         <v>0</v>
       </c>
+      <c r="S333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -22426,6 +23427,9 @@
       <c r="R334">
         <v>0</v>
       </c>
+      <c r="S334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -22492,6 +23496,9 @@
       <c r="R335">
         <v>16</v>
       </c>
+      <c r="S335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -22558,6 +23565,9 @@
       <c r="R336">
         <v>1</v>
       </c>
+      <c r="S336">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -22624,6 +23634,9 @@
       <c r="R337">
         <v>1</v>
       </c>
+      <c r="S337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -22690,6 +23703,9 @@
       <c r="R338">
         <v>2</v>
       </c>
+      <c r="S338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -22756,6 +23772,9 @@
       <c r="R339">
         <v>0</v>
       </c>
+      <c r="S339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -22822,6 +23841,9 @@
       <c r="R340">
         <v>0</v>
       </c>
+      <c r="S340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -22888,6 +23910,9 @@
       <c r="R341">
         <v>1</v>
       </c>
+      <c r="S341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -22954,6 +23979,9 @@
       <c r="R342">
         <v>2</v>
       </c>
+      <c r="S342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -23020,6 +24048,9 @@
       <c r="R343">
         <v>0</v>
       </c>
+      <c r="S343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -23086,6 +24117,9 @@
       <c r="R344">
         <v>1</v>
       </c>
+      <c r="S344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -23152,6 +24186,9 @@
       <c r="R345">
         <v>0</v>
       </c>
+      <c r="S345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -23218,6 +24255,9 @@
       <c r="R346">
         <v>0</v>
       </c>
+      <c r="S346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -23284,6 +24324,9 @@
       <c r="R347">
         <v>2</v>
       </c>
+      <c r="S347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -23350,6 +24393,9 @@
       <c r="R348">
         <v>2</v>
       </c>
+      <c r="S348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -23416,6 +24462,9 @@
       <c r="R349">
         <v>4</v>
       </c>
+      <c r="S349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -23482,6 +24531,9 @@
       <c r="R350">
         <v>1</v>
       </c>
+      <c r="S350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -23548,6 +24600,9 @@
       <c r="R351">
         <v>0</v>
       </c>
+      <c r="S351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -23614,6 +24669,9 @@
       <c r="R352">
         <v>0</v>
       </c>
+      <c r="S352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -23680,6 +24738,9 @@
       <c r="R353">
         <v>0</v>
       </c>
+      <c r="S353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -23746,6 +24807,9 @@
       <c r="R354">
         <v>1</v>
       </c>
+      <c r="S354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -23812,6 +24876,9 @@
       <c r="R355">
         <v>1</v>
       </c>
+      <c r="S355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -23878,6 +24945,9 @@
       <c r="R356">
         <v>0</v>
       </c>
+      <c r="S356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -23944,6 +25014,9 @@
       <c r="R357">
         <v>4</v>
       </c>
+      <c r="S357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -24010,6 +25083,9 @@
       <c r="R358">
         <v>0</v>
       </c>
+      <c r="S358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -24075,6 +25151,9 @@
       </c>
       <c r="R359">
         <v>2</v>
+      </c>
+      <c r="S359">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S359"/>
+  <dimension ref="A1:T359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,6 +453,11 @@
           <t>2020-04-07</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,9 @@
       <c r="S2">
         <v>1673</v>
       </c>
+      <c r="T2">
+        <v>1730</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -591,6 +599,9 @@
       <c r="S3">
         <v>14</v>
       </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -660,6 +671,9 @@
       <c r="S4">
         <v>125</v>
       </c>
+      <c r="T4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -729,6 +743,9 @@
       <c r="S5">
         <v>49</v>
       </c>
+      <c r="T5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -798,6 +815,9 @@
       <c r="S6">
         <v>45</v>
       </c>
+      <c r="T6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -867,6 +887,9 @@
       <c r="S7">
         <v>3</v>
       </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -936,6 +959,9 @@
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1005,6 +1031,9 @@
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1074,6 +1103,9 @@
       <c r="S10">
         <v>6</v>
       </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1143,6 +1175,9 @@
       <c r="S11">
         <v>6</v>
       </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1212,6 +1247,9 @@
       <c r="S12">
         <v>12</v>
       </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1281,6 +1319,9 @@
       <c r="S13">
         <v>12</v>
       </c>
+      <c r="T13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1350,6 +1391,9 @@
       <c r="S14">
         <v>13</v>
       </c>
+      <c r="T14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1419,6 +1463,9 @@
       <c r="S15">
         <v>11</v>
       </c>
+      <c r="T15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1488,6 +1535,9 @@
       <c r="S16">
         <v>13</v>
       </c>
+      <c r="T16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1557,6 +1607,9 @@
       <c r="S17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1626,6 +1679,9 @@
       <c r="S18">
         <v>0</v>
       </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1695,6 +1751,9 @@
       <c r="S19">
         <v>3</v>
       </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1764,6 +1823,9 @@
       <c r="S20">
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1833,6 +1895,9 @@
       <c r="S21">
         <v>1</v>
       </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1902,6 +1967,9 @@
       <c r="S22">
         <v>19</v>
       </c>
+      <c r="T22">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1971,6 +2039,9 @@
       <c r="S23">
         <v>35</v>
       </c>
+      <c r="T23">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2040,6 +2111,9 @@
       <c r="S24">
         <v>0</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2109,6 +2183,9 @@
       <c r="S25">
         <v>11</v>
       </c>
+      <c r="T25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2178,6 +2255,9 @@
       <c r="S26">
         <v>18</v>
       </c>
+      <c r="T26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2247,6 +2327,9 @@
       <c r="S27">
         <v>14</v>
       </c>
+      <c r="T27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2316,6 +2399,9 @@
       <c r="S28">
         <v>24</v>
       </c>
+      <c r="T28">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2385,6 +2471,9 @@
       <c r="S29">
         <v>1</v>
       </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2454,6 +2543,9 @@
       <c r="S30">
         <v>4</v>
       </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2523,6 +2615,9 @@
       <c r="S31">
         <v>3</v>
       </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2592,6 +2687,9 @@
       <c r="S32">
         <v>7</v>
       </c>
+      <c r="T32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2661,6 +2759,9 @@
       <c r="S33">
         <v>2</v>
       </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2730,6 +2831,9 @@
       <c r="S34">
         <v>6</v>
       </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2799,6 +2903,9 @@
       <c r="S35">
         <v>0</v>
       </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2868,6 +2975,9 @@
       <c r="S36">
         <v>0</v>
       </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2937,6 +3047,9 @@
       <c r="S37">
         <v>6</v>
       </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3006,6 +3119,9 @@
       <c r="S38">
         <v>5</v>
       </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3075,6 +3191,9 @@
       <c r="S39">
         <v>0</v>
       </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3144,6 +3263,9 @@
       <c r="S40">
         <v>10</v>
       </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3213,6 +3335,9 @@
       <c r="S41">
         <v>0</v>
       </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3282,6 +3407,9 @@
       <c r="S42">
         <v>0</v>
       </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3351,6 +3479,9 @@
       <c r="S43">
         <v>0</v>
       </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3420,6 +3551,9 @@
       <c r="S44">
         <v>1</v>
       </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3489,6 +3623,9 @@
       <c r="S45">
         <v>2</v>
       </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3558,6 +3695,9 @@
       <c r="S46">
         <v>2</v>
       </c>
+      <c r="T46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3627,6 +3767,9 @@
       <c r="S47">
         <v>0</v>
       </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3696,6 +3839,9 @@
       <c r="S48">
         <v>3</v>
       </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3765,6 +3911,9 @@
       <c r="S49">
         <v>4</v>
       </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3834,6 +3983,9 @@
       <c r="S50">
         <v>1</v>
       </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3903,6 +4055,9 @@
       <c r="S51">
         <v>2</v>
       </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3972,6 +4127,9 @@
       <c r="S52">
         <v>28</v>
       </c>
+      <c r="T52">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4041,6 +4199,9 @@
       <c r="S53">
         <v>2</v>
       </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4110,6 +4271,9 @@
       <c r="S54">
         <v>0</v>
       </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4179,6 +4343,9 @@
       <c r="S55">
         <v>2</v>
       </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4248,6 +4415,9 @@
       <c r="S56">
         <v>4</v>
       </c>
+      <c r="T56">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4317,6 +4487,9 @@
       <c r="S57">
         <v>3</v>
       </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4386,6 +4559,9 @@
       <c r="S58">
         <v>0</v>
       </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4455,6 +4631,9 @@
       <c r="S59">
         <v>0</v>
       </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4524,6 +4703,9 @@
       <c r="S60">
         <v>2</v>
       </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4593,6 +4775,9 @@
       <c r="S61">
         <v>3</v>
       </c>
+      <c r="T61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4662,6 +4847,9 @@
       <c r="S62">
         <v>1</v>
       </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4731,6 +4919,9 @@
       <c r="S63">
         <v>1</v>
       </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4800,6 +4991,9 @@
       <c r="S64">
         <v>0</v>
       </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4869,6 +5063,9 @@
       <c r="S65">
         <v>5</v>
       </c>
+      <c r="T65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4938,6 +5135,9 @@
       <c r="S66">
         <v>0</v>
       </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5007,6 +5207,9 @@
       <c r="S67">
         <v>0</v>
       </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5076,6 +5279,9 @@
       <c r="S68">
         <v>5</v>
       </c>
+      <c r="T68">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5145,6 +5351,9 @@
       <c r="S69">
         <v>0</v>
       </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5214,6 +5423,9 @@
       <c r="S70">
         <v>0</v>
       </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5283,6 +5495,9 @@
       <c r="S71">
         <v>0</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5352,6 +5567,9 @@
       <c r="S72">
         <v>4</v>
       </c>
+      <c r="T72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5421,6 +5639,9 @@
       <c r="S73">
         <v>0</v>
       </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5490,6 +5711,9 @@
       <c r="S74">
         <v>0</v>
       </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5559,6 +5783,9 @@
       <c r="S75">
         <v>0</v>
       </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5628,6 +5855,9 @@
       <c r="S76">
         <v>1</v>
       </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5697,6 +5927,9 @@
       <c r="S77">
         <v>0</v>
       </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5766,6 +5999,9 @@
       <c r="S78">
         <v>1</v>
       </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5835,6 +6071,9 @@
       <c r="S79">
         <v>0</v>
       </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5904,6 +6143,9 @@
       <c r="S80">
         <v>0</v>
       </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5973,6 +6215,9 @@
       <c r="S81">
         <v>0</v>
       </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6042,6 +6287,9 @@
       <c r="S82">
         <v>0</v>
       </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6111,6 +6359,9 @@
       <c r="S83">
         <v>1</v>
       </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6180,6 +6431,9 @@
       <c r="S84">
         <v>3</v>
       </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6249,6 +6503,9 @@
       <c r="S85">
         <v>3</v>
       </c>
+      <c r="T85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6318,6 +6575,9 @@
       <c r="S86">
         <v>5</v>
       </c>
+      <c r="T86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6387,6 +6647,9 @@
       <c r="S87">
         <v>0</v>
       </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6456,6 +6719,9 @@
       <c r="S88">
         <v>0</v>
       </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6525,6 +6791,9 @@
       <c r="S89">
         <v>3</v>
       </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6594,6 +6863,9 @@
       <c r="S90">
         <v>0</v>
       </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6663,6 +6935,9 @@
       <c r="S91">
         <v>0</v>
       </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6732,6 +7007,9 @@
       <c r="S92">
         <v>0</v>
       </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6801,6 +7079,9 @@
       <c r="S93">
         <v>24</v>
       </c>
+      <c r="T93">
+        <v>25</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6870,6 +7151,9 @@
       <c r="S94">
         <v>78</v>
       </c>
+      <c r="T94">
+        <v>80</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6939,6 +7223,9 @@
       <c r="S95">
         <v>40</v>
       </c>
+      <c r="T95">
+        <v>43</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7008,6 +7295,9 @@
       <c r="S96">
         <v>69</v>
       </c>
+      <c r="T96">
+        <v>71</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7077,6 +7367,9 @@
       <c r="S97">
         <v>140</v>
       </c>
+      <c r="T97">
+        <v>140</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7146,6 +7439,9 @@
       <c r="S98">
         <v>19</v>
       </c>
+      <c r="T98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7215,6 +7511,9 @@
       <c r="S99">
         <v>6</v>
       </c>
+      <c r="T99">
+        <v>6</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7284,6 +7583,9 @@
       <c r="S100">
         <v>2</v>
       </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7353,6 +7655,9 @@
       <c r="S101">
         <v>2</v>
       </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7422,6 +7727,9 @@
       <c r="S102">
         <v>1</v>
       </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7491,6 +7799,9 @@
       <c r="S103">
         <v>44</v>
       </c>
+      <c r="T103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7560,6 +7871,9 @@
       <c r="S104">
         <v>1</v>
       </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7629,6 +7943,9 @@
       <c r="S105">
         <v>1</v>
       </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7698,6 +8015,9 @@
       <c r="S106">
         <v>2</v>
       </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7767,6 +8087,9 @@
       <c r="S107">
         <v>5</v>
       </c>
+      <c r="T107">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7836,6 +8159,9 @@
       <c r="S108">
         <v>22</v>
       </c>
+      <c r="T108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7905,6 +8231,9 @@
       <c r="S109">
         <v>88</v>
       </c>
+      <c r="T109">
+        <v>88</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7974,6 +8303,9 @@
       <c r="S110">
         <v>16</v>
       </c>
+      <c r="T110">
+        <v>16</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8043,6 +8375,9 @@
       <c r="S111">
         <v>16</v>
       </c>
+      <c r="T111">
+        <v>17</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8112,6 +8447,9 @@
       <c r="S112">
         <v>44</v>
       </c>
+      <c r="T112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8181,6 +8519,9 @@
       <c r="S113">
         <v>327</v>
       </c>
+      <c r="T113">
+        <v>335</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8250,6 +8591,9 @@
       <c r="S114">
         <v>138</v>
       </c>
+      <c r="T114">
+        <v>142</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8319,6 +8663,9 @@
       <c r="S115">
         <v>5</v>
       </c>
+      <c r="T115">
+        <v>6</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8388,6 +8735,9 @@
       <c r="S116">
         <v>19</v>
       </c>
+      <c r="T116">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8457,6 +8807,9 @@
       <c r="S117">
         <v>31</v>
       </c>
+      <c r="T117">
+        <v>32</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8526,6 +8879,9 @@
       <c r="S118">
         <v>71</v>
       </c>
+      <c r="T118">
+        <v>71</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8595,6 +8951,9 @@
       <c r="S119">
         <v>120</v>
       </c>
+      <c r="T119">
+        <v>122</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8664,6 +9023,9 @@
       <c r="S120">
         <v>44</v>
       </c>
+      <c r="T120">
+        <v>44</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8733,6 +9095,9 @@
       <c r="S121">
         <v>8</v>
       </c>
+      <c r="T121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8802,6 +9167,9 @@
       <c r="S122">
         <v>48</v>
       </c>
+      <c r="T122">
+        <v>48</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8871,6 +9239,9 @@
       <c r="S123">
         <v>13</v>
       </c>
+      <c r="T123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8940,6 +9311,9 @@
       <c r="S124">
         <v>28</v>
       </c>
+      <c r="T124">
+        <v>28</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9009,6 +9383,9 @@
       <c r="S125">
         <v>16</v>
       </c>
+      <c r="T125">
+        <v>16</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9078,6 +9455,9 @@
       <c r="S126">
         <v>2</v>
       </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9147,6 +9527,9 @@
       <c r="S127">
         <v>10</v>
       </c>
+      <c r="T127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9216,6 +9599,9 @@
       <c r="S128">
         <v>1</v>
       </c>
+      <c r="T128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9285,6 +9671,9 @@
       <c r="S129">
         <v>15</v>
       </c>
+      <c r="T129">
+        <v>15</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9354,6 +9743,9 @@
       <c r="S130">
         <v>9</v>
       </c>
+      <c r="T130">
+        <v>9</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9423,6 +9815,9 @@
       <c r="S131">
         <v>8</v>
       </c>
+      <c r="T131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9492,6 +9887,9 @@
       <c r="S132">
         <v>13</v>
       </c>
+      <c r="T132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9561,6 +9959,9 @@
       <c r="S133">
         <v>43</v>
       </c>
+      <c r="T133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9630,6 +10031,9 @@
       <c r="S134">
         <v>0</v>
       </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9699,6 +10103,9 @@
       <c r="S135">
         <v>0</v>
       </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9768,6 +10175,9 @@
       <c r="S136">
         <v>10</v>
       </c>
+      <c r="T136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9837,6 +10247,9 @@
       <c r="S137">
         <v>4</v>
       </c>
+      <c r="T137">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9906,6 +10319,9 @@
       <c r="S138">
         <v>25</v>
       </c>
+      <c r="T138">
+        <v>27</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9975,6 +10391,9 @@
       <c r="S139">
         <v>1</v>
       </c>
+      <c r="T139">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10044,6 +10463,9 @@
       <c r="S140">
         <v>1</v>
       </c>
+      <c r="T140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10113,6 +10535,9 @@
       <c r="S141">
         <v>2</v>
       </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10182,6 +10607,9 @@
       <c r="S142">
         <v>5</v>
       </c>
+      <c r="T142">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10251,6 +10679,9 @@
       <c r="S143">
         <v>9</v>
       </c>
+      <c r="T143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10320,6 +10751,9 @@
       <c r="S144">
         <v>1</v>
       </c>
+      <c r="T144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10389,6 +10823,9 @@
       <c r="S145">
         <v>71</v>
       </c>
+      <c r="T145">
+        <v>74</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10458,6 +10895,9 @@
       <c r="S146">
         <v>30</v>
       </c>
+      <c r="T146">
+        <v>31</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10527,6 +10967,9 @@
       <c r="S147">
         <v>14</v>
       </c>
+      <c r="T147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10596,6 +11039,9 @@
       <c r="S148">
         <v>56</v>
       </c>
+      <c r="T148">
+        <v>56</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10665,6 +11111,9 @@
       <c r="S149">
         <v>11</v>
       </c>
+      <c r="T149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10734,6 +11183,9 @@
       <c r="S150">
         <v>31</v>
       </c>
+      <c r="T150">
+        <v>31</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10803,6 +11255,9 @@
       <c r="S151">
         <v>0</v>
       </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10872,6 +11327,9 @@
       <c r="S152">
         <v>13</v>
       </c>
+      <c r="T152">
+        <v>13</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10941,6 +11399,9 @@
       <c r="S153">
         <v>3</v>
       </c>
+      <c r="T153">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11010,6 +11471,9 @@
       <c r="S154">
         <v>5</v>
       </c>
+      <c r="T154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11079,6 +11543,9 @@
       <c r="S155">
         <v>3</v>
       </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11148,6 +11615,9 @@
       <c r="S156">
         <v>2</v>
       </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11217,6 +11687,9 @@
       <c r="S157">
         <v>11</v>
       </c>
+      <c r="T157">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11286,6 +11759,9 @@
       <c r="S158">
         <v>2</v>
       </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11355,6 +11831,9 @@
       <c r="S159">
         <v>4</v>
       </c>
+      <c r="T159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11424,6 +11903,9 @@
       <c r="S160">
         <v>0</v>
       </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11493,6 +11975,9 @@
       <c r="S161">
         <v>0</v>
       </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11562,6 +12047,9 @@
       <c r="S162">
         <v>2</v>
       </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11631,6 +12119,9 @@
       <c r="S163">
         <v>0</v>
       </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11700,6 +12191,9 @@
       <c r="S164">
         <v>0</v>
       </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11769,6 +12263,9 @@
       <c r="S165">
         <v>1</v>
       </c>
+      <c r="T165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11838,6 +12335,9 @@
       <c r="S166">
         <v>0</v>
       </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11907,6 +12407,9 @@
       <c r="S167">
         <v>0</v>
       </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11976,6 +12479,9 @@
       <c r="S168">
         <v>5</v>
       </c>
+      <c r="T168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12045,6 +12551,9 @@
       <c r="S169">
         <v>2</v>
       </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12114,6 +12623,9 @@
       <c r="S170">
         <v>1</v>
       </c>
+      <c r="T170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12183,6 +12695,9 @@
       <c r="S171">
         <v>3</v>
       </c>
+      <c r="T171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12252,6 +12767,9 @@
       <c r="S172">
         <v>1</v>
       </c>
+      <c r="T172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12321,6 +12839,9 @@
       <c r="S173">
         <v>13</v>
       </c>
+      <c r="T173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12390,6 +12911,9 @@
       <c r="S174">
         <v>36</v>
       </c>
+      <c r="T174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12459,6 +12983,9 @@
       <c r="S175">
         <v>1</v>
       </c>
+      <c r="T175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -12528,6 +13055,9 @@
       <c r="S176">
         <v>8</v>
       </c>
+      <c r="T176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -12597,6 +13127,9 @@
       <c r="S177">
         <v>2</v>
       </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12666,6 +13199,9 @@
       <c r="S178">
         <v>5</v>
       </c>
+      <c r="T178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12735,6 +13271,9 @@
       <c r="S179">
         <v>4</v>
       </c>
+      <c r="T179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12804,6 +13343,9 @@
       <c r="S180">
         <v>10</v>
       </c>
+      <c r="T180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12873,6 +13415,9 @@
       <c r="S181">
         <v>9</v>
       </c>
+      <c r="T181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12942,6 +13487,9 @@
       <c r="S182">
         <v>2</v>
       </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13011,6 +13559,9 @@
       <c r="S183">
         <v>1</v>
       </c>
+      <c r="T183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13080,6 +13631,9 @@
       <c r="S184">
         <v>0</v>
       </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13149,6 +13703,9 @@
       <c r="S185">
         <v>1</v>
       </c>
+      <c r="T185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13218,6 +13775,9 @@
       <c r="S186">
         <v>9</v>
       </c>
+      <c r="T186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13287,6 +13847,9 @@
       <c r="S187">
         <v>0</v>
       </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13356,6 +13919,9 @@
       <c r="S188">
         <v>0</v>
       </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13425,6 +13991,9 @@
       <c r="S189">
         <v>0</v>
       </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13494,6 +14063,9 @@
       <c r="S190">
         <v>21</v>
       </c>
+      <c r="T190">
+        <v>21</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13563,6 +14135,9 @@
       <c r="S191">
         <v>17</v>
       </c>
+      <c r="T191">
+        <v>17</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13632,6 +14207,9 @@
       <c r="S192">
         <v>49</v>
       </c>
+      <c r="T192">
+        <v>51</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13701,6 +14279,9 @@
       <c r="S193">
         <v>35</v>
       </c>
+      <c r="T193">
+        <v>35</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13770,6 +14351,9 @@
       <c r="S194">
         <v>20</v>
       </c>
+      <c r="T194">
+        <v>26</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13839,6 +14423,9 @@
       <c r="S195">
         <v>8</v>
       </c>
+      <c r="T195">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13908,6 +14495,9 @@
       <c r="S196">
         <v>37</v>
       </c>
+      <c r="T196">
+        <v>37</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13977,6 +14567,9 @@
       <c r="S197">
         <v>4</v>
       </c>
+      <c r="T197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14046,6 +14639,9 @@
       <c r="S198">
         <v>21</v>
       </c>
+      <c r="T198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14115,6 +14711,9 @@
       <c r="S199">
         <v>2</v>
       </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14184,6 +14783,9 @@
       <c r="S200">
         <v>5</v>
       </c>
+      <c r="T200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14253,6 +14855,9 @@
       <c r="S201">
         <v>1</v>
       </c>
+      <c r="T201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14322,6 +14927,9 @@
       <c r="S202">
         <v>1</v>
       </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14391,6 +14999,9 @@
       <c r="S203">
         <v>2</v>
       </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14460,6 +15071,9 @@
       <c r="S204">
         <v>0</v>
       </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14529,6 +15143,9 @@
       <c r="S205">
         <v>1</v>
       </c>
+      <c r="T205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14598,6 +15215,9 @@
       <c r="S206">
         <v>0</v>
       </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14667,6 +15287,9 @@
       <c r="S207">
         <v>0</v>
       </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14736,6 +15359,9 @@
       <c r="S208">
         <v>0</v>
       </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14805,6 +15431,9 @@
       <c r="S209">
         <v>0</v>
       </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14874,6 +15503,9 @@
       <c r="S210">
         <v>0</v>
       </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14943,6 +15575,9 @@
       <c r="S211">
         <v>0</v>
       </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15012,6 +15647,9 @@
       <c r="S212">
         <v>2</v>
       </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15081,6 +15719,9 @@
       <c r="S213">
         <v>0</v>
       </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15150,6 +15791,9 @@
       <c r="S214">
         <v>1</v>
       </c>
+      <c r="T214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15219,6 +15863,9 @@
       <c r="S215">
         <v>23</v>
       </c>
+      <c r="T215">
+        <v>24</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15288,6 +15935,9 @@
       <c r="S216">
         <v>156</v>
       </c>
+      <c r="T216">
+        <v>162</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15357,6 +16007,9 @@
       <c r="S217">
         <v>9</v>
       </c>
+      <c r="T217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15426,6 +16079,9 @@
       <c r="S218">
         <v>11</v>
       </c>
+      <c r="T218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15495,6 +16151,9 @@
       <c r="S219">
         <v>0</v>
       </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15564,6 +16223,9 @@
       <c r="S220">
         <v>2</v>
       </c>
+      <c r="T220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15633,6 +16295,9 @@
       <c r="S221">
         <v>0</v>
       </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15702,6 +16367,9 @@
       <c r="S222">
         <v>0</v>
       </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15771,6 +16439,9 @@
       <c r="S223">
         <v>2</v>
       </c>
+      <c r="T223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15840,6 +16511,9 @@
       <c r="S224">
         <v>7</v>
       </c>
+      <c r="T224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15909,6 +16583,9 @@
       <c r="S225">
         <v>3</v>
       </c>
+      <c r="T225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15978,6 +16655,9 @@
       <c r="S226">
         <v>1</v>
       </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16047,6 +16727,9 @@
       <c r="S227">
         <v>1</v>
       </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16116,6 +16799,9 @@
       <c r="S228">
         <v>2</v>
       </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16185,6 +16871,9 @@
       <c r="S229">
         <v>2</v>
       </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16254,6 +16943,9 @@
       <c r="S230">
         <v>0</v>
       </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16323,6 +17015,9 @@
       <c r="S231">
         <v>3</v>
       </c>
+      <c r="T231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16392,6 +17087,9 @@
       <c r="S232">
         <v>6</v>
       </c>
+      <c r="T232">
+        <v>6</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16461,6 +17159,9 @@
       <c r="S233">
         <v>0</v>
       </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16530,6 +17231,9 @@
       <c r="S234">
         <v>4</v>
       </c>
+      <c r="T234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16599,6 +17303,9 @@
       <c r="S235">
         <v>1</v>
       </c>
+      <c r="T235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16668,6 +17375,9 @@
       <c r="S236">
         <v>1</v>
       </c>
+      <c r="T236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16737,6 +17447,9 @@
       <c r="S237">
         <v>1</v>
       </c>
+      <c r="T237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16806,6 +17519,9 @@
       <c r="S238">
         <v>356</v>
       </c>
+      <c r="T238">
+        <v>379</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16875,6 +17591,9 @@
       <c r="S239">
         <v>8</v>
       </c>
+      <c r="T239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16944,6 +17663,9 @@
       <c r="S240">
         <v>4</v>
       </c>
+      <c r="T240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -17013,6 +17735,9 @@
       <c r="S241">
         <v>3</v>
       </c>
+      <c r="T241">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -17082,6 +17807,9 @@
       <c r="S242">
         <v>4</v>
       </c>
+      <c r="T242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -17151,6 +17879,9 @@
       <c r="S243">
         <v>6</v>
       </c>
+      <c r="T243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17220,6 +17951,9 @@
       <c r="S244">
         <v>7</v>
       </c>
+      <c r="T244">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -17289,6 +18023,9 @@
       <c r="S245">
         <v>0</v>
       </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -17358,6 +18095,9 @@
       <c r="S246">
         <v>4</v>
       </c>
+      <c r="T246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -17427,6 +18167,9 @@
       <c r="S247">
         <v>0</v>
       </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17496,6 +18239,9 @@
       <c r="S248">
         <v>0</v>
       </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -17565,6 +18311,9 @@
       <c r="S249">
         <v>2</v>
       </c>
+      <c r="T249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -17634,6 +18383,9 @@
       <c r="S250">
         <v>24</v>
       </c>
+      <c r="T250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17703,6 +18455,9 @@
       <c r="S251">
         <v>9</v>
       </c>
+      <c r="T251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17772,6 +18527,9 @@
       <c r="S252">
         <v>0</v>
       </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -17841,6 +18599,9 @@
       <c r="S253">
         <v>14</v>
       </c>
+      <c r="T253">
+        <v>16</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17910,6 +18671,9 @@
       <c r="S254">
         <v>4</v>
       </c>
+      <c r="T254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17979,6 +18743,9 @@
       <c r="S255">
         <v>40</v>
       </c>
+      <c r="T255">
+        <v>40</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -18048,6 +18815,9 @@
       <c r="S256">
         <v>27</v>
       </c>
+      <c r="T256">
+        <v>27</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -18117,6 +18887,9 @@
       <c r="S257">
         <v>1</v>
       </c>
+      <c r="T257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -18186,6 +18959,9 @@
       <c r="S258">
         <v>0</v>
       </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -18255,6 +19031,9 @@
       <c r="S259">
         <v>0</v>
       </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -18324,6 +19103,9 @@
       <c r="S260">
         <v>17</v>
       </c>
+      <c r="T260">
+        <v>17</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -18393,6 +19175,9 @@
       <c r="S261">
         <v>0</v>
       </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -18462,6 +19247,9 @@
       <c r="S262">
         <v>0</v>
       </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -18531,6 +19319,9 @@
       <c r="S263">
         <v>0</v>
       </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -18600,6 +19391,9 @@
       <c r="S264">
         <v>0</v>
       </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -18669,6 +19463,9 @@
       <c r="S265">
         <v>3</v>
       </c>
+      <c r="T265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -18738,6 +19535,9 @@
       <c r="S266">
         <v>0</v>
       </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18807,6 +19607,9 @@
       <c r="S267">
         <v>1</v>
       </c>
+      <c r="T267">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18876,6 +19679,9 @@
       <c r="S268">
         <v>0</v>
       </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18945,6 +19751,9 @@
       <c r="S269">
         <v>7</v>
       </c>
+      <c r="T269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -19014,6 +19823,9 @@
       <c r="S270">
         <v>0</v>
       </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -19083,6 +19895,9 @@
       <c r="S271">
         <v>0</v>
       </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -19152,6 +19967,9 @@
       <c r="S272">
         <v>1</v>
       </c>
+      <c r="T272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -19221,6 +20039,9 @@
       <c r="S273">
         <v>4</v>
       </c>
+      <c r="T273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -19290,6 +20111,9 @@
       <c r="S274">
         <v>0</v>
       </c>
+      <c r="T274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -19359,6 +20183,9 @@
       <c r="S275">
         <v>0</v>
       </c>
+      <c r="T275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -19428,6 +20255,9 @@
       <c r="S276">
         <v>17</v>
       </c>
+      <c r="T276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -19497,6 +20327,9 @@
       <c r="S277">
         <v>0</v>
       </c>
+      <c r="T277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -19566,6 +20399,9 @@
       <c r="S278">
         <v>0</v>
       </c>
+      <c r="T278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -19635,6 +20471,9 @@
       <c r="S279">
         <v>4</v>
       </c>
+      <c r="T279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -19704,6 +20543,9 @@
       <c r="S280">
         <v>11</v>
       </c>
+      <c r="T280">
+        <v>11</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -19773,6 +20615,9 @@
       <c r="S281">
         <v>200</v>
       </c>
+      <c r="T281">
+        <v>201</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -19842,6 +20687,9 @@
       <c r="S282">
         <v>15</v>
       </c>
+      <c r="T282">
+        <v>15</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -19911,6 +20759,9 @@
       <c r="S283">
         <v>5</v>
       </c>
+      <c r="T283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -19980,6 +20831,9 @@
       <c r="S284">
         <v>0</v>
       </c>
+      <c r="T284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -20049,6 +20903,9 @@
       <c r="S285">
         <v>0</v>
       </c>
+      <c r="T285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -20118,6 +20975,9 @@
       <c r="S286">
         <v>8</v>
       </c>
+      <c r="T286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -20187,6 +21047,9 @@
       <c r="S287">
         <v>5</v>
       </c>
+      <c r="T287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -20256,6 +21119,9 @@
       <c r="S288">
         <v>0</v>
       </c>
+      <c r="T288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -20325,6 +21191,9 @@
       <c r="S289">
         <v>1</v>
       </c>
+      <c r="T289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -20394,6 +21263,9 @@
       <c r="S290">
         <v>7</v>
       </c>
+      <c r="T290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -20463,6 +21335,9 @@
       <c r="S291">
         <v>3</v>
       </c>
+      <c r="T291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -20532,6 +21407,9 @@
       <c r="S292">
         <v>5</v>
       </c>
+      <c r="T292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -20601,6 +21479,9 @@
       <c r="S293">
         <v>9</v>
       </c>
+      <c r="T293">
+        <v>9</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -20670,6 +21551,9 @@
       <c r="S294">
         <v>6</v>
       </c>
+      <c r="T294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -20739,6 +21623,9 @@
       <c r="S295">
         <v>0</v>
       </c>
+      <c r="T295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -20808,6 +21695,9 @@
       <c r="S296">
         <v>1</v>
       </c>
+      <c r="T296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -20877,6 +21767,9 @@
       <c r="S297">
         <v>7</v>
       </c>
+      <c r="T297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -20946,6 +21839,9 @@
       <c r="S298">
         <v>28</v>
       </c>
+      <c r="T298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -21015,6 +21911,9 @@
       <c r="S299">
         <v>18</v>
       </c>
+      <c r="T299">
+        <v>18</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -21084,6 +21983,9 @@
       <c r="S300">
         <v>13</v>
       </c>
+      <c r="T300">
+        <v>13</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -21153,6 +22055,9 @@
       <c r="S301">
         <v>0</v>
       </c>
+      <c r="T301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -21222,6 +22127,9 @@
       <c r="S302">
         <v>0</v>
       </c>
+      <c r="T302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -21291,6 +22199,9 @@
       <c r="S303">
         <v>0</v>
       </c>
+      <c r="T303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -21360,6 +22271,9 @@
       <c r="S304">
         <v>0</v>
       </c>
+      <c r="T304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -21429,6 +22343,9 @@
       <c r="S305">
         <v>3</v>
       </c>
+      <c r="T305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -21498,6 +22415,9 @@
       <c r="S306">
         <v>1</v>
       </c>
+      <c r="T306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -21567,6 +22487,9 @@
       <c r="S307">
         <v>4</v>
       </c>
+      <c r="T307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -21636,6 +22559,9 @@
       <c r="S308">
         <v>0</v>
       </c>
+      <c r="T308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -21705,6 +22631,9 @@
       <c r="S309">
         <v>0</v>
       </c>
+      <c r="T309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -21774,6 +22703,9 @@
       <c r="S310">
         <v>7</v>
       </c>
+      <c r="T310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -21843,6 +22775,9 @@
       <c r="S311">
         <v>2</v>
       </c>
+      <c r="T311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -21912,6 +22847,9 @@
       <c r="S312">
         <v>1</v>
       </c>
+      <c r="T312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -21981,6 +22919,9 @@
       <c r="S313">
         <v>2</v>
       </c>
+      <c r="T313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -22050,6 +22991,9 @@
       <c r="S314">
         <v>10</v>
       </c>
+      <c r="T314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -22119,6 +23063,9 @@
       <c r="S315">
         <v>1</v>
       </c>
+      <c r="T315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -22188,6 +23135,9 @@
       <c r="S316">
         <v>12</v>
       </c>
+      <c r="T316">
+        <v>12</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -22257,6 +23207,9 @@
       <c r="S317">
         <v>0</v>
       </c>
+      <c r="T317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -22326,6 +23279,9 @@
       <c r="S318">
         <v>0</v>
       </c>
+      <c r="T318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -22395,6 +23351,9 @@
       <c r="S319">
         <v>110</v>
       </c>
+      <c r="T319">
+        <v>111</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -22464,6 +23423,9 @@
       <c r="S320">
         <v>4</v>
       </c>
+      <c r="T320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -22533,6 +23495,9 @@
       <c r="S321">
         <v>5</v>
       </c>
+      <c r="T321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -22602,6 +23567,9 @@
       <c r="S322">
         <v>1</v>
       </c>
+      <c r="T322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -22671,6 +23639,9 @@
       <c r="S323">
         <v>3</v>
       </c>
+      <c r="T323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -22740,6 +23711,9 @@
       <c r="S324">
         <v>14</v>
       </c>
+      <c r="T324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -22809,6 +23783,9 @@
       <c r="S325">
         <v>1</v>
       </c>
+      <c r="T325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -22878,6 +23855,9 @@
       <c r="S326">
         <v>1</v>
       </c>
+      <c r="T326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -22947,6 +23927,9 @@
       <c r="S327">
         <v>0</v>
       </c>
+      <c r="T327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -23016,6 +23999,9 @@
       <c r="S328">
         <v>0</v>
       </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -23085,6 +24071,9 @@
       <c r="S329">
         <v>3</v>
       </c>
+      <c r="T329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -23154,6 +24143,9 @@
       <c r="S330">
         <v>1</v>
       </c>
+      <c r="T330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -23223,6 +24215,9 @@
       <c r="S331">
         <v>2</v>
       </c>
+      <c r="T331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -23292,6 +24287,9 @@
       <c r="S332">
         <v>0</v>
       </c>
+      <c r="T332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -23361,6 +24359,9 @@
       <c r="S333">
         <v>0</v>
       </c>
+      <c r="T333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -23430,6 +24431,9 @@
       <c r="S334">
         <v>0</v>
       </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -23499,6 +24503,9 @@
       <c r="S335">
         <v>16</v>
       </c>
+      <c r="T335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -23568,6 +24575,9 @@
       <c r="S336">
         <v>1</v>
       </c>
+      <c r="T336">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -23637,6 +24647,9 @@
       <c r="S337">
         <v>1</v>
       </c>
+      <c r="T337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -23706,6 +24719,9 @@
       <c r="S338">
         <v>2</v>
       </c>
+      <c r="T338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -23775,6 +24791,9 @@
       <c r="S339">
         <v>0</v>
       </c>
+      <c r="T339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -23844,6 +24863,9 @@
       <c r="S340">
         <v>0</v>
       </c>
+      <c r="T340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -23913,6 +24935,9 @@
       <c r="S341">
         <v>1</v>
       </c>
+      <c r="T341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -23982,6 +25007,9 @@
       <c r="S342">
         <v>2</v>
       </c>
+      <c r="T342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -24051,6 +25079,9 @@
       <c r="S343">
         <v>0</v>
       </c>
+      <c r="T343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -24120,6 +25151,9 @@
       <c r="S344">
         <v>1</v>
       </c>
+      <c r="T344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -24189,6 +25223,9 @@
       <c r="S345">
         <v>0</v>
       </c>
+      <c r="T345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -24258,6 +25295,9 @@
       <c r="S346">
         <v>0</v>
       </c>
+      <c r="T346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -24327,6 +25367,9 @@
       <c r="S347">
         <v>2</v>
       </c>
+      <c r="T347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -24396,6 +25439,9 @@
       <c r="S348">
         <v>2</v>
       </c>
+      <c r="T348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -24465,6 +25511,9 @@
       <c r="S349">
         <v>4</v>
       </c>
+      <c r="T349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -24534,6 +25583,9 @@
       <c r="S350">
         <v>1</v>
       </c>
+      <c r="T350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -24603,6 +25655,9 @@
       <c r="S351">
         <v>0</v>
       </c>
+      <c r="T351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -24672,6 +25727,9 @@
       <c r="S352">
         <v>0</v>
       </c>
+      <c r="T352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -24741,6 +25799,9 @@
       <c r="S353">
         <v>0</v>
       </c>
+      <c r="T353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -24810,6 +25871,9 @@
       <c r="S354">
         <v>1</v>
       </c>
+      <c r="T354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -24879,6 +25943,9 @@
       <c r="S355">
         <v>1</v>
       </c>
+      <c r="T355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -24948,6 +26015,9 @@
       <c r="S356">
         <v>0</v>
       </c>
+      <c r="T356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -25017,6 +26087,9 @@
       <c r="S357">
         <v>4</v>
       </c>
+      <c r="T357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -25086,6 +26159,9 @@
       <c r="S358">
         <v>0</v>
       </c>
+      <c r="T358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -25153,6 +26229,9 @@
         <v>2</v>
       </c>
       <c r="S359">
+        <v>1</v>
+      </c>
+      <c r="T359">
         <v>1</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T359"/>
+  <dimension ref="A1:U359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,6 +458,11 @@
           <t>2020-04-08</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -530,6 +535,9 @@
       <c r="T2">
         <v>1730</v>
       </c>
+      <c r="U2">
+        <v>1780</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
       <c r="T3">
         <v>14</v>
       </c>
+      <c r="U3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -674,6 +685,9 @@
       <c r="T4">
         <v>125</v>
       </c>
+      <c r="U4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -746,6 +760,9 @@
       <c r="T5">
         <v>49</v>
       </c>
+      <c r="U5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -818,6 +835,9 @@
       <c r="T6">
         <v>46</v>
       </c>
+      <c r="U6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -890,6 +910,9 @@
       <c r="T7">
         <v>3</v>
       </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -962,6 +985,9 @@
       <c r="T8">
         <v>0</v>
       </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1034,6 +1060,9 @@
       <c r="T9">
         <v>0</v>
       </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1106,6 +1135,9 @@
       <c r="T10">
         <v>6</v>
       </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1178,6 +1210,9 @@
       <c r="T11">
         <v>6</v>
       </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1250,6 +1285,9 @@
       <c r="T12">
         <v>12</v>
       </c>
+      <c r="U12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1322,6 +1360,9 @@
       <c r="T13">
         <v>12</v>
       </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1394,6 +1435,9 @@
       <c r="T14">
         <v>13</v>
       </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1466,6 +1510,9 @@
       <c r="T15">
         <v>11</v>
       </c>
+      <c r="U15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1538,6 +1585,9 @@
       <c r="T16">
         <v>13</v>
       </c>
+      <c r="U16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1610,6 +1660,9 @@
       <c r="T17">
         <v>0</v>
       </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1682,6 +1735,9 @@
       <c r="T18">
         <v>0</v>
       </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1754,6 +1810,9 @@
       <c r="T19">
         <v>3</v>
       </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1826,6 +1885,9 @@
       <c r="T20">
         <v>0</v>
       </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1898,6 +1960,9 @@
       <c r="T21">
         <v>1</v>
       </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1970,6 +2035,9 @@
       <c r="T22">
         <v>19</v>
       </c>
+      <c r="U22">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2042,6 +2110,9 @@
       <c r="T23">
         <v>35</v>
       </c>
+      <c r="U23">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2114,6 +2185,9 @@
       <c r="T24">
         <v>0</v>
       </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2186,6 +2260,9 @@
       <c r="T25">
         <v>11</v>
       </c>
+      <c r="U25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2258,6 +2335,9 @@
       <c r="T26">
         <v>18</v>
       </c>
+      <c r="U26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2330,6 +2410,9 @@
       <c r="T27">
         <v>14</v>
       </c>
+      <c r="U27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2485,9 @@
       <c r="T28">
         <v>24</v>
       </c>
+      <c r="U28">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2474,6 +2560,9 @@
       <c r="T29">
         <v>1</v>
       </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2546,6 +2635,9 @@
       <c r="T30">
         <v>4</v>
       </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2618,6 +2710,9 @@
       <c r="T31">
         <v>3</v>
       </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2690,6 +2785,9 @@
       <c r="T32">
         <v>7</v>
       </c>
+      <c r="U32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2762,6 +2860,9 @@
       <c r="T33">
         <v>2</v>
       </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2834,6 +2935,9 @@
       <c r="T34">
         <v>6</v>
       </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2906,6 +3010,9 @@
       <c r="T35">
         <v>0</v>
       </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2978,6 +3085,9 @@
       <c r="T36">
         <v>0</v>
       </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3050,6 +3160,9 @@
       <c r="T37">
         <v>6</v>
       </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3122,6 +3235,9 @@
       <c r="T38">
         <v>5</v>
       </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3194,6 +3310,9 @@
       <c r="T39">
         <v>0</v>
       </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3266,6 +3385,9 @@
       <c r="T40">
         <v>10</v>
       </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3338,6 +3460,9 @@
       <c r="T41">
         <v>0</v>
       </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3410,6 +3535,9 @@
       <c r="T42">
         <v>0</v>
       </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3482,6 +3610,9 @@
       <c r="T43">
         <v>0</v>
       </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3554,6 +3685,9 @@
       <c r="T44">
         <v>1</v>
       </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3626,6 +3760,9 @@
       <c r="T45">
         <v>2</v>
       </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3698,6 +3835,9 @@
       <c r="T46">
         <v>2</v>
       </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3770,6 +3910,9 @@
       <c r="T47">
         <v>0</v>
       </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3842,6 +3985,9 @@
       <c r="T48">
         <v>3</v>
       </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3914,6 +4060,9 @@
       <c r="T49">
         <v>4</v>
       </c>
+      <c r="U49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3986,6 +4135,9 @@
       <c r="T50">
         <v>1</v>
       </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4058,6 +4210,9 @@
       <c r="T51">
         <v>3</v>
       </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4130,6 +4285,9 @@
       <c r="T52">
         <v>31</v>
       </c>
+      <c r="U52">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4202,6 +4360,9 @@
       <c r="T53">
         <v>2</v>
       </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4274,6 +4435,9 @@
       <c r="T54">
         <v>0</v>
       </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4346,6 +4510,9 @@
       <c r="T55">
         <v>2</v>
       </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4418,6 +4585,9 @@
       <c r="T56">
         <v>4</v>
       </c>
+      <c r="U56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4490,6 +4660,9 @@
       <c r="T57">
         <v>3</v>
       </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4562,6 +4735,9 @@
       <c r="T58">
         <v>0</v>
       </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4634,6 +4810,9 @@
       <c r="T59">
         <v>0</v>
       </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4706,6 +4885,9 @@
       <c r="T60">
         <v>2</v>
       </c>
+      <c r="U60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4778,6 +4960,9 @@
       <c r="T61">
         <v>3</v>
       </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4850,6 +5035,9 @@
       <c r="T62">
         <v>1</v>
       </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4922,6 +5110,9 @@
       <c r="T63">
         <v>1</v>
       </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4994,6 +5185,9 @@
       <c r="T64">
         <v>0</v>
       </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5066,6 +5260,9 @@
       <c r="T65">
         <v>5</v>
       </c>
+      <c r="U65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5138,6 +5335,9 @@
       <c r="T66">
         <v>0</v>
       </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5210,6 +5410,9 @@
       <c r="T67">
         <v>0</v>
       </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5282,6 +5485,9 @@
       <c r="T68">
         <v>5</v>
       </c>
+      <c r="U68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5354,6 +5560,9 @@
       <c r="T69">
         <v>0</v>
       </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5426,6 +5635,9 @@
       <c r="T70">
         <v>0</v>
       </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5498,6 +5710,9 @@
       <c r="T71">
         <v>0</v>
       </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5570,6 +5785,9 @@
       <c r="T72">
         <v>5</v>
       </c>
+      <c r="U72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5642,6 +5860,9 @@
       <c r="T73">
         <v>0</v>
       </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5714,6 +5935,9 @@
       <c r="T74">
         <v>0</v>
       </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5786,6 +6010,9 @@
       <c r="T75">
         <v>0</v>
       </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5858,6 +6085,9 @@
       <c r="T76">
         <v>1</v>
       </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5930,6 +6160,9 @@
       <c r="T77">
         <v>0</v>
       </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6002,6 +6235,9 @@
       <c r="T78">
         <v>1</v>
       </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6074,6 +6310,9 @@
       <c r="T79">
         <v>0</v>
       </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6146,6 +6385,9 @@
       <c r="T80">
         <v>0</v>
       </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6218,6 +6460,9 @@
       <c r="T81">
         <v>0</v>
       </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6290,6 +6535,9 @@
       <c r="T82">
         <v>0</v>
       </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6362,6 +6610,9 @@
       <c r="T83">
         <v>3</v>
       </c>
+      <c r="U83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6434,6 +6685,9 @@
       <c r="T84">
         <v>3</v>
       </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6506,6 +6760,9 @@
       <c r="T85">
         <v>3</v>
       </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6578,6 +6835,9 @@
       <c r="T86">
         <v>5</v>
       </c>
+      <c r="U86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6650,6 +6910,9 @@
       <c r="T87">
         <v>0</v>
       </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6722,6 +6985,9 @@
       <c r="T88">
         <v>0</v>
       </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6794,6 +7060,9 @@
       <c r="T89">
         <v>4</v>
       </c>
+      <c r="U89">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6866,6 +7135,9 @@
       <c r="T90">
         <v>0</v>
       </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6938,6 +7210,9 @@
       <c r="T91">
         <v>0</v>
       </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7010,6 +7285,9 @@
       <c r="T92">
         <v>0</v>
       </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7082,6 +7360,9 @@
       <c r="T93">
         <v>25</v>
       </c>
+      <c r="U93">
+        <v>26</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7154,6 +7435,9 @@
       <c r="T94">
         <v>80</v>
       </c>
+      <c r="U94">
+        <v>83</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7226,6 +7510,9 @@
       <c r="T95">
         <v>43</v>
       </c>
+      <c r="U95">
+        <v>43</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7298,6 +7585,9 @@
       <c r="T96">
         <v>71</v>
       </c>
+      <c r="U96">
+        <v>71</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7370,6 +7660,9 @@
       <c r="T97">
         <v>140</v>
       </c>
+      <c r="U97">
+        <v>143</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7442,6 +7735,9 @@
       <c r="T98">
         <v>20</v>
       </c>
+      <c r="U98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7514,6 +7810,9 @@
       <c r="T99">
         <v>6</v>
       </c>
+      <c r="U99">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7586,6 +7885,9 @@
       <c r="T100">
         <v>2</v>
       </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7658,6 +7960,9 @@
       <c r="T101">
         <v>2</v>
       </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7730,6 +8035,9 @@
       <c r="T102">
         <v>1</v>
       </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7802,6 +8110,9 @@
       <c r="T103">
         <v>45</v>
       </c>
+      <c r="U103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7874,6 +8185,9 @@
       <c r="T104">
         <v>1</v>
       </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7946,6 +8260,9 @@
       <c r="T105">
         <v>1</v>
       </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8018,6 +8335,9 @@
       <c r="T106">
         <v>2</v>
       </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8090,6 +8410,9 @@
       <c r="T107">
         <v>5</v>
       </c>
+      <c r="U107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8162,6 +8485,9 @@
       <c r="T108">
         <v>22</v>
       </c>
+      <c r="U108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8234,6 +8560,9 @@
       <c r="T109">
         <v>88</v>
       </c>
+      <c r="U109">
+        <v>88</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8306,6 +8635,9 @@
       <c r="T110">
         <v>16</v>
       </c>
+      <c r="U110">
+        <v>16</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8378,6 +8710,9 @@
       <c r="T111">
         <v>17</v>
       </c>
+      <c r="U111">
+        <v>17</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8450,6 +8785,9 @@
       <c r="T112">
         <v>44</v>
       </c>
+      <c r="U112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8522,6 +8860,9 @@
       <c r="T113">
         <v>335</v>
       </c>
+      <c r="U113">
+        <v>341</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8594,6 +8935,9 @@
       <c r="T114">
         <v>142</v>
       </c>
+      <c r="U114">
+        <v>146</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8666,6 +9010,9 @@
       <c r="T115">
         <v>6</v>
       </c>
+      <c r="U115">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8738,6 +9085,9 @@
       <c r="T116">
         <v>19</v>
       </c>
+      <c r="U116">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8810,6 +9160,9 @@
       <c r="T117">
         <v>32</v>
       </c>
+      <c r="U117">
+        <v>41</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8882,6 +9235,9 @@
       <c r="T118">
         <v>71</v>
       </c>
+      <c r="U118">
+        <v>74</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8954,6 +9310,9 @@
       <c r="T119">
         <v>122</v>
       </c>
+      <c r="U119">
+        <v>129</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9026,6 +9385,9 @@
       <c r="T120">
         <v>44</v>
       </c>
+      <c r="U120">
+        <v>44</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9098,6 +9460,9 @@
       <c r="T121">
         <v>8</v>
       </c>
+      <c r="U121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9170,6 +9535,9 @@
       <c r="T122">
         <v>48</v>
       </c>
+      <c r="U122">
+        <v>49</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9242,6 +9610,9 @@
       <c r="T123">
         <v>13</v>
       </c>
+      <c r="U123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9314,6 +9685,9 @@
       <c r="T124">
         <v>28</v>
       </c>
+      <c r="U124">
+        <v>28</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9386,6 +9760,9 @@
       <c r="T125">
         <v>16</v>
       </c>
+      <c r="U125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9458,6 +9835,9 @@
       <c r="T126">
         <v>2</v>
       </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9530,6 +9910,9 @@
       <c r="T127">
         <v>10</v>
       </c>
+      <c r="U127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9602,6 +9985,9 @@
       <c r="T128">
         <v>1</v>
       </c>
+      <c r="U128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9674,6 +10060,9 @@
       <c r="T129">
         <v>15</v>
       </c>
+      <c r="U129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9746,6 +10135,9 @@
       <c r="T130">
         <v>9</v>
       </c>
+      <c r="U130">
+        <v>9</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9818,6 +10210,9 @@
       <c r="T131">
         <v>8</v>
       </c>
+      <c r="U131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9890,6 +10285,9 @@
       <c r="T132">
         <v>13</v>
       </c>
+      <c r="U132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9962,6 +10360,9 @@
       <c r="T133">
         <v>44</v>
       </c>
+      <c r="U133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10034,6 +10435,9 @@
       <c r="T134">
         <v>0</v>
       </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10106,6 +10510,9 @@
       <c r="T135">
         <v>0</v>
       </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10178,6 +10585,9 @@
       <c r="T136">
         <v>10</v>
       </c>
+      <c r="U136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10250,6 +10660,9 @@
       <c r="T137">
         <v>4</v>
       </c>
+      <c r="U137">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10322,6 +10735,9 @@
       <c r="T138">
         <v>27</v>
       </c>
+      <c r="U138">
+        <v>29</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10394,6 +10810,9 @@
       <c r="T139">
         <v>1</v>
       </c>
+      <c r="U139">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10466,6 +10885,9 @@
       <c r="T140">
         <v>1</v>
       </c>
+      <c r="U140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10538,6 +10960,9 @@
       <c r="T141">
         <v>2</v>
       </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10610,6 +11035,9 @@
       <c r="T142">
         <v>5</v>
       </c>
+      <c r="U142">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10682,6 +11110,9 @@
       <c r="T143">
         <v>9</v>
       </c>
+      <c r="U143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10754,6 +11185,9 @@
       <c r="T144">
         <v>1</v>
       </c>
+      <c r="U144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10826,6 +11260,9 @@
       <c r="T145">
         <v>74</v>
       </c>
+      <c r="U145">
+        <v>74</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10898,6 +11335,9 @@
       <c r="T146">
         <v>31</v>
       </c>
+      <c r="U146">
+        <v>31</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10970,6 +11410,9 @@
       <c r="T147">
         <v>15</v>
       </c>
+      <c r="U147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11042,6 +11485,9 @@
       <c r="T148">
         <v>56</v>
       </c>
+      <c r="U148">
+        <v>56</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11114,6 +11560,9 @@
       <c r="T149">
         <v>11</v>
       </c>
+      <c r="U149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11186,6 +11635,9 @@
       <c r="T150">
         <v>31</v>
       </c>
+      <c r="U150">
+        <v>32</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11258,6 +11710,9 @@
       <c r="T151">
         <v>0</v>
       </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11330,6 +11785,9 @@
       <c r="T152">
         <v>13</v>
       </c>
+      <c r="U152">
+        <v>16</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11402,6 +11860,9 @@
       <c r="T153">
         <v>3</v>
       </c>
+      <c r="U153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11474,6 +11935,9 @@
       <c r="T154">
         <v>5</v>
       </c>
+      <c r="U154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11546,6 +12010,9 @@
       <c r="T155">
         <v>3</v>
       </c>
+      <c r="U155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11618,6 +12085,9 @@
       <c r="T156">
         <v>2</v>
       </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11690,6 +12160,9 @@
       <c r="T157">
         <v>14</v>
       </c>
+      <c r="U157">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11762,6 +12235,9 @@
       <c r="T158">
         <v>2</v>
       </c>
+      <c r="U158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11834,6 +12310,9 @@
       <c r="T159">
         <v>4</v>
       </c>
+      <c r="U159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11906,6 +12385,9 @@
       <c r="T160">
         <v>0</v>
       </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11978,6 +12460,9 @@
       <c r="T161">
         <v>0</v>
       </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12050,6 +12535,9 @@
       <c r="T162">
         <v>2</v>
       </c>
+      <c r="U162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12122,6 +12610,9 @@
       <c r="T163">
         <v>0</v>
       </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12194,6 +12685,9 @@
       <c r="T164">
         <v>0</v>
       </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12266,6 +12760,9 @@
       <c r="T165">
         <v>1</v>
       </c>
+      <c r="U165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12338,6 +12835,9 @@
       <c r="T166">
         <v>0</v>
       </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12410,6 +12910,9 @@
       <c r="T167">
         <v>0</v>
       </c>
+      <c r="U167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12482,6 +12985,9 @@
       <c r="T168">
         <v>5</v>
       </c>
+      <c r="U168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12554,6 +13060,9 @@
       <c r="T169">
         <v>2</v>
       </c>
+      <c r="U169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12626,6 +13135,9 @@
       <c r="T170">
         <v>1</v>
       </c>
+      <c r="U170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12698,6 +13210,9 @@
       <c r="T171">
         <v>3</v>
       </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12770,6 +13285,9 @@
       <c r="T172">
         <v>1</v>
       </c>
+      <c r="U172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -12842,6 +13360,9 @@
       <c r="T173">
         <v>13</v>
       </c>
+      <c r="U173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12914,6 +13435,9 @@
       <c r="T174">
         <v>36</v>
       </c>
+      <c r="U174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -12986,6 +13510,9 @@
       <c r="T175">
         <v>1</v>
       </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13058,6 +13585,9 @@
       <c r="T176">
         <v>8</v>
       </c>
+      <c r="U176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13130,6 +13660,9 @@
       <c r="T177">
         <v>2</v>
       </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13202,6 +13735,9 @@
       <c r="T178">
         <v>5</v>
       </c>
+      <c r="U178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13274,6 +13810,9 @@
       <c r="T179">
         <v>4</v>
       </c>
+      <c r="U179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13346,6 +13885,9 @@
       <c r="T180">
         <v>10</v>
       </c>
+      <c r="U180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13418,6 +13960,9 @@
       <c r="T181">
         <v>9</v>
       </c>
+      <c r="U181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13490,6 +14035,9 @@
       <c r="T182">
         <v>2</v>
       </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13562,6 +14110,9 @@
       <c r="T183">
         <v>1</v>
       </c>
+      <c r="U183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -13634,6 +14185,9 @@
       <c r="T184">
         <v>0</v>
       </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13706,6 +14260,9 @@
       <c r="T185">
         <v>1</v>
       </c>
+      <c r="U185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13778,6 +14335,9 @@
       <c r="T186">
         <v>9</v>
       </c>
+      <c r="U186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13850,6 +14410,9 @@
       <c r="T187">
         <v>0</v>
       </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13922,6 +14485,9 @@
       <c r="T188">
         <v>0</v>
       </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13994,6 +14560,9 @@
       <c r="T189">
         <v>0</v>
       </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14066,6 +14635,9 @@
       <c r="T190">
         <v>21</v>
       </c>
+      <c r="U190">
+        <v>21</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14138,6 +14710,9 @@
       <c r="T191">
         <v>17</v>
       </c>
+      <c r="U191">
+        <v>17</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14210,6 +14785,9 @@
       <c r="T192">
         <v>51</v>
       </c>
+      <c r="U192">
+        <v>51</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -14282,6 +14860,9 @@
       <c r="T193">
         <v>35</v>
       </c>
+      <c r="U193">
+        <v>37</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14354,6 +14935,9 @@
       <c r="T194">
         <v>26</v>
       </c>
+      <c r="U194">
+        <v>26</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14426,6 +15010,9 @@
       <c r="T195">
         <v>8</v>
       </c>
+      <c r="U195">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -14498,6 +15085,9 @@
       <c r="T196">
         <v>37</v>
       </c>
+      <c r="U196">
+        <v>38</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14570,6 +15160,9 @@
       <c r="T197">
         <v>4</v>
       </c>
+      <c r="U197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14642,6 +15235,9 @@
       <c r="T198">
         <v>21</v>
       </c>
+      <c r="U198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -14714,6 +15310,9 @@
       <c r="T199">
         <v>2</v>
       </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14786,6 +15385,9 @@
       <c r="T200">
         <v>5</v>
       </c>
+      <c r="U200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14858,6 +15460,9 @@
       <c r="T201">
         <v>1</v>
       </c>
+      <c r="U201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14930,6 +15535,9 @@
       <c r="T202">
         <v>1</v>
       </c>
+      <c r="U202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -15002,6 +15610,9 @@
       <c r="T203">
         <v>2</v>
       </c>
+      <c r="U203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -15074,6 +15685,9 @@
       <c r="T204">
         <v>0</v>
       </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15146,6 +15760,9 @@
       <c r="T205">
         <v>1</v>
       </c>
+      <c r="U205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15218,6 +15835,9 @@
       <c r="T206">
         <v>0</v>
       </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15290,6 +15910,9 @@
       <c r="T207">
         <v>0</v>
       </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15362,6 +15985,9 @@
       <c r="T208">
         <v>0</v>
       </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -15434,6 +16060,9 @@
       <c r="T209">
         <v>0</v>
       </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -15506,6 +16135,9 @@
       <c r="T210">
         <v>0</v>
       </c>
+      <c r="U210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -15578,6 +16210,9 @@
       <c r="T211">
         <v>0</v>
       </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -15650,6 +16285,9 @@
       <c r="T212">
         <v>2</v>
       </c>
+      <c r="U212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -15722,6 +16360,9 @@
       <c r="T213">
         <v>0</v>
       </c>
+      <c r="U213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -15794,6 +16435,9 @@
       <c r="T214">
         <v>1</v>
       </c>
+      <c r="U214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15866,6 +16510,9 @@
       <c r="T215">
         <v>24</v>
       </c>
+      <c r="U215">
+        <v>24</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15938,6 +16585,9 @@
       <c r="T216">
         <v>162</v>
       </c>
+      <c r="U216">
+        <v>167</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -16010,6 +16660,9 @@
       <c r="T217">
         <v>9</v>
       </c>
+      <c r="U217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -16082,6 +16735,9 @@
       <c r="T218">
         <v>11</v>
       </c>
+      <c r="U218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16154,6 +16810,9 @@
       <c r="T219">
         <v>0</v>
       </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -16226,6 +16885,9 @@
       <c r="T220">
         <v>2</v>
       </c>
+      <c r="U220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -16298,6 +16960,9 @@
       <c r="T221">
         <v>0</v>
       </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -16370,6 +17035,9 @@
       <c r="T222">
         <v>0</v>
       </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -16442,6 +17110,9 @@
       <c r="T223">
         <v>2</v>
       </c>
+      <c r="U223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -16514,6 +17185,9 @@
       <c r="T224">
         <v>7</v>
       </c>
+      <c r="U224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -16586,6 +17260,9 @@
       <c r="T225">
         <v>3</v>
       </c>
+      <c r="U225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -16658,6 +17335,9 @@
       <c r="T226">
         <v>1</v>
       </c>
+      <c r="U226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -16730,6 +17410,9 @@
       <c r="T227">
         <v>1</v>
       </c>
+      <c r="U227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -16802,6 +17485,9 @@
       <c r="T228">
         <v>2</v>
       </c>
+      <c r="U228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16874,6 +17560,9 @@
       <c r="T229">
         <v>2</v>
       </c>
+      <c r="U229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16946,6 +17635,9 @@
       <c r="T230">
         <v>0</v>
       </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -17018,6 +17710,9 @@
       <c r="T231">
         <v>3</v>
       </c>
+      <c r="U231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -17090,6 +17785,9 @@
       <c r="T232">
         <v>6</v>
       </c>
+      <c r="U232">
+        <v>7</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -17162,6 +17860,9 @@
       <c r="T233">
         <v>0</v>
       </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -17234,6 +17935,9 @@
       <c r="T234">
         <v>4</v>
       </c>
+      <c r="U234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -17306,6 +18010,9 @@
       <c r="T235">
         <v>1</v>
       </c>
+      <c r="U235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -17378,6 +18085,9 @@
       <c r="T236">
         <v>1</v>
       </c>
+      <c r="U236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -17450,6 +18160,9 @@
       <c r="T237">
         <v>1</v>
       </c>
+      <c r="U237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -17522,6 +18235,9 @@
       <c r="T238">
         <v>379</v>
       </c>
+      <c r="U238">
+        <v>402</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -17594,6 +18310,9 @@
       <c r="T239">
         <v>8</v>
       </c>
+      <c r="U239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -17666,6 +18385,9 @@
       <c r="T240">
         <v>4</v>
       </c>
+      <c r="U240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -17738,6 +18460,9 @@
       <c r="T241">
         <v>3</v>
       </c>
+      <c r="U241">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -17810,6 +18535,9 @@
       <c r="T242">
         <v>4</v>
       </c>
+      <c r="U242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -17882,6 +18610,9 @@
       <c r="T243">
         <v>6</v>
       </c>
+      <c r="U243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17954,6 +18685,9 @@
       <c r="T244">
         <v>7</v>
       </c>
+      <c r="U244">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -18026,6 +18760,9 @@
       <c r="T245">
         <v>0</v>
       </c>
+      <c r="U245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -18098,6 +18835,9 @@
       <c r="T246">
         <v>4</v>
       </c>
+      <c r="U246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -18170,6 +18910,9 @@
       <c r="T247">
         <v>0</v>
       </c>
+      <c r="U247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -18242,6 +18985,9 @@
       <c r="T248">
         <v>0</v>
       </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -18314,6 +19060,9 @@
       <c r="T249">
         <v>2</v>
       </c>
+      <c r="U249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -18386,6 +19135,9 @@
       <c r="T250">
         <v>24</v>
       </c>
+      <c r="U250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -18458,6 +19210,9 @@
       <c r="T251">
         <v>9</v>
       </c>
+      <c r="U251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -18530,6 +19285,9 @@
       <c r="T252">
         <v>0</v>
       </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -18602,6 +19360,9 @@
       <c r="T253">
         <v>16</v>
       </c>
+      <c r="U253">
+        <v>16</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -18674,6 +19435,9 @@
       <c r="T254">
         <v>4</v>
       </c>
+      <c r="U254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -18746,6 +19510,9 @@
       <c r="T255">
         <v>40</v>
       </c>
+      <c r="U255">
+        <v>40</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -18818,6 +19585,9 @@
       <c r="T256">
         <v>27</v>
       </c>
+      <c r="U256">
+        <v>28</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -18890,6 +19660,9 @@
       <c r="T257">
         <v>1</v>
       </c>
+      <c r="U257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -18962,6 +19735,9 @@
       <c r="T258">
         <v>0</v>
       </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -19034,6 +19810,9 @@
       <c r="T259">
         <v>0</v>
       </c>
+      <c r="U259">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -19106,6 +19885,9 @@
       <c r="T260">
         <v>17</v>
       </c>
+      <c r="U260">
+        <v>18</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -19178,6 +19960,9 @@
       <c r="T261">
         <v>0</v>
       </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -19250,6 +20035,9 @@
       <c r="T262">
         <v>0</v>
       </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -19322,6 +20110,9 @@
       <c r="T263">
         <v>0</v>
       </c>
+      <c r="U263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -19394,6 +20185,9 @@
       <c r="T264">
         <v>0</v>
       </c>
+      <c r="U264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -19466,6 +20260,9 @@
       <c r="T265">
         <v>3</v>
       </c>
+      <c r="U265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -19538,6 +20335,9 @@
       <c r="T266">
         <v>0</v>
       </c>
+      <c r="U266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -19610,6 +20410,9 @@
       <c r="T267">
         <v>1</v>
       </c>
+      <c r="U267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -19682,6 +20485,9 @@
       <c r="T268">
         <v>0</v>
       </c>
+      <c r="U268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -19754,6 +20560,9 @@
       <c r="T269">
         <v>7</v>
       </c>
+      <c r="U269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -19826,6 +20635,9 @@
       <c r="T270">
         <v>0</v>
       </c>
+      <c r="U270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -19898,6 +20710,9 @@
       <c r="T271">
         <v>0</v>
       </c>
+      <c r="U271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -19970,6 +20785,9 @@
       <c r="T272">
         <v>1</v>
       </c>
+      <c r="U272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -20042,6 +20860,9 @@
       <c r="T273">
         <v>4</v>
       </c>
+      <c r="U273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -20114,6 +20935,9 @@
       <c r="T274">
         <v>0</v>
       </c>
+      <c r="U274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -20186,6 +21010,9 @@
       <c r="T275">
         <v>0</v>
       </c>
+      <c r="U275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -20258,6 +21085,9 @@
       <c r="T276">
         <v>17</v>
       </c>
+      <c r="U276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -20330,6 +21160,9 @@
       <c r="T277">
         <v>0</v>
       </c>
+      <c r="U277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -20402,6 +21235,9 @@
       <c r="T278">
         <v>0</v>
       </c>
+      <c r="U278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -20474,6 +21310,9 @@
       <c r="T279">
         <v>4</v>
       </c>
+      <c r="U279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -20546,6 +21385,9 @@
       <c r="T280">
         <v>11</v>
       </c>
+      <c r="U280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -20618,6 +21460,9 @@
       <c r="T281">
         <v>201</v>
       </c>
+      <c r="U281">
+        <v>206</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -20690,6 +21535,9 @@
       <c r="T282">
         <v>15</v>
       </c>
+      <c r="U282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -20762,6 +21610,9 @@
       <c r="T283">
         <v>5</v>
       </c>
+      <c r="U283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -20834,6 +21685,9 @@
       <c r="T284">
         <v>0</v>
       </c>
+      <c r="U284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -20906,6 +21760,9 @@
       <c r="T285">
         <v>0</v>
       </c>
+      <c r="U285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -20978,6 +21835,9 @@
       <c r="T286">
         <v>8</v>
       </c>
+      <c r="U286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -21050,6 +21910,9 @@
       <c r="T287">
         <v>5</v>
       </c>
+      <c r="U287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -21122,6 +21985,9 @@
       <c r="T288">
         <v>0</v>
       </c>
+      <c r="U288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -21194,6 +22060,9 @@
       <c r="T289">
         <v>1</v>
       </c>
+      <c r="U289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -21266,6 +22135,9 @@
       <c r="T290">
         <v>7</v>
       </c>
+      <c r="U290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -21338,6 +22210,9 @@
       <c r="T291">
         <v>3</v>
       </c>
+      <c r="U291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -21410,6 +22285,9 @@
       <c r="T292">
         <v>5</v>
       </c>
+      <c r="U292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -21482,6 +22360,9 @@
       <c r="T293">
         <v>9</v>
       </c>
+      <c r="U293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -21554,6 +22435,9 @@
       <c r="T294">
         <v>6</v>
       </c>
+      <c r="U294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -21626,6 +22510,9 @@
       <c r="T295">
         <v>0</v>
       </c>
+      <c r="U295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -21698,6 +22585,9 @@
       <c r="T296">
         <v>1</v>
       </c>
+      <c r="U296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -21770,6 +22660,9 @@
       <c r="T297">
         <v>7</v>
       </c>
+      <c r="U297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -21842,6 +22735,9 @@
       <c r="T298">
         <v>28</v>
       </c>
+      <c r="U298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -21914,6 +22810,9 @@
       <c r="T299">
         <v>18</v>
       </c>
+      <c r="U299">
+        <v>19</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -21986,6 +22885,9 @@
       <c r="T300">
         <v>13</v>
       </c>
+      <c r="U300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -22058,6 +22960,9 @@
       <c r="T301">
         <v>0</v>
       </c>
+      <c r="U301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -22130,6 +23035,9 @@
       <c r="T302">
         <v>0</v>
       </c>
+      <c r="U302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -22202,6 +23110,9 @@
       <c r="T303">
         <v>0</v>
       </c>
+      <c r="U303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -22274,6 +23185,9 @@
       <c r="T304">
         <v>0</v>
       </c>
+      <c r="U304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -22346,6 +23260,9 @@
       <c r="T305">
         <v>3</v>
       </c>
+      <c r="U305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -22418,6 +23335,9 @@
       <c r="T306">
         <v>1</v>
       </c>
+      <c r="U306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -22490,6 +23410,9 @@
       <c r="T307">
         <v>4</v>
       </c>
+      <c r="U307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -22562,6 +23485,9 @@
       <c r="T308">
         <v>0</v>
       </c>
+      <c r="U308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -22634,6 +23560,9 @@
       <c r="T309">
         <v>0</v>
       </c>
+      <c r="U309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -22706,6 +23635,9 @@
       <c r="T310">
         <v>7</v>
       </c>
+      <c r="U310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -22778,6 +23710,9 @@
       <c r="T311">
         <v>2</v>
       </c>
+      <c r="U311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -22850,6 +23785,9 @@
       <c r="T312">
         <v>2</v>
       </c>
+      <c r="U312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -22922,6 +23860,9 @@
       <c r="T313">
         <v>2</v>
       </c>
+      <c r="U313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -22994,6 +23935,9 @@
       <c r="T314">
         <v>10</v>
       </c>
+      <c r="U314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -23066,6 +24010,9 @@
       <c r="T315">
         <v>1</v>
       </c>
+      <c r="U315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -23138,6 +24085,9 @@
       <c r="T316">
         <v>12</v>
       </c>
+      <c r="U316">
+        <v>12</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -23210,6 +24160,9 @@
       <c r="T317">
         <v>0</v>
       </c>
+      <c r="U317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -23282,6 +24235,9 @@
       <c r="T318">
         <v>0</v>
       </c>
+      <c r="U318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -23354,6 +24310,9 @@
       <c r="T319">
         <v>111</v>
       </c>
+      <c r="U319">
+        <v>112</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -23426,6 +24385,9 @@
       <c r="T320">
         <v>4</v>
       </c>
+      <c r="U320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -23498,6 +24460,9 @@
       <c r="T321">
         <v>5</v>
       </c>
+      <c r="U321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -23570,6 +24535,9 @@
       <c r="T322">
         <v>1</v>
       </c>
+      <c r="U322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -23642,6 +24610,9 @@
       <c r="T323">
         <v>3</v>
       </c>
+      <c r="U323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -23714,6 +24685,9 @@
       <c r="T324">
         <v>14</v>
       </c>
+      <c r="U324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -23786,6 +24760,9 @@
       <c r="T325">
         <v>1</v>
       </c>
+      <c r="U325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -23858,6 +24835,9 @@
       <c r="T326">
         <v>1</v>
       </c>
+      <c r="U326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -23930,6 +24910,9 @@
       <c r="T327">
         <v>0</v>
       </c>
+      <c r="U327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -24002,6 +24985,9 @@
       <c r="T328">
         <v>0</v>
       </c>
+      <c r="U328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -24074,6 +25060,9 @@
       <c r="T329">
         <v>3</v>
       </c>
+      <c r="U329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -24146,6 +25135,9 @@
       <c r="T330">
         <v>1</v>
       </c>
+      <c r="U330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -24218,6 +25210,9 @@
       <c r="T331">
         <v>2</v>
       </c>
+      <c r="U331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -24290,6 +25285,9 @@
       <c r="T332">
         <v>0</v>
       </c>
+      <c r="U332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -24362,6 +25360,9 @@
       <c r="T333">
         <v>0</v>
       </c>
+      <c r="U333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -24434,6 +25435,9 @@
       <c r="T334">
         <v>0</v>
       </c>
+      <c r="U334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -24506,6 +25510,9 @@
       <c r="T335">
         <v>16</v>
       </c>
+      <c r="U335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -24578,6 +25585,9 @@
       <c r="T336">
         <v>1</v>
       </c>
+      <c r="U336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -24650,6 +25660,9 @@
       <c r="T337">
         <v>1</v>
       </c>
+      <c r="U337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -24722,6 +25735,9 @@
       <c r="T338">
         <v>2</v>
       </c>
+      <c r="U338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -24794,6 +25810,9 @@
       <c r="T339">
         <v>0</v>
       </c>
+      <c r="U339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -24866,6 +25885,9 @@
       <c r="T340">
         <v>0</v>
       </c>
+      <c r="U340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -24938,6 +25960,9 @@
       <c r="T341">
         <v>1</v>
       </c>
+      <c r="U341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -25010,6 +26035,9 @@
       <c r="T342">
         <v>2</v>
       </c>
+      <c r="U342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -25082,6 +26110,9 @@
       <c r="T343">
         <v>0</v>
       </c>
+      <c r="U343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -25154,6 +26185,9 @@
       <c r="T344">
         <v>1</v>
       </c>
+      <c r="U344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -25226,6 +26260,9 @@
       <c r="T345">
         <v>0</v>
       </c>
+      <c r="U345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -25298,6 +26335,9 @@
       <c r="T346">
         <v>0</v>
       </c>
+      <c r="U346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -25370,6 +26410,9 @@
       <c r="T347">
         <v>2</v>
       </c>
+      <c r="U347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -25442,6 +26485,9 @@
       <c r="T348">
         <v>2</v>
       </c>
+      <c r="U348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -25514,6 +26560,9 @@
       <c r="T349">
         <v>4</v>
       </c>
+      <c r="U349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -25586,6 +26635,9 @@
       <c r="T350">
         <v>1</v>
       </c>
+      <c r="U350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -25658,6 +26710,9 @@
       <c r="T351">
         <v>0</v>
       </c>
+      <c r="U351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -25730,6 +26785,9 @@
       <c r="T352">
         <v>0</v>
       </c>
+      <c r="U352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -25802,6 +26860,9 @@
       <c r="T353">
         <v>0</v>
       </c>
+      <c r="U353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -25874,6 +26935,9 @@
       <c r="T354">
         <v>1</v>
       </c>
+      <c r="U354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -25946,6 +27010,9 @@
       <c r="T355">
         <v>1</v>
       </c>
+      <c r="U355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -26018,6 +27085,9 @@
       <c r="T356">
         <v>0</v>
       </c>
+      <c r="U356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -26090,6 +27160,9 @@
       <c r="T357">
         <v>4</v>
       </c>
+      <c r="U357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -26162,6 +27235,9 @@
       <c r="T358">
         <v>0</v>
       </c>
+      <c r="U358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -26233,6 +27309,9 @@
       </c>
       <c r="T359">
         <v>1</v>
+      </c>
+      <c r="U359">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U359"/>
+  <dimension ref="A1:V359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,6 +463,11 @@
           <t>2020-04-09</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -538,6 +543,9 @@
       <c r="U2">
         <v>1780</v>
       </c>
+      <c r="V2">
+        <v>1827</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -613,6 +621,9 @@
       <c r="U3">
         <v>14</v>
       </c>
+      <c r="V3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -688,6 +699,9 @@
       <c r="U4">
         <v>125</v>
       </c>
+      <c r="V4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -763,6 +777,9 @@
       <c r="U5">
         <v>49</v>
       </c>
+      <c r="V5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -838,6 +855,9 @@
       <c r="U6">
         <v>46</v>
       </c>
+      <c r="V6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -913,6 +933,9 @@
       <c r="U7">
         <v>3</v>
       </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -988,6 +1011,9 @@
       <c r="U8">
         <v>0</v>
       </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1063,6 +1089,9 @@
       <c r="U9">
         <v>0</v>
       </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1138,6 +1167,9 @@
       <c r="U10">
         <v>6</v>
       </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1213,6 +1245,9 @@
       <c r="U11">
         <v>6</v>
       </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1288,6 +1323,9 @@
       <c r="U12">
         <v>12</v>
       </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1363,6 +1401,9 @@
       <c r="U13">
         <v>12</v>
       </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1438,6 +1479,9 @@
       <c r="U14">
         <v>13</v>
       </c>
+      <c r="V14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1513,6 +1557,9 @@
       <c r="U15">
         <v>11</v>
       </c>
+      <c r="V15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1588,6 +1635,9 @@
       <c r="U16">
         <v>13</v>
       </c>
+      <c r="V16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1663,6 +1713,9 @@
       <c r="U17">
         <v>0</v>
       </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1738,6 +1791,9 @@
       <c r="U18">
         <v>0</v>
       </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1813,6 +1869,9 @@
       <c r="U19">
         <v>3</v>
       </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1888,6 +1947,9 @@
       <c r="U20">
         <v>0</v>
       </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1963,6 +2025,9 @@
       <c r="U21">
         <v>1</v>
       </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2038,6 +2103,9 @@
       <c r="U22">
         <v>19</v>
       </c>
+      <c r="V22">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2113,6 +2181,9 @@
       <c r="U23">
         <v>35</v>
       </c>
+      <c r="V23">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2188,6 +2259,9 @@
       <c r="U24">
         <v>0</v>
       </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2263,6 +2337,9 @@
       <c r="U25">
         <v>11</v>
       </c>
+      <c r="V25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2338,6 +2415,9 @@
       <c r="U26">
         <v>18</v>
       </c>
+      <c r="V26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2413,6 +2493,9 @@
       <c r="U27">
         <v>14</v>
       </c>
+      <c r="V27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2488,6 +2571,9 @@
       <c r="U28">
         <v>25</v>
       </c>
+      <c r="V28">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2563,6 +2649,9 @@
       <c r="U29">
         <v>1</v>
       </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2638,6 +2727,9 @@
       <c r="U30">
         <v>3</v>
       </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2713,6 +2805,9 @@
       <c r="U31">
         <v>3</v>
       </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2788,6 +2883,9 @@
       <c r="U32">
         <v>7</v>
       </c>
+      <c r="V32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2863,6 +2961,9 @@
       <c r="U33">
         <v>2</v>
       </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2938,6 +3039,9 @@
       <c r="U34">
         <v>6</v>
       </c>
+      <c r="V34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3013,6 +3117,9 @@
       <c r="U35">
         <v>0</v>
       </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3088,6 +3195,9 @@
       <c r="U36">
         <v>0</v>
       </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3163,6 +3273,9 @@
       <c r="U37">
         <v>6</v>
       </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3238,6 +3351,9 @@
       <c r="U38">
         <v>5</v>
       </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3313,6 +3429,9 @@
       <c r="U39">
         <v>0</v>
       </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3388,6 +3507,9 @@
       <c r="U40">
         <v>10</v>
       </c>
+      <c r="V40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3463,6 +3585,9 @@
       <c r="U41">
         <v>0</v>
       </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3538,6 +3663,9 @@
       <c r="U42">
         <v>0</v>
       </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3613,6 +3741,9 @@
       <c r="U43">
         <v>0</v>
       </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3688,6 +3819,9 @@
       <c r="U44">
         <v>1</v>
       </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3763,6 +3897,9 @@
       <c r="U45">
         <v>2</v>
       </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3838,6 +3975,9 @@
       <c r="U46">
         <v>2</v>
       </c>
+      <c r="V46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3913,6 +4053,9 @@
       <c r="U47">
         <v>0</v>
       </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3988,6 +4131,9 @@
       <c r="U48">
         <v>3</v>
       </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4063,6 +4209,9 @@
       <c r="U49">
         <v>4</v>
       </c>
+      <c r="V49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4138,6 +4287,9 @@
       <c r="U50">
         <v>1</v>
       </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4213,6 +4365,9 @@
       <c r="U51">
         <v>3</v>
       </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4288,6 +4443,9 @@
       <c r="U52">
         <v>32</v>
       </c>
+      <c r="V52">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4363,6 +4521,9 @@
       <c r="U53">
         <v>2</v>
       </c>
+      <c r="V53">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4438,6 +4599,9 @@
       <c r="U54">
         <v>0</v>
       </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4513,6 +4677,9 @@
       <c r="U55">
         <v>2</v>
       </c>
+      <c r="V55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4588,6 +4755,9 @@
       <c r="U56">
         <v>5</v>
       </c>
+      <c r="V56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4663,6 +4833,9 @@
       <c r="U57">
         <v>3</v>
       </c>
+      <c r="V57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4738,6 +4911,9 @@
       <c r="U58">
         <v>0</v>
       </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4813,6 +4989,9 @@
       <c r="U59">
         <v>0</v>
       </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4888,6 +5067,9 @@
       <c r="U60">
         <v>2</v>
       </c>
+      <c r="V60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4963,6 +5145,9 @@
       <c r="U61">
         <v>3</v>
       </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5038,6 +5223,9 @@
       <c r="U62">
         <v>1</v>
       </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5113,6 +5301,9 @@
       <c r="U63">
         <v>1</v>
       </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5188,6 +5379,9 @@
       <c r="U64">
         <v>0</v>
       </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5263,6 +5457,9 @@
       <c r="U65">
         <v>5</v>
       </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5338,6 +5535,9 @@
       <c r="U66">
         <v>0</v>
       </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5413,6 +5613,9 @@
       <c r="U67">
         <v>0</v>
       </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5488,6 +5691,9 @@
       <c r="U68">
         <v>4</v>
       </c>
+      <c r="V68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5563,6 +5769,9 @@
       <c r="U69">
         <v>0</v>
       </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5638,6 +5847,9 @@
       <c r="U70">
         <v>0</v>
       </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5713,6 +5925,9 @@
       <c r="U71">
         <v>0</v>
       </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5788,6 +6003,9 @@
       <c r="U72">
         <v>5</v>
       </c>
+      <c r="V72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5863,6 +6081,9 @@
       <c r="U73">
         <v>0</v>
       </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5938,6 +6159,9 @@
       <c r="U74">
         <v>0</v>
       </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6013,6 +6237,9 @@
       <c r="U75">
         <v>0</v>
       </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6088,6 +6315,9 @@
       <c r="U76">
         <v>1</v>
       </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6163,6 +6393,9 @@
       <c r="U77">
         <v>0</v>
       </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6238,6 +6471,9 @@
       <c r="U78">
         <v>1</v>
       </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6313,6 +6549,9 @@
       <c r="U79">
         <v>0</v>
       </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6388,6 +6627,9 @@
       <c r="U80">
         <v>0</v>
       </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6463,6 +6705,9 @@
       <c r="U81">
         <v>0</v>
       </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6538,6 +6783,9 @@
       <c r="U82">
         <v>0</v>
       </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6613,6 +6861,9 @@
       <c r="U83">
         <v>4</v>
       </c>
+      <c r="V83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6688,6 +6939,9 @@
       <c r="U84">
         <v>3</v>
       </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6763,6 +7017,9 @@
       <c r="U85">
         <v>3</v>
       </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6838,6 +7095,9 @@
       <c r="U86">
         <v>5</v>
       </c>
+      <c r="V86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6913,6 +7173,9 @@
       <c r="U87">
         <v>0</v>
       </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6988,6 +7251,9 @@
       <c r="U88">
         <v>0</v>
       </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7063,6 +7329,9 @@
       <c r="U89">
         <v>4</v>
       </c>
+      <c r="V89">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7138,6 +7407,9 @@
       <c r="U90">
         <v>0</v>
       </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7213,6 +7485,9 @@
       <c r="U91">
         <v>0</v>
       </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7288,6 +7563,9 @@
       <c r="U92">
         <v>0</v>
       </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7363,6 +7641,9 @@
       <c r="U93">
         <v>26</v>
       </c>
+      <c r="V93">
+        <v>26</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7438,6 +7719,9 @@
       <c r="U94">
         <v>83</v>
       </c>
+      <c r="V94">
+        <v>83</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7513,6 +7797,9 @@
       <c r="U95">
         <v>43</v>
       </c>
+      <c r="V95">
+        <v>45</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7588,6 +7875,9 @@
       <c r="U96">
         <v>71</v>
       </c>
+      <c r="V96">
+        <v>71</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7663,6 +7953,9 @@
       <c r="U97">
         <v>143</v>
       </c>
+      <c r="V97">
+        <v>144</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7738,6 +8031,9 @@
       <c r="U98">
         <v>20</v>
       </c>
+      <c r="V98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7813,6 +8109,9 @@
       <c r="U99">
         <v>7</v>
       </c>
+      <c r="V99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7888,6 +8187,9 @@
       <c r="U100">
         <v>2</v>
       </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7963,6 +8265,9 @@
       <c r="U101">
         <v>2</v>
       </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8038,6 +8343,9 @@
       <c r="U102">
         <v>1</v>
       </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8113,6 +8421,9 @@
       <c r="U103">
         <v>45</v>
       </c>
+      <c r="V103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8188,6 +8499,9 @@
       <c r="U104">
         <v>1</v>
       </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8263,6 +8577,9 @@
       <c r="U105">
         <v>1</v>
       </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8338,6 +8655,9 @@
       <c r="U106">
         <v>2</v>
       </c>
+      <c r="V106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8413,6 +8733,9 @@
       <c r="U107">
         <v>6</v>
       </c>
+      <c r="V107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8488,6 +8811,9 @@
       <c r="U108">
         <v>22</v>
       </c>
+      <c r="V108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8563,6 +8889,9 @@
       <c r="U109">
         <v>88</v>
       </c>
+      <c r="V109">
+        <v>88</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8638,6 +8967,9 @@
       <c r="U110">
         <v>16</v>
       </c>
+      <c r="V110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8713,6 +9045,9 @@
       <c r="U111">
         <v>17</v>
       </c>
+      <c r="V111">
+        <v>17</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8788,6 +9123,9 @@
       <c r="U112">
         <v>44</v>
       </c>
+      <c r="V112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8863,6 +9201,9 @@
       <c r="U113">
         <v>341</v>
       </c>
+      <c r="V113">
+        <v>350</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8938,6 +9279,9 @@
       <c r="U114">
         <v>146</v>
       </c>
+      <c r="V114">
+        <v>146</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9013,6 +9357,9 @@
       <c r="U115">
         <v>7</v>
       </c>
+      <c r="V115">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9088,6 +9435,9 @@
       <c r="U116">
         <v>19</v>
       </c>
+      <c r="V116">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9163,6 +9513,9 @@
       <c r="U117">
         <v>41</v>
       </c>
+      <c r="V117">
+        <v>41</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9238,6 +9591,9 @@
       <c r="U118">
         <v>74</v>
       </c>
+      <c r="V118">
+        <v>74</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9313,6 +9669,9 @@
       <c r="U119">
         <v>129</v>
       </c>
+      <c r="V119">
+        <v>129</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9388,6 +9747,9 @@
       <c r="U120">
         <v>44</v>
       </c>
+      <c r="V120">
+        <v>44</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9463,6 +9825,9 @@
       <c r="U121">
         <v>8</v>
       </c>
+      <c r="V121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9538,6 +9903,9 @@
       <c r="U122">
         <v>49</v>
       </c>
+      <c r="V122">
+        <v>49</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9613,6 +9981,9 @@
       <c r="U123">
         <v>13</v>
       </c>
+      <c r="V123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9688,6 +10059,9 @@
       <c r="U124">
         <v>28</v>
       </c>
+      <c r="V124">
+        <v>28</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9763,6 +10137,9 @@
       <c r="U125">
         <v>17</v>
       </c>
+      <c r="V125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9838,6 +10215,9 @@
       <c r="U126">
         <v>2</v>
       </c>
+      <c r="V126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9913,6 +10293,9 @@
       <c r="U127">
         <v>10</v>
       </c>
+      <c r="V127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9988,6 +10371,9 @@
       <c r="U128">
         <v>1</v>
       </c>
+      <c r="V128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10063,6 +10449,9 @@
       <c r="U129">
         <v>7</v>
       </c>
+      <c r="V129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10138,6 +10527,9 @@
       <c r="U130">
         <v>9</v>
       </c>
+      <c r="V130">
+        <v>9</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10213,6 +10605,9 @@
       <c r="U131">
         <v>8</v>
       </c>
+      <c r="V131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10288,6 +10683,9 @@
       <c r="U132">
         <v>13</v>
       </c>
+      <c r="V132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10363,6 +10761,9 @@
       <c r="U133">
         <v>44</v>
       </c>
+      <c r="V133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10438,6 +10839,9 @@
       <c r="U134">
         <v>0</v>
       </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10513,6 +10917,9 @@
       <c r="U135">
         <v>0</v>
       </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10588,6 +10995,9 @@
       <c r="U136">
         <v>10</v>
       </c>
+      <c r="V136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10663,6 +11073,9 @@
       <c r="U137">
         <v>4</v>
       </c>
+      <c r="V137">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -10738,6 +11151,9 @@
       <c r="U138">
         <v>29</v>
       </c>
+      <c r="V138">
+        <v>29</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10813,6 +11229,9 @@
       <c r="U139">
         <v>1</v>
       </c>
+      <c r="V139">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10888,6 +11307,9 @@
       <c r="U140">
         <v>1</v>
       </c>
+      <c r="V140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10963,6 +11385,9 @@
       <c r="U141">
         <v>2</v>
       </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11038,6 +11463,9 @@
       <c r="U142">
         <v>5</v>
       </c>
+      <c r="V142">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11113,6 +11541,9 @@
       <c r="U143">
         <v>9</v>
       </c>
+      <c r="V143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11188,6 +11619,9 @@
       <c r="U144">
         <v>1</v>
       </c>
+      <c r="V144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11263,6 +11697,9 @@
       <c r="U145">
         <v>74</v>
       </c>
+      <c r="V145">
+        <v>76</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11338,6 +11775,9 @@
       <c r="U146">
         <v>31</v>
       </c>
+      <c r="V146">
+        <v>31</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11413,6 +11853,9 @@
       <c r="U147">
         <v>15</v>
       </c>
+      <c r="V147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11488,6 +11931,9 @@
       <c r="U148">
         <v>56</v>
       </c>
+      <c r="V148">
+        <v>56</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11563,6 +12009,9 @@
       <c r="U149">
         <v>11</v>
       </c>
+      <c r="V149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11638,6 +12087,9 @@
       <c r="U150">
         <v>32</v>
       </c>
+      <c r="V150">
+        <v>32</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11713,6 +12165,9 @@
       <c r="U151">
         <v>0</v>
       </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11788,6 +12243,9 @@
       <c r="U152">
         <v>16</v>
       </c>
+      <c r="V152">
+        <v>16</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11863,6 +12321,9 @@
       <c r="U153">
         <v>4</v>
       </c>
+      <c r="V153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11938,6 +12399,9 @@
       <c r="U154">
         <v>5</v>
       </c>
+      <c r="V154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12013,6 +12477,9 @@
       <c r="U155">
         <v>3</v>
       </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12088,6 +12555,9 @@
       <c r="U156">
         <v>2</v>
       </c>
+      <c r="V156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12163,6 +12633,9 @@
       <c r="U157">
         <v>14</v>
       </c>
+      <c r="V157">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12238,6 +12711,9 @@
       <c r="U158">
         <v>2</v>
       </c>
+      <c r="V158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12313,6 +12789,9 @@
       <c r="U159">
         <v>4</v>
       </c>
+      <c r="V159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12388,6 +12867,9 @@
       <c r="U160">
         <v>0</v>
       </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12463,6 +12945,9 @@
       <c r="U161">
         <v>0</v>
       </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12538,6 +13023,9 @@
       <c r="U162">
         <v>2</v>
       </c>
+      <c r="V162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12613,6 +13101,9 @@
       <c r="U163">
         <v>0</v>
       </c>
+      <c r="V163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12688,6 +13179,9 @@
       <c r="U164">
         <v>0</v>
       </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -12763,6 +13257,9 @@
       <c r="U165">
         <v>1</v>
       </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12838,6 +13335,9 @@
       <c r="U166">
         <v>0</v>
       </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -12913,6 +13413,9 @@
       <c r="U167">
         <v>1</v>
       </c>
+      <c r="V167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12988,6 +13491,9 @@
       <c r="U168">
         <v>5</v>
       </c>
+      <c r="V168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13063,6 +13569,9 @@
       <c r="U169">
         <v>2</v>
       </c>
+      <c r="V169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13138,6 +13647,9 @@
       <c r="U170">
         <v>1</v>
       </c>
+      <c r="V170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13213,6 +13725,9 @@
       <c r="U171">
         <v>3</v>
       </c>
+      <c r="V171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13288,6 +13803,9 @@
       <c r="U172">
         <v>1</v>
       </c>
+      <c r="V172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13363,6 +13881,9 @@
       <c r="U173">
         <v>13</v>
       </c>
+      <c r="V173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13438,6 +13959,9 @@
       <c r="U174">
         <v>36</v>
       </c>
+      <c r="V174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13513,6 +14037,9 @@
       <c r="U175">
         <v>1</v>
       </c>
+      <c r="V175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13588,6 +14115,9 @@
       <c r="U176">
         <v>8</v>
       </c>
+      <c r="V176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -13663,6 +14193,9 @@
       <c r="U177">
         <v>2</v>
       </c>
+      <c r="V177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13738,6 +14271,9 @@
       <c r="U178">
         <v>5</v>
       </c>
+      <c r="V178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13813,6 +14349,9 @@
       <c r="U179">
         <v>4</v>
       </c>
+      <c r="V179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -13888,6 +14427,9 @@
       <c r="U180">
         <v>10</v>
       </c>
+      <c r="V180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13963,6 +14505,9 @@
       <c r="U181">
         <v>9</v>
       </c>
+      <c r="V181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14038,6 +14583,9 @@
       <c r="U182">
         <v>2</v>
       </c>
+      <c r="V182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14113,6 +14661,9 @@
       <c r="U183">
         <v>1</v>
       </c>
+      <c r="V183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14188,6 +14739,9 @@
       <c r="U184">
         <v>0</v>
       </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14263,6 +14817,9 @@
       <c r="U185">
         <v>1</v>
       </c>
+      <c r="V185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14338,6 +14895,9 @@
       <c r="U186">
         <v>9</v>
       </c>
+      <c r="V186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14413,6 +14973,9 @@
       <c r="U187">
         <v>0</v>
       </c>
+      <c r="V187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -14488,6 +15051,9 @@
       <c r="U188">
         <v>0</v>
       </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14563,6 +15129,9 @@
       <c r="U189">
         <v>0</v>
       </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14638,6 +15207,9 @@
       <c r="U190">
         <v>21</v>
       </c>
+      <c r="V190">
+        <v>21</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -14713,6 +15285,9 @@
       <c r="U191">
         <v>17</v>
       </c>
+      <c r="V191">
+        <v>17</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14788,6 +15363,9 @@
       <c r="U192">
         <v>51</v>
       </c>
+      <c r="V192">
+        <v>51</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -14863,6 +15441,9 @@
       <c r="U193">
         <v>37</v>
       </c>
+      <c r="V193">
+        <v>37</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -14938,6 +15519,9 @@
       <c r="U194">
         <v>26</v>
       </c>
+      <c r="V194">
+        <v>26</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15013,6 +15597,9 @@
       <c r="U195">
         <v>8</v>
       </c>
+      <c r="V195">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15088,6 +15675,9 @@
       <c r="U196">
         <v>38</v>
       </c>
+      <c r="V196">
+        <v>38</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15163,6 +15753,9 @@
       <c r="U197">
         <v>4</v>
       </c>
+      <c r="V197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15238,6 +15831,9 @@
       <c r="U198">
         <v>21</v>
       </c>
+      <c r="V198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15313,6 +15909,9 @@
       <c r="U199">
         <v>2</v>
       </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15388,6 +15987,9 @@
       <c r="U200">
         <v>5</v>
       </c>
+      <c r="V200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -15463,6 +16065,9 @@
       <c r="U201">
         <v>1</v>
       </c>
+      <c r="V201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -15538,6 +16143,9 @@
       <c r="U202">
         <v>1</v>
       </c>
+      <c r="V202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -15613,6 +16221,9 @@
       <c r="U203">
         <v>2</v>
       </c>
+      <c r="V203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -15688,6 +16299,9 @@
       <c r="U204">
         <v>0</v>
       </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15763,6 +16377,9 @@
       <c r="U205">
         <v>1</v>
       </c>
+      <c r="V205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -15838,6 +16455,9 @@
       <c r="U206">
         <v>0</v>
       </c>
+      <c r="V206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -15913,6 +16533,9 @@
       <c r="U207">
         <v>0</v>
       </c>
+      <c r="V207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -15988,6 +16611,9 @@
       <c r="U208">
         <v>0</v>
       </c>
+      <c r="V208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -16063,6 +16689,9 @@
       <c r="U209">
         <v>0</v>
       </c>
+      <c r="V209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -16138,6 +16767,9 @@
       <c r="U210">
         <v>0</v>
       </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -16213,6 +16845,9 @@
       <c r="U211">
         <v>0</v>
       </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -16288,6 +16923,9 @@
       <c r="U212">
         <v>2</v>
       </c>
+      <c r="V212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -16363,6 +17001,9 @@
       <c r="U213">
         <v>0</v>
       </c>
+      <c r="V213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -16438,6 +17079,9 @@
       <c r="U214">
         <v>1</v>
       </c>
+      <c r="V214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -16513,6 +17157,9 @@
       <c r="U215">
         <v>24</v>
       </c>
+      <c r="V215">
+        <v>25</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -16588,6 +17235,9 @@
       <c r="U216">
         <v>167</v>
       </c>
+      <c r="V216">
+        <v>170</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -16663,6 +17313,9 @@
       <c r="U217">
         <v>9</v>
       </c>
+      <c r="V217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -16738,6 +17391,9 @@
       <c r="U218">
         <v>11</v>
       </c>
+      <c r="V218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -16813,6 +17469,9 @@
       <c r="U219">
         <v>0</v>
       </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -16888,6 +17547,9 @@
       <c r="U220">
         <v>2</v>
       </c>
+      <c r="V220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -16963,6 +17625,9 @@
       <c r="U221">
         <v>0</v>
       </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -17038,6 +17703,9 @@
       <c r="U222">
         <v>0</v>
       </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -17113,6 +17781,9 @@
       <c r="U223">
         <v>2</v>
       </c>
+      <c r="V223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -17188,6 +17859,9 @@
       <c r="U224">
         <v>7</v>
       </c>
+      <c r="V224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -17263,6 +17937,9 @@
       <c r="U225">
         <v>3</v>
       </c>
+      <c r="V225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -17338,6 +18015,9 @@
       <c r="U226">
         <v>1</v>
       </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -17413,6 +18093,9 @@
       <c r="U227">
         <v>1</v>
       </c>
+      <c r="V227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -17488,6 +18171,9 @@
       <c r="U228">
         <v>2</v>
       </c>
+      <c r="V228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -17563,6 +18249,9 @@
       <c r="U229">
         <v>2</v>
       </c>
+      <c r="V229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -17638,6 +18327,9 @@
       <c r="U230">
         <v>0</v>
       </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -17713,6 +18405,9 @@
       <c r="U231">
         <v>3</v>
       </c>
+      <c r="V231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -17788,6 +18483,9 @@
       <c r="U232">
         <v>7</v>
       </c>
+      <c r="V232">
+        <v>7</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -17863,6 +18561,9 @@
       <c r="U233">
         <v>0</v>
       </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -17938,6 +18639,9 @@
       <c r="U234">
         <v>4</v>
       </c>
+      <c r="V234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -18013,6 +18717,9 @@
       <c r="U235">
         <v>1</v>
       </c>
+      <c r="V235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -18088,6 +18795,9 @@
       <c r="U236">
         <v>1</v>
       </c>
+      <c r="V236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -18163,6 +18873,9 @@
       <c r="U237">
         <v>1</v>
       </c>
+      <c r="V237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -18238,6 +18951,9 @@
       <c r="U238">
         <v>402</v>
       </c>
+      <c r="V238">
+        <v>414</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -18313,6 +19029,9 @@
       <c r="U239">
         <v>8</v>
       </c>
+      <c r="V239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -18388,6 +19107,9 @@
       <c r="U240">
         <v>4</v>
       </c>
+      <c r="V240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -18463,6 +19185,9 @@
       <c r="U241">
         <v>3</v>
       </c>
+      <c r="V241">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -18538,6 +19263,9 @@
       <c r="U242">
         <v>4</v>
       </c>
+      <c r="V242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -18613,6 +19341,9 @@
       <c r="U243">
         <v>6</v>
       </c>
+      <c r="V243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -18688,6 +19419,9 @@
       <c r="U244">
         <v>7</v>
       </c>
+      <c r="V244">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -18763,6 +19497,9 @@
       <c r="U245">
         <v>0</v>
       </c>
+      <c r="V245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -18838,6 +19575,9 @@
       <c r="U246">
         <v>4</v>
       </c>
+      <c r="V246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -18913,6 +19653,9 @@
       <c r="U247">
         <v>0</v>
       </c>
+      <c r="V247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -18988,6 +19731,9 @@
       <c r="U248">
         <v>0</v>
       </c>
+      <c r="V248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -19063,6 +19809,9 @@
       <c r="U249">
         <v>2</v>
       </c>
+      <c r="V249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -19138,6 +19887,9 @@
       <c r="U250">
         <v>24</v>
       </c>
+      <c r="V250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -19213,6 +19965,9 @@
       <c r="U251">
         <v>9</v>
       </c>
+      <c r="V251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -19288,6 +20043,9 @@
       <c r="U252">
         <v>0</v>
       </c>
+      <c r="V252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -19363,6 +20121,9 @@
       <c r="U253">
         <v>16</v>
       </c>
+      <c r="V253">
+        <v>16</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -19438,6 +20199,9 @@
       <c r="U254">
         <v>4</v>
       </c>
+      <c r="V254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -19513,6 +20277,9 @@
       <c r="U255">
         <v>40</v>
       </c>
+      <c r="V255">
+        <v>40</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -19588,6 +20355,9 @@
       <c r="U256">
         <v>28</v>
       </c>
+      <c r="V256">
+        <v>29</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -19663,6 +20433,9 @@
       <c r="U257">
         <v>1</v>
       </c>
+      <c r="V257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -19738,6 +20511,9 @@
       <c r="U258">
         <v>0</v>
       </c>
+      <c r="V258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -19813,6 +20589,9 @@
       <c r="U259">
         <v>2</v>
       </c>
+      <c r="V259">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -19888,6 +20667,9 @@
       <c r="U260">
         <v>18</v>
       </c>
+      <c r="V260">
+        <v>18</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -19963,6 +20745,9 @@
       <c r="U261">
         <v>0</v>
       </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -20038,6 +20823,9 @@
       <c r="U262">
         <v>0</v>
       </c>
+      <c r="V262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -20113,6 +20901,9 @@
       <c r="U263">
         <v>0</v>
       </c>
+      <c r="V263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -20188,6 +20979,9 @@
       <c r="U264">
         <v>0</v>
       </c>
+      <c r="V264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -20263,6 +21057,9 @@
       <c r="U265">
         <v>3</v>
       </c>
+      <c r="V265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -20338,6 +21135,9 @@
       <c r="U266">
         <v>0</v>
       </c>
+      <c r="V266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -20413,6 +21213,9 @@
       <c r="U267">
         <v>3</v>
       </c>
+      <c r="V267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -20488,6 +21291,9 @@
       <c r="U268">
         <v>0</v>
       </c>
+      <c r="V268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -20563,6 +21369,9 @@
       <c r="U269">
         <v>7</v>
       </c>
+      <c r="V269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -20638,6 +21447,9 @@
       <c r="U270">
         <v>0</v>
       </c>
+      <c r="V270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -20713,6 +21525,9 @@
       <c r="U271">
         <v>0</v>
       </c>
+      <c r="V271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -20788,6 +21603,9 @@
       <c r="U272">
         <v>1</v>
       </c>
+      <c r="V272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -20863,6 +21681,9 @@
       <c r="U273">
         <v>4</v>
       </c>
+      <c r="V273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -20938,6 +21759,9 @@
       <c r="U274">
         <v>0</v>
       </c>
+      <c r="V274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -21013,6 +21837,9 @@
       <c r="U275">
         <v>0</v>
       </c>
+      <c r="V275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -21088,6 +21915,9 @@
       <c r="U276">
         <v>17</v>
       </c>
+      <c r="V276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -21163,6 +21993,9 @@
       <c r="U277">
         <v>0</v>
       </c>
+      <c r="V277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -21238,6 +22071,9 @@
       <c r="U278">
         <v>0</v>
       </c>
+      <c r="V278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -21313,6 +22149,9 @@
       <c r="U279">
         <v>4</v>
       </c>
+      <c r="V279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -21388,6 +22227,9 @@
       <c r="U280">
         <v>12</v>
       </c>
+      <c r="V280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -21463,6 +22305,9 @@
       <c r="U281">
         <v>206</v>
       </c>
+      <c r="V281">
+        <v>209</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -21538,6 +22383,9 @@
       <c r="U282">
         <v>16</v>
       </c>
+      <c r="V282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -21613,6 +22461,9 @@
       <c r="U283">
         <v>5</v>
       </c>
+      <c r="V283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -21688,6 +22539,9 @@
       <c r="U284">
         <v>0</v>
       </c>
+      <c r="V284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -21763,6 +22617,9 @@
       <c r="U285">
         <v>0</v>
       </c>
+      <c r="V285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -21838,6 +22695,9 @@
       <c r="U286">
         <v>8</v>
       </c>
+      <c r="V286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -21913,6 +22773,9 @@
       <c r="U287">
         <v>5</v>
       </c>
+      <c r="V287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -21988,6 +22851,9 @@
       <c r="U288">
         <v>0</v>
       </c>
+      <c r="V288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -22063,6 +22929,9 @@
       <c r="U289">
         <v>1</v>
       </c>
+      <c r="V289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -22138,6 +23007,9 @@
       <c r="U290">
         <v>7</v>
       </c>
+      <c r="V290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -22213,6 +23085,9 @@
       <c r="U291">
         <v>3</v>
       </c>
+      <c r="V291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -22288,6 +23163,9 @@
       <c r="U292">
         <v>5</v>
       </c>
+      <c r="V292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -22363,6 +23241,9 @@
       <c r="U293">
         <v>11</v>
       </c>
+      <c r="V293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -22438,6 +23319,9 @@
       <c r="U294">
         <v>6</v>
       </c>
+      <c r="V294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -22513,6 +23397,9 @@
       <c r="U295">
         <v>0</v>
       </c>
+      <c r="V295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -22588,6 +23475,9 @@
       <c r="U296">
         <v>1</v>
       </c>
+      <c r="V296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -22663,6 +23553,9 @@
       <c r="U297">
         <v>7</v>
       </c>
+      <c r="V297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -22738,6 +23631,9 @@
       <c r="U298">
         <v>28</v>
       </c>
+      <c r="V298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -22813,6 +23709,9 @@
       <c r="U299">
         <v>19</v>
       </c>
+      <c r="V299">
+        <v>19</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -22888,6 +23787,9 @@
       <c r="U300">
         <v>15</v>
       </c>
+      <c r="V300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -22963,6 +23865,9 @@
       <c r="U301">
         <v>0</v>
       </c>
+      <c r="V301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -23038,6 +23943,9 @@
       <c r="U302">
         <v>0</v>
       </c>
+      <c r="V302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -23113,6 +24021,9 @@
       <c r="U303">
         <v>0</v>
       </c>
+      <c r="V303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -23188,6 +24099,9 @@
       <c r="U304">
         <v>0</v>
       </c>
+      <c r="V304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -23263,6 +24177,9 @@
       <c r="U305">
         <v>3</v>
       </c>
+      <c r="V305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -23338,6 +24255,9 @@
       <c r="U306">
         <v>1</v>
       </c>
+      <c r="V306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -23413,6 +24333,9 @@
       <c r="U307">
         <v>4</v>
       </c>
+      <c r="V307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -23488,6 +24411,9 @@
       <c r="U308">
         <v>0</v>
       </c>
+      <c r="V308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -23563,6 +24489,9 @@
       <c r="U309">
         <v>0</v>
       </c>
+      <c r="V309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -23638,6 +24567,9 @@
       <c r="U310">
         <v>7</v>
       </c>
+      <c r="V310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -23713,6 +24645,9 @@
       <c r="U311">
         <v>2</v>
       </c>
+      <c r="V311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -23788,6 +24723,9 @@
       <c r="U312">
         <v>2</v>
       </c>
+      <c r="V312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -23863,6 +24801,9 @@
       <c r="U313">
         <v>2</v>
       </c>
+      <c r="V313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -23938,6 +24879,9 @@
       <c r="U314">
         <v>10</v>
       </c>
+      <c r="V314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -24013,6 +24957,9 @@
       <c r="U315">
         <v>1</v>
       </c>
+      <c r="V315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -24088,6 +25035,9 @@
       <c r="U316">
         <v>12</v>
       </c>
+      <c r="V316">
+        <v>12</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -24163,6 +25113,9 @@
       <c r="U317">
         <v>0</v>
       </c>
+      <c r="V317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -24238,6 +25191,9 @@
       <c r="U318">
         <v>0</v>
       </c>
+      <c r="V318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -24313,6 +25269,9 @@
       <c r="U319">
         <v>112</v>
       </c>
+      <c r="V319">
+        <v>113</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -24388,6 +25347,9 @@
       <c r="U320">
         <v>4</v>
       </c>
+      <c r="V320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -24463,6 +25425,9 @@
       <c r="U321">
         <v>5</v>
       </c>
+      <c r="V321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -24538,6 +25503,9 @@
       <c r="U322">
         <v>1</v>
       </c>
+      <c r="V322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -24613,6 +25581,9 @@
       <c r="U323">
         <v>3</v>
       </c>
+      <c r="V323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -24688,6 +25659,9 @@
       <c r="U324">
         <v>14</v>
       </c>
+      <c r="V324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -24763,6 +25737,9 @@
       <c r="U325">
         <v>1</v>
       </c>
+      <c r="V325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -24838,6 +25815,9 @@
       <c r="U326">
         <v>1</v>
       </c>
+      <c r="V326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -24913,6 +25893,9 @@
       <c r="U327">
         <v>0</v>
       </c>
+      <c r="V327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -24988,6 +25971,9 @@
       <c r="U328">
         <v>0</v>
       </c>
+      <c r="V328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -25063,6 +26049,9 @@
       <c r="U329">
         <v>3</v>
       </c>
+      <c r="V329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -25138,6 +26127,9 @@
       <c r="U330">
         <v>1</v>
       </c>
+      <c r="V330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -25213,6 +26205,9 @@
       <c r="U331">
         <v>2</v>
       </c>
+      <c r="V331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -25288,6 +26283,9 @@
       <c r="U332">
         <v>0</v>
       </c>
+      <c r="V332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -25363,6 +26361,9 @@
       <c r="U333">
         <v>0</v>
       </c>
+      <c r="V333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -25438,6 +26439,9 @@
       <c r="U334">
         <v>0</v>
       </c>
+      <c r="V334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -25513,6 +26517,9 @@
       <c r="U335">
         <v>16</v>
       </c>
+      <c r="V335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -25588,6 +26595,9 @@
       <c r="U336">
         <v>2</v>
       </c>
+      <c r="V336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -25663,6 +26673,9 @@
       <c r="U337">
         <v>1</v>
       </c>
+      <c r="V337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -25738,6 +26751,9 @@
       <c r="U338">
         <v>2</v>
       </c>
+      <c r="V338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -25813,6 +26829,9 @@
       <c r="U339">
         <v>0</v>
       </c>
+      <c r="V339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -25888,6 +26907,9 @@
       <c r="U340">
         <v>0</v>
       </c>
+      <c r="V340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -25963,6 +26985,9 @@
       <c r="U341">
         <v>1</v>
       </c>
+      <c r="V341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -26038,6 +27063,9 @@
       <c r="U342">
         <v>2</v>
       </c>
+      <c r="V342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -26113,6 +27141,9 @@
       <c r="U343">
         <v>0</v>
       </c>
+      <c r="V343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -26188,6 +27219,9 @@
       <c r="U344">
         <v>1</v>
       </c>
+      <c r="V344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -26263,6 +27297,9 @@
       <c r="U345">
         <v>0</v>
       </c>
+      <c r="V345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -26338,6 +27375,9 @@
       <c r="U346">
         <v>0</v>
       </c>
+      <c r="V346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -26413,6 +27453,9 @@
       <c r="U347">
         <v>2</v>
       </c>
+      <c r="V347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -26488,6 +27531,9 @@
       <c r="U348">
         <v>2</v>
       </c>
+      <c r="V348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -26563,6 +27609,9 @@
       <c r="U349">
         <v>4</v>
       </c>
+      <c r="V349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -26638,6 +27687,9 @@
       <c r="U350">
         <v>1</v>
       </c>
+      <c r="V350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -26713,6 +27765,9 @@
       <c r="U351">
         <v>0</v>
       </c>
+      <c r="V351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -26788,6 +27843,9 @@
       <c r="U352">
         <v>0</v>
       </c>
+      <c r="V352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -26863,6 +27921,9 @@
       <c r="U353">
         <v>0</v>
       </c>
+      <c r="V353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -26938,6 +27999,9 @@
       <c r="U354">
         <v>1</v>
       </c>
+      <c r="V354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -27013,6 +28077,9 @@
       <c r="U355">
         <v>1</v>
       </c>
+      <c r="V355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -27088,6 +28155,9 @@
       <c r="U356">
         <v>0</v>
       </c>
+      <c r="V356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -27163,6 +28233,9 @@
       <c r="U357">
         <v>4</v>
       </c>
+      <c r="V357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -27238,6 +28311,9 @@
       <c r="U358">
         <v>0</v>
       </c>
+      <c r="V358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -27312,6 +28388,9 @@
       </c>
       <c r="U359">
         <v>4</v>
+      </c>
+      <c r="V359">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V359"/>
+  <dimension ref="A1:W359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,6 +468,11 @@
           <t>2020-04-10</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -546,6 +551,9 @@
       <c r="V2">
         <v>1827</v>
       </c>
+      <c r="W2">
+        <v>1866</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -624,6 +632,9 @@
       <c r="V3">
         <v>14</v>
       </c>
+      <c r="W3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -702,6 +713,9 @@
       <c r="V4">
         <v>125</v>
       </c>
+      <c r="W4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -780,6 +794,9 @@
       <c r="V5">
         <v>49</v>
       </c>
+      <c r="W5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -858,6 +875,9 @@
       <c r="V6">
         <v>46</v>
       </c>
+      <c r="W6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -936,6 +956,9 @@
       <c r="V7">
         <v>3</v>
       </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1014,6 +1037,9 @@
       <c r="V8">
         <v>0</v>
       </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1092,6 +1118,9 @@
       <c r="V9">
         <v>0</v>
       </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1170,6 +1199,9 @@
       <c r="V10">
         <v>6</v>
       </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1248,6 +1280,9 @@
       <c r="V11">
         <v>6</v>
       </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1326,6 +1361,9 @@
       <c r="V12">
         <v>12</v>
       </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1404,6 +1442,9 @@
       <c r="V13">
         <v>12</v>
       </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1482,6 +1523,9 @@
       <c r="V14">
         <v>13</v>
       </c>
+      <c r="W14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1560,6 +1604,9 @@
       <c r="V15">
         <v>11</v>
       </c>
+      <c r="W15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1638,6 +1685,9 @@
       <c r="V16">
         <v>13</v>
       </c>
+      <c r="W16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1716,6 +1766,9 @@
       <c r="V17">
         <v>0</v>
       </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1794,6 +1847,9 @@
       <c r="V18">
         <v>0</v>
       </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1872,6 +1928,9 @@
       <c r="V19">
         <v>3</v>
       </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1950,6 +2009,9 @@
       <c r="V20">
         <v>0</v>
       </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2028,6 +2090,9 @@
       <c r="V21">
         <v>1</v>
       </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2106,6 +2171,9 @@
       <c r="V22">
         <v>19</v>
       </c>
+      <c r="W22">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2184,6 +2252,9 @@
       <c r="V23">
         <v>35</v>
       </c>
+      <c r="W23">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2262,6 +2333,9 @@
       <c r="V24">
         <v>0</v>
       </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2340,6 +2414,9 @@
       <c r="V25">
         <v>11</v>
       </c>
+      <c r="W25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2418,6 +2495,9 @@
       <c r="V26">
         <v>18</v>
       </c>
+      <c r="W26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2496,6 +2576,9 @@
       <c r="V27">
         <v>14</v>
       </c>
+      <c r="W27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2574,6 +2657,9 @@
       <c r="V28">
         <v>25</v>
       </c>
+      <c r="W28">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2652,6 +2738,9 @@
       <c r="V29">
         <v>1</v>
       </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2730,6 +2819,9 @@
       <c r="V30">
         <v>3</v>
       </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2808,6 +2900,9 @@
       <c r="V31">
         <v>3</v>
       </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2886,6 +2981,9 @@
       <c r="V32">
         <v>7</v>
       </c>
+      <c r="W32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2964,6 +3062,9 @@
       <c r="V33">
         <v>2</v>
       </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3042,6 +3143,9 @@
       <c r="V34">
         <v>6</v>
       </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3120,6 +3224,9 @@
       <c r="V35">
         <v>0</v>
       </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3198,6 +3305,9 @@
       <c r="V36">
         <v>0</v>
       </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3276,6 +3386,9 @@
       <c r="V37">
         <v>6</v>
       </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3354,6 +3467,9 @@
       <c r="V38">
         <v>5</v>
       </c>
+      <c r="W38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3432,6 +3548,9 @@
       <c r="V39">
         <v>0</v>
       </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3510,6 +3629,9 @@
       <c r="V40">
         <v>10</v>
       </c>
+      <c r="W40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3588,6 +3710,9 @@
       <c r="V41">
         <v>0</v>
       </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3666,6 +3791,9 @@
       <c r="V42">
         <v>0</v>
       </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3744,6 +3872,9 @@
       <c r="V43">
         <v>0</v>
       </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3822,6 +3953,9 @@
       <c r="V44">
         <v>1</v>
       </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3900,6 +4034,9 @@
       <c r="V45">
         <v>2</v>
       </c>
+      <c r="W45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3978,6 +4115,9 @@
       <c r="V46">
         <v>2</v>
       </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4056,6 +4196,9 @@
       <c r="V47">
         <v>0</v>
       </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4134,6 +4277,9 @@
       <c r="V48">
         <v>3</v>
       </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4212,6 +4358,9 @@
       <c r="V49">
         <v>4</v>
       </c>
+      <c r="W49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4290,6 +4439,9 @@
       <c r="V50">
         <v>1</v>
       </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4368,6 +4520,9 @@
       <c r="V51">
         <v>3</v>
       </c>
+      <c r="W51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4446,6 +4601,9 @@
       <c r="V52">
         <v>33</v>
       </c>
+      <c r="W52">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4524,6 +4682,9 @@
       <c r="V53">
         <v>2</v>
       </c>
+      <c r="W53">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4602,6 +4763,9 @@
       <c r="V54">
         <v>0</v>
       </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4680,6 +4844,9 @@
       <c r="V55">
         <v>2</v>
       </c>
+      <c r="W55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4758,6 +4925,9 @@
       <c r="V56">
         <v>5</v>
       </c>
+      <c r="W56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4836,6 +5006,9 @@
       <c r="V57">
         <v>3</v>
       </c>
+      <c r="W57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4914,6 +5087,9 @@
       <c r="V58">
         <v>0</v>
       </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4992,6 +5168,9 @@
       <c r="V59">
         <v>0</v>
       </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5070,6 +5249,9 @@
       <c r="V60">
         <v>2</v>
       </c>
+      <c r="W60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5148,6 +5330,9 @@
       <c r="V61">
         <v>3</v>
       </c>
+      <c r="W61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5226,6 +5411,9 @@
       <c r="V62">
         <v>1</v>
       </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5304,6 +5492,9 @@
       <c r="V63">
         <v>1</v>
       </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5382,6 +5573,9 @@
       <c r="V64">
         <v>0</v>
       </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5460,6 +5654,9 @@
       <c r="V65">
         <v>5</v>
       </c>
+      <c r="W65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5538,6 +5735,9 @@
       <c r="V66">
         <v>0</v>
       </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5616,6 +5816,9 @@
       <c r="V67">
         <v>0</v>
       </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5694,6 +5897,9 @@
       <c r="V68">
         <v>4</v>
       </c>
+      <c r="W68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5772,6 +5978,9 @@
       <c r="V69">
         <v>0</v>
       </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5850,6 +6059,9 @@
       <c r="V70">
         <v>0</v>
       </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5928,6 +6140,9 @@
       <c r="V71">
         <v>0</v>
       </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6006,6 +6221,9 @@
       <c r="V72">
         <v>5</v>
       </c>
+      <c r="W72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6084,6 +6302,9 @@
       <c r="V73">
         <v>0</v>
       </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6162,6 +6383,9 @@
       <c r="V74">
         <v>0</v>
       </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6240,6 +6464,9 @@
       <c r="V75">
         <v>0</v>
       </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6318,6 +6545,9 @@
       <c r="V76">
         <v>1</v>
       </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6396,6 +6626,9 @@
       <c r="V77">
         <v>0</v>
       </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6474,6 +6707,9 @@
       <c r="V78">
         <v>1</v>
       </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6552,6 +6788,9 @@
       <c r="V79">
         <v>0</v>
       </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6630,6 +6869,9 @@
       <c r="V80">
         <v>0</v>
       </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6708,6 +6950,9 @@
       <c r="V81">
         <v>0</v>
       </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6786,6 +7031,9 @@
       <c r="V82">
         <v>0</v>
       </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6864,6 +7112,9 @@
       <c r="V83">
         <v>4</v>
       </c>
+      <c r="W83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6942,6 +7193,9 @@
       <c r="V84">
         <v>3</v>
       </c>
+      <c r="W84">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7020,6 +7274,9 @@
       <c r="V85">
         <v>3</v>
       </c>
+      <c r="W85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7098,6 +7355,9 @@
       <c r="V86">
         <v>5</v>
       </c>
+      <c r="W86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7176,6 +7436,9 @@
       <c r="V87">
         <v>0</v>
       </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7254,6 +7517,9 @@
       <c r="V88">
         <v>0</v>
       </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7332,6 +7598,9 @@
       <c r="V89">
         <v>4</v>
       </c>
+      <c r="W89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7410,6 +7679,9 @@
       <c r="V90">
         <v>0</v>
       </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7488,6 +7760,9 @@
       <c r="V91">
         <v>0</v>
       </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7566,6 +7841,9 @@
       <c r="V92">
         <v>0</v>
       </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7644,6 +7922,9 @@
       <c r="V93">
         <v>26</v>
       </c>
+      <c r="W93">
+        <v>26</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7722,6 +8003,9 @@
       <c r="V94">
         <v>83</v>
       </c>
+      <c r="W94">
+        <v>83</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7800,6 +8084,9 @@
       <c r="V95">
         <v>45</v>
       </c>
+      <c r="W95">
+        <v>46</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7878,6 +8165,9 @@
       <c r="V96">
         <v>71</v>
       </c>
+      <c r="W96">
+        <v>72</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7956,6 +8246,9 @@
       <c r="V97">
         <v>144</v>
       </c>
+      <c r="W97">
+        <v>146</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8034,6 +8327,9 @@
       <c r="V98">
         <v>20</v>
       </c>
+      <c r="W98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8112,6 +8408,9 @@
       <c r="V99">
         <v>9</v>
       </c>
+      <c r="W99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8190,6 +8489,9 @@
       <c r="V100">
         <v>2</v>
       </c>
+      <c r="W100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8268,6 +8570,9 @@
       <c r="V101">
         <v>2</v>
       </c>
+      <c r="W101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8346,6 +8651,9 @@
       <c r="V102">
         <v>1</v>
       </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8424,6 +8732,9 @@
       <c r="V103">
         <v>45</v>
       </c>
+      <c r="W103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8502,6 +8813,9 @@
       <c r="V104">
         <v>1</v>
       </c>
+      <c r="W104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8580,6 +8894,9 @@
       <c r="V105">
         <v>1</v>
       </c>
+      <c r="W105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8658,6 +8975,9 @@
       <c r="V106">
         <v>2</v>
       </c>
+      <c r="W106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8736,6 +9056,9 @@
       <c r="V107">
         <v>6</v>
       </c>
+      <c r="W107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8814,6 +9137,9 @@
       <c r="V108">
         <v>22</v>
       </c>
+      <c r="W108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8892,6 +9218,9 @@
       <c r="V109">
         <v>88</v>
       </c>
+      <c r="W109">
+        <v>89</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8970,6 +9299,9 @@
       <c r="V110">
         <v>17</v>
       </c>
+      <c r="W110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9048,6 +9380,9 @@
       <c r="V111">
         <v>17</v>
       </c>
+      <c r="W111">
+        <v>18</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9126,6 +9461,9 @@
       <c r="V112">
         <v>44</v>
       </c>
+      <c r="W112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9204,6 +9542,9 @@
       <c r="V113">
         <v>350</v>
       </c>
+      <c r="W113">
+        <v>355</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9282,6 +9623,9 @@
       <c r="V114">
         <v>146</v>
       </c>
+      <c r="W114">
+        <v>146</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9360,6 +9704,9 @@
       <c r="V115">
         <v>7</v>
       </c>
+      <c r="W115">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9438,6 +9785,9 @@
       <c r="V116">
         <v>19</v>
       </c>
+      <c r="W116">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9516,6 +9866,9 @@
       <c r="V117">
         <v>41</v>
       </c>
+      <c r="W117">
+        <v>41</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9594,6 +9947,9 @@
       <c r="V118">
         <v>74</v>
       </c>
+      <c r="W118">
+        <v>75</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9672,6 +10028,9 @@
       <c r="V119">
         <v>129</v>
       </c>
+      <c r="W119">
+        <v>131</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9750,6 +10109,9 @@
       <c r="V120">
         <v>44</v>
       </c>
+      <c r="W120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9828,6 +10190,9 @@
       <c r="V121">
         <v>8</v>
       </c>
+      <c r="W121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9906,6 +10271,9 @@
       <c r="V122">
         <v>49</v>
       </c>
+      <c r="W122">
+        <v>49</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9984,6 +10352,9 @@
       <c r="V123">
         <v>13</v>
       </c>
+      <c r="W123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10062,6 +10433,9 @@
       <c r="V124">
         <v>28</v>
       </c>
+      <c r="W124">
+        <v>29</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10140,6 +10514,9 @@
       <c r="V125">
         <v>17</v>
       </c>
+      <c r="W125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10218,6 +10595,9 @@
       <c r="V126">
         <v>2</v>
       </c>
+      <c r="W126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10296,6 +10676,9 @@
       <c r="V127">
         <v>10</v>
       </c>
+      <c r="W127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10374,6 +10757,9 @@
       <c r="V128">
         <v>1</v>
       </c>
+      <c r="W128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10452,6 +10838,9 @@
       <c r="V129">
         <v>7</v>
       </c>
+      <c r="W129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10530,6 +10919,9 @@
       <c r="V130">
         <v>9</v>
       </c>
+      <c r="W130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10608,6 +11000,9 @@
       <c r="V131">
         <v>8</v>
       </c>
+      <c r="W131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10686,6 +11081,9 @@
       <c r="V132">
         <v>13</v>
       </c>
+      <c r="W132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10764,6 +11162,9 @@
       <c r="V133">
         <v>44</v>
       </c>
+      <c r="W133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10842,6 +11243,9 @@
       <c r="V134">
         <v>0</v>
       </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10920,6 +11324,9 @@
       <c r="V135">
         <v>0</v>
       </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10998,6 +11405,9 @@
       <c r="V136">
         <v>10</v>
       </c>
+      <c r="W136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11076,6 +11486,9 @@
       <c r="V137">
         <v>4</v>
       </c>
+      <c r="W137">
+        <v>4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11154,6 +11567,9 @@
       <c r="V138">
         <v>29</v>
       </c>
+      <c r="W138">
+        <v>31</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11232,6 +11648,9 @@
       <c r="V139">
         <v>2</v>
       </c>
+      <c r="W139">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11310,6 +11729,9 @@
       <c r="V140">
         <v>1</v>
       </c>
+      <c r="W140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11388,6 +11810,9 @@
       <c r="V141">
         <v>2</v>
       </c>
+      <c r="W141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11466,6 +11891,9 @@
       <c r="V142">
         <v>5</v>
       </c>
+      <c r="W142">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11544,6 +11972,9 @@
       <c r="V143">
         <v>9</v>
       </c>
+      <c r="W143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11622,6 +12053,9 @@
       <c r="V144">
         <v>1</v>
       </c>
+      <c r="W144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11700,6 +12134,9 @@
       <c r="V145">
         <v>76</v>
       </c>
+      <c r="W145">
+        <v>77</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11778,6 +12215,9 @@
       <c r="V146">
         <v>31</v>
       </c>
+      <c r="W146">
+        <v>31</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11856,6 +12296,9 @@
       <c r="V147">
         <v>15</v>
       </c>
+      <c r="W147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11934,6 +12377,9 @@
       <c r="V148">
         <v>56</v>
       </c>
+      <c r="W148">
+        <v>56</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12012,6 +12458,9 @@
       <c r="V149">
         <v>11</v>
       </c>
+      <c r="W149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12090,6 +12539,9 @@
       <c r="V150">
         <v>32</v>
       </c>
+      <c r="W150">
+        <v>32</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12168,6 +12620,9 @@
       <c r="V151">
         <v>0</v>
       </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12246,6 +12701,9 @@
       <c r="V152">
         <v>16</v>
       </c>
+      <c r="W152">
+        <v>17</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12324,6 +12782,9 @@
       <c r="V153">
         <v>4</v>
       </c>
+      <c r="W153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12402,6 +12863,9 @@
       <c r="V154">
         <v>5</v>
       </c>
+      <c r="W154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12480,6 +12944,9 @@
       <c r="V155">
         <v>3</v>
       </c>
+      <c r="W155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12558,6 +13025,9 @@
       <c r="V156">
         <v>2</v>
       </c>
+      <c r="W156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12636,6 +13106,9 @@
       <c r="V157">
         <v>14</v>
       </c>
+      <c r="W157">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12714,6 +13187,9 @@
       <c r="V158">
         <v>2</v>
       </c>
+      <c r="W158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12792,6 +13268,9 @@
       <c r="V159">
         <v>4</v>
       </c>
+      <c r="W159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12870,6 +13349,9 @@
       <c r="V160">
         <v>0</v>
       </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12948,6 +13430,9 @@
       <c r="V161">
         <v>0</v>
       </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13026,6 +13511,9 @@
       <c r="V162">
         <v>2</v>
       </c>
+      <c r="W162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13104,6 +13592,9 @@
       <c r="V163">
         <v>0</v>
       </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13182,6 +13673,9 @@
       <c r="V164">
         <v>0</v>
       </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13260,6 +13754,9 @@
       <c r="V165">
         <v>1</v>
       </c>
+      <c r="W165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13338,6 +13835,9 @@
       <c r="V166">
         <v>0</v>
       </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13416,6 +13916,9 @@
       <c r="V167">
         <v>1</v>
       </c>
+      <c r="W167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13494,6 +13997,9 @@
       <c r="V168">
         <v>5</v>
       </c>
+      <c r="W168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13572,6 +14078,9 @@
       <c r="V169">
         <v>2</v>
       </c>
+      <c r="W169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13650,6 +14159,9 @@
       <c r="V170">
         <v>1</v>
       </c>
+      <c r="W170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13728,6 +14240,9 @@
       <c r="V171">
         <v>3</v>
       </c>
+      <c r="W171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13806,6 +14321,9 @@
       <c r="V172">
         <v>1</v>
       </c>
+      <c r="W172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13884,6 +14402,9 @@
       <c r="V173">
         <v>13</v>
       </c>
+      <c r="W173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13962,6 +14483,9 @@
       <c r="V174">
         <v>36</v>
       </c>
+      <c r="W174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14040,6 +14564,9 @@
       <c r="V175">
         <v>1</v>
       </c>
+      <c r="W175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14118,6 +14645,9 @@
       <c r="V176">
         <v>8</v>
       </c>
+      <c r="W176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14196,6 +14726,9 @@
       <c r="V177">
         <v>2</v>
       </c>
+      <c r="W177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14274,6 +14807,9 @@
       <c r="V178">
         <v>5</v>
       </c>
+      <c r="W178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14352,6 +14888,9 @@
       <c r="V179">
         <v>4</v>
       </c>
+      <c r="W179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14430,6 +14969,9 @@
       <c r="V180">
         <v>10</v>
       </c>
+      <c r="W180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14508,6 +15050,9 @@
       <c r="V181">
         <v>9</v>
       </c>
+      <c r="W181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14586,6 +15131,9 @@
       <c r="V182">
         <v>2</v>
       </c>
+      <c r="W182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14664,6 +15212,9 @@
       <c r="V183">
         <v>1</v>
       </c>
+      <c r="W183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14742,6 +15293,9 @@
       <c r="V184">
         <v>0</v>
       </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14820,6 +15374,9 @@
       <c r="V185">
         <v>1</v>
       </c>
+      <c r="W185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14898,6 +15455,9 @@
       <c r="V186">
         <v>9</v>
       </c>
+      <c r="W186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14976,6 +15536,9 @@
       <c r="V187">
         <v>0</v>
       </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15054,6 +15617,9 @@
       <c r="V188">
         <v>0</v>
       </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15132,6 +15698,9 @@
       <c r="V189">
         <v>0</v>
       </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15210,6 +15779,9 @@
       <c r="V190">
         <v>21</v>
       </c>
+      <c r="W190">
+        <v>21</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15288,6 +15860,9 @@
       <c r="V191">
         <v>17</v>
       </c>
+      <c r="W191">
+        <v>17</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15366,6 +15941,9 @@
       <c r="V192">
         <v>51</v>
       </c>
+      <c r="W192">
+        <v>51</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15444,6 +16022,9 @@
       <c r="V193">
         <v>37</v>
       </c>
+      <c r="W193">
+        <v>37</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -15522,6 +16103,9 @@
       <c r="V194">
         <v>26</v>
       </c>
+      <c r="W194">
+        <v>27</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15600,6 +16184,9 @@
       <c r="V195">
         <v>8</v>
       </c>
+      <c r="W195">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15678,6 +16265,9 @@
       <c r="V196">
         <v>38</v>
       </c>
+      <c r="W196">
+        <v>38</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15756,6 +16346,9 @@
       <c r="V197">
         <v>4</v>
       </c>
+      <c r="W197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15834,6 +16427,9 @@
       <c r="V198">
         <v>21</v>
       </c>
+      <c r="W198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15912,6 +16508,9 @@
       <c r="V199">
         <v>2</v>
       </c>
+      <c r="W199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15990,6 +16589,9 @@
       <c r="V200">
         <v>5</v>
       </c>
+      <c r="W200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -16068,6 +16670,9 @@
       <c r="V201">
         <v>1</v>
       </c>
+      <c r="W201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -16146,6 +16751,9 @@
       <c r="V202">
         <v>1</v>
       </c>
+      <c r="W202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16224,6 +16832,9 @@
       <c r="V203">
         <v>2</v>
       </c>
+      <c r="W203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16302,6 +16913,9 @@
       <c r="V204">
         <v>0</v>
       </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16380,6 +16994,9 @@
       <c r="V205">
         <v>1</v>
       </c>
+      <c r="W205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -16458,6 +17075,9 @@
       <c r="V206">
         <v>0</v>
       </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -16536,6 +17156,9 @@
       <c r="V207">
         <v>0</v>
       </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -16614,6 +17237,9 @@
       <c r="V208">
         <v>0</v>
       </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -16692,6 +17318,9 @@
       <c r="V209">
         <v>0</v>
       </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -16770,6 +17399,9 @@
       <c r="V210">
         <v>0</v>
       </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -16848,6 +17480,9 @@
       <c r="V211">
         <v>0</v>
       </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -16926,6 +17561,9 @@
       <c r="V212">
         <v>2</v>
       </c>
+      <c r="W212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -17004,6 +17642,9 @@
       <c r="V213">
         <v>0</v>
       </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -17082,6 +17723,9 @@
       <c r="V214">
         <v>1</v>
       </c>
+      <c r="W214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -17160,6 +17804,9 @@
       <c r="V215">
         <v>25</v>
       </c>
+      <c r="W215">
+        <v>25</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -17238,6 +17885,9 @@
       <c r="V216">
         <v>170</v>
       </c>
+      <c r="W216">
+        <v>174</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17316,6 +17966,9 @@
       <c r="V217">
         <v>9</v>
       </c>
+      <c r="W217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -17394,6 +18047,9 @@
       <c r="V218">
         <v>11</v>
       </c>
+      <c r="W218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -17472,6 +18128,9 @@
       <c r="V219">
         <v>0</v>
       </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -17550,6 +18209,9 @@
       <c r="V220">
         <v>2</v>
       </c>
+      <c r="W220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -17628,6 +18290,9 @@
       <c r="V221">
         <v>0</v>
       </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -17706,6 +18371,9 @@
       <c r="V222">
         <v>0</v>
       </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -17784,6 +18452,9 @@
       <c r="V223">
         <v>2</v>
       </c>
+      <c r="W223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -17862,6 +18533,9 @@
       <c r="V224">
         <v>7</v>
       </c>
+      <c r="W224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -17940,6 +18614,9 @@
       <c r="V225">
         <v>3</v>
       </c>
+      <c r="W225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -18018,6 +18695,9 @@
       <c r="V226">
         <v>1</v>
       </c>
+      <c r="W226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -18096,6 +18776,9 @@
       <c r="V227">
         <v>1</v>
       </c>
+      <c r="W227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -18174,6 +18857,9 @@
       <c r="V228">
         <v>2</v>
       </c>
+      <c r="W228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -18252,6 +18938,9 @@
       <c r="V229">
         <v>2</v>
       </c>
+      <c r="W229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -18330,6 +19019,9 @@
       <c r="V230">
         <v>0</v>
       </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -18408,6 +19100,9 @@
       <c r="V231">
         <v>3</v>
       </c>
+      <c r="W231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -18486,6 +19181,9 @@
       <c r="V232">
         <v>7</v>
       </c>
+      <c r="W232">
+        <v>8</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -18564,6 +19262,9 @@
       <c r="V233">
         <v>0</v>
       </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -18642,6 +19343,9 @@
       <c r="V234">
         <v>4</v>
       </c>
+      <c r="W234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -18720,6 +19424,9 @@
       <c r="V235">
         <v>1</v>
       </c>
+      <c r="W235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -18798,6 +19505,9 @@
       <c r="V236">
         <v>1</v>
       </c>
+      <c r="W236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -18876,6 +19586,9 @@
       <c r="V237">
         <v>1</v>
       </c>
+      <c r="W237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -18954,6 +19667,9 @@
       <c r="V238">
         <v>414</v>
       </c>
+      <c r="W238">
+        <v>415</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -19032,6 +19748,9 @@
       <c r="V239">
         <v>8</v>
       </c>
+      <c r="W239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -19110,6 +19829,9 @@
       <c r="V240">
         <v>4</v>
       </c>
+      <c r="W240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -19188,6 +19910,9 @@
       <c r="V241">
         <v>3</v>
       </c>
+      <c r="W241">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -19266,6 +19991,9 @@
       <c r="V242">
         <v>4</v>
       </c>
+      <c r="W242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -19344,6 +20072,9 @@
       <c r="V243">
         <v>6</v>
       </c>
+      <c r="W243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -19422,6 +20153,9 @@
       <c r="V244">
         <v>7</v>
       </c>
+      <c r="W244">
+        <v>7</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -19500,6 +20234,9 @@
       <c r="V245">
         <v>0</v>
       </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -19578,6 +20315,9 @@
       <c r="V246">
         <v>4</v>
       </c>
+      <c r="W246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -19656,6 +20396,9 @@
       <c r="V247">
         <v>0</v>
       </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -19734,6 +20477,9 @@
       <c r="V248">
         <v>0</v>
       </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -19812,6 +20558,9 @@
       <c r="V249">
         <v>2</v>
       </c>
+      <c r="W249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -19890,6 +20639,9 @@
       <c r="V250">
         <v>24</v>
       </c>
+      <c r="W250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -19968,6 +20720,9 @@
       <c r="V251">
         <v>9</v>
       </c>
+      <c r="W251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -20046,6 +20801,9 @@
       <c r="V252">
         <v>0</v>
       </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -20124,6 +20882,9 @@
       <c r="V253">
         <v>16</v>
       </c>
+      <c r="W253">
+        <v>16</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -20202,6 +20963,9 @@
       <c r="V254">
         <v>4</v>
       </c>
+      <c r="W254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -20280,6 +21044,9 @@
       <c r="V255">
         <v>40</v>
       </c>
+      <c r="W255">
+        <v>41</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -20358,6 +21125,9 @@
       <c r="V256">
         <v>29</v>
       </c>
+      <c r="W256">
+        <v>29</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -20436,6 +21206,9 @@
       <c r="V257">
         <v>1</v>
       </c>
+      <c r="W257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -20514,6 +21287,9 @@
       <c r="V258">
         <v>0</v>
       </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -20592,6 +21368,9 @@
       <c r="V259">
         <v>2</v>
       </c>
+      <c r="W259">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -20670,6 +21449,9 @@
       <c r="V260">
         <v>18</v>
       </c>
+      <c r="W260">
+        <v>18</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -20748,6 +21530,9 @@
       <c r="V261">
         <v>0</v>
       </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -20826,6 +21611,9 @@
       <c r="V262">
         <v>0</v>
       </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -20904,6 +21692,9 @@
       <c r="V263">
         <v>0</v>
       </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -20982,6 +21773,9 @@
       <c r="V264">
         <v>0</v>
       </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -21060,6 +21854,9 @@
       <c r="V265">
         <v>3</v>
       </c>
+      <c r="W265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -21138,6 +21935,9 @@
       <c r="V266">
         <v>0</v>
       </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -21216,6 +22016,9 @@
       <c r="V267">
         <v>3</v>
       </c>
+      <c r="W267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -21294,6 +22097,9 @@
       <c r="V268">
         <v>0</v>
       </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -21372,6 +22178,9 @@
       <c r="V269">
         <v>7</v>
       </c>
+      <c r="W269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -21450,6 +22259,9 @@
       <c r="V270">
         <v>0</v>
       </c>
+      <c r="W270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -21528,6 +22340,9 @@
       <c r="V271">
         <v>0</v>
       </c>
+      <c r="W271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -21606,6 +22421,9 @@
       <c r="V272">
         <v>1</v>
       </c>
+      <c r="W272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -21684,6 +22502,9 @@
       <c r="V273">
         <v>4</v>
       </c>
+      <c r="W273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -21762,6 +22583,9 @@
       <c r="V274">
         <v>0</v>
       </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -21840,6 +22664,9 @@
       <c r="V275">
         <v>0</v>
       </c>
+      <c r="W275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -21918,6 +22745,9 @@
       <c r="V276">
         <v>17</v>
       </c>
+      <c r="W276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -21996,6 +22826,9 @@
       <c r="V277">
         <v>0</v>
       </c>
+      <c r="W277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -22074,6 +22907,9 @@
       <c r="V278">
         <v>0</v>
       </c>
+      <c r="W278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -22152,6 +22988,9 @@
       <c r="V279">
         <v>4</v>
       </c>
+      <c r="W279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -22230,6 +23069,9 @@
       <c r="V280">
         <v>12</v>
       </c>
+      <c r="W280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -22308,6 +23150,9 @@
       <c r="V281">
         <v>209</v>
       </c>
+      <c r="W281">
+        <v>209</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -22386,6 +23231,9 @@
       <c r="V282">
         <v>16</v>
       </c>
+      <c r="W282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -22464,6 +23312,9 @@
       <c r="V283">
         <v>5</v>
       </c>
+      <c r="W283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -22542,6 +23393,9 @@
       <c r="V284">
         <v>0</v>
       </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -22620,6 +23474,9 @@
       <c r="V285">
         <v>0</v>
       </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -22698,6 +23555,9 @@
       <c r="V286">
         <v>8</v>
       </c>
+      <c r="W286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -22776,6 +23636,9 @@
       <c r="V287">
         <v>5</v>
       </c>
+      <c r="W287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -22854,6 +23717,9 @@
       <c r="V288">
         <v>0</v>
       </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -22932,6 +23798,9 @@
       <c r="V289">
         <v>1</v>
       </c>
+      <c r="W289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -23010,6 +23879,9 @@
       <c r="V290">
         <v>7</v>
       </c>
+      <c r="W290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -23088,6 +23960,9 @@
       <c r="V291">
         <v>3</v>
       </c>
+      <c r="W291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -23166,6 +24041,9 @@
       <c r="V292">
         <v>5</v>
       </c>
+      <c r="W292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -23244,6 +24122,9 @@
       <c r="V293">
         <v>11</v>
       </c>
+      <c r="W293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -23322,6 +24203,9 @@
       <c r="V294">
         <v>6</v>
       </c>
+      <c r="W294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -23400,6 +24284,9 @@
       <c r="V295">
         <v>0</v>
       </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -23478,6 +24365,9 @@
       <c r="V296">
         <v>1</v>
       </c>
+      <c r="W296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -23556,6 +24446,9 @@
       <c r="V297">
         <v>7</v>
       </c>
+      <c r="W297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -23634,6 +24527,9 @@
       <c r="V298">
         <v>28</v>
       </c>
+      <c r="W298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -23712,6 +24608,9 @@
       <c r="V299">
         <v>19</v>
       </c>
+      <c r="W299">
+        <v>20</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -23790,6 +24689,9 @@
       <c r="V300">
         <v>15</v>
       </c>
+      <c r="W300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -23868,6 +24770,9 @@
       <c r="V301">
         <v>0</v>
       </c>
+      <c r="W301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -23946,6 +24851,9 @@
       <c r="V302">
         <v>0</v>
       </c>
+      <c r="W302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -24024,6 +24932,9 @@
       <c r="V303">
         <v>0</v>
       </c>
+      <c r="W303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -24102,6 +25013,9 @@
       <c r="V304">
         <v>0</v>
       </c>
+      <c r="W304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -24180,6 +25094,9 @@
       <c r="V305">
         <v>3</v>
       </c>
+      <c r="W305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -24258,6 +25175,9 @@
       <c r="V306">
         <v>1</v>
       </c>
+      <c r="W306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -24336,6 +25256,9 @@
       <c r="V307">
         <v>4</v>
       </c>
+      <c r="W307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -24414,6 +25337,9 @@
       <c r="V308">
         <v>0</v>
       </c>
+      <c r="W308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -24492,6 +25418,9 @@
       <c r="V309">
         <v>0</v>
       </c>
+      <c r="W309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -24570,6 +25499,9 @@
       <c r="V310">
         <v>7</v>
       </c>
+      <c r="W310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -24648,6 +25580,9 @@
       <c r="V311">
         <v>2</v>
       </c>
+      <c r="W311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -24726,6 +25661,9 @@
       <c r="V312">
         <v>2</v>
       </c>
+      <c r="W312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -24804,6 +25742,9 @@
       <c r="V313">
         <v>2</v>
       </c>
+      <c r="W313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -24882,6 +25823,9 @@
       <c r="V314">
         <v>10</v>
       </c>
+      <c r="W314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -24960,6 +25904,9 @@
       <c r="V315">
         <v>1</v>
       </c>
+      <c r="W315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -25038,6 +25985,9 @@
       <c r="V316">
         <v>12</v>
       </c>
+      <c r="W316">
+        <v>13</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -25116,6 +26066,9 @@
       <c r="V317">
         <v>0</v>
       </c>
+      <c r="W317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -25194,6 +26147,9 @@
       <c r="V318">
         <v>0</v>
       </c>
+      <c r="W318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -25272,6 +26228,9 @@
       <c r="V319">
         <v>113</v>
       </c>
+      <c r="W319">
+        <v>115</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -25350,6 +26309,9 @@
       <c r="V320">
         <v>4</v>
       </c>
+      <c r="W320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -25428,6 +26390,9 @@
       <c r="V321">
         <v>5</v>
       </c>
+      <c r="W321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -25506,6 +26471,9 @@
       <c r="V322">
         <v>1</v>
       </c>
+      <c r="W322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -25584,6 +26552,9 @@
       <c r="V323">
         <v>3</v>
       </c>
+      <c r="W323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -25662,6 +26633,9 @@
       <c r="V324">
         <v>14</v>
       </c>
+      <c r="W324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -25740,6 +26714,9 @@
       <c r="V325">
         <v>1</v>
       </c>
+      <c r="W325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -25818,6 +26795,9 @@
       <c r="V326">
         <v>1</v>
       </c>
+      <c r="W326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -25896,6 +26876,9 @@
       <c r="V327">
         <v>0</v>
       </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -25974,6 +26957,9 @@
       <c r="V328">
         <v>0</v>
       </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -26052,6 +27038,9 @@
       <c r="V329">
         <v>3</v>
       </c>
+      <c r="W329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -26130,6 +27119,9 @@
       <c r="V330">
         <v>1</v>
       </c>
+      <c r="W330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -26208,6 +27200,9 @@
       <c r="V331">
         <v>2</v>
       </c>
+      <c r="W331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -26286,6 +27281,9 @@
       <c r="V332">
         <v>0</v>
       </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -26364,6 +27362,9 @@
       <c r="V333">
         <v>0</v>
       </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -26442,6 +27443,9 @@
       <c r="V334">
         <v>0</v>
       </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -26520,6 +27524,9 @@
       <c r="V335">
         <v>16</v>
       </c>
+      <c r="W335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -26598,6 +27605,9 @@
       <c r="V336">
         <v>2</v>
       </c>
+      <c r="W336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -26676,6 +27686,9 @@
       <c r="V337">
         <v>1</v>
       </c>
+      <c r="W337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -26754,6 +27767,9 @@
       <c r="V338">
         <v>2</v>
       </c>
+      <c r="W338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -26832,6 +27848,9 @@
       <c r="V339">
         <v>0</v>
       </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -26910,6 +27929,9 @@
       <c r="V340">
         <v>0</v>
       </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -26988,6 +28010,9 @@
       <c r="V341">
         <v>1</v>
       </c>
+      <c r="W341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -27066,6 +28091,9 @@
       <c r="V342">
         <v>2</v>
       </c>
+      <c r="W342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -27144,6 +28172,9 @@
       <c r="V343">
         <v>0</v>
       </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -27222,6 +28253,9 @@
       <c r="V344">
         <v>1</v>
       </c>
+      <c r="W344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -27300,6 +28334,9 @@
       <c r="V345">
         <v>0</v>
       </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -27378,6 +28415,9 @@
       <c r="V346">
         <v>0</v>
       </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -27456,6 +28496,9 @@
       <c r="V347">
         <v>2</v>
       </c>
+      <c r="W347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -27534,6 +28577,9 @@
       <c r="V348">
         <v>2</v>
       </c>
+      <c r="W348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -27612,6 +28658,9 @@
       <c r="V349">
         <v>4</v>
       </c>
+      <c r="W349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -27690,6 +28739,9 @@
       <c r="V350">
         <v>1</v>
       </c>
+      <c r="W350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -27768,6 +28820,9 @@
       <c r="V351">
         <v>0</v>
       </c>
+      <c r="W351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -27846,6 +28901,9 @@
       <c r="V352">
         <v>0</v>
       </c>
+      <c r="W352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -27924,6 +28982,9 @@
       <c r="V353">
         <v>0</v>
       </c>
+      <c r="W353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -28002,6 +29063,9 @@
       <c r="V354">
         <v>1</v>
       </c>
+      <c r="W354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -28080,6 +29144,9 @@
       <c r="V355">
         <v>1</v>
       </c>
+      <c r="W355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -28158,6 +29225,9 @@
       <c r="V356">
         <v>0</v>
       </c>
+      <c r="W356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -28236,6 +29306,9 @@
       <c r="V357">
         <v>4</v>
       </c>
+      <c r="W357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -28314,6 +29387,9 @@
       <c r="V358">
         <v>0</v>
       </c>
+      <c r="W358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -28391,6 +29467,9 @@
       </c>
       <c r="V359">
         <v>2</v>
+      </c>
+      <c r="W359">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W359"/>
+  <dimension ref="A1:X359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +473,11 @@
           <t>2020-04-11</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -554,6 +559,9 @@
       <c r="W2">
         <v>1866</v>
       </c>
+      <c r="X2">
+        <v>1893</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -635,6 +643,9 @@
       <c r="W3">
         <v>14</v>
       </c>
+      <c r="X3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -716,6 +727,9 @@
       <c r="W4">
         <v>125</v>
       </c>
+      <c r="X4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -797,6 +811,9 @@
       <c r="W5">
         <v>49</v>
       </c>
+      <c r="X5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -878,6 +895,9 @@
       <c r="W6">
         <v>46</v>
       </c>
+      <c r="X6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -959,6 +979,9 @@
       <c r="W7">
         <v>3</v>
       </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1040,6 +1063,9 @@
       <c r="W8">
         <v>0</v>
       </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1121,6 +1147,9 @@
       <c r="W9">
         <v>0</v>
       </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1202,6 +1231,9 @@
       <c r="W10">
         <v>6</v>
       </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1283,6 +1315,9 @@
       <c r="W11">
         <v>6</v>
       </c>
+      <c r="X11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1364,6 +1399,9 @@
       <c r="W12">
         <v>12</v>
       </c>
+      <c r="X12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1445,6 +1483,9 @@
       <c r="W13">
         <v>12</v>
       </c>
+      <c r="X13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1526,6 +1567,9 @@
       <c r="W14">
         <v>13</v>
       </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1607,6 +1651,9 @@
       <c r="W15">
         <v>11</v>
       </c>
+      <c r="X15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1688,6 +1735,9 @@
       <c r="W16">
         <v>13</v>
       </c>
+      <c r="X16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1769,6 +1819,9 @@
       <c r="W17">
         <v>0</v>
       </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1850,6 +1903,9 @@
       <c r="W18">
         <v>0</v>
       </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1931,6 +1987,9 @@
       <c r="W19">
         <v>3</v>
       </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2012,6 +2071,9 @@
       <c r="W20">
         <v>0</v>
       </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2093,6 +2155,9 @@
       <c r="W21">
         <v>1</v>
       </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2174,6 +2239,9 @@
       <c r="W22">
         <v>19</v>
       </c>
+      <c r="X22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2255,6 +2323,9 @@
       <c r="W23">
         <v>35</v>
       </c>
+      <c r="X23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2336,6 +2407,9 @@
       <c r="W24">
         <v>0</v>
       </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2417,6 +2491,9 @@
       <c r="W25">
         <v>11</v>
       </c>
+      <c r="X25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2498,6 +2575,9 @@
       <c r="W26">
         <v>18</v>
       </c>
+      <c r="X26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2579,6 +2659,9 @@
       <c r="W27">
         <v>14</v>
       </c>
+      <c r="X27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2660,6 +2743,9 @@
       <c r="W28">
         <v>25</v>
       </c>
+      <c r="X28">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2741,6 +2827,9 @@
       <c r="W29">
         <v>1</v>
       </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2822,6 +2911,9 @@
       <c r="W30">
         <v>3</v>
       </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2903,6 +2995,9 @@
       <c r="W31">
         <v>3</v>
       </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2984,6 +3079,9 @@
       <c r="W32">
         <v>7</v>
       </c>
+      <c r="X32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3065,6 +3163,9 @@
       <c r="W33">
         <v>2</v>
       </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3146,6 +3247,9 @@
       <c r="W34">
         <v>6</v>
       </c>
+      <c r="X34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3227,6 +3331,9 @@
       <c r="W35">
         <v>0</v>
       </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3308,6 +3415,9 @@
       <c r="W36">
         <v>0</v>
       </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3389,6 +3499,9 @@
       <c r="W37">
         <v>6</v>
       </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3470,6 +3583,9 @@
       <c r="W38">
         <v>5</v>
       </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3551,6 +3667,9 @@
       <c r="W39">
         <v>0</v>
       </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3632,6 +3751,9 @@
       <c r="W40">
         <v>10</v>
       </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3713,6 +3835,9 @@
       <c r="W41">
         <v>0</v>
       </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3794,6 +3919,9 @@
       <c r="W42">
         <v>0</v>
       </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3875,6 +4003,9 @@
       <c r="W43">
         <v>0</v>
       </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3956,6 +4087,9 @@
       <c r="W44">
         <v>1</v>
       </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4037,6 +4171,9 @@
       <c r="W45">
         <v>2</v>
       </c>
+      <c r="X45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4118,6 +4255,9 @@
       <c r="W46">
         <v>2</v>
       </c>
+      <c r="X46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4199,6 +4339,9 @@
       <c r="W47">
         <v>0</v>
       </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4280,6 +4423,9 @@
       <c r="W48">
         <v>3</v>
       </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4361,6 +4507,9 @@
       <c r="W49">
         <v>4</v>
       </c>
+      <c r="X49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4442,6 +4591,9 @@
       <c r="W50">
         <v>1</v>
       </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4523,6 +4675,9 @@
       <c r="W51">
         <v>3</v>
       </c>
+      <c r="X51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4604,6 +4759,9 @@
       <c r="W52">
         <v>33</v>
       </c>
+      <c r="X52">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4685,6 +4843,9 @@
       <c r="W53">
         <v>2</v>
       </c>
+      <c r="X53">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4766,6 +4927,9 @@
       <c r="W54">
         <v>0</v>
       </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4847,6 +5011,9 @@
       <c r="W55">
         <v>2</v>
       </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4928,6 +5095,9 @@
       <c r="W56">
         <v>5</v>
       </c>
+      <c r="X56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5009,6 +5179,9 @@
       <c r="W57">
         <v>3</v>
       </c>
+      <c r="X57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5090,6 +5263,9 @@
       <c r="W58">
         <v>0</v>
       </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5171,6 +5347,9 @@
       <c r="W59">
         <v>0</v>
       </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5252,6 +5431,9 @@
       <c r="W60">
         <v>2</v>
       </c>
+      <c r="X60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5333,6 +5515,9 @@
       <c r="W61">
         <v>3</v>
       </c>
+      <c r="X61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5414,6 +5599,9 @@
       <c r="W62">
         <v>1</v>
       </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5495,6 +5683,9 @@
       <c r="W63">
         <v>1</v>
       </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5576,6 +5767,9 @@
       <c r="W64">
         <v>0</v>
       </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5657,6 +5851,9 @@
       <c r="W65">
         <v>5</v>
       </c>
+      <c r="X65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5738,6 +5935,9 @@
       <c r="W66">
         <v>0</v>
       </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5819,6 +6019,9 @@
       <c r="W67">
         <v>0</v>
       </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5900,6 +6103,9 @@
       <c r="W68">
         <v>4</v>
       </c>
+      <c r="X68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5981,6 +6187,9 @@
       <c r="W69">
         <v>0</v>
       </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6062,6 +6271,9 @@
       <c r="W70">
         <v>0</v>
       </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6143,6 +6355,9 @@
       <c r="W71">
         <v>0</v>
       </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6224,6 +6439,9 @@
       <c r="W72">
         <v>5</v>
       </c>
+      <c r="X72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6305,6 +6523,9 @@
       <c r="W73">
         <v>0</v>
       </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6386,6 +6607,9 @@
       <c r="W74">
         <v>0</v>
       </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6467,6 +6691,9 @@
       <c r="W75">
         <v>0</v>
       </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6548,6 +6775,9 @@
       <c r="W76">
         <v>1</v>
       </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6629,6 +6859,9 @@
       <c r="W77">
         <v>0</v>
       </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6710,6 +6943,9 @@
       <c r="W78">
         <v>1</v>
       </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6791,6 +7027,9 @@
       <c r="W79">
         <v>0</v>
       </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6872,6 +7111,9 @@
       <c r="W80">
         <v>0</v>
       </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6953,6 +7195,9 @@
       <c r="W81">
         <v>0</v>
       </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7034,6 +7279,9 @@
       <c r="W82">
         <v>0</v>
       </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7115,6 +7363,9 @@
       <c r="W83">
         <v>4</v>
       </c>
+      <c r="X83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7196,6 +7447,9 @@
       <c r="W84">
         <v>4</v>
       </c>
+      <c r="X84">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7277,6 +7531,9 @@
       <c r="W85">
         <v>3</v>
       </c>
+      <c r="X85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7358,6 +7615,9 @@
       <c r="W86">
         <v>5</v>
       </c>
+      <c r="X86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7439,6 +7699,9 @@
       <c r="W87">
         <v>0</v>
       </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7520,6 +7783,9 @@
       <c r="W88">
         <v>0</v>
       </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7601,6 +7867,9 @@
       <c r="W89">
         <v>6</v>
       </c>
+      <c r="X89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7682,6 +7951,9 @@
       <c r="W90">
         <v>0</v>
       </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7763,6 +8035,9 @@
       <c r="W91">
         <v>0</v>
       </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7844,6 +8119,9 @@
       <c r="W92">
         <v>0</v>
       </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7925,6 +8203,9 @@
       <c r="W93">
         <v>26</v>
       </c>
+      <c r="X93">
+        <v>27</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8006,6 +8287,9 @@
       <c r="W94">
         <v>83</v>
       </c>
+      <c r="X94">
+        <v>84</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8087,6 +8371,9 @@
       <c r="W95">
         <v>46</v>
       </c>
+      <c r="X95">
+        <v>51</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8168,6 +8455,9 @@
       <c r="W96">
         <v>72</v>
       </c>
+      <c r="X96">
+        <v>72</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8249,6 +8539,9 @@
       <c r="W97">
         <v>146</v>
       </c>
+      <c r="X97">
+        <v>148</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8330,6 +8623,9 @@
       <c r="W98">
         <v>20</v>
       </c>
+      <c r="X98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8411,6 +8707,9 @@
       <c r="W99">
         <v>9</v>
       </c>
+      <c r="X99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8492,6 +8791,9 @@
       <c r="W100">
         <v>2</v>
       </c>
+      <c r="X100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8573,6 +8875,9 @@
       <c r="W101">
         <v>2</v>
       </c>
+      <c r="X101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8654,6 +8959,9 @@
       <c r="W102">
         <v>1</v>
       </c>
+      <c r="X102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8735,6 +9043,9 @@
       <c r="W103">
         <v>45</v>
       </c>
+      <c r="X103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8816,6 +9127,9 @@
       <c r="W104">
         <v>1</v>
       </c>
+      <c r="X104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8897,6 +9211,9 @@
       <c r="W105">
         <v>1</v>
       </c>
+      <c r="X105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8978,6 +9295,9 @@
       <c r="W106">
         <v>2</v>
       </c>
+      <c r="X106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9059,6 +9379,9 @@
       <c r="W107">
         <v>6</v>
       </c>
+      <c r="X107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9140,6 +9463,9 @@
       <c r="W108">
         <v>22</v>
       </c>
+      <c r="X108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9221,6 +9547,9 @@
       <c r="W109">
         <v>89</v>
       </c>
+      <c r="X109">
+        <v>89</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9302,6 +9631,9 @@
       <c r="W110">
         <v>17</v>
       </c>
+      <c r="X110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9383,6 +9715,9 @@
       <c r="W111">
         <v>18</v>
       </c>
+      <c r="X111">
+        <v>18</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9464,6 +9799,9 @@
       <c r="W112">
         <v>44</v>
       </c>
+      <c r="X112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9545,6 +9883,9 @@
       <c r="W113">
         <v>355</v>
       </c>
+      <c r="X113">
+        <v>357</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9626,6 +9967,9 @@
       <c r="W114">
         <v>146</v>
       </c>
+      <c r="X114">
+        <v>150</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9707,6 +10051,9 @@
       <c r="W115">
         <v>7</v>
       </c>
+      <c r="X115">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9788,6 +10135,9 @@
       <c r="W116">
         <v>19</v>
       </c>
+      <c r="X116">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9869,6 +10219,9 @@
       <c r="W117">
         <v>41</v>
       </c>
+      <c r="X117">
+        <v>43</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9950,6 +10303,9 @@
       <c r="W118">
         <v>75</v>
       </c>
+      <c r="X118">
+        <v>75</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10031,6 +10387,9 @@
       <c r="W119">
         <v>131</v>
       </c>
+      <c r="X119">
+        <v>134</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10112,6 +10471,9 @@
       <c r="W120">
         <v>45</v>
       </c>
+      <c r="X120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10193,6 +10555,9 @@
       <c r="W121">
         <v>8</v>
       </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10274,6 +10639,9 @@
       <c r="W122">
         <v>49</v>
       </c>
+      <c r="X122">
+        <v>51</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10355,6 +10723,9 @@
       <c r="W123">
         <v>13</v>
       </c>
+      <c r="X123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10436,6 +10807,9 @@
       <c r="W124">
         <v>29</v>
       </c>
+      <c r="X124">
+        <v>29</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10517,6 +10891,9 @@
       <c r="W125">
         <v>17</v>
       </c>
+      <c r="X125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10598,6 +10975,9 @@
       <c r="W126">
         <v>2</v>
       </c>
+      <c r="X126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10679,6 +11059,9 @@
       <c r="W127">
         <v>10</v>
       </c>
+      <c r="X127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10760,6 +11143,9 @@
       <c r="W128">
         <v>1</v>
       </c>
+      <c r="X128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10841,6 +11227,9 @@
       <c r="W129">
         <v>7</v>
       </c>
+      <c r="X129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10922,6 +11311,9 @@
       <c r="W130">
         <v>10</v>
       </c>
+      <c r="X130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11003,6 +11395,9 @@
       <c r="W131">
         <v>8</v>
       </c>
+      <c r="X131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11084,6 +11479,9 @@
       <c r="W132">
         <v>13</v>
       </c>
+      <c r="X132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11165,6 +11563,9 @@
       <c r="W133">
         <v>44</v>
       </c>
+      <c r="X133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11246,6 +11647,9 @@
       <c r="W134">
         <v>0</v>
       </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11327,6 +11731,9 @@
       <c r="W135">
         <v>0</v>
       </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11408,6 +11815,9 @@
       <c r="W136">
         <v>10</v>
       </c>
+      <c r="X136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11489,6 +11899,9 @@
       <c r="W137">
         <v>4</v>
       </c>
+      <c r="X137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11570,6 +11983,9 @@
       <c r="W138">
         <v>31</v>
       </c>
+      <c r="X138">
+        <v>31</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11651,6 +12067,9 @@
       <c r="W139">
         <v>2</v>
       </c>
+      <c r="X139">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11732,6 +12151,9 @@
       <c r="W140">
         <v>1</v>
       </c>
+      <c r="X140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11813,6 +12235,9 @@
       <c r="W141">
         <v>2</v>
       </c>
+      <c r="X141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11894,6 +12319,9 @@
       <c r="W142">
         <v>5</v>
       </c>
+      <c r="X142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11975,6 +12403,9 @@
       <c r="W143">
         <v>9</v>
       </c>
+      <c r="X143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12056,6 +12487,9 @@
       <c r="W144">
         <v>1</v>
       </c>
+      <c r="X144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12137,6 +12571,9 @@
       <c r="W145">
         <v>77</v>
       </c>
+      <c r="X145">
+        <v>78</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12218,6 +12655,9 @@
       <c r="W146">
         <v>31</v>
       </c>
+      <c r="X146">
+        <v>31</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12299,6 +12739,9 @@
       <c r="W147">
         <v>15</v>
       </c>
+      <c r="X147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12380,6 +12823,9 @@
       <c r="W148">
         <v>56</v>
       </c>
+      <c r="X148">
+        <v>57</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12461,6 +12907,9 @@
       <c r="W149">
         <v>11</v>
       </c>
+      <c r="X149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12542,6 +12991,9 @@
       <c r="W150">
         <v>32</v>
       </c>
+      <c r="X150">
+        <v>32</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12623,6 +13075,9 @@
       <c r="W151">
         <v>0</v>
       </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12704,6 +13159,9 @@
       <c r="W152">
         <v>17</v>
       </c>
+      <c r="X152">
+        <v>17</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12785,6 +13243,9 @@
       <c r="W153">
         <v>4</v>
       </c>
+      <c r="X153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12866,6 +13327,9 @@
       <c r="W154">
         <v>5</v>
       </c>
+      <c r="X154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12947,6 +13411,9 @@
       <c r="W155">
         <v>3</v>
       </c>
+      <c r="X155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13028,6 +13495,9 @@
       <c r="W156">
         <v>2</v>
       </c>
+      <c r="X156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13109,6 +13579,9 @@
       <c r="W157">
         <v>14</v>
       </c>
+      <c r="X157">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13190,6 +13663,9 @@
       <c r="W158">
         <v>2</v>
       </c>
+      <c r="X158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13271,6 +13747,9 @@
       <c r="W159">
         <v>4</v>
       </c>
+      <c r="X159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13352,6 +13831,9 @@
       <c r="W160">
         <v>0</v>
       </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13433,6 +13915,9 @@
       <c r="W161">
         <v>0</v>
       </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13514,6 +13999,9 @@
       <c r="W162">
         <v>2</v>
       </c>
+      <c r="X162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13595,6 +14083,9 @@
       <c r="W163">
         <v>0</v>
       </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13676,6 +14167,9 @@
       <c r="W164">
         <v>0</v>
       </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13757,6 +14251,9 @@
       <c r="W165">
         <v>1</v>
       </c>
+      <c r="X165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13838,6 +14335,9 @@
       <c r="W166">
         <v>0</v>
       </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13919,6 +14419,9 @@
       <c r="W167">
         <v>1</v>
       </c>
+      <c r="X167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -14000,6 +14503,9 @@
       <c r="W168">
         <v>5</v>
       </c>
+      <c r="X168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -14081,6 +14587,9 @@
       <c r="W169">
         <v>2</v>
       </c>
+      <c r="X169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14162,6 +14671,9 @@
       <c r="W170">
         <v>1</v>
       </c>
+      <c r="X170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -14243,6 +14755,9 @@
       <c r="W171">
         <v>3</v>
       </c>
+      <c r="X171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -14324,6 +14839,9 @@
       <c r="W172">
         <v>2</v>
       </c>
+      <c r="X172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -14405,6 +14923,9 @@
       <c r="W173">
         <v>13</v>
       </c>
+      <c r="X173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14486,6 +15007,9 @@
       <c r="W174">
         <v>36</v>
       </c>
+      <c r="X174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14567,6 +15091,9 @@
       <c r="W175">
         <v>1</v>
       </c>
+      <c r="X175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14648,6 +15175,9 @@
       <c r="W176">
         <v>8</v>
       </c>
+      <c r="X176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14729,6 +15259,9 @@
       <c r="W177">
         <v>2</v>
       </c>
+      <c r="X177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14810,6 +15343,9 @@
       <c r="W178">
         <v>5</v>
       </c>
+      <c r="X178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14891,6 +15427,9 @@
       <c r="W179">
         <v>4</v>
       </c>
+      <c r="X179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14972,6 +15511,9 @@
       <c r="W180">
         <v>10</v>
       </c>
+      <c r="X180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -15053,6 +15595,9 @@
       <c r="W181">
         <v>9</v>
       </c>
+      <c r="X181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -15134,6 +15679,9 @@
       <c r="W182">
         <v>2</v>
       </c>
+      <c r="X182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -15215,6 +15763,9 @@
       <c r="W183">
         <v>1</v>
       </c>
+      <c r="X183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -15296,6 +15847,9 @@
       <c r="W184">
         <v>0</v>
       </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -15377,6 +15931,9 @@
       <c r="W185">
         <v>1</v>
       </c>
+      <c r="X185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -15458,6 +16015,9 @@
       <c r="W186">
         <v>9</v>
       </c>
+      <c r="X186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -15539,6 +16099,9 @@
       <c r="W187">
         <v>0</v>
       </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15620,6 +16183,9 @@
       <c r="W188">
         <v>0</v>
       </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15701,6 +16267,9 @@
       <c r="W189">
         <v>0</v>
       </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15782,6 +16351,9 @@
       <c r="W190">
         <v>21</v>
       </c>
+      <c r="X190">
+        <v>23</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15863,6 +16435,9 @@
       <c r="W191">
         <v>17</v>
       </c>
+      <c r="X191">
+        <v>17</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15944,6 +16519,9 @@
       <c r="W192">
         <v>51</v>
       </c>
+      <c r="X192">
+        <v>51</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -16025,6 +16603,9 @@
       <c r="W193">
         <v>37</v>
       </c>
+      <c r="X193">
+        <v>37</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -16106,6 +16687,9 @@
       <c r="W194">
         <v>27</v>
       </c>
+      <c r="X194">
+        <v>28</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -16187,6 +16771,9 @@
       <c r="W195">
         <v>8</v>
       </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -16268,6 +16855,9 @@
       <c r="W196">
         <v>38</v>
       </c>
+      <c r="X196">
+        <v>38</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -16349,6 +16939,9 @@
       <c r="W197">
         <v>4</v>
       </c>
+      <c r="X197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -16430,6 +17023,9 @@
       <c r="W198">
         <v>21</v>
       </c>
+      <c r="X198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -16511,6 +17107,9 @@
       <c r="W199">
         <v>2</v>
       </c>
+      <c r="X199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16592,6 +17191,9 @@
       <c r="W200">
         <v>5</v>
       </c>
+      <c r="X200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -16673,6 +17275,9 @@
       <c r="W201">
         <v>1</v>
       </c>
+      <c r="X201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -16754,6 +17359,9 @@
       <c r="W202">
         <v>1</v>
       </c>
+      <c r="X202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16835,6 +17443,9 @@
       <c r="W203">
         <v>2</v>
       </c>
+      <c r="X203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16916,6 +17527,9 @@
       <c r="W204">
         <v>0</v>
       </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16997,6 +17611,9 @@
       <c r="W205">
         <v>1</v>
       </c>
+      <c r="X205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -17078,6 +17695,9 @@
       <c r="W206">
         <v>0</v>
       </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -17159,6 +17779,9 @@
       <c r="W207">
         <v>0</v>
       </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -17240,6 +17863,9 @@
       <c r="W208">
         <v>0</v>
       </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -17321,6 +17947,9 @@
       <c r="W209">
         <v>0</v>
       </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -17402,6 +18031,9 @@
       <c r="W210">
         <v>0</v>
       </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -17483,6 +18115,9 @@
       <c r="W211">
         <v>0</v>
       </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -17564,6 +18199,9 @@
       <c r="W212">
         <v>2</v>
       </c>
+      <c r="X212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -17645,6 +18283,9 @@
       <c r="W213">
         <v>0</v>
       </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -17726,6 +18367,9 @@
       <c r="W214">
         <v>1</v>
       </c>
+      <c r="X214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -17807,6 +18451,9 @@
       <c r="W215">
         <v>25</v>
       </c>
+      <c r="X215">
+        <v>25</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -17888,6 +18535,9 @@
       <c r="W216">
         <v>174</v>
       </c>
+      <c r="X216">
+        <v>177</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17969,6 +18619,9 @@
       <c r="W217">
         <v>9</v>
       </c>
+      <c r="X217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -18050,6 +18703,9 @@
       <c r="W218">
         <v>11</v>
       </c>
+      <c r="X218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -18131,6 +18787,9 @@
       <c r="W219">
         <v>0</v>
       </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -18212,6 +18871,9 @@
       <c r="W220">
         <v>2</v>
       </c>
+      <c r="X220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -18293,6 +18955,9 @@
       <c r="W221">
         <v>0</v>
       </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -18374,6 +19039,9 @@
       <c r="W222">
         <v>0</v>
       </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -18455,6 +19123,9 @@
       <c r="W223">
         <v>2</v>
       </c>
+      <c r="X223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -18536,6 +19207,9 @@
       <c r="W224">
         <v>7</v>
       </c>
+      <c r="X224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -18617,6 +19291,9 @@
       <c r="W225">
         <v>3</v>
       </c>
+      <c r="X225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -18698,6 +19375,9 @@
       <c r="W226">
         <v>1</v>
       </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -18779,6 +19459,9 @@
       <c r="W227">
         <v>1</v>
       </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -18860,6 +19543,9 @@
       <c r="W228">
         <v>2</v>
       </c>
+      <c r="X228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -18941,6 +19627,9 @@
       <c r="W229">
         <v>2</v>
       </c>
+      <c r="X229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -19022,6 +19711,9 @@
       <c r="W230">
         <v>0</v>
       </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -19103,6 +19795,9 @@
       <c r="W231">
         <v>3</v>
       </c>
+      <c r="X231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -19184,6 +19879,9 @@
       <c r="W232">
         <v>8</v>
       </c>
+      <c r="X232">
+        <v>8</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -19265,6 +19963,9 @@
       <c r="W233">
         <v>0</v>
       </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -19346,6 +20047,9 @@
       <c r="W234">
         <v>4</v>
       </c>
+      <c r="X234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -19427,6 +20131,9 @@
       <c r="W235">
         <v>1</v>
       </c>
+      <c r="X235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -19508,6 +20215,9 @@
       <c r="W236">
         <v>1</v>
       </c>
+      <c r="X236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -19589,6 +20299,9 @@
       <c r="W237">
         <v>1</v>
       </c>
+      <c r="X237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -19670,6 +20383,9 @@
       <c r="W238">
         <v>415</v>
       </c>
+      <c r="X238">
+        <v>423</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -19751,6 +20467,9 @@
       <c r="W239">
         <v>8</v>
       </c>
+      <c r="X239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -19832,6 +20551,9 @@
       <c r="W240">
         <v>4</v>
       </c>
+      <c r="X240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -19913,6 +20635,9 @@
       <c r="W241">
         <v>3</v>
       </c>
+      <c r="X241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -19994,6 +20719,9 @@
       <c r="W242">
         <v>4</v>
       </c>
+      <c r="X242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -20075,6 +20803,9 @@
       <c r="W243">
         <v>6</v>
       </c>
+      <c r="X243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -20156,6 +20887,9 @@
       <c r="W244">
         <v>7</v>
       </c>
+      <c r="X244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -20237,6 +20971,9 @@
       <c r="W245">
         <v>0</v>
       </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -20318,6 +21055,9 @@
       <c r="W246">
         <v>4</v>
       </c>
+      <c r="X246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -20399,6 +21139,9 @@
       <c r="W247">
         <v>0</v>
       </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -20480,6 +21223,9 @@
       <c r="W248">
         <v>0</v>
       </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -20561,6 +21307,9 @@
       <c r="W249">
         <v>2</v>
       </c>
+      <c r="X249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -20642,6 +21391,9 @@
       <c r="W250">
         <v>24</v>
       </c>
+      <c r="X250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -20723,6 +21475,9 @@
       <c r="W251">
         <v>9</v>
       </c>
+      <c r="X251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -20804,6 +21559,9 @@
       <c r="W252">
         <v>0</v>
       </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -20885,6 +21643,9 @@
       <c r="W253">
         <v>16</v>
       </c>
+      <c r="X253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -20966,6 +21727,9 @@
       <c r="W254">
         <v>4</v>
       </c>
+      <c r="X254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -21047,6 +21811,9 @@
       <c r="W255">
         <v>41</v>
       </c>
+      <c r="X255">
+        <v>43</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -21128,6 +21895,9 @@
       <c r="W256">
         <v>29</v>
       </c>
+      <c r="X256">
+        <v>30</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -21209,6 +21979,9 @@
       <c r="W257">
         <v>1</v>
       </c>
+      <c r="X257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -21290,6 +22063,9 @@
       <c r="W258">
         <v>0</v>
       </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -21371,6 +22147,9 @@
       <c r="W259">
         <v>2</v>
       </c>
+      <c r="X259">
+        <v>9</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -21452,6 +22231,9 @@
       <c r="W260">
         <v>18</v>
       </c>
+      <c r="X260">
+        <v>19</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -21533,6 +22315,9 @@
       <c r="W261">
         <v>0</v>
       </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -21614,6 +22399,9 @@
       <c r="W262">
         <v>0</v>
       </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -21695,6 +22483,9 @@
       <c r="W263">
         <v>0</v>
       </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -21776,6 +22567,9 @@
       <c r="W264">
         <v>0</v>
       </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -21857,6 +22651,9 @@
       <c r="W265">
         <v>3</v>
       </c>
+      <c r="X265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -21938,6 +22735,9 @@
       <c r="W266">
         <v>0</v>
       </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -22019,6 +22819,9 @@
       <c r="W267">
         <v>3</v>
       </c>
+      <c r="X267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -22100,6 +22903,9 @@
       <c r="W268">
         <v>0</v>
       </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -22181,6 +22987,9 @@
       <c r="W269">
         <v>7</v>
       </c>
+      <c r="X269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -22262,6 +23071,9 @@
       <c r="W270">
         <v>0</v>
       </c>
+      <c r="X270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -22343,6 +23155,9 @@
       <c r="W271">
         <v>0</v>
       </c>
+      <c r="X271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -22424,6 +23239,9 @@
       <c r="W272">
         <v>1</v>
       </c>
+      <c r="X272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -22505,6 +23323,9 @@
       <c r="W273">
         <v>4</v>
       </c>
+      <c r="X273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -22586,6 +23407,9 @@
       <c r="W274">
         <v>0</v>
       </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -22667,6 +23491,9 @@
       <c r="W275">
         <v>0</v>
       </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -22748,6 +23575,9 @@
       <c r="W276">
         <v>17</v>
       </c>
+      <c r="X276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -22829,6 +23659,9 @@
       <c r="W277">
         <v>0</v>
       </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -22910,6 +23743,9 @@
       <c r="W278">
         <v>0</v>
       </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -22991,6 +23827,9 @@
       <c r="W279">
         <v>4</v>
       </c>
+      <c r="X279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -23072,6 +23911,9 @@
       <c r="W280">
         <v>12</v>
       </c>
+      <c r="X280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -23153,6 +23995,9 @@
       <c r="W281">
         <v>209</v>
       </c>
+      <c r="X281">
+        <v>212</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -23234,6 +24079,9 @@
       <c r="W282">
         <v>16</v>
       </c>
+      <c r="X282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -23315,6 +24163,9 @@
       <c r="W283">
         <v>5</v>
       </c>
+      <c r="X283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -23396,6 +24247,9 @@
       <c r="W284">
         <v>0</v>
       </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -23477,6 +24331,9 @@
       <c r="W285">
         <v>0</v>
       </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -23558,6 +24415,9 @@
       <c r="W286">
         <v>8</v>
       </c>
+      <c r="X286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -23639,6 +24499,9 @@
       <c r="W287">
         <v>5</v>
       </c>
+      <c r="X287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -23720,6 +24583,9 @@
       <c r="W288">
         <v>0</v>
       </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -23801,6 +24667,9 @@
       <c r="W289">
         <v>1</v>
       </c>
+      <c r="X289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -23882,6 +24751,9 @@
       <c r="W290">
         <v>7</v>
       </c>
+      <c r="X290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -23963,6 +24835,9 @@
       <c r="W291">
         <v>3</v>
       </c>
+      <c r="X291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -24044,6 +24919,9 @@
       <c r="W292">
         <v>5</v>
       </c>
+      <c r="X292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -24125,6 +25003,9 @@
       <c r="W293">
         <v>11</v>
       </c>
+      <c r="X293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -24206,6 +25087,9 @@
       <c r="W294">
         <v>6</v>
       </c>
+      <c r="X294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -24287,6 +25171,9 @@
       <c r="W295">
         <v>0</v>
       </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -24368,6 +25255,9 @@
       <c r="W296">
         <v>1</v>
       </c>
+      <c r="X296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -24449,6 +25339,9 @@
       <c r="W297">
         <v>7</v>
       </c>
+      <c r="X297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -24530,6 +25423,9 @@
       <c r="W298">
         <v>28</v>
       </c>
+      <c r="X298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -24611,6 +25507,9 @@
       <c r="W299">
         <v>20</v>
       </c>
+      <c r="X299">
+        <v>20</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -24692,6 +25591,9 @@
       <c r="W300">
         <v>15</v>
       </c>
+      <c r="X300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -24773,6 +25675,9 @@
       <c r="W301">
         <v>0</v>
       </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -24854,6 +25759,9 @@
       <c r="W302">
         <v>0</v>
       </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -24935,6 +25843,9 @@
       <c r="W303">
         <v>0</v>
       </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -25016,6 +25927,9 @@
       <c r="W304">
         <v>0</v>
       </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -25097,6 +26011,9 @@
       <c r="W305">
         <v>3</v>
       </c>
+      <c r="X305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -25178,6 +26095,9 @@
       <c r="W306">
         <v>1</v>
       </c>
+      <c r="X306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -25259,6 +26179,9 @@
       <c r="W307">
         <v>4</v>
       </c>
+      <c r="X307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -25340,6 +26263,9 @@
       <c r="W308">
         <v>0</v>
       </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -25421,6 +26347,9 @@
       <c r="W309">
         <v>0</v>
       </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -25502,6 +26431,9 @@
       <c r="W310">
         <v>7</v>
       </c>
+      <c r="X310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -25583,6 +26515,9 @@
       <c r="W311">
         <v>2</v>
       </c>
+      <c r="X311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -25664,6 +26599,9 @@
       <c r="W312">
         <v>2</v>
       </c>
+      <c r="X312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -25745,6 +26683,9 @@
       <c r="W313">
         <v>2</v>
       </c>
+      <c r="X313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -25826,6 +26767,9 @@
       <c r="W314">
         <v>10</v>
       </c>
+      <c r="X314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -25907,6 +26851,9 @@
       <c r="W315">
         <v>1</v>
       </c>
+      <c r="X315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -25988,6 +26935,9 @@
       <c r="W316">
         <v>13</v>
       </c>
+      <c r="X316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -26069,6 +27019,9 @@
       <c r="W317">
         <v>0</v>
       </c>
+      <c r="X317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -26150,6 +27103,9 @@
       <c r="W318">
         <v>0</v>
       </c>
+      <c r="X318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -26231,6 +27187,9 @@
       <c r="W319">
         <v>115</v>
       </c>
+      <c r="X319">
+        <v>115</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -26312,6 +27271,9 @@
       <c r="W320">
         <v>4</v>
       </c>
+      <c r="X320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -26393,6 +27355,9 @@
       <c r="W321">
         <v>5</v>
       </c>
+      <c r="X321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -26474,6 +27439,9 @@
       <c r="W322">
         <v>1</v>
       </c>
+      <c r="X322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -26555,6 +27523,9 @@
       <c r="W323">
         <v>3</v>
       </c>
+      <c r="X323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -26636,6 +27607,9 @@
       <c r="W324">
         <v>14</v>
       </c>
+      <c r="X324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -26717,6 +27691,9 @@
       <c r="W325">
         <v>1</v>
       </c>
+      <c r="X325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -26798,6 +27775,9 @@
       <c r="W326">
         <v>1</v>
       </c>
+      <c r="X326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -26879,6 +27859,9 @@
       <c r="W327">
         <v>0</v>
       </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -26960,6 +27943,9 @@
       <c r="W328">
         <v>0</v>
       </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -27041,6 +28027,9 @@
       <c r="W329">
         <v>3</v>
       </c>
+      <c r="X329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -27122,6 +28111,9 @@
       <c r="W330">
         <v>1</v>
       </c>
+      <c r="X330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -27203,6 +28195,9 @@
       <c r="W331">
         <v>2</v>
       </c>
+      <c r="X331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -27284,6 +28279,9 @@
       <c r="W332">
         <v>0</v>
       </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -27365,6 +28363,9 @@
       <c r="W333">
         <v>0</v>
       </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -27446,6 +28447,9 @@
       <c r="W334">
         <v>0</v>
       </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -27527,6 +28531,9 @@
       <c r="W335">
         <v>16</v>
       </c>
+      <c r="X335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -27608,6 +28615,9 @@
       <c r="W336">
         <v>2</v>
       </c>
+      <c r="X336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -27689,6 +28699,9 @@
       <c r="W337">
         <v>1</v>
       </c>
+      <c r="X337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -27770,6 +28783,9 @@
       <c r="W338">
         <v>2</v>
       </c>
+      <c r="X338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -27851,6 +28867,9 @@
       <c r="W339">
         <v>0</v>
       </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -27932,6 +28951,9 @@
       <c r="W340">
         <v>0</v>
       </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -28013,6 +29035,9 @@
       <c r="W341">
         <v>1</v>
       </c>
+      <c r="X341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -28094,6 +29119,9 @@
       <c r="W342">
         <v>2</v>
       </c>
+      <c r="X342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -28175,6 +29203,9 @@
       <c r="W343">
         <v>0</v>
       </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -28256,6 +29287,9 @@
       <c r="W344">
         <v>1</v>
       </c>
+      <c r="X344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -28337,6 +29371,9 @@
       <c r="W345">
         <v>0</v>
       </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -28418,6 +29455,9 @@
       <c r="W346">
         <v>0</v>
       </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -28499,6 +29539,9 @@
       <c r="W347">
         <v>2</v>
       </c>
+      <c r="X347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -28580,6 +29623,9 @@
       <c r="W348">
         <v>2</v>
       </c>
+      <c r="X348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -28661,6 +29707,9 @@
       <c r="W349">
         <v>4</v>
       </c>
+      <c r="X349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -28742,6 +29791,9 @@
       <c r="W350">
         <v>1</v>
       </c>
+      <c r="X350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -28823,6 +29875,9 @@
       <c r="W351">
         <v>0</v>
       </c>
+      <c r="X351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -28904,6 +29959,9 @@
       <c r="W352">
         <v>0</v>
       </c>
+      <c r="X352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -28985,6 +30043,9 @@
       <c r="W353">
         <v>0</v>
       </c>
+      <c r="X353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -29066,6 +30127,9 @@
       <c r="W354">
         <v>1</v>
       </c>
+      <c r="X354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -29147,6 +30211,9 @@
       <c r="W355">
         <v>1</v>
       </c>
+      <c r="X355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -29228,6 +30295,9 @@
       <c r="W356">
         <v>0</v>
       </c>
+      <c r="X356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -29309,6 +30379,9 @@
       <c r="W357">
         <v>4</v>
       </c>
+      <c r="X357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -29390,6 +30463,9 @@
       <c r="W358">
         <v>0</v>
       </c>
+      <c r="X358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -29470,6 +30546,9 @@
       </c>
       <c r="W359">
         <v>3</v>
+      </c>
+      <c r="X359">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X359"/>
+  <dimension ref="A1:Y359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,6 +478,11 @@
           <t>2020-04-12</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -562,6 +567,9 @@
       <c r="X2">
         <v>1893</v>
       </c>
+      <c r="Y2">
+        <v>1926</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -646,6 +654,9 @@
       <c r="X3">
         <v>14</v>
       </c>
+      <c r="Y3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -730,6 +741,9 @@
       <c r="X4">
         <v>125</v>
       </c>
+      <c r="Y4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -814,6 +828,9 @@
       <c r="X5">
         <v>49</v>
       </c>
+      <c r="Y5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,6 +915,9 @@
       <c r="X6">
         <v>46</v>
       </c>
+      <c r="Y6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -982,6 +1002,9 @@
       <c r="X7">
         <v>3</v>
       </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1066,6 +1089,9 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1150,6 +1176,9 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1234,6 +1263,9 @@
       <c r="X10">
         <v>6</v>
       </c>
+      <c r="Y10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1318,6 +1350,9 @@
       <c r="X11">
         <v>6</v>
       </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1402,6 +1437,9 @@
       <c r="X12">
         <v>12</v>
       </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1486,6 +1524,9 @@
       <c r="X13">
         <v>12</v>
       </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1570,6 +1611,9 @@
       <c r="X14">
         <v>13</v>
       </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1654,6 +1698,9 @@
       <c r="X15">
         <v>11</v>
       </c>
+      <c r="Y15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1738,6 +1785,9 @@
       <c r="X16">
         <v>13</v>
       </c>
+      <c r="Y16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1822,6 +1872,9 @@
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1906,6 +1959,9 @@
       <c r="X18">
         <v>0</v>
       </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1990,6 +2046,9 @@
       <c r="X19">
         <v>3</v>
       </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2074,6 +2133,9 @@
       <c r="X20">
         <v>0</v>
       </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2158,6 +2220,9 @@
       <c r="X21">
         <v>1</v>
       </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2242,6 +2307,9 @@
       <c r="X22">
         <v>20</v>
       </c>
+      <c r="Y22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2326,6 +2394,9 @@
       <c r="X23">
         <v>36</v>
       </c>
+      <c r="Y23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2410,6 +2481,9 @@
       <c r="X24">
         <v>0</v>
       </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2494,6 +2568,9 @@
       <c r="X25">
         <v>11</v>
       </c>
+      <c r="Y25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2578,6 +2655,9 @@
       <c r="X26">
         <v>18</v>
       </c>
+      <c r="Y26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2662,6 +2742,9 @@
       <c r="X27">
         <v>14</v>
       </c>
+      <c r="Y27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2746,6 +2829,9 @@
       <c r="X28">
         <v>25</v>
       </c>
+      <c r="Y28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2830,6 +2916,9 @@
       <c r="X29">
         <v>1</v>
       </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2914,6 +3003,9 @@
       <c r="X30">
         <v>3</v>
       </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2998,6 +3090,9 @@
       <c r="X31">
         <v>3</v>
       </c>
+      <c r="Y31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3082,6 +3177,9 @@
       <c r="X32">
         <v>7</v>
       </c>
+      <c r="Y32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3166,6 +3264,9 @@
       <c r="X33">
         <v>2</v>
       </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3250,6 +3351,9 @@
       <c r="X34">
         <v>6</v>
       </c>
+      <c r="Y34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3334,6 +3438,9 @@
       <c r="X35">
         <v>0</v>
       </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3418,6 +3525,9 @@
       <c r="X36">
         <v>0</v>
       </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3502,6 +3612,9 @@
       <c r="X37">
         <v>6</v>
       </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3586,6 +3699,9 @@
       <c r="X38">
         <v>5</v>
       </c>
+      <c r="Y38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3670,6 +3786,9 @@
       <c r="X39">
         <v>0</v>
       </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3754,6 +3873,9 @@
       <c r="X40">
         <v>10</v>
       </c>
+      <c r="Y40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3838,6 +3960,9 @@
       <c r="X41">
         <v>0</v>
       </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3922,6 +4047,9 @@
       <c r="X42">
         <v>0</v>
       </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4006,6 +4134,9 @@
       <c r="X43">
         <v>0</v>
       </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4090,6 +4221,9 @@
       <c r="X44">
         <v>1</v>
       </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4174,6 +4308,9 @@
       <c r="X45">
         <v>2</v>
       </c>
+      <c r="Y45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4258,6 +4395,9 @@
       <c r="X46">
         <v>2</v>
       </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4342,6 +4482,9 @@
       <c r="X47">
         <v>0</v>
       </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4426,6 +4569,9 @@
       <c r="X48">
         <v>3</v>
       </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4510,6 +4656,9 @@
       <c r="X49">
         <v>4</v>
       </c>
+      <c r="Y49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4594,6 +4743,9 @@
       <c r="X50">
         <v>1</v>
       </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4678,6 +4830,9 @@
       <c r="X51">
         <v>3</v>
       </c>
+      <c r="Y51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4762,6 +4917,9 @@
       <c r="X52">
         <v>33</v>
       </c>
+      <c r="Y52">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4846,6 +5004,9 @@
       <c r="X53">
         <v>3</v>
       </c>
+      <c r="Y53">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4930,6 +5091,9 @@
       <c r="X54">
         <v>0</v>
       </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5014,6 +5178,9 @@
       <c r="X55">
         <v>2</v>
       </c>
+      <c r="Y55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5098,6 +5265,9 @@
       <c r="X56">
         <v>5</v>
       </c>
+      <c r="Y56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5182,6 +5352,9 @@
       <c r="X57">
         <v>3</v>
       </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5266,6 +5439,9 @@
       <c r="X58">
         <v>0</v>
       </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5350,6 +5526,9 @@
       <c r="X59">
         <v>0</v>
       </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5434,6 +5613,9 @@
       <c r="X60">
         <v>2</v>
       </c>
+      <c r="Y60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5518,6 +5700,9 @@
       <c r="X61">
         <v>3</v>
       </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5602,6 +5787,9 @@
       <c r="X62">
         <v>1</v>
       </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5686,6 +5874,9 @@
       <c r="X63">
         <v>1</v>
       </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5770,6 +5961,9 @@
       <c r="X64">
         <v>0</v>
       </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5854,6 +6048,9 @@
       <c r="X65">
         <v>5</v>
       </c>
+      <c r="Y65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5938,6 +6135,9 @@
       <c r="X66">
         <v>0</v>
       </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6022,6 +6222,9 @@
       <c r="X67">
         <v>0</v>
       </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6106,6 +6309,9 @@
       <c r="X68">
         <v>4</v>
       </c>
+      <c r="Y68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6190,6 +6396,9 @@
       <c r="X69">
         <v>0</v>
       </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6274,6 +6483,9 @@
       <c r="X70">
         <v>0</v>
       </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6358,6 +6570,9 @@
       <c r="X71">
         <v>0</v>
       </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6442,6 +6657,9 @@
       <c r="X72">
         <v>5</v>
       </c>
+      <c r="Y72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6526,6 +6744,9 @@
       <c r="X73">
         <v>0</v>
       </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6610,6 +6831,9 @@
       <c r="X74">
         <v>0</v>
       </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6694,6 +6918,9 @@
       <c r="X75">
         <v>0</v>
       </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6778,6 +7005,9 @@
       <c r="X76">
         <v>1</v>
       </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6862,6 +7092,9 @@
       <c r="X77">
         <v>0</v>
       </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6946,6 +7179,9 @@
       <c r="X78">
         <v>1</v>
       </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7030,6 +7266,9 @@
       <c r="X79">
         <v>0</v>
       </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7114,6 +7353,9 @@
       <c r="X80">
         <v>0</v>
       </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7198,6 +7440,9 @@
       <c r="X81">
         <v>0</v>
       </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7282,6 +7527,9 @@
       <c r="X82">
         <v>0</v>
       </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7366,6 +7614,9 @@
       <c r="X83">
         <v>4</v>
       </c>
+      <c r="Y83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7450,6 +7701,9 @@
       <c r="X84">
         <v>4</v>
       </c>
+      <c r="Y84">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7534,6 +7788,9 @@
       <c r="X85">
         <v>3</v>
       </c>
+      <c r="Y85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7618,6 +7875,9 @@
       <c r="X86">
         <v>5</v>
       </c>
+      <c r="Y86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7702,6 +7962,9 @@
       <c r="X87">
         <v>0</v>
       </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7786,6 +8049,9 @@
       <c r="X88">
         <v>0</v>
       </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7870,6 +8136,9 @@
       <c r="X89">
         <v>6</v>
       </c>
+      <c r="Y89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7954,6 +8223,9 @@
       <c r="X90">
         <v>0</v>
       </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8038,6 +8310,9 @@
       <c r="X91">
         <v>0</v>
       </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8122,6 +8397,9 @@
       <c r="X92">
         <v>0</v>
       </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8206,6 +8484,9 @@
       <c r="X93">
         <v>27</v>
       </c>
+      <c r="Y93">
+        <v>27</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8290,6 +8571,9 @@
       <c r="X94">
         <v>84</v>
       </c>
+      <c r="Y94">
+        <v>85</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8374,6 +8658,9 @@
       <c r="X95">
         <v>51</v>
       </c>
+      <c r="Y95">
+        <v>54</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8458,6 +8745,9 @@
       <c r="X96">
         <v>72</v>
       </c>
+      <c r="Y96">
+        <v>73</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8542,6 +8832,9 @@
       <c r="X97">
         <v>148</v>
       </c>
+      <c r="Y97">
+        <v>153</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8626,6 +8919,9 @@
       <c r="X98">
         <v>20</v>
       </c>
+      <c r="Y98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8710,6 +9006,9 @@
       <c r="X99">
         <v>9</v>
       </c>
+      <c r="Y99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8794,6 +9093,9 @@
       <c r="X100">
         <v>2</v>
       </c>
+      <c r="Y100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8878,6 +9180,9 @@
       <c r="X101">
         <v>2</v>
       </c>
+      <c r="Y101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8962,6 +9267,9 @@
       <c r="X102">
         <v>1</v>
       </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9046,6 +9354,9 @@
       <c r="X103">
         <v>45</v>
       </c>
+      <c r="Y103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9130,6 +9441,9 @@
       <c r="X104">
         <v>1</v>
       </c>
+      <c r="Y104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9214,6 +9528,9 @@
       <c r="X105">
         <v>1</v>
       </c>
+      <c r="Y105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9298,6 +9615,9 @@
       <c r="X106">
         <v>2</v>
       </c>
+      <c r="Y106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9382,6 +9702,9 @@
       <c r="X107">
         <v>6</v>
       </c>
+      <c r="Y107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9466,6 +9789,9 @@
       <c r="X108">
         <v>22</v>
       </c>
+      <c r="Y108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9550,6 +9876,9 @@
       <c r="X109">
         <v>89</v>
       </c>
+      <c r="Y109">
+        <v>89</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9634,6 +9963,9 @@
       <c r="X110">
         <v>17</v>
       </c>
+      <c r="Y110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9718,6 +10050,9 @@
       <c r="X111">
         <v>18</v>
       </c>
+      <c r="Y111">
+        <v>18</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9802,6 +10137,9 @@
       <c r="X112">
         <v>44</v>
       </c>
+      <c r="Y112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9886,6 +10224,9 @@
       <c r="X113">
         <v>357</v>
       </c>
+      <c r="Y113">
+        <v>365</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9970,6 +10311,9 @@
       <c r="X114">
         <v>150</v>
       </c>
+      <c r="Y114">
+        <v>152</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10054,6 +10398,9 @@
       <c r="X115">
         <v>7</v>
       </c>
+      <c r="Y115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10138,6 +10485,9 @@
       <c r="X116">
         <v>19</v>
       </c>
+      <c r="Y116">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10222,6 +10572,9 @@
       <c r="X117">
         <v>43</v>
       </c>
+      <c r="Y117">
+        <v>43</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10306,6 +10659,9 @@
       <c r="X118">
         <v>75</v>
       </c>
+      <c r="Y118">
+        <v>75</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10390,6 +10746,9 @@
       <c r="X119">
         <v>134</v>
       </c>
+      <c r="Y119">
+        <v>134</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10474,6 +10833,9 @@
       <c r="X120">
         <v>45</v>
       </c>
+      <c r="Y120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10558,6 +10920,9 @@
       <c r="X121">
         <v>8</v>
       </c>
+      <c r="Y121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10642,6 +11007,9 @@
       <c r="X122">
         <v>51</v>
       </c>
+      <c r="Y122">
+        <v>51</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10726,6 +11094,9 @@
       <c r="X123">
         <v>13</v>
       </c>
+      <c r="Y123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10810,6 +11181,9 @@
       <c r="X124">
         <v>29</v>
       </c>
+      <c r="Y124">
+        <v>29</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10894,6 +11268,9 @@
       <c r="X125">
         <v>17</v>
       </c>
+      <c r="Y125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10978,6 +11355,9 @@
       <c r="X126">
         <v>2</v>
       </c>
+      <c r="Y126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11062,6 +11442,9 @@
       <c r="X127">
         <v>10</v>
       </c>
+      <c r="Y127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11146,6 +11529,9 @@
       <c r="X128">
         <v>1</v>
       </c>
+      <c r="Y128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11230,6 +11616,9 @@
       <c r="X129">
         <v>7</v>
       </c>
+      <c r="Y129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11314,6 +11703,9 @@
       <c r="X130">
         <v>10</v>
       </c>
+      <c r="Y130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11398,6 +11790,9 @@
       <c r="X131">
         <v>8</v>
       </c>
+      <c r="Y131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11482,6 +11877,9 @@
       <c r="X132">
         <v>13</v>
       </c>
+      <c r="Y132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11566,6 +11964,9 @@
       <c r="X133">
         <v>44</v>
       </c>
+      <c r="Y133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11650,6 +12051,9 @@
       <c r="X134">
         <v>0</v>
       </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11734,6 +12138,9 @@
       <c r="X135">
         <v>0</v>
       </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11818,6 +12225,9 @@
       <c r="X136">
         <v>10</v>
       </c>
+      <c r="Y136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11902,6 +12312,9 @@
       <c r="X137">
         <v>5</v>
       </c>
+      <c r="Y137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11986,6 +12399,9 @@
       <c r="X138">
         <v>31</v>
       </c>
+      <c r="Y138">
+        <v>31</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -12070,6 +12486,9 @@
       <c r="X139">
         <v>2</v>
       </c>
+      <c r="Y139">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12154,6 +12573,9 @@
       <c r="X140">
         <v>1</v>
       </c>
+      <c r="Y140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12238,6 +12660,9 @@
       <c r="X141">
         <v>2</v>
       </c>
+      <c r="Y141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12322,6 +12747,9 @@
       <c r="X142">
         <v>6</v>
       </c>
+      <c r="Y142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12406,6 +12834,9 @@
       <c r="X143">
         <v>9</v>
       </c>
+      <c r="Y143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12490,6 +12921,9 @@
       <c r="X144">
         <v>1</v>
       </c>
+      <c r="Y144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12574,6 +13008,9 @@
       <c r="X145">
         <v>78</v>
       </c>
+      <c r="Y145">
+        <v>78</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12658,6 +13095,9 @@
       <c r="X146">
         <v>31</v>
       </c>
+      <c r="Y146">
+        <v>31</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12742,6 +13182,9 @@
       <c r="X147">
         <v>15</v>
       </c>
+      <c r="Y147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12826,6 +13269,9 @@
       <c r="X148">
         <v>57</v>
       </c>
+      <c r="Y148">
+        <v>57</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12910,6 +13356,9 @@
       <c r="X149">
         <v>11</v>
       </c>
+      <c r="Y149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12994,6 +13443,9 @@
       <c r="X150">
         <v>32</v>
       </c>
+      <c r="Y150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -13078,6 +13530,9 @@
       <c r="X151">
         <v>0</v>
       </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -13162,6 +13617,9 @@
       <c r="X152">
         <v>17</v>
       </c>
+      <c r="Y152">
+        <v>17</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -13246,6 +13704,9 @@
       <c r="X153">
         <v>4</v>
       </c>
+      <c r="Y153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -13330,6 +13791,9 @@
       <c r="X154">
         <v>5</v>
       </c>
+      <c r="Y154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -13414,6 +13878,9 @@
       <c r="X155">
         <v>3</v>
       </c>
+      <c r="Y155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13498,6 +13965,9 @@
       <c r="X156">
         <v>3</v>
       </c>
+      <c r="Y156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13582,6 +14052,9 @@
       <c r="X157">
         <v>14</v>
       </c>
+      <c r="Y157">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13666,6 +14139,9 @@
       <c r="X158">
         <v>2</v>
       </c>
+      <c r="Y158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13750,6 +14226,9 @@
       <c r="X159">
         <v>4</v>
       </c>
+      <c r="Y159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13834,6 +14313,9 @@
       <c r="X160">
         <v>0</v>
       </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13918,6 +14400,9 @@
       <c r="X161">
         <v>0</v>
       </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -14002,6 +14487,9 @@
       <c r="X162">
         <v>2</v>
       </c>
+      <c r="Y162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -14086,6 +14574,9 @@
       <c r="X163">
         <v>0</v>
       </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -14170,6 +14661,9 @@
       <c r="X164">
         <v>0</v>
       </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -14254,6 +14748,9 @@
       <c r="X165">
         <v>1</v>
       </c>
+      <c r="Y165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -14338,6 +14835,9 @@
       <c r="X166">
         <v>0</v>
       </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -14422,6 +14922,9 @@
       <c r="X167">
         <v>1</v>
       </c>
+      <c r="Y167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -14506,6 +15009,9 @@
       <c r="X168">
         <v>5</v>
       </c>
+      <c r="Y168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -14590,6 +15096,9 @@
       <c r="X169">
         <v>2</v>
       </c>
+      <c r="Y169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14674,6 +15183,9 @@
       <c r="X170">
         <v>1</v>
       </c>
+      <c r="Y170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -14758,6 +15270,9 @@
       <c r="X171">
         <v>3</v>
       </c>
+      <c r="Y171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -14842,6 +15357,9 @@
       <c r="X172">
         <v>2</v>
       </c>
+      <c r="Y172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -14926,6 +15444,9 @@
       <c r="X173">
         <v>13</v>
       </c>
+      <c r="Y173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -15010,6 +15531,9 @@
       <c r="X174">
         <v>36</v>
       </c>
+      <c r="Y174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -15094,6 +15618,9 @@
       <c r="X175">
         <v>1</v>
       </c>
+      <c r="Y175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -15178,6 +15705,9 @@
       <c r="X176">
         <v>8</v>
       </c>
+      <c r="Y176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -15262,6 +15792,9 @@
       <c r="X177">
         <v>2</v>
       </c>
+      <c r="Y177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -15346,6 +15879,9 @@
       <c r="X178">
         <v>5</v>
       </c>
+      <c r="Y178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -15430,6 +15966,9 @@
       <c r="X179">
         <v>4</v>
       </c>
+      <c r="Y179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -15514,6 +16053,9 @@
       <c r="X180">
         <v>10</v>
       </c>
+      <c r="Y180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -15598,6 +16140,9 @@
       <c r="X181">
         <v>9</v>
       </c>
+      <c r="Y181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -15682,6 +16227,9 @@
       <c r="X182">
         <v>2</v>
       </c>
+      <c r="Y182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -15766,6 +16314,9 @@
       <c r="X183">
         <v>1</v>
       </c>
+      <c r="Y183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -15850,6 +16401,9 @@
       <c r="X184">
         <v>0</v>
       </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -15934,6 +16488,9 @@
       <c r="X185">
         <v>1</v>
       </c>
+      <c r="Y185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -16018,6 +16575,9 @@
       <c r="X186">
         <v>9</v>
       </c>
+      <c r="Y186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -16102,6 +16662,9 @@
       <c r="X187">
         <v>0</v>
       </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -16186,6 +16749,9 @@
       <c r="X188">
         <v>0</v>
       </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -16270,6 +16836,9 @@
       <c r="X189">
         <v>0</v>
       </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -16354,6 +16923,9 @@
       <c r="X190">
         <v>23</v>
       </c>
+      <c r="Y190">
+        <v>24</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -16438,6 +17010,9 @@
       <c r="X191">
         <v>17</v>
       </c>
+      <c r="Y191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -16522,6 +17097,9 @@
       <c r="X192">
         <v>51</v>
       </c>
+      <c r="Y192">
+        <v>55</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -16606,6 +17184,9 @@
       <c r="X193">
         <v>37</v>
       </c>
+      <c r="Y193">
+        <v>37</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -16690,6 +17271,9 @@
       <c r="X194">
         <v>28</v>
       </c>
+      <c r="Y194">
+        <v>28</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -16774,6 +17358,9 @@
       <c r="X195">
         <v>8</v>
       </c>
+      <c r="Y195">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -16858,6 +17445,9 @@
       <c r="X196">
         <v>38</v>
       </c>
+      <c r="Y196">
+        <v>38</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -16942,6 +17532,9 @@
       <c r="X197">
         <v>4</v>
       </c>
+      <c r="Y197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -17026,6 +17619,9 @@
       <c r="X198">
         <v>21</v>
       </c>
+      <c r="Y198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -17110,6 +17706,9 @@
       <c r="X199">
         <v>2</v>
       </c>
+      <c r="Y199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -17194,6 +17793,9 @@
       <c r="X200">
         <v>5</v>
       </c>
+      <c r="Y200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -17278,6 +17880,9 @@
       <c r="X201">
         <v>1</v>
       </c>
+      <c r="Y201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -17362,6 +17967,9 @@
       <c r="X202">
         <v>1</v>
       </c>
+      <c r="Y202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -17446,6 +18054,9 @@
       <c r="X203">
         <v>2</v>
       </c>
+      <c r="Y203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -17530,6 +18141,9 @@
       <c r="X204">
         <v>0</v>
       </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -17614,6 +18228,9 @@
       <c r="X205">
         <v>1</v>
       </c>
+      <c r="Y205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -17698,6 +18315,9 @@
       <c r="X206">
         <v>0</v>
       </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -17782,6 +18402,9 @@
       <c r="X207">
         <v>0</v>
       </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -17866,6 +18489,9 @@
       <c r="X208">
         <v>0</v>
       </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -17950,6 +18576,9 @@
       <c r="X209">
         <v>0</v>
       </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -18034,6 +18663,9 @@
       <c r="X210">
         <v>0</v>
       </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -18118,6 +18750,9 @@
       <c r="X211">
         <v>0</v>
       </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -18202,6 +18837,9 @@
       <c r="X212">
         <v>2</v>
       </c>
+      <c r="Y212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -18286,6 +18924,9 @@
       <c r="X213">
         <v>0</v>
       </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -18370,6 +19011,9 @@
       <c r="X214">
         <v>1</v>
       </c>
+      <c r="Y214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -18454,6 +19098,9 @@
       <c r="X215">
         <v>25</v>
       </c>
+      <c r="Y215">
+        <v>25</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -18538,6 +19185,9 @@
       <c r="X216">
         <v>177</v>
       </c>
+      <c r="Y216">
+        <v>178</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -18622,6 +19272,9 @@
       <c r="X217">
         <v>9</v>
       </c>
+      <c r="Y217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -18706,6 +19359,9 @@
       <c r="X218">
         <v>11</v>
       </c>
+      <c r="Y218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -18790,6 +19446,9 @@
       <c r="X219">
         <v>0</v>
       </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -18874,6 +19533,9 @@
       <c r="X220">
         <v>2</v>
       </c>
+      <c r="Y220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -18958,6 +19620,9 @@
       <c r="X221">
         <v>0</v>
       </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -19042,6 +19707,9 @@
       <c r="X222">
         <v>0</v>
       </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -19126,6 +19794,9 @@
       <c r="X223">
         <v>2</v>
       </c>
+      <c r="Y223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -19210,6 +19881,9 @@
       <c r="X224">
         <v>7</v>
       </c>
+      <c r="Y224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -19294,6 +19968,9 @@
       <c r="X225">
         <v>3</v>
       </c>
+      <c r="Y225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -19378,6 +20055,9 @@
       <c r="X226">
         <v>1</v>
       </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -19462,6 +20142,9 @@
       <c r="X227">
         <v>1</v>
       </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -19546,6 +20229,9 @@
       <c r="X228">
         <v>2</v>
       </c>
+      <c r="Y228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -19630,6 +20316,9 @@
       <c r="X229">
         <v>2</v>
       </c>
+      <c r="Y229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -19714,6 +20403,9 @@
       <c r="X230">
         <v>0</v>
       </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -19798,6 +20490,9 @@
       <c r="X231">
         <v>3</v>
       </c>
+      <c r="Y231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -19882,6 +20577,9 @@
       <c r="X232">
         <v>8</v>
       </c>
+      <c r="Y232">
+        <v>9</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -19966,6 +20664,9 @@
       <c r="X233">
         <v>0</v>
       </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -20050,6 +20751,9 @@
       <c r="X234">
         <v>4</v>
       </c>
+      <c r="Y234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -20134,6 +20838,9 @@
       <c r="X235">
         <v>1</v>
       </c>
+      <c r="Y235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -20218,6 +20925,9 @@
       <c r="X236">
         <v>1</v>
       </c>
+      <c r="Y236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -20302,6 +21012,9 @@
       <c r="X237">
         <v>1</v>
       </c>
+      <c r="Y237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -20386,6 +21099,9 @@
       <c r="X238">
         <v>423</v>
       </c>
+      <c r="Y238">
+        <v>423</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -20470,6 +21186,9 @@
       <c r="X239">
         <v>8</v>
       </c>
+      <c r="Y239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -20554,6 +21273,9 @@
       <c r="X240">
         <v>4</v>
       </c>
+      <c r="Y240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -20638,6 +21360,9 @@
       <c r="X241">
         <v>4</v>
       </c>
+      <c r="Y241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -20722,6 +21447,9 @@
       <c r="X242">
         <v>4</v>
       </c>
+      <c r="Y242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -20806,6 +21534,9 @@
       <c r="X243">
         <v>6</v>
       </c>
+      <c r="Y243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -20890,6 +21621,9 @@
       <c r="X244">
         <v>8</v>
       </c>
+      <c r="Y244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -20974,6 +21708,9 @@
       <c r="X245">
         <v>0</v>
       </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -21058,6 +21795,9 @@
       <c r="X246">
         <v>4</v>
       </c>
+      <c r="Y246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -21142,6 +21882,9 @@
       <c r="X247">
         <v>0</v>
       </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -21226,6 +21969,9 @@
       <c r="X248">
         <v>0</v>
       </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -21310,6 +22056,9 @@
       <c r="X249">
         <v>2</v>
       </c>
+      <c r="Y249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -21394,6 +22143,9 @@
       <c r="X250">
         <v>24</v>
       </c>
+      <c r="Y250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -21478,6 +22230,9 @@
       <c r="X251">
         <v>9</v>
       </c>
+      <c r="Y251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -21562,6 +22317,9 @@
       <c r="X252">
         <v>0</v>
       </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -21646,6 +22404,9 @@
       <c r="X253">
         <v>17</v>
       </c>
+      <c r="Y253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -21730,6 +22491,9 @@
       <c r="X254">
         <v>4</v>
       </c>
+      <c r="Y254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -21814,6 +22578,9 @@
       <c r="X255">
         <v>43</v>
       </c>
+      <c r="Y255">
+        <v>43</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -21898,6 +22665,9 @@
       <c r="X256">
         <v>30</v>
       </c>
+      <c r="Y256">
+        <v>30</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -21982,6 +22752,9 @@
       <c r="X257">
         <v>1</v>
       </c>
+      <c r="Y257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -22066,6 +22839,9 @@
       <c r="X258">
         <v>0</v>
       </c>
+      <c r="Y258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -22150,6 +22926,9 @@
       <c r="X259">
         <v>9</v>
       </c>
+      <c r="Y259">
+        <v>9</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -22234,6 +23013,9 @@
       <c r="X260">
         <v>19</v>
       </c>
+      <c r="Y260">
+        <v>19</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -22318,6 +23100,9 @@
       <c r="X261">
         <v>0</v>
       </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -22402,6 +23187,9 @@
       <c r="X262">
         <v>0</v>
       </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -22486,6 +23274,9 @@
       <c r="X263">
         <v>0</v>
       </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -22570,6 +23361,9 @@
       <c r="X264">
         <v>0</v>
       </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -22654,6 +23448,9 @@
       <c r="X265">
         <v>3</v>
       </c>
+      <c r="Y265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -22738,6 +23535,9 @@
       <c r="X266">
         <v>0</v>
       </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -22822,6 +23622,9 @@
       <c r="X267">
         <v>3</v>
       </c>
+      <c r="Y267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -22906,6 +23709,9 @@
       <c r="X268">
         <v>0</v>
       </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -22990,6 +23796,9 @@
       <c r="X269">
         <v>7</v>
       </c>
+      <c r="Y269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -23074,6 +23883,9 @@
       <c r="X270">
         <v>0</v>
       </c>
+      <c r="Y270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -23158,6 +23970,9 @@
       <c r="X271">
         <v>0</v>
       </c>
+      <c r="Y271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -23242,6 +24057,9 @@
       <c r="X272">
         <v>1</v>
       </c>
+      <c r="Y272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -23326,6 +24144,9 @@
       <c r="X273">
         <v>4</v>
       </c>
+      <c r="Y273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -23410,6 +24231,9 @@
       <c r="X274">
         <v>0</v>
       </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -23494,6 +24318,9 @@
       <c r="X275">
         <v>0</v>
       </c>
+      <c r="Y275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -23578,6 +24405,9 @@
       <c r="X276">
         <v>17</v>
       </c>
+      <c r="Y276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -23662,6 +24492,9 @@
       <c r="X277">
         <v>0</v>
       </c>
+      <c r="Y277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -23746,6 +24579,9 @@
       <c r="X278">
         <v>0</v>
       </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -23830,6 +24666,9 @@
       <c r="X279">
         <v>4</v>
       </c>
+      <c r="Y279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -23914,6 +24753,9 @@
       <c r="X280">
         <v>12</v>
       </c>
+      <c r="Y280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -23998,6 +24840,9 @@
       <c r="X281">
         <v>212</v>
       </c>
+      <c r="Y281">
+        <v>212</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -24082,6 +24927,9 @@
       <c r="X282">
         <v>16</v>
       </c>
+      <c r="Y282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -24166,6 +25014,9 @@
       <c r="X283">
         <v>5</v>
       </c>
+      <c r="Y283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -24250,6 +25101,9 @@
       <c r="X284">
         <v>0</v>
       </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -24334,6 +25188,9 @@
       <c r="X285">
         <v>0</v>
       </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -24418,6 +25275,9 @@
       <c r="X286">
         <v>8</v>
       </c>
+      <c r="Y286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -24502,6 +25362,9 @@
       <c r="X287">
         <v>5</v>
       </c>
+      <c r="Y287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -24586,6 +25449,9 @@
       <c r="X288">
         <v>0</v>
       </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -24670,6 +25536,9 @@
       <c r="X289">
         <v>1</v>
       </c>
+      <c r="Y289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -24754,6 +25623,9 @@
       <c r="X290">
         <v>7</v>
       </c>
+      <c r="Y290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -24838,6 +25710,9 @@
       <c r="X291">
         <v>3</v>
       </c>
+      <c r="Y291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -24922,6 +25797,9 @@
       <c r="X292">
         <v>5</v>
       </c>
+      <c r="Y292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -25006,6 +25884,9 @@
       <c r="X293">
         <v>11</v>
       </c>
+      <c r="Y293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -25090,6 +25971,9 @@
       <c r="X294">
         <v>6</v>
       </c>
+      <c r="Y294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -25174,6 +26058,9 @@
       <c r="X295">
         <v>0</v>
       </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -25258,6 +26145,9 @@
       <c r="X296">
         <v>1</v>
       </c>
+      <c r="Y296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -25342,6 +26232,9 @@
       <c r="X297">
         <v>7</v>
       </c>
+      <c r="Y297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -25426,6 +26319,9 @@
       <c r="X298">
         <v>28</v>
       </c>
+      <c r="Y298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -25510,6 +26406,9 @@
       <c r="X299">
         <v>20</v>
       </c>
+      <c r="Y299">
+        <v>20</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -25594,6 +26493,9 @@
       <c r="X300">
         <v>15</v>
       </c>
+      <c r="Y300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -25678,6 +26580,9 @@
       <c r="X301">
         <v>0</v>
       </c>
+      <c r="Y301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -25762,6 +26667,9 @@
       <c r="X302">
         <v>0</v>
       </c>
+      <c r="Y302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -25846,6 +26754,9 @@
       <c r="X303">
         <v>0</v>
       </c>
+      <c r="Y303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -25930,6 +26841,9 @@
       <c r="X304">
         <v>0</v>
       </c>
+      <c r="Y304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -26014,6 +26928,9 @@
       <c r="X305">
         <v>3</v>
       </c>
+      <c r="Y305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -26098,6 +27015,9 @@
       <c r="X306">
         <v>1</v>
       </c>
+      <c r="Y306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -26182,6 +27102,9 @@
       <c r="X307">
         <v>4</v>
       </c>
+      <c r="Y307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -26266,6 +27189,9 @@
       <c r="X308">
         <v>0</v>
       </c>
+      <c r="Y308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -26350,6 +27276,9 @@
       <c r="X309">
         <v>0</v>
       </c>
+      <c r="Y309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -26434,6 +27363,9 @@
       <c r="X310">
         <v>7</v>
       </c>
+      <c r="Y310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -26518,6 +27450,9 @@
       <c r="X311">
         <v>2</v>
       </c>
+      <c r="Y311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -26602,6 +27537,9 @@
       <c r="X312">
         <v>2</v>
       </c>
+      <c r="Y312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -26686,6 +27624,9 @@
       <c r="X313">
         <v>2</v>
       </c>
+      <c r="Y313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -26770,6 +27711,9 @@
       <c r="X314">
         <v>10</v>
       </c>
+      <c r="Y314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -26854,6 +27798,9 @@
       <c r="X315">
         <v>1</v>
       </c>
+      <c r="Y315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -26938,6 +27885,9 @@
       <c r="X316">
         <v>17</v>
       </c>
+      <c r="Y316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -27022,6 +27972,9 @@
       <c r="X317">
         <v>0</v>
       </c>
+      <c r="Y317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -27106,6 +28059,9 @@
       <c r="X318">
         <v>0</v>
       </c>
+      <c r="Y318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -27190,6 +28146,9 @@
       <c r="X319">
         <v>115</v>
       </c>
+      <c r="Y319">
+        <v>118</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -27274,6 +28233,9 @@
       <c r="X320">
         <v>4</v>
       </c>
+      <c r="Y320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -27358,6 +28320,9 @@
       <c r="X321">
         <v>5</v>
       </c>
+      <c r="Y321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -27442,6 +28407,9 @@
       <c r="X322">
         <v>1</v>
       </c>
+      <c r="Y322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -27526,6 +28494,9 @@
       <c r="X323">
         <v>3</v>
       </c>
+      <c r="Y323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -27610,6 +28581,9 @@
       <c r="X324">
         <v>14</v>
       </c>
+      <c r="Y324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -27694,6 +28668,9 @@
       <c r="X325">
         <v>1</v>
       </c>
+      <c r="Y325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -27778,6 +28755,9 @@
       <c r="X326">
         <v>1</v>
       </c>
+      <c r="Y326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -27862,6 +28842,9 @@
       <c r="X327">
         <v>0</v>
       </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -27946,6 +28929,9 @@
       <c r="X328">
         <v>0</v>
       </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -28030,6 +29016,9 @@
       <c r="X329">
         <v>3</v>
       </c>
+      <c r="Y329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -28114,6 +29103,9 @@
       <c r="X330">
         <v>1</v>
       </c>
+      <c r="Y330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -28198,6 +29190,9 @@
       <c r="X331">
         <v>2</v>
       </c>
+      <c r="Y331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -28282,6 +29277,9 @@
       <c r="X332">
         <v>0</v>
       </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -28366,6 +29364,9 @@
       <c r="X333">
         <v>0</v>
       </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -28450,6 +29451,9 @@
       <c r="X334">
         <v>0</v>
       </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -28534,6 +29538,9 @@
       <c r="X335">
         <v>16</v>
       </c>
+      <c r="Y335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -28618,6 +29625,9 @@
       <c r="X336">
         <v>2</v>
       </c>
+      <c r="Y336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -28702,6 +29712,9 @@
       <c r="X337">
         <v>1</v>
       </c>
+      <c r="Y337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -28786,6 +29799,9 @@
       <c r="X338">
         <v>2</v>
       </c>
+      <c r="Y338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -28870,6 +29886,9 @@
       <c r="X339">
         <v>0</v>
       </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -28954,6 +29973,9 @@
       <c r="X340">
         <v>0</v>
       </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -29038,6 +30060,9 @@
       <c r="X341">
         <v>1</v>
       </c>
+      <c r="Y341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -29122,6 +30147,9 @@
       <c r="X342">
         <v>2</v>
       </c>
+      <c r="Y342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -29206,6 +30234,9 @@
       <c r="X343">
         <v>0</v>
       </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -29290,6 +30321,9 @@
       <c r="X344">
         <v>1</v>
       </c>
+      <c r="Y344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -29374,6 +30408,9 @@
       <c r="X345">
         <v>0</v>
       </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -29458,6 +30495,9 @@
       <c r="X346">
         <v>0</v>
       </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -29542,6 +30582,9 @@
       <c r="X347">
         <v>2</v>
       </c>
+      <c r="Y347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -29626,6 +30669,9 @@
       <c r="X348">
         <v>2</v>
       </c>
+      <c r="Y348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -29710,6 +30756,9 @@
       <c r="X349">
         <v>4</v>
       </c>
+      <c r="Y349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -29794,6 +30843,9 @@
       <c r="X350">
         <v>1</v>
       </c>
+      <c r="Y350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -29878,6 +30930,9 @@
       <c r="X351">
         <v>0</v>
       </c>
+      <c r="Y351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -29962,6 +31017,9 @@
       <c r="X352">
         <v>0</v>
       </c>
+      <c r="Y352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -30046,6 +31104,9 @@
       <c r="X353">
         <v>0</v>
       </c>
+      <c r="Y353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -30130,6 +31191,9 @@
       <c r="X354">
         <v>1</v>
       </c>
+      <c r="Y354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -30214,6 +31278,9 @@
       <c r="X355">
         <v>1</v>
       </c>
+      <c r="Y355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -30298,6 +31365,9 @@
       <c r="X356">
         <v>0</v>
       </c>
+      <c r="Y356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -30382,6 +31452,9 @@
       <c r="X357">
         <v>4</v>
       </c>
+      <c r="Y357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -30466,6 +31539,9 @@
       <c r="X358">
         <v>0</v>
       </c>
+      <c r="Y358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -30548,6 +31624,9 @@
         <v>3</v>
       </c>
       <c r="X359">
+        <v>6</v>
+      </c>
+      <c r="Y359">
         <v>6</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y359"/>
+  <dimension ref="A1:Z359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,6 +483,11 @@
           <t>2020-04-13</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -570,6 +575,9 @@
       <c r="Y2">
         <v>1926</v>
       </c>
+      <c r="Z2">
+        <v>1960</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,6 +665,9 @@
       <c r="Y3">
         <v>14</v>
       </c>
+      <c r="Z3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -744,6 +755,9 @@
       <c r="Y4">
         <v>125</v>
       </c>
+      <c r="Z4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -831,6 +845,9 @@
       <c r="Y5">
         <v>49</v>
       </c>
+      <c r="Z5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -918,6 +935,9 @@
       <c r="Y6">
         <v>46</v>
       </c>
+      <c r="Z6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1005,6 +1025,9 @@
       <c r="Y7">
         <v>3</v>
       </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1092,6 +1115,9 @@
       <c r="Y8">
         <v>0</v>
       </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1179,6 +1205,9 @@
       <c r="Y9">
         <v>0</v>
       </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1266,6 +1295,9 @@
       <c r="Y10">
         <v>6</v>
       </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1353,6 +1385,9 @@
       <c r="Y11">
         <v>6</v>
       </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1440,6 +1475,9 @@
       <c r="Y12">
         <v>12</v>
       </c>
+      <c r="Z12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1527,6 +1565,9 @@
       <c r="Y13">
         <v>12</v>
       </c>
+      <c r="Z13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1614,6 +1655,9 @@
       <c r="Y14">
         <v>13</v>
       </c>
+      <c r="Z14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1701,6 +1745,9 @@
       <c r="Y15">
         <v>11</v>
       </c>
+      <c r="Z15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1788,6 +1835,9 @@
       <c r="Y16">
         <v>13</v>
       </c>
+      <c r="Z16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1875,6 +1925,9 @@
       <c r="Y17">
         <v>0</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1962,6 +2015,9 @@
       <c r="Y18">
         <v>0</v>
       </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2049,6 +2105,9 @@
       <c r="Y19">
         <v>3</v>
       </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2136,6 +2195,9 @@
       <c r="Y20">
         <v>0</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2223,6 +2285,9 @@
       <c r="Y21">
         <v>1</v>
       </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2310,6 +2375,9 @@
       <c r="Y22">
         <v>20</v>
       </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2397,6 +2465,9 @@
       <c r="Y23">
         <v>36</v>
       </c>
+      <c r="Z23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2484,6 +2555,9 @@
       <c r="Y24">
         <v>0</v>
       </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2571,6 +2645,9 @@
       <c r="Y25">
         <v>11</v>
       </c>
+      <c r="Z25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2658,6 +2735,9 @@
       <c r="Y26">
         <v>18</v>
       </c>
+      <c r="Z26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2745,6 +2825,9 @@
       <c r="Y27">
         <v>14</v>
       </c>
+      <c r="Z27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2832,6 +2915,9 @@
       <c r="Y28">
         <v>26</v>
       </c>
+      <c r="Z28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2919,6 +3005,9 @@
       <c r="Y29">
         <v>1</v>
       </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3006,6 +3095,9 @@
       <c r="Y30">
         <v>3</v>
       </c>
+      <c r="Z30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3093,6 +3185,9 @@
       <c r="Y31">
         <v>3</v>
       </c>
+      <c r="Z31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3180,6 +3275,9 @@
       <c r="Y32">
         <v>7</v>
       </c>
+      <c r="Z32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3267,6 +3365,9 @@
       <c r="Y33">
         <v>2</v>
       </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3354,6 +3455,9 @@
       <c r="Y34">
         <v>6</v>
       </c>
+      <c r="Z34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3441,6 +3545,9 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3528,6 +3635,9 @@
       <c r="Y36">
         <v>0</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3615,6 +3725,9 @@
       <c r="Y37">
         <v>6</v>
       </c>
+      <c r="Z37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3702,6 +3815,9 @@
       <c r="Y38">
         <v>5</v>
       </c>
+      <c r="Z38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3789,6 +3905,9 @@
       <c r="Y39">
         <v>0</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3876,6 +3995,9 @@
       <c r="Y40">
         <v>10</v>
       </c>
+      <c r="Z40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3963,6 +4085,9 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4050,6 +4175,9 @@
       <c r="Y42">
         <v>0</v>
       </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4137,6 +4265,9 @@
       <c r="Y43">
         <v>0</v>
       </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4224,6 +4355,9 @@
       <c r="Y44">
         <v>1</v>
       </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4311,6 +4445,9 @@
       <c r="Y45">
         <v>2</v>
       </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4398,6 +4535,9 @@
       <c r="Y46">
         <v>2</v>
       </c>
+      <c r="Z46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4485,6 +4625,9 @@
       <c r="Y47">
         <v>0</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4572,6 +4715,9 @@
       <c r="Y48">
         <v>3</v>
       </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4659,6 +4805,9 @@
       <c r="Y49">
         <v>4</v>
       </c>
+      <c r="Z49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4746,6 +4895,9 @@
       <c r="Y50">
         <v>1</v>
       </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4833,6 +4985,9 @@
       <c r="Y51">
         <v>3</v>
       </c>
+      <c r="Z51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4920,6 +5075,9 @@
       <c r="Y52">
         <v>34</v>
       </c>
+      <c r="Z52">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5007,6 +5165,9 @@
       <c r="Y53">
         <v>3</v>
       </c>
+      <c r="Z53">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5094,6 +5255,9 @@
       <c r="Y54">
         <v>0</v>
       </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5181,6 +5345,9 @@
       <c r="Y55">
         <v>2</v>
       </c>
+      <c r="Z55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5268,6 +5435,9 @@
       <c r="Y56">
         <v>5</v>
       </c>
+      <c r="Z56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5355,6 +5525,9 @@
       <c r="Y57">
         <v>3</v>
       </c>
+      <c r="Z57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5442,6 +5615,9 @@
       <c r="Y58">
         <v>0</v>
       </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5529,6 +5705,9 @@
       <c r="Y59">
         <v>0</v>
       </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5616,6 +5795,9 @@
       <c r="Y60">
         <v>2</v>
       </c>
+      <c r="Z60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5703,6 +5885,9 @@
       <c r="Y61">
         <v>3</v>
       </c>
+      <c r="Z61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5790,6 +5975,9 @@
       <c r="Y62">
         <v>1</v>
       </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5877,6 +6065,9 @@
       <c r="Y63">
         <v>1</v>
       </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5964,6 +6155,9 @@
       <c r="Y64">
         <v>0</v>
       </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6051,6 +6245,9 @@
       <c r="Y65">
         <v>5</v>
       </c>
+      <c r="Z65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6138,6 +6335,9 @@
       <c r="Y66">
         <v>0</v>
       </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6225,6 +6425,9 @@
       <c r="Y67">
         <v>0</v>
       </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6312,6 +6515,9 @@
       <c r="Y68">
         <v>4</v>
       </c>
+      <c r="Z68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6399,6 +6605,9 @@
       <c r="Y69">
         <v>0</v>
       </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6486,6 +6695,9 @@
       <c r="Y70">
         <v>0</v>
       </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6573,6 +6785,9 @@
       <c r="Y71">
         <v>0</v>
       </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6660,6 +6875,9 @@
       <c r="Y72">
         <v>5</v>
       </c>
+      <c r="Z72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6747,6 +6965,9 @@
       <c r="Y73">
         <v>0</v>
       </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6834,6 +7055,9 @@
       <c r="Y74">
         <v>0</v>
       </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6921,6 +7145,9 @@
       <c r="Y75">
         <v>0</v>
       </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7008,6 +7235,9 @@
       <c r="Y76">
         <v>1</v>
       </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7095,6 +7325,9 @@
       <c r="Y77">
         <v>0</v>
       </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7182,6 +7415,9 @@
       <c r="Y78">
         <v>1</v>
       </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7269,6 +7505,9 @@
       <c r="Y79">
         <v>0</v>
       </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7356,6 +7595,9 @@
       <c r="Y80">
         <v>0</v>
       </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7443,6 +7685,9 @@
       <c r="Y81">
         <v>0</v>
       </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7530,6 +7775,9 @@
       <c r="Y82">
         <v>0</v>
       </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7617,6 +7865,9 @@
       <c r="Y83">
         <v>4</v>
       </c>
+      <c r="Z83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7704,6 +7955,9 @@
       <c r="Y84">
         <v>7</v>
       </c>
+      <c r="Z84">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7791,6 +8045,9 @@
       <c r="Y85">
         <v>3</v>
       </c>
+      <c r="Z85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7878,6 +8135,9 @@
       <c r="Y86">
         <v>5</v>
       </c>
+      <c r="Z86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7965,6 +8225,9 @@
       <c r="Y87">
         <v>0</v>
       </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8052,6 +8315,9 @@
       <c r="Y88">
         <v>0</v>
       </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8139,6 +8405,9 @@
       <c r="Y89">
         <v>6</v>
       </c>
+      <c r="Z89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8226,6 +8495,9 @@
       <c r="Y90">
         <v>0</v>
       </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8313,6 +8585,9 @@
       <c r="Y91">
         <v>0</v>
       </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8400,6 +8675,9 @@
       <c r="Y92">
         <v>0</v>
       </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8487,6 +8765,9 @@
       <c r="Y93">
         <v>27</v>
       </c>
+      <c r="Z93">
+        <v>28</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8574,6 +8855,9 @@
       <c r="Y94">
         <v>85</v>
       </c>
+      <c r="Z94">
+        <v>85</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8661,6 +8945,9 @@
       <c r="Y95">
         <v>54</v>
       </c>
+      <c r="Z95">
+        <v>54</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8748,6 +9035,9 @@
       <c r="Y96">
         <v>73</v>
       </c>
+      <c r="Z96">
+        <v>74</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8835,6 +9125,9 @@
       <c r="Y97">
         <v>153</v>
       </c>
+      <c r="Z97">
+        <v>155</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8922,6 +9215,9 @@
       <c r="Y98">
         <v>20</v>
       </c>
+      <c r="Z98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9009,6 +9305,9 @@
       <c r="Y99">
         <v>9</v>
       </c>
+      <c r="Z99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9096,6 +9395,9 @@
       <c r="Y100">
         <v>2</v>
       </c>
+      <c r="Z100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9183,6 +9485,9 @@
       <c r="Y101">
         <v>2</v>
       </c>
+      <c r="Z101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9270,6 +9575,9 @@
       <c r="Y102">
         <v>3</v>
       </c>
+      <c r="Z102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9357,6 +9665,9 @@
       <c r="Y103">
         <v>45</v>
       </c>
+      <c r="Z103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9444,6 +9755,9 @@
       <c r="Y104">
         <v>1</v>
       </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9531,6 +9845,9 @@
       <c r="Y105">
         <v>1</v>
       </c>
+      <c r="Z105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9618,6 +9935,9 @@
       <c r="Y106">
         <v>2</v>
       </c>
+      <c r="Z106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9705,6 +10025,9 @@
       <c r="Y107">
         <v>6</v>
       </c>
+      <c r="Z107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9792,6 +10115,9 @@
       <c r="Y108">
         <v>22</v>
       </c>
+      <c r="Z108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9879,6 +10205,9 @@
       <c r="Y109">
         <v>89</v>
       </c>
+      <c r="Z109">
+        <v>89</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9966,6 +10295,9 @@
       <c r="Y110">
         <v>17</v>
       </c>
+      <c r="Z110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10053,6 +10385,9 @@
       <c r="Y111">
         <v>18</v>
       </c>
+      <c r="Z111">
+        <v>18</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10140,6 +10475,9 @@
       <c r="Y112">
         <v>44</v>
       </c>
+      <c r="Z112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10227,6 +10565,9 @@
       <c r="Y113">
         <v>365</v>
       </c>
+      <c r="Z113">
+        <v>373</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10314,6 +10655,9 @@
       <c r="Y114">
         <v>152</v>
       </c>
+      <c r="Z114">
+        <v>152</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10401,6 +10745,9 @@
       <c r="Y115">
         <v>8</v>
       </c>
+      <c r="Z115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10488,6 +10835,9 @@
       <c r="Y116">
         <v>19</v>
       </c>
+      <c r="Z116">
+        <v>19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10575,6 +10925,9 @@
       <c r="Y117">
         <v>43</v>
       </c>
+      <c r="Z117">
+        <v>43</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10662,6 +11015,9 @@
       <c r="Y118">
         <v>75</v>
       </c>
+      <c r="Z118">
+        <v>76</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10749,6 +11105,9 @@
       <c r="Y119">
         <v>134</v>
       </c>
+      <c r="Z119">
+        <v>134</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10836,6 +11195,9 @@
       <c r="Y120">
         <v>45</v>
       </c>
+      <c r="Z120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10923,6 +11285,9 @@
       <c r="Y121">
         <v>8</v>
       </c>
+      <c r="Z121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11010,6 +11375,9 @@
       <c r="Y122">
         <v>51</v>
       </c>
+      <c r="Z122">
+        <v>52</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11097,6 +11465,9 @@
       <c r="Y123">
         <v>13</v>
       </c>
+      <c r="Z123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11184,6 +11555,9 @@
       <c r="Y124">
         <v>29</v>
       </c>
+      <c r="Z124">
+        <v>29</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11271,6 +11645,9 @@
       <c r="Y125">
         <v>17</v>
       </c>
+      <c r="Z125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11358,6 +11735,9 @@
       <c r="Y126">
         <v>2</v>
       </c>
+      <c r="Z126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11445,6 +11825,9 @@
       <c r="Y127">
         <v>10</v>
       </c>
+      <c r="Z127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11532,6 +11915,9 @@
       <c r="Y128">
         <v>1</v>
       </c>
+      <c r="Z128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11619,6 +12005,9 @@
       <c r="Y129">
         <v>7</v>
       </c>
+      <c r="Z129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11706,6 +12095,9 @@
       <c r="Y130">
         <v>10</v>
       </c>
+      <c r="Z130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11793,6 +12185,9 @@
       <c r="Y131">
         <v>8</v>
       </c>
+      <c r="Z131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11880,6 +12275,9 @@
       <c r="Y132">
         <v>13</v>
       </c>
+      <c r="Z132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11967,6 +12365,9 @@
       <c r="Y133">
         <v>44</v>
       </c>
+      <c r="Z133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12054,6 +12455,9 @@
       <c r="Y134">
         <v>0</v>
       </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12141,6 +12545,9 @@
       <c r="Y135">
         <v>0</v>
       </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12228,6 +12635,9 @@
       <c r="Y136">
         <v>10</v>
       </c>
+      <c r="Z136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12315,6 +12725,9 @@
       <c r="Y137">
         <v>5</v>
       </c>
+      <c r="Z137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -12402,6 +12815,9 @@
       <c r="Y138">
         <v>31</v>
       </c>
+      <c r="Z138">
+        <v>32</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -12489,6 +12905,9 @@
       <c r="Y139">
         <v>2</v>
       </c>
+      <c r="Z139">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12576,6 +12995,9 @@
       <c r="Y140">
         <v>1</v>
       </c>
+      <c r="Z140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12663,6 +13085,9 @@
       <c r="Y141">
         <v>2</v>
       </c>
+      <c r="Z141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12750,6 +13175,9 @@
       <c r="Y142">
         <v>6</v>
       </c>
+      <c r="Z142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12837,6 +13265,9 @@
       <c r="Y143">
         <v>9</v>
       </c>
+      <c r="Z143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12924,6 +13355,9 @@
       <c r="Y144">
         <v>1</v>
       </c>
+      <c r="Z144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13011,6 +13445,9 @@
       <c r="Y145">
         <v>78</v>
       </c>
+      <c r="Z145">
+        <v>78</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13098,6 +13535,9 @@
       <c r="Y146">
         <v>31</v>
       </c>
+      <c r="Z146">
+        <v>32</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13185,6 +13625,9 @@
       <c r="Y147">
         <v>15</v>
       </c>
+      <c r="Z147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -13272,6 +13715,9 @@
       <c r="Y148">
         <v>57</v>
       </c>
+      <c r="Z148">
+        <v>57</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -13359,6 +13805,9 @@
       <c r="Y149">
         <v>11</v>
       </c>
+      <c r="Z149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -13446,6 +13895,9 @@
       <c r="Y150">
         <v>33</v>
       </c>
+      <c r="Z150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -13533,6 +13985,9 @@
       <c r="Y151">
         <v>0</v>
       </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -13620,6 +14075,9 @@
       <c r="Y152">
         <v>17</v>
       </c>
+      <c r="Z152">
+        <v>17</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -13707,6 +14165,9 @@
       <c r="Y153">
         <v>4</v>
       </c>
+      <c r="Z153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -13794,6 +14255,9 @@
       <c r="Y154">
         <v>5</v>
       </c>
+      <c r="Z154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -13881,6 +14345,9 @@
       <c r="Y155">
         <v>3</v>
       </c>
+      <c r="Z155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13968,6 +14435,9 @@
       <c r="Y156">
         <v>3</v>
       </c>
+      <c r="Z156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -14055,6 +14525,9 @@
       <c r="Y157">
         <v>14</v>
       </c>
+      <c r="Z157">
+        <v>15</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -14142,6 +14615,9 @@
       <c r="Y158">
         <v>2</v>
       </c>
+      <c r="Z158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -14229,6 +14705,9 @@
       <c r="Y159">
         <v>4</v>
       </c>
+      <c r="Z159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -14316,6 +14795,9 @@
       <c r="Y160">
         <v>0</v>
       </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -14403,6 +14885,9 @@
       <c r="Y161">
         <v>0</v>
       </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -14490,6 +14975,9 @@
       <c r="Y162">
         <v>2</v>
       </c>
+      <c r="Z162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -14577,6 +15065,9 @@
       <c r="Y163">
         <v>0</v>
       </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -14664,6 +15155,9 @@
       <c r="Y164">
         <v>0</v>
       </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -14751,6 +15245,9 @@
       <c r="Y165">
         <v>1</v>
       </c>
+      <c r="Z165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -14838,6 +15335,9 @@
       <c r="Y166">
         <v>0</v>
       </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -14925,6 +15425,9 @@
       <c r="Y167">
         <v>1</v>
       </c>
+      <c r="Z167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -15012,6 +15515,9 @@
       <c r="Y168">
         <v>5</v>
       </c>
+      <c r="Z168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -15099,6 +15605,9 @@
       <c r="Y169">
         <v>2</v>
       </c>
+      <c r="Z169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -15186,6 +15695,9 @@
       <c r="Y170">
         <v>1</v>
       </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -15273,6 +15785,9 @@
       <c r="Y171">
         <v>3</v>
       </c>
+      <c r="Z171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -15360,6 +15875,9 @@
       <c r="Y172">
         <v>2</v>
       </c>
+      <c r="Z172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -15447,6 +15965,9 @@
       <c r="Y173">
         <v>13</v>
       </c>
+      <c r="Z173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -15534,6 +16055,9 @@
       <c r="Y174">
         <v>36</v>
       </c>
+      <c r="Z174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -15621,6 +16145,9 @@
       <c r="Y175">
         <v>1</v>
       </c>
+      <c r="Z175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -15708,6 +16235,9 @@
       <c r="Y176">
         <v>8</v>
       </c>
+      <c r="Z176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -15795,6 +16325,9 @@
       <c r="Y177">
         <v>2</v>
       </c>
+      <c r="Z177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -15882,6 +16415,9 @@
       <c r="Y178">
         <v>5</v>
       </c>
+      <c r="Z178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -15969,6 +16505,9 @@
       <c r="Y179">
         <v>4</v>
       </c>
+      <c r="Z179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -16056,6 +16595,9 @@
       <c r="Y180">
         <v>10</v>
       </c>
+      <c r="Z180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -16143,6 +16685,9 @@
       <c r="Y181">
         <v>9</v>
       </c>
+      <c r="Z181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -16230,6 +16775,9 @@
       <c r="Y182">
         <v>2</v>
       </c>
+      <c r="Z182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -16317,6 +16865,9 @@
       <c r="Y183">
         <v>1</v>
       </c>
+      <c r="Z183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -16404,6 +16955,9 @@
       <c r="Y184">
         <v>0</v>
       </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -16491,6 +17045,9 @@
       <c r="Y185">
         <v>1</v>
       </c>
+      <c r="Z185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -16578,6 +17135,9 @@
       <c r="Y186">
         <v>9</v>
       </c>
+      <c r="Z186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -16665,6 +17225,9 @@
       <c r="Y187">
         <v>0</v>
       </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -16752,6 +17315,9 @@
       <c r="Y188">
         <v>0</v>
       </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -16839,6 +17405,9 @@
       <c r="Y189">
         <v>0</v>
       </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -16926,6 +17495,9 @@
       <c r="Y190">
         <v>24</v>
       </c>
+      <c r="Z190">
+        <v>24</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -17013,6 +17585,9 @@
       <c r="Y191">
         <v>18</v>
       </c>
+      <c r="Z191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -17100,6 +17675,9 @@
       <c r="Y192">
         <v>55</v>
       </c>
+      <c r="Z192">
+        <v>55</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -17187,6 +17765,9 @@
       <c r="Y193">
         <v>37</v>
       </c>
+      <c r="Z193">
+        <v>37</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -17274,6 +17855,9 @@
       <c r="Y194">
         <v>28</v>
       </c>
+      <c r="Z194">
+        <v>28</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -17361,6 +17945,9 @@
       <c r="Y195">
         <v>8</v>
       </c>
+      <c r="Z195">
+        <v>8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -17448,6 +18035,9 @@
       <c r="Y196">
         <v>38</v>
       </c>
+      <c r="Z196">
+        <v>38</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -17535,6 +18125,9 @@
       <c r="Y197">
         <v>4</v>
       </c>
+      <c r="Z197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -17622,6 +18215,9 @@
       <c r="Y198">
         <v>21</v>
       </c>
+      <c r="Z198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -17709,6 +18305,9 @@
       <c r="Y199">
         <v>2</v>
       </c>
+      <c r="Z199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -17796,6 +18395,9 @@
       <c r="Y200">
         <v>5</v>
       </c>
+      <c r="Z200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -17883,6 +18485,9 @@
       <c r="Y201">
         <v>1</v>
       </c>
+      <c r="Z201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -17970,6 +18575,9 @@
       <c r="Y202">
         <v>1</v>
       </c>
+      <c r="Z202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -18057,6 +18665,9 @@
       <c r="Y203">
         <v>2</v>
       </c>
+      <c r="Z203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -18144,6 +18755,9 @@
       <c r="Y204">
         <v>0</v>
       </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -18231,6 +18845,9 @@
       <c r="Y205">
         <v>1</v>
       </c>
+      <c r="Z205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -18318,6 +18935,9 @@
       <c r="Y206">
         <v>0</v>
       </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -18405,6 +19025,9 @@
       <c r="Y207">
         <v>0</v>
       </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -18492,6 +19115,9 @@
       <c r="Y208">
         <v>0</v>
       </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -18579,6 +19205,9 @@
       <c r="Y209">
         <v>0</v>
       </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -18666,6 +19295,9 @@
       <c r="Y210">
         <v>0</v>
       </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -18753,6 +19385,9 @@
       <c r="Y211">
         <v>0</v>
       </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -18840,6 +19475,9 @@
       <c r="Y212">
         <v>2</v>
       </c>
+      <c r="Z212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -18927,6 +19565,9 @@
       <c r="Y213">
         <v>0</v>
       </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -19014,6 +19655,9 @@
       <c r="Y214">
         <v>1</v>
       </c>
+      <c r="Z214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -19101,6 +19745,9 @@
       <c r="Y215">
         <v>25</v>
       </c>
+      <c r="Z215">
+        <v>26</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -19188,6 +19835,9 @@
       <c r="Y216">
         <v>178</v>
       </c>
+      <c r="Z216">
+        <v>180</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -19275,6 +19925,9 @@
       <c r="Y217">
         <v>9</v>
       </c>
+      <c r="Z217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -19362,6 +20015,9 @@
       <c r="Y218">
         <v>11</v>
       </c>
+      <c r="Z218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -19449,6 +20105,9 @@
       <c r="Y219">
         <v>0</v>
       </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -19536,6 +20195,9 @@
       <c r="Y220">
         <v>2</v>
       </c>
+      <c r="Z220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -19623,6 +20285,9 @@
       <c r="Y221">
         <v>0</v>
       </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -19710,6 +20375,9 @@
       <c r="Y222">
         <v>0</v>
       </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -19797,6 +20465,9 @@
       <c r="Y223">
         <v>2</v>
       </c>
+      <c r="Z223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -19884,6 +20555,9 @@
       <c r="Y224">
         <v>7</v>
       </c>
+      <c r="Z224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -19971,6 +20645,9 @@
       <c r="Y225">
         <v>3</v>
       </c>
+      <c r="Z225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -20058,6 +20735,9 @@
       <c r="Y226">
         <v>1</v>
       </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -20145,6 +20825,9 @@
       <c r="Y227">
         <v>1</v>
       </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -20232,6 +20915,9 @@
       <c r="Y228">
         <v>2</v>
       </c>
+      <c r="Z228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -20319,6 +21005,9 @@
       <c r="Y229">
         <v>2</v>
       </c>
+      <c r="Z229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -20406,6 +21095,9 @@
       <c r="Y230">
         <v>0</v>
       </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -20493,6 +21185,9 @@
       <c r="Y231">
         <v>3</v>
       </c>
+      <c r="Z231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -20580,6 +21275,9 @@
       <c r="Y232">
         <v>9</v>
       </c>
+      <c r="Z232">
+        <v>9</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -20667,6 +21365,9 @@
       <c r="Y233">
         <v>0</v>
       </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -20754,6 +21455,9 @@
       <c r="Y234">
         <v>4</v>
       </c>
+      <c r="Z234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -20841,6 +21545,9 @@
       <c r="Y235">
         <v>1</v>
       </c>
+      <c r="Z235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -20928,6 +21635,9 @@
       <c r="Y236">
         <v>1</v>
       </c>
+      <c r="Z236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -21015,6 +21725,9 @@
       <c r="Y237">
         <v>1</v>
       </c>
+      <c r="Z237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -21102,6 +21815,9 @@
       <c r="Y238">
         <v>423</v>
       </c>
+      <c r="Z238">
+        <v>437</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -21189,6 +21905,9 @@
       <c r="Y239">
         <v>8</v>
       </c>
+      <c r="Z239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -21276,6 +21995,9 @@
       <c r="Y240">
         <v>4</v>
       </c>
+      <c r="Z240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -21363,6 +22085,9 @@
       <c r="Y241">
         <v>4</v>
       </c>
+      <c r="Z241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -21450,6 +22175,9 @@
       <c r="Y242">
         <v>4</v>
       </c>
+      <c r="Z242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -21537,6 +22265,9 @@
       <c r="Y243">
         <v>6</v>
       </c>
+      <c r="Z243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -21624,6 +22355,9 @@
       <c r="Y244">
         <v>8</v>
       </c>
+      <c r="Z244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -21711,6 +22445,9 @@
       <c r="Y245">
         <v>0</v>
       </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -21798,6 +22535,9 @@
       <c r="Y246">
         <v>4</v>
       </c>
+      <c r="Z246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -21885,6 +22625,9 @@
       <c r="Y247">
         <v>0</v>
       </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -21972,6 +22715,9 @@
       <c r="Y248">
         <v>0</v>
       </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -22059,6 +22805,9 @@
       <c r="Y249">
         <v>2</v>
       </c>
+      <c r="Z249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -22146,6 +22895,9 @@
       <c r="Y250">
         <v>24</v>
       </c>
+      <c r="Z250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -22233,6 +22985,9 @@
       <c r="Y251">
         <v>9</v>
       </c>
+      <c r="Z251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -22320,6 +23075,9 @@
       <c r="Y252">
         <v>0</v>
       </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -22407,6 +23165,9 @@
       <c r="Y253">
         <v>17</v>
       </c>
+      <c r="Z253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -22494,6 +23255,9 @@
       <c r="Y254">
         <v>4</v>
       </c>
+      <c r="Z254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -22581,6 +23345,9 @@
       <c r="Y255">
         <v>43</v>
       </c>
+      <c r="Z255">
+        <v>43</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -22668,6 +23435,9 @@
       <c r="Y256">
         <v>30</v>
       </c>
+      <c r="Z256">
+        <v>30</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -22755,6 +23525,9 @@
       <c r="Y257">
         <v>1</v>
       </c>
+      <c r="Z257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -22842,6 +23615,9 @@
       <c r="Y258">
         <v>0</v>
       </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -22929,6 +23705,9 @@
       <c r="Y259">
         <v>9</v>
       </c>
+      <c r="Z259">
+        <v>9</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -23016,6 +23795,9 @@
       <c r="Y260">
         <v>19</v>
       </c>
+      <c r="Z260">
+        <v>19</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -23103,6 +23885,9 @@
       <c r="Y261">
         <v>0</v>
       </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -23190,6 +23975,9 @@
       <c r="Y262">
         <v>0</v>
       </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -23277,6 +24065,9 @@
       <c r="Y263">
         <v>0</v>
       </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -23364,6 +24155,9 @@
       <c r="Y264">
         <v>0</v>
       </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -23451,6 +24245,9 @@
       <c r="Y265">
         <v>3</v>
       </c>
+      <c r="Z265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -23538,6 +24335,9 @@
       <c r="Y266">
         <v>0</v>
       </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -23625,6 +24425,9 @@
       <c r="Y267">
         <v>3</v>
       </c>
+      <c r="Z267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -23712,6 +24515,9 @@
       <c r="Y268">
         <v>0</v>
       </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -23799,6 +24605,9 @@
       <c r="Y269">
         <v>7</v>
       </c>
+      <c r="Z269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -23886,6 +24695,9 @@
       <c r="Y270">
         <v>0</v>
       </c>
+      <c r="Z270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -23973,6 +24785,9 @@
       <c r="Y271">
         <v>0</v>
       </c>
+      <c r="Z271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -24060,6 +24875,9 @@
       <c r="Y272">
         <v>1</v>
       </c>
+      <c r="Z272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -24147,6 +24965,9 @@
       <c r="Y273">
         <v>4</v>
       </c>
+      <c r="Z273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -24234,6 +25055,9 @@
       <c r="Y274">
         <v>0</v>
       </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -24321,6 +25145,9 @@
       <c r="Y275">
         <v>0</v>
       </c>
+      <c r="Z275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -24408,6 +25235,9 @@
       <c r="Y276">
         <v>17</v>
       </c>
+      <c r="Z276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -24495,6 +25325,9 @@
       <c r="Y277">
         <v>0</v>
       </c>
+      <c r="Z277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -24582,6 +25415,9 @@
       <c r="Y278">
         <v>0</v>
       </c>
+      <c r="Z278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -24669,6 +25505,9 @@
       <c r="Y279">
         <v>4</v>
       </c>
+      <c r="Z279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -24756,6 +25595,9 @@
       <c r="Y280">
         <v>12</v>
       </c>
+      <c r="Z280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -24843,6 +25685,9 @@
       <c r="Y281">
         <v>212</v>
       </c>
+      <c r="Z281">
+        <v>214</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -24930,6 +25775,9 @@
       <c r="Y282">
         <v>16</v>
       </c>
+      <c r="Z282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -25017,6 +25865,9 @@
       <c r="Y283">
         <v>5</v>
       </c>
+      <c r="Z283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -25104,6 +25955,9 @@
       <c r="Y284">
         <v>0</v>
       </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -25191,6 +26045,9 @@
       <c r="Y285">
         <v>0</v>
       </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -25278,6 +26135,9 @@
       <c r="Y286">
         <v>8</v>
       </c>
+      <c r="Z286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -25365,6 +26225,9 @@
       <c r="Y287">
         <v>5</v>
       </c>
+      <c r="Z287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -25452,6 +26315,9 @@
       <c r="Y288">
         <v>0</v>
       </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -25539,6 +26405,9 @@
       <c r="Y289">
         <v>1</v>
       </c>
+      <c r="Z289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -25626,6 +26495,9 @@
       <c r="Y290">
         <v>7</v>
       </c>
+      <c r="Z290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -25713,6 +26585,9 @@
       <c r="Y291">
         <v>3</v>
       </c>
+      <c r="Z291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -25800,6 +26675,9 @@
       <c r="Y292">
         <v>5</v>
       </c>
+      <c r="Z292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -25887,6 +26765,9 @@
       <c r="Y293">
         <v>11</v>
       </c>
+      <c r="Z293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -25974,6 +26855,9 @@
       <c r="Y294">
         <v>6</v>
       </c>
+      <c r="Z294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -26061,6 +26945,9 @@
       <c r="Y295">
         <v>0</v>
       </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -26148,6 +27035,9 @@
       <c r="Y296">
         <v>1</v>
       </c>
+      <c r="Z296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -26235,6 +27125,9 @@
       <c r="Y297">
         <v>7</v>
       </c>
+      <c r="Z297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -26322,6 +27215,9 @@
       <c r="Y298">
         <v>28</v>
       </c>
+      <c r="Z298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -26409,6 +27305,9 @@
       <c r="Y299">
         <v>20</v>
       </c>
+      <c r="Z299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -26496,6 +27395,9 @@
       <c r="Y300">
         <v>15</v>
       </c>
+      <c r="Z300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -26583,6 +27485,9 @@
       <c r="Y301">
         <v>0</v>
       </c>
+      <c r="Z301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -26670,6 +27575,9 @@
       <c r="Y302">
         <v>0</v>
       </c>
+      <c r="Z302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -26757,6 +27665,9 @@
       <c r="Y303">
         <v>0</v>
       </c>
+      <c r="Z303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -26844,6 +27755,9 @@
       <c r="Y304">
         <v>0</v>
       </c>
+      <c r="Z304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -26931,6 +27845,9 @@
       <c r="Y305">
         <v>3</v>
       </c>
+      <c r="Z305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -27018,6 +27935,9 @@
       <c r="Y306">
         <v>1</v>
       </c>
+      <c r="Z306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -27105,6 +28025,9 @@
       <c r="Y307">
         <v>4</v>
       </c>
+      <c r="Z307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -27192,6 +28115,9 @@
       <c r="Y308">
         <v>0</v>
       </c>
+      <c r="Z308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -27279,6 +28205,9 @@
       <c r="Y309">
         <v>0</v>
       </c>
+      <c r="Z309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -27366,6 +28295,9 @@
       <c r="Y310">
         <v>7</v>
       </c>
+      <c r="Z310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -27453,6 +28385,9 @@
       <c r="Y311">
         <v>2</v>
       </c>
+      <c r="Z311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -27540,6 +28475,9 @@
       <c r="Y312">
         <v>2</v>
       </c>
+      <c r="Z312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -27627,6 +28565,9 @@
       <c r="Y313">
         <v>2</v>
       </c>
+      <c r="Z313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -27714,6 +28655,9 @@
       <c r="Y314">
         <v>10</v>
       </c>
+      <c r="Z314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -27801,6 +28745,9 @@
       <c r="Y315">
         <v>1</v>
       </c>
+      <c r="Z315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -27888,6 +28835,9 @@
       <c r="Y316">
         <v>17</v>
       </c>
+      <c r="Z316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -27975,6 +28925,9 @@
       <c r="Y317">
         <v>0</v>
       </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -28062,6 +29015,9 @@
       <c r="Y318">
         <v>0</v>
       </c>
+      <c r="Z318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -28149,6 +29105,9 @@
       <c r="Y319">
         <v>118</v>
       </c>
+      <c r="Z319">
+        <v>122</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -28236,6 +29195,9 @@
       <c r="Y320">
         <v>4</v>
       </c>
+      <c r="Z320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -28323,6 +29285,9 @@
       <c r="Y321">
         <v>5</v>
       </c>
+      <c r="Z321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -28410,6 +29375,9 @@
       <c r="Y322">
         <v>1</v>
       </c>
+      <c r="Z322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -28497,6 +29465,9 @@
       <c r="Y323">
         <v>3</v>
       </c>
+      <c r="Z323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -28584,6 +29555,9 @@
       <c r="Y324">
         <v>14</v>
       </c>
+      <c r="Z324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -28671,6 +29645,9 @@
       <c r="Y325">
         <v>1</v>
       </c>
+      <c r="Z325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -28758,6 +29735,9 @@
       <c r="Y326">
         <v>1</v>
       </c>
+      <c r="Z326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -28845,6 +29825,9 @@
       <c r="Y327">
         <v>0</v>
       </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -28932,6 +29915,9 @@
       <c r="Y328">
         <v>0</v>
       </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -29019,6 +30005,9 @@
       <c r="Y329">
         <v>3</v>
       </c>
+      <c r="Z329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -29106,6 +30095,9 @@
       <c r="Y330">
         <v>1</v>
       </c>
+      <c r="Z330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -29193,6 +30185,9 @@
       <c r="Y331">
         <v>2</v>
       </c>
+      <c r="Z331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -29280,6 +30275,9 @@
       <c r="Y332">
         <v>0</v>
       </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -29367,6 +30365,9 @@
       <c r="Y333">
         <v>0</v>
       </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -29454,6 +30455,9 @@
       <c r="Y334">
         <v>0</v>
       </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -29541,6 +30545,9 @@
       <c r="Y335">
         <v>16</v>
       </c>
+      <c r="Z335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -29628,6 +30635,9 @@
       <c r="Y336">
         <v>2</v>
       </c>
+      <c r="Z336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -29715,6 +30725,9 @@
       <c r="Y337">
         <v>1</v>
       </c>
+      <c r="Z337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -29802,6 +30815,9 @@
       <c r="Y338">
         <v>2</v>
       </c>
+      <c r="Z338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -29889,6 +30905,9 @@
       <c r="Y339">
         <v>0</v>
       </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -29976,6 +30995,9 @@
       <c r="Y340">
         <v>0</v>
       </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -30063,6 +31085,9 @@
       <c r="Y341">
         <v>1</v>
       </c>
+      <c r="Z341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -30150,6 +31175,9 @@
       <c r="Y342">
         <v>2</v>
       </c>
+      <c r="Z342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -30237,6 +31265,9 @@
       <c r="Y343">
         <v>0</v>
       </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -30324,6 +31355,9 @@
       <c r="Y344">
         <v>1</v>
       </c>
+      <c r="Z344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -30411,6 +31445,9 @@
       <c r="Y345">
         <v>0</v>
       </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -30498,6 +31535,9 @@
       <c r="Y346">
         <v>0</v>
       </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -30585,6 +31625,9 @@
       <c r="Y347">
         <v>2</v>
       </c>
+      <c r="Z347">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -30672,6 +31715,9 @@
       <c r="Y348">
         <v>2</v>
       </c>
+      <c r="Z348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -30759,6 +31805,9 @@
       <c r="Y349">
         <v>4</v>
       </c>
+      <c r="Z349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -30846,6 +31895,9 @@
       <c r="Y350">
         <v>1</v>
       </c>
+      <c r="Z350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -30933,6 +31985,9 @@
       <c r="Y351">
         <v>0</v>
       </c>
+      <c r="Z351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -31020,6 +32075,9 @@
       <c r="Y352">
         <v>0</v>
       </c>
+      <c r="Z352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -31107,6 +32165,9 @@
       <c r="Y353">
         <v>0</v>
       </c>
+      <c r="Z353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -31194,6 +32255,9 @@
       <c r="Y354">
         <v>1</v>
       </c>
+      <c r="Z354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -31281,6 +32345,9 @@
       <c r="Y355">
         <v>1</v>
       </c>
+      <c r="Z355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -31368,6 +32435,9 @@
       <c r="Y356">
         <v>0</v>
       </c>
+      <c r="Z356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -31455,6 +32525,9 @@
       <c r="Y357">
         <v>4</v>
       </c>
+      <c r="Z357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -31542,6 +32615,9 @@
       <c r="Y358">
         <v>0</v>
       </c>
+      <c r="Z358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -31628,6 +32704,9 @@
       </c>
       <c r="Y359">
         <v>6</v>
+      </c>
+      <c r="Z359">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z359"/>
+  <dimension ref="A1:AA359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,6 +488,11 @@
           <t>2020-04-14</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -578,6 +583,9 @@
       <c r="Z2">
         <v>1960</v>
       </c>
+      <c r="AA2">
+        <v>1985</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -668,6 +676,9 @@
       <c r="Z3">
         <v>14</v>
       </c>
+      <c r="AA3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -758,6 +769,9 @@
       <c r="Z4">
         <v>125</v>
       </c>
+      <c r="AA4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -848,6 +862,9 @@
       <c r="Z5">
         <v>49</v>
       </c>
+      <c r="AA5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -938,6 +955,9 @@
       <c r="Z6">
         <v>46</v>
       </c>
+      <c r="AA6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1028,6 +1048,9 @@
       <c r="Z7">
         <v>3</v>
       </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1118,6 +1141,9 @@
       <c r="Z8">
         <v>0</v>
       </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1208,6 +1234,9 @@
       <c r="Z9">
         <v>0</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1298,6 +1327,9 @@
       <c r="Z10">
         <v>6</v>
       </c>
+      <c r="AA10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1388,6 +1420,9 @@
       <c r="Z11">
         <v>6</v>
       </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1478,6 +1513,9 @@
       <c r="Z12">
         <v>12</v>
       </c>
+      <c r="AA12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1568,6 +1606,9 @@
       <c r="Z13">
         <v>12</v>
       </c>
+      <c r="AA13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1658,6 +1699,9 @@
       <c r="Z14">
         <v>13</v>
       </c>
+      <c r="AA14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1748,6 +1792,9 @@
       <c r="Z15">
         <v>11</v>
       </c>
+      <c r="AA15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1838,6 +1885,9 @@
       <c r="Z16">
         <v>13</v>
       </c>
+      <c r="AA16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1928,6 +1978,9 @@
       <c r="Z17">
         <v>0</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2018,6 +2071,9 @@
       <c r="Z18">
         <v>0</v>
       </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2108,6 +2164,9 @@
       <c r="Z19">
         <v>3</v>
       </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2198,6 +2257,9 @@
       <c r="Z20">
         <v>0</v>
       </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2288,6 +2350,9 @@
       <c r="Z21">
         <v>1</v>
       </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2378,6 +2443,9 @@
       <c r="Z22">
         <v>20</v>
       </c>
+      <c r="AA22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2468,6 +2536,9 @@
       <c r="Z23">
         <v>36</v>
       </c>
+      <c r="AA23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2558,6 +2629,9 @@
       <c r="Z24">
         <v>0</v>
       </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2648,6 +2722,9 @@
       <c r="Z25">
         <v>11</v>
       </c>
+      <c r="AA25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2738,6 +2815,9 @@
       <c r="Z26">
         <v>18</v>
       </c>
+      <c r="AA26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2828,6 +2908,9 @@
       <c r="Z27">
         <v>14</v>
       </c>
+      <c r="AA27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2918,6 +3001,9 @@
       <c r="Z28">
         <v>26</v>
       </c>
+      <c r="AA28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3008,6 +3094,9 @@
       <c r="Z29">
         <v>1</v>
       </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3098,6 +3187,9 @@
       <c r="Z30">
         <v>3</v>
       </c>
+      <c r="AA30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3188,6 +3280,9 @@
       <c r="Z31">
         <v>3</v>
       </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3278,6 +3373,9 @@
       <c r="Z32">
         <v>7</v>
       </c>
+      <c r="AA32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3368,6 +3466,9 @@
       <c r="Z33">
         <v>2</v>
       </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,6 +3559,9 @@
       <c r="Z34">
         <v>6</v>
       </c>
+      <c r="AA34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3548,6 +3652,9 @@
       <c r="Z35">
         <v>0</v>
       </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3638,6 +3745,9 @@
       <c r="Z36">
         <v>0</v>
       </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3728,6 +3838,9 @@
       <c r="Z37">
         <v>6</v>
       </c>
+      <c r="AA37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3818,6 +3931,9 @@
       <c r="Z38">
         <v>5</v>
       </c>
+      <c r="AA38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3908,6 +4024,9 @@
       <c r="Z39">
         <v>0</v>
       </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3998,6 +4117,9 @@
       <c r="Z40">
         <v>10</v>
       </c>
+      <c r="AA40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4088,6 +4210,9 @@
       <c r="Z41">
         <v>0</v>
       </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4178,6 +4303,9 @@
       <c r="Z42">
         <v>0</v>
       </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4268,6 +4396,9 @@
       <c r="Z43">
         <v>0</v>
       </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4358,6 +4489,9 @@
       <c r="Z44">
         <v>1</v>
       </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4448,6 +4582,9 @@
       <c r="Z45">
         <v>2</v>
       </c>
+      <c r="AA45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4538,6 +4675,9 @@
       <c r="Z46">
         <v>2</v>
       </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4628,6 +4768,9 @@
       <c r="Z47">
         <v>0</v>
       </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4718,6 +4861,9 @@
       <c r="Z48">
         <v>3</v>
       </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4808,6 +4954,9 @@
       <c r="Z49">
         <v>4</v>
       </c>
+      <c r="AA49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4898,6 +5047,9 @@
       <c r="Z50">
         <v>1</v>
       </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4988,6 +5140,9 @@
       <c r="Z51">
         <v>3</v>
       </c>
+      <c r="AA51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5078,6 +5233,9 @@
       <c r="Z52">
         <v>34</v>
       </c>
+      <c r="AA52">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5168,6 +5326,9 @@
       <c r="Z53">
         <v>3</v>
       </c>
+      <c r="AA53">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5258,6 +5419,9 @@
       <c r="Z54">
         <v>0</v>
       </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5348,6 +5512,9 @@
       <c r="Z55">
         <v>2</v>
       </c>
+      <c r="AA55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5438,6 +5605,9 @@
       <c r="Z56">
         <v>5</v>
       </c>
+      <c r="AA56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5528,6 +5698,9 @@
       <c r="Z57">
         <v>3</v>
       </c>
+      <c r="AA57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5618,6 +5791,9 @@
       <c r="Z58">
         <v>0</v>
       </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5708,6 +5884,9 @@
       <c r="Z59">
         <v>0</v>
       </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5798,6 +5977,9 @@
       <c r="Z60">
         <v>2</v>
       </c>
+      <c r="AA60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5888,6 +6070,9 @@
       <c r="Z61">
         <v>3</v>
       </c>
+      <c r="AA61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5978,6 +6163,9 @@
       <c r="Z62">
         <v>1</v>
       </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6068,6 +6256,9 @@
       <c r="Z63">
         <v>1</v>
       </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6158,6 +6349,9 @@
       <c r="Z64">
         <v>0</v>
       </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6248,6 +6442,9 @@
       <c r="Z65">
         <v>5</v>
       </c>
+      <c r="AA65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6338,6 +6535,9 @@
       <c r="Z66">
         <v>0</v>
       </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6428,6 +6628,9 @@
       <c r="Z67">
         <v>0</v>
       </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6518,6 +6721,9 @@
       <c r="Z68">
         <v>4</v>
       </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6608,6 +6814,9 @@
       <c r="Z69">
         <v>0</v>
       </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6698,6 +6907,9 @@
       <c r="Z70">
         <v>0</v>
       </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6788,6 +7000,9 @@
       <c r="Z71">
         <v>0</v>
       </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6878,6 +7093,9 @@
       <c r="Z72">
         <v>5</v>
       </c>
+      <c r="AA72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6968,6 +7186,9 @@
       <c r="Z73">
         <v>0</v>
       </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7058,6 +7279,9 @@
       <c r="Z74">
         <v>0</v>
       </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7148,6 +7372,9 @@
       <c r="Z75">
         <v>0</v>
       </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7238,6 +7465,9 @@
       <c r="Z76">
         <v>1</v>
       </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7328,6 +7558,9 @@
       <c r="Z77">
         <v>0</v>
       </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7418,6 +7651,9 @@
       <c r="Z78">
         <v>1</v>
       </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7508,6 +7744,9 @@
       <c r="Z79">
         <v>0</v>
       </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7598,6 +7837,9 @@
       <c r="Z80">
         <v>0</v>
       </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7688,6 +7930,9 @@
       <c r="Z81">
         <v>0</v>
       </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7778,6 +8023,9 @@
       <c r="Z82">
         <v>0</v>
       </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7868,6 +8116,9 @@
       <c r="Z83">
         <v>4</v>
       </c>
+      <c r="AA83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7958,6 +8209,9 @@
       <c r="Z84">
         <v>7</v>
       </c>
+      <c r="AA84">
+        <v>9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8048,6 +8302,9 @@
       <c r="Z85">
         <v>3</v>
       </c>
+      <c r="AA85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8138,6 +8395,9 @@
       <c r="Z86">
         <v>5</v>
       </c>
+      <c r="AA86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8228,6 +8488,9 @@
       <c r="Z87">
         <v>0</v>
       </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8318,6 +8581,9 @@
       <c r="Z88">
         <v>0</v>
       </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8408,6 +8674,9 @@
       <c r="Z89">
         <v>6</v>
       </c>
+      <c r="AA89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8498,6 +8767,9 @@
       <c r="Z90">
         <v>0</v>
       </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8588,6 +8860,9 @@
       <c r="Z91">
         <v>0</v>
       </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8678,6 +8953,9 @@
       <c r="Z92">
         <v>0</v>
       </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8768,6 +9046,9 @@
       <c r="Z93">
         <v>28</v>
       </c>
+      <c r="AA93">
+        <v>28</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8858,6 +9139,9 @@
       <c r="Z94">
         <v>85</v>
       </c>
+      <c r="AA94">
+        <v>89</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8948,6 +9232,9 @@
       <c r="Z95">
         <v>54</v>
       </c>
+      <c r="AA95">
+        <v>53</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9038,6 +9325,9 @@
       <c r="Z96">
         <v>74</v>
       </c>
+      <c r="AA96">
+        <v>79</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9128,6 +9418,9 @@
       <c r="Z97">
         <v>155</v>
       </c>
+      <c r="AA97">
+        <v>156</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9218,6 +9511,9 @@
       <c r="Z98">
         <v>20</v>
       </c>
+      <c r="AA98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9308,6 +9604,9 @@
       <c r="Z99">
         <v>9</v>
       </c>
+      <c r="AA99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9398,6 +9697,9 @@
       <c r="Z100">
         <v>2</v>
       </c>
+      <c r="AA100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9488,6 +9790,9 @@
       <c r="Z101">
         <v>2</v>
       </c>
+      <c r="AA101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9578,6 +9883,9 @@
       <c r="Z102">
         <v>3</v>
       </c>
+      <c r="AA102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9668,6 +9976,9 @@
       <c r="Z103">
         <v>45</v>
       </c>
+      <c r="AA103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9758,6 +10069,9 @@
       <c r="Z104">
         <v>2</v>
       </c>
+      <c r="AA104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9848,6 +10162,9 @@
       <c r="Z105">
         <v>1</v>
       </c>
+      <c r="AA105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9938,6 +10255,9 @@
       <c r="Z106">
         <v>2</v>
       </c>
+      <c r="AA106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10028,6 +10348,9 @@
       <c r="Z107">
         <v>6</v>
       </c>
+      <c r="AA107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10118,6 +10441,9 @@
       <c r="Z108">
         <v>22</v>
       </c>
+      <c r="AA108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10208,6 +10534,9 @@
       <c r="Z109">
         <v>89</v>
       </c>
+      <c r="AA109">
+        <v>89</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10298,6 +10627,9 @@
       <c r="Z110">
         <v>17</v>
       </c>
+      <c r="AA110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10388,6 +10720,9 @@
       <c r="Z111">
         <v>18</v>
       </c>
+      <c r="AA111">
+        <v>18</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10478,6 +10813,9 @@
       <c r="Z112">
         <v>44</v>
       </c>
+      <c r="AA112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10568,6 +10906,9 @@
       <c r="Z113">
         <v>373</v>
       </c>
+      <c r="AA113">
+        <v>383</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10658,6 +10999,9 @@
       <c r="Z114">
         <v>152</v>
       </c>
+      <c r="AA114">
+        <v>153</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10748,6 +11092,9 @@
       <c r="Z115">
         <v>8</v>
       </c>
+      <c r="AA115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10838,6 +11185,9 @@
       <c r="Z116">
         <v>19</v>
       </c>
+      <c r="AA116">
+        <v>21</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10928,6 +11278,9 @@
       <c r="Z117">
         <v>43</v>
       </c>
+      <c r="AA117">
+        <v>43</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11018,6 +11371,9 @@
       <c r="Z118">
         <v>76</v>
       </c>
+      <c r="AA118">
+        <v>76</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11108,6 +11464,9 @@
       <c r="Z119">
         <v>134</v>
       </c>
+      <c r="AA119">
+        <v>135</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11198,6 +11557,9 @@
       <c r="Z120">
         <v>45</v>
       </c>
+      <c r="AA120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11288,6 +11650,9 @@
       <c r="Z121">
         <v>8</v>
       </c>
+      <c r="AA121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11378,6 +11743,9 @@
       <c r="Z122">
         <v>52</v>
       </c>
+      <c r="AA122">
+        <v>52</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11468,6 +11836,9 @@
       <c r="Z123">
         <v>13</v>
       </c>
+      <c r="AA123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11558,6 +11929,9 @@
       <c r="Z124">
         <v>29</v>
       </c>
+      <c r="AA124">
+        <v>30</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11648,6 +12022,9 @@
       <c r="Z125">
         <v>17</v>
       </c>
+      <c r="AA125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11738,6 +12115,9 @@
       <c r="Z126">
         <v>2</v>
       </c>
+      <c r="AA126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11828,6 +12208,9 @@
       <c r="Z127">
         <v>10</v>
       </c>
+      <c r="AA127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11918,6 +12301,9 @@
       <c r="Z128">
         <v>1</v>
       </c>
+      <c r="AA128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12008,6 +12394,9 @@
       <c r="Z129">
         <v>7</v>
       </c>
+      <c r="AA129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12098,6 +12487,9 @@
       <c r="Z130">
         <v>10</v>
       </c>
+      <c r="AA130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12188,6 +12580,9 @@
       <c r="Z131">
         <v>8</v>
       </c>
+      <c r="AA131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12278,6 +12673,9 @@
       <c r="Z132">
         <v>13</v>
       </c>
+      <c r="AA132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12368,6 +12766,9 @@
       <c r="Z133">
         <v>44</v>
       </c>
+      <c r="AA133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12458,6 +12859,9 @@
       <c r="Z134">
         <v>0</v>
       </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12548,6 +12952,9 @@
       <c r="Z135">
         <v>0</v>
       </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12638,6 +13045,9 @@
       <c r="Z136">
         <v>10</v>
       </c>
+      <c r="AA136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12728,6 +13138,9 @@
       <c r="Z137">
         <v>5</v>
       </c>
+      <c r="AA137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -12818,6 +13231,9 @@
       <c r="Z138">
         <v>32</v>
       </c>
+      <c r="AA138">
+        <v>32</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -12908,6 +13324,9 @@
       <c r="Z139">
         <v>3</v>
       </c>
+      <c r="AA139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12998,6 +13417,9 @@
       <c r="Z140">
         <v>1</v>
       </c>
+      <c r="AA140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13088,6 +13510,9 @@
       <c r="Z141">
         <v>2</v>
       </c>
+      <c r="AA141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13178,6 +13603,9 @@
       <c r="Z142">
         <v>6</v>
       </c>
+      <c r="AA142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13268,6 +13696,9 @@
       <c r="Z143">
         <v>9</v>
       </c>
+      <c r="AA143">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13358,6 +13789,9 @@
       <c r="Z144">
         <v>1</v>
       </c>
+      <c r="AA144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13448,6 +13882,9 @@
       <c r="Z145">
         <v>78</v>
       </c>
+      <c r="AA145">
+        <v>79</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13538,6 +13975,9 @@
       <c r="Z146">
         <v>32</v>
       </c>
+      <c r="AA146">
+        <v>32</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13628,6 +14068,9 @@
       <c r="Z147">
         <v>15</v>
       </c>
+      <c r="AA147">
+        <v>15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -13718,6 +14161,9 @@
       <c r="Z148">
         <v>57</v>
       </c>
+      <c r="AA148">
+        <v>57</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -13808,6 +14254,9 @@
       <c r="Z149">
         <v>11</v>
       </c>
+      <c r="AA149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -13898,6 +14347,9 @@
       <c r="Z150">
         <v>33</v>
       </c>
+      <c r="AA150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -13988,6 +14440,9 @@
       <c r="Z151">
         <v>0</v>
       </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -14078,6 +14533,9 @@
       <c r="Z152">
         <v>17</v>
       </c>
+      <c r="AA152">
+        <v>17</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -14168,6 +14626,9 @@
       <c r="Z153">
         <v>4</v>
       </c>
+      <c r="AA153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -14258,6 +14719,9 @@
       <c r="Z154">
         <v>5</v>
       </c>
+      <c r="AA154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14348,6 +14812,9 @@
       <c r="Z155">
         <v>3</v>
       </c>
+      <c r="AA155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -14438,6 +14905,9 @@
       <c r="Z156">
         <v>3</v>
       </c>
+      <c r="AA156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -14528,6 +14998,9 @@
       <c r="Z157">
         <v>15</v>
       </c>
+      <c r="AA157">
+        <v>15</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -14618,6 +15091,9 @@
       <c r="Z158">
         <v>2</v>
       </c>
+      <c r="AA158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -14708,6 +15184,9 @@
       <c r="Z159">
         <v>4</v>
       </c>
+      <c r="AA159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -14798,6 +15277,9 @@
       <c r="Z160">
         <v>0</v>
       </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -14888,6 +15370,9 @@
       <c r="Z161">
         <v>0</v>
       </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -14978,6 +15463,9 @@
       <c r="Z162">
         <v>2</v>
       </c>
+      <c r="AA162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -15068,6 +15556,9 @@
       <c r="Z163">
         <v>0</v>
       </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15158,6 +15649,9 @@
       <c r="Z164">
         <v>0</v>
       </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -15248,6 +15742,9 @@
       <c r="Z165">
         <v>1</v>
       </c>
+      <c r="AA165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15338,6 +15835,9 @@
       <c r="Z166">
         <v>0</v>
       </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -15428,6 +15928,9 @@
       <c r="Z167">
         <v>1</v>
       </c>
+      <c r="AA167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -15518,6 +16021,9 @@
       <c r="Z168">
         <v>5</v>
       </c>
+      <c r="AA168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -15608,6 +16114,9 @@
       <c r="Z169">
         <v>2</v>
       </c>
+      <c r="AA169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -15698,6 +16207,9 @@
       <c r="Z170">
         <v>1</v>
       </c>
+      <c r="AA170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -15788,6 +16300,9 @@
       <c r="Z171">
         <v>3</v>
       </c>
+      <c r="AA171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -15878,6 +16393,9 @@
       <c r="Z172">
         <v>2</v>
       </c>
+      <c r="AA172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -15968,6 +16486,9 @@
       <c r="Z173">
         <v>13</v>
       </c>
+      <c r="AA173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16058,6 +16579,9 @@
       <c r="Z174">
         <v>36</v>
       </c>
+      <c r="AA174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -16148,6 +16672,9 @@
       <c r="Z175">
         <v>1</v>
       </c>
+      <c r="AA175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -16238,6 +16765,9 @@
       <c r="Z176">
         <v>8</v>
       </c>
+      <c r="AA176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -16328,6 +16858,9 @@
       <c r="Z177">
         <v>2</v>
       </c>
+      <c r="AA177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16418,6 +16951,9 @@
       <c r="Z178">
         <v>5</v>
       </c>
+      <c r="AA178">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -16508,6 +17044,9 @@
       <c r="Z179">
         <v>4</v>
       </c>
+      <c r="AA179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -16598,6 +17137,9 @@
       <c r="Z180">
         <v>10</v>
       </c>
+      <c r="AA180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -16688,6 +17230,9 @@
       <c r="Z181">
         <v>9</v>
       </c>
+      <c r="AA181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -16778,6 +17323,9 @@
       <c r="Z182">
         <v>2</v>
       </c>
+      <c r="AA182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -16868,6 +17416,9 @@
       <c r="Z183">
         <v>1</v>
       </c>
+      <c r="AA183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -16958,6 +17509,9 @@
       <c r="Z184">
         <v>0</v>
       </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -17048,6 +17602,9 @@
       <c r="Z185">
         <v>1</v>
       </c>
+      <c r="AA185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -17138,6 +17695,9 @@
       <c r="Z186">
         <v>9</v>
       </c>
+      <c r="AA186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -17228,6 +17788,9 @@
       <c r="Z187">
         <v>0</v>
       </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -17318,6 +17881,9 @@
       <c r="Z188">
         <v>0</v>
       </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -17408,6 +17974,9 @@
       <c r="Z189">
         <v>0</v>
       </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -17498,6 +18067,9 @@
       <c r="Z190">
         <v>24</v>
       </c>
+      <c r="AA190">
+        <v>24</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -17588,6 +18160,9 @@
       <c r="Z191">
         <v>18</v>
       </c>
+      <c r="AA191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -17678,6 +18253,9 @@
       <c r="Z192">
         <v>55</v>
       </c>
+      <c r="AA192">
+        <v>55</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -17768,6 +18346,9 @@
       <c r="Z193">
         <v>37</v>
       </c>
+      <c r="AA193">
+        <v>37</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -17858,6 +18439,9 @@
       <c r="Z194">
         <v>28</v>
       </c>
+      <c r="AA194">
+        <v>28</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -17948,6 +18532,9 @@
       <c r="Z195">
         <v>8</v>
       </c>
+      <c r="AA195">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -18038,6 +18625,9 @@
       <c r="Z196">
         <v>38</v>
       </c>
+      <c r="AA196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -18128,6 +18718,9 @@
       <c r="Z197">
         <v>4</v>
       </c>
+      <c r="AA197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -18218,6 +18811,9 @@
       <c r="Z198">
         <v>21</v>
       </c>
+      <c r="AA198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -18308,6 +18904,9 @@
       <c r="Z199">
         <v>2</v>
       </c>
+      <c r="AA199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -18398,6 +18997,9 @@
       <c r="Z200">
         <v>5</v>
       </c>
+      <c r="AA200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -18488,6 +19090,9 @@
       <c r="Z201">
         <v>1</v>
       </c>
+      <c r="AA201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -18578,6 +19183,9 @@
       <c r="Z202">
         <v>1</v>
       </c>
+      <c r="AA202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -18668,6 +19276,9 @@
       <c r="Z203">
         <v>2</v>
       </c>
+      <c r="AA203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -18758,6 +19369,9 @@
       <c r="Z204">
         <v>0</v>
       </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -18848,6 +19462,9 @@
       <c r="Z205">
         <v>1</v>
       </c>
+      <c r="AA205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -18938,6 +19555,9 @@
       <c r="Z206">
         <v>0</v>
       </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -19028,6 +19648,9 @@
       <c r="Z207">
         <v>0</v>
       </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -19118,6 +19741,9 @@
       <c r="Z208">
         <v>0</v>
       </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -19208,6 +19834,9 @@
       <c r="Z209">
         <v>0</v>
       </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -19298,6 +19927,9 @@
       <c r="Z210">
         <v>0</v>
       </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -19388,6 +20020,9 @@
       <c r="Z211">
         <v>0</v>
       </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -19478,6 +20113,9 @@
       <c r="Z212">
         <v>2</v>
       </c>
+      <c r="AA212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -19568,6 +20206,9 @@
       <c r="Z213">
         <v>0</v>
       </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -19658,6 +20299,9 @@
       <c r="Z214">
         <v>1</v>
       </c>
+      <c r="AA214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -19748,6 +20392,9 @@
       <c r="Z215">
         <v>26</v>
       </c>
+      <c r="AA215">
+        <v>26</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -19838,6 +20485,9 @@
       <c r="Z216">
         <v>180</v>
       </c>
+      <c r="AA216">
+        <v>182</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -19928,6 +20578,9 @@
       <c r="Z217">
         <v>9</v>
       </c>
+      <c r="AA217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -20018,6 +20671,9 @@
       <c r="Z218">
         <v>11</v>
       </c>
+      <c r="AA218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -20108,6 +20764,9 @@
       <c r="Z219">
         <v>0</v>
       </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -20198,6 +20857,9 @@
       <c r="Z220">
         <v>2</v>
       </c>
+      <c r="AA220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -20288,6 +20950,9 @@
       <c r="Z221">
         <v>0</v>
       </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -20378,6 +21043,9 @@
       <c r="Z222">
         <v>0</v>
       </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -20468,6 +21136,9 @@
       <c r="Z223">
         <v>2</v>
       </c>
+      <c r="AA223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -20558,6 +21229,9 @@
       <c r="Z224">
         <v>7</v>
       </c>
+      <c r="AA224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -20648,6 +21322,9 @@
       <c r="Z225">
         <v>3</v>
       </c>
+      <c r="AA225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -20738,6 +21415,9 @@
       <c r="Z226">
         <v>1</v>
       </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -20828,6 +21508,9 @@
       <c r="Z227">
         <v>1</v>
       </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -20918,6 +21601,9 @@
       <c r="Z228">
         <v>2</v>
       </c>
+      <c r="AA228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -21008,6 +21694,9 @@
       <c r="Z229">
         <v>2</v>
       </c>
+      <c r="AA229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -21098,6 +21787,9 @@
       <c r="Z230">
         <v>0</v>
       </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -21188,6 +21880,9 @@
       <c r="Z231">
         <v>3</v>
       </c>
+      <c r="AA231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -21278,6 +21973,9 @@
       <c r="Z232">
         <v>9</v>
       </c>
+      <c r="AA232">
+        <v>9</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -21368,6 +22066,9 @@
       <c r="Z233">
         <v>0</v>
       </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -21458,6 +22159,9 @@
       <c r="Z234">
         <v>4</v>
       </c>
+      <c r="AA234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -21548,6 +22252,9 @@
       <c r="Z235">
         <v>1</v>
       </c>
+      <c r="AA235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -21638,6 +22345,9 @@
       <c r="Z236">
         <v>1</v>
       </c>
+      <c r="AA236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -21728,6 +22438,9 @@
       <c r="Z237">
         <v>1</v>
       </c>
+      <c r="AA237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -21818,6 +22531,9 @@
       <c r="Z238">
         <v>437</v>
       </c>
+      <c r="AA238">
+        <v>463</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -21908,6 +22624,9 @@
       <c r="Z239">
         <v>8</v>
       </c>
+      <c r="AA239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -21998,6 +22717,9 @@
       <c r="Z240">
         <v>4</v>
       </c>
+      <c r="AA240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -22088,6 +22810,9 @@
       <c r="Z241">
         <v>4</v>
       </c>
+      <c r="AA241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -22178,6 +22903,9 @@
       <c r="Z242">
         <v>4</v>
       </c>
+      <c r="AA242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -22268,6 +22996,9 @@
       <c r="Z243">
         <v>6</v>
       </c>
+      <c r="AA243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -22358,6 +23089,9 @@
       <c r="Z244">
         <v>8</v>
       </c>
+      <c r="AA244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -22448,6 +23182,9 @@
       <c r="Z245">
         <v>0</v>
       </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -22538,6 +23275,9 @@
       <c r="Z246">
         <v>4</v>
       </c>
+      <c r="AA246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -22628,6 +23368,9 @@
       <c r="Z247">
         <v>0</v>
       </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -22718,6 +23461,9 @@
       <c r="Z248">
         <v>0</v>
       </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -22808,6 +23554,9 @@
       <c r="Z249">
         <v>2</v>
       </c>
+      <c r="AA249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -22898,6 +23647,9 @@
       <c r="Z250">
         <v>24</v>
       </c>
+      <c r="AA250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -22988,6 +23740,9 @@
       <c r="Z251">
         <v>9</v>
       </c>
+      <c r="AA251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -23078,6 +23833,9 @@
       <c r="Z252">
         <v>0</v>
       </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -23168,6 +23926,9 @@
       <c r="Z253">
         <v>17</v>
       </c>
+      <c r="AA253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -23258,6 +24019,9 @@
       <c r="Z254">
         <v>4</v>
       </c>
+      <c r="AA254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -23348,6 +24112,9 @@
       <c r="Z255">
         <v>43</v>
       </c>
+      <c r="AA255">
+        <v>48</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -23438,6 +24205,9 @@
       <c r="Z256">
         <v>30</v>
       </c>
+      <c r="AA256">
+        <v>31</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -23528,6 +24298,9 @@
       <c r="Z257">
         <v>1</v>
       </c>
+      <c r="AA257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -23618,6 +24391,9 @@
       <c r="Z258">
         <v>0</v>
       </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -23708,6 +24484,9 @@
       <c r="Z259">
         <v>9</v>
       </c>
+      <c r="AA259">
+        <v>20</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -23798,6 +24577,9 @@
       <c r="Z260">
         <v>19</v>
       </c>
+      <c r="AA260">
+        <v>21</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -23888,6 +24670,9 @@
       <c r="Z261">
         <v>0</v>
       </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -23978,6 +24763,9 @@
       <c r="Z262">
         <v>0</v>
       </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -24068,6 +24856,9 @@
       <c r="Z263">
         <v>0</v>
       </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -24158,6 +24949,9 @@
       <c r="Z264">
         <v>0</v>
       </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -24248,6 +25042,9 @@
       <c r="Z265">
         <v>3</v>
       </c>
+      <c r="AA265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -24338,6 +25135,9 @@
       <c r="Z266">
         <v>0</v>
       </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -24428,6 +25228,9 @@
       <c r="Z267">
         <v>3</v>
       </c>
+      <c r="AA267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -24518,6 +25321,9 @@
       <c r="Z268">
         <v>0</v>
       </c>
+      <c r="AA268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -24608,6 +25414,9 @@
       <c r="Z269">
         <v>7</v>
       </c>
+      <c r="AA269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -24698,6 +25507,9 @@
       <c r="Z270">
         <v>0</v>
       </c>
+      <c r="AA270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -24788,6 +25600,9 @@
       <c r="Z271">
         <v>0</v>
       </c>
+      <c r="AA271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -24878,6 +25693,9 @@
       <c r="Z272">
         <v>1</v>
       </c>
+      <c r="AA272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -24968,6 +25786,9 @@
       <c r="Z273">
         <v>4</v>
       </c>
+      <c r="AA273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -25058,6 +25879,9 @@
       <c r="Z274">
         <v>0</v>
       </c>
+      <c r="AA274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -25148,6 +25972,9 @@
       <c r="Z275">
         <v>0</v>
       </c>
+      <c r="AA275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -25238,6 +26065,9 @@
       <c r="Z276">
         <v>17</v>
       </c>
+      <c r="AA276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -25328,6 +26158,9 @@
       <c r="Z277">
         <v>0</v>
       </c>
+      <c r="AA277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -25418,6 +26251,9 @@
       <c r="Z278">
         <v>0</v>
       </c>
+      <c r="AA278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -25508,6 +26344,9 @@
       <c r="Z279">
         <v>4</v>
       </c>
+      <c r="AA279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -25598,6 +26437,9 @@
       <c r="Z280">
         <v>12</v>
       </c>
+      <c r="AA280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -25688,6 +26530,9 @@
       <c r="Z281">
         <v>214</v>
       </c>
+      <c r="AA281">
+        <v>216</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -25778,6 +26623,9 @@
       <c r="Z282">
         <v>16</v>
       </c>
+      <c r="AA282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -25868,6 +26716,9 @@
       <c r="Z283">
         <v>5</v>
       </c>
+      <c r="AA283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -25958,6 +26809,9 @@
       <c r="Z284">
         <v>0</v>
       </c>
+      <c r="AA284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -26048,6 +26902,9 @@
       <c r="Z285">
         <v>0</v>
       </c>
+      <c r="AA285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -26138,6 +26995,9 @@
       <c r="Z286">
         <v>8</v>
       </c>
+      <c r="AA286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -26228,6 +27088,9 @@
       <c r="Z287">
         <v>5</v>
       </c>
+      <c r="AA287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -26318,6 +27181,9 @@
       <c r="Z288">
         <v>0</v>
       </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -26408,6 +27274,9 @@
       <c r="Z289">
         <v>1</v>
       </c>
+      <c r="AA289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -26498,6 +27367,9 @@
       <c r="Z290">
         <v>7</v>
       </c>
+      <c r="AA290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -26588,6 +27460,9 @@
       <c r="Z291">
         <v>3</v>
       </c>
+      <c r="AA291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -26678,6 +27553,9 @@
       <c r="Z292">
         <v>5</v>
       </c>
+      <c r="AA292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -26768,6 +27646,9 @@
       <c r="Z293">
         <v>11</v>
       </c>
+      <c r="AA293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -26858,6 +27739,9 @@
       <c r="Z294">
         <v>6</v>
       </c>
+      <c r="AA294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -26948,6 +27832,9 @@
       <c r="Z295">
         <v>0</v>
       </c>
+      <c r="AA295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -27038,6 +27925,9 @@
       <c r="Z296">
         <v>1</v>
       </c>
+      <c r="AA296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -27128,6 +28018,9 @@
       <c r="Z297">
         <v>7</v>
       </c>
+      <c r="AA297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -27218,6 +28111,9 @@
       <c r="Z298">
         <v>28</v>
       </c>
+      <c r="AA298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -27308,6 +28204,9 @@
       <c r="Z299">
         <v>21</v>
       </c>
+      <c r="AA299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -27398,6 +28297,9 @@
       <c r="Z300">
         <v>15</v>
       </c>
+      <c r="AA300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -27488,6 +28390,9 @@
       <c r="Z301">
         <v>0</v>
       </c>
+      <c r="AA301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -27578,6 +28483,9 @@
       <c r="Z302">
         <v>0</v>
       </c>
+      <c r="AA302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -27668,6 +28576,9 @@
       <c r="Z303">
         <v>0</v>
       </c>
+      <c r="AA303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -27758,6 +28669,9 @@
       <c r="Z304">
         <v>0</v>
       </c>
+      <c r="AA304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -27848,6 +28762,9 @@
       <c r="Z305">
         <v>3</v>
       </c>
+      <c r="AA305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -27938,6 +28855,9 @@
       <c r="Z306">
         <v>1</v>
       </c>
+      <c r="AA306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -28028,6 +28948,9 @@
       <c r="Z307">
         <v>4</v>
       </c>
+      <c r="AA307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -28118,6 +29041,9 @@
       <c r="Z308">
         <v>0</v>
       </c>
+      <c r="AA308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -28208,6 +29134,9 @@
       <c r="Z309">
         <v>0</v>
       </c>
+      <c r="AA309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -28298,6 +29227,9 @@
       <c r="Z310">
         <v>7</v>
       </c>
+      <c r="AA310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -28388,6 +29320,9 @@
       <c r="Z311">
         <v>2</v>
       </c>
+      <c r="AA311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -28478,6 +29413,9 @@
       <c r="Z312">
         <v>2</v>
       </c>
+      <c r="AA312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -28568,6 +29506,9 @@
       <c r="Z313">
         <v>2</v>
       </c>
+      <c r="AA313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -28658,6 +29599,9 @@
       <c r="Z314">
         <v>10</v>
       </c>
+      <c r="AA314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -28748,6 +29692,9 @@
       <c r="Z315">
         <v>1</v>
       </c>
+      <c r="AA315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -28838,6 +29785,9 @@
       <c r="Z316">
         <v>17</v>
       </c>
+      <c r="AA316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -28928,6 +29878,9 @@
       <c r="Z317">
         <v>0</v>
       </c>
+      <c r="AA317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -29018,6 +29971,9 @@
       <c r="Z318">
         <v>0</v>
       </c>
+      <c r="AA318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -29108,6 +30064,9 @@
       <c r="Z319">
         <v>122</v>
       </c>
+      <c r="AA319">
+        <v>124</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -29198,6 +30157,9 @@
       <c r="Z320">
         <v>4</v>
       </c>
+      <c r="AA320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -29288,6 +30250,9 @@
       <c r="Z321">
         <v>5</v>
       </c>
+      <c r="AA321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -29378,6 +30343,9 @@
       <c r="Z322">
         <v>1</v>
       </c>
+      <c r="AA322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -29468,6 +30436,9 @@
       <c r="Z323">
         <v>3</v>
       </c>
+      <c r="AA323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -29558,6 +30529,9 @@
       <c r="Z324">
         <v>14</v>
       </c>
+      <c r="AA324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -29648,6 +30622,9 @@
       <c r="Z325">
         <v>1</v>
       </c>
+      <c r="AA325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -29738,6 +30715,9 @@
       <c r="Z326">
         <v>1</v>
       </c>
+      <c r="AA326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -29828,6 +30808,9 @@
       <c r="Z327">
         <v>0</v>
       </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -29918,6 +30901,9 @@
       <c r="Z328">
         <v>0</v>
       </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -30008,6 +30994,9 @@
       <c r="Z329">
         <v>3</v>
       </c>
+      <c r="AA329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -30098,6 +31087,9 @@
       <c r="Z330">
         <v>1</v>
       </c>
+      <c r="AA330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -30188,6 +31180,9 @@
       <c r="Z331">
         <v>2</v>
       </c>
+      <c r="AA331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -30278,6 +31273,9 @@
       <c r="Z332">
         <v>0</v>
       </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -30368,6 +31366,9 @@
       <c r="Z333">
         <v>0</v>
       </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -30458,6 +31459,9 @@
       <c r="Z334">
         <v>0</v>
       </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -30548,6 +31552,9 @@
       <c r="Z335">
         <v>16</v>
       </c>
+      <c r="AA335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -30638,6 +31645,9 @@
       <c r="Z336">
         <v>2</v>
       </c>
+      <c r="AA336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -30728,6 +31738,9 @@
       <c r="Z337">
         <v>1</v>
       </c>
+      <c r="AA337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -30818,6 +31831,9 @@
       <c r="Z338">
         <v>2</v>
       </c>
+      <c r="AA338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -30908,6 +31924,9 @@
       <c r="Z339">
         <v>0</v>
       </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -30998,6 +32017,9 @@
       <c r="Z340">
         <v>0</v>
       </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -31088,6 +32110,9 @@
       <c r="Z341">
         <v>1</v>
       </c>
+      <c r="AA341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -31178,6 +32203,9 @@
       <c r="Z342">
         <v>2</v>
       </c>
+      <c r="AA342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -31268,6 +32296,9 @@
       <c r="Z343">
         <v>0</v>
       </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -31358,6 +32389,9 @@
       <c r="Z344">
         <v>1</v>
       </c>
+      <c r="AA344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -31448,6 +32482,9 @@
       <c r="Z345">
         <v>0</v>
       </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -31538,6 +32575,9 @@
       <c r="Z346">
         <v>0</v>
       </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -31628,6 +32668,9 @@
       <c r="Z347">
         <v>2</v>
       </c>
+      <c r="AA347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -31718,6 +32761,9 @@
       <c r="Z348">
         <v>2</v>
       </c>
+      <c r="AA348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -31808,6 +32854,9 @@
       <c r="Z349">
         <v>4</v>
       </c>
+      <c r="AA349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -31898,6 +32947,9 @@
       <c r="Z350">
         <v>1</v>
       </c>
+      <c r="AA350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -31988,6 +33040,9 @@
       <c r="Z351">
         <v>0</v>
       </c>
+      <c r="AA351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -32078,6 +33133,9 @@
       <c r="Z352">
         <v>0</v>
       </c>
+      <c r="AA352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -32168,6 +33226,9 @@
       <c r="Z353">
         <v>0</v>
       </c>
+      <c r="AA353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -32258,6 +33319,9 @@
       <c r="Z354">
         <v>1</v>
       </c>
+      <c r="AA354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -32348,6 +33412,9 @@
       <c r="Z355">
         <v>1</v>
       </c>
+      <c r="AA355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -32438,6 +33505,9 @@
       <c r="Z356">
         <v>0</v>
       </c>
+      <c r="AA356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -32528,6 +33598,9 @@
       <c r="Z357">
         <v>4</v>
       </c>
+      <c r="AA357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -32618,6 +33691,9 @@
       <c r="Z358">
         <v>0</v>
       </c>
+      <c r="AA358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -32706,6 +33782,9 @@
         <v>6</v>
       </c>
       <c r="Z359">
+        <v>7</v>
+      </c>
+      <c r="AA359">
         <v>7</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA359"/>
+  <dimension ref="A1:AB359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,6 +493,11 @@
           <t>2020-04-15</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -586,6 +591,9 @@
       <c r="AA2">
         <v>1985</v>
       </c>
+      <c r="AB2">
+        <v>2031</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -679,6 +687,9 @@
       <c r="AA3">
         <v>14</v>
       </c>
+      <c r="AB3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -772,6 +783,9 @@
       <c r="AA4">
         <v>125</v>
       </c>
+      <c r="AB4">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -865,6 +879,9 @@
       <c r="AA5">
         <v>49</v>
       </c>
+      <c r="AB5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -958,6 +975,9 @@
       <c r="AA6">
         <v>46</v>
       </c>
+      <c r="AB6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1051,6 +1071,9 @@
       <c r="AA7">
         <v>3</v>
       </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1144,6 +1167,9 @@
       <c r="AA8">
         <v>1</v>
       </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1237,6 +1263,9 @@
       <c r="AA9">
         <v>0</v>
       </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1330,6 +1359,9 @@
       <c r="AA10">
         <v>6</v>
       </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1423,6 +1455,9 @@
       <c r="AA11">
         <v>6</v>
       </c>
+      <c r="AB11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1516,6 +1551,9 @@
       <c r="AA12">
         <v>12</v>
       </c>
+      <c r="AB12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1609,6 +1647,9 @@
       <c r="AA13">
         <v>13</v>
       </c>
+      <c r="AB13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1702,6 +1743,9 @@
       <c r="AA14">
         <v>13</v>
       </c>
+      <c r="AB14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1795,6 +1839,9 @@
       <c r="AA15">
         <v>11</v>
       </c>
+      <c r="AB15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1888,6 +1935,9 @@
       <c r="AA16">
         <v>13</v>
       </c>
+      <c r="AB16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1981,6 +2031,9 @@
       <c r="AA17">
         <v>0</v>
       </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2074,6 +2127,9 @@
       <c r="AA18">
         <v>0</v>
       </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2167,6 +2223,9 @@
       <c r="AA19">
         <v>3</v>
       </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2260,6 +2319,9 @@
       <c r="AA20">
         <v>0</v>
       </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2353,6 +2415,9 @@
       <c r="AA21">
         <v>1</v>
       </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2446,6 +2511,9 @@
       <c r="AA22">
         <v>20</v>
       </c>
+      <c r="AB22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2539,6 +2607,9 @@
       <c r="AA23">
         <v>36</v>
       </c>
+      <c r="AB23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2632,6 +2703,9 @@
       <c r="AA24">
         <v>0</v>
       </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2725,6 +2799,9 @@
       <c r="AA25">
         <v>11</v>
       </c>
+      <c r="AB25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2818,6 +2895,9 @@
       <c r="AA26">
         <v>18</v>
       </c>
+      <c r="AB26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2911,6 +2991,9 @@
       <c r="AA27">
         <v>14</v>
       </c>
+      <c r="AB27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3004,6 +3087,9 @@
       <c r="AA28">
         <v>26</v>
       </c>
+      <c r="AB28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3097,6 +3183,9 @@
       <c r="AA29">
         <v>1</v>
       </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3190,6 +3279,9 @@
       <c r="AA30">
         <v>3</v>
       </c>
+      <c r="AB30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3283,6 +3375,9 @@
       <c r="AA31">
         <v>3</v>
       </c>
+      <c r="AB31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3376,6 +3471,9 @@
       <c r="AA32">
         <v>7</v>
       </c>
+      <c r="AB32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3469,6 +3567,9 @@
       <c r="AA33">
         <v>2</v>
       </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3562,6 +3663,9 @@
       <c r="AA34">
         <v>6</v>
       </c>
+      <c r="AB34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3655,6 +3759,9 @@
       <c r="AA35">
         <v>0</v>
       </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3748,6 +3855,9 @@
       <c r="AA36">
         <v>0</v>
       </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3841,6 +3951,9 @@
       <c r="AA37">
         <v>6</v>
       </c>
+      <c r="AB37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3934,6 +4047,9 @@
       <c r="AA38">
         <v>5</v>
       </c>
+      <c r="AB38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4027,6 +4143,9 @@
       <c r="AA39">
         <v>0</v>
       </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4120,6 +4239,9 @@
       <c r="AA40">
         <v>10</v>
       </c>
+      <c r="AB40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4213,6 +4335,9 @@
       <c r="AA41">
         <v>0</v>
       </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4306,6 +4431,9 @@
       <c r="AA42">
         <v>0</v>
       </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4399,6 +4527,9 @@
       <c r="AA43">
         <v>0</v>
       </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4492,6 +4623,9 @@
       <c r="AA44">
         <v>1</v>
       </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4585,6 +4719,9 @@
       <c r="AA45">
         <v>2</v>
       </c>
+      <c r="AB45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4678,6 +4815,9 @@
       <c r="AA46">
         <v>2</v>
       </c>
+      <c r="AB46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4771,6 +4911,9 @@
       <c r="AA47">
         <v>0</v>
       </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4864,6 +5007,9 @@
       <c r="AA48">
         <v>3</v>
       </c>
+      <c r="AB48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4957,6 +5103,9 @@
       <c r="AA49">
         <v>4</v>
       </c>
+      <c r="AB49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5050,6 +5199,9 @@
       <c r="AA50">
         <v>1</v>
       </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5143,6 +5295,9 @@
       <c r="AA51">
         <v>3</v>
       </c>
+      <c r="AB51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5236,6 +5391,9 @@
       <c r="AA52">
         <v>34</v>
       </c>
+      <c r="AB52">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5329,6 +5487,9 @@
       <c r="AA53">
         <v>3</v>
       </c>
+      <c r="AB53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5422,6 +5583,9 @@
       <c r="AA54">
         <v>0</v>
       </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5515,6 +5679,9 @@
       <c r="AA55">
         <v>2</v>
       </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5608,6 +5775,9 @@
       <c r="AA56">
         <v>5</v>
       </c>
+      <c r="AB56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5701,6 +5871,9 @@
       <c r="AA57">
         <v>3</v>
       </c>
+      <c r="AB57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5794,6 +5967,9 @@
       <c r="AA58">
         <v>0</v>
       </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5887,6 +6063,9 @@
       <c r="AA59">
         <v>0</v>
       </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5980,6 +6159,9 @@
       <c r="AA60">
         <v>2</v>
       </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6073,6 +6255,9 @@
       <c r="AA61">
         <v>3</v>
       </c>
+      <c r="AB61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6166,6 +6351,9 @@
       <c r="AA62">
         <v>1</v>
       </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6259,6 +6447,9 @@
       <c r="AA63">
         <v>1</v>
       </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6352,6 +6543,9 @@
       <c r="AA64">
         <v>0</v>
       </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6445,6 +6639,9 @@
       <c r="AA65">
         <v>5</v>
       </c>
+      <c r="AB65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6538,6 +6735,9 @@
       <c r="AA66">
         <v>0</v>
       </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6631,6 +6831,9 @@
       <c r="AA67">
         <v>0</v>
       </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6724,6 +6927,9 @@
       <c r="AA68">
         <v>4</v>
       </c>
+      <c r="AB68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6817,6 +7023,9 @@
       <c r="AA69">
         <v>0</v>
       </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6910,6 +7119,9 @@
       <c r="AA70">
         <v>0</v>
       </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7003,6 +7215,9 @@
       <c r="AA71">
         <v>0</v>
       </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7096,6 +7311,9 @@
       <c r="AA72">
         <v>5</v>
       </c>
+      <c r="AB72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7189,6 +7407,9 @@
       <c r="AA73">
         <v>0</v>
       </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7282,6 +7503,9 @@
       <c r="AA74">
         <v>0</v>
       </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7375,6 +7599,9 @@
       <c r="AA75">
         <v>0</v>
       </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7468,6 +7695,9 @@
       <c r="AA76">
         <v>1</v>
       </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7561,6 +7791,9 @@
       <c r="AA77">
         <v>0</v>
       </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7654,6 +7887,9 @@
       <c r="AA78">
         <v>1</v>
       </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7747,6 +7983,9 @@
       <c r="AA79">
         <v>0</v>
       </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7840,6 +8079,9 @@
       <c r="AA80">
         <v>0</v>
       </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7933,6 +8175,9 @@
       <c r="AA81">
         <v>0</v>
       </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8026,6 +8271,9 @@
       <c r="AA82">
         <v>0</v>
       </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8119,6 +8367,9 @@
       <c r="AA83">
         <v>4</v>
       </c>
+      <c r="AB83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8212,6 +8463,9 @@
       <c r="AA84">
         <v>9</v>
       </c>
+      <c r="AB84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8305,6 +8559,9 @@
       <c r="AA85">
         <v>3</v>
       </c>
+      <c r="AB85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8398,6 +8655,9 @@
       <c r="AA86">
         <v>5</v>
       </c>
+      <c r="AB86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8491,6 +8751,9 @@
       <c r="AA87">
         <v>0</v>
       </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8584,6 +8847,9 @@
       <c r="AA88">
         <v>0</v>
       </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8677,6 +8943,9 @@
       <c r="AA89">
         <v>6</v>
       </c>
+      <c r="AB89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8770,6 +9039,9 @@
       <c r="AA90">
         <v>0</v>
       </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8863,6 +9135,9 @@
       <c r="AA91">
         <v>0</v>
       </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8956,6 +9231,9 @@
       <c r="AA92">
         <v>0</v>
       </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9049,6 +9327,9 @@
       <c r="AA93">
         <v>28</v>
       </c>
+      <c r="AB93">
+        <v>31</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9142,6 +9423,9 @@
       <c r="AA94">
         <v>89</v>
       </c>
+      <c r="AB94">
+        <v>90</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9235,6 +9519,9 @@
       <c r="AA95">
         <v>53</v>
       </c>
+      <c r="AB95">
+        <v>53</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9328,6 +9615,9 @@
       <c r="AA96">
         <v>79</v>
       </c>
+      <c r="AB96">
+        <v>80</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9421,6 +9711,9 @@
       <c r="AA97">
         <v>156</v>
       </c>
+      <c r="AB97">
+        <v>157</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9514,6 +9807,9 @@
       <c r="AA98">
         <v>20</v>
       </c>
+      <c r="AB98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9607,6 +9903,9 @@
       <c r="AA99">
         <v>9</v>
       </c>
+      <c r="AB99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9700,6 +9999,9 @@
       <c r="AA100">
         <v>2</v>
       </c>
+      <c r="AB100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9793,6 +10095,9 @@
       <c r="AA101">
         <v>2</v>
       </c>
+      <c r="AB101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9886,6 +10191,9 @@
       <c r="AA102">
         <v>3</v>
       </c>
+      <c r="AB102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9979,6 +10287,9 @@
       <c r="AA103">
         <v>45</v>
       </c>
+      <c r="AB103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10072,6 +10383,9 @@
       <c r="AA104">
         <v>2</v>
       </c>
+      <c r="AB104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10165,6 +10479,9 @@
       <c r="AA105">
         <v>1</v>
       </c>
+      <c r="AB105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10258,6 +10575,9 @@
       <c r="AA106">
         <v>2</v>
       </c>
+      <c r="AB106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10351,6 +10671,9 @@
       <c r="AA107">
         <v>6</v>
       </c>
+      <c r="AB107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10444,6 +10767,9 @@
       <c r="AA108">
         <v>22</v>
       </c>
+      <c r="AB108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10537,6 +10863,9 @@
       <c r="AA109">
         <v>89</v>
       </c>
+      <c r="AB109">
+        <v>91</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10630,6 +10959,9 @@
       <c r="AA110">
         <v>17</v>
       </c>
+      <c r="AB110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10723,6 +11055,9 @@
       <c r="AA111">
         <v>18</v>
       </c>
+      <c r="AB111">
+        <v>19</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10816,6 +11151,9 @@
       <c r="AA112">
         <v>44</v>
       </c>
+      <c r="AB112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10909,6 +11247,9 @@
       <c r="AA113">
         <v>383</v>
       </c>
+      <c r="AB113">
+        <v>387</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11002,6 +11343,9 @@
       <c r="AA114">
         <v>153</v>
       </c>
+      <c r="AB114">
+        <v>156</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11095,6 +11439,9 @@
       <c r="AA115">
         <v>8</v>
       </c>
+      <c r="AB115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11188,6 +11535,9 @@
       <c r="AA116">
         <v>21</v>
       </c>
+      <c r="AB116">
+        <v>21</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11281,6 +11631,9 @@
       <c r="AA117">
         <v>43</v>
       </c>
+      <c r="AB117">
+        <v>44</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11374,6 +11727,9 @@
       <c r="AA118">
         <v>76</v>
       </c>
+      <c r="AB118">
+        <v>78</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11467,6 +11823,9 @@
       <c r="AA119">
         <v>135</v>
       </c>
+      <c r="AB119">
+        <v>139</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11560,6 +11919,9 @@
       <c r="AA120">
         <v>45</v>
       </c>
+      <c r="AB120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11653,6 +12015,9 @@
       <c r="AA121">
         <v>8</v>
       </c>
+      <c r="AB121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11746,6 +12111,9 @@
       <c r="AA122">
         <v>52</v>
       </c>
+      <c r="AB122">
+        <v>54</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11839,6 +12207,9 @@
       <c r="AA123">
         <v>13</v>
       </c>
+      <c r="AB123">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11932,6 +12303,9 @@
       <c r="AA124">
         <v>30</v>
       </c>
+      <c r="AB124">
+        <v>30</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12025,6 +12399,9 @@
       <c r="AA125">
         <v>17</v>
       </c>
+      <c r="AB125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12118,6 +12495,9 @@
       <c r="AA126">
         <v>2</v>
       </c>
+      <c r="AB126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12211,6 +12591,9 @@
       <c r="AA127">
         <v>10</v>
       </c>
+      <c r="AB127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12304,6 +12687,9 @@
       <c r="AA128">
         <v>1</v>
       </c>
+      <c r="AB128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12397,6 +12783,9 @@
       <c r="AA129">
         <v>7</v>
       </c>
+      <c r="AB129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12490,6 +12879,9 @@
       <c r="AA130">
         <v>10</v>
       </c>
+      <c r="AB130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12583,6 +12975,9 @@
       <c r="AA131">
         <v>8</v>
       </c>
+      <c r="AB131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12676,6 +13071,9 @@
       <c r="AA132">
         <v>13</v>
       </c>
+      <c r="AB132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12769,6 +13167,9 @@
       <c r="AA133">
         <v>44</v>
       </c>
+      <c r="AB133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12862,6 +13263,9 @@
       <c r="AA134">
         <v>0</v>
       </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12955,6 +13359,9 @@
       <c r="AA135">
         <v>0</v>
       </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13048,6 +13455,9 @@
       <c r="AA136">
         <v>10</v>
       </c>
+      <c r="AB136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13141,6 +13551,9 @@
       <c r="AA137">
         <v>5</v>
       </c>
+      <c r="AB137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13234,6 +13647,9 @@
       <c r="AA138">
         <v>32</v>
       </c>
+      <c r="AB138">
+        <v>33</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13327,6 +13743,9 @@
       <c r="AA139">
         <v>4</v>
       </c>
+      <c r="AB139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13420,6 +13839,9 @@
       <c r="AA140">
         <v>1</v>
       </c>
+      <c r="AB140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13513,6 +13935,9 @@
       <c r="AA141">
         <v>2</v>
       </c>
+      <c r="AB141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13606,6 +14031,9 @@
       <c r="AA142">
         <v>6</v>
       </c>
+      <c r="AB142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13699,6 +14127,9 @@
       <c r="AA143">
         <v>9</v>
       </c>
+      <c r="AB143">
+        <v>10</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13792,6 +14223,9 @@
       <c r="AA144">
         <v>1</v>
       </c>
+      <c r="AB144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13885,6 +14319,9 @@
       <c r="AA145">
         <v>79</v>
       </c>
+      <c r="AB145">
+        <v>80</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13978,6 +14415,9 @@
       <c r="AA146">
         <v>32</v>
       </c>
+      <c r="AB146">
+        <v>34</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -14071,6 +14511,9 @@
       <c r="AA147">
         <v>15</v>
       </c>
+      <c r="AB147">
+        <v>16</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -14164,6 +14607,9 @@
       <c r="AA148">
         <v>57</v>
       </c>
+      <c r="AB148">
+        <v>57</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -14257,6 +14703,9 @@
       <c r="AA149">
         <v>11</v>
       </c>
+      <c r="AB149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -14350,6 +14799,9 @@
       <c r="AA150">
         <v>33</v>
       </c>
+      <c r="AB150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -14443,6 +14895,9 @@
       <c r="AA151">
         <v>0</v>
       </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -14536,6 +14991,9 @@
       <c r="AA152">
         <v>17</v>
       </c>
+      <c r="AB152">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -14629,6 +15087,9 @@
       <c r="AA153">
         <v>4</v>
       </c>
+      <c r="AB153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -14722,6 +15183,9 @@
       <c r="AA154">
         <v>5</v>
       </c>
+      <c r="AB154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14815,6 +15279,9 @@
       <c r="AA155">
         <v>3</v>
       </c>
+      <c r="AB155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -14908,6 +15375,9 @@
       <c r="AA156">
         <v>3</v>
       </c>
+      <c r="AB156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15001,6 +15471,9 @@
       <c r="AA157">
         <v>15</v>
       </c>
+      <c r="AB157">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15094,6 +15567,9 @@
       <c r="AA158">
         <v>2</v>
       </c>
+      <c r="AB158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -15187,6 +15663,9 @@
       <c r="AA159">
         <v>4</v>
       </c>
+      <c r="AB159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -15280,6 +15759,9 @@
       <c r="AA160">
         <v>0</v>
       </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -15373,6 +15855,9 @@
       <c r="AA161">
         <v>0</v>
       </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15466,6 +15951,9 @@
       <c r="AA162">
         <v>2</v>
       </c>
+      <c r="AB162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -15559,6 +16047,9 @@
       <c r="AA163">
         <v>0</v>
       </c>
+      <c r="AB163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15652,6 +16143,9 @@
       <c r="AA164">
         <v>0</v>
       </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -15745,6 +16239,9 @@
       <c r="AA165">
         <v>1</v>
       </c>
+      <c r="AB165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15838,6 +16335,9 @@
       <c r="AA166">
         <v>0</v>
       </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -15931,6 +16431,9 @@
       <c r="AA167">
         <v>1</v>
       </c>
+      <c r="AB167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -16024,6 +16527,9 @@
       <c r="AA168">
         <v>5</v>
       </c>
+      <c r="AB168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16117,6 +16623,9 @@
       <c r="AA169">
         <v>2</v>
       </c>
+      <c r="AB169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -16210,6 +16719,9 @@
       <c r="AA170">
         <v>1</v>
       </c>
+      <c r="AB170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -16303,6 +16815,9 @@
       <c r="AA171">
         <v>3</v>
       </c>
+      <c r="AB171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16396,6 +16911,9 @@
       <c r="AA172">
         <v>2</v>
       </c>
+      <c r="AB172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -16489,6 +17007,9 @@
       <c r="AA173">
         <v>13</v>
       </c>
+      <c r="AB173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16582,6 +17103,9 @@
       <c r="AA174">
         <v>36</v>
       </c>
+      <c r="AB174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -16675,6 +17199,9 @@
       <c r="AA175">
         <v>1</v>
       </c>
+      <c r="AB175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -16768,6 +17295,9 @@
       <c r="AA176">
         <v>8</v>
       </c>
+      <c r="AB176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -16861,6 +17391,9 @@
       <c r="AA177">
         <v>2</v>
       </c>
+      <c r="AB177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16954,6 +17487,9 @@
       <c r="AA178">
         <v>5</v>
       </c>
+      <c r="AB178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17047,6 +17583,9 @@
       <c r="AA179">
         <v>4</v>
       </c>
+      <c r="AB179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17140,6 +17679,9 @@
       <c r="AA180">
         <v>10</v>
       </c>
+      <c r="AB180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17233,6 +17775,9 @@
       <c r="AA181">
         <v>9</v>
       </c>
+      <c r="AB181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17326,6 +17871,9 @@
       <c r="AA182">
         <v>2</v>
       </c>
+      <c r="AB182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17419,6 +17967,9 @@
       <c r="AA183">
         <v>1</v>
       </c>
+      <c r="AB183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -17512,6 +18063,9 @@
       <c r="AA184">
         <v>0</v>
       </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -17605,6 +18159,9 @@
       <c r="AA185">
         <v>1</v>
       </c>
+      <c r="AB185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -17698,6 +18255,9 @@
       <c r="AA186">
         <v>9</v>
       </c>
+      <c r="AB186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -17791,6 +18351,9 @@
       <c r="AA187">
         <v>0</v>
       </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -17884,6 +18447,9 @@
       <c r="AA188">
         <v>0</v>
       </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -17977,6 +18543,9 @@
       <c r="AA189">
         <v>0</v>
       </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -18070,6 +18639,9 @@
       <c r="AA190">
         <v>24</v>
       </c>
+      <c r="AB190">
+        <v>24</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -18163,6 +18735,9 @@
       <c r="AA191">
         <v>18</v>
       </c>
+      <c r="AB191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18256,6 +18831,9 @@
       <c r="AA192">
         <v>55</v>
       </c>
+      <c r="AB192">
+        <v>55</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -18349,6 +18927,9 @@
       <c r="AA193">
         <v>37</v>
       </c>
+      <c r="AB193">
+        <v>37</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -18442,6 +19023,9 @@
       <c r="AA194">
         <v>28</v>
       </c>
+      <c r="AB194">
+        <v>29</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -18535,6 +19119,9 @@
       <c r="AA195">
         <v>9</v>
       </c>
+      <c r="AB195">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -18628,6 +19215,9 @@
       <c r="AA196">
         <v>39</v>
       </c>
+      <c r="AB196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -18721,6 +19311,9 @@
       <c r="AA197">
         <v>4</v>
       </c>
+      <c r="AB197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -18814,6 +19407,9 @@
       <c r="AA198">
         <v>21</v>
       </c>
+      <c r="AB198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -18907,6 +19503,9 @@
       <c r="AA199">
         <v>2</v>
       </c>
+      <c r="AB199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -19000,6 +19599,9 @@
       <c r="AA200">
         <v>5</v>
       </c>
+      <c r="AB200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -19093,6 +19695,9 @@
       <c r="AA201">
         <v>2</v>
       </c>
+      <c r="AB201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -19186,6 +19791,9 @@
       <c r="AA202">
         <v>1</v>
       </c>
+      <c r="AB202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -19279,6 +19887,9 @@
       <c r="AA203">
         <v>2</v>
       </c>
+      <c r="AB203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -19372,6 +19983,9 @@
       <c r="AA204">
         <v>0</v>
       </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -19465,6 +20079,9 @@
       <c r="AA205">
         <v>1</v>
       </c>
+      <c r="AB205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -19558,6 +20175,9 @@
       <c r="AA206">
         <v>0</v>
       </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -19651,6 +20271,9 @@
       <c r="AA207">
         <v>0</v>
       </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -19744,6 +20367,9 @@
       <c r="AA208">
         <v>0</v>
       </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -19837,6 +20463,9 @@
       <c r="AA209">
         <v>0</v>
       </c>
+      <c r="AB209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -19930,6 +20559,9 @@
       <c r="AA210">
         <v>0</v>
       </c>
+      <c r="AB210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -20023,6 +20655,9 @@
       <c r="AA211">
         <v>0</v>
       </c>
+      <c r="AB211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -20116,6 +20751,9 @@
       <c r="AA212">
         <v>2</v>
       </c>
+      <c r="AB212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -20209,6 +20847,9 @@
       <c r="AA213">
         <v>0</v>
       </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -20302,6 +20943,9 @@
       <c r="AA214">
         <v>1</v>
       </c>
+      <c r="AB214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -20395,6 +21039,9 @@
       <c r="AA215">
         <v>26</v>
       </c>
+      <c r="AB215">
+        <v>27</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -20488,6 +21135,9 @@
       <c r="AA216">
         <v>182</v>
       </c>
+      <c r="AB216">
+        <v>186</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -20581,6 +21231,9 @@
       <c r="AA217">
         <v>9</v>
       </c>
+      <c r="AB217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -20674,6 +21327,9 @@
       <c r="AA218">
         <v>11</v>
       </c>
+      <c r="AB218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -20767,6 +21423,9 @@
       <c r="AA219">
         <v>0</v>
       </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -20860,6 +21519,9 @@
       <c r="AA220">
         <v>2</v>
       </c>
+      <c r="AB220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -20953,6 +21615,9 @@
       <c r="AA221">
         <v>0</v>
       </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -21046,6 +21711,9 @@
       <c r="AA222">
         <v>0</v>
       </c>
+      <c r="AB222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -21139,6 +21807,9 @@
       <c r="AA223">
         <v>2</v>
       </c>
+      <c r="AB223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -21232,6 +21903,9 @@
       <c r="AA224">
         <v>7</v>
       </c>
+      <c r="AB224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -21325,6 +21999,9 @@
       <c r="AA225">
         <v>3</v>
       </c>
+      <c r="AB225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -21418,6 +22095,9 @@
       <c r="AA226">
         <v>1</v>
       </c>
+      <c r="AB226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -21511,6 +22191,9 @@
       <c r="AA227">
         <v>1</v>
       </c>
+      <c r="AB227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -21604,6 +22287,9 @@
       <c r="AA228">
         <v>2</v>
       </c>
+      <c r="AB228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -21697,6 +22383,9 @@
       <c r="AA229">
         <v>2</v>
       </c>
+      <c r="AB229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -21790,6 +22479,9 @@
       <c r="AA230">
         <v>0</v>
       </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -21883,6 +22575,9 @@
       <c r="AA231">
         <v>3</v>
       </c>
+      <c r="AB231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -21976,6 +22671,9 @@
       <c r="AA232">
         <v>9</v>
       </c>
+      <c r="AB232">
+        <v>10</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -22069,6 +22767,9 @@
       <c r="AA233">
         <v>0</v>
       </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -22162,6 +22863,9 @@
       <c r="AA234">
         <v>4</v>
       </c>
+      <c r="AB234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -22255,6 +22959,9 @@
       <c r="AA235">
         <v>1</v>
       </c>
+      <c r="AB235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -22348,6 +23055,9 @@
       <c r="AA236">
         <v>1</v>
       </c>
+      <c r="AB236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -22441,6 +23151,9 @@
       <c r="AA237">
         <v>1</v>
       </c>
+      <c r="AB237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -22534,6 +23247,9 @@
       <c r="AA238">
         <v>463</v>
       </c>
+      <c r="AB238">
+        <v>471</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -22627,6 +23343,9 @@
       <c r="AA239">
         <v>8</v>
       </c>
+      <c r="AB239">
+        <v>8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -22720,6 +23439,9 @@
       <c r="AA240">
         <v>4</v>
       </c>
+      <c r="AB240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -22813,6 +23535,9 @@
       <c r="AA241">
         <v>4</v>
       </c>
+      <c r="AB241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -22906,6 +23631,9 @@
       <c r="AA242">
         <v>4</v>
       </c>
+      <c r="AB242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -22999,6 +23727,9 @@
       <c r="AA243">
         <v>6</v>
       </c>
+      <c r="AB243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -23092,6 +23823,9 @@
       <c r="AA244">
         <v>8</v>
       </c>
+      <c r="AB244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -23185,6 +23919,9 @@
       <c r="AA245">
         <v>0</v>
       </c>
+      <c r="AB245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -23278,6 +24015,9 @@
       <c r="AA246">
         <v>4</v>
       </c>
+      <c r="AB246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -23371,6 +24111,9 @@
       <c r="AA247">
         <v>0</v>
       </c>
+      <c r="AB247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -23464,6 +24207,9 @@
       <c r="AA248">
         <v>0</v>
       </c>
+      <c r="AB248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -23557,6 +24303,9 @@
       <c r="AA249">
         <v>2</v>
       </c>
+      <c r="AB249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -23650,6 +24399,9 @@
       <c r="AA250">
         <v>24</v>
       </c>
+      <c r="AB250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -23743,6 +24495,9 @@
       <c r="AA251">
         <v>9</v>
       </c>
+      <c r="AB251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -23836,6 +24591,9 @@
       <c r="AA252">
         <v>0</v>
       </c>
+      <c r="AB252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -23929,6 +24687,9 @@
       <c r="AA253">
         <v>17</v>
       </c>
+      <c r="AB253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -24022,6 +24783,9 @@
       <c r="AA254">
         <v>4</v>
       </c>
+      <c r="AB254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -24115,6 +24879,9 @@
       <c r="AA255">
         <v>48</v>
       </c>
+      <c r="AB255">
+        <v>48</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -24208,6 +24975,9 @@
       <c r="AA256">
         <v>31</v>
       </c>
+      <c r="AB256">
+        <v>32</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -24301,6 +25071,9 @@
       <c r="AA257">
         <v>1</v>
       </c>
+      <c r="AB257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -24394,6 +25167,9 @@
       <c r="AA258">
         <v>0</v>
       </c>
+      <c r="AB258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -24487,6 +25263,9 @@
       <c r="AA259">
         <v>20</v>
       </c>
+      <c r="AB259">
+        <v>24</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -24580,6 +25359,9 @@
       <c r="AA260">
         <v>21</v>
       </c>
+      <c r="AB260">
+        <v>22</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -24673,6 +25455,9 @@
       <c r="AA261">
         <v>0</v>
       </c>
+      <c r="AB261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -24766,6 +25551,9 @@
       <c r="AA262">
         <v>0</v>
       </c>
+      <c r="AB262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -24859,6 +25647,9 @@
       <c r="AA263">
         <v>0</v>
       </c>
+      <c r="AB263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -24952,6 +25743,9 @@
       <c r="AA264">
         <v>0</v>
       </c>
+      <c r="AB264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -25045,6 +25839,9 @@
       <c r="AA265">
         <v>3</v>
       </c>
+      <c r="AB265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -25138,6 +25935,9 @@
       <c r="AA266">
         <v>0</v>
       </c>
+      <c r="AB266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -25231,6 +26031,9 @@
       <c r="AA267">
         <v>3</v>
       </c>
+      <c r="AB267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -25324,6 +26127,9 @@
       <c r="AA268">
         <v>0</v>
       </c>
+      <c r="AB268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -25417,6 +26223,9 @@
       <c r="AA269">
         <v>7</v>
       </c>
+      <c r="AB269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -25510,6 +26319,9 @@
       <c r="AA270">
         <v>0</v>
       </c>
+      <c r="AB270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -25603,6 +26415,9 @@
       <c r="AA271">
         <v>0</v>
       </c>
+      <c r="AB271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -25696,6 +26511,9 @@
       <c r="AA272">
         <v>1</v>
       </c>
+      <c r="AB272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -25789,6 +26607,9 @@
       <c r="AA273">
         <v>4</v>
       </c>
+      <c r="AB273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -25882,6 +26703,9 @@
       <c r="AA274">
         <v>0</v>
       </c>
+      <c r="AB274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -25975,6 +26799,9 @@
       <c r="AA275">
         <v>0</v>
       </c>
+      <c r="AB275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -26068,6 +26895,9 @@
       <c r="AA276">
         <v>17</v>
       </c>
+      <c r="AB276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -26161,6 +26991,9 @@
       <c r="AA277">
         <v>0</v>
       </c>
+      <c r="AB277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -26254,6 +27087,9 @@
       <c r="AA278">
         <v>0</v>
       </c>
+      <c r="AB278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -26347,6 +27183,9 @@
       <c r="AA279">
         <v>4</v>
       </c>
+      <c r="AB279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -26440,6 +27279,9 @@
       <c r="AA280">
         <v>12</v>
       </c>
+      <c r="AB280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -26533,6 +27375,9 @@
       <c r="AA281">
         <v>216</v>
       </c>
+      <c r="AB281">
+        <v>217</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -26626,6 +27471,9 @@
       <c r="AA282">
         <v>16</v>
       </c>
+      <c r="AB282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -26719,6 +27567,9 @@
       <c r="AA283">
         <v>5</v>
       </c>
+      <c r="AB283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -26812,6 +27663,9 @@
       <c r="AA284">
         <v>0</v>
       </c>
+      <c r="AB284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -26905,6 +27759,9 @@
       <c r="AA285">
         <v>0</v>
       </c>
+      <c r="AB285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -26998,6 +27855,9 @@
       <c r="AA286">
         <v>8</v>
       </c>
+      <c r="AB286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -27091,6 +27951,9 @@
       <c r="AA287">
         <v>5</v>
       </c>
+      <c r="AB287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -27184,6 +28047,9 @@
       <c r="AA288">
         <v>0</v>
       </c>
+      <c r="AB288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -27277,6 +28143,9 @@
       <c r="AA289">
         <v>1</v>
       </c>
+      <c r="AB289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -27370,6 +28239,9 @@
       <c r="AA290">
         <v>7</v>
       </c>
+      <c r="AB290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -27463,6 +28335,9 @@
       <c r="AA291">
         <v>3</v>
       </c>
+      <c r="AB291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -27556,6 +28431,9 @@
       <c r="AA292">
         <v>5</v>
       </c>
+      <c r="AB292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -27649,6 +28527,9 @@
       <c r="AA293">
         <v>11</v>
       </c>
+      <c r="AB293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -27742,6 +28623,9 @@
       <c r="AA294">
         <v>6</v>
       </c>
+      <c r="AB294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -27835,6 +28719,9 @@
       <c r="AA295">
         <v>0</v>
       </c>
+      <c r="AB295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -27928,6 +28815,9 @@
       <c r="AA296">
         <v>1</v>
       </c>
+      <c r="AB296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -28021,6 +28911,9 @@
       <c r="AA297">
         <v>7</v>
       </c>
+      <c r="AB297">
+        <v>7</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -28114,6 +29007,9 @@
       <c r="AA298">
         <v>28</v>
       </c>
+      <c r="AB298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -28207,6 +29103,9 @@
       <c r="AA299">
         <v>21</v>
       </c>
+      <c r="AB299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -28300,6 +29199,9 @@
       <c r="AA300">
         <v>15</v>
       </c>
+      <c r="AB300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -28393,6 +29295,9 @@
       <c r="AA301">
         <v>0</v>
       </c>
+      <c r="AB301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -28486,6 +29391,9 @@
       <c r="AA302">
         <v>0</v>
       </c>
+      <c r="AB302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -28579,6 +29487,9 @@
       <c r="AA303">
         <v>0</v>
       </c>
+      <c r="AB303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -28672,6 +29583,9 @@
       <c r="AA304">
         <v>0</v>
       </c>
+      <c r="AB304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -28765,6 +29679,9 @@
       <c r="AA305">
         <v>3</v>
       </c>
+      <c r="AB305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -28858,6 +29775,9 @@
       <c r="AA306">
         <v>1</v>
       </c>
+      <c r="AB306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -28951,6 +29871,9 @@
       <c r="AA307">
         <v>4</v>
       </c>
+      <c r="AB307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -29044,6 +29967,9 @@
       <c r="AA308">
         <v>0</v>
       </c>
+      <c r="AB308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -29137,6 +30063,9 @@
       <c r="AA309">
         <v>0</v>
       </c>
+      <c r="AB309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -29230,6 +30159,9 @@
       <c r="AA310">
         <v>7</v>
       </c>
+      <c r="AB310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -29323,6 +30255,9 @@
       <c r="AA311">
         <v>2</v>
       </c>
+      <c r="AB311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -29416,6 +30351,9 @@
       <c r="AA312">
         <v>2</v>
       </c>
+      <c r="AB312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -29509,6 +30447,9 @@
       <c r="AA313">
         <v>2</v>
       </c>
+      <c r="AB313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -29602,6 +30543,9 @@
       <c r="AA314">
         <v>10</v>
       </c>
+      <c r="AB314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -29695,6 +30639,9 @@
       <c r="AA315">
         <v>1</v>
       </c>
+      <c r="AB315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -29788,6 +30735,9 @@
       <c r="AA316">
         <v>17</v>
       </c>
+      <c r="AB316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -29881,6 +30831,9 @@
       <c r="AA317">
         <v>0</v>
       </c>
+      <c r="AB317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -29974,6 +30927,9 @@
       <c r="AA318">
         <v>0</v>
       </c>
+      <c r="AB318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -30067,6 +31023,9 @@
       <c r="AA319">
         <v>124</v>
       </c>
+      <c r="AB319">
+        <v>127</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -30160,6 +31119,9 @@
       <c r="AA320">
         <v>4</v>
       </c>
+      <c r="AB320">
+        <v>4</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -30253,6 +31215,9 @@
       <c r="AA321">
         <v>5</v>
       </c>
+      <c r="AB321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -30346,6 +31311,9 @@
       <c r="AA322">
         <v>1</v>
       </c>
+      <c r="AB322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -30439,6 +31407,9 @@
       <c r="AA323">
         <v>3</v>
       </c>
+      <c r="AB323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -30532,6 +31503,9 @@
       <c r="AA324">
         <v>14</v>
       </c>
+      <c r="AB324">
+        <v>14</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -30625,6 +31599,9 @@
       <c r="AA325">
         <v>1</v>
       </c>
+      <c r="AB325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -30718,6 +31695,9 @@
       <c r="AA326">
         <v>1</v>
       </c>
+      <c r="AB326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -30811,6 +31791,9 @@
       <c r="AA327">
         <v>0</v>
       </c>
+      <c r="AB327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -30904,6 +31887,9 @@
       <c r="AA328">
         <v>0</v>
       </c>
+      <c r="AB328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -30997,6 +31983,9 @@
       <c r="AA329">
         <v>3</v>
       </c>
+      <c r="AB329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -31090,6 +32079,9 @@
       <c r="AA330">
         <v>1</v>
       </c>
+      <c r="AB330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -31183,6 +32175,9 @@
       <c r="AA331">
         <v>2</v>
       </c>
+      <c r="AB331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -31276,6 +32271,9 @@
       <c r="AA332">
         <v>0</v>
       </c>
+      <c r="AB332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -31369,6 +32367,9 @@
       <c r="AA333">
         <v>0</v>
       </c>
+      <c r="AB333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -31462,6 +32463,9 @@
       <c r="AA334">
         <v>0</v>
       </c>
+      <c r="AB334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -31555,6 +32559,9 @@
       <c r="AA335">
         <v>16</v>
       </c>
+      <c r="AB335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -31648,6 +32655,9 @@
       <c r="AA336">
         <v>2</v>
       </c>
+      <c r="AB336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -31741,6 +32751,9 @@
       <c r="AA337">
         <v>1</v>
       </c>
+      <c r="AB337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -31834,6 +32847,9 @@
       <c r="AA338">
         <v>2</v>
       </c>
+      <c r="AB338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -31927,6 +32943,9 @@
       <c r="AA339">
         <v>0</v>
       </c>
+      <c r="AB339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -32020,6 +33039,9 @@
       <c r="AA340">
         <v>0</v>
       </c>
+      <c r="AB340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -32113,6 +33135,9 @@
       <c r="AA341">
         <v>1</v>
       </c>
+      <c r="AB341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -32206,6 +33231,9 @@
       <c r="AA342">
         <v>2</v>
       </c>
+      <c r="AB342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -32299,6 +33327,9 @@
       <c r="AA343">
         <v>0</v>
       </c>
+      <c r="AB343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -32392,6 +33423,9 @@
       <c r="AA344">
         <v>1</v>
       </c>
+      <c r="AB344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -32485,6 +33519,9 @@
       <c r="AA345">
         <v>0</v>
       </c>
+      <c r="AB345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -32578,6 +33615,9 @@
       <c r="AA346">
         <v>0</v>
       </c>
+      <c r="AB346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -32671,6 +33711,9 @@
       <c r="AA347">
         <v>3</v>
       </c>
+      <c r="AB347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -32764,6 +33807,9 @@
       <c r="AA348">
         <v>2</v>
       </c>
+      <c r="AB348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -32857,6 +33903,9 @@
       <c r="AA349">
         <v>4</v>
       </c>
+      <c r="AB349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -32950,6 +33999,9 @@
       <c r="AA350">
         <v>1</v>
       </c>
+      <c r="AB350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -33043,6 +34095,9 @@
       <c r="AA351">
         <v>0</v>
       </c>
+      <c r="AB351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -33136,6 +34191,9 @@
       <c r="AA352">
         <v>0</v>
       </c>
+      <c r="AB352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -33229,6 +34287,9 @@
       <c r="AA353">
         <v>0</v>
       </c>
+      <c r="AB353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -33322,6 +34383,9 @@
       <c r="AA354">
         <v>1</v>
       </c>
+      <c r="AB354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -33415,6 +34479,9 @@
       <c r="AA355">
         <v>1</v>
       </c>
+      <c r="AB355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -33508,6 +34575,9 @@
       <c r="AA356">
         <v>0</v>
       </c>
+      <c r="AB356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -33601,6 +34671,9 @@
       <c r="AA357">
         <v>4</v>
       </c>
+      <c r="AB357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -33694,6 +34767,9 @@
       <c r="AA358">
         <v>0</v>
       </c>
+      <c r="AB358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -33786,6 +34862,9 @@
       </c>
       <c r="AA359">
         <v>7</v>
+      </c>
+      <c r="AB359">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB359"/>
+  <dimension ref="A1:AC359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,6 +498,11 @@
           <t>2020-04-16</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -594,6 +599,9 @@
       <c r="AB2">
         <v>2031</v>
       </c>
+      <c r="AC2">
+        <v>2066</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -690,6 +698,9 @@
       <c r="AB3">
         <v>14</v>
       </c>
+      <c r="AC3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -786,6 +797,9 @@
       <c r="AB4">
         <v>125</v>
       </c>
+      <c r="AC4">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -882,6 +896,9 @@
       <c r="AB5">
         <v>49</v>
       </c>
+      <c r="AC5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -978,6 +995,9 @@
       <c r="AB6">
         <v>46</v>
       </c>
+      <c r="AC6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1074,6 +1094,9 @@
       <c r="AB7">
         <v>3</v>
       </c>
+      <c r="AC7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1170,6 +1193,9 @@
       <c r="AB8">
         <v>1</v>
       </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1266,6 +1292,9 @@
       <c r="AB9">
         <v>0</v>
       </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1362,6 +1391,9 @@
       <c r="AB10">
         <v>6</v>
       </c>
+      <c r="AC10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1458,6 +1490,9 @@
       <c r="AB11">
         <v>6</v>
       </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1554,6 +1589,9 @@
       <c r="AB12">
         <v>12</v>
       </c>
+      <c r="AC12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1650,6 +1688,9 @@
       <c r="AB13">
         <v>13</v>
       </c>
+      <c r="AC13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1746,6 +1787,9 @@
       <c r="AB14">
         <v>13</v>
       </c>
+      <c r="AC14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1842,6 +1886,9 @@
       <c r="AB15">
         <v>11</v>
       </c>
+      <c r="AC15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1938,6 +1985,9 @@
       <c r="AB16">
         <v>13</v>
       </c>
+      <c r="AC16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2034,6 +2084,9 @@
       <c r="AB17">
         <v>0</v>
       </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2130,6 +2183,9 @@
       <c r="AB18">
         <v>0</v>
       </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2226,6 +2282,9 @@
       <c r="AB19">
         <v>3</v>
       </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2322,6 +2381,9 @@
       <c r="AB20">
         <v>0</v>
       </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2418,6 +2480,9 @@
       <c r="AB21">
         <v>1</v>
       </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2514,6 +2579,9 @@
       <c r="AB22">
         <v>20</v>
       </c>
+      <c r="AC22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2610,6 +2678,9 @@
       <c r="AB23">
         <v>36</v>
       </c>
+      <c r="AC23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2706,6 +2777,9 @@
       <c r="AB24">
         <v>0</v>
       </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2802,6 +2876,9 @@
       <c r="AB25">
         <v>11</v>
       </c>
+      <c r="AC25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2898,6 +2975,9 @@
       <c r="AB26">
         <v>18</v>
       </c>
+      <c r="AC26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2994,6 +3074,9 @@
       <c r="AB27">
         <v>14</v>
       </c>
+      <c r="AC27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3090,6 +3173,9 @@
       <c r="AB28">
         <v>26</v>
       </c>
+      <c r="AC28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3186,6 +3272,9 @@
       <c r="AB29">
         <v>1</v>
       </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3282,6 +3371,9 @@
       <c r="AB30">
         <v>3</v>
       </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3378,6 +3470,9 @@
       <c r="AB31">
         <v>3</v>
       </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3474,6 +3569,9 @@
       <c r="AB32">
         <v>7</v>
       </c>
+      <c r="AC32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3570,6 +3668,9 @@
       <c r="AB33">
         <v>2</v>
       </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3666,6 +3767,9 @@
       <c r="AB34">
         <v>6</v>
       </c>
+      <c r="AC34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3762,6 +3866,9 @@
       <c r="AB35">
         <v>0</v>
       </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3858,6 +3965,9 @@
       <c r="AB36">
         <v>1</v>
       </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3954,6 +4064,9 @@
       <c r="AB37">
         <v>6</v>
       </c>
+      <c r="AC37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4050,6 +4163,9 @@
       <c r="AB38">
         <v>5</v>
       </c>
+      <c r="AC38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4146,6 +4262,9 @@
       <c r="AB39">
         <v>0</v>
       </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4242,6 +4361,9 @@
       <c r="AB40">
         <v>10</v>
       </c>
+      <c r="AC40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4338,6 +4460,9 @@
       <c r="AB41">
         <v>0</v>
       </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4434,6 +4559,9 @@
       <c r="AB42">
         <v>0</v>
       </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4530,6 +4658,9 @@
       <c r="AB43">
         <v>0</v>
       </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4626,6 +4757,9 @@
       <c r="AB44">
         <v>1</v>
       </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4722,6 +4856,9 @@
       <c r="AB45">
         <v>2</v>
       </c>
+      <c r="AC45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4818,6 +4955,9 @@
       <c r="AB46">
         <v>2</v>
       </c>
+      <c r="AC46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4914,6 +5054,9 @@
       <c r="AB47">
         <v>0</v>
       </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5010,6 +5153,9 @@
       <c r="AB48">
         <v>3</v>
       </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5106,6 +5252,9 @@
       <c r="AB49">
         <v>4</v>
       </c>
+      <c r="AC49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5202,6 +5351,9 @@
       <c r="AB50">
         <v>1</v>
       </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5298,6 +5450,9 @@
       <c r="AB51">
         <v>3</v>
       </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5394,6 +5549,9 @@
       <c r="AB52">
         <v>34</v>
       </c>
+      <c r="AC52">
+        <v>36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5490,6 +5648,9 @@
       <c r="AB53">
         <v>5</v>
       </c>
+      <c r="AC53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5586,6 +5747,9 @@
       <c r="AB54">
         <v>0</v>
       </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5682,6 +5846,9 @@
       <c r="AB55">
         <v>2</v>
       </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5778,6 +5945,9 @@
       <c r="AB56">
         <v>5</v>
       </c>
+      <c r="AC56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5874,6 +6044,9 @@
       <c r="AB57">
         <v>3</v>
       </c>
+      <c r="AC57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5970,6 +6143,9 @@
       <c r="AB58">
         <v>0</v>
       </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6066,6 +6242,9 @@
       <c r="AB59">
         <v>0</v>
       </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6162,6 +6341,9 @@
       <c r="AB60">
         <v>2</v>
       </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6258,6 +6440,9 @@
       <c r="AB61">
         <v>3</v>
       </c>
+      <c r="AC61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6354,6 +6539,9 @@
       <c r="AB62">
         <v>1</v>
       </c>
+      <c r="AC62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6450,6 +6638,9 @@
       <c r="AB63">
         <v>1</v>
       </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6546,6 +6737,9 @@
       <c r="AB64">
         <v>0</v>
       </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6642,6 +6836,9 @@
       <c r="AB65">
         <v>5</v>
       </c>
+      <c r="AC65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6738,6 +6935,9 @@
       <c r="AB66">
         <v>0</v>
       </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6834,6 +7034,9 @@
       <c r="AB67">
         <v>0</v>
       </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6930,6 +7133,9 @@
       <c r="AB68">
         <v>4</v>
       </c>
+      <c r="AC68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7026,6 +7232,9 @@
       <c r="AB69">
         <v>0</v>
       </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7122,6 +7331,9 @@
       <c r="AB70">
         <v>0</v>
       </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7218,6 +7430,9 @@
       <c r="AB71">
         <v>0</v>
       </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7314,6 +7529,9 @@
       <c r="AB72">
         <v>5</v>
       </c>
+      <c r="AC72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7410,6 +7628,9 @@
       <c r="AB73">
         <v>0</v>
       </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7506,6 +7727,9 @@
       <c r="AB74">
         <v>0</v>
       </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7602,6 +7826,9 @@
       <c r="AB75">
         <v>0</v>
       </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7698,6 +7925,9 @@
       <c r="AB76">
         <v>1</v>
       </c>
+      <c r="AC76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7794,6 +8024,9 @@
       <c r="AB77">
         <v>0</v>
       </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7890,6 +8123,9 @@
       <c r="AB78">
         <v>1</v>
       </c>
+      <c r="AC78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7986,6 +8222,9 @@
       <c r="AB79">
         <v>0</v>
       </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8082,6 +8321,9 @@
       <c r="AB80">
         <v>0</v>
       </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8178,6 +8420,9 @@
       <c r="AB81">
         <v>0</v>
       </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8274,6 +8519,9 @@
       <c r="AB82">
         <v>0</v>
       </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8370,6 +8618,9 @@
       <c r="AB83">
         <v>4</v>
       </c>
+      <c r="AC83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8466,6 +8717,9 @@
       <c r="AB84">
         <v>13</v>
       </c>
+      <c r="AC84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8562,6 +8816,9 @@
       <c r="AB85">
         <v>3</v>
       </c>
+      <c r="AC85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8658,6 +8915,9 @@
       <c r="AB86">
         <v>5</v>
       </c>
+      <c r="AC86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8754,6 +9014,9 @@
       <c r="AB87">
         <v>0</v>
       </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8850,6 +9113,9 @@
       <c r="AB88">
         <v>0</v>
       </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8946,6 +9212,9 @@
       <c r="AB89">
         <v>6</v>
       </c>
+      <c r="AC89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9042,6 +9311,9 @@
       <c r="AB90">
         <v>0</v>
       </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9138,6 +9410,9 @@
       <c r="AB91">
         <v>1</v>
       </c>
+      <c r="AC91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9234,6 +9509,9 @@
       <c r="AB92">
         <v>0</v>
       </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9330,6 +9608,9 @@
       <c r="AB93">
         <v>31</v>
       </c>
+      <c r="AC93">
+        <v>32</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9426,6 +9707,9 @@
       <c r="AB94">
         <v>90</v>
       </c>
+      <c r="AC94">
+        <v>92</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9522,6 +9806,9 @@
       <c r="AB95">
         <v>53</v>
       </c>
+      <c r="AC95">
+        <v>53</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9618,6 +9905,9 @@
       <c r="AB96">
         <v>80</v>
       </c>
+      <c r="AC96">
+        <v>83</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9714,6 +10004,9 @@
       <c r="AB97">
         <v>157</v>
       </c>
+      <c r="AC97">
+        <v>160</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9810,6 +10103,9 @@
       <c r="AB98">
         <v>20</v>
       </c>
+      <c r="AC98">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9906,6 +10202,9 @@
       <c r="AB99">
         <v>9</v>
       </c>
+      <c r="AC99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10002,6 +10301,9 @@
       <c r="AB100">
         <v>2</v>
       </c>
+      <c r="AC100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10098,6 +10400,9 @@
       <c r="AB101">
         <v>2</v>
       </c>
+      <c r="AC101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10194,6 +10499,9 @@
       <c r="AB102">
         <v>3</v>
       </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10290,6 +10598,9 @@
       <c r="AB103">
         <v>45</v>
       </c>
+      <c r="AC103">
+        <v>45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10386,6 +10697,9 @@
       <c r="AB104">
         <v>2</v>
       </c>
+      <c r="AC104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10482,6 +10796,9 @@
       <c r="AB105">
         <v>1</v>
       </c>
+      <c r="AC105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10578,6 +10895,9 @@
       <c r="AB106">
         <v>2</v>
       </c>
+      <c r="AC106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10674,6 +10994,9 @@
       <c r="AB107">
         <v>6</v>
       </c>
+      <c r="AC107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10770,6 +11093,9 @@
       <c r="AB108">
         <v>22</v>
       </c>
+      <c r="AC108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10866,6 +11192,9 @@
       <c r="AB109">
         <v>91</v>
       </c>
+      <c r="AC109">
+        <v>91</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10962,6 +11291,9 @@
       <c r="AB110">
         <v>17</v>
       </c>
+      <c r="AC110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11058,6 +11390,9 @@
       <c r="AB111">
         <v>19</v>
       </c>
+      <c r="AC111">
+        <v>19</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11154,6 +11489,9 @@
       <c r="AB112">
         <v>44</v>
       </c>
+      <c r="AC112">
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11250,6 +11588,9 @@
       <c r="AB113">
         <v>387</v>
       </c>
+      <c r="AC113">
+        <v>391</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11346,6 +11687,9 @@
       <c r="AB114">
         <v>156</v>
       </c>
+      <c r="AC114">
+        <v>158</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11442,6 +11786,9 @@
       <c r="AB115">
         <v>8</v>
       </c>
+      <c r="AC115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11538,6 +11885,9 @@
       <c r="AB116">
         <v>21</v>
       </c>
+      <c r="AC116">
+        <v>21</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11634,6 +11984,9 @@
       <c r="AB117">
         <v>44</v>
       </c>
+      <c r="AC117">
+        <v>46</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11730,6 +12083,9 @@
       <c r="AB118">
         <v>78</v>
       </c>
+      <c r="AC118">
+        <v>78</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11826,6 +12182,9 @@
       <c r="AB119">
         <v>139</v>
       </c>
+      <c r="AC119">
+        <v>140</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11922,6 +12281,9 @@
       <c r="AB120">
         <v>45</v>
       </c>
+      <c r="AC120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12018,6 +12380,9 @@
       <c r="AB121">
         <v>8</v>
       </c>
+      <c r="AC121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12114,6 +12479,9 @@
       <c r="AB122">
         <v>54</v>
       </c>
+      <c r="AC122">
+        <v>54</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12210,6 +12578,9 @@
       <c r="AB123">
         <v>13</v>
       </c>
+      <c r="AC123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12306,6 +12677,9 @@
       <c r="AB124">
         <v>30</v>
       </c>
+      <c r="AC124">
+        <v>32</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12402,6 +12776,9 @@
       <c r="AB125">
         <v>17</v>
       </c>
+      <c r="AC125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12498,6 +12875,9 @@
       <c r="AB126">
         <v>2</v>
       </c>
+      <c r="AC126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12594,6 +12974,9 @@
       <c r="AB127">
         <v>10</v>
       </c>
+      <c r="AC127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12690,6 +13073,9 @@
       <c r="AB128">
         <v>1</v>
       </c>
+      <c r="AC128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12786,6 +13172,9 @@
       <c r="AB129">
         <v>7</v>
       </c>
+      <c r="AC129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12882,6 +13271,9 @@
       <c r="AB130">
         <v>10</v>
       </c>
+      <c r="AC130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12978,6 +13370,9 @@
       <c r="AB131">
         <v>8</v>
       </c>
+      <c r="AC131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13074,6 +13469,9 @@
       <c r="AB132">
         <v>13</v>
       </c>
+      <c r="AC132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13170,6 +13568,9 @@
       <c r="AB133">
         <v>44</v>
       </c>
+      <c r="AC133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13266,6 +13667,9 @@
       <c r="AB134">
         <v>0</v>
       </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13362,6 +13766,9 @@
       <c r="AB135">
         <v>0</v>
       </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13458,6 +13865,9 @@
       <c r="AB136">
         <v>10</v>
       </c>
+      <c r="AC136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13554,6 +13964,9 @@
       <c r="AB137">
         <v>5</v>
       </c>
+      <c r="AC137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13650,6 +14063,9 @@
       <c r="AB138">
         <v>33</v>
       </c>
+      <c r="AC138">
+        <v>33</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13746,6 +14162,9 @@
       <c r="AB139">
         <v>4</v>
       </c>
+      <c r="AC139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13842,6 +14261,9 @@
       <c r="AB140">
         <v>1</v>
       </c>
+      <c r="AC140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13938,6 +14360,9 @@
       <c r="AB141">
         <v>2</v>
       </c>
+      <c r="AC141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14034,6 +14459,9 @@
       <c r="AB142">
         <v>6</v>
       </c>
+      <c r="AC142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14130,6 +14558,9 @@
       <c r="AB143">
         <v>10</v>
       </c>
+      <c r="AC143">
+        <v>10</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -14226,6 +14657,9 @@
       <c r="AB144">
         <v>1</v>
       </c>
+      <c r="AC144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -14322,6 +14756,9 @@
       <c r="AB145">
         <v>80</v>
       </c>
+      <c r="AC145">
+        <v>81</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -14418,6 +14855,9 @@
       <c r="AB146">
         <v>34</v>
       </c>
+      <c r="AC146">
+        <v>34</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -14514,6 +14954,9 @@
       <c r="AB147">
         <v>16</v>
       </c>
+      <c r="AC147">
+        <v>16</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -14610,6 +15053,9 @@
       <c r="AB148">
         <v>57</v>
       </c>
+      <c r="AC148">
+        <v>58</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -14706,6 +15152,9 @@
       <c r="AB149">
         <v>11</v>
       </c>
+      <c r="AC149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -14802,6 +15251,9 @@
       <c r="AB150">
         <v>33</v>
       </c>
+      <c r="AC150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -14898,6 +15350,9 @@
       <c r="AB151">
         <v>0</v>
       </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -14994,6 +15449,9 @@
       <c r="AB152">
         <v>18</v>
       </c>
+      <c r="AC152">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15090,6 +15548,9 @@
       <c r="AB153">
         <v>4</v>
       </c>
+      <c r="AC153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -15186,6 +15647,9 @@
       <c r="AB154">
         <v>5</v>
       </c>
+      <c r="AC154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -15282,6 +15746,9 @@
       <c r="AB155">
         <v>3</v>
       </c>
+      <c r="AC155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -15378,6 +15845,9 @@
       <c r="AB156">
         <v>3</v>
       </c>
+      <c r="AC156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15474,6 +15944,9 @@
       <c r="AB157">
         <v>13</v>
       </c>
+      <c r="AC157">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15570,6 +16043,9 @@
       <c r="AB158">
         <v>2</v>
       </c>
+      <c r="AC158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -15666,6 +16142,9 @@
       <c r="AB159">
         <v>4</v>
       </c>
+      <c r="AC159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -15762,6 +16241,9 @@
       <c r="AB160">
         <v>0</v>
       </c>
+      <c r="AC160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -15858,6 +16340,9 @@
       <c r="AB161">
         <v>0</v>
       </c>
+      <c r="AC161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15954,6 +16439,9 @@
       <c r="AB162">
         <v>2</v>
       </c>
+      <c r="AC162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -16050,6 +16538,9 @@
       <c r="AB163">
         <v>0</v>
       </c>
+      <c r="AC163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -16146,6 +16637,9 @@
       <c r="AB164">
         <v>0</v>
       </c>
+      <c r="AC164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -16242,6 +16736,9 @@
       <c r="AB165">
         <v>1</v>
       </c>
+      <c r="AC165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -16338,6 +16835,9 @@
       <c r="AB166">
         <v>0</v>
       </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -16434,6 +16934,9 @@
       <c r="AB167">
         <v>1</v>
       </c>
+      <c r="AC167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -16530,6 +17033,9 @@
       <c r="AB168">
         <v>5</v>
       </c>
+      <c r="AC168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16626,6 +17132,9 @@
       <c r="AB169">
         <v>2</v>
       </c>
+      <c r="AC169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -16722,6 +17231,9 @@
       <c r="AB170">
         <v>1</v>
       </c>
+      <c r="AC170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -16818,6 +17330,9 @@
       <c r="AB171">
         <v>3</v>
       </c>
+      <c r="AC171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16914,6 +17429,9 @@
       <c r="AB172">
         <v>2</v>
       </c>
+      <c r="AC172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -17010,6 +17528,9 @@
       <c r="AB173">
         <v>13</v>
       </c>
+      <c r="AC173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -17106,6 +17627,9 @@
       <c r="AB174">
         <v>36</v>
       </c>
+      <c r="AC174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -17202,6 +17726,9 @@
       <c r="AB175">
         <v>1</v>
       </c>
+      <c r="AC175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -17298,6 +17825,9 @@
       <c r="AB176">
         <v>8</v>
       </c>
+      <c r="AC176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -17394,6 +17924,9 @@
       <c r="AB177">
         <v>2</v>
       </c>
+      <c r="AC177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -17490,6 +18023,9 @@
       <c r="AB178">
         <v>6</v>
       </c>
+      <c r="AC178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17586,6 +18122,9 @@
       <c r="AB179">
         <v>4</v>
       </c>
+      <c r="AC179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17682,6 +18221,9 @@
       <c r="AB180">
         <v>10</v>
       </c>
+      <c r="AC180">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17778,6 +18320,9 @@
       <c r="AB181">
         <v>9</v>
       </c>
+      <c r="AC181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17874,6 +18419,9 @@
       <c r="AB182">
         <v>2</v>
       </c>
+      <c r="AC182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17970,6 +18518,9 @@
       <c r="AB183">
         <v>1</v>
       </c>
+      <c r="AC183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -18066,6 +18617,9 @@
       <c r="AB184">
         <v>0</v>
       </c>
+      <c r="AC184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -18162,6 +18716,9 @@
       <c r="AB185">
         <v>1</v>
       </c>
+      <c r="AC185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -18258,6 +18815,9 @@
       <c r="AB186">
         <v>9</v>
       </c>
+      <c r="AC186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -18354,6 +18914,9 @@
       <c r="AB187">
         <v>0</v>
       </c>
+      <c r="AC187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -18450,6 +19013,9 @@
       <c r="AB188">
         <v>0</v>
       </c>
+      <c r="AC188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -18546,6 +19112,9 @@
       <c r="AB189">
         <v>0</v>
       </c>
+      <c r="AC189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -18642,6 +19211,9 @@
       <c r="AB190">
         <v>24</v>
       </c>
+      <c r="AC190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -18738,6 +19310,9 @@
       <c r="AB191">
         <v>18</v>
       </c>
+      <c r="AC191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18834,6 +19409,9 @@
       <c r="AB192">
         <v>55</v>
       </c>
+      <c r="AC192">
+        <v>55</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -18930,6 +19508,9 @@
       <c r="AB193">
         <v>37</v>
       </c>
+      <c r="AC193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -19026,6 +19607,9 @@
       <c r="AB194">
         <v>29</v>
       </c>
+      <c r="AC194">
+        <v>34</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -19122,6 +19706,9 @@
       <c r="AB195">
         <v>9</v>
       </c>
+      <c r="AC195">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -19218,6 +19805,9 @@
       <c r="AB196">
         <v>39</v>
       </c>
+      <c r="AC196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -19314,6 +19904,9 @@
       <c r="AB197">
         <v>4</v>
       </c>
+      <c r="AC197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -19410,6 +20003,9 @@
       <c r="AB198">
         <v>21</v>
       </c>
+      <c r="AC198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -19506,6 +20102,9 @@
       <c r="AB199">
         <v>2</v>
       </c>
+      <c r="AC199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -19602,6 +20201,9 @@
       <c r="AB200">
         <v>5</v>
       </c>
+      <c r="AC200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -19698,6 +20300,9 @@
       <c r="AB201">
         <v>2</v>
       </c>
+      <c r="AC201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -19794,6 +20399,9 @@
       <c r="AB202">
         <v>1</v>
       </c>
+      <c r="AC202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -19890,6 +20498,9 @@
       <c r="AB203">
         <v>2</v>
       </c>
+      <c r="AC203">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -19986,6 +20597,9 @@
       <c r="AB204">
         <v>0</v>
       </c>
+      <c r="AC204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -20082,6 +20696,9 @@
       <c r="AB205">
         <v>1</v>
       </c>
+      <c r="AC205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -20178,6 +20795,9 @@
       <c r="AB206">
         <v>0</v>
       </c>
+      <c r="AC206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -20274,6 +20894,9 @@
       <c r="AB207">
         <v>0</v>
       </c>
+      <c r="AC207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -20370,6 +20993,9 @@
       <c r="AB208">
         <v>0</v>
       </c>
+      <c r="AC208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -20466,6 +21092,9 @@
       <c r="AB209">
         <v>0</v>
       </c>
+      <c r="AC209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -20562,6 +21191,9 @@
       <c r="AB210">
         <v>0</v>
       </c>
+      <c r="AC210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -20658,6 +21290,9 @@
       <c r="AB211">
         <v>0</v>
       </c>
+      <c r="AC211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -20754,6 +21389,9 @@
       <c r="AB212">
         <v>2</v>
       </c>
+      <c r="AC212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -20850,6 +21488,9 @@
       <c r="AB213">
         <v>0</v>
       </c>
+      <c r="AC213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -20946,6 +21587,9 @@
       <c r="AB214">
         <v>1</v>
       </c>
+      <c r="AC214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -21042,6 +21686,9 @@
       <c r="AB215">
         <v>27</v>
       </c>
+      <c r="AC215">
+        <v>28</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -21138,6 +21785,9 @@
       <c r="AB216">
         <v>186</v>
       </c>
+      <c r="AC216">
+        <v>186</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -21234,6 +21884,9 @@
       <c r="AB217">
         <v>9</v>
       </c>
+      <c r="AC217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -21330,6 +21983,9 @@
       <c r="AB218">
         <v>11</v>
       </c>
+      <c r="AC218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -21426,6 +22082,9 @@
       <c r="AB219">
         <v>0</v>
       </c>
+      <c r="AC219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -21522,6 +22181,9 @@
       <c r="AB220">
         <v>2</v>
       </c>
+      <c r="AC220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -21618,6 +22280,9 @@
       <c r="AB221">
         <v>0</v>
       </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -21714,6 +22379,9 @@
       <c r="AB222">
         <v>1</v>
       </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -21810,6 +22478,9 @@
       <c r="AB223">
         <v>2</v>
       </c>
+      <c r="AC223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -21906,6 +22577,9 @@
       <c r="AB224">
         <v>7</v>
       </c>
+      <c r="AC224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -22002,6 +22676,9 @@
       <c r="AB225">
         <v>3</v>
       </c>
+      <c r="AC225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -22098,6 +22775,9 @@
       <c r="AB226">
         <v>1</v>
       </c>
+      <c r="AC226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -22194,6 +22874,9 @@
       <c r="AB227">
         <v>1</v>
       </c>
+      <c r="AC227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -22290,6 +22973,9 @@
       <c r="AB228">
         <v>2</v>
       </c>
+      <c r="AC228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -22386,6 +23072,9 @@
       <c r="AB229">
         <v>2</v>
       </c>
+      <c r="AC229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -22482,6 +23171,9 @@
       <c r="AB230">
         <v>0</v>
       </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -22578,6 +23270,9 @@
       <c r="AB231">
         <v>3</v>
       </c>
+      <c r="AC231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -22674,6 +23369,9 @@
       <c r="AB232">
         <v>10</v>
       </c>
+      <c r="AC232">
+        <v>11</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -22770,6 +23468,9 @@
       <c r="AB233">
         <v>0</v>
       </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -22866,6 +23567,9 @@
       <c r="AB234">
         <v>4</v>
       </c>
+      <c r="AC234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -22962,6 +23666,9 @@
       <c r="AB235">
         <v>1</v>
       </c>
+      <c r="AC235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -23058,6 +23765,9 @@
       <c r="AB236">
         <v>1</v>
       </c>
+      <c r="AC236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -23154,6 +23864,9 @@
       <c r="AB237">
         <v>1</v>
       </c>
+      <c r="AC237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -23250,6 +23963,9 @@
       <c r="AB238">
         <v>471</v>
       </c>
+      <c r="AC238">
+        <v>484</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -23346,6 +24062,9 @@
       <c r="AB239">
         <v>8</v>
       </c>
+      <c r="AC239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -23442,6 +24161,9 @@
       <c r="AB240">
         <v>4</v>
       </c>
+      <c r="AC240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -23538,6 +24260,9 @@
       <c r="AB241">
         <v>4</v>
       </c>
+      <c r="AC241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -23634,6 +24359,9 @@
       <c r="AB242">
         <v>4</v>
       </c>
+      <c r="AC242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -23730,6 +24458,9 @@
       <c r="AB243">
         <v>6</v>
       </c>
+      <c r="AC243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -23826,6 +24557,9 @@
       <c r="AB244">
         <v>8</v>
       </c>
+      <c r="AC244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -23922,6 +24656,9 @@
       <c r="AB245">
         <v>0</v>
       </c>
+      <c r="AC245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -24018,6 +24755,9 @@
       <c r="AB246">
         <v>4</v>
       </c>
+      <c r="AC246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -24114,6 +24854,9 @@
       <c r="AB247">
         <v>0</v>
       </c>
+      <c r="AC247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -24210,6 +24953,9 @@
       <c r="AB248">
         <v>0</v>
       </c>
+      <c r="AC248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -24306,6 +25052,9 @@
       <c r="AB249">
         <v>2</v>
       </c>
+      <c r="AC249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -24402,6 +25151,9 @@
       <c r="AB250">
         <v>24</v>
       </c>
+      <c r="AC250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -24498,6 +25250,9 @@
       <c r="AB251">
         <v>9</v>
       </c>
+      <c r="AC251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -24594,6 +25349,9 @@
       <c r="AB252">
         <v>0</v>
       </c>
+      <c r="AC252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -24690,6 +25448,9 @@
       <c r="AB253">
         <v>17</v>
       </c>
+      <c r="AC253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -24786,6 +25547,9 @@
       <c r="AB254">
         <v>4</v>
       </c>
+      <c r="AC254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -24882,6 +25646,9 @@
       <c r="AB255">
         <v>48</v>
       </c>
+      <c r="AC255">
+        <v>50</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -24978,6 +25745,9 @@
       <c r="AB256">
         <v>32</v>
       </c>
+      <c r="AC256">
+        <v>34</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -25074,6 +25844,9 @@
       <c r="AB257">
         <v>1</v>
       </c>
+      <c r="AC257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -25170,6 +25943,9 @@
       <c r="AB258">
         <v>0</v>
       </c>
+      <c r="AC258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -25266,6 +26042,9 @@
       <c r="AB259">
         <v>24</v>
       </c>
+      <c r="AC259">
+        <v>28</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -25362,6 +26141,9 @@
       <c r="AB260">
         <v>22</v>
       </c>
+      <c r="AC260">
+        <v>22</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -25458,6 +26240,9 @@
       <c r="AB261">
         <v>0</v>
       </c>
+      <c r="AC261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -25554,6 +26339,9 @@
       <c r="AB262">
         <v>0</v>
       </c>
+      <c r="AC262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -25650,6 +26438,9 @@
       <c r="AB263">
         <v>0</v>
       </c>
+      <c r="AC263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -25746,6 +26537,9 @@
       <c r="AB264">
         <v>0</v>
       </c>
+      <c r="AC264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -25842,6 +26636,9 @@
       <c r="AB265">
         <v>3</v>
       </c>
+      <c r="AC265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -25938,6 +26735,9 @@
       <c r="AB266">
         <v>0</v>
       </c>
+      <c r="AC266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -26034,6 +26834,9 @@
       <c r="AB267">
         <v>3</v>
       </c>
+      <c r="AC267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -26130,6 +26933,9 @@
       <c r="AB268">
         <v>0</v>
       </c>
+      <c r="AC268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -26226,6 +27032,9 @@
       <c r="AB269">
         <v>7</v>
       </c>
+      <c r="AC269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -26322,6 +27131,9 @@
       <c r="AB270">
         <v>0</v>
       </c>
+      <c r="AC270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -26418,6 +27230,9 @@
       <c r="AB271">
         <v>0</v>
       </c>
+      <c r="AC271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -26514,6 +27329,9 @@
       <c r="AB272">
         <v>1</v>
       </c>
+      <c r="AC272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -26610,6 +27428,9 @@
       <c r="AB273">
         <v>4</v>
       </c>
+      <c r="AC273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -26706,6 +27527,9 @@
       <c r="AB274">
         <v>0</v>
       </c>
+      <c r="AC274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -26802,6 +27626,9 @@
       <c r="AB275">
         <v>0</v>
       </c>
+      <c r="AC275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -26898,6 +27725,9 @@
       <c r="AB276">
         <v>17</v>
       </c>
+      <c r="AC276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -26994,6 +27824,9 @@
       <c r="AB277">
         <v>0</v>
       </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -27090,6 +27923,9 @@
       <c r="AB278">
         <v>0</v>
       </c>
+      <c r="AC278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -27186,6 +28022,9 @@
       <c r="AB279">
         <v>4</v>
       </c>
+      <c r="AC279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -27282,6 +28121,9 @@
       <c r="AB280">
         <v>12</v>
       </c>
+      <c r="AC280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -27378,6 +28220,9 @@
       <c r="AB281">
         <v>217</v>
       </c>
+      <c r="AC281">
+        <v>220</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -27474,6 +28319,9 @@
       <c r="AB282">
         <v>16</v>
       </c>
+      <c r="AC282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -27570,6 +28418,9 @@
       <c r="AB283">
         <v>5</v>
       </c>
+      <c r="AC283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -27666,6 +28517,9 @@
       <c r="AB284">
         <v>0</v>
       </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -27762,6 +28616,9 @@
       <c r="AB285">
         <v>0</v>
       </c>
+      <c r="AC285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -27858,6 +28715,9 @@
       <c r="AB286">
         <v>8</v>
       </c>
+      <c r="AC286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -27954,6 +28814,9 @@
       <c r="AB287">
         <v>5</v>
       </c>
+      <c r="AC287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -28050,6 +28913,9 @@
       <c r="AB288">
         <v>0</v>
       </c>
+      <c r="AC288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -28146,6 +29012,9 @@
       <c r="AB289">
         <v>1</v>
       </c>
+      <c r="AC289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -28242,6 +29111,9 @@
       <c r="AB290">
         <v>7</v>
       </c>
+      <c r="AC290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -28338,6 +29210,9 @@
       <c r="AB291">
         <v>3</v>
       </c>
+      <c r="AC291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -28434,6 +29309,9 @@
       <c r="AB292">
         <v>5</v>
       </c>
+      <c r="AC292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -28530,6 +29408,9 @@
       <c r="AB293">
         <v>11</v>
       </c>
+      <c r="AC293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -28626,6 +29507,9 @@
       <c r="AB294">
         <v>6</v>
       </c>
+      <c r="AC294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -28722,6 +29606,9 @@
       <c r="AB295">
         <v>0</v>
       </c>
+      <c r="AC295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -28818,6 +29705,9 @@
       <c r="AB296">
         <v>1</v>
       </c>
+      <c r="AC296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -28914,6 +29804,9 @@
       <c r="AB297">
         <v>7</v>
       </c>
+      <c r="AC297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -29010,6 +29903,9 @@
       <c r="AB298">
         <v>28</v>
       </c>
+      <c r="AC298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -29106,6 +30002,9 @@
       <c r="AB299">
         <v>21</v>
       </c>
+      <c r="AC299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -29202,6 +30101,9 @@
       <c r="AB300">
         <v>15</v>
       </c>
+      <c r="AC300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -29298,6 +30200,9 @@
       <c r="AB301">
         <v>0</v>
       </c>
+      <c r="AC301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -29394,6 +30299,9 @@
       <c r="AB302">
         <v>0</v>
       </c>
+      <c r="AC302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -29490,6 +30398,9 @@
       <c r="AB303">
         <v>0</v>
       </c>
+      <c r="AC303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -29586,6 +30497,9 @@
       <c r="AB304">
         <v>0</v>
       </c>
+      <c r="AC304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -29682,6 +30596,9 @@
       <c r="AB305">
         <v>3</v>
       </c>
+      <c r="AC305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -29778,6 +30695,9 @@
       <c r="AB306">
         <v>1</v>
       </c>
+      <c r="AC306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -29874,6 +30794,9 @@
       <c r="AB307">
         <v>4</v>
       </c>
+      <c r="AC307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -29970,6 +30893,9 @@
       <c r="AB308">
         <v>0</v>
       </c>
+      <c r="AC308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -30066,6 +30992,9 @@
       <c r="AB309">
         <v>0</v>
       </c>
+      <c r="AC309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -30162,6 +31091,9 @@
       <c r="AB310">
         <v>7</v>
       </c>
+      <c r="AC310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -30258,6 +31190,9 @@
       <c r="AB311">
         <v>2</v>
       </c>
+      <c r="AC311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -30354,6 +31289,9 @@
       <c r="AB312">
         <v>2</v>
       </c>
+      <c r="AC312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -30450,6 +31388,9 @@
       <c r="AB313">
         <v>2</v>
       </c>
+      <c r="AC313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -30546,6 +31487,9 @@
       <c r="AB314">
         <v>10</v>
       </c>
+      <c r="AC314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -30642,6 +31586,9 @@
       <c r="AB315">
         <v>1</v>
       </c>
+      <c r="AC315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -30738,6 +31685,9 @@
       <c r="AB316">
         <v>17</v>
       </c>
+      <c r="AC316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -30834,6 +31784,9 @@
       <c r="AB317">
         <v>0</v>
       </c>
+      <c r="AC317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -30930,6 +31883,9 @@
       <c r="AB318">
         <v>0</v>
       </c>
+      <c r="AC318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -31026,6 +31982,9 @@
       <c r="AB319">
         <v>127</v>
       </c>
+      <c r="AC319">
+        <v>129</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -31122,6 +32081,9 @@
       <c r="AB320">
         <v>4</v>
       </c>
+      <c r="AC320">
+        <v>5</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -31218,6 +32180,9 @@
       <c r="AB321">
         <v>5</v>
       </c>
+      <c r="AC321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -31314,6 +32279,9 @@
       <c r="AB322">
         <v>1</v>
       </c>
+      <c r="AC322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -31410,6 +32378,9 @@
       <c r="AB323">
         <v>3</v>
       </c>
+      <c r="AC323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -31506,6 +32477,9 @@
       <c r="AB324">
         <v>14</v>
       </c>
+      <c r="AC324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -31602,6 +32576,9 @@
       <c r="AB325">
         <v>1</v>
       </c>
+      <c r="AC325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -31698,6 +32675,9 @@
       <c r="AB326">
         <v>1</v>
       </c>
+      <c r="AC326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -31794,6 +32774,9 @@
       <c r="AB327">
         <v>0</v>
       </c>
+      <c r="AC327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -31890,6 +32873,9 @@
       <c r="AB328">
         <v>0</v>
       </c>
+      <c r="AC328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -31986,6 +32972,9 @@
       <c r="AB329">
         <v>3</v>
       </c>
+      <c r="AC329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -32082,6 +33071,9 @@
       <c r="AB330">
         <v>1</v>
       </c>
+      <c r="AC330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -32178,6 +33170,9 @@
       <c r="AB331">
         <v>2</v>
       </c>
+      <c r="AC331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -32274,6 +33269,9 @@
       <c r="AB332">
         <v>0</v>
       </c>
+      <c r="AC332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -32370,6 +33368,9 @@
       <c r="AB333">
         <v>0</v>
       </c>
+      <c r="AC333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -32466,6 +33467,9 @@
       <c r="AB334">
         <v>0</v>
       </c>
+      <c r="AC334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -32562,6 +33566,9 @@
       <c r="AB335">
         <v>16</v>
       </c>
+      <c r="AC335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -32658,6 +33665,9 @@
       <c r="AB336">
         <v>2</v>
       </c>
+      <c r="AC336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -32754,6 +33764,9 @@
       <c r="AB337">
         <v>1</v>
       </c>
+      <c r="AC337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -32850,6 +33863,9 @@
       <c r="AB338">
         <v>2</v>
       </c>
+      <c r="AC338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -32946,6 +33962,9 @@
       <c r="AB339">
         <v>0</v>
       </c>
+      <c r="AC339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -33042,6 +34061,9 @@
       <c r="AB340">
         <v>0</v>
       </c>
+      <c r="AC340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -33138,6 +34160,9 @@
       <c r="AB341">
         <v>1</v>
       </c>
+      <c r="AC341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -33234,6 +34259,9 @@
       <c r="AB342">
         <v>2</v>
       </c>
+      <c r="AC342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -33330,6 +34358,9 @@
       <c r="AB343">
         <v>0</v>
       </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -33426,6 +34457,9 @@
       <c r="AB344">
         <v>1</v>
       </c>
+      <c r="AC344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -33522,6 +34556,9 @@
       <c r="AB345">
         <v>0</v>
       </c>
+      <c r="AC345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -33618,6 +34655,9 @@
       <c r="AB346">
         <v>0</v>
       </c>
+      <c r="AC346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -33714,6 +34754,9 @@
       <c r="AB347">
         <v>3</v>
       </c>
+      <c r="AC347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -33810,6 +34853,9 @@
       <c r="AB348">
         <v>2</v>
       </c>
+      <c r="AC348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -33906,6 +34952,9 @@
       <c r="AB349">
         <v>4</v>
       </c>
+      <c r="AC349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -34002,6 +35051,9 @@
       <c r="AB350">
         <v>1</v>
       </c>
+      <c r="AC350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -34098,6 +35150,9 @@
       <c r="AB351">
         <v>0</v>
       </c>
+      <c r="AC351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -34194,6 +35249,9 @@
       <c r="AB352">
         <v>0</v>
       </c>
+      <c r="AC352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -34290,6 +35348,9 @@
       <c r="AB353">
         <v>0</v>
       </c>
+      <c r="AC353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -34386,6 +35447,9 @@
       <c r="AB354">
         <v>1</v>
       </c>
+      <c r="AC354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -34482,6 +35546,9 @@
       <c r="AB355">
         <v>1</v>
       </c>
+      <c r="AC355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -34578,6 +35645,9 @@
       <c r="AB356">
         <v>0</v>
       </c>
+      <c r="AC356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -34674,6 +35744,9 @@
       <c r="AB357">
         <v>4</v>
       </c>
+      <c r="AC357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -34770,6 +35843,9 @@
       <c r="AB358">
         <v>0</v>
       </c>
+      <c r="AC358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -34865,6 +35941,9 @@
       </c>
       <c r="AB359">
         <v>8</v>
+      </c>
+      <c r="AC359">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC359"/>
+  <dimension ref="A1:AD359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>2020-04-17</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -602,6 +607,9 @@
       <c r="AC2">
         <v>2066</v>
       </c>
+      <c r="AD2">
+        <v>2095</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -701,6 +709,9 @@
       <c r="AC3">
         <v>14</v>
       </c>
+      <c r="AD3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -800,6 +811,9 @@
       <c r="AC4">
         <v>126</v>
       </c>
+      <c r="AD4">
+        <v>129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -899,6 +913,9 @@
       <c r="AC5">
         <v>50</v>
       </c>
+      <c r="AD5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -998,6 +1015,9 @@
       <c r="AC6">
         <v>46</v>
       </c>
+      <c r="AD6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1097,6 +1117,9 @@
       <c r="AC7">
         <v>4</v>
       </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1196,6 +1219,9 @@
       <c r="AC8">
         <v>1</v>
       </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1295,6 +1321,9 @@
       <c r="AC9">
         <v>0</v>
       </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1394,6 +1423,9 @@
       <c r="AC10">
         <v>6</v>
       </c>
+      <c r="AD10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1493,6 +1525,9 @@
       <c r="AC11">
         <v>6</v>
       </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1592,6 +1627,9 @@
       <c r="AC12">
         <v>12</v>
       </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1691,6 +1729,9 @@
       <c r="AC13">
         <v>13</v>
       </c>
+      <c r="AD13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1790,6 +1831,9 @@
       <c r="AC14">
         <v>14</v>
       </c>
+      <c r="AD14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1889,6 +1933,9 @@
       <c r="AC15">
         <v>11</v>
       </c>
+      <c r="AD15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1988,6 +2035,9 @@
       <c r="AC16">
         <v>13</v>
       </c>
+      <c r="AD16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2087,6 +2137,9 @@
       <c r="AC17">
         <v>0</v>
       </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2186,6 +2239,9 @@
       <c r="AC18">
         <v>0</v>
       </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2285,6 +2341,9 @@
       <c r="AC19">
         <v>3</v>
       </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2384,6 +2443,9 @@
       <c r="AC20">
         <v>0</v>
       </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2483,6 +2545,9 @@
       <c r="AC21">
         <v>1</v>
       </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2582,6 +2647,9 @@
       <c r="AC22">
         <v>20</v>
       </c>
+      <c r="AD22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2681,6 +2749,9 @@
       <c r="AC23">
         <v>36</v>
       </c>
+      <c r="AD23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2780,6 +2851,9 @@
       <c r="AC24">
         <v>0</v>
       </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2879,6 +2953,9 @@
       <c r="AC25">
         <v>11</v>
       </c>
+      <c r="AD25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2978,6 +3055,9 @@
       <c r="AC26">
         <v>18</v>
       </c>
+      <c r="AD26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3077,6 +3157,9 @@
       <c r="AC27">
         <v>14</v>
       </c>
+      <c r="AD27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3176,6 +3259,9 @@
       <c r="AC28">
         <v>26</v>
       </c>
+      <c r="AD28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3275,6 +3361,9 @@
       <c r="AC29">
         <v>1</v>
       </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3374,6 +3463,9 @@
       <c r="AC30">
         <v>3</v>
       </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3473,6 +3565,9 @@
       <c r="AC31">
         <v>3</v>
       </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3572,6 +3667,9 @@
       <c r="AC32">
         <v>7</v>
       </c>
+      <c r="AD32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3671,6 +3769,9 @@
       <c r="AC33">
         <v>2</v>
       </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3770,6 +3871,9 @@
       <c r="AC34">
         <v>6</v>
       </c>
+      <c r="AD34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3869,6 +3973,9 @@
       <c r="AC35">
         <v>0</v>
       </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3968,6 +4075,9 @@
       <c r="AC36">
         <v>1</v>
       </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4067,6 +4177,9 @@
       <c r="AC37">
         <v>6</v>
       </c>
+      <c r="AD37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4166,6 +4279,9 @@
       <c r="AC38">
         <v>5</v>
       </c>
+      <c r="AD38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4265,6 +4381,9 @@
       <c r="AC39">
         <v>0</v>
       </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4364,6 +4483,9 @@
       <c r="AC40">
         <v>10</v>
       </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4463,6 +4585,9 @@
       <c r="AC41">
         <v>0</v>
       </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4562,6 +4687,9 @@
       <c r="AC42">
         <v>0</v>
       </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4661,6 +4789,9 @@
       <c r="AC43">
         <v>0</v>
       </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4760,6 +4891,9 @@
       <c r="AC44">
         <v>1</v>
       </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4859,6 +4993,9 @@
       <c r="AC45">
         <v>2</v>
       </c>
+      <c r="AD45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4958,6 +5095,9 @@
       <c r="AC46">
         <v>2</v>
       </c>
+      <c r="AD46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5057,6 +5197,9 @@
       <c r="AC47">
         <v>0</v>
       </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5156,6 +5299,9 @@
       <c r="AC48">
         <v>3</v>
       </c>
+      <c r="AD48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5255,6 +5401,9 @@
       <c r="AC49">
         <v>4</v>
       </c>
+      <c r="AD49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5354,6 +5503,9 @@
       <c r="AC50">
         <v>1</v>
       </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5453,6 +5605,9 @@
       <c r="AC51">
         <v>3</v>
       </c>
+      <c r="AD51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5552,6 +5707,9 @@
       <c r="AC52">
         <v>36</v>
       </c>
+      <c r="AD52">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5651,6 +5809,9 @@
       <c r="AC53">
         <v>5</v>
       </c>
+      <c r="AD53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5750,6 +5911,9 @@
       <c r="AC54">
         <v>0</v>
       </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5849,6 +6013,9 @@
       <c r="AC55">
         <v>2</v>
       </c>
+      <c r="AD55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5948,6 +6115,9 @@
       <c r="AC56">
         <v>5</v>
       </c>
+      <c r="AD56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6047,6 +6217,9 @@
       <c r="AC57">
         <v>3</v>
       </c>
+      <c r="AD57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6146,6 +6319,9 @@
       <c r="AC58">
         <v>0</v>
       </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6245,6 +6421,9 @@
       <c r="AC59">
         <v>0</v>
       </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6344,6 +6523,9 @@
       <c r="AC60">
         <v>2</v>
       </c>
+      <c r="AD60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6443,6 +6625,9 @@
       <c r="AC61">
         <v>3</v>
       </c>
+      <c r="AD61">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6542,6 +6727,9 @@
       <c r="AC62">
         <v>1</v>
       </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6641,6 +6829,9 @@
       <c r="AC63">
         <v>1</v>
       </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6740,6 +6931,9 @@
       <c r="AC64">
         <v>0</v>
       </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6839,6 +7033,9 @@
       <c r="AC65">
         <v>5</v>
       </c>
+      <c r="AD65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6938,6 +7135,9 @@
       <c r="AC66">
         <v>0</v>
       </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7037,6 +7237,9 @@
       <c r="AC67">
         <v>0</v>
       </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7136,6 +7339,9 @@
       <c r="AC68">
         <v>4</v>
       </c>
+      <c r="AD68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7235,6 +7441,9 @@
       <c r="AC69">
         <v>0</v>
       </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7334,6 +7543,9 @@
       <c r="AC70">
         <v>0</v>
       </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7433,6 +7645,9 @@
       <c r="AC71">
         <v>0</v>
       </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7532,6 +7747,9 @@
       <c r="AC72">
         <v>5</v>
       </c>
+      <c r="AD72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7631,6 +7849,9 @@
       <c r="AC73">
         <v>0</v>
       </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7730,6 +7951,9 @@
       <c r="AC74">
         <v>0</v>
       </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7829,6 +8053,9 @@
       <c r="AC75">
         <v>0</v>
       </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7928,6 +8155,9 @@
       <c r="AC76">
         <v>1</v>
       </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8027,6 +8257,9 @@
       <c r="AC77">
         <v>0</v>
       </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8126,6 +8359,9 @@
       <c r="AC78">
         <v>1</v>
       </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8225,6 +8461,9 @@
       <c r="AC79">
         <v>0</v>
       </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8324,6 +8563,9 @@
       <c r="AC80">
         <v>0</v>
       </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8423,6 +8665,9 @@
       <c r="AC81">
         <v>0</v>
       </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8522,6 +8767,9 @@
       <c r="AC82">
         <v>0</v>
       </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8621,6 +8869,9 @@
       <c r="AC83">
         <v>5</v>
       </c>
+      <c r="AD83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8720,6 +8971,9 @@
       <c r="AC84">
         <v>13</v>
       </c>
+      <c r="AD84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8819,6 +9073,9 @@
       <c r="AC85">
         <v>3</v>
       </c>
+      <c r="AD85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8918,6 +9175,9 @@
       <c r="AC86">
         <v>5</v>
       </c>
+      <c r="AD86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9017,6 +9277,9 @@
       <c r="AC87">
         <v>0</v>
       </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9116,6 +9379,9 @@
       <c r="AC88">
         <v>0</v>
       </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9215,6 +9481,9 @@
       <c r="AC89">
         <v>6</v>
       </c>
+      <c r="AD89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9314,6 +9583,9 @@
       <c r="AC90">
         <v>0</v>
       </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9413,6 +9685,9 @@
       <c r="AC91">
         <v>1</v>
       </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9512,6 +9787,9 @@
       <c r="AC92">
         <v>0</v>
       </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9611,6 +9889,9 @@
       <c r="AC93">
         <v>32</v>
       </c>
+      <c r="AD93">
+        <v>32</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9710,6 +9991,9 @@
       <c r="AC94">
         <v>92</v>
       </c>
+      <c r="AD94">
+        <v>92</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9809,6 +10093,9 @@
       <c r="AC95">
         <v>53</v>
       </c>
+      <c r="AD95">
+        <v>54</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9908,6 +10195,9 @@
       <c r="AC96">
         <v>83</v>
       </c>
+      <c r="AD96">
+        <v>83</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10007,6 +10297,9 @@
       <c r="AC97">
         <v>160</v>
       </c>
+      <c r="AD97">
+        <v>161</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10106,6 +10399,9 @@
       <c r="AC98">
         <v>20</v>
       </c>
+      <c r="AD98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10205,6 +10501,9 @@
       <c r="AC99">
         <v>9</v>
       </c>
+      <c r="AD99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10304,6 +10603,9 @@
       <c r="AC100">
         <v>2</v>
       </c>
+      <c r="AD100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10403,6 +10705,9 @@
       <c r="AC101">
         <v>2</v>
       </c>
+      <c r="AD101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10502,6 +10807,9 @@
       <c r="AC102">
         <v>3</v>
       </c>
+      <c r="AD102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10601,6 +10909,9 @@
       <c r="AC103">
         <v>45</v>
       </c>
+      <c r="AD103">
+        <v>46</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10700,6 +11011,9 @@
       <c r="AC104">
         <v>2</v>
       </c>
+      <c r="AD104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10799,6 +11113,9 @@
       <c r="AC105">
         <v>1</v>
       </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10898,6 +11215,9 @@
       <c r="AC106">
         <v>2</v>
       </c>
+      <c r="AD106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10997,6 +11317,9 @@
       <c r="AC107">
         <v>6</v>
       </c>
+      <c r="AD107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11096,6 +11419,9 @@
       <c r="AC108">
         <v>22</v>
       </c>
+      <c r="AD108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11195,6 +11521,9 @@
       <c r="AC109">
         <v>91</v>
       </c>
+      <c r="AD109">
+        <v>92</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11294,6 +11623,9 @@
       <c r="AC110">
         <v>17</v>
       </c>
+      <c r="AD110">
+        <v>17</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11393,6 +11725,9 @@
       <c r="AC111">
         <v>19</v>
       </c>
+      <c r="AD111">
+        <v>19</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11492,6 +11827,9 @@
       <c r="AC112">
         <v>44</v>
       </c>
+      <c r="AD112">
+        <v>45</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11591,6 +11929,9 @@
       <c r="AC113">
         <v>391</v>
       </c>
+      <c r="AD113">
+        <v>395</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11690,6 +12031,9 @@
       <c r="AC114">
         <v>158</v>
       </c>
+      <c r="AD114">
+        <v>161</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11789,6 +12133,9 @@
       <c r="AC115">
         <v>8</v>
       </c>
+      <c r="AD115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11888,6 +12235,9 @@
       <c r="AC116">
         <v>21</v>
       </c>
+      <c r="AD116">
+        <v>21</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11987,6 +12337,9 @@
       <c r="AC117">
         <v>46</v>
       </c>
+      <c r="AD117">
+        <v>46</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12086,6 +12439,9 @@
       <c r="AC118">
         <v>78</v>
       </c>
+      <c r="AD118">
+        <v>78</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12185,6 +12541,9 @@
       <c r="AC119">
         <v>140</v>
       </c>
+      <c r="AD119">
+        <v>140</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12284,6 +12643,9 @@
       <c r="AC120">
         <v>45</v>
       </c>
+      <c r="AD120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12383,6 +12745,9 @@
       <c r="AC121">
         <v>8</v>
       </c>
+      <c r="AD121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12482,6 +12847,9 @@
       <c r="AC122">
         <v>54</v>
       </c>
+      <c r="AD122">
+        <v>54</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12581,6 +12949,9 @@
       <c r="AC123">
         <v>14</v>
       </c>
+      <c r="AD123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12680,6 +13051,9 @@
       <c r="AC124">
         <v>32</v>
       </c>
+      <c r="AD124">
+        <v>32</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12779,6 +13153,9 @@
       <c r="AC125">
         <v>17</v>
       </c>
+      <c r="AD125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12878,6 +13255,9 @@
       <c r="AC126">
         <v>2</v>
       </c>
+      <c r="AD126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12977,6 +13357,9 @@
       <c r="AC127">
         <v>10</v>
       </c>
+      <c r="AD127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13076,6 +13459,9 @@
       <c r="AC128">
         <v>1</v>
       </c>
+      <c r="AD128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13175,6 +13561,9 @@
       <c r="AC129">
         <v>7</v>
       </c>
+      <c r="AD129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13274,6 +13663,9 @@
       <c r="AC130">
         <v>10</v>
       </c>
+      <c r="AD130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13373,6 +13765,9 @@
       <c r="AC131">
         <v>8</v>
       </c>
+      <c r="AD131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13472,6 +13867,9 @@
       <c r="AC132">
         <v>13</v>
       </c>
+      <c r="AD132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13571,6 +13969,9 @@
       <c r="AC133">
         <v>44</v>
       </c>
+      <c r="AD133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13670,6 +14071,9 @@
       <c r="AC134">
         <v>0</v>
       </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13769,6 +14173,9 @@
       <c r="AC135">
         <v>0</v>
       </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13868,6 +14275,9 @@
       <c r="AC136">
         <v>10</v>
       </c>
+      <c r="AD136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13967,6 +14377,9 @@
       <c r="AC137">
         <v>5</v>
       </c>
+      <c r="AD137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14066,6 +14479,9 @@
       <c r="AC138">
         <v>33</v>
       </c>
+      <c r="AD138">
+        <v>35</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14165,6 +14581,9 @@
       <c r="AC139">
         <v>4</v>
       </c>
+      <c r="AD139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14264,6 +14683,9 @@
       <c r="AC140">
         <v>1</v>
       </c>
+      <c r="AD140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -14363,6 +14785,9 @@
       <c r="AC141">
         <v>2</v>
       </c>
+      <c r="AD141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14462,6 +14887,9 @@
       <c r="AC142">
         <v>6</v>
       </c>
+      <c r="AD142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14561,6 +14989,9 @@
       <c r="AC143">
         <v>10</v>
       </c>
+      <c r="AD143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -14660,6 +15091,9 @@
       <c r="AC144">
         <v>1</v>
       </c>
+      <c r="AD144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -14759,6 +15193,9 @@
       <c r="AC145">
         <v>81</v>
       </c>
+      <c r="AD145">
+        <v>81</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -14858,6 +15295,9 @@
       <c r="AC146">
         <v>34</v>
       </c>
+      <c r="AD146">
+        <v>34</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -14957,6 +15397,9 @@
       <c r="AC147">
         <v>16</v>
       </c>
+      <c r="AD147">
+        <v>18</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15056,6 +15499,9 @@
       <c r="AC148">
         <v>58</v>
       </c>
+      <c r="AD148">
+        <v>58</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15155,6 +15601,9 @@
       <c r="AC149">
         <v>11</v>
       </c>
+      <c r="AD149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15254,6 +15703,9 @@
       <c r="AC150">
         <v>33</v>
       </c>
+      <c r="AD150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -15353,6 +15805,9 @@
       <c r="AC151">
         <v>0</v>
       </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15452,6 +15907,9 @@
       <c r="AC152">
         <v>18</v>
       </c>
+      <c r="AD152">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15551,6 +16009,9 @@
       <c r="AC153">
         <v>4</v>
       </c>
+      <c r="AD153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -15650,6 +16111,9 @@
       <c r="AC154">
         <v>5</v>
       </c>
+      <c r="AD154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -15749,6 +16213,9 @@
       <c r="AC155">
         <v>3</v>
       </c>
+      <c r="AD155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -15848,6 +16315,9 @@
       <c r="AC156">
         <v>3</v>
       </c>
+      <c r="AD156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15947,6 +16417,9 @@
       <c r="AC157">
         <v>13</v>
       </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16046,6 +16519,9 @@
       <c r="AC158">
         <v>2</v>
       </c>
+      <c r="AD158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16145,6 +16621,9 @@
       <c r="AC159">
         <v>4</v>
       </c>
+      <c r="AD159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16244,6 +16723,9 @@
       <c r="AC160">
         <v>0</v>
       </c>
+      <c r="AD160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -16343,6 +16825,9 @@
       <c r="AC161">
         <v>0</v>
       </c>
+      <c r="AD161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -16442,6 +16927,9 @@
       <c r="AC162">
         <v>2</v>
       </c>
+      <c r="AD162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -16541,6 +17029,9 @@
       <c r="AC163">
         <v>0</v>
       </c>
+      <c r="AD163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -16640,6 +17131,9 @@
       <c r="AC164">
         <v>0</v>
       </c>
+      <c r="AD164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -16739,6 +17233,9 @@
       <c r="AC165">
         <v>1</v>
       </c>
+      <c r="AD165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -16838,6 +17335,9 @@
       <c r="AC166">
         <v>0</v>
       </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -16937,6 +17437,9 @@
       <c r="AC167">
         <v>1</v>
       </c>
+      <c r="AD167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17036,6 +17539,9 @@
       <c r="AC168">
         <v>5</v>
       </c>
+      <c r="AD168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17135,6 +17641,9 @@
       <c r="AC169">
         <v>2</v>
       </c>
+      <c r="AD169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17234,6 +17743,9 @@
       <c r="AC170">
         <v>1</v>
       </c>
+      <c r="AD170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17333,6 +17845,9 @@
       <c r="AC171">
         <v>3</v>
       </c>
+      <c r="AD171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -17432,6 +17947,9 @@
       <c r="AC172">
         <v>2</v>
       </c>
+      <c r="AD172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -17531,6 +18049,9 @@
       <c r="AC173">
         <v>13</v>
       </c>
+      <c r="AD173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -17630,6 +18151,9 @@
       <c r="AC174">
         <v>36</v>
       </c>
+      <c r="AD174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -17729,6 +18253,9 @@
       <c r="AC175">
         <v>1</v>
       </c>
+      <c r="AD175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -17828,6 +18355,9 @@
       <c r="AC176">
         <v>8</v>
       </c>
+      <c r="AD176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -17927,6 +18457,9 @@
       <c r="AC177">
         <v>2</v>
       </c>
+      <c r="AD177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18026,6 +18559,9 @@
       <c r="AC178">
         <v>6</v>
       </c>
+      <c r="AD178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -18125,6 +18661,9 @@
       <c r="AC179">
         <v>4</v>
       </c>
+      <c r="AD179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -18224,6 +18763,9 @@
       <c r="AC180">
         <v>10</v>
       </c>
+      <c r="AD180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -18323,6 +18865,9 @@
       <c r="AC181">
         <v>9</v>
       </c>
+      <c r="AD181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -18422,6 +18967,9 @@
       <c r="AC182">
         <v>2</v>
       </c>
+      <c r="AD182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -18521,6 +19069,9 @@
       <c r="AC183">
         <v>1</v>
       </c>
+      <c r="AD183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -18620,6 +19171,9 @@
       <c r="AC184">
         <v>0</v>
       </c>
+      <c r="AD184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -18719,6 +19273,9 @@
       <c r="AC185">
         <v>1</v>
       </c>
+      <c r="AD185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -18818,6 +19375,9 @@
       <c r="AC186">
         <v>9</v>
       </c>
+      <c r="AD186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -18917,6 +19477,9 @@
       <c r="AC187">
         <v>0</v>
       </c>
+      <c r="AD187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19016,6 +19579,9 @@
       <c r="AC188">
         <v>0</v>
       </c>
+      <c r="AD188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -19115,6 +19681,9 @@
       <c r="AC189">
         <v>0</v>
       </c>
+      <c r="AD189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -19214,6 +19783,9 @@
       <c r="AC190">
         <v>25</v>
       </c>
+      <c r="AD190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -19313,6 +19885,9 @@
       <c r="AC191">
         <v>18</v>
       </c>
+      <c r="AD191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -19412,6 +19987,9 @@
       <c r="AC192">
         <v>55</v>
       </c>
+      <c r="AD192">
+        <v>55</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -19511,6 +20089,9 @@
       <c r="AC193">
         <v>38</v>
       </c>
+      <c r="AD193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -19610,6 +20191,9 @@
       <c r="AC194">
         <v>34</v>
       </c>
+      <c r="AD194">
+        <v>35</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -19709,6 +20293,9 @@
       <c r="AC195">
         <v>9</v>
       </c>
+      <c r="AD195">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -19808,6 +20395,9 @@
       <c r="AC196">
         <v>39</v>
       </c>
+      <c r="AD196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -19907,6 +20497,9 @@
       <c r="AC197">
         <v>4</v>
       </c>
+      <c r="AD197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20006,6 +20599,9 @@
       <c r="AC198">
         <v>21</v>
       </c>
+      <c r="AD198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -20105,6 +20701,9 @@
       <c r="AC199">
         <v>2</v>
       </c>
+      <c r="AD199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -20204,6 +20803,9 @@
       <c r="AC200">
         <v>5</v>
       </c>
+      <c r="AD200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -20303,6 +20905,9 @@
       <c r="AC201">
         <v>2</v>
       </c>
+      <c r="AD201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -20402,6 +21007,9 @@
       <c r="AC202">
         <v>1</v>
       </c>
+      <c r="AD202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -20501,6 +21109,9 @@
       <c r="AC203">
         <v>2</v>
       </c>
+      <c r="AD203">
+        <v>3</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -20600,6 +21211,9 @@
       <c r="AC204">
         <v>0</v>
       </c>
+      <c r="AD204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -20699,6 +21313,9 @@
       <c r="AC205">
         <v>1</v>
       </c>
+      <c r="AD205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -20798,6 +21415,9 @@
       <c r="AC206">
         <v>0</v>
       </c>
+      <c r="AD206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -20897,6 +21517,9 @@
       <c r="AC207">
         <v>0</v>
       </c>
+      <c r="AD207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -20996,6 +21619,9 @@
       <c r="AC208">
         <v>0</v>
       </c>
+      <c r="AD208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -21095,6 +21721,9 @@
       <c r="AC209">
         <v>0</v>
       </c>
+      <c r="AD209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -21194,6 +21823,9 @@
       <c r="AC210">
         <v>0</v>
       </c>
+      <c r="AD210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -21293,6 +21925,9 @@
       <c r="AC211">
         <v>0</v>
       </c>
+      <c r="AD211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -21392,6 +22027,9 @@
       <c r="AC212">
         <v>2</v>
       </c>
+      <c r="AD212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -21491,6 +22129,9 @@
       <c r="AC213">
         <v>0</v>
       </c>
+      <c r="AD213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -21590,6 +22231,9 @@
       <c r="AC214">
         <v>1</v>
       </c>
+      <c r="AD214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -21689,6 +22333,9 @@
       <c r="AC215">
         <v>28</v>
       </c>
+      <c r="AD215">
+        <v>29</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -21788,6 +22435,9 @@
       <c r="AC216">
         <v>186</v>
       </c>
+      <c r="AD216">
+        <v>192</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -21887,6 +22537,9 @@
       <c r="AC217">
         <v>9</v>
       </c>
+      <c r="AD217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -21986,6 +22639,9 @@
       <c r="AC218">
         <v>11</v>
       </c>
+      <c r="AD218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -22085,6 +22741,9 @@
       <c r="AC219">
         <v>0</v>
       </c>
+      <c r="AD219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -22184,6 +22843,9 @@
       <c r="AC220">
         <v>2</v>
       </c>
+      <c r="AD220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -22283,6 +22945,9 @@
       <c r="AC221">
         <v>0</v>
       </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -22382,6 +23047,9 @@
       <c r="AC222">
         <v>1</v>
       </c>
+      <c r="AD222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -22481,6 +23149,9 @@
       <c r="AC223">
         <v>2</v>
       </c>
+      <c r="AD223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -22580,6 +23251,9 @@
       <c r="AC224">
         <v>7</v>
       </c>
+      <c r="AD224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -22679,6 +23353,9 @@
       <c r="AC225">
         <v>3</v>
       </c>
+      <c r="AD225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -22778,6 +23455,9 @@
       <c r="AC226">
         <v>1</v>
       </c>
+      <c r="AD226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -22877,6 +23557,9 @@
       <c r="AC227">
         <v>1</v>
       </c>
+      <c r="AD227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -22976,6 +23659,9 @@
       <c r="AC228">
         <v>2</v>
       </c>
+      <c r="AD228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -23075,6 +23761,9 @@
       <c r="AC229">
         <v>2</v>
       </c>
+      <c r="AD229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -23174,6 +23863,9 @@
       <c r="AC230">
         <v>0</v>
       </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -23273,6 +23965,9 @@
       <c r="AC231">
         <v>3</v>
       </c>
+      <c r="AD231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -23372,6 +24067,9 @@
       <c r="AC232">
         <v>11</v>
       </c>
+      <c r="AD232">
+        <v>12</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -23471,6 +24169,9 @@
       <c r="AC233">
         <v>0</v>
       </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -23570,6 +24271,9 @@
       <c r="AC234">
         <v>4</v>
       </c>
+      <c r="AD234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -23669,6 +24373,9 @@
       <c r="AC235">
         <v>1</v>
       </c>
+      <c r="AD235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -23768,6 +24475,9 @@
       <c r="AC236">
         <v>1</v>
       </c>
+      <c r="AD236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -23867,6 +24577,9 @@
       <c r="AC237">
         <v>1</v>
       </c>
+      <c r="AD237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -23966,6 +24679,9 @@
       <c r="AC238">
         <v>484</v>
       </c>
+      <c r="AD238">
+        <v>496</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -24065,6 +24781,9 @@
       <c r="AC239">
         <v>9</v>
       </c>
+      <c r="AD239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -24164,6 +24883,9 @@
       <c r="AC240">
         <v>4</v>
       </c>
+      <c r="AD240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -24263,6 +24985,9 @@
       <c r="AC241">
         <v>4</v>
       </c>
+      <c r="AD241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -24362,6 +25087,9 @@
       <c r="AC242">
         <v>4</v>
       </c>
+      <c r="AD242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -24461,6 +25189,9 @@
       <c r="AC243">
         <v>6</v>
       </c>
+      <c r="AD243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -24560,6 +25291,9 @@
       <c r="AC244">
         <v>8</v>
       </c>
+      <c r="AD244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -24659,6 +25393,9 @@
       <c r="AC245">
         <v>0</v>
       </c>
+      <c r="AD245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -24758,6 +25495,9 @@
       <c r="AC246">
         <v>4</v>
       </c>
+      <c r="AD246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -24857,6 +25597,9 @@
       <c r="AC247">
         <v>0</v>
       </c>
+      <c r="AD247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -24956,6 +25699,9 @@
       <c r="AC248">
         <v>0</v>
       </c>
+      <c r="AD248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -25055,6 +25801,9 @@
       <c r="AC249">
         <v>2</v>
       </c>
+      <c r="AD249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -25154,6 +25903,9 @@
       <c r="AC250">
         <v>24</v>
       </c>
+      <c r="AD250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -25253,6 +26005,9 @@
       <c r="AC251">
         <v>9</v>
       </c>
+      <c r="AD251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -25352,6 +26107,9 @@
       <c r="AC252">
         <v>0</v>
       </c>
+      <c r="AD252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -25451,6 +26209,9 @@
       <c r="AC253">
         <v>17</v>
       </c>
+      <c r="AD253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -25550,6 +26311,9 @@
       <c r="AC254">
         <v>5</v>
       </c>
+      <c r="AD254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -25649,6 +26413,9 @@
       <c r="AC255">
         <v>50</v>
       </c>
+      <c r="AD255">
+        <v>50</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -25748,6 +26515,9 @@
       <c r="AC256">
         <v>34</v>
       </c>
+      <c r="AD256">
+        <v>34</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -25847,6 +26617,9 @@
       <c r="AC257">
         <v>1</v>
       </c>
+      <c r="AD257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -25946,6 +26719,9 @@
       <c r="AC258">
         <v>0</v>
       </c>
+      <c r="AD258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -26045,6 +26821,9 @@
       <c r="AC259">
         <v>28</v>
       </c>
+      <c r="AD259">
+        <v>35</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -26144,6 +26923,9 @@
       <c r="AC260">
         <v>22</v>
       </c>
+      <c r="AD260">
+        <v>23</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -26243,6 +27025,9 @@
       <c r="AC261">
         <v>0</v>
       </c>
+      <c r="AD261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -26342,6 +27127,9 @@
       <c r="AC262">
         <v>0</v>
       </c>
+      <c r="AD262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -26441,6 +27229,9 @@
       <c r="AC263">
         <v>0</v>
       </c>
+      <c r="AD263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -26540,6 +27331,9 @@
       <c r="AC264">
         <v>1</v>
       </c>
+      <c r="AD264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -26639,6 +27433,9 @@
       <c r="AC265">
         <v>3</v>
       </c>
+      <c r="AD265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -26738,6 +27535,9 @@
       <c r="AC266">
         <v>0</v>
       </c>
+      <c r="AD266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -26837,6 +27637,9 @@
       <c r="AC267">
         <v>3</v>
       </c>
+      <c r="AD267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -26936,6 +27739,9 @@
       <c r="AC268">
         <v>0</v>
       </c>
+      <c r="AD268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -27035,6 +27841,9 @@
       <c r="AC269">
         <v>7</v>
       </c>
+      <c r="AD269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -27134,6 +27943,9 @@
       <c r="AC270">
         <v>0</v>
       </c>
+      <c r="AD270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -27233,6 +28045,9 @@
       <c r="AC271">
         <v>0</v>
       </c>
+      <c r="AD271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -27332,6 +28147,9 @@
       <c r="AC272">
         <v>1</v>
       </c>
+      <c r="AD272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -27431,6 +28249,9 @@
       <c r="AC273">
         <v>4</v>
       </c>
+      <c r="AD273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -27530,6 +28351,9 @@
       <c r="AC274">
         <v>0</v>
       </c>
+      <c r="AD274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -27629,6 +28453,9 @@
       <c r="AC275">
         <v>0</v>
       </c>
+      <c r="AD275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -27728,6 +28555,9 @@
       <c r="AC276">
         <v>17</v>
       </c>
+      <c r="AD276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -27827,6 +28657,9 @@
       <c r="AC277">
         <v>0</v>
       </c>
+      <c r="AD277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -27926,6 +28759,9 @@
       <c r="AC278">
         <v>0</v>
       </c>
+      <c r="AD278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -28025,6 +28861,9 @@
       <c r="AC279">
         <v>4</v>
       </c>
+      <c r="AD279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -28124,6 +28963,9 @@
       <c r="AC280">
         <v>12</v>
       </c>
+      <c r="AD280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -28223,6 +29065,9 @@
       <c r="AC281">
         <v>220</v>
       </c>
+      <c r="AD281">
+        <v>224</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -28322,6 +29167,9 @@
       <c r="AC282">
         <v>16</v>
       </c>
+      <c r="AD282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -28421,6 +29269,9 @@
       <c r="AC283">
         <v>5</v>
       </c>
+      <c r="AD283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -28520,6 +29371,9 @@
       <c r="AC284">
         <v>0</v>
       </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -28619,6 +29473,9 @@
       <c r="AC285">
         <v>0</v>
       </c>
+      <c r="AD285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -28718,6 +29575,9 @@
       <c r="AC286">
         <v>8</v>
       </c>
+      <c r="AD286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -28817,6 +29677,9 @@
       <c r="AC287">
         <v>5</v>
       </c>
+      <c r="AD287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -28916,6 +29779,9 @@
       <c r="AC288">
         <v>0</v>
       </c>
+      <c r="AD288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -29015,6 +29881,9 @@
       <c r="AC289">
         <v>1</v>
       </c>
+      <c r="AD289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -29114,6 +29983,9 @@
       <c r="AC290">
         <v>7</v>
       </c>
+      <c r="AD290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -29213,6 +30085,9 @@
       <c r="AC291">
         <v>3</v>
       </c>
+      <c r="AD291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -29312,6 +30187,9 @@
       <c r="AC292">
         <v>5</v>
       </c>
+      <c r="AD292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -29411,6 +30289,9 @@
       <c r="AC293">
         <v>11</v>
       </c>
+      <c r="AD293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -29510,6 +30391,9 @@
       <c r="AC294">
         <v>6</v>
       </c>
+      <c r="AD294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -29609,6 +30493,9 @@
       <c r="AC295">
         <v>0</v>
       </c>
+      <c r="AD295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -29708,6 +30595,9 @@
       <c r="AC296">
         <v>1</v>
       </c>
+      <c r="AD296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -29807,6 +30697,9 @@
       <c r="AC297">
         <v>8</v>
       </c>
+      <c r="AD297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -29906,6 +30799,9 @@
       <c r="AC298">
         <v>28</v>
       </c>
+      <c r="AD298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -30005,6 +30901,9 @@
       <c r="AC299">
         <v>21</v>
       </c>
+      <c r="AD299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -30104,6 +31003,9 @@
       <c r="AC300">
         <v>15</v>
       </c>
+      <c r="AD300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -30203,6 +31105,9 @@
       <c r="AC301">
         <v>0</v>
       </c>
+      <c r="AD301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -30302,6 +31207,9 @@
       <c r="AC302">
         <v>0</v>
       </c>
+      <c r="AD302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -30401,6 +31309,9 @@
       <c r="AC303">
         <v>0</v>
       </c>
+      <c r="AD303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -30500,6 +31411,9 @@
       <c r="AC304">
         <v>0</v>
       </c>
+      <c r="AD304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -30599,6 +31513,9 @@
       <c r="AC305">
         <v>3</v>
       </c>
+      <c r="AD305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -30698,6 +31615,9 @@
       <c r="AC306">
         <v>1</v>
       </c>
+      <c r="AD306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -30797,6 +31717,9 @@
       <c r="AC307">
         <v>4</v>
       </c>
+      <c r="AD307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -30896,6 +31819,9 @@
       <c r="AC308">
         <v>0</v>
       </c>
+      <c r="AD308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -30995,6 +31921,9 @@
       <c r="AC309">
         <v>0</v>
       </c>
+      <c r="AD309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -31094,6 +32023,9 @@
       <c r="AC310">
         <v>7</v>
       </c>
+      <c r="AD310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -31193,6 +32125,9 @@
       <c r="AC311">
         <v>2</v>
       </c>
+      <c r="AD311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -31292,6 +32227,9 @@
       <c r="AC312">
         <v>2</v>
       </c>
+      <c r="AD312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -31391,6 +32329,9 @@
       <c r="AC313">
         <v>2</v>
       </c>
+      <c r="AD313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -31490,6 +32431,9 @@
       <c r="AC314">
         <v>10</v>
       </c>
+      <c r="AD314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -31589,6 +32533,9 @@
       <c r="AC315">
         <v>1</v>
       </c>
+      <c r="AD315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -31688,6 +32635,9 @@
       <c r="AC316">
         <v>17</v>
       </c>
+      <c r="AD316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -31787,6 +32737,9 @@
       <c r="AC317">
         <v>0</v>
       </c>
+      <c r="AD317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -31886,6 +32839,9 @@
       <c r="AC318">
         <v>0</v>
       </c>
+      <c r="AD318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -31985,6 +32941,9 @@
       <c r="AC319">
         <v>129</v>
       </c>
+      <c r="AD319">
+        <v>132</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -32084,6 +33043,9 @@
       <c r="AC320">
         <v>5</v>
       </c>
+      <c r="AD320">
+        <v>5</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -32183,6 +33145,9 @@
       <c r="AC321">
         <v>5</v>
       </c>
+      <c r="AD321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -32282,6 +33247,9 @@
       <c r="AC322">
         <v>1</v>
       </c>
+      <c r="AD322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -32381,6 +33349,9 @@
       <c r="AC323">
         <v>3</v>
       </c>
+      <c r="AD323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -32480,6 +33451,9 @@
       <c r="AC324">
         <v>15</v>
       </c>
+      <c r="AD324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -32579,6 +33553,9 @@
       <c r="AC325">
         <v>1</v>
       </c>
+      <c r="AD325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -32678,6 +33655,9 @@
       <c r="AC326">
         <v>1</v>
       </c>
+      <c r="AD326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -32777,6 +33757,9 @@
       <c r="AC327">
         <v>0</v>
       </c>
+      <c r="AD327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -32876,6 +33859,9 @@
       <c r="AC328">
         <v>0</v>
       </c>
+      <c r="AD328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -32975,6 +33961,9 @@
       <c r="AC329">
         <v>3</v>
       </c>
+      <c r="AD329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -33074,6 +34063,9 @@
       <c r="AC330">
         <v>1</v>
       </c>
+      <c r="AD330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -33173,6 +34165,9 @@
       <c r="AC331">
         <v>2</v>
       </c>
+      <c r="AD331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -33272,6 +34267,9 @@
       <c r="AC332">
         <v>0</v>
       </c>
+      <c r="AD332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -33371,6 +34369,9 @@
       <c r="AC333">
         <v>0</v>
       </c>
+      <c r="AD333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -33470,6 +34471,9 @@
       <c r="AC334">
         <v>0</v>
       </c>
+      <c r="AD334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -33569,6 +34573,9 @@
       <c r="AC335">
         <v>16</v>
       </c>
+      <c r="AD335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -33668,6 +34675,9 @@
       <c r="AC336">
         <v>2</v>
       </c>
+      <c r="AD336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -33767,6 +34777,9 @@
       <c r="AC337">
         <v>1</v>
       </c>
+      <c r="AD337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -33866,6 +34879,9 @@
       <c r="AC338">
         <v>2</v>
       </c>
+      <c r="AD338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -33965,6 +34981,9 @@
       <c r="AC339">
         <v>0</v>
       </c>
+      <c r="AD339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -34064,6 +35083,9 @@
       <c r="AC340">
         <v>0</v>
       </c>
+      <c r="AD340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -34163,6 +35185,9 @@
       <c r="AC341">
         <v>1</v>
       </c>
+      <c r="AD341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -34262,6 +35287,9 @@
       <c r="AC342">
         <v>2</v>
       </c>
+      <c r="AD342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -34361,6 +35389,9 @@
       <c r="AC343">
         <v>0</v>
       </c>
+      <c r="AD343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -34460,6 +35491,9 @@
       <c r="AC344">
         <v>1</v>
       </c>
+      <c r="AD344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -34559,6 +35593,9 @@
       <c r="AC345">
         <v>0</v>
       </c>
+      <c r="AD345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -34658,6 +35695,9 @@
       <c r="AC346">
         <v>0</v>
       </c>
+      <c r="AD346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -34757,6 +35797,9 @@
       <c r="AC347">
         <v>3</v>
       </c>
+      <c r="AD347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -34856,6 +35899,9 @@
       <c r="AC348">
         <v>2</v>
       </c>
+      <c r="AD348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -34955,6 +36001,9 @@
       <c r="AC349">
         <v>4</v>
       </c>
+      <c r="AD349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -35054,6 +36103,9 @@
       <c r="AC350">
         <v>1</v>
       </c>
+      <c r="AD350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -35153,6 +36205,9 @@
       <c r="AC351">
         <v>0</v>
       </c>
+      <c r="AD351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -35252,6 +36307,9 @@
       <c r="AC352">
         <v>0</v>
       </c>
+      <c r="AD352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -35351,6 +36409,9 @@
       <c r="AC353">
         <v>0</v>
       </c>
+      <c r="AD353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -35450,6 +36511,9 @@
       <c r="AC354">
         <v>1</v>
       </c>
+      <c r="AD354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -35549,6 +36613,9 @@
       <c r="AC355">
         <v>1</v>
       </c>
+      <c r="AD355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -35648,6 +36715,9 @@
       <c r="AC356">
         <v>0</v>
       </c>
+      <c r="AD356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -35747,6 +36817,9 @@
       <c r="AC357">
         <v>4</v>
       </c>
+      <c r="AD357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -35846,6 +36919,9 @@
       <c r="AC358">
         <v>0</v>
       </c>
+      <c r="AD358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -35944,6 +37020,9 @@
       </c>
       <c r="AC359">
         <v>0</v>
+      </c>
+      <c r="AD359">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD359"/>
+  <dimension ref="A1:AE359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,6 +508,11 @@
           <t>2020-04-18</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -610,6 +615,9 @@
       <c r="AD2">
         <v>2095</v>
       </c>
+      <c r="AE2">
+        <v>2132</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -712,6 +720,9 @@
       <c r="AD3">
         <v>14</v>
       </c>
+      <c r="AE3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -814,6 +825,9 @@
       <c r="AD4">
         <v>129</v>
       </c>
+      <c r="AE4">
+        <v>129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -916,6 +930,9 @@
       <c r="AD5">
         <v>50</v>
       </c>
+      <c r="AE5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1018,6 +1035,9 @@
       <c r="AD6">
         <v>46</v>
       </c>
+      <c r="AE6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1120,6 +1140,9 @@
       <c r="AD7">
         <v>5</v>
       </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1222,6 +1245,9 @@
       <c r="AD8">
         <v>1</v>
       </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1324,6 +1350,9 @@
       <c r="AD9">
         <v>0</v>
       </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1426,6 +1455,9 @@
       <c r="AD10">
         <v>6</v>
       </c>
+      <c r="AE10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1528,6 +1560,9 @@
       <c r="AD11">
         <v>6</v>
       </c>
+      <c r="AE11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1630,6 +1665,9 @@
       <c r="AD12">
         <v>12</v>
       </c>
+      <c r="AE12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1732,6 +1770,9 @@
       <c r="AD13">
         <v>13</v>
       </c>
+      <c r="AE13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1834,6 +1875,9 @@
       <c r="AD14">
         <v>14</v>
       </c>
+      <c r="AE14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1936,6 +1980,9 @@
       <c r="AD15">
         <v>11</v>
       </c>
+      <c r="AE15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2038,6 +2085,9 @@
       <c r="AD16">
         <v>13</v>
       </c>
+      <c r="AE16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2140,6 +2190,9 @@
       <c r="AD17">
         <v>0</v>
       </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2242,6 +2295,9 @@
       <c r="AD18">
         <v>0</v>
       </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2344,6 +2400,9 @@
       <c r="AD19">
         <v>3</v>
       </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2446,6 +2505,9 @@
       <c r="AD20">
         <v>0</v>
       </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2548,6 +2610,9 @@
       <c r="AD21">
         <v>1</v>
       </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2650,6 +2715,9 @@
       <c r="AD22">
         <v>20</v>
       </c>
+      <c r="AE22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2752,6 +2820,9 @@
       <c r="AD23">
         <v>36</v>
       </c>
+      <c r="AE23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2854,6 +2925,9 @@
       <c r="AD24">
         <v>0</v>
       </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2956,6 +3030,9 @@
       <c r="AD25">
         <v>11</v>
       </c>
+      <c r="AE25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3058,6 +3135,9 @@
       <c r="AD26">
         <v>18</v>
       </c>
+      <c r="AE26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3160,6 +3240,9 @@
       <c r="AD27">
         <v>14</v>
       </c>
+      <c r="AE27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3262,6 +3345,9 @@
       <c r="AD28">
         <v>26</v>
       </c>
+      <c r="AE28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3364,6 +3450,9 @@
       <c r="AD29">
         <v>1</v>
       </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3466,6 +3555,9 @@
       <c r="AD30">
         <v>3</v>
       </c>
+      <c r="AE30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3568,6 +3660,9 @@
       <c r="AD31">
         <v>3</v>
       </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3670,6 +3765,9 @@
       <c r="AD32">
         <v>7</v>
       </c>
+      <c r="AE32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3772,6 +3870,9 @@
       <c r="AD33">
         <v>2</v>
       </c>
+      <c r="AE33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3874,6 +3975,9 @@
       <c r="AD34">
         <v>6</v>
       </c>
+      <c r="AE34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3976,6 +4080,9 @@
       <c r="AD35">
         <v>0</v>
       </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4078,6 +4185,9 @@
       <c r="AD36">
         <v>1</v>
       </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4180,6 +4290,9 @@
       <c r="AD37">
         <v>6</v>
       </c>
+      <c r="AE37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4282,6 +4395,9 @@
       <c r="AD38">
         <v>5</v>
       </c>
+      <c r="AE38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4384,6 +4500,9 @@
       <c r="AD39">
         <v>0</v>
       </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4486,6 +4605,9 @@
       <c r="AD40">
         <v>10</v>
       </c>
+      <c r="AE40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4588,6 +4710,9 @@
       <c r="AD41">
         <v>0</v>
       </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4690,6 +4815,9 @@
       <c r="AD42">
         <v>0</v>
       </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4792,6 +4920,9 @@
       <c r="AD43">
         <v>0</v>
       </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4894,6 +5025,9 @@
       <c r="AD44">
         <v>1</v>
       </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4996,6 +5130,9 @@
       <c r="AD45">
         <v>2</v>
       </c>
+      <c r="AE45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5098,6 +5235,9 @@
       <c r="AD46">
         <v>2</v>
       </c>
+      <c r="AE46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5200,6 +5340,9 @@
       <c r="AD47">
         <v>0</v>
       </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5302,6 +5445,9 @@
       <c r="AD48">
         <v>3</v>
       </c>
+      <c r="AE48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5404,6 +5550,9 @@
       <c r="AD49">
         <v>4</v>
       </c>
+      <c r="AE49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5506,6 +5655,9 @@
       <c r="AD50">
         <v>1</v>
       </c>
+      <c r="AE50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5608,6 +5760,9 @@
       <c r="AD51">
         <v>3</v>
       </c>
+      <c r="AE51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5710,6 +5865,9 @@
       <c r="AD52">
         <v>37</v>
       </c>
+      <c r="AE52">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5812,6 +5970,9 @@
       <c r="AD53">
         <v>5</v>
       </c>
+      <c r="AE53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5914,6 +6075,9 @@
       <c r="AD54">
         <v>0</v>
       </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6016,6 +6180,9 @@
       <c r="AD55">
         <v>2</v>
       </c>
+      <c r="AE55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6118,6 +6285,9 @@
       <c r="AD56">
         <v>5</v>
       </c>
+      <c r="AE56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6220,6 +6390,9 @@
       <c r="AD57">
         <v>3</v>
       </c>
+      <c r="AE57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6322,6 +6495,9 @@
       <c r="AD58">
         <v>0</v>
       </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6424,6 +6600,9 @@
       <c r="AD59">
         <v>0</v>
       </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6526,6 +6705,9 @@
       <c r="AD60">
         <v>2</v>
       </c>
+      <c r="AE60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6628,6 +6810,9 @@
       <c r="AD61">
         <v>3</v>
       </c>
+      <c r="AE61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6730,6 +6915,9 @@
       <c r="AD62">
         <v>1</v>
       </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6832,6 +7020,9 @@
       <c r="AD63">
         <v>1</v>
       </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6934,6 +7125,9 @@
       <c r="AD64">
         <v>0</v>
       </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7036,6 +7230,9 @@
       <c r="AD65">
         <v>5</v>
       </c>
+      <c r="AE65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7138,6 +7335,9 @@
       <c r="AD66">
         <v>0</v>
       </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7240,6 +7440,9 @@
       <c r="AD67">
         <v>0</v>
       </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7342,6 +7545,9 @@
       <c r="AD68">
         <v>4</v>
       </c>
+      <c r="AE68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7444,6 +7650,9 @@
       <c r="AD69">
         <v>0</v>
       </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7546,6 +7755,9 @@
       <c r="AD70">
         <v>0</v>
       </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7648,6 +7860,9 @@
       <c r="AD71">
         <v>0</v>
       </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7750,6 +7965,9 @@
       <c r="AD72">
         <v>5</v>
       </c>
+      <c r="AE72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7852,6 +8070,9 @@
       <c r="AD73">
         <v>0</v>
       </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7954,6 +8175,9 @@
       <c r="AD74">
         <v>0</v>
       </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8056,6 +8280,9 @@
       <c r="AD75">
         <v>0</v>
       </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8158,6 +8385,9 @@
       <c r="AD76">
         <v>1</v>
       </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8260,6 +8490,9 @@
       <c r="AD77">
         <v>0</v>
       </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8362,6 +8595,9 @@
       <c r="AD78">
         <v>1</v>
       </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8464,6 +8700,9 @@
       <c r="AD79">
         <v>0</v>
       </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8566,6 +8805,9 @@
       <c r="AD80">
         <v>0</v>
       </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8668,6 +8910,9 @@
       <c r="AD81">
         <v>0</v>
       </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8770,6 +9015,9 @@
       <c r="AD82">
         <v>0</v>
       </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8872,6 +9120,9 @@
       <c r="AD83">
         <v>5</v>
       </c>
+      <c r="AE83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8974,6 +9225,9 @@
       <c r="AD84">
         <v>13</v>
       </c>
+      <c r="AE84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9076,6 +9330,9 @@
       <c r="AD85">
         <v>3</v>
       </c>
+      <c r="AE85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9178,6 +9435,9 @@
       <c r="AD86">
         <v>5</v>
       </c>
+      <c r="AE86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9280,6 +9540,9 @@
       <c r="AD87">
         <v>0</v>
       </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9382,6 +9645,9 @@
       <c r="AD88">
         <v>0</v>
       </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9484,6 +9750,9 @@
       <c r="AD89">
         <v>6</v>
       </c>
+      <c r="AE89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9586,6 +9855,9 @@
       <c r="AD90">
         <v>0</v>
       </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9688,6 +9960,9 @@
       <c r="AD91">
         <v>1</v>
       </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9790,6 +10065,9 @@
       <c r="AD92">
         <v>0</v>
       </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9892,6 +10170,9 @@
       <c r="AD93">
         <v>32</v>
       </c>
+      <c r="AE93">
+        <v>32</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9994,6 +10275,9 @@
       <c r="AD94">
         <v>92</v>
       </c>
+      <c r="AE94">
+        <v>93</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10096,6 +10380,9 @@
       <c r="AD95">
         <v>54</v>
       </c>
+      <c r="AE95">
+        <v>54</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10198,6 +10485,9 @@
       <c r="AD96">
         <v>83</v>
       </c>
+      <c r="AE96">
+        <v>84</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10300,6 +10590,9 @@
       <c r="AD97">
         <v>161</v>
       </c>
+      <c r="AE97">
+        <v>165</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10402,6 +10695,9 @@
       <c r="AD98">
         <v>21</v>
       </c>
+      <c r="AE98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10504,6 +10800,9 @@
       <c r="AD99">
         <v>9</v>
       </c>
+      <c r="AE99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10606,6 +10905,9 @@
       <c r="AD100">
         <v>2</v>
       </c>
+      <c r="AE100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10708,6 +11010,9 @@
       <c r="AD101">
         <v>2</v>
       </c>
+      <c r="AE101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10810,6 +11115,9 @@
       <c r="AD102">
         <v>3</v>
       </c>
+      <c r="AE102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10912,6 +11220,9 @@
       <c r="AD103">
         <v>46</v>
       </c>
+      <c r="AE103">
+        <v>47</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11014,6 +11325,9 @@
       <c r="AD104">
         <v>2</v>
       </c>
+      <c r="AE104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11116,6 +11430,9 @@
       <c r="AD105">
         <v>1</v>
       </c>
+      <c r="AE105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11218,6 +11535,9 @@
       <c r="AD106">
         <v>2</v>
       </c>
+      <c r="AE106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11320,6 +11640,9 @@
       <c r="AD107">
         <v>6</v>
       </c>
+      <c r="AE107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11422,6 +11745,9 @@
       <c r="AD108">
         <v>22</v>
       </c>
+      <c r="AE108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11524,6 +11850,9 @@
       <c r="AD109">
         <v>92</v>
       </c>
+      <c r="AE109">
+        <v>93</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11626,6 +11955,9 @@
       <c r="AD110">
         <v>17</v>
       </c>
+      <c r="AE110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11728,6 +12060,9 @@
       <c r="AD111">
         <v>19</v>
       </c>
+      <c r="AE111">
+        <v>20</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11830,6 +12165,9 @@
       <c r="AD112">
         <v>45</v>
       </c>
+      <c r="AE112">
+        <v>45</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11932,6 +12270,9 @@
       <c r="AD113">
         <v>395</v>
       </c>
+      <c r="AE113">
+        <v>401</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12034,6 +12375,9 @@
       <c r="AD114">
         <v>161</v>
       </c>
+      <c r="AE114">
+        <v>161</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12136,6 +12480,9 @@
       <c r="AD115">
         <v>8</v>
       </c>
+      <c r="AE115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12238,6 +12585,9 @@
       <c r="AD116">
         <v>21</v>
       </c>
+      <c r="AE116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12340,6 +12690,9 @@
       <c r="AD117">
         <v>46</v>
       </c>
+      <c r="AE117">
+        <v>46</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12442,6 +12795,9 @@
       <c r="AD118">
         <v>78</v>
       </c>
+      <c r="AE118">
+        <v>79</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12544,6 +12900,9 @@
       <c r="AD119">
         <v>140</v>
       </c>
+      <c r="AE119">
+        <v>140</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12646,6 +13005,9 @@
       <c r="AD120">
         <v>45</v>
       </c>
+      <c r="AE120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12748,6 +13110,9 @@
       <c r="AD121">
         <v>8</v>
       </c>
+      <c r="AE121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12850,6 +13215,9 @@
       <c r="AD122">
         <v>54</v>
       </c>
+      <c r="AE122">
+        <v>56</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12952,6 +13320,9 @@
       <c r="AD123">
         <v>14</v>
       </c>
+      <c r="AE123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13054,6 +13425,9 @@
       <c r="AD124">
         <v>32</v>
       </c>
+      <c r="AE124">
+        <v>35</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13156,6 +13530,9 @@
       <c r="AD125">
         <v>17</v>
       </c>
+      <c r="AE125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13258,6 +13635,9 @@
       <c r="AD126">
         <v>2</v>
       </c>
+      <c r="AE126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13360,6 +13740,9 @@
       <c r="AD127">
         <v>10</v>
       </c>
+      <c r="AE127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13462,6 +13845,9 @@
       <c r="AD128">
         <v>1</v>
       </c>
+      <c r="AE128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13564,6 +13950,9 @@
       <c r="AD129">
         <v>7</v>
       </c>
+      <c r="AE129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13666,6 +14055,9 @@
       <c r="AD130">
         <v>10</v>
       </c>
+      <c r="AE130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13768,6 +14160,9 @@
       <c r="AD131">
         <v>8</v>
       </c>
+      <c r="AE131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13870,6 +14265,9 @@
       <c r="AD132">
         <v>13</v>
       </c>
+      <c r="AE132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13972,6 +14370,9 @@
       <c r="AD133">
         <v>44</v>
       </c>
+      <c r="AE133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14074,6 +14475,9 @@
       <c r="AD134">
         <v>0</v>
       </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14176,6 +14580,9 @@
       <c r="AD135">
         <v>0</v>
       </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14278,6 +14685,9 @@
       <c r="AD136">
         <v>10</v>
       </c>
+      <c r="AE136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14380,6 +14790,9 @@
       <c r="AD137">
         <v>5</v>
       </c>
+      <c r="AE137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14482,6 +14895,9 @@
       <c r="AD138">
         <v>35</v>
       </c>
+      <c r="AE138">
+        <v>35</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14584,6 +15000,9 @@
       <c r="AD139">
         <v>4</v>
       </c>
+      <c r="AE139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14686,6 +15105,9 @@
       <c r="AD140">
         <v>1</v>
       </c>
+      <c r="AE140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -14788,6 +15210,9 @@
       <c r="AD141">
         <v>2</v>
       </c>
+      <c r="AE141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14890,6 +15315,9 @@
       <c r="AD142">
         <v>6</v>
       </c>
+      <c r="AE142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14992,6 +15420,9 @@
       <c r="AD143">
         <v>11</v>
       </c>
+      <c r="AE143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15094,6 +15525,9 @@
       <c r="AD144">
         <v>1</v>
       </c>
+      <c r="AE144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15196,6 +15630,9 @@
       <c r="AD145">
         <v>81</v>
       </c>
+      <c r="AE145">
+        <v>81</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15298,6 +15735,9 @@
       <c r="AD146">
         <v>34</v>
       </c>
+      <c r="AE146">
+        <v>35</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15400,6 +15840,9 @@
       <c r="AD147">
         <v>18</v>
       </c>
+      <c r="AE147">
+        <v>19</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15502,6 +15945,9 @@
       <c r="AD148">
         <v>58</v>
       </c>
+      <c r="AE148">
+        <v>59</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15604,6 +16050,9 @@
       <c r="AD149">
         <v>11</v>
       </c>
+      <c r="AE149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15706,6 +16155,9 @@
       <c r="AD150">
         <v>33</v>
       </c>
+      <c r="AE150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -15808,6 +16260,9 @@
       <c r="AD151">
         <v>0</v>
       </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15910,6 +16365,9 @@
       <c r="AD152">
         <v>18</v>
       </c>
+      <c r="AE152">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16012,6 +16470,9 @@
       <c r="AD153">
         <v>4</v>
       </c>
+      <c r="AE153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16114,6 +16575,9 @@
       <c r="AD154">
         <v>5</v>
       </c>
+      <c r="AE154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16216,6 +16680,9 @@
       <c r="AD155">
         <v>3</v>
       </c>
+      <c r="AE155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16318,6 +16785,9 @@
       <c r="AD156">
         <v>3</v>
       </c>
+      <c r="AE156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16420,6 +16890,9 @@
       <c r="AD157">
         <v>13</v>
       </c>
+      <c r="AE157">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16522,6 +16995,9 @@
       <c r="AD158">
         <v>2</v>
       </c>
+      <c r="AE158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16624,6 +17100,9 @@
       <c r="AD159">
         <v>4</v>
       </c>
+      <c r="AE159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16726,6 +17205,9 @@
       <c r="AD160">
         <v>0</v>
       </c>
+      <c r="AE160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -16828,6 +17310,9 @@
       <c r="AD161">
         <v>0</v>
       </c>
+      <c r="AE161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -16930,6 +17415,9 @@
       <c r="AD162">
         <v>2</v>
       </c>
+      <c r="AE162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17032,6 +17520,9 @@
       <c r="AD163">
         <v>0</v>
       </c>
+      <c r="AE163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17134,6 +17625,9 @@
       <c r="AD164">
         <v>0</v>
       </c>
+      <c r="AE164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17236,6 +17730,9 @@
       <c r="AD165">
         <v>1</v>
       </c>
+      <c r="AE165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17338,6 +17835,9 @@
       <c r="AD166">
         <v>0</v>
       </c>
+      <c r="AE166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17440,6 +17940,9 @@
       <c r="AD167">
         <v>1</v>
       </c>
+      <c r="AE167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17542,6 +18045,9 @@
       <c r="AD168">
         <v>5</v>
       </c>
+      <c r="AE168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17644,6 +18150,9 @@
       <c r="AD169">
         <v>2</v>
       </c>
+      <c r="AE169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17746,6 +18255,9 @@
       <c r="AD170">
         <v>1</v>
       </c>
+      <c r="AE170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17848,6 +18360,9 @@
       <c r="AD171">
         <v>3</v>
       </c>
+      <c r="AE171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -17950,6 +18465,9 @@
       <c r="AD172">
         <v>2</v>
       </c>
+      <c r="AE172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18052,6 +18570,9 @@
       <c r="AD173">
         <v>13</v>
       </c>
+      <c r="AE173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18154,6 +18675,9 @@
       <c r="AD174">
         <v>36</v>
       </c>
+      <c r="AE174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18256,6 +18780,9 @@
       <c r="AD175">
         <v>1</v>
       </c>
+      <c r="AE175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18358,6 +18885,9 @@
       <c r="AD176">
         <v>8</v>
       </c>
+      <c r="AE176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18460,6 +18990,9 @@
       <c r="AD177">
         <v>2</v>
       </c>
+      <c r="AE177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18562,6 +19095,9 @@
       <c r="AD178">
         <v>6</v>
       </c>
+      <c r="AE178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -18664,6 +19200,9 @@
       <c r="AD179">
         <v>4</v>
       </c>
+      <c r="AE179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -18766,6 +19305,9 @@
       <c r="AD180">
         <v>12</v>
       </c>
+      <c r="AE180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -18868,6 +19410,9 @@
       <c r="AD181">
         <v>9</v>
       </c>
+      <c r="AE181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -18970,6 +19515,9 @@
       <c r="AD182">
         <v>2</v>
       </c>
+      <c r="AE182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -19072,6 +19620,9 @@
       <c r="AD183">
         <v>1</v>
       </c>
+      <c r="AE183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19174,6 +19725,9 @@
       <c r="AD184">
         <v>0</v>
       </c>
+      <c r="AE184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19276,6 +19830,9 @@
       <c r="AD185">
         <v>1</v>
       </c>
+      <c r="AE185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19378,6 +19935,9 @@
       <c r="AD186">
         <v>9</v>
       </c>
+      <c r="AE186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -19480,6 +20040,9 @@
       <c r="AD187">
         <v>0</v>
       </c>
+      <c r="AE187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19582,6 +20145,9 @@
       <c r="AD188">
         <v>0</v>
       </c>
+      <c r="AE188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -19684,6 +20250,9 @@
       <c r="AD189">
         <v>0</v>
       </c>
+      <c r="AE189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -19786,6 +20355,9 @@
       <c r="AD190">
         <v>25</v>
       </c>
+      <c r="AE190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -19888,6 +20460,9 @@
       <c r="AD191">
         <v>18</v>
       </c>
+      <c r="AE191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -19990,6 +20565,9 @@
       <c r="AD192">
         <v>55</v>
       </c>
+      <c r="AE192">
+        <v>55</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -20092,6 +20670,9 @@
       <c r="AD193">
         <v>38</v>
       </c>
+      <c r="AE193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20194,6 +20775,9 @@
       <c r="AD194">
         <v>35</v>
       </c>
+      <c r="AE194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20296,6 +20880,9 @@
       <c r="AD195">
         <v>9</v>
       </c>
+      <c r="AE195">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20398,6 +20985,9 @@
       <c r="AD196">
         <v>39</v>
       </c>
+      <c r="AE196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -20500,6 +21090,9 @@
       <c r="AD197">
         <v>4</v>
       </c>
+      <c r="AE197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20602,6 +21195,9 @@
       <c r="AD198">
         <v>21</v>
       </c>
+      <c r="AE198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -20704,6 +21300,9 @@
       <c r="AD199">
         <v>2</v>
       </c>
+      <c r="AE199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -20806,6 +21405,9 @@
       <c r="AD200">
         <v>5</v>
       </c>
+      <c r="AE200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -20908,6 +21510,9 @@
       <c r="AD201">
         <v>2</v>
       </c>
+      <c r="AE201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -21010,6 +21615,9 @@
       <c r="AD202">
         <v>1</v>
       </c>
+      <c r="AE202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -21112,6 +21720,9 @@
       <c r="AD203">
         <v>3</v>
       </c>
+      <c r="AE203">
+        <v>3</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21214,6 +21825,9 @@
       <c r="AD204">
         <v>0</v>
       </c>
+      <c r="AE204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21316,6 +21930,9 @@
       <c r="AD205">
         <v>1</v>
       </c>
+      <c r="AE205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -21418,6 +22035,9 @@
       <c r="AD206">
         <v>0</v>
       </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -21520,6 +22140,9 @@
       <c r="AD207">
         <v>0</v>
       </c>
+      <c r="AE207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -21622,6 +22245,9 @@
       <c r="AD208">
         <v>0</v>
       </c>
+      <c r="AE208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -21724,6 +22350,9 @@
       <c r="AD209">
         <v>0</v>
       </c>
+      <c r="AE209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -21826,6 +22455,9 @@
       <c r="AD210">
         <v>0</v>
       </c>
+      <c r="AE210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -21928,6 +22560,9 @@
       <c r="AD211">
         <v>0</v>
       </c>
+      <c r="AE211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -22030,6 +22665,9 @@
       <c r="AD212">
         <v>2</v>
       </c>
+      <c r="AE212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22132,6 +22770,9 @@
       <c r="AD213">
         <v>0</v>
       </c>
+      <c r="AE213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -22234,6 +22875,9 @@
       <c r="AD214">
         <v>1</v>
       </c>
+      <c r="AE214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22336,6 +22980,9 @@
       <c r="AD215">
         <v>29</v>
       </c>
+      <c r="AE215">
+        <v>29</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -22438,6 +23085,9 @@
       <c r="AD216">
         <v>192</v>
       </c>
+      <c r="AE216">
+        <v>193</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -22540,6 +23190,9 @@
       <c r="AD217">
         <v>9</v>
       </c>
+      <c r="AE217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -22642,6 +23295,9 @@
       <c r="AD218">
         <v>11</v>
       </c>
+      <c r="AE218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -22744,6 +23400,9 @@
       <c r="AD219">
         <v>0</v>
       </c>
+      <c r="AE219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -22846,6 +23505,9 @@
       <c r="AD220">
         <v>2</v>
       </c>
+      <c r="AE220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -22948,6 +23610,9 @@
       <c r="AD221">
         <v>0</v>
       </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -23050,6 +23715,9 @@
       <c r="AD222">
         <v>1</v>
       </c>
+      <c r="AE222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -23152,6 +23820,9 @@
       <c r="AD223">
         <v>2</v>
       </c>
+      <c r="AE223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -23254,6 +23925,9 @@
       <c r="AD224">
         <v>7</v>
       </c>
+      <c r="AE224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -23356,6 +24030,9 @@
       <c r="AD225">
         <v>3</v>
       </c>
+      <c r="AE225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -23458,6 +24135,9 @@
       <c r="AD226">
         <v>1</v>
       </c>
+      <c r="AE226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -23560,6 +24240,9 @@
       <c r="AD227">
         <v>2</v>
       </c>
+      <c r="AE227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -23662,6 +24345,9 @@
       <c r="AD228">
         <v>2</v>
       </c>
+      <c r="AE228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -23764,6 +24450,9 @@
       <c r="AD229">
         <v>2</v>
       </c>
+      <c r="AE229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -23866,6 +24555,9 @@
       <c r="AD230">
         <v>0</v>
       </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -23968,6 +24660,9 @@
       <c r="AD231">
         <v>3</v>
       </c>
+      <c r="AE231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -24070,6 +24765,9 @@
       <c r="AD232">
         <v>12</v>
       </c>
+      <c r="AE232">
+        <v>12</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -24172,6 +24870,9 @@
       <c r="AD233">
         <v>0</v>
       </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -24274,6 +24975,9 @@
       <c r="AD234">
         <v>4</v>
       </c>
+      <c r="AE234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -24376,6 +25080,9 @@
       <c r="AD235">
         <v>1</v>
       </c>
+      <c r="AE235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -24478,6 +25185,9 @@
       <c r="AD236">
         <v>1</v>
       </c>
+      <c r="AE236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -24580,6 +25290,9 @@
       <c r="AD237">
         <v>1</v>
       </c>
+      <c r="AE237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -24682,6 +25395,9 @@
       <c r="AD238">
         <v>496</v>
       </c>
+      <c r="AE238">
+        <v>498</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -24784,6 +25500,9 @@
       <c r="AD239">
         <v>9</v>
       </c>
+      <c r="AE239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -24886,6 +25605,9 @@
       <c r="AD240">
         <v>4</v>
       </c>
+      <c r="AE240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -24988,6 +25710,9 @@
       <c r="AD241">
         <v>4</v>
       </c>
+      <c r="AE241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -25090,6 +25815,9 @@
       <c r="AD242">
         <v>4</v>
       </c>
+      <c r="AE242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -25192,6 +25920,9 @@
       <c r="AD243">
         <v>6</v>
       </c>
+      <c r="AE243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -25294,6 +26025,9 @@
       <c r="AD244">
         <v>8</v>
       </c>
+      <c r="AE244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -25396,6 +26130,9 @@
       <c r="AD245">
         <v>0</v>
       </c>
+      <c r="AE245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -25498,6 +26235,9 @@
       <c r="AD246">
         <v>4</v>
       </c>
+      <c r="AE246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -25600,6 +26340,9 @@
       <c r="AD247">
         <v>0</v>
       </c>
+      <c r="AE247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -25702,6 +26445,9 @@
       <c r="AD248">
         <v>0</v>
       </c>
+      <c r="AE248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -25804,6 +26550,9 @@
       <c r="AD249">
         <v>2</v>
       </c>
+      <c r="AE249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -25906,6 +26655,9 @@
       <c r="AD250">
         <v>24</v>
       </c>
+      <c r="AE250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -26008,6 +26760,9 @@
       <c r="AD251">
         <v>9</v>
       </c>
+      <c r="AE251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -26110,6 +26865,9 @@
       <c r="AD252">
         <v>0</v>
       </c>
+      <c r="AE252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -26212,6 +26970,9 @@
       <c r="AD253">
         <v>17</v>
       </c>
+      <c r="AE253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -26314,6 +27075,9 @@
       <c r="AD254">
         <v>5</v>
       </c>
+      <c r="AE254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -26416,6 +27180,9 @@
       <c r="AD255">
         <v>50</v>
       </c>
+      <c r="AE255">
+        <v>50</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -26518,6 +27285,9 @@
       <c r="AD256">
         <v>34</v>
       </c>
+      <c r="AE256">
+        <v>34</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -26620,6 +27390,9 @@
       <c r="AD257">
         <v>1</v>
       </c>
+      <c r="AE257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -26722,6 +27495,9 @@
       <c r="AD258">
         <v>0</v>
       </c>
+      <c r="AE258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -26824,6 +27600,9 @@
       <c r="AD259">
         <v>35</v>
       </c>
+      <c r="AE259">
+        <v>37</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -26926,6 +27705,9 @@
       <c r="AD260">
         <v>23</v>
       </c>
+      <c r="AE260">
+        <v>24</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -27028,6 +27810,9 @@
       <c r="AD261">
         <v>0</v>
       </c>
+      <c r="AE261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -27130,6 +27915,9 @@
       <c r="AD262">
         <v>0</v>
       </c>
+      <c r="AE262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -27232,6 +28020,9 @@
       <c r="AD263">
         <v>0</v>
       </c>
+      <c r="AE263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -27334,6 +28125,9 @@
       <c r="AD264">
         <v>1</v>
       </c>
+      <c r="AE264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -27436,6 +28230,9 @@
       <c r="AD265">
         <v>3</v>
       </c>
+      <c r="AE265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -27538,6 +28335,9 @@
       <c r="AD266">
         <v>0</v>
       </c>
+      <c r="AE266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -27640,6 +28440,9 @@
       <c r="AD267">
         <v>3</v>
       </c>
+      <c r="AE267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -27742,6 +28545,9 @@
       <c r="AD268">
         <v>0</v>
       </c>
+      <c r="AE268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -27844,6 +28650,9 @@
       <c r="AD269">
         <v>7</v>
       </c>
+      <c r="AE269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -27946,6 +28755,9 @@
       <c r="AD270">
         <v>0</v>
       </c>
+      <c r="AE270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -28048,6 +28860,9 @@
       <c r="AD271">
         <v>0</v>
       </c>
+      <c r="AE271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -28150,6 +28965,9 @@
       <c r="AD272">
         <v>1</v>
       </c>
+      <c r="AE272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -28252,6 +29070,9 @@
       <c r="AD273">
         <v>4</v>
       </c>
+      <c r="AE273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -28354,6 +29175,9 @@
       <c r="AD274">
         <v>0</v>
       </c>
+      <c r="AE274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -28456,6 +29280,9 @@
       <c r="AD275">
         <v>0</v>
       </c>
+      <c r="AE275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -28558,6 +29385,9 @@
       <c r="AD276">
         <v>17</v>
       </c>
+      <c r="AE276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -28660,6 +29490,9 @@
       <c r="AD277">
         <v>0</v>
       </c>
+      <c r="AE277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -28762,6 +29595,9 @@
       <c r="AD278">
         <v>0</v>
       </c>
+      <c r="AE278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -28864,6 +29700,9 @@
       <c r="AD279">
         <v>4</v>
       </c>
+      <c r="AE279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -28966,6 +29805,9 @@
       <c r="AD280">
         <v>12</v>
       </c>
+      <c r="AE280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -29068,6 +29910,9 @@
       <c r="AD281">
         <v>224</v>
       </c>
+      <c r="AE281">
+        <v>228</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -29170,6 +30015,9 @@
       <c r="AD282">
         <v>16</v>
       </c>
+      <c r="AE282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -29272,6 +30120,9 @@
       <c r="AD283">
         <v>5</v>
       </c>
+      <c r="AE283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -29374,6 +30225,9 @@
       <c r="AD284">
         <v>0</v>
       </c>
+      <c r="AE284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -29476,6 +30330,9 @@
       <c r="AD285">
         <v>0</v>
       </c>
+      <c r="AE285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -29578,6 +30435,9 @@
       <c r="AD286">
         <v>8</v>
       </c>
+      <c r="AE286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -29680,6 +30540,9 @@
       <c r="AD287">
         <v>5</v>
       </c>
+      <c r="AE287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -29782,6 +30645,9 @@
       <c r="AD288">
         <v>0</v>
       </c>
+      <c r="AE288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -29884,6 +30750,9 @@
       <c r="AD289">
         <v>1</v>
       </c>
+      <c r="AE289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -29986,6 +30855,9 @@
       <c r="AD290">
         <v>7</v>
       </c>
+      <c r="AE290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -30088,6 +30960,9 @@
       <c r="AD291">
         <v>3</v>
       </c>
+      <c r="AE291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -30190,6 +31065,9 @@
       <c r="AD292">
         <v>5</v>
       </c>
+      <c r="AE292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -30292,6 +31170,9 @@
       <c r="AD293">
         <v>11</v>
       </c>
+      <c r="AE293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -30394,6 +31275,9 @@
       <c r="AD294">
         <v>6</v>
       </c>
+      <c r="AE294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -30496,6 +31380,9 @@
       <c r="AD295">
         <v>0</v>
       </c>
+      <c r="AE295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -30598,6 +31485,9 @@
       <c r="AD296">
         <v>1</v>
       </c>
+      <c r="AE296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -30700,6 +31590,9 @@
       <c r="AD297">
         <v>8</v>
       </c>
+      <c r="AE297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -30802,6 +31695,9 @@
       <c r="AD298">
         <v>28</v>
       </c>
+      <c r="AE298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -30904,6 +31800,9 @@
       <c r="AD299">
         <v>21</v>
       </c>
+      <c r="AE299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -31006,6 +31905,9 @@
       <c r="AD300">
         <v>15</v>
       </c>
+      <c r="AE300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -31108,6 +32010,9 @@
       <c r="AD301">
         <v>0</v>
       </c>
+      <c r="AE301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -31210,6 +32115,9 @@
       <c r="AD302">
         <v>0</v>
       </c>
+      <c r="AE302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -31312,6 +32220,9 @@
       <c r="AD303">
         <v>0</v>
       </c>
+      <c r="AE303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -31414,6 +32325,9 @@
       <c r="AD304">
         <v>0</v>
       </c>
+      <c r="AE304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -31516,6 +32430,9 @@
       <c r="AD305">
         <v>3</v>
       </c>
+      <c r="AE305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -31618,6 +32535,9 @@
       <c r="AD306">
         <v>1</v>
       </c>
+      <c r="AE306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -31720,6 +32640,9 @@
       <c r="AD307">
         <v>4</v>
       </c>
+      <c r="AE307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -31822,6 +32745,9 @@
       <c r="AD308">
         <v>0</v>
       </c>
+      <c r="AE308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -31924,6 +32850,9 @@
       <c r="AD309">
         <v>0</v>
       </c>
+      <c r="AE309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -32026,6 +32955,9 @@
       <c r="AD310">
         <v>7</v>
       </c>
+      <c r="AE310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -32128,6 +33060,9 @@
       <c r="AD311">
         <v>2</v>
       </c>
+      <c r="AE311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -32230,6 +33165,9 @@
       <c r="AD312">
         <v>2</v>
       </c>
+      <c r="AE312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -32332,6 +33270,9 @@
       <c r="AD313">
         <v>2</v>
       </c>
+      <c r="AE313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -32434,6 +33375,9 @@
       <c r="AD314">
         <v>10</v>
       </c>
+      <c r="AE314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -32536,6 +33480,9 @@
       <c r="AD315">
         <v>1</v>
       </c>
+      <c r="AE315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -32638,6 +33585,9 @@
       <c r="AD316">
         <v>17</v>
       </c>
+      <c r="AE316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -32740,6 +33690,9 @@
       <c r="AD317">
         <v>0</v>
       </c>
+      <c r="AE317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -32842,6 +33795,9 @@
       <c r="AD318">
         <v>0</v>
       </c>
+      <c r="AE318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -32944,6 +33900,9 @@
       <c r="AD319">
         <v>132</v>
       </c>
+      <c r="AE319">
+        <v>137</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -33046,6 +34005,9 @@
       <c r="AD320">
         <v>5</v>
       </c>
+      <c r="AE320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -33148,6 +34110,9 @@
       <c r="AD321">
         <v>5</v>
       </c>
+      <c r="AE321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -33250,6 +34215,9 @@
       <c r="AD322">
         <v>1</v>
       </c>
+      <c r="AE322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -33352,6 +34320,9 @@
       <c r="AD323">
         <v>3</v>
       </c>
+      <c r="AE323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -33454,6 +34425,9 @@
       <c r="AD324">
         <v>15</v>
       </c>
+      <c r="AE324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -33556,6 +34530,9 @@
       <c r="AD325">
         <v>1</v>
       </c>
+      <c r="AE325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -33658,6 +34635,9 @@
       <c r="AD326">
         <v>1</v>
       </c>
+      <c r="AE326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -33760,6 +34740,9 @@
       <c r="AD327">
         <v>0</v>
       </c>
+      <c r="AE327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -33862,6 +34845,9 @@
       <c r="AD328">
         <v>0</v>
       </c>
+      <c r="AE328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -33964,6 +34950,9 @@
       <c r="AD329">
         <v>3</v>
       </c>
+      <c r="AE329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -34066,6 +35055,9 @@
       <c r="AD330">
         <v>1</v>
       </c>
+      <c r="AE330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -34168,6 +35160,9 @@
       <c r="AD331">
         <v>2</v>
       </c>
+      <c r="AE331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -34270,6 +35265,9 @@
       <c r="AD332">
         <v>0</v>
       </c>
+      <c r="AE332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -34372,6 +35370,9 @@
       <c r="AD333">
         <v>0</v>
       </c>
+      <c r="AE333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -34474,6 +35475,9 @@
       <c r="AD334">
         <v>0</v>
       </c>
+      <c r="AE334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -34576,6 +35580,9 @@
       <c r="AD335">
         <v>16</v>
       </c>
+      <c r="AE335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -34678,6 +35685,9 @@
       <c r="AD336">
         <v>2</v>
       </c>
+      <c r="AE336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -34780,6 +35790,9 @@
       <c r="AD337">
         <v>1</v>
       </c>
+      <c r="AE337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -34882,6 +35895,9 @@
       <c r="AD338">
         <v>2</v>
       </c>
+      <c r="AE338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -34984,6 +36000,9 @@
       <c r="AD339">
         <v>0</v>
       </c>
+      <c r="AE339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -35086,6 +36105,9 @@
       <c r="AD340">
         <v>0</v>
       </c>
+      <c r="AE340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -35188,6 +36210,9 @@
       <c r="AD341">
         <v>1</v>
       </c>
+      <c r="AE341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -35290,6 +36315,9 @@
       <c r="AD342">
         <v>2</v>
       </c>
+      <c r="AE342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -35392,6 +36420,9 @@
       <c r="AD343">
         <v>0</v>
       </c>
+      <c r="AE343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -35494,6 +36525,9 @@
       <c r="AD344">
         <v>1</v>
       </c>
+      <c r="AE344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -35596,6 +36630,9 @@
       <c r="AD345">
         <v>0</v>
       </c>
+      <c r="AE345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -35698,6 +36735,9 @@
       <c r="AD346">
         <v>0</v>
       </c>
+      <c r="AE346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -35800,6 +36840,9 @@
       <c r="AD347">
         <v>3</v>
       </c>
+      <c r="AE347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -35902,6 +36945,9 @@
       <c r="AD348">
         <v>2</v>
       </c>
+      <c r="AE348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -36004,6 +37050,9 @@
       <c r="AD349">
         <v>4</v>
       </c>
+      <c r="AE349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -36106,6 +37155,9 @@
       <c r="AD350">
         <v>1</v>
       </c>
+      <c r="AE350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -36208,6 +37260,9 @@
       <c r="AD351">
         <v>0</v>
       </c>
+      <c r="AE351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -36310,6 +37365,9 @@
       <c r="AD352">
         <v>0</v>
       </c>
+      <c r="AE352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -36412,6 +37470,9 @@
       <c r="AD353">
         <v>0</v>
       </c>
+      <c r="AE353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -36514,6 +37575,9 @@
       <c r="AD354">
         <v>1</v>
       </c>
+      <c r="AE354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -36616,6 +37680,9 @@
       <c r="AD355">
         <v>1</v>
       </c>
+      <c r="AE355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -36718,6 +37785,9 @@
       <c r="AD356">
         <v>0</v>
       </c>
+      <c r="AE356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -36820,6 +37890,9 @@
       <c r="AD357">
         <v>4</v>
       </c>
+      <c r="AE357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -36922,6 +37995,9 @@
       <c r="AD358">
         <v>0</v>
       </c>
+      <c r="AE358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -37022,6 +38098,9 @@
         <v>0</v>
       </c>
       <c r="AD359">
+        <v>1</v>
+      </c>
+      <c r="AE359">
         <v>1</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE359"/>
+  <dimension ref="A1:AF359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,11 @@
           <t>2020-04-19</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -618,6 +623,9 @@
       <c r="AE2">
         <v>2132</v>
       </c>
+      <c r="AF2">
+        <v>2156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -723,6 +731,9 @@
       <c r="AE3">
         <v>14</v>
       </c>
+      <c r="AF3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -828,6 +839,9 @@
       <c r="AE4">
         <v>129</v>
       </c>
+      <c r="AF4">
+        <v>129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -933,6 +947,9 @@
       <c r="AE5">
         <v>50</v>
       </c>
+      <c r="AF5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1038,6 +1055,9 @@
       <c r="AE6">
         <v>46</v>
       </c>
+      <c r="AF6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1143,6 +1163,9 @@
       <c r="AE7">
         <v>5</v>
       </c>
+      <c r="AF7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1248,6 +1271,9 @@
       <c r="AE8">
         <v>1</v>
       </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1353,6 +1379,9 @@
       <c r="AE9">
         <v>0</v>
       </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1458,6 +1487,9 @@
       <c r="AE10">
         <v>6</v>
       </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1563,6 +1595,9 @@
       <c r="AE11">
         <v>6</v>
       </c>
+      <c r="AF11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1668,6 +1703,9 @@
       <c r="AE12">
         <v>12</v>
       </c>
+      <c r="AF12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1773,6 +1811,9 @@
       <c r="AE13">
         <v>13</v>
       </c>
+      <c r="AF13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1878,6 +1919,9 @@
       <c r="AE14">
         <v>14</v>
       </c>
+      <c r="AF14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1983,6 +2027,9 @@
       <c r="AE15">
         <v>11</v>
       </c>
+      <c r="AF15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2088,6 +2135,9 @@
       <c r="AE16">
         <v>13</v>
       </c>
+      <c r="AF16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2193,6 +2243,9 @@
       <c r="AE17">
         <v>0</v>
       </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2298,6 +2351,9 @@
       <c r="AE18">
         <v>0</v>
       </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2403,6 +2459,9 @@
       <c r="AE19">
         <v>3</v>
       </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2508,6 +2567,9 @@
       <c r="AE20">
         <v>0</v>
       </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2613,6 +2675,9 @@
       <c r="AE21">
         <v>1</v>
       </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2718,6 +2783,9 @@
       <c r="AE22">
         <v>20</v>
       </c>
+      <c r="AF22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2823,6 +2891,9 @@
       <c r="AE23">
         <v>36</v>
       </c>
+      <c r="AF23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2928,6 +2999,9 @@
       <c r="AE24">
         <v>0</v>
       </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3033,6 +3107,9 @@
       <c r="AE25">
         <v>11</v>
       </c>
+      <c r="AF25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3138,6 +3215,9 @@
       <c r="AE26">
         <v>18</v>
       </c>
+      <c r="AF26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3243,6 +3323,9 @@
       <c r="AE27">
         <v>14</v>
       </c>
+      <c r="AF27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3348,6 +3431,9 @@
       <c r="AE28">
         <v>26</v>
       </c>
+      <c r="AF28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3453,6 +3539,9 @@
       <c r="AE29">
         <v>1</v>
       </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3558,6 +3647,9 @@
       <c r="AE30">
         <v>3</v>
       </c>
+      <c r="AF30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3663,6 +3755,9 @@
       <c r="AE31">
         <v>3</v>
       </c>
+      <c r="AF31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3768,6 +3863,9 @@
       <c r="AE32">
         <v>7</v>
       </c>
+      <c r="AF32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3873,6 +3971,9 @@
       <c r="AE33">
         <v>2</v>
       </c>
+      <c r="AF33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3978,6 +4079,9 @@
       <c r="AE34">
         <v>6</v>
       </c>
+      <c r="AF34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4083,6 +4187,9 @@
       <c r="AE35">
         <v>0</v>
       </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4188,6 +4295,9 @@
       <c r="AE36">
         <v>1</v>
       </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4293,6 +4403,9 @@
       <c r="AE37">
         <v>6</v>
       </c>
+      <c r="AF37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4398,6 +4511,9 @@
       <c r="AE38">
         <v>5</v>
       </c>
+      <c r="AF38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4503,6 +4619,9 @@
       <c r="AE39">
         <v>0</v>
       </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4608,6 +4727,9 @@
       <c r="AE40">
         <v>10</v>
       </c>
+      <c r="AF40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4713,6 +4835,9 @@
       <c r="AE41">
         <v>0</v>
       </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4818,6 +4943,9 @@
       <c r="AE42">
         <v>0</v>
       </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4923,6 +5051,9 @@
       <c r="AE43">
         <v>0</v>
       </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5028,6 +5159,9 @@
       <c r="AE44">
         <v>1</v>
       </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5133,6 +5267,9 @@
       <c r="AE45">
         <v>2</v>
       </c>
+      <c r="AF45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5238,6 +5375,9 @@
       <c r="AE46">
         <v>2</v>
       </c>
+      <c r="AF46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5343,6 +5483,9 @@
       <c r="AE47">
         <v>0</v>
       </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5448,6 +5591,9 @@
       <c r="AE48">
         <v>3</v>
       </c>
+      <c r="AF48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5553,6 +5699,9 @@
       <c r="AE49">
         <v>4</v>
       </c>
+      <c r="AF49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5658,6 +5807,9 @@
       <c r="AE50">
         <v>1</v>
       </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5763,6 +5915,9 @@
       <c r="AE51">
         <v>3</v>
       </c>
+      <c r="AF51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5868,6 +6023,9 @@
       <c r="AE52">
         <v>37</v>
       </c>
+      <c r="AF52">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5973,6 +6131,9 @@
       <c r="AE53">
         <v>5</v>
       </c>
+      <c r="AF53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6078,6 +6239,9 @@
       <c r="AE54">
         <v>0</v>
       </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6183,6 +6347,9 @@
       <c r="AE55">
         <v>2</v>
       </c>
+      <c r="AF55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6288,6 +6455,9 @@
       <c r="AE56">
         <v>5</v>
       </c>
+      <c r="AF56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6393,6 +6563,9 @@
       <c r="AE57">
         <v>3</v>
       </c>
+      <c r="AF57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6498,6 +6671,9 @@
       <c r="AE58">
         <v>0</v>
       </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6603,6 +6779,9 @@
       <c r="AE59">
         <v>0</v>
       </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6708,6 +6887,9 @@
       <c r="AE60">
         <v>2</v>
       </c>
+      <c r="AF60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6813,6 +6995,9 @@
       <c r="AE61">
         <v>4</v>
       </c>
+      <c r="AF61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6918,6 +7103,9 @@
       <c r="AE62">
         <v>1</v>
       </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7023,6 +7211,9 @@
       <c r="AE63">
         <v>1</v>
       </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7128,6 +7319,9 @@
       <c r="AE64">
         <v>0</v>
       </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7233,6 +7427,9 @@
       <c r="AE65">
         <v>5</v>
       </c>
+      <c r="AF65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7338,6 +7535,9 @@
       <c r="AE66">
         <v>0</v>
       </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7443,6 +7643,9 @@
       <c r="AE67">
         <v>0</v>
       </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7548,6 +7751,9 @@
       <c r="AE68">
         <v>4</v>
       </c>
+      <c r="AF68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7653,6 +7859,9 @@
       <c r="AE69">
         <v>0</v>
       </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7758,6 +7967,9 @@
       <c r="AE70">
         <v>0</v>
       </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7863,6 +8075,9 @@
       <c r="AE71">
         <v>0</v>
       </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7968,6 +8183,9 @@
       <c r="AE72">
         <v>5</v>
       </c>
+      <c r="AF72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8073,6 +8291,9 @@
       <c r="AE73">
         <v>0</v>
       </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8178,6 +8399,9 @@
       <c r="AE74">
         <v>0</v>
       </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8283,6 +8507,9 @@
       <c r="AE75">
         <v>0</v>
       </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8388,6 +8615,9 @@
       <c r="AE76">
         <v>1</v>
       </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8493,6 +8723,9 @@
       <c r="AE77">
         <v>0</v>
       </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8598,6 +8831,9 @@
       <c r="AE78">
         <v>1</v>
       </c>
+      <c r="AF78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8703,6 +8939,9 @@
       <c r="AE79">
         <v>0</v>
       </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8808,6 +9047,9 @@
       <c r="AE80">
         <v>0</v>
       </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8913,6 +9155,9 @@
       <c r="AE81">
         <v>0</v>
       </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9018,6 +9263,9 @@
       <c r="AE82">
         <v>0</v>
       </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9123,6 +9371,9 @@
       <c r="AE83">
         <v>5</v>
       </c>
+      <c r="AF83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9228,6 +9479,9 @@
       <c r="AE84">
         <v>13</v>
       </c>
+      <c r="AF84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9333,6 +9587,9 @@
       <c r="AE85">
         <v>3</v>
       </c>
+      <c r="AF85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9438,6 +9695,9 @@
       <c r="AE86">
         <v>5</v>
       </c>
+      <c r="AF86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9543,6 +9803,9 @@
       <c r="AE87">
         <v>0</v>
       </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9648,6 +9911,9 @@
       <c r="AE88">
         <v>0</v>
       </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9753,6 +10019,9 @@
       <c r="AE89">
         <v>6</v>
       </c>
+      <c r="AF89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9858,6 +10127,9 @@
       <c r="AE90">
         <v>0</v>
       </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9963,6 +10235,9 @@
       <c r="AE91">
         <v>1</v>
       </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10068,6 +10343,9 @@
       <c r="AE92">
         <v>0</v>
       </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10173,6 +10451,9 @@
       <c r="AE93">
         <v>32</v>
       </c>
+      <c r="AF93">
+        <v>32</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10278,6 +10559,9 @@
       <c r="AE94">
         <v>93</v>
       </c>
+      <c r="AF94">
+        <v>93</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10383,6 +10667,9 @@
       <c r="AE95">
         <v>54</v>
       </c>
+      <c r="AF95">
+        <v>54</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10488,6 +10775,9 @@
       <c r="AE96">
         <v>84</v>
       </c>
+      <c r="AF96">
+        <v>84</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10593,6 +10883,9 @@
       <c r="AE97">
         <v>165</v>
       </c>
+      <c r="AF97">
+        <v>165</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10698,6 +10991,9 @@
       <c r="AE98">
         <v>21</v>
       </c>
+      <c r="AF98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10803,6 +11099,9 @@
       <c r="AE99">
         <v>9</v>
       </c>
+      <c r="AF99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10908,6 +11207,9 @@
       <c r="AE100">
         <v>2</v>
       </c>
+      <c r="AF100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11013,6 +11315,9 @@
       <c r="AE101">
         <v>2</v>
       </c>
+      <c r="AF101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11118,6 +11423,9 @@
       <c r="AE102">
         <v>3</v>
       </c>
+      <c r="AF102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11223,6 +11531,9 @@
       <c r="AE103">
         <v>47</v>
       </c>
+      <c r="AF103">
+        <v>47</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11328,6 +11639,9 @@
       <c r="AE104">
         <v>2</v>
       </c>
+      <c r="AF104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11433,6 +11747,9 @@
       <c r="AE105">
         <v>1</v>
       </c>
+      <c r="AF105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11538,6 +11855,9 @@
       <c r="AE106">
         <v>2</v>
       </c>
+      <c r="AF106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11643,6 +11963,9 @@
       <c r="AE107">
         <v>6</v>
       </c>
+      <c r="AF107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11748,6 +12071,9 @@
       <c r="AE108">
         <v>22</v>
       </c>
+      <c r="AF108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11853,6 +12179,9 @@
       <c r="AE109">
         <v>93</v>
       </c>
+      <c r="AF109">
+        <v>93</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11958,6 +12287,9 @@
       <c r="AE110">
         <v>18</v>
       </c>
+      <c r="AF110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12063,6 +12395,9 @@
       <c r="AE111">
         <v>20</v>
       </c>
+      <c r="AF111">
+        <v>20</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12168,6 +12503,9 @@
       <c r="AE112">
         <v>45</v>
       </c>
+      <c r="AF112">
+        <v>45</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12273,6 +12611,9 @@
       <c r="AE113">
         <v>401</v>
       </c>
+      <c r="AF113">
+        <v>403</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12378,6 +12719,9 @@
       <c r="AE114">
         <v>161</v>
       </c>
+      <c r="AF114">
+        <v>161</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12483,6 +12827,9 @@
       <c r="AE115">
         <v>8</v>
       </c>
+      <c r="AF115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12588,6 +12935,9 @@
       <c r="AE116">
         <v>25</v>
       </c>
+      <c r="AF116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12693,6 +13043,9 @@
       <c r="AE117">
         <v>46</v>
       </c>
+      <c r="AF117">
+        <v>47</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12798,6 +13151,9 @@
       <c r="AE118">
         <v>79</v>
       </c>
+      <c r="AF118">
+        <v>79</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12903,6 +13259,9 @@
       <c r="AE119">
         <v>140</v>
       </c>
+      <c r="AF119">
+        <v>140</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13008,6 +13367,9 @@
       <c r="AE120">
         <v>45</v>
       </c>
+      <c r="AF120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13113,6 +13475,9 @@
       <c r="AE121">
         <v>8</v>
       </c>
+      <c r="AF121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13218,6 +13583,9 @@
       <c r="AE122">
         <v>56</v>
       </c>
+      <c r="AF122">
+        <v>56</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13323,6 +13691,9 @@
       <c r="AE123">
         <v>14</v>
       </c>
+      <c r="AF123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13428,6 +13799,9 @@
       <c r="AE124">
         <v>35</v>
       </c>
+      <c r="AF124">
+        <v>35</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13533,6 +13907,9 @@
       <c r="AE125">
         <v>17</v>
       </c>
+      <c r="AF125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13638,6 +14015,9 @@
       <c r="AE126">
         <v>2</v>
       </c>
+      <c r="AF126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13743,6 +14123,9 @@
       <c r="AE127">
         <v>10</v>
       </c>
+      <c r="AF127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13848,6 +14231,9 @@
       <c r="AE128">
         <v>1</v>
       </c>
+      <c r="AF128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13953,6 +14339,9 @@
       <c r="AE129">
         <v>7</v>
       </c>
+      <c r="AF129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14058,6 +14447,9 @@
       <c r="AE130">
         <v>10</v>
       </c>
+      <c r="AF130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14163,6 +14555,9 @@
       <c r="AE131">
         <v>8</v>
       </c>
+      <c r="AF131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14268,6 +14663,9 @@
       <c r="AE132">
         <v>13</v>
       </c>
+      <c r="AF132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14373,6 +14771,9 @@
       <c r="AE133">
         <v>44</v>
       </c>
+      <c r="AF133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14478,6 +14879,9 @@
       <c r="AE134">
         <v>0</v>
       </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14583,6 +14987,9 @@
       <c r="AE135">
         <v>0</v>
       </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14688,6 +15095,9 @@
       <c r="AE136">
         <v>10</v>
       </c>
+      <c r="AF136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14793,6 +15203,9 @@
       <c r="AE137">
         <v>5</v>
       </c>
+      <c r="AF137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14898,6 +15311,9 @@
       <c r="AE138">
         <v>35</v>
       </c>
+      <c r="AF138">
+        <v>35</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15003,6 +15419,9 @@
       <c r="AE139">
         <v>4</v>
       </c>
+      <c r="AF139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15108,6 +15527,9 @@
       <c r="AE140">
         <v>1</v>
       </c>
+      <c r="AF140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15213,6 +15635,9 @@
       <c r="AE141">
         <v>2</v>
       </c>
+      <c r="AF141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15318,6 +15743,9 @@
       <c r="AE142">
         <v>6</v>
       </c>
+      <c r="AF142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15423,6 +15851,9 @@
       <c r="AE143">
         <v>11</v>
       </c>
+      <c r="AF143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15528,6 +15959,9 @@
       <c r="AE144">
         <v>1</v>
       </c>
+      <c r="AF144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15633,6 +16067,9 @@
       <c r="AE145">
         <v>81</v>
       </c>
+      <c r="AF145">
+        <v>81</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15738,6 +16175,9 @@
       <c r="AE146">
         <v>35</v>
       </c>
+      <c r="AF146">
+        <v>35</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15843,6 +16283,9 @@
       <c r="AE147">
         <v>19</v>
       </c>
+      <c r="AF147">
+        <v>19</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15948,6 +16391,9 @@
       <c r="AE148">
         <v>59</v>
       </c>
+      <c r="AF148">
+        <v>59</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -16053,6 +16499,9 @@
       <c r="AE149">
         <v>11</v>
       </c>
+      <c r="AF149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -16158,6 +16607,9 @@
       <c r="AE150">
         <v>33</v>
       </c>
+      <c r="AF150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16263,6 +16715,9 @@
       <c r="AE151">
         <v>0</v>
       </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16368,6 +16823,9 @@
       <c r="AE152">
         <v>18</v>
       </c>
+      <c r="AF152">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16473,6 +16931,9 @@
       <c r="AE153">
         <v>4</v>
       </c>
+      <c r="AF153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16578,6 +17039,9 @@
       <c r="AE154">
         <v>5</v>
       </c>
+      <c r="AF154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16683,6 +17147,9 @@
       <c r="AE155">
         <v>3</v>
       </c>
+      <c r="AF155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16788,6 +17255,9 @@
       <c r="AE156">
         <v>3</v>
       </c>
+      <c r="AF156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16893,6 +17363,9 @@
       <c r="AE157">
         <v>13</v>
       </c>
+      <c r="AF157">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16998,6 +17471,9 @@
       <c r="AE158">
         <v>2</v>
       </c>
+      <c r="AF158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -17103,6 +17579,9 @@
       <c r="AE159">
         <v>4</v>
       </c>
+      <c r="AF159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -17208,6 +17687,9 @@
       <c r="AE160">
         <v>0</v>
       </c>
+      <c r="AF160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17313,6 +17795,9 @@
       <c r="AE161">
         <v>0</v>
       </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17418,6 +17903,9 @@
       <c r="AE162">
         <v>2</v>
       </c>
+      <c r="AF162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17523,6 +18011,9 @@
       <c r="AE163">
         <v>0</v>
       </c>
+      <c r="AF163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17628,6 +18119,9 @@
       <c r="AE164">
         <v>0</v>
       </c>
+      <c r="AF164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17733,6 +18227,9 @@
       <c r="AE165">
         <v>1</v>
       </c>
+      <c r="AF165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17838,6 +18335,9 @@
       <c r="AE166">
         <v>0</v>
       </c>
+      <c r="AF166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17943,6 +18443,9 @@
       <c r="AE167">
         <v>1</v>
       </c>
+      <c r="AF167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -18048,6 +18551,9 @@
       <c r="AE168">
         <v>5</v>
       </c>
+      <c r="AF168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -18153,6 +18659,9 @@
       <c r="AE169">
         <v>2</v>
       </c>
+      <c r="AF169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -18258,6 +18767,9 @@
       <c r="AE170">
         <v>1</v>
       </c>
+      <c r="AF170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18363,6 +18875,9 @@
       <c r="AE171">
         <v>3</v>
       </c>
+      <c r="AF171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18468,6 +18983,9 @@
       <c r="AE172">
         <v>2</v>
       </c>
+      <c r="AF172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18573,6 +19091,9 @@
       <c r="AE173">
         <v>13</v>
       </c>
+      <c r="AF173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18678,6 +19199,9 @@
       <c r="AE174">
         <v>36</v>
       </c>
+      <c r="AF174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18783,6 +19307,9 @@
       <c r="AE175">
         <v>1</v>
       </c>
+      <c r="AF175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18888,6 +19415,9 @@
       <c r="AE176">
         <v>8</v>
       </c>
+      <c r="AF176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18993,6 +19523,9 @@
       <c r="AE177">
         <v>2</v>
       </c>
+      <c r="AF177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -19098,6 +19631,9 @@
       <c r="AE178">
         <v>6</v>
       </c>
+      <c r="AF178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -19203,6 +19739,9 @@
       <c r="AE179">
         <v>4</v>
       </c>
+      <c r="AF179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19308,6 +19847,9 @@
       <c r="AE180">
         <v>12</v>
       </c>
+      <c r="AF180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -19413,6 +19955,9 @@
       <c r="AE181">
         <v>9</v>
       </c>
+      <c r="AF181">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19518,6 +20063,9 @@
       <c r="AE182">
         <v>2</v>
       </c>
+      <c r="AF182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -19623,6 +20171,9 @@
       <c r="AE183">
         <v>1</v>
       </c>
+      <c r="AF183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19728,6 +20279,9 @@
       <c r="AE184">
         <v>0</v>
       </c>
+      <c r="AF184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19833,6 +20387,9 @@
       <c r="AE185">
         <v>1</v>
       </c>
+      <c r="AF185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19938,6 +20495,9 @@
       <c r="AE186">
         <v>9</v>
       </c>
+      <c r="AF186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -20043,6 +20603,9 @@
       <c r="AE187">
         <v>0</v>
       </c>
+      <c r="AF187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -20148,6 +20711,9 @@
       <c r="AE188">
         <v>0</v>
       </c>
+      <c r="AF188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -20253,6 +20819,9 @@
       <c r="AE189">
         <v>0</v>
       </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -20358,6 +20927,9 @@
       <c r="AE190">
         <v>25</v>
       </c>
+      <c r="AF190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -20463,6 +21035,9 @@
       <c r="AE191">
         <v>18</v>
       </c>
+      <c r="AF191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -20568,6 +21143,9 @@
       <c r="AE192">
         <v>55</v>
       </c>
+      <c r="AF192">
+        <v>55</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -20673,6 +21251,9 @@
       <c r="AE193">
         <v>38</v>
       </c>
+      <c r="AF193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20778,6 +21359,9 @@
       <c r="AE194">
         <v>36</v>
       </c>
+      <c r="AF194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20883,6 +21467,9 @@
       <c r="AE195">
         <v>9</v>
       </c>
+      <c r="AF195">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20988,6 +21575,9 @@
       <c r="AE196">
         <v>39</v>
       </c>
+      <c r="AF196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -21093,6 +21683,9 @@
       <c r="AE197">
         <v>4</v>
       </c>
+      <c r="AF197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -21198,6 +21791,9 @@
       <c r="AE198">
         <v>21</v>
       </c>
+      <c r="AF198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -21303,6 +21899,9 @@
       <c r="AE199">
         <v>2</v>
       </c>
+      <c r="AF199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -21408,6 +22007,9 @@
       <c r="AE200">
         <v>5</v>
       </c>
+      <c r="AF200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -21513,6 +22115,9 @@
       <c r="AE201">
         <v>2</v>
       </c>
+      <c r="AF201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -21618,6 +22223,9 @@
       <c r="AE202">
         <v>1</v>
       </c>
+      <c r="AF202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -21723,6 +22331,9 @@
       <c r="AE203">
         <v>3</v>
       </c>
+      <c r="AF203">
+        <v>3</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21828,6 +22439,9 @@
       <c r="AE204">
         <v>0</v>
       </c>
+      <c r="AF204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21933,6 +22547,9 @@
       <c r="AE205">
         <v>1</v>
       </c>
+      <c r="AF205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -22038,6 +22655,9 @@
       <c r="AE206">
         <v>0</v>
       </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -22143,6 +22763,9 @@
       <c r="AE207">
         <v>0</v>
       </c>
+      <c r="AF207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -22248,6 +22871,9 @@
       <c r="AE208">
         <v>0</v>
       </c>
+      <c r="AF208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -22353,6 +22979,9 @@
       <c r="AE209">
         <v>0</v>
       </c>
+      <c r="AF209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -22458,6 +23087,9 @@
       <c r="AE210">
         <v>0</v>
       </c>
+      <c r="AF210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -22563,6 +23195,9 @@
       <c r="AE211">
         <v>0</v>
       </c>
+      <c r="AF211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -22668,6 +23303,9 @@
       <c r="AE212">
         <v>2</v>
       </c>
+      <c r="AF212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22773,6 +23411,9 @@
       <c r="AE213">
         <v>0</v>
       </c>
+      <c r="AF213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -22878,6 +23519,9 @@
       <c r="AE214">
         <v>1</v>
       </c>
+      <c r="AF214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22983,6 +23627,9 @@
       <c r="AE215">
         <v>29</v>
       </c>
+      <c r="AF215">
+        <v>29</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -23088,6 +23735,9 @@
       <c r="AE216">
         <v>193</v>
       </c>
+      <c r="AF216">
+        <v>198</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -23193,6 +23843,9 @@
       <c r="AE217">
         <v>9</v>
       </c>
+      <c r="AF217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -23298,6 +23951,9 @@
       <c r="AE218">
         <v>11</v>
       </c>
+      <c r="AF218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -23403,6 +24059,9 @@
       <c r="AE219">
         <v>0</v>
       </c>
+      <c r="AF219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -23508,6 +24167,9 @@
       <c r="AE220">
         <v>2</v>
       </c>
+      <c r="AF220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -23613,6 +24275,9 @@
       <c r="AE221">
         <v>0</v>
       </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -23718,6 +24383,9 @@
       <c r="AE222">
         <v>1</v>
       </c>
+      <c r="AF222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -23823,6 +24491,9 @@
       <c r="AE223">
         <v>2</v>
       </c>
+      <c r="AF223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -23928,6 +24599,9 @@
       <c r="AE224">
         <v>7</v>
       </c>
+      <c r="AF224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -24033,6 +24707,9 @@
       <c r="AE225">
         <v>3</v>
       </c>
+      <c r="AF225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -24138,6 +24815,9 @@
       <c r="AE226">
         <v>1</v>
       </c>
+      <c r="AF226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -24243,6 +24923,9 @@
       <c r="AE227">
         <v>2</v>
       </c>
+      <c r="AF227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -24348,6 +25031,9 @@
       <c r="AE228">
         <v>2</v>
       </c>
+      <c r="AF228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -24453,6 +25139,9 @@
       <c r="AE229">
         <v>2</v>
       </c>
+      <c r="AF229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -24558,6 +25247,9 @@
       <c r="AE230">
         <v>0</v>
       </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -24663,6 +25355,9 @@
       <c r="AE231">
         <v>3</v>
       </c>
+      <c r="AF231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -24768,6 +25463,9 @@
       <c r="AE232">
         <v>12</v>
       </c>
+      <c r="AF232">
+        <v>12</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -24873,6 +25571,9 @@
       <c r="AE233">
         <v>0</v>
       </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -24978,6 +25679,9 @@
       <c r="AE234">
         <v>4</v>
       </c>
+      <c r="AF234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -25083,6 +25787,9 @@
       <c r="AE235">
         <v>1</v>
       </c>
+      <c r="AF235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -25188,6 +25895,9 @@
       <c r="AE236">
         <v>1</v>
       </c>
+      <c r="AF236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -25293,6 +26003,9 @@
       <c r="AE237">
         <v>1</v>
       </c>
+      <c r="AF237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -25398,6 +26111,9 @@
       <c r="AE238">
         <v>498</v>
       </c>
+      <c r="AF238">
+        <v>500</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -25503,6 +26219,9 @@
       <c r="AE239">
         <v>9</v>
       </c>
+      <c r="AF239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -25608,6 +26327,9 @@
       <c r="AE240">
         <v>4</v>
       </c>
+      <c r="AF240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -25713,6 +26435,9 @@
       <c r="AE241">
         <v>4</v>
       </c>
+      <c r="AF241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -25818,6 +26543,9 @@
       <c r="AE242">
         <v>4</v>
       </c>
+      <c r="AF242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -25923,6 +26651,9 @@
       <c r="AE243">
         <v>6</v>
       </c>
+      <c r="AF243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -26028,6 +26759,9 @@
       <c r="AE244">
         <v>8</v>
       </c>
+      <c r="AF244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -26133,6 +26867,9 @@
       <c r="AE245">
         <v>0</v>
       </c>
+      <c r="AF245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -26238,6 +26975,9 @@
       <c r="AE246">
         <v>4</v>
       </c>
+      <c r="AF246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -26343,6 +27083,9 @@
       <c r="AE247">
         <v>0</v>
       </c>
+      <c r="AF247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -26448,6 +27191,9 @@
       <c r="AE248">
         <v>0</v>
       </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -26553,6 +27299,9 @@
       <c r="AE249">
         <v>2</v>
       </c>
+      <c r="AF249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -26658,6 +27407,9 @@
       <c r="AE250">
         <v>24</v>
       </c>
+      <c r="AF250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -26763,6 +27515,9 @@
       <c r="AE251">
         <v>9</v>
       </c>
+      <c r="AF251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -26868,6 +27623,9 @@
       <c r="AE252">
         <v>0</v>
       </c>
+      <c r="AF252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -26973,6 +27731,9 @@
       <c r="AE253">
         <v>17</v>
       </c>
+      <c r="AF253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -27078,6 +27839,9 @@
       <c r="AE254">
         <v>5</v>
       </c>
+      <c r="AF254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -27183,6 +27947,9 @@
       <c r="AE255">
         <v>50</v>
       </c>
+      <c r="AF255">
+        <v>51</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -27288,6 +28055,9 @@
       <c r="AE256">
         <v>34</v>
       </c>
+      <c r="AF256">
+        <v>34</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -27393,6 +28163,9 @@
       <c r="AE257">
         <v>1</v>
       </c>
+      <c r="AF257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -27498,6 +28271,9 @@
       <c r="AE258">
         <v>0</v>
       </c>
+      <c r="AF258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -27603,6 +28379,9 @@
       <c r="AE259">
         <v>37</v>
       </c>
+      <c r="AF259">
+        <v>37</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -27708,6 +28487,9 @@
       <c r="AE260">
         <v>24</v>
       </c>
+      <c r="AF260">
+        <v>24</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -27813,6 +28595,9 @@
       <c r="AE261">
         <v>0</v>
       </c>
+      <c r="AF261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -27918,6 +28703,9 @@
       <c r="AE262">
         <v>0</v>
       </c>
+      <c r="AF262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -28023,6 +28811,9 @@
       <c r="AE263">
         <v>0</v>
       </c>
+      <c r="AF263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -28128,6 +28919,9 @@
       <c r="AE264">
         <v>1</v>
       </c>
+      <c r="AF264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -28233,6 +29027,9 @@
       <c r="AE265">
         <v>3</v>
       </c>
+      <c r="AF265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -28338,6 +29135,9 @@
       <c r="AE266">
         <v>0</v>
       </c>
+      <c r="AF266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -28443,6 +29243,9 @@
       <c r="AE267">
         <v>3</v>
       </c>
+      <c r="AF267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -28548,6 +29351,9 @@
       <c r="AE268">
         <v>0</v>
       </c>
+      <c r="AF268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -28653,6 +29459,9 @@
       <c r="AE269">
         <v>7</v>
       </c>
+      <c r="AF269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -28758,6 +29567,9 @@
       <c r="AE270">
         <v>0</v>
       </c>
+      <c r="AF270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -28863,6 +29675,9 @@
       <c r="AE271">
         <v>0</v>
       </c>
+      <c r="AF271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -28968,6 +29783,9 @@
       <c r="AE272">
         <v>1</v>
       </c>
+      <c r="AF272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -29073,6 +29891,9 @@
       <c r="AE273">
         <v>4</v>
       </c>
+      <c r="AF273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -29178,6 +29999,9 @@
       <c r="AE274">
         <v>0</v>
       </c>
+      <c r="AF274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -29283,6 +30107,9 @@
       <c r="AE275">
         <v>0</v>
       </c>
+      <c r="AF275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -29388,6 +30215,9 @@
       <c r="AE276">
         <v>17</v>
       </c>
+      <c r="AF276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -29493,6 +30323,9 @@
       <c r="AE277">
         <v>0</v>
       </c>
+      <c r="AF277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -29598,6 +30431,9 @@
       <c r="AE278">
         <v>0</v>
       </c>
+      <c r="AF278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -29703,6 +30539,9 @@
       <c r="AE279">
         <v>4</v>
       </c>
+      <c r="AF279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -29808,6 +30647,9 @@
       <c r="AE280">
         <v>12</v>
       </c>
+      <c r="AF280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -29913,6 +30755,9 @@
       <c r="AE281">
         <v>228</v>
       </c>
+      <c r="AF281">
+        <v>230</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -30018,6 +30863,9 @@
       <c r="AE282">
         <v>16</v>
       </c>
+      <c r="AF282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -30123,6 +30971,9 @@
       <c r="AE283">
         <v>5</v>
       </c>
+      <c r="AF283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -30228,6 +31079,9 @@
       <c r="AE284">
         <v>0</v>
       </c>
+      <c r="AF284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -30333,6 +31187,9 @@
       <c r="AE285">
         <v>0</v>
       </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -30438,6 +31295,9 @@
       <c r="AE286">
         <v>8</v>
       </c>
+      <c r="AF286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -30543,6 +31403,9 @@
       <c r="AE287">
         <v>5</v>
       </c>
+      <c r="AF287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -30648,6 +31511,9 @@
       <c r="AE288">
         <v>0</v>
       </c>
+      <c r="AF288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -30753,6 +31619,9 @@
       <c r="AE289">
         <v>1</v>
       </c>
+      <c r="AF289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -30858,6 +31727,9 @@
       <c r="AE290">
         <v>7</v>
       </c>
+      <c r="AF290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -30963,6 +31835,9 @@
       <c r="AE291">
         <v>3</v>
       </c>
+      <c r="AF291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -31068,6 +31943,9 @@
       <c r="AE292">
         <v>5</v>
       </c>
+      <c r="AF292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -31173,6 +32051,9 @@
       <c r="AE293">
         <v>11</v>
       </c>
+      <c r="AF293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -31278,6 +32159,9 @@
       <c r="AE294">
         <v>6</v>
       </c>
+      <c r="AF294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -31383,6 +32267,9 @@
       <c r="AE295">
         <v>0</v>
       </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -31488,6 +32375,9 @@
       <c r="AE296">
         <v>1</v>
       </c>
+      <c r="AF296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -31593,6 +32483,9 @@
       <c r="AE297">
         <v>8</v>
       </c>
+      <c r="AF297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -31698,6 +32591,9 @@
       <c r="AE298">
         <v>28</v>
       </c>
+      <c r="AF298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -31803,6 +32699,9 @@
       <c r="AE299">
         <v>21</v>
       </c>
+      <c r="AF299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -31908,6 +32807,9 @@
       <c r="AE300">
         <v>15</v>
       </c>
+      <c r="AF300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -32013,6 +32915,9 @@
       <c r="AE301">
         <v>0</v>
       </c>
+      <c r="AF301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -32118,6 +33023,9 @@
       <c r="AE302">
         <v>0</v>
       </c>
+      <c r="AF302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -32223,6 +33131,9 @@
       <c r="AE303">
         <v>0</v>
       </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -32328,6 +33239,9 @@
       <c r="AE304">
         <v>0</v>
       </c>
+      <c r="AF304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -32433,6 +33347,9 @@
       <c r="AE305">
         <v>3</v>
       </c>
+      <c r="AF305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -32538,6 +33455,9 @@
       <c r="AE306">
         <v>1</v>
       </c>
+      <c r="AF306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -32643,6 +33563,9 @@
       <c r="AE307">
         <v>4</v>
       </c>
+      <c r="AF307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -32748,6 +33671,9 @@
       <c r="AE308">
         <v>0</v>
       </c>
+      <c r="AF308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -32853,6 +33779,9 @@
       <c r="AE309">
         <v>0</v>
       </c>
+      <c r="AF309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -32958,6 +33887,9 @@
       <c r="AE310">
         <v>7</v>
       </c>
+      <c r="AF310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -33063,6 +33995,9 @@
       <c r="AE311">
         <v>2</v>
       </c>
+      <c r="AF311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -33168,6 +34103,9 @@
       <c r="AE312">
         <v>2</v>
       </c>
+      <c r="AF312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -33273,6 +34211,9 @@
       <c r="AE313">
         <v>2</v>
       </c>
+      <c r="AF313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -33378,6 +34319,9 @@
       <c r="AE314">
         <v>10</v>
       </c>
+      <c r="AF314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -33483,6 +34427,9 @@
       <c r="AE315">
         <v>1</v>
       </c>
+      <c r="AF315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -33588,6 +34535,9 @@
       <c r="AE316">
         <v>17</v>
       </c>
+      <c r="AF316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -33693,6 +34643,9 @@
       <c r="AE317">
         <v>0</v>
       </c>
+      <c r="AF317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -33798,6 +34751,9 @@
       <c r="AE318">
         <v>0</v>
       </c>
+      <c r="AF318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -33903,6 +34859,9 @@
       <c r="AE319">
         <v>137</v>
       </c>
+      <c r="AF319">
+        <v>142</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -34008,6 +34967,9 @@
       <c r="AE320">
         <v>6</v>
       </c>
+      <c r="AF320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -34113,6 +35075,9 @@
       <c r="AE321">
         <v>5</v>
       </c>
+      <c r="AF321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -34218,6 +35183,9 @@
       <c r="AE322">
         <v>1</v>
       </c>
+      <c r="AF322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -34323,6 +35291,9 @@
       <c r="AE323">
         <v>3</v>
       </c>
+      <c r="AF323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -34428,6 +35399,9 @@
       <c r="AE324">
         <v>15</v>
       </c>
+      <c r="AF324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -34533,6 +35507,9 @@
       <c r="AE325">
         <v>1</v>
       </c>
+      <c r="AF325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -34638,6 +35615,9 @@
       <c r="AE326">
         <v>1</v>
       </c>
+      <c r="AF326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -34743,6 +35723,9 @@
       <c r="AE327">
         <v>0</v>
       </c>
+      <c r="AF327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -34848,6 +35831,9 @@
       <c r="AE328">
         <v>0</v>
       </c>
+      <c r="AF328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -34953,6 +35939,9 @@
       <c r="AE329">
         <v>3</v>
       </c>
+      <c r="AF329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -35058,6 +36047,9 @@
       <c r="AE330">
         <v>1</v>
       </c>
+      <c r="AF330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -35163,6 +36155,9 @@
       <c r="AE331">
         <v>2</v>
       </c>
+      <c r="AF331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -35268,6 +36263,9 @@
       <c r="AE332">
         <v>0</v>
       </c>
+      <c r="AF332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -35373,6 +36371,9 @@
       <c r="AE333">
         <v>0</v>
       </c>
+      <c r="AF333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -35478,6 +36479,9 @@
       <c r="AE334">
         <v>0</v>
       </c>
+      <c r="AF334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -35583,6 +36587,9 @@
       <c r="AE335">
         <v>16</v>
       </c>
+      <c r="AF335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -35688,6 +36695,9 @@
       <c r="AE336">
         <v>2</v>
       </c>
+      <c r="AF336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -35793,6 +36803,9 @@
       <c r="AE337">
         <v>1</v>
       </c>
+      <c r="AF337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -35898,6 +36911,9 @@
       <c r="AE338">
         <v>2</v>
       </c>
+      <c r="AF338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -36003,6 +37019,9 @@
       <c r="AE339">
         <v>0</v>
       </c>
+      <c r="AF339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -36108,6 +37127,9 @@
       <c r="AE340">
         <v>0</v>
       </c>
+      <c r="AF340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -36213,6 +37235,9 @@
       <c r="AE341">
         <v>1</v>
       </c>
+      <c r="AF341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -36318,6 +37343,9 @@
       <c r="AE342">
         <v>2</v>
       </c>
+      <c r="AF342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -36423,6 +37451,9 @@
       <c r="AE343">
         <v>0</v>
       </c>
+      <c r="AF343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -36528,6 +37559,9 @@
       <c r="AE344">
         <v>1</v>
       </c>
+      <c r="AF344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -36633,6 +37667,9 @@
       <c r="AE345">
         <v>0</v>
       </c>
+      <c r="AF345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -36738,6 +37775,9 @@
       <c r="AE346">
         <v>0</v>
       </c>
+      <c r="AF346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -36843,6 +37883,9 @@
       <c r="AE347">
         <v>3</v>
       </c>
+      <c r="AF347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -36948,6 +37991,9 @@
       <c r="AE348">
         <v>2</v>
       </c>
+      <c r="AF348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -37053,6 +38099,9 @@
       <c r="AE349">
         <v>4</v>
       </c>
+      <c r="AF349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -37158,6 +38207,9 @@
       <c r="AE350">
         <v>1</v>
       </c>
+      <c r="AF350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -37263,6 +38315,9 @@
       <c r="AE351">
         <v>0</v>
       </c>
+      <c r="AF351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -37368,6 +38423,9 @@
       <c r="AE352">
         <v>0</v>
       </c>
+      <c r="AF352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -37473,6 +38531,9 @@
       <c r="AE353">
         <v>0</v>
       </c>
+      <c r="AF353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -37578,6 +38639,9 @@
       <c r="AE354">
         <v>1</v>
       </c>
+      <c r="AF354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -37683,6 +38747,9 @@
       <c r="AE355">
         <v>1</v>
       </c>
+      <c r="AF355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -37788,6 +38855,9 @@
       <c r="AE356">
         <v>0</v>
       </c>
+      <c r="AF356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -37893,6 +38963,9 @@
       <c r="AE357">
         <v>4</v>
       </c>
+      <c r="AF357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -37998,6 +39071,9 @@
       <c r="AE358">
         <v>0</v>
       </c>
+      <c r="AF358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -38102,6 +39178,9 @@
       </c>
       <c r="AE359">
         <v>1</v>
+      </c>
+      <c r="AF359">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF359"/>
+  <dimension ref="A1:AG359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,6 +518,11 @@
           <t>2020-04-20</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -626,6 +631,9 @@
       <c r="AF2">
         <v>2156</v>
       </c>
+      <c r="AG2">
+        <v>2177</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -734,6 +742,9 @@
       <c r="AF3">
         <v>14</v>
       </c>
+      <c r="AG3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -842,6 +853,9 @@
       <c r="AF4">
         <v>129</v>
       </c>
+      <c r="AG4">
+        <v>130</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -950,6 +964,9 @@
       <c r="AF5">
         <v>50</v>
       </c>
+      <c r="AG5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1058,6 +1075,9 @@
       <c r="AF6">
         <v>46</v>
       </c>
+      <c r="AG6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1166,6 +1186,9 @@
       <c r="AF7">
         <v>5</v>
       </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1274,6 +1297,9 @@
       <c r="AF8">
         <v>1</v>
       </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1382,6 +1408,9 @@
       <c r="AF9">
         <v>0</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1490,6 +1519,9 @@
       <c r="AF10">
         <v>7</v>
       </c>
+      <c r="AG10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1598,6 +1630,9 @@
       <c r="AF11">
         <v>6</v>
       </c>
+      <c r="AG11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1706,6 +1741,9 @@
       <c r="AF12">
         <v>12</v>
       </c>
+      <c r="AG12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1814,6 +1852,9 @@
       <c r="AF13">
         <v>13</v>
       </c>
+      <c r="AG13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1922,6 +1963,9 @@
       <c r="AF14">
         <v>14</v>
       </c>
+      <c r="AG14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2030,6 +2074,9 @@
       <c r="AF15">
         <v>11</v>
       </c>
+      <c r="AG15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2138,6 +2185,9 @@
       <c r="AF16">
         <v>13</v>
       </c>
+      <c r="AG16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2246,6 +2296,9 @@
       <c r="AF17">
         <v>0</v>
       </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2354,6 +2407,9 @@
       <c r="AF18">
         <v>0</v>
       </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2462,6 +2518,9 @@
       <c r="AF19">
         <v>3</v>
       </c>
+      <c r="AG19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2570,6 +2629,9 @@
       <c r="AF20">
         <v>0</v>
       </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2678,6 +2740,9 @@
       <c r="AF21">
         <v>1</v>
       </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2786,6 +2851,9 @@
       <c r="AF22">
         <v>20</v>
       </c>
+      <c r="AG22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2894,6 +2962,9 @@
       <c r="AF23">
         <v>36</v>
       </c>
+      <c r="AG23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3002,6 +3073,9 @@
       <c r="AF24">
         <v>0</v>
       </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3110,6 +3184,9 @@
       <c r="AF25">
         <v>11</v>
       </c>
+      <c r="AG25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3218,6 +3295,9 @@
       <c r="AF26">
         <v>18</v>
       </c>
+      <c r="AG26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3326,6 +3406,9 @@
       <c r="AF27">
         <v>14</v>
       </c>
+      <c r="AG27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3434,6 +3517,9 @@
       <c r="AF28">
         <v>26</v>
       </c>
+      <c r="AG28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3542,6 +3628,9 @@
       <c r="AF29">
         <v>1</v>
       </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3650,6 +3739,9 @@
       <c r="AF30">
         <v>3</v>
       </c>
+      <c r="AG30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3758,6 +3850,9 @@
       <c r="AF31">
         <v>3</v>
       </c>
+      <c r="AG31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3866,6 +3961,9 @@
       <c r="AF32">
         <v>7</v>
       </c>
+      <c r="AG32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3974,6 +4072,9 @@
       <c r="AF33">
         <v>2</v>
       </c>
+      <c r="AG33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4082,6 +4183,9 @@
       <c r="AF34">
         <v>6</v>
       </c>
+      <c r="AG34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4190,6 +4294,9 @@
       <c r="AF35">
         <v>0</v>
       </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4298,6 +4405,9 @@
       <c r="AF36">
         <v>1</v>
       </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4406,6 +4516,9 @@
       <c r="AF37">
         <v>6</v>
       </c>
+      <c r="AG37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4514,6 +4627,9 @@
       <c r="AF38">
         <v>5</v>
       </c>
+      <c r="AG38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4622,6 +4738,9 @@
       <c r="AF39">
         <v>0</v>
       </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4730,6 +4849,9 @@
       <c r="AF40">
         <v>10</v>
       </c>
+      <c r="AG40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4838,6 +4960,9 @@
       <c r="AF41">
         <v>0</v>
       </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4946,6 +5071,9 @@
       <c r="AF42">
         <v>0</v>
       </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5054,6 +5182,9 @@
       <c r="AF43">
         <v>0</v>
       </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5162,6 +5293,9 @@
       <c r="AF44">
         <v>1</v>
       </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5270,6 +5404,9 @@
       <c r="AF45">
         <v>2</v>
       </c>
+      <c r="AG45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5378,6 +5515,9 @@
       <c r="AF46">
         <v>2</v>
       </c>
+      <c r="AG46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5486,6 +5626,9 @@
       <c r="AF47">
         <v>0</v>
       </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5594,6 +5737,9 @@
       <c r="AF48">
         <v>3</v>
       </c>
+      <c r="AG48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5702,6 +5848,9 @@
       <c r="AF49">
         <v>4</v>
       </c>
+      <c r="AG49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5810,6 +5959,9 @@
       <c r="AF50">
         <v>1</v>
       </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5918,6 +6070,9 @@
       <c r="AF51">
         <v>3</v>
       </c>
+      <c r="AG51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6026,6 +6181,9 @@
       <c r="AF52">
         <v>37</v>
       </c>
+      <c r="AG52">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6134,6 +6292,9 @@
       <c r="AF53">
         <v>5</v>
       </c>
+      <c r="AG53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6242,6 +6403,9 @@
       <c r="AF54">
         <v>0</v>
       </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6350,6 +6514,9 @@
       <c r="AF55">
         <v>2</v>
       </c>
+      <c r="AG55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6458,6 +6625,9 @@
       <c r="AF56">
         <v>5</v>
       </c>
+      <c r="AG56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6566,6 +6736,9 @@
       <c r="AF57">
         <v>3</v>
       </c>
+      <c r="AG57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6674,6 +6847,9 @@
       <c r="AF58">
         <v>0</v>
       </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6782,6 +6958,9 @@
       <c r="AF59">
         <v>0</v>
       </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6890,6 +7069,9 @@
       <c r="AF60">
         <v>2</v>
       </c>
+      <c r="AG60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6998,6 +7180,9 @@
       <c r="AF61">
         <v>4</v>
       </c>
+      <c r="AG61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7106,6 +7291,9 @@
       <c r="AF62">
         <v>1</v>
       </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7214,6 +7402,9 @@
       <c r="AF63">
         <v>1</v>
       </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7322,6 +7513,9 @@
       <c r="AF64">
         <v>0</v>
       </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7430,6 +7624,9 @@
       <c r="AF65">
         <v>5</v>
       </c>
+      <c r="AG65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7538,6 +7735,9 @@
       <c r="AF66">
         <v>0</v>
       </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7646,6 +7846,9 @@
       <c r="AF67">
         <v>0</v>
       </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7754,6 +7957,9 @@
       <c r="AF68">
         <v>4</v>
       </c>
+      <c r="AG68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7862,6 +8068,9 @@
       <c r="AF69">
         <v>0</v>
       </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7970,6 +8179,9 @@
       <c r="AF70">
         <v>0</v>
       </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8078,6 +8290,9 @@
       <c r="AF71">
         <v>0</v>
       </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8186,6 +8401,9 @@
       <c r="AF72">
         <v>5</v>
       </c>
+      <c r="AG72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8294,6 +8512,9 @@
       <c r="AF73">
         <v>0</v>
       </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8402,6 +8623,9 @@
       <c r="AF74">
         <v>0</v>
       </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8510,6 +8734,9 @@
       <c r="AF75">
         <v>0</v>
       </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8618,6 +8845,9 @@
       <c r="AF76">
         <v>1</v>
       </c>
+      <c r="AG76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8726,6 +8956,9 @@
       <c r="AF77">
         <v>0</v>
       </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8834,6 +9067,9 @@
       <c r="AF78">
         <v>1</v>
       </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8942,6 +9178,9 @@
       <c r="AF79">
         <v>0</v>
       </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9050,6 +9289,9 @@
       <c r="AF80">
         <v>0</v>
       </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9158,6 +9400,9 @@
       <c r="AF81">
         <v>0</v>
       </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9266,6 +9511,9 @@
       <c r="AF82">
         <v>0</v>
       </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9374,6 +9622,9 @@
       <c r="AF83">
         <v>5</v>
       </c>
+      <c r="AG83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9482,6 +9733,9 @@
       <c r="AF84">
         <v>13</v>
       </c>
+      <c r="AG84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9590,6 +9844,9 @@
       <c r="AF85">
         <v>3</v>
       </c>
+      <c r="AG85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9698,6 +9955,9 @@
       <c r="AF86">
         <v>5</v>
       </c>
+      <c r="AG86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9806,6 +10066,9 @@
       <c r="AF87">
         <v>0</v>
       </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9914,6 +10177,9 @@
       <c r="AF88">
         <v>0</v>
       </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10022,6 +10288,9 @@
       <c r="AF89">
         <v>6</v>
       </c>
+      <c r="AG89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10130,6 +10399,9 @@
       <c r="AF90">
         <v>0</v>
       </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10238,6 +10510,9 @@
       <c r="AF91">
         <v>1</v>
       </c>
+      <c r="AG91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10346,6 +10621,9 @@
       <c r="AF92">
         <v>0</v>
       </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10454,6 +10732,9 @@
       <c r="AF93">
         <v>32</v>
       </c>
+      <c r="AG93">
+        <v>32</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10562,6 +10843,9 @@
       <c r="AF94">
         <v>93</v>
       </c>
+      <c r="AG94">
+        <v>93</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10670,6 +10954,9 @@
       <c r="AF95">
         <v>54</v>
       </c>
+      <c r="AG95">
+        <v>54</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10778,6 +11065,9 @@
       <c r="AF96">
         <v>84</v>
       </c>
+      <c r="AG96">
+        <v>84</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10886,6 +11176,9 @@
       <c r="AF97">
         <v>165</v>
       </c>
+      <c r="AG97">
+        <v>166</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10994,6 +11287,9 @@
       <c r="AF98">
         <v>21</v>
       </c>
+      <c r="AG98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11102,6 +11398,9 @@
       <c r="AF99">
         <v>10</v>
       </c>
+      <c r="AG99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11210,6 +11509,9 @@
       <c r="AF100">
         <v>2</v>
       </c>
+      <c r="AG100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11318,6 +11620,9 @@
       <c r="AF101">
         <v>2</v>
       </c>
+      <c r="AG101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11426,6 +11731,9 @@
       <c r="AF102">
         <v>3</v>
       </c>
+      <c r="AG102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11534,6 +11842,9 @@
       <c r="AF103">
         <v>47</v>
       </c>
+      <c r="AG103">
+        <v>47</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11642,6 +11953,9 @@
       <c r="AF104">
         <v>2</v>
       </c>
+      <c r="AG104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11750,6 +12064,9 @@
       <c r="AF105">
         <v>1</v>
       </c>
+      <c r="AG105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11858,6 +12175,9 @@
       <c r="AF106">
         <v>2</v>
       </c>
+      <c r="AG106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11966,6 +12286,9 @@
       <c r="AF107">
         <v>6</v>
       </c>
+      <c r="AG107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12074,6 +12397,9 @@
       <c r="AF108">
         <v>22</v>
       </c>
+      <c r="AG108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12182,6 +12508,9 @@
       <c r="AF109">
         <v>93</v>
       </c>
+      <c r="AG109">
+        <v>93</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12290,6 +12619,9 @@
       <c r="AF110">
         <v>18</v>
       </c>
+      <c r="AG110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12398,6 +12730,9 @@
       <c r="AF111">
         <v>20</v>
       </c>
+      <c r="AG111">
+        <v>20</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12506,6 +12841,9 @@
       <c r="AF112">
         <v>45</v>
       </c>
+      <c r="AG112">
+        <v>46</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12614,6 +12952,9 @@
       <c r="AF113">
         <v>403</v>
       </c>
+      <c r="AG113">
+        <v>403</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12722,6 +13063,9 @@
       <c r="AF114">
         <v>161</v>
       </c>
+      <c r="AG114">
+        <v>164</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12830,6 +13174,9 @@
       <c r="AF115">
         <v>8</v>
       </c>
+      <c r="AG115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12938,6 +13285,9 @@
       <c r="AF116">
         <v>25</v>
       </c>
+      <c r="AG116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13046,6 +13396,9 @@
       <c r="AF117">
         <v>47</v>
       </c>
+      <c r="AG117">
+        <v>47</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13154,6 +13507,9 @@
       <c r="AF118">
         <v>79</v>
       </c>
+      <c r="AG118">
+        <v>79</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13262,6 +13618,9 @@
       <c r="AF119">
         <v>140</v>
       </c>
+      <c r="AG119">
+        <v>141</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13370,6 +13729,9 @@
       <c r="AF120">
         <v>45</v>
       </c>
+      <c r="AG120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13478,6 +13840,9 @@
       <c r="AF121">
         <v>8</v>
       </c>
+      <c r="AG121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13586,6 +13951,9 @@
       <c r="AF122">
         <v>56</v>
       </c>
+      <c r="AG122">
+        <v>56</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13694,6 +14062,9 @@
       <c r="AF123">
         <v>14</v>
       </c>
+      <c r="AG123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13802,6 +14173,9 @@
       <c r="AF124">
         <v>35</v>
       </c>
+      <c r="AG124">
+        <v>35</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13910,6 +14284,9 @@
       <c r="AF125">
         <v>17</v>
       </c>
+      <c r="AG125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14018,6 +14395,9 @@
       <c r="AF126">
         <v>2</v>
       </c>
+      <c r="AG126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14126,6 +14506,9 @@
       <c r="AF127">
         <v>10</v>
       </c>
+      <c r="AG127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14234,6 +14617,9 @@
       <c r="AF128">
         <v>1</v>
       </c>
+      <c r="AG128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14342,6 +14728,9 @@
       <c r="AF129">
         <v>7</v>
       </c>
+      <c r="AG129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14450,6 +14839,9 @@
       <c r="AF130">
         <v>10</v>
       </c>
+      <c r="AG130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14558,6 +14950,9 @@
       <c r="AF131">
         <v>8</v>
       </c>
+      <c r="AG131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14666,6 +15061,9 @@
       <c r="AF132">
         <v>13</v>
       </c>
+      <c r="AG132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14774,6 +15172,9 @@
       <c r="AF133">
         <v>44</v>
       </c>
+      <c r="AG133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14882,6 +15283,9 @@
       <c r="AF134">
         <v>0</v>
       </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14990,6 +15394,9 @@
       <c r="AF135">
         <v>0</v>
       </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15098,6 +15505,9 @@
       <c r="AF136">
         <v>10</v>
       </c>
+      <c r="AG136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15206,6 +15616,9 @@
       <c r="AF137">
         <v>5</v>
       </c>
+      <c r="AG137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15314,6 +15727,9 @@
       <c r="AF138">
         <v>35</v>
       </c>
+      <c r="AG138">
+        <v>35</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15422,6 +15838,9 @@
       <c r="AF139">
         <v>4</v>
       </c>
+      <c r="AG139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15530,6 +15949,9 @@
       <c r="AF140">
         <v>1</v>
       </c>
+      <c r="AG140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15638,6 +16060,9 @@
       <c r="AF141">
         <v>2</v>
       </c>
+      <c r="AG141">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15746,6 +16171,9 @@
       <c r="AF142">
         <v>6</v>
       </c>
+      <c r="AG142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15854,6 +16282,9 @@
       <c r="AF143">
         <v>11</v>
       </c>
+      <c r="AG143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15962,6 +16393,9 @@
       <c r="AF144">
         <v>1</v>
       </c>
+      <c r="AG144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16070,6 +16504,9 @@
       <c r="AF145">
         <v>81</v>
       </c>
+      <c r="AG145">
+        <v>81</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16178,6 +16615,9 @@
       <c r="AF146">
         <v>35</v>
       </c>
+      <c r="AG146">
+        <v>35</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16286,6 +16726,9 @@
       <c r="AF147">
         <v>19</v>
       </c>
+      <c r="AG147">
+        <v>19</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -16394,6 +16837,9 @@
       <c r="AF148">
         <v>59</v>
       </c>
+      <c r="AG148">
+        <v>60</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -16502,6 +16948,9 @@
       <c r="AF149">
         <v>11</v>
       </c>
+      <c r="AG149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -16610,6 +17059,9 @@
       <c r="AF150">
         <v>33</v>
       </c>
+      <c r="AG150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16718,6 +17170,9 @@
       <c r="AF151">
         <v>0</v>
       </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16826,6 +17281,9 @@
       <c r="AF152">
         <v>18</v>
       </c>
+      <c r="AG152">
+        <v>18</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16934,6 +17392,9 @@
       <c r="AF153">
         <v>4</v>
       </c>
+      <c r="AG153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17042,6 +17503,9 @@
       <c r="AF154">
         <v>5</v>
       </c>
+      <c r="AG154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17150,6 +17614,9 @@
       <c r="AF155">
         <v>3</v>
       </c>
+      <c r="AG155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17258,6 +17725,9 @@
       <c r="AF156">
         <v>3</v>
       </c>
+      <c r="AG156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17366,6 +17836,9 @@
       <c r="AF157">
         <v>13</v>
       </c>
+      <c r="AG157">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -17474,6 +17947,9 @@
       <c r="AF158">
         <v>2</v>
       </c>
+      <c r="AG158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -17582,6 +18058,9 @@
       <c r="AF159">
         <v>4</v>
       </c>
+      <c r="AG159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -17690,6 +18169,9 @@
       <c r="AF160">
         <v>0</v>
       </c>
+      <c r="AG160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17798,6 +18280,9 @@
       <c r="AF161">
         <v>0</v>
       </c>
+      <c r="AG161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17906,6 +18391,9 @@
       <c r="AF162">
         <v>2</v>
       </c>
+      <c r="AG162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18014,6 +18502,9 @@
       <c r="AF163">
         <v>0</v>
       </c>
+      <c r="AG163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -18122,6 +18613,9 @@
       <c r="AF164">
         <v>0</v>
       </c>
+      <c r="AG164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18230,6 +18724,9 @@
       <c r="AF165">
         <v>1</v>
       </c>
+      <c r="AG165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18338,6 +18835,9 @@
       <c r="AF166">
         <v>0</v>
       </c>
+      <c r="AG166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -18446,6 +18946,9 @@
       <c r="AF167">
         <v>1</v>
       </c>
+      <c r="AG167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -18554,6 +19057,9 @@
       <c r="AF168">
         <v>5</v>
       </c>
+      <c r="AG168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -18662,6 +19168,9 @@
       <c r="AF169">
         <v>2</v>
       </c>
+      <c r="AG169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -18770,6 +19279,9 @@
       <c r="AF170">
         <v>1</v>
       </c>
+      <c r="AG170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18878,6 +19390,9 @@
       <c r="AF171">
         <v>3</v>
       </c>
+      <c r="AG171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18986,6 +19501,9 @@
       <c r="AF172">
         <v>2</v>
       </c>
+      <c r="AG172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -19094,6 +19612,9 @@
       <c r="AF173">
         <v>13</v>
       </c>
+      <c r="AG173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19202,6 +19723,9 @@
       <c r="AF174">
         <v>36</v>
       </c>
+      <c r="AG174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -19310,6 +19834,9 @@
       <c r="AF175">
         <v>1</v>
       </c>
+      <c r="AG175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -19418,6 +19945,9 @@
       <c r="AF176">
         <v>8</v>
       </c>
+      <c r="AG176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -19526,6 +20056,9 @@
       <c r="AF177">
         <v>2</v>
       </c>
+      <c r="AG177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -19634,6 +20167,9 @@
       <c r="AF178">
         <v>6</v>
       </c>
+      <c r="AG178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -19742,6 +20278,9 @@
       <c r="AF179">
         <v>4</v>
       </c>
+      <c r="AG179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19850,6 +20389,9 @@
       <c r="AF180">
         <v>12</v>
       </c>
+      <c r="AG180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -19958,6 +20500,9 @@
       <c r="AF181">
         <v>9</v>
       </c>
+      <c r="AG181">
+        <v>10</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -20066,6 +20611,9 @@
       <c r="AF182">
         <v>2</v>
       </c>
+      <c r="AG182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -20174,6 +20722,9 @@
       <c r="AF183">
         <v>1</v>
       </c>
+      <c r="AG183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -20282,6 +20833,9 @@
       <c r="AF184">
         <v>0</v>
       </c>
+      <c r="AG184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -20390,6 +20944,9 @@
       <c r="AF185">
         <v>1</v>
       </c>
+      <c r="AG185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -20498,6 +21055,9 @@
       <c r="AF186">
         <v>9</v>
       </c>
+      <c r="AG186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -20606,6 +21166,9 @@
       <c r="AF187">
         <v>0</v>
       </c>
+      <c r="AG187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -20714,6 +21277,9 @@
       <c r="AF188">
         <v>0</v>
       </c>
+      <c r="AG188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -20822,6 +21388,9 @@
       <c r="AF189">
         <v>0</v>
       </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -20930,6 +21499,9 @@
       <c r="AF190">
         <v>25</v>
       </c>
+      <c r="AG190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -21038,6 +21610,9 @@
       <c r="AF191">
         <v>18</v>
       </c>
+      <c r="AG191">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -21146,6 +21721,9 @@
       <c r="AF192">
         <v>55</v>
       </c>
+      <c r="AG192">
+        <v>56</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -21254,6 +21832,9 @@
       <c r="AF193">
         <v>38</v>
       </c>
+      <c r="AG193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -21362,6 +21943,9 @@
       <c r="AF194">
         <v>36</v>
       </c>
+      <c r="AG194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -21470,6 +22054,9 @@
       <c r="AF195">
         <v>9</v>
       </c>
+      <c r="AG195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -21578,6 +22165,9 @@
       <c r="AF196">
         <v>39</v>
       </c>
+      <c r="AG196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -21686,6 +22276,9 @@
       <c r="AF197">
         <v>4</v>
       </c>
+      <c r="AG197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -21794,6 +22387,9 @@
       <c r="AF198">
         <v>21</v>
       </c>
+      <c r="AG198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -21902,6 +22498,9 @@
       <c r="AF199">
         <v>2</v>
       </c>
+      <c r="AG199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -22010,6 +22609,9 @@
       <c r="AF200">
         <v>5</v>
       </c>
+      <c r="AG200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -22118,6 +22720,9 @@
       <c r="AF201">
         <v>2</v>
       </c>
+      <c r="AG201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -22226,6 +22831,9 @@
       <c r="AF202">
         <v>1</v>
       </c>
+      <c r="AG202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -22334,6 +22942,9 @@
       <c r="AF203">
         <v>3</v>
       </c>
+      <c r="AG203">
+        <v>3</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -22442,6 +23053,9 @@
       <c r="AF204">
         <v>0</v>
       </c>
+      <c r="AG204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -22550,6 +23164,9 @@
       <c r="AF205">
         <v>1</v>
       </c>
+      <c r="AG205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -22658,6 +23275,9 @@
       <c r="AF206">
         <v>0</v>
       </c>
+      <c r="AG206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -22766,6 +23386,9 @@
       <c r="AF207">
         <v>0</v>
       </c>
+      <c r="AG207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -22874,6 +23497,9 @@
       <c r="AF208">
         <v>0</v>
       </c>
+      <c r="AG208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -22982,6 +23608,9 @@
       <c r="AF209">
         <v>0</v>
       </c>
+      <c r="AG209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -23090,6 +23719,9 @@
       <c r="AF210">
         <v>0</v>
       </c>
+      <c r="AG210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -23198,6 +23830,9 @@
       <c r="AF211">
         <v>0</v>
       </c>
+      <c r="AG211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -23306,6 +23941,9 @@
       <c r="AF212">
         <v>2</v>
       </c>
+      <c r="AG212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -23414,6 +24052,9 @@
       <c r="AF213">
         <v>0</v>
       </c>
+      <c r="AG213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -23522,6 +24163,9 @@
       <c r="AF214">
         <v>1</v>
       </c>
+      <c r="AG214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -23630,6 +24274,9 @@
       <c r="AF215">
         <v>29</v>
       </c>
+      <c r="AG215">
+        <v>29</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -23738,6 +24385,9 @@
       <c r="AF216">
         <v>198</v>
       </c>
+      <c r="AG216">
+        <v>199</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -23846,6 +24496,9 @@
       <c r="AF217">
         <v>9</v>
       </c>
+      <c r="AG217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -23954,6 +24607,9 @@
       <c r="AF218">
         <v>11</v>
       </c>
+      <c r="AG218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -24062,6 +24718,9 @@
       <c r="AF219">
         <v>0</v>
       </c>
+      <c r="AG219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -24170,6 +24829,9 @@
       <c r="AF220">
         <v>2</v>
       </c>
+      <c r="AG220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -24278,6 +24940,9 @@
       <c r="AF221">
         <v>0</v>
       </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -24386,6 +25051,9 @@
       <c r="AF222">
         <v>1</v>
       </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -24494,6 +25162,9 @@
       <c r="AF223">
         <v>2</v>
       </c>
+      <c r="AG223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -24602,6 +25273,9 @@
       <c r="AF224">
         <v>7</v>
       </c>
+      <c r="AG224">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -24710,6 +25384,9 @@
       <c r="AF225">
         <v>3</v>
       </c>
+      <c r="AG225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -24818,6 +25495,9 @@
       <c r="AF226">
         <v>1</v>
       </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -24926,6 +25606,9 @@
       <c r="AF227">
         <v>2</v>
       </c>
+      <c r="AG227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -25034,6 +25717,9 @@
       <c r="AF228">
         <v>2</v>
       </c>
+      <c r="AG228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -25142,6 +25828,9 @@
       <c r="AF229">
         <v>2</v>
       </c>
+      <c r="AG229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -25250,6 +25939,9 @@
       <c r="AF230">
         <v>0</v>
       </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -25358,6 +26050,9 @@
       <c r="AF231">
         <v>3</v>
       </c>
+      <c r="AG231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -25466,6 +26161,9 @@
       <c r="AF232">
         <v>12</v>
       </c>
+      <c r="AG232">
+        <v>12</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -25574,6 +26272,9 @@
       <c r="AF233">
         <v>0</v>
       </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -25682,6 +26383,9 @@
       <c r="AF234">
         <v>4</v>
       </c>
+      <c r="AG234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -25790,6 +26494,9 @@
       <c r="AF235">
         <v>1</v>
       </c>
+      <c r="AG235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -25898,6 +26605,9 @@
       <c r="AF236">
         <v>1</v>
       </c>
+      <c r="AG236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -26006,6 +26716,9 @@
       <c r="AF237">
         <v>1</v>
       </c>
+      <c r="AG237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -26114,6 +26827,9 @@
       <c r="AF238">
         <v>500</v>
       </c>
+      <c r="AG238">
+        <v>508</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -26222,6 +26938,9 @@
       <c r="AF239">
         <v>9</v>
       </c>
+      <c r="AG239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -26330,6 +27049,9 @@
       <c r="AF240">
         <v>4</v>
       </c>
+      <c r="AG240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -26438,6 +27160,9 @@
       <c r="AF241">
         <v>4</v>
       </c>
+      <c r="AG241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -26546,6 +27271,9 @@
       <c r="AF242">
         <v>4</v>
       </c>
+      <c r="AG242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -26654,6 +27382,9 @@
       <c r="AF243">
         <v>6</v>
       </c>
+      <c r="AG243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -26762,6 +27493,9 @@
       <c r="AF244">
         <v>8</v>
       </c>
+      <c r="AG244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -26870,6 +27604,9 @@
       <c r="AF245">
         <v>0</v>
       </c>
+      <c r="AG245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -26978,6 +27715,9 @@
       <c r="AF246">
         <v>4</v>
       </c>
+      <c r="AG246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -27086,6 +27826,9 @@
       <c r="AF247">
         <v>0</v>
       </c>
+      <c r="AG247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -27194,6 +27937,9 @@
       <c r="AF248">
         <v>0</v>
       </c>
+      <c r="AG248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -27302,6 +28048,9 @@
       <c r="AF249">
         <v>2</v>
       </c>
+      <c r="AG249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -27410,6 +28159,9 @@
       <c r="AF250">
         <v>24</v>
       </c>
+      <c r="AG250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -27518,6 +28270,9 @@
       <c r="AF251">
         <v>9</v>
       </c>
+      <c r="AG251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -27626,6 +28381,9 @@
       <c r="AF252">
         <v>0</v>
       </c>
+      <c r="AG252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -27734,6 +28492,9 @@
       <c r="AF253">
         <v>17</v>
       </c>
+      <c r="AG253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -27842,6 +28603,9 @@
       <c r="AF254">
         <v>5</v>
       </c>
+      <c r="AG254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -27950,6 +28714,9 @@
       <c r="AF255">
         <v>51</v>
       </c>
+      <c r="AG255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -28058,6 +28825,9 @@
       <c r="AF256">
         <v>34</v>
       </c>
+      <c r="AG256">
+        <v>34</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -28166,6 +28936,9 @@
       <c r="AF257">
         <v>1</v>
       </c>
+      <c r="AG257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -28274,6 +29047,9 @@
       <c r="AF258">
         <v>0</v>
       </c>
+      <c r="AG258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -28382,6 +29158,9 @@
       <c r="AF259">
         <v>37</v>
       </c>
+      <c r="AG259">
+        <v>38</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -28490,6 +29269,9 @@
       <c r="AF260">
         <v>24</v>
       </c>
+      <c r="AG260">
+        <v>25</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -28598,6 +29380,9 @@
       <c r="AF261">
         <v>0</v>
       </c>
+      <c r="AG261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -28706,6 +29491,9 @@
       <c r="AF262">
         <v>0</v>
       </c>
+      <c r="AG262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -28814,6 +29602,9 @@
       <c r="AF263">
         <v>0</v>
       </c>
+      <c r="AG263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -28922,6 +29713,9 @@
       <c r="AF264">
         <v>1</v>
       </c>
+      <c r="AG264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -29030,6 +29824,9 @@
       <c r="AF265">
         <v>3</v>
       </c>
+      <c r="AG265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -29138,6 +29935,9 @@
       <c r="AF266">
         <v>0</v>
       </c>
+      <c r="AG266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -29246,6 +30046,9 @@
       <c r="AF267">
         <v>3</v>
       </c>
+      <c r="AG267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -29354,6 +30157,9 @@
       <c r="AF268">
         <v>0</v>
       </c>
+      <c r="AG268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -29462,6 +30268,9 @@
       <c r="AF269">
         <v>7</v>
       </c>
+      <c r="AG269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -29570,6 +30379,9 @@
       <c r="AF270">
         <v>0</v>
       </c>
+      <c r="AG270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -29678,6 +30490,9 @@
       <c r="AF271">
         <v>0</v>
       </c>
+      <c r="AG271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -29786,6 +30601,9 @@
       <c r="AF272">
         <v>1</v>
       </c>
+      <c r="AG272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -29894,6 +30712,9 @@
       <c r="AF273">
         <v>4</v>
       </c>
+      <c r="AG273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -30002,6 +30823,9 @@
       <c r="AF274">
         <v>0</v>
       </c>
+      <c r="AG274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -30110,6 +30934,9 @@
       <c r="AF275">
         <v>0</v>
       </c>
+      <c r="AG275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -30218,6 +31045,9 @@
       <c r="AF276">
         <v>17</v>
       </c>
+      <c r="AG276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -30326,6 +31156,9 @@
       <c r="AF277">
         <v>0</v>
       </c>
+      <c r="AG277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -30434,6 +31267,9 @@
       <c r="AF278">
         <v>0</v>
       </c>
+      <c r="AG278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -30542,6 +31378,9 @@
       <c r="AF279">
         <v>4</v>
       </c>
+      <c r="AG279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -30650,6 +31489,9 @@
       <c r="AF280">
         <v>12</v>
       </c>
+      <c r="AG280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -30758,6 +31600,9 @@
       <c r="AF281">
         <v>230</v>
       </c>
+      <c r="AG281">
+        <v>232</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -30866,6 +31711,9 @@
       <c r="AF282">
         <v>16</v>
       </c>
+      <c r="AG282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -30974,6 +31822,9 @@
       <c r="AF283">
         <v>5</v>
       </c>
+      <c r="AG283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -31082,6 +31933,9 @@
       <c r="AF284">
         <v>0</v>
       </c>
+      <c r="AG284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -31190,6 +32044,9 @@
       <c r="AF285">
         <v>0</v>
       </c>
+      <c r="AG285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -31298,6 +32155,9 @@
       <c r="AF286">
         <v>8</v>
       </c>
+      <c r="AG286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -31406,6 +32266,9 @@
       <c r="AF287">
         <v>5</v>
       </c>
+      <c r="AG287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -31514,6 +32377,9 @@
       <c r="AF288">
         <v>0</v>
       </c>
+      <c r="AG288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -31622,6 +32488,9 @@
       <c r="AF289">
         <v>1</v>
       </c>
+      <c r="AG289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -31730,6 +32599,9 @@
       <c r="AF290">
         <v>7</v>
       </c>
+      <c r="AG290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -31838,6 +32710,9 @@
       <c r="AF291">
         <v>3</v>
       </c>
+      <c r="AG291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -31946,6 +32821,9 @@
       <c r="AF292">
         <v>5</v>
       </c>
+      <c r="AG292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -32054,6 +32932,9 @@
       <c r="AF293">
         <v>11</v>
       </c>
+      <c r="AG293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -32162,6 +33043,9 @@
       <c r="AF294">
         <v>6</v>
       </c>
+      <c r="AG294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -32270,6 +33154,9 @@
       <c r="AF295">
         <v>0</v>
       </c>
+      <c r="AG295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -32378,6 +33265,9 @@
       <c r="AF296">
         <v>1</v>
       </c>
+      <c r="AG296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -32486,6 +33376,9 @@
       <c r="AF297">
         <v>8</v>
       </c>
+      <c r="AG297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -32594,6 +33487,9 @@
       <c r="AF298">
         <v>28</v>
       </c>
+      <c r="AG298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -32702,6 +33598,9 @@
       <c r="AF299">
         <v>21</v>
       </c>
+      <c r="AG299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -32810,6 +33709,9 @@
       <c r="AF300">
         <v>15</v>
       </c>
+      <c r="AG300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -32918,6 +33820,9 @@
       <c r="AF301">
         <v>0</v>
       </c>
+      <c r="AG301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -33026,6 +33931,9 @@
       <c r="AF302">
         <v>0</v>
       </c>
+      <c r="AG302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -33134,6 +34042,9 @@
       <c r="AF303">
         <v>0</v>
       </c>
+      <c r="AG303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -33242,6 +34153,9 @@
       <c r="AF304">
         <v>0</v>
       </c>
+      <c r="AG304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -33350,6 +34264,9 @@
       <c r="AF305">
         <v>3</v>
       </c>
+      <c r="AG305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -33458,6 +34375,9 @@
       <c r="AF306">
         <v>1</v>
       </c>
+      <c r="AG306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -33566,6 +34486,9 @@
       <c r="AF307">
         <v>4</v>
       </c>
+      <c r="AG307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -33674,6 +34597,9 @@
       <c r="AF308">
         <v>0</v>
       </c>
+      <c r="AG308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -33782,6 +34708,9 @@
       <c r="AF309">
         <v>0</v>
       </c>
+      <c r="AG309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -33890,6 +34819,9 @@
       <c r="AF310">
         <v>7</v>
       </c>
+      <c r="AG310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -33998,6 +34930,9 @@
       <c r="AF311">
         <v>2</v>
       </c>
+      <c r="AG311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -34106,6 +35041,9 @@
       <c r="AF312">
         <v>2</v>
       </c>
+      <c r="AG312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -34214,6 +35152,9 @@
       <c r="AF313">
         <v>2</v>
       </c>
+      <c r="AG313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -34322,6 +35263,9 @@
       <c r="AF314">
         <v>10</v>
       </c>
+      <c r="AG314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -34430,6 +35374,9 @@
       <c r="AF315">
         <v>1</v>
       </c>
+      <c r="AG315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -34538,6 +35485,9 @@
       <c r="AF316">
         <v>17</v>
       </c>
+      <c r="AG316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -34646,6 +35596,9 @@
       <c r="AF317">
         <v>0</v>
       </c>
+      <c r="AG317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -34754,6 +35707,9 @@
       <c r="AF318">
         <v>0</v>
       </c>
+      <c r="AG318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -34862,6 +35818,9 @@
       <c r="AF319">
         <v>142</v>
       </c>
+      <c r="AG319">
+        <v>144</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -34970,6 +35929,9 @@
       <c r="AF320">
         <v>6</v>
       </c>
+      <c r="AG320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -35078,6 +36040,9 @@
       <c r="AF321">
         <v>5</v>
       </c>
+      <c r="AG321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -35186,6 +36151,9 @@
       <c r="AF322">
         <v>1</v>
       </c>
+      <c r="AG322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -35294,6 +36262,9 @@
       <c r="AF323">
         <v>3</v>
       </c>
+      <c r="AG323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -35402,6 +36373,9 @@
       <c r="AF324">
         <v>15</v>
       </c>
+      <c r="AG324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -35510,6 +36484,9 @@
       <c r="AF325">
         <v>1</v>
       </c>
+      <c r="AG325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -35618,6 +36595,9 @@
       <c r="AF326">
         <v>1</v>
       </c>
+      <c r="AG326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -35726,6 +36706,9 @@
       <c r="AF327">
         <v>0</v>
       </c>
+      <c r="AG327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -35834,6 +36817,9 @@
       <c r="AF328">
         <v>0</v>
       </c>
+      <c r="AG328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -35942,6 +36928,9 @@
       <c r="AF329">
         <v>3</v>
       </c>
+      <c r="AG329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -36050,6 +37039,9 @@
       <c r="AF330">
         <v>1</v>
       </c>
+      <c r="AG330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -36158,6 +37150,9 @@
       <c r="AF331">
         <v>2</v>
       </c>
+      <c r="AG331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -36266,6 +37261,9 @@
       <c r="AF332">
         <v>0</v>
       </c>
+      <c r="AG332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -36374,6 +37372,9 @@
       <c r="AF333">
         <v>0</v>
       </c>
+      <c r="AG333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -36482,6 +37483,9 @@
       <c r="AF334">
         <v>0</v>
       </c>
+      <c r="AG334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -36590,6 +37594,9 @@
       <c r="AF335">
         <v>16</v>
       </c>
+      <c r="AG335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -36698,6 +37705,9 @@
       <c r="AF336">
         <v>2</v>
       </c>
+      <c r="AG336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -36806,6 +37816,9 @@
       <c r="AF337">
         <v>1</v>
       </c>
+      <c r="AG337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -36914,6 +37927,9 @@
       <c r="AF338">
         <v>2</v>
       </c>
+      <c r="AG338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -37022,6 +38038,9 @@
       <c r="AF339">
         <v>0</v>
       </c>
+      <c r="AG339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -37130,6 +38149,9 @@
       <c r="AF340">
         <v>0</v>
       </c>
+      <c r="AG340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -37238,6 +38260,9 @@
       <c r="AF341">
         <v>1</v>
       </c>
+      <c r="AG341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -37346,6 +38371,9 @@
       <c r="AF342">
         <v>2</v>
       </c>
+      <c r="AG342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -37454,6 +38482,9 @@
       <c r="AF343">
         <v>0</v>
       </c>
+      <c r="AG343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -37562,6 +38593,9 @@
       <c r="AF344">
         <v>1</v>
       </c>
+      <c r="AG344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -37670,6 +38704,9 @@
       <c r="AF345">
         <v>0</v>
       </c>
+      <c r="AG345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -37778,6 +38815,9 @@
       <c r="AF346">
         <v>0</v>
       </c>
+      <c r="AG346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -37886,6 +38926,9 @@
       <c r="AF347">
         <v>3</v>
       </c>
+      <c r="AG347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -37994,6 +39037,9 @@
       <c r="AF348">
         <v>2</v>
       </c>
+      <c r="AG348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -38102,6 +39148,9 @@
       <c r="AF349">
         <v>4</v>
       </c>
+      <c r="AG349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -38210,6 +39259,9 @@
       <c r="AF350">
         <v>1</v>
       </c>
+      <c r="AG350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -38318,6 +39370,9 @@
       <c r="AF351">
         <v>0</v>
       </c>
+      <c r="AG351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -38426,6 +39481,9 @@
       <c r="AF352">
         <v>0</v>
       </c>
+      <c r="AG352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -38534,6 +39592,9 @@
       <c r="AF353">
         <v>0</v>
       </c>
+      <c r="AG353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -38642,6 +39703,9 @@
       <c r="AF354">
         <v>1</v>
       </c>
+      <c r="AG354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -38750,6 +39814,9 @@
       <c r="AF355">
         <v>1</v>
       </c>
+      <c r="AG355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -38858,6 +39925,9 @@
       <c r="AF356">
         <v>0</v>
       </c>
+      <c r="AG356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -38966,6 +40036,9 @@
       <c r="AF357">
         <v>4</v>
       </c>
+      <c r="AG357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -39074,6 +40147,9 @@
       <c r="AF358">
         <v>0</v>
       </c>
+      <c r="AG358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -39180,6 +40256,9 @@
         <v>1</v>
       </c>
       <c r="AF359">
+        <v>2</v>
+      </c>
+      <c r="AG359">
         <v>2</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH359"/>
+  <dimension ref="A1:AI359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,6 +528,11 @@
           <t>2020-04-22</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -642,6 +647,9 @@
       <c r="AH2">
         <v>2211</v>
       </c>
+      <c r="AI2">
+        <v>2251</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -756,6 +764,9 @@
       <c r="AH3">
         <v>14</v>
       </c>
+      <c r="AI3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -870,6 +881,9 @@
       <c r="AH4">
         <v>131</v>
       </c>
+      <c r="AI4">
+        <v>132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -984,6 +998,9 @@
       <c r="AH5">
         <v>50</v>
       </c>
+      <c r="AI5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1098,6 +1115,9 @@
       <c r="AH6">
         <v>46</v>
       </c>
+      <c r="AI6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1212,6 +1232,9 @@
       <c r="AH7">
         <v>5</v>
       </c>
+      <c r="AI7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1326,6 +1349,9 @@
       <c r="AH8">
         <v>1</v>
       </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1440,6 +1466,9 @@
       <c r="AH9">
         <v>0</v>
       </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1554,6 +1583,9 @@
       <c r="AH10">
         <v>7</v>
       </c>
+      <c r="AI10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1668,6 +1700,9 @@
       <c r="AH11">
         <v>6</v>
       </c>
+      <c r="AI11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1782,6 +1817,9 @@
       <c r="AH12">
         <v>12</v>
       </c>
+      <c r="AI12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1896,6 +1934,9 @@
       <c r="AH13">
         <v>13</v>
       </c>
+      <c r="AI13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2010,6 +2051,9 @@
       <c r="AH14">
         <v>15</v>
       </c>
+      <c r="AI14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2124,6 +2168,9 @@
       <c r="AH15">
         <v>11</v>
       </c>
+      <c r="AI15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2238,6 +2285,9 @@
       <c r="AH16">
         <v>13</v>
       </c>
+      <c r="AI16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2352,6 +2402,9 @@
       <c r="AH17">
         <v>0</v>
       </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2466,6 +2519,9 @@
       <c r="AH18">
         <v>0</v>
       </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2580,6 +2636,9 @@
       <c r="AH19">
         <v>3</v>
       </c>
+      <c r="AI19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2694,6 +2753,9 @@
       <c r="AH20">
         <v>0</v>
       </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2808,6 +2870,9 @@
       <c r="AH21">
         <v>1</v>
       </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2922,6 +2987,9 @@
       <c r="AH22">
         <v>20</v>
       </c>
+      <c r="AI22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3036,6 +3104,9 @@
       <c r="AH23">
         <v>36</v>
       </c>
+      <c r="AI23">
+        <v>37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3150,6 +3221,9 @@
       <c r="AH24">
         <v>0</v>
       </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3264,6 +3338,9 @@
       <c r="AH25">
         <v>11</v>
       </c>
+      <c r="AI25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3378,6 +3455,9 @@
       <c r="AH26">
         <v>18</v>
       </c>
+      <c r="AI26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3492,6 +3572,9 @@
       <c r="AH27">
         <v>14</v>
       </c>
+      <c r="AI27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3606,6 +3689,9 @@
       <c r="AH28">
         <v>26</v>
       </c>
+      <c r="AI28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3720,6 +3806,9 @@
       <c r="AH29">
         <v>1</v>
       </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3834,6 +3923,9 @@
       <c r="AH30">
         <v>3</v>
       </c>
+      <c r="AI30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3948,6 +4040,9 @@
       <c r="AH31">
         <v>3</v>
       </c>
+      <c r="AI31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4062,6 +4157,9 @@
       <c r="AH32">
         <v>7</v>
       </c>
+      <c r="AI32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4176,6 +4274,9 @@
       <c r="AH33">
         <v>2</v>
       </c>
+      <c r="AI33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4290,6 +4391,9 @@
       <c r="AH34">
         <v>6</v>
       </c>
+      <c r="AI34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4404,6 +4508,9 @@
       <c r="AH35">
         <v>0</v>
       </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4518,6 +4625,9 @@
       <c r="AH36">
         <v>1</v>
       </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4632,6 +4742,9 @@
       <c r="AH37">
         <v>6</v>
       </c>
+      <c r="AI37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4746,6 +4859,9 @@
       <c r="AH38">
         <v>5</v>
       </c>
+      <c r="AI38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4860,6 +4976,9 @@
       <c r="AH39">
         <v>0</v>
       </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4974,6 +5093,9 @@
       <c r="AH40">
         <v>10</v>
       </c>
+      <c r="AI40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5088,6 +5210,9 @@
       <c r="AH41">
         <v>0</v>
       </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5202,6 +5327,9 @@
       <c r="AH42">
         <v>0</v>
       </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5316,6 +5444,9 @@
       <c r="AH43">
         <v>0</v>
       </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5430,6 +5561,9 @@
       <c r="AH44">
         <v>1</v>
       </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5544,6 +5678,9 @@
       <c r="AH45">
         <v>2</v>
       </c>
+      <c r="AI45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5658,6 +5795,9 @@
       <c r="AH46">
         <v>2</v>
       </c>
+      <c r="AI46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5772,6 +5912,9 @@
       <c r="AH47">
         <v>0</v>
       </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5886,6 +6029,9 @@
       <c r="AH48">
         <v>3</v>
       </c>
+      <c r="AI48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6000,6 +6146,9 @@
       <c r="AH49">
         <v>4</v>
       </c>
+      <c r="AI49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6114,6 +6263,9 @@
       <c r="AH50">
         <v>1</v>
       </c>
+      <c r="AI50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6228,6 +6380,9 @@
       <c r="AH51">
         <v>3</v>
       </c>
+      <c r="AI51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6342,6 +6497,9 @@
       <c r="AH52">
         <v>38</v>
       </c>
+      <c r="AI52">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6456,6 +6614,9 @@
       <c r="AH53">
         <v>5</v>
       </c>
+      <c r="AI53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6570,6 +6731,9 @@
       <c r="AH54">
         <v>0</v>
       </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6684,6 +6848,9 @@
       <c r="AH55">
         <v>2</v>
       </c>
+      <c r="AI55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6798,6 +6965,9 @@
       <c r="AH56">
         <v>5</v>
       </c>
+      <c r="AI56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6912,6 +7082,9 @@
       <c r="AH57">
         <v>3</v>
       </c>
+      <c r="AI57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7026,6 +7199,9 @@
       <c r="AH58">
         <v>0</v>
       </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7140,6 +7316,9 @@
       <c r="AH59">
         <v>0</v>
       </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7254,6 +7433,9 @@
       <c r="AH60">
         <v>2</v>
       </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7368,6 +7550,9 @@
       <c r="AH61">
         <v>4</v>
       </c>
+      <c r="AI61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7482,6 +7667,9 @@
       <c r="AH62">
         <v>1</v>
       </c>
+      <c r="AI62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7596,6 +7784,9 @@
       <c r="AH63">
         <v>1</v>
       </c>
+      <c r="AI63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7710,6 +7901,9 @@
       <c r="AH64">
         <v>0</v>
       </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7824,6 +8018,9 @@
       <c r="AH65">
         <v>5</v>
       </c>
+      <c r="AI65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7938,6 +8135,9 @@
       <c r="AH66">
         <v>0</v>
       </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8052,6 +8252,9 @@
       <c r="AH67">
         <v>0</v>
       </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8166,6 +8369,9 @@
       <c r="AH68">
         <v>4</v>
       </c>
+      <c r="AI68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8280,6 +8486,9 @@
       <c r="AH69">
         <v>0</v>
       </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8394,6 +8603,9 @@
       <c r="AH70">
         <v>0</v>
       </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8508,6 +8720,9 @@
       <c r="AH71">
         <v>0</v>
       </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8622,6 +8837,9 @@
       <c r="AH72">
         <v>5</v>
       </c>
+      <c r="AI72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8736,6 +8954,9 @@
       <c r="AH73">
         <v>0</v>
       </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8850,6 +9071,9 @@
       <c r="AH74">
         <v>0</v>
       </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8964,6 +9188,9 @@
       <c r="AH75">
         <v>0</v>
       </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9078,6 +9305,9 @@
       <c r="AH76">
         <v>1</v>
       </c>
+      <c r="AI76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9192,6 +9422,9 @@
       <c r="AH77">
         <v>0</v>
       </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9306,6 +9539,9 @@
       <c r="AH78">
         <v>1</v>
       </c>
+      <c r="AI78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9420,6 +9656,9 @@
       <c r="AH79">
         <v>0</v>
       </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9534,6 +9773,9 @@
       <c r="AH80">
         <v>0</v>
       </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9648,6 +9890,9 @@
       <c r="AH81">
         <v>0</v>
       </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9762,6 +10007,9 @@
       <c r="AH82">
         <v>0</v>
       </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9876,6 +10124,9 @@
       <c r="AH83">
         <v>5</v>
       </c>
+      <c r="AI83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9990,6 +10241,9 @@
       <c r="AH84">
         <v>13</v>
       </c>
+      <c r="AI84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10104,6 +10358,9 @@
       <c r="AH85">
         <v>3</v>
       </c>
+      <c r="AI85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10218,6 +10475,9 @@
       <c r="AH86">
         <v>5</v>
       </c>
+      <c r="AI86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10332,6 +10592,9 @@
       <c r="AH87">
         <v>0</v>
       </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10446,6 +10709,9 @@
       <c r="AH88">
         <v>0</v>
       </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10560,6 +10826,9 @@
       <c r="AH89">
         <v>6</v>
       </c>
+      <c r="AI89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10674,6 +10943,9 @@
       <c r="AH90">
         <v>0</v>
       </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10788,6 +11060,9 @@
       <c r="AH91">
         <v>1</v>
       </c>
+      <c r="AI91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10902,6 +11177,9 @@
       <c r="AH92">
         <v>0</v>
       </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11016,6 +11294,9 @@
       <c r="AH93">
         <v>32</v>
       </c>
+      <c r="AI93">
+        <v>33</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11130,6 +11411,9 @@
       <c r="AH94">
         <v>94</v>
       </c>
+      <c r="AI94">
+        <v>95</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11244,6 +11528,9 @@
       <c r="AH95">
         <v>54</v>
       </c>
+      <c r="AI95">
+        <v>56</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11358,6 +11645,9 @@
       <c r="AH96">
         <v>84</v>
       </c>
+      <c r="AI96">
+        <v>85</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11472,6 +11762,9 @@
       <c r="AH97">
         <v>168</v>
       </c>
+      <c r="AI97">
+        <v>170</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11586,6 +11879,9 @@
       <c r="AH98">
         <v>21</v>
       </c>
+      <c r="AI98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11700,6 +11996,9 @@
       <c r="AH99">
         <v>10</v>
       </c>
+      <c r="AI99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11814,6 +12113,9 @@
       <c r="AH100">
         <v>2</v>
       </c>
+      <c r="AI100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11928,6 +12230,9 @@
       <c r="AH101">
         <v>2</v>
       </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12042,6 +12347,9 @@
       <c r="AH102">
         <v>3</v>
       </c>
+      <c r="AI102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12156,6 +12464,9 @@
       <c r="AH103">
         <v>47</v>
       </c>
+      <c r="AI103">
+        <v>47</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12270,6 +12581,9 @@
       <c r="AH104">
         <v>2</v>
       </c>
+      <c r="AI104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12384,6 +12698,9 @@
       <c r="AH105">
         <v>1</v>
       </c>
+      <c r="AI105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12498,6 +12815,9 @@
       <c r="AH106">
         <v>2</v>
       </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12612,6 +12932,9 @@
       <c r="AH107">
         <v>6</v>
       </c>
+      <c r="AI107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12726,6 +13049,9 @@
       <c r="AH108">
         <v>22</v>
       </c>
+      <c r="AI108">
+        <v>22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12840,6 +13166,9 @@
       <c r="AH109">
         <v>97</v>
       </c>
+      <c r="AI109">
+        <v>98</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12954,6 +13283,9 @@
       <c r="AH110">
         <v>18</v>
       </c>
+      <c r="AI110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13068,6 +13400,9 @@
       <c r="AH111">
         <v>20</v>
       </c>
+      <c r="AI111">
+        <v>20</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13182,6 +13517,9 @@
       <c r="AH112">
         <v>46</v>
       </c>
+      <c r="AI112">
+        <v>46</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13296,6 +13634,9 @@
       <c r="AH113">
         <v>403</v>
       </c>
+      <c r="AI113">
+        <v>403</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13410,6 +13751,9 @@
       <c r="AH114">
         <v>167</v>
       </c>
+      <c r="AI114">
+        <v>173</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13524,6 +13868,9 @@
       <c r="AH115">
         <v>8</v>
       </c>
+      <c r="AI115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13638,6 +13985,9 @@
       <c r="AH116">
         <v>25</v>
       </c>
+      <c r="AI116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13752,6 +14102,9 @@
       <c r="AH117">
         <v>48</v>
       </c>
+      <c r="AI117">
+        <v>48</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13866,6 +14219,9 @@
       <c r="AH118">
         <v>85</v>
       </c>
+      <c r="AI118">
+        <v>86</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13980,6 +14336,9 @@
       <c r="AH119">
         <v>144</v>
       </c>
+      <c r="AI119">
+        <v>150</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14094,6 +14453,9 @@
       <c r="AH120">
         <v>45</v>
       </c>
+      <c r="AI120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14208,6 +14570,9 @@
       <c r="AH121">
         <v>8</v>
       </c>
+      <c r="AI121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14322,6 +14687,9 @@
       <c r="AH122">
         <v>58</v>
       </c>
+      <c r="AI122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14436,6 +14804,9 @@
       <c r="AH123">
         <v>14</v>
       </c>
+      <c r="AI123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14550,6 +14921,9 @@
       <c r="AH124">
         <v>38</v>
       </c>
+      <c r="AI124">
+        <v>39</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14664,6 +15038,9 @@
       <c r="AH125">
         <v>17</v>
       </c>
+      <c r="AI125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14778,6 +15155,9 @@
       <c r="AH126">
         <v>2</v>
       </c>
+      <c r="AI126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14892,6 +15272,9 @@
       <c r="AH127">
         <v>10</v>
       </c>
+      <c r="AI127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15006,6 +15389,9 @@
       <c r="AH128">
         <v>1</v>
       </c>
+      <c r="AI128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15120,6 +15506,9 @@
       <c r="AH129">
         <v>7</v>
       </c>
+      <c r="AI129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15234,6 +15623,9 @@
       <c r="AH130">
         <v>10</v>
       </c>
+      <c r="AI130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15348,6 +15740,9 @@
       <c r="AH131">
         <v>8</v>
       </c>
+      <c r="AI131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15462,6 +15857,9 @@
       <c r="AH132">
         <v>13</v>
       </c>
+      <c r="AI132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15576,6 +15974,9 @@
       <c r="AH133">
         <v>44</v>
       </c>
+      <c r="AI133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15690,6 +16091,9 @@
       <c r="AH134">
         <v>0</v>
       </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15804,6 +16208,9 @@
       <c r="AH135">
         <v>0</v>
       </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15918,6 +16325,9 @@
       <c r="AH136">
         <v>10</v>
       </c>
+      <c r="AI136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16032,6 +16442,9 @@
       <c r="AH137">
         <v>5</v>
       </c>
+      <c r="AI137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16146,6 +16559,9 @@
       <c r="AH138">
         <v>37</v>
       </c>
+      <c r="AI138">
+        <v>39</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16260,6 +16676,9 @@
       <c r="AH139">
         <v>4</v>
       </c>
+      <c r="AI139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16374,6 +16793,9 @@
       <c r="AH140">
         <v>1</v>
       </c>
+      <c r="AI140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16488,6 +16910,9 @@
       <c r="AH141">
         <v>3</v>
       </c>
+      <c r="AI141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16602,6 +17027,9 @@
       <c r="AH142">
         <v>6</v>
       </c>
+      <c r="AI142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -16716,6 +17144,9 @@
       <c r="AH143">
         <v>11</v>
       </c>
+      <c r="AI143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -16830,6 +17261,9 @@
       <c r="AH144">
         <v>1</v>
       </c>
+      <c r="AI144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16944,6 +17378,9 @@
       <c r="AH145">
         <v>81</v>
       </c>
+      <c r="AI145">
+        <v>81</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17058,6 +17495,9 @@
       <c r="AH146">
         <v>37</v>
       </c>
+      <c r="AI146">
+        <v>37</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17172,6 +17612,9 @@
       <c r="AH147">
         <v>19</v>
       </c>
+      <c r="AI147">
+        <v>20</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17286,6 +17729,9 @@
       <c r="AH148">
         <v>61</v>
       </c>
+      <c r="AI148">
+        <v>61</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17400,6 +17846,9 @@
       <c r="AH149">
         <v>11</v>
       </c>
+      <c r="AI149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17514,6 +17963,9 @@
       <c r="AH150">
         <v>33</v>
       </c>
+      <c r="AI150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17628,6 +18080,9 @@
       <c r="AH151">
         <v>0</v>
       </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17742,6 +18197,9 @@
       <c r="AH152">
         <v>19</v>
       </c>
+      <c r="AI152">
+        <v>19</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17856,6 +18314,9 @@
       <c r="AH153">
         <v>4</v>
       </c>
+      <c r="AI153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17970,6 +18431,9 @@
       <c r="AH154">
         <v>5</v>
       </c>
+      <c r="AI154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18084,6 +18548,9 @@
       <c r="AH155">
         <v>3</v>
       </c>
+      <c r="AI155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18198,6 +18665,9 @@
       <c r="AH156">
         <v>3</v>
       </c>
+      <c r="AI156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18312,6 +18782,9 @@
       <c r="AH157">
         <v>13</v>
       </c>
+      <c r="AI157">
+        <v>13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18426,6 +18899,9 @@
       <c r="AH158">
         <v>2</v>
       </c>
+      <c r="AI158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18540,6 +19016,9 @@
       <c r="AH159">
         <v>4</v>
       </c>
+      <c r="AI159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -18654,6 +19133,9 @@
       <c r="AH160">
         <v>0</v>
       </c>
+      <c r="AI160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -18768,6 +19250,9 @@
       <c r="AH161">
         <v>0</v>
       </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -18882,6 +19367,9 @@
       <c r="AH162">
         <v>2</v>
       </c>
+      <c r="AI162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18996,6 +19484,9 @@
       <c r="AH163">
         <v>0</v>
       </c>
+      <c r="AI163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -19110,6 +19601,9 @@
       <c r="AH164">
         <v>0</v>
       </c>
+      <c r="AI164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -19224,6 +19718,9 @@
       <c r="AH165">
         <v>1</v>
       </c>
+      <c r="AI165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19338,6 +19835,9 @@
       <c r="AH166">
         <v>0</v>
       </c>
+      <c r="AI166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19452,6 +19952,9 @@
       <c r="AH167">
         <v>1</v>
       </c>
+      <c r="AI167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -19566,6 +20069,9 @@
       <c r="AH168">
         <v>5</v>
       </c>
+      <c r="AI168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -19680,6 +20186,9 @@
       <c r="AH169">
         <v>2</v>
       </c>
+      <c r="AI169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -19794,6 +20303,9 @@
       <c r="AH170">
         <v>1</v>
       </c>
+      <c r="AI170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -19908,6 +20420,9 @@
       <c r="AH171">
         <v>3</v>
       </c>
+      <c r="AI171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20022,6 +20537,9 @@
       <c r="AH172">
         <v>2</v>
       </c>
+      <c r="AI172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -20136,6 +20654,9 @@
       <c r="AH173">
         <v>13</v>
       </c>
+      <c r="AI173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20250,6 +20771,9 @@
       <c r="AH174">
         <v>36</v>
       </c>
+      <c r="AI174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -20364,6 +20888,9 @@
       <c r="AH175">
         <v>1</v>
       </c>
+      <c r="AI175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -20478,6 +21005,9 @@
       <c r="AH176">
         <v>8</v>
       </c>
+      <c r="AI176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -20592,6 +21122,9 @@
       <c r="AH177">
         <v>2</v>
       </c>
+      <c r="AI177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -20706,6 +21239,9 @@
       <c r="AH178">
         <v>6</v>
       </c>
+      <c r="AI178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -20820,6 +21356,9 @@
       <c r="AH179">
         <v>4</v>
       </c>
+      <c r="AI179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -20934,6 +21473,9 @@
       <c r="AH180">
         <v>12</v>
       </c>
+      <c r="AI180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -21048,6 +21590,9 @@
       <c r="AH181">
         <v>10</v>
       </c>
+      <c r="AI181">
+        <v>10</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -21162,6 +21707,9 @@
       <c r="AH182">
         <v>2</v>
       </c>
+      <c r="AI182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -21276,6 +21824,9 @@
       <c r="AH183">
         <v>1</v>
       </c>
+      <c r="AI183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -21390,6 +21941,9 @@
       <c r="AH184">
         <v>0</v>
       </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -21504,6 +22058,9 @@
       <c r="AH185">
         <v>1</v>
       </c>
+      <c r="AI185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -21618,6 +22175,9 @@
       <c r="AH186">
         <v>9</v>
       </c>
+      <c r="AI186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -21732,6 +22292,9 @@
       <c r="AH187">
         <v>0</v>
       </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -21846,6 +22409,9 @@
       <c r="AH188">
         <v>0</v>
       </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -21960,6 +22526,9 @@
       <c r="AH189">
         <v>0</v>
       </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -22074,6 +22643,9 @@
       <c r="AH190">
         <v>25</v>
       </c>
+      <c r="AI190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -22188,6 +22760,9 @@
       <c r="AH191">
         <v>18</v>
       </c>
+      <c r="AI191">
+        <v>19</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -22302,6 +22877,9 @@
       <c r="AH192">
         <v>56</v>
       </c>
+      <c r="AI192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -22416,6 +22994,9 @@
       <c r="AH193">
         <v>38</v>
       </c>
+      <c r="AI193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -22530,6 +23111,9 @@
       <c r="AH194">
         <v>36</v>
       </c>
+      <c r="AI194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -22644,6 +23228,9 @@
       <c r="AH195">
         <v>10</v>
       </c>
+      <c r="AI195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -22758,6 +23345,9 @@
       <c r="AH196">
         <v>39</v>
       </c>
+      <c r="AI196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -22872,6 +23462,9 @@
       <c r="AH197">
         <v>4</v>
       </c>
+      <c r="AI197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -22986,6 +23579,9 @@
       <c r="AH198">
         <v>21</v>
       </c>
+      <c r="AI198">
+        <v>21</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -23100,6 +23696,9 @@
       <c r="AH199">
         <v>2</v>
       </c>
+      <c r="AI199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -23214,6 +23813,9 @@
       <c r="AH200">
         <v>5</v>
       </c>
+      <c r="AI200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -23328,6 +23930,9 @@
       <c r="AH201">
         <v>2</v>
       </c>
+      <c r="AI201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -23442,6 +24047,9 @@
       <c r="AH202">
         <v>1</v>
       </c>
+      <c r="AI202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -23556,6 +24164,9 @@
       <c r="AH203">
         <v>3</v>
       </c>
+      <c r="AI203">
+        <v>3</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -23670,6 +24281,9 @@
       <c r="AH204">
         <v>0</v>
       </c>
+      <c r="AI204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -23784,6 +24398,9 @@
       <c r="AH205">
         <v>1</v>
       </c>
+      <c r="AI205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -23898,6 +24515,9 @@
       <c r="AH206">
         <v>0</v>
       </c>
+      <c r="AI206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -24012,6 +24632,9 @@
       <c r="AH207">
         <v>0</v>
       </c>
+      <c r="AI207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -24126,6 +24749,9 @@
       <c r="AH208">
         <v>0</v>
       </c>
+      <c r="AI208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -24240,6 +24866,9 @@
       <c r="AH209">
         <v>0</v>
       </c>
+      <c r="AI209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -24354,6 +24983,9 @@
       <c r="AH210">
         <v>0</v>
       </c>
+      <c r="AI210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -24468,6 +25100,9 @@
       <c r="AH211">
         <v>0</v>
       </c>
+      <c r="AI211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -24582,6 +25217,9 @@
       <c r="AH212">
         <v>2</v>
       </c>
+      <c r="AI212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -24696,6 +25334,9 @@
       <c r="AH213">
         <v>0</v>
       </c>
+      <c r="AI213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -24810,6 +25451,9 @@
       <c r="AH214">
         <v>2</v>
       </c>
+      <c r="AI214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -24924,6 +25568,9 @@
       <c r="AH215">
         <v>29</v>
       </c>
+      <c r="AI215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -25038,6 +25685,9 @@
       <c r="AH216">
         <v>204</v>
       </c>
+      <c r="AI216">
+        <v>209</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -25152,6 +25802,9 @@
       <c r="AH217">
         <v>9</v>
       </c>
+      <c r="AI217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -25266,6 +25919,9 @@
       <c r="AH218">
         <v>11</v>
       </c>
+      <c r="AI218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -25380,6 +26036,9 @@
       <c r="AH219">
         <v>0</v>
       </c>
+      <c r="AI219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -25494,6 +26153,9 @@
       <c r="AH220">
         <v>2</v>
       </c>
+      <c r="AI220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -25608,6 +26270,9 @@
       <c r="AH221">
         <v>0</v>
       </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -25722,6 +26387,9 @@
       <c r="AH222">
         <v>1</v>
       </c>
+      <c r="AI222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -25836,6 +26504,9 @@
       <c r="AH223">
         <v>2</v>
       </c>
+      <c r="AI223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -25950,6 +26621,9 @@
       <c r="AH224">
         <v>8</v>
       </c>
+      <c r="AI224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -26064,6 +26738,9 @@
       <c r="AH225">
         <v>3</v>
       </c>
+      <c r="AI225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -26178,6 +26855,9 @@
       <c r="AH226">
         <v>1</v>
       </c>
+      <c r="AI226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -26292,6 +26972,9 @@
       <c r="AH227">
         <v>2</v>
       </c>
+      <c r="AI227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -26406,6 +27089,9 @@
       <c r="AH228">
         <v>2</v>
       </c>
+      <c r="AI228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -26520,6 +27206,9 @@
       <c r="AH229">
         <v>2</v>
       </c>
+      <c r="AI229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -26634,6 +27323,9 @@
       <c r="AH230">
         <v>0</v>
       </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -26748,6 +27440,9 @@
       <c r="AH231">
         <v>3</v>
       </c>
+      <c r="AI231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -26862,6 +27557,9 @@
       <c r="AH232">
         <v>15</v>
       </c>
+      <c r="AI232">
+        <v>18</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -26976,6 +27674,9 @@
       <c r="AH233">
         <v>0</v>
       </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -27090,6 +27791,9 @@
       <c r="AH234">
         <v>4</v>
       </c>
+      <c r="AI234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -27204,6 +27908,9 @@
       <c r="AH235">
         <v>1</v>
       </c>
+      <c r="AI235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -27318,6 +28025,9 @@
       <c r="AH236">
         <v>1</v>
       </c>
+      <c r="AI236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -27432,6 +28142,9 @@
       <c r="AH237">
         <v>1</v>
       </c>
+      <c r="AI237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -27546,6 +28259,9 @@
       <c r="AH238">
         <v>512</v>
       </c>
+      <c r="AI238">
+        <v>519</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -27660,6 +28376,9 @@
       <c r="AH239">
         <v>9</v>
       </c>
+      <c r="AI239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -27774,6 +28493,9 @@
       <c r="AH240">
         <v>4</v>
       </c>
+      <c r="AI240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -27888,6 +28610,9 @@
       <c r="AH241">
         <v>4</v>
       </c>
+      <c r="AI241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -28002,6 +28727,9 @@
       <c r="AH242">
         <v>4</v>
       </c>
+      <c r="AI242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -28116,6 +28844,9 @@
       <c r="AH243">
         <v>6</v>
       </c>
+      <c r="AI243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -28230,6 +28961,9 @@
       <c r="AH244">
         <v>8</v>
       </c>
+      <c r="AI244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -28344,6 +29078,9 @@
       <c r="AH245">
         <v>0</v>
       </c>
+      <c r="AI245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -28458,6 +29195,9 @@
       <c r="AH246">
         <v>4</v>
       </c>
+      <c r="AI246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -28572,6 +29312,9 @@
       <c r="AH247">
         <v>0</v>
       </c>
+      <c r="AI247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -28686,6 +29429,9 @@
       <c r="AH248">
         <v>0</v>
       </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -28800,6 +29546,9 @@
       <c r="AH249">
         <v>2</v>
       </c>
+      <c r="AI249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -28914,6 +29663,9 @@
       <c r="AH250">
         <v>24</v>
       </c>
+      <c r="AI250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -29028,6 +29780,9 @@
       <c r="AH251">
         <v>9</v>
       </c>
+      <c r="AI251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -29142,6 +29897,9 @@
       <c r="AH252">
         <v>0</v>
       </c>
+      <c r="AI252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -29256,6 +30014,9 @@
       <c r="AH253">
         <v>17</v>
       </c>
+      <c r="AI253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -29370,6 +30131,9 @@
       <c r="AH254">
         <v>5</v>
       </c>
+      <c r="AI254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -29484,6 +30248,9 @@
       <c r="AH255">
         <v>53</v>
       </c>
+      <c r="AI255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -29598,6 +30365,9 @@
       <c r="AH256">
         <v>34</v>
       </c>
+      <c r="AI256">
+        <v>34</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -29712,6 +30482,9 @@
       <c r="AH257">
         <v>1</v>
       </c>
+      <c r="AI257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -29826,6 +30599,9 @@
       <c r="AH258">
         <v>0</v>
       </c>
+      <c r="AI258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -29940,6 +30716,9 @@
       <c r="AH259">
         <v>39</v>
       </c>
+      <c r="AI259">
+        <v>39</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -30054,6 +30833,9 @@
       <c r="AH260">
         <v>25</v>
       </c>
+      <c r="AI260">
+        <v>25</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -30168,6 +30950,9 @@
       <c r="AH261">
         <v>0</v>
       </c>
+      <c r="AI261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -30282,6 +31067,9 @@
       <c r="AH262">
         <v>0</v>
       </c>
+      <c r="AI262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -30396,6 +31184,9 @@
       <c r="AH263">
         <v>0</v>
       </c>
+      <c r="AI263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -30510,6 +31301,9 @@
       <c r="AH264">
         <v>1</v>
       </c>
+      <c r="AI264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -30624,6 +31418,9 @@
       <c r="AH265">
         <v>3</v>
       </c>
+      <c r="AI265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -30738,6 +31535,9 @@
       <c r="AH266">
         <v>0</v>
       </c>
+      <c r="AI266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -30852,6 +31652,9 @@
       <c r="AH267">
         <v>3</v>
       </c>
+      <c r="AI267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -30966,6 +31769,9 @@
       <c r="AH268">
         <v>0</v>
       </c>
+      <c r="AI268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -31080,6 +31886,9 @@
       <c r="AH269">
         <v>7</v>
       </c>
+      <c r="AI269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -31194,6 +32003,9 @@
       <c r="AH270">
         <v>0</v>
       </c>
+      <c r="AI270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -31308,6 +32120,9 @@
       <c r="AH271">
         <v>0</v>
       </c>
+      <c r="AI271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -31422,6 +32237,9 @@
       <c r="AH272">
         <v>1</v>
       </c>
+      <c r="AI272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -31536,6 +32354,9 @@
       <c r="AH273">
         <v>4</v>
       </c>
+      <c r="AI273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -31650,6 +32471,9 @@
       <c r="AH274">
         <v>0</v>
       </c>
+      <c r="AI274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -31764,6 +32588,9 @@
       <c r="AH275">
         <v>0</v>
       </c>
+      <c r="AI275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -31878,6 +32705,9 @@
       <c r="AH276">
         <v>17</v>
       </c>
+      <c r="AI276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -31992,6 +32822,9 @@
       <c r="AH277">
         <v>0</v>
       </c>
+      <c r="AI277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -32106,6 +32939,9 @@
       <c r="AH278">
         <v>0</v>
       </c>
+      <c r="AI278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -32220,6 +33056,9 @@
       <c r="AH279">
         <v>4</v>
       </c>
+      <c r="AI279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -32334,6 +33173,9 @@
       <c r="AH280">
         <v>12</v>
       </c>
+      <c r="AI280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -32448,6 +33290,9 @@
       <c r="AH281">
         <v>233</v>
       </c>
+      <c r="AI281">
+        <v>241</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -32562,6 +33407,9 @@
       <c r="AH282">
         <v>16</v>
       </c>
+      <c r="AI282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -32676,6 +33524,9 @@
       <c r="AH283">
         <v>5</v>
       </c>
+      <c r="AI283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -32790,6 +33641,9 @@
       <c r="AH284">
         <v>0</v>
       </c>
+      <c r="AI284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -32904,6 +33758,9 @@
       <c r="AH285">
         <v>0</v>
       </c>
+      <c r="AI285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -33018,6 +33875,9 @@
       <c r="AH286">
         <v>8</v>
       </c>
+      <c r="AI286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -33132,6 +33992,9 @@
       <c r="AH287">
         <v>5</v>
       </c>
+      <c r="AI287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -33246,6 +34109,9 @@
       <c r="AH288">
         <v>0</v>
       </c>
+      <c r="AI288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -33360,6 +34226,9 @@
       <c r="AH289">
         <v>1</v>
       </c>
+      <c r="AI289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -33474,6 +34343,9 @@
       <c r="AH290">
         <v>7</v>
       </c>
+      <c r="AI290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -33588,6 +34460,9 @@
       <c r="AH291">
         <v>3</v>
       </c>
+      <c r="AI291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -33702,6 +34577,9 @@
       <c r="AH292">
         <v>5</v>
       </c>
+      <c r="AI292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -33816,6 +34694,9 @@
       <c r="AH293">
         <v>11</v>
       </c>
+      <c r="AI293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -33930,6 +34811,9 @@
       <c r="AH294">
         <v>6</v>
       </c>
+      <c r="AI294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -34044,6 +34928,9 @@
       <c r="AH295">
         <v>0</v>
       </c>
+      <c r="AI295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -34158,6 +35045,9 @@
       <c r="AH296">
         <v>1</v>
       </c>
+      <c r="AI296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -34272,6 +35162,9 @@
       <c r="AH297">
         <v>8</v>
       </c>
+      <c r="AI297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -34386,6 +35279,9 @@
       <c r="AH298">
         <v>28</v>
       </c>
+      <c r="AI298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -34500,6 +35396,9 @@
       <c r="AH299">
         <v>21</v>
       </c>
+      <c r="AI299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -34614,6 +35513,9 @@
       <c r="AH300">
         <v>15</v>
       </c>
+      <c r="AI300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -34728,6 +35630,9 @@
       <c r="AH301">
         <v>0</v>
       </c>
+      <c r="AI301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -34842,6 +35747,9 @@
       <c r="AH302">
         <v>0</v>
       </c>
+      <c r="AI302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -34956,6 +35864,9 @@
       <c r="AH303">
         <v>0</v>
       </c>
+      <c r="AI303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -35070,6 +35981,9 @@
       <c r="AH304">
         <v>0</v>
       </c>
+      <c r="AI304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -35184,6 +36098,9 @@
       <c r="AH305">
         <v>3</v>
       </c>
+      <c r="AI305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -35298,6 +36215,9 @@
       <c r="AH306">
         <v>1</v>
       </c>
+      <c r="AI306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -35412,6 +36332,9 @@
       <c r="AH307">
         <v>4</v>
       </c>
+      <c r="AI307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -35526,6 +36449,9 @@
       <c r="AH308">
         <v>0</v>
       </c>
+      <c r="AI308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -35640,6 +36566,9 @@
       <c r="AH309">
         <v>0</v>
       </c>
+      <c r="AI309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -35754,6 +36683,9 @@
       <c r="AH310">
         <v>7</v>
       </c>
+      <c r="AI310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -35868,6 +36800,9 @@
       <c r="AH311">
         <v>2</v>
       </c>
+      <c r="AI311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -35982,6 +36917,9 @@
       <c r="AH312">
         <v>2</v>
       </c>
+      <c r="AI312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -36096,6 +37034,9 @@
       <c r="AH313">
         <v>2</v>
       </c>
+      <c r="AI313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -36210,6 +37151,9 @@
       <c r="AH314">
         <v>10</v>
       </c>
+      <c r="AI314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -36324,6 +37268,9 @@
       <c r="AH315">
         <v>1</v>
       </c>
+      <c r="AI315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -36438,6 +37385,9 @@
       <c r="AH316">
         <v>17</v>
       </c>
+      <c r="AI316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -36552,6 +37502,9 @@
       <c r="AH317">
         <v>0</v>
       </c>
+      <c r="AI317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -36666,6 +37619,9 @@
       <c r="AH318">
         <v>0</v>
       </c>
+      <c r="AI318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -36780,6 +37736,9 @@
       <c r="AH319">
         <v>146</v>
       </c>
+      <c r="AI319">
+        <v>149</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -36894,6 +37853,9 @@
       <c r="AH320">
         <v>6</v>
       </c>
+      <c r="AI320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -37008,6 +37970,9 @@
       <c r="AH321">
         <v>5</v>
       </c>
+      <c r="AI321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -37122,6 +38087,9 @@
       <c r="AH322">
         <v>1</v>
       </c>
+      <c r="AI322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -37236,6 +38204,9 @@
       <c r="AH323">
         <v>3</v>
       </c>
+      <c r="AI323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -37350,6 +38321,9 @@
       <c r="AH324">
         <v>15</v>
       </c>
+      <c r="AI324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -37464,6 +38438,9 @@
       <c r="AH325">
         <v>1</v>
       </c>
+      <c r="AI325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -37578,6 +38555,9 @@
       <c r="AH326">
         <v>1</v>
       </c>
+      <c r="AI326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -37692,6 +38672,9 @@
       <c r="AH327">
         <v>0</v>
       </c>
+      <c r="AI327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -37806,6 +38789,9 @@
       <c r="AH328">
         <v>0</v>
       </c>
+      <c r="AI328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -37920,6 +38906,9 @@
       <c r="AH329">
         <v>3</v>
       </c>
+      <c r="AI329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -38034,6 +39023,9 @@
       <c r="AH330">
         <v>1</v>
       </c>
+      <c r="AI330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -38148,6 +39140,9 @@
       <c r="AH331">
         <v>2</v>
       </c>
+      <c r="AI331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -38262,6 +39257,9 @@
       <c r="AH332">
         <v>0</v>
       </c>
+      <c r="AI332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -38376,6 +39374,9 @@
       <c r="AH333">
         <v>0</v>
       </c>
+      <c r="AI333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -38490,6 +39491,9 @@
       <c r="AH334">
         <v>0</v>
       </c>
+      <c r="AI334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -38604,6 +39608,9 @@
       <c r="AH335">
         <v>16</v>
       </c>
+      <c r="AI335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -38718,6 +39725,9 @@
       <c r="AH336">
         <v>2</v>
       </c>
+      <c r="AI336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -38832,6 +39842,9 @@
       <c r="AH337">
         <v>1</v>
       </c>
+      <c r="AI337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -38946,6 +39959,9 @@
       <c r="AH338">
         <v>2</v>
       </c>
+      <c r="AI338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -39060,6 +40076,9 @@
       <c r="AH339">
         <v>0</v>
       </c>
+      <c r="AI339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -39174,6 +40193,9 @@
       <c r="AH340">
         <v>0</v>
       </c>
+      <c r="AI340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -39288,6 +40310,9 @@
       <c r="AH341">
         <v>1</v>
       </c>
+      <c r="AI341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -39402,6 +40427,9 @@
       <c r="AH342">
         <v>2</v>
       </c>
+      <c r="AI342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -39516,6 +40544,9 @@
       <c r="AH343">
         <v>0</v>
       </c>
+      <c r="AI343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -39630,6 +40661,9 @@
       <c r="AH344">
         <v>1</v>
       </c>
+      <c r="AI344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -39744,6 +40778,9 @@
       <c r="AH345">
         <v>0</v>
       </c>
+      <c r="AI345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -39858,6 +40895,9 @@
       <c r="AH346">
         <v>0</v>
       </c>
+      <c r="AI346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -39972,6 +41012,9 @@
       <c r="AH347">
         <v>3</v>
       </c>
+      <c r="AI347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -40086,6 +41129,9 @@
       <c r="AH348">
         <v>2</v>
       </c>
+      <c r="AI348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -40200,6 +41246,9 @@
       <c r="AH349">
         <v>4</v>
       </c>
+      <c r="AI349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -40314,6 +41363,9 @@
       <c r="AH350">
         <v>1</v>
       </c>
+      <c r="AI350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -40428,6 +41480,9 @@
       <c r="AH351">
         <v>0</v>
       </c>
+      <c r="AI351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -40542,6 +41597,9 @@
       <c r="AH352">
         <v>0</v>
       </c>
+      <c r="AI352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -40656,6 +41714,9 @@
       <c r="AH353">
         <v>0</v>
       </c>
+      <c r="AI353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -40770,6 +41831,9 @@
       <c r="AH354">
         <v>1</v>
       </c>
+      <c r="AI354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -40884,6 +41948,9 @@
       <c r="AH355">
         <v>1</v>
       </c>
+      <c r="AI355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -40998,6 +42065,9 @@
       <c r="AH356">
         <v>0</v>
       </c>
+      <c r="AI356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -41112,6 +42182,9 @@
       <c r="AH357">
         <v>4</v>
       </c>
+      <c r="AI357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -41226,6 +42299,9 @@
       <c r="AH358">
         <v>0</v>
       </c>
+      <c r="AI358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -41339,6 +42415,9 @@
       </c>
       <c r="AH359">
         <v>2</v>
+      </c>
+      <c r="AI359">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI359"/>
+  <dimension ref="A1:AJ359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,6 +533,11 @@
           <t>2020-04-23</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -650,6 +655,9 @@
       <c r="AI2">
         <v>2251</v>
       </c>
+      <c r="AJ2">
+        <v>2272</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -767,6 +775,9 @@
       <c r="AI3">
         <v>14</v>
       </c>
+      <c r="AJ3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -884,6 +895,9 @@
       <c r="AI4">
         <v>132</v>
       </c>
+      <c r="AJ4">
+        <v>132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1001,6 +1015,9 @@
       <c r="AI5">
         <v>50</v>
       </c>
+      <c r="AJ5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1118,6 +1135,9 @@
       <c r="AI6">
         <v>46</v>
       </c>
+      <c r="AJ6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1235,6 +1255,9 @@
       <c r="AI7">
         <v>5</v>
       </c>
+      <c r="AJ7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1352,6 +1375,9 @@
       <c r="AI8">
         <v>1</v>
       </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1469,6 +1495,9 @@
       <c r="AI9">
         <v>0</v>
       </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1586,6 +1615,9 @@
       <c r="AI10">
         <v>7</v>
       </c>
+      <c r="AJ10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1703,6 +1735,9 @@
       <c r="AI11">
         <v>6</v>
       </c>
+      <c r="AJ11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1820,6 +1855,9 @@
       <c r="AI12">
         <v>12</v>
       </c>
+      <c r="AJ12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1937,6 +1975,9 @@
       <c r="AI13">
         <v>13</v>
       </c>
+      <c r="AJ13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2054,6 +2095,9 @@
       <c r="AI14">
         <v>15</v>
       </c>
+      <c r="AJ14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2171,6 +2215,9 @@
       <c r="AI15">
         <v>11</v>
       </c>
+      <c r="AJ15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2288,6 +2335,9 @@
       <c r="AI16">
         <v>13</v>
       </c>
+      <c r="AJ16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2405,6 +2455,9 @@
       <c r="AI17">
         <v>0</v>
       </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2522,6 +2575,9 @@
       <c r="AI18">
         <v>0</v>
       </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2639,6 +2695,9 @@
       <c r="AI19">
         <v>3</v>
       </c>
+      <c r="AJ19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2756,6 +2815,9 @@
       <c r="AI20">
         <v>0</v>
       </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2873,6 +2935,9 @@
       <c r="AI21">
         <v>1</v>
       </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2990,6 +3055,9 @@
       <c r="AI22">
         <v>20</v>
       </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3107,6 +3175,9 @@
       <c r="AI23">
         <v>37</v>
       </c>
+      <c r="AJ23">
+        <v>37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3224,6 +3295,9 @@
       <c r="AI24">
         <v>0</v>
       </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3341,6 +3415,9 @@
       <c r="AI25">
         <v>11</v>
       </c>
+      <c r="AJ25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3458,6 +3535,9 @@
       <c r="AI26">
         <v>18</v>
       </c>
+      <c r="AJ26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3575,6 +3655,9 @@
       <c r="AI27">
         <v>14</v>
       </c>
+      <c r="AJ27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3692,6 +3775,9 @@
       <c r="AI28">
         <v>26</v>
       </c>
+      <c r="AJ28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3809,6 +3895,9 @@
       <c r="AI29">
         <v>1</v>
       </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3926,6 +4015,9 @@
       <c r="AI30">
         <v>3</v>
       </c>
+      <c r="AJ30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4043,6 +4135,9 @@
       <c r="AI31">
         <v>3</v>
       </c>
+      <c r="AJ31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4160,6 +4255,9 @@
       <c r="AI32">
         <v>8</v>
       </c>
+      <c r="AJ32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4277,6 +4375,9 @@
       <c r="AI33">
         <v>2</v>
       </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4394,6 +4495,9 @@
       <c r="AI34">
         <v>6</v>
       </c>
+      <c r="AJ34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4511,6 +4615,9 @@
       <c r="AI35">
         <v>0</v>
       </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4628,6 +4735,9 @@
       <c r="AI36">
         <v>1</v>
       </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4745,6 +4855,9 @@
       <c r="AI37">
         <v>6</v>
       </c>
+      <c r="AJ37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4862,6 +4975,9 @@
       <c r="AI38">
         <v>5</v>
       </c>
+      <c r="AJ38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4979,6 +5095,9 @@
       <c r="AI39">
         <v>0</v>
       </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5096,6 +5215,9 @@
       <c r="AI40">
         <v>10</v>
       </c>
+      <c r="AJ40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5213,6 +5335,9 @@
       <c r="AI41">
         <v>0</v>
       </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5330,6 +5455,9 @@
       <c r="AI42">
         <v>0</v>
       </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5447,6 +5575,9 @@
       <c r="AI43">
         <v>0</v>
       </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5564,6 +5695,9 @@
       <c r="AI44">
         <v>1</v>
       </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5681,6 +5815,9 @@
       <c r="AI45">
         <v>2</v>
       </c>
+      <c r="AJ45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5798,6 +5935,9 @@
       <c r="AI46">
         <v>2</v>
       </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5915,6 +6055,9 @@
       <c r="AI47">
         <v>0</v>
       </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6032,6 +6175,9 @@
       <c r="AI48">
         <v>3</v>
       </c>
+      <c r="AJ48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6149,6 +6295,9 @@
       <c r="AI49">
         <v>4</v>
       </c>
+      <c r="AJ49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6266,6 +6415,9 @@
       <c r="AI50">
         <v>1</v>
       </c>
+      <c r="AJ50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6383,6 +6535,9 @@
       <c r="AI51">
         <v>3</v>
       </c>
+      <c r="AJ51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6500,6 +6655,9 @@
       <c r="AI52">
         <v>38</v>
       </c>
+      <c r="AJ52">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6617,6 +6775,9 @@
       <c r="AI53">
         <v>5</v>
       </c>
+      <c r="AJ53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6734,6 +6895,9 @@
       <c r="AI54">
         <v>0</v>
       </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6851,6 +7015,9 @@
       <c r="AI55">
         <v>2</v>
       </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6968,6 +7135,9 @@
       <c r="AI56">
         <v>5</v>
       </c>
+      <c r="AJ56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7085,6 +7255,9 @@
       <c r="AI57">
         <v>3</v>
       </c>
+      <c r="AJ57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7202,6 +7375,9 @@
       <c r="AI58">
         <v>0</v>
       </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7319,6 +7495,9 @@
       <c r="AI59">
         <v>0</v>
       </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7436,6 +7615,9 @@
       <c r="AI60">
         <v>2</v>
       </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7553,6 +7735,9 @@
       <c r="AI61">
         <v>4</v>
       </c>
+      <c r="AJ61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7670,6 +7855,9 @@
       <c r="AI62">
         <v>1</v>
       </c>
+      <c r="AJ62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7787,6 +7975,9 @@
       <c r="AI63">
         <v>1</v>
       </c>
+      <c r="AJ63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7904,6 +8095,9 @@
       <c r="AI64">
         <v>0</v>
       </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8021,6 +8215,9 @@
       <c r="AI65">
         <v>5</v>
       </c>
+      <c r="AJ65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8138,6 +8335,9 @@
       <c r="AI66">
         <v>0</v>
       </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8255,6 +8455,9 @@
       <c r="AI67">
         <v>0</v>
       </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8372,6 +8575,9 @@
       <c r="AI68">
         <v>4</v>
       </c>
+      <c r="AJ68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8489,6 +8695,9 @@
       <c r="AI69">
         <v>0</v>
       </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8606,6 +8815,9 @@
       <c r="AI70">
         <v>0</v>
       </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8723,6 +8935,9 @@
       <c r="AI71">
         <v>0</v>
       </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8840,6 +9055,9 @@
       <c r="AI72">
         <v>5</v>
       </c>
+      <c r="AJ72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8957,6 +9175,9 @@
       <c r="AI73">
         <v>0</v>
       </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9074,6 +9295,9 @@
       <c r="AI74">
         <v>0</v>
       </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9191,6 +9415,9 @@
       <c r="AI75">
         <v>0</v>
       </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9308,6 +9535,9 @@
       <c r="AI76">
         <v>1</v>
       </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9425,6 +9655,9 @@
       <c r="AI77">
         <v>0</v>
       </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9542,6 +9775,9 @@
       <c r="AI78">
         <v>1</v>
       </c>
+      <c r="AJ78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9659,6 +9895,9 @@
       <c r="AI79">
         <v>0</v>
       </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9776,6 +10015,9 @@
       <c r="AI80">
         <v>0</v>
       </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9893,6 +10135,9 @@
       <c r="AI81">
         <v>0</v>
       </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10010,6 +10255,9 @@
       <c r="AI82">
         <v>0</v>
       </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10127,6 +10375,9 @@
       <c r="AI83">
         <v>5</v>
       </c>
+      <c r="AJ83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10244,6 +10495,9 @@
       <c r="AI84">
         <v>13</v>
       </c>
+      <c r="AJ84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10361,6 +10615,9 @@
       <c r="AI85">
         <v>3</v>
       </c>
+      <c r="AJ85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10478,6 +10735,9 @@
       <c r="AI86">
         <v>5</v>
       </c>
+      <c r="AJ86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10595,6 +10855,9 @@
       <c r="AI87">
         <v>0</v>
       </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10712,6 +10975,9 @@
       <c r="AI88">
         <v>0</v>
       </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10829,6 +11095,9 @@
       <c r="AI89">
         <v>6</v>
       </c>
+      <c r="AJ89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10946,6 +11215,9 @@
       <c r="AI90">
         <v>0</v>
       </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11063,6 +11335,9 @@
       <c r="AI91">
         <v>1</v>
       </c>
+      <c r="AJ91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11180,6 +11455,9 @@
       <c r="AI92">
         <v>0</v>
       </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11297,6 +11575,9 @@
       <c r="AI93">
         <v>33</v>
       </c>
+      <c r="AJ93">
+        <v>33</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11414,6 +11695,9 @@
       <c r="AI94">
         <v>95</v>
       </c>
+      <c r="AJ94">
+        <v>95</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11531,6 +11815,9 @@
       <c r="AI95">
         <v>56</v>
       </c>
+      <c r="AJ95">
+        <v>58</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11648,6 +11935,9 @@
       <c r="AI96">
         <v>85</v>
       </c>
+      <c r="AJ96">
+        <v>86</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11765,6 +12055,9 @@
       <c r="AI97">
         <v>170</v>
       </c>
+      <c r="AJ97">
+        <v>171</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11882,6 +12175,9 @@
       <c r="AI98">
         <v>21</v>
       </c>
+      <c r="AJ98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11999,6 +12295,9 @@
       <c r="AI99">
         <v>10</v>
       </c>
+      <c r="AJ99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12116,6 +12415,9 @@
       <c r="AI100">
         <v>2</v>
       </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12233,6 +12535,9 @@
       <c r="AI101">
         <v>2</v>
       </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12350,6 +12655,9 @@
       <c r="AI102">
         <v>3</v>
       </c>
+      <c r="AJ102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12467,6 +12775,9 @@
       <c r="AI103">
         <v>47</v>
       </c>
+      <c r="AJ103">
+        <v>47</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12584,6 +12895,9 @@
       <c r="AI104">
         <v>2</v>
       </c>
+      <c r="AJ104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12701,6 +13015,9 @@
       <c r="AI105">
         <v>1</v>
       </c>
+      <c r="AJ105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12818,6 +13135,9 @@
       <c r="AI106">
         <v>2</v>
       </c>
+      <c r="AJ106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12935,6 +13255,9 @@
       <c r="AI107">
         <v>6</v>
       </c>
+      <c r="AJ107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13052,6 +13375,9 @@
       <c r="AI108">
         <v>22</v>
       </c>
+      <c r="AJ108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13169,6 +13495,9 @@
       <c r="AI109">
         <v>98</v>
       </c>
+      <c r="AJ109">
+        <v>98</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13286,6 +13615,9 @@
       <c r="AI110">
         <v>18</v>
       </c>
+      <c r="AJ110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13403,6 +13735,9 @@
       <c r="AI111">
         <v>20</v>
       </c>
+      <c r="AJ111">
+        <v>20</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13520,6 +13855,9 @@
       <c r="AI112">
         <v>46</v>
       </c>
+      <c r="AJ112">
+        <v>46</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13637,6 +13975,9 @@
       <c r="AI113">
         <v>403</v>
       </c>
+      <c r="AJ113">
+        <v>405</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13754,6 +14095,9 @@
       <c r="AI114">
         <v>173</v>
       </c>
+      <c r="AJ114">
+        <v>173</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13871,6 +14215,9 @@
       <c r="AI115">
         <v>8</v>
       </c>
+      <c r="AJ115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13988,6 +14335,9 @@
       <c r="AI116">
         <v>25</v>
       </c>
+      <c r="AJ116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14105,6 +14455,9 @@
       <c r="AI117">
         <v>48</v>
       </c>
+      <c r="AJ117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14222,6 +14575,9 @@
       <c r="AI118">
         <v>86</v>
       </c>
+      <c r="AJ118">
+        <v>87</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14339,6 +14695,9 @@
       <c r="AI119">
         <v>150</v>
       </c>
+      <c r="AJ119">
+        <v>152</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14456,6 +14815,9 @@
       <c r="AI120">
         <v>45</v>
       </c>
+      <c r="AJ120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14573,6 +14935,9 @@
       <c r="AI121">
         <v>8</v>
       </c>
+      <c r="AJ121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14690,6 +15055,9 @@
       <c r="AI122">
         <v>58</v>
       </c>
+      <c r="AJ122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14807,6 +15175,9 @@
       <c r="AI123">
         <v>14</v>
       </c>
+      <c r="AJ123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14924,6 +15295,9 @@
       <c r="AI124">
         <v>39</v>
       </c>
+      <c r="AJ124">
+        <v>39</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15041,6 +15415,9 @@
       <c r="AI125">
         <v>17</v>
       </c>
+      <c r="AJ125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15158,6 +15535,9 @@
       <c r="AI126">
         <v>2</v>
       </c>
+      <c r="AJ126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15275,6 +15655,9 @@
       <c r="AI127">
         <v>10</v>
       </c>
+      <c r="AJ127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15392,6 +15775,9 @@
       <c r="AI128">
         <v>1</v>
       </c>
+      <c r="AJ128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15509,6 +15895,9 @@
       <c r="AI129">
         <v>7</v>
       </c>
+      <c r="AJ129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15626,6 +16015,9 @@
       <c r="AI130">
         <v>10</v>
       </c>
+      <c r="AJ130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15743,6 +16135,9 @@
       <c r="AI131">
         <v>8</v>
       </c>
+      <c r="AJ131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15860,6 +16255,9 @@
       <c r="AI132">
         <v>13</v>
       </c>
+      <c r="AJ132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15977,6 +16375,9 @@
       <c r="AI133">
         <v>44</v>
       </c>
+      <c r="AJ133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16094,6 +16495,9 @@
       <c r="AI134">
         <v>0</v>
       </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16211,6 +16615,9 @@
       <c r="AI135">
         <v>0</v>
       </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16328,6 +16735,9 @@
       <c r="AI136">
         <v>10</v>
       </c>
+      <c r="AJ136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16445,6 +16855,9 @@
       <c r="AI137">
         <v>5</v>
       </c>
+      <c r="AJ137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16562,6 +16975,9 @@
       <c r="AI138">
         <v>39</v>
       </c>
+      <c r="AJ138">
+        <v>41</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16679,6 +17095,9 @@
       <c r="AI139">
         <v>4</v>
       </c>
+      <c r="AJ139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16796,6 +17215,9 @@
       <c r="AI140">
         <v>1</v>
       </c>
+      <c r="AJ140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16913,6 +17335,9 @@
       <c r="AI141">
         <v>3</v>
       </c>
+      <c r="AJ141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17030,6 +17455,9 @@
       <c r="AI142">
         <v>6</v>
       </c>
+      <c r="AJ142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17147,6 +17575,9 @@
       <c r="AI143">
         <v>11</v>
       </c>
+      <c r="AJ143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17264,6 +17695,9 @@
       <c r="AI144">
         <v>1</v>
       </c>
+      <c r="AJ144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17381,6 +17815,9 @@
       <c r="AI145">
         <v>81</v>
       </c>
+      <c r="AJ145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17498,6 +17935,9 @@
       <c r="AI146">
         <v>37</v>
       </c>
+      <c r="AJ146">
+        <v>38</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17615,6 +18055,9 @@
       <c r="AI147">
         <v>20</v>
       </c>
+      <c r="AJ147">
+        <v>20</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17732,6 +18175,9 @@
       <c r="AI148">
         <v>61</v>
       </c>
+      <c r="AJ148">
+        <v>61</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17849,6 +18295,9 @@
       <c r="AI149">
         <v>11</v>
       </c>
+      <c r="AJ149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17966,6 +18415,9 @@
       <c r="AI150">
         <v>33</v>
       </c>
+      <c r="AJ150">
+        <v>34</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18083,6 +18535,9 @@
       <c r="AI151">
         <v>0</v>
       </c>
+      <c r="AJ151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18200,6 +18655,9 @@
       <c r="AI152">
         <v>19</v>
       </c>
+      <c r="AJ152">
+        <v>19</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18317,6 +18775,9 @@
       <c r="AI153">
         <v>4</v>
       </c>
+      <c r="AJ153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18434,6 +18895,9 @@
       <c r="AI154">
         <v>5</v>
       </c>
+      <c r="AJ154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18551,6 +19015,9 @@
       <c r="AI155">
         <v>3</v>
       </c>
+      <c r="AJ155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18668,6 +19135,9 @@
       <c r="AI156">
         <v>3</v>
       </c>
+      <c r="AJ156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18785,6 +19255,9 @@
       <c r="AI157">
         <v>13</v>
       </c>
+      <c r="AJ157">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18902,6 +19375,9 @@
       <c r="AI158">
         <v>2</v>
       </c>
+      <c r="AJ158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19019,6 +19495,9 @@
       <c r="AI159">
         <v>4</v>
       </c>
+      <c r="AJ159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19136,6 +19615,9 @@
       <c r="AI160">
         <v>0</v>
       </c>
+      <c r="AJ160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19253,6 +19735,9 @@
       <c r="AI161">
         <v>0</v>
       </c>
+      <c r="AJ161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19370,6 +19855,9 @@
       <c r="AI162">
         <v>2</v>
       </c>
+      <c r="AJ162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -19487,6 +19975,9 @@
       <c r="AI163">
         <v>0</v>
       </c>
+      <c r="AJ163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -19604,6 +20095,9 @@
       <c r="AI164">
         <v>0</v>
       </c>
+      <c r="AJ164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -19721,6 +20215,9 @@
       <c r="AI165">
         <v>1</v>
       </c>
+      <c r="AJ165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19838,6 +20335,9 @@
       <c r="AI166">
         <v>0</v>
       </c>
+      <c r="AJ166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19955,6 +20455,9 @@
       <c r="AI167">
         <v>1</v>
       </c>
+      <c r="AJ167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20072,6 +20575,9 @@
       <c r="AI168">
         <v>5</v>
       </c>
+      <c r="AJ168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20189,6 +20695,9 @@
       <c r="AI169">
         <v>2</v>
       </c>
+      <c r="AJ169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20306,6 +20815,9 @@
       <c r="AI170">
         <v>1</v>
       </c>
+      <c r="AJ170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -20423,6 +20935,9 @@
       <c r="AI171">
         <v>3</v>
       </c>
+      <c r="AJ171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20540,6 +21055,9 @@
       <c r="AI172">
         <v>2</v>
       </c>
+      <c r="AJ172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -20657,6 +21175,9 @@
       <c r="AI173">
         <v>13</v>
       </c>
+      <c r="AJ173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20774,6 +21295,9 @@
       <c r="AI174">
         <v>36</v>
       </c>
+      <c r="AJ174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -20891,6 +21415,9 @@
       <c r="AI175">
         <v>1</v>
       </c>
+      <c r="AJ175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21008,6 +21535,9 @@
       <c r="AI176">
         <v>8</v>
       </c>
+      <c r="AJ176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21125,6 +21655,9 @@
       <c r="AI177">
         <v>2</v>
       </c>
+      <c r="AJ177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21242,6 +21775,9 @@
       <c r="AI178">
         <v>6</v>
       </c>
+      <c r="AJ178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21359,6 +21895,9 @@
       <c r="AI179">
         <v>4</v>
       </c>
+      <c r="AJ179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -21476,6 +22015,9 @@
       <c r="AI180">
         <v>12</v>
       </c>
+      <c r="AJ180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -21593,6 +22135,9 @@
       <c r="AI181">
         <v>10</v>
       </c>
+      <c r="AJ181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -21710,6 +22255,9 @@
       <c r="AI182">
         <v>2</v>
       </c>
+      <c r="AJ182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -21827,6 +22375,9 @@
       <c r="AI183">
         <v>1</v>
       </c>
+      <c r="AJ183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -21944,6 +22495,9 @@
       <c r="AI184">
         <v>0</v>
       </c>
+      <c r="AJ184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22061,6 +22615,9 @@
       <c r="AI185">
         <v>1</v>
       </c>
+      <c r="AJ185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -22178,6 +22735,9 @@
       <c r="AI186">
         <v>9</v>
       </c>
+      <c r="AJ186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22295,6 +22855,9 @@
       <c r="AI187">
         <v>0</v>
       </c>
+      <c r="AJ187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -22412,6 +22975,9 @@
       <c r="AI188">
         <v>0</v>
       </c>
+      <c r="AJ188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -22529,6 +23095,9 @@
       <c r="AI189">
         <v>0</v>
       </c>
+      <c r="AJ189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -22646,6 +23215,9 @@
       <c r="AI190">
         <v>25</v>
       </c>
+      <c r="AJ190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -22763,6 +23335,9 @@
       <c r="AI191">
         <v>19</v>
       </c>
+      <c r="AJ191">
+        <v>19</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -22880,6 +23455,9 @@
       <c r="AI192">
         <v>57</v>
       </c>
+      <c r="AJ192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -22997,6 +23575,9 @@
       <c r="AI193">
         <v>38</v>
       </c>
+      <c r="AJ193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23114,6 +23695,9 @@
       <c r="AI194">
         <v>36</v>
       </c>
+      <c r="AJ194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23231,6 +23815,9 @@
       <c r="AI195">
         <v>10</v>
       </c>
+      <c r="AJ195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23348,6 +23935,9 @@
       <c r="AI196">
         <v>39</v>
       </c>
+      <c r="AJ196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -23465,6 +24055,9 @@
       <c r="AI197">
         <v>4</v>
       </c>
+      <c r="AJ197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -23582,6 +24175,9 @@
       <c r="AI198">
         <v>21</v>
       </c>
+      <c r="AJ198">
+        <v>22</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -23699,6 +24295,9 @@
       <c r="AI199">
         <v>2</v>
       </c>
+      <c r="AJ199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -23816,6 +24415,9 @@
       <c r="AI200">
         <v>5</v>
       </c>
+      <c r="AJ200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -23933,6 +24535,9 @@
       <c r="AI201">
         <v>2</v>
       </c>
+      <c r="AJ201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24050,6 +24655,9 @@
       <c r="AI202">
         <v>1</v>
       </c>
+      <c r="AJ202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24167,6 +24775,9 @@
       <c r="AI203">
         <v>3</v>
       </c>
+      <c r="AJ203">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24284,6 +24895,9 @@
       <c r="AI204">
         <v>0</v>
       </c>
+      <c r="AJ204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -24401,6 +25015,9 @@
       <c r="AI205">
         <v>1</v>
       </c>
+      <c r="AJ205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -24518,6 +25135,9 @@
       <c r="AI206">
         <v>0</v>
       </c>
+      <c r="AJ206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -24635,6 +25255,9 @@
       <c r="AI207">
         <v>0</v>
       </c>
+      <c r="AJ207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -24752,6 +25375,9 @@
       <c r="AI208">
         <v>0</v>
       </c>
+      <c r="AJ208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -24869,6 +25495,9 @@
       <c r="AI209">
         <v>0</v>
       </c>
+      <c r="AJ209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -24986,6 +25615,9 @@
       <c r="AI210">
         <v>0</v>
       </c>
+      <c r="AJ210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -25103,6 +25735,9 @@
       <c r="AI211">
         <v>0</v>
       </c>
+      <c r="AJ211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -25220,6 +25855,9 @@
       <c r="AI212">
         <v>2</v>
       </c>
+      <c r="AJ212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -25337,6 +25975,9 @@
       <c r="AI213">
         <v>0</v>
       </c>
+      <c r="AJ213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -25454,6 +26095,9 @@
       <c r="AI214">
         <v>2</v>
       </c>
+      <c r="AJ214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -25571,6 +26215,9 @@
       <c r="AI215">
         <v>30</v>
       </c>
+      <c r="AJ215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -25688,6 +26335,9 @@
       <c r="AI216">
         <v>209</v>
       </c>
+      <c r="AJ216">
+        <v>211</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -25805,6 +26455,9 @@
       <c r="AI217">
         <v>9</v>
       </c>
+      <c r="AJ217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -25922,6 +26575,9 @@
       <c r="AI218">
         <v>11</v>
       </c>
+      <c r="AJ218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -26039,6 +26695,9 @@
       <c r="AI219">
         <v>0</v>
       </c>
+      <c r="AJ219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -26156,6 +26815,9 @@
       <c r="AI220">
         <v>2</v>
       </c>
+      <c r="AJ220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -26273,6 +26935,9 @@
       <c r="AI221">
         <v>0</v>
       </c>
+      <c r="AJ221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -26390,6 +27055,9 @@
       <c r="AI222">
         <v>1</v>
       </c>
+      <c r="AJ222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -26507,6 +27175,9 @@
       <c r="AI223">
         <v>2</v>
       </c>
+      <c r="AJ223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -26624,6 +27295,9 @@
       <c r="AI224">
         <v>8</v>
       </c>
+      <c r="AJ224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -26741,6 +27415,9 @@
       <c r="AI225">
         <v>3</v>
       </c>
+      <c r="AJ225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -26858,6 +27535,9 @@
       <c r="AI226">
         <v>1</v>
       </c>
+      <c r="AJ226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -26975,6 +27655,9 @@
       <c r="AI227">
         <v>2</v>
       </c>
+      <c r="AJ227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -27092,6 +27775,9 @@
       <c r="AI228">
         <v>2</v>
       </c>
+      <c r="AJ228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -27209,6 +27895,9 @@
       <c r="AI229">
         <v>2</v>
       </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -27326,6 +28015,9 @@
       <c r="AI230">
         <v>0</v>
       </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -27443,6 +28135,9 @@
       <c r="AI231">
         <v>3</v>
       </c>
+      <c r="AJ231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -27560,6 +28255,9 @@
       <c r="AI232">
         <v>18</v>
       </c>
+      <c r="AJ232">
+        <v>20</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -27677,6 +28375,9 @@
       <c r="AI233">
         <v>0</v>
       </c>
+      <c r="AJ233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -27794,6 +28495,9 @@
       <c r="AI234">
         <v>4</v>
       </c>
+      <c r="AJ234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -27911,6 +28615,9 @@
       <c r="AI235">
         <v>1</v>
       </c>
+      <c r="AJ235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -28028,6 +28735,9 @@
       <c r="AI236">
         <v>1</v>
       </c>
+      <c r="AJ236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -28145,6 +28855,9 @@
       <c r="AI237">
         <v>1</v>
       </c>
+      <c r="AJ237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -28262,6 +28975,9 @@
       <c r="AI238">
         <v>519</v>
       </c>
+      <c r="AJ238">
+        <v>526</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -28379,6 +29095,9 @@
       <c r="AI239">
         <v>9</v>
       </c>
+      <c r="AJ239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -28496,6 +29215,9 @@
       <c r="AI240">
         <v>4</v>
       </c>
+      <c r="AJ240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -28613,6 +29335,9 @@
       <c r="AI241">
         <v>4</v>
       </c>
+      <c r="AJ241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -28730,6 +29455,9 @@
       <c r="AI242">
         <v>4</v>
       </c>
+      <c r="AJ242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -28847,6 +29575,9 @@
       <c r="AI243">
         <v>6</v>
       </c>
+      <c r="AJ243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -28964,6 +29695,9 @@
       <c r="AI244">
         <v>8</v>
       </c>
+      <c r="AJ244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -29081,6 +29815,9 @@
       <c r="AI245">
         <v>0</v>
       </c>
+      <c r="AJ245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -29198,6 +29935,9 @@
       <c r="AI246">
         <v>4</v>
       </c>
+      <c r="AJ246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -29315,6 +30055,9 @@
       <c r="AI247">
         <v>0</v>
       </c>
+      <c r="AJ247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -29432,6 +30175,9 @@
       <c r="AI248">
         <v>0</v>
       </c>
+      <c r="AJ248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -29549,6 +30295,9 @@
       <c r="AI249">
         <v>2</v>
       </c>
+      <c r="AJ249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -29666,6 +30415,9 @@
       <c r="AI250">
         <v>24</v>
       </c>
+      <c r="AJ250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -29783,6 +30535,9 @@
       <c r="AI251">
         <v>9</v>
       </c>
+      <c r="AJ251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -29900,6 +30655,9 @@
       <c r="AI252">
         <v>0</v>
       </c>
+      <c r="AJ252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -30017,6 +30775,9 @@
       <c r="AI253">
         <v>17</v>
       </c>
+      <c r="AJ253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -30134,6 +30895,9 @@
       <c r="AI254">
         <v>5</v>
       </c>
+      <c r="AJ254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -30251,6 +31015,9 @@
       <c r="AI255">
         <v>53</v>
       </c>
+      <c r="AJ255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -30368,6 +31135,9 @@
       <c r="AI256">
         <v>34</v>
       </c>
+      <c r="AJ256">
+        <v>35</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -30485,6 +31255,9 @@
       <c r="AI257">
         <v>1</v>
       </c>
+      <c r="AJ257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -30602,6 +31375,9 @@
       <c r="AI258">
         <v>0</v>
       </c>
+      <c r="AJ258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -30719,6 +31495,9 @@
       <c r="AI259">
         <v>39</v>
       </c>
+      <c r="AJ259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -30836,6 +31615,9 @@
       <c r="AI260">
         <v>25</v>
       </c>
+      <c r="AJ260">
+        <v>26</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -30953,6 +31735,9 @@
       <c r="AI261">
         <v>0</v>
       </c>
+      <c r="AJ261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -31070,6 +31855,9 @@
       <c r="AI262">
         <v>0</v>
       </c>
+      <c r="AJ262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -31187,6 +31975,9 @@
       <c r="AI263">
         <v>0</v>
       </c>
+      <c r="AJ263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -31304,6 +32095,9 @@
       <c r="AI264">
         <v>1</v>
       </c>
+      <c r="AJ264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -31421,6 +32215,9 @@
       <c r="AI265">
         <v>3</v>
       </c>
+      <c r="AJ265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -31538,6 +32335,9 @@
       <c r="AI266">
         <v>0</v>
       </c>
+      <c r="AJ266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -31655,6 +32455,9 @@
       <c r="AI267">
         <v>3</v>
       </c>
+      <c r="AJ267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -31772,6 +32575,9 @@
       <c r="AI268">
         <v>0</v>
       </c>
+      <c r="AJ268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -31889,6 +32695,9 @@
       <c r="AI269">
         <v>7</v>
       </c>
+      <c r="AJ269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -32006,6 +32815,9 @@
       <c r="AI270">
         <v>0</v>
       </c>
+      <c r="AJ270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -32123,6 +32935,9 @@
       <c r="AI271">
         <v>0</v>
       </c>
+      <c r="AJ271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -32240,6 +33055,9 @@
       <c r="AI272">
         <v>1</v>
       </c>
+      <c r="AJ272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -32357,6 +33175,9 @@
       <c r="AI273">
         <v>4</v>
       </c>
+      <c r="AJ273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -32474,6 +33295,9 @@
       <c r="AI274">
         <v>0</v>
       </c>
+      <c r="AJ274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -32591,6 +33415,9 @@
       <c r="AI275">
         <v>0</v>
       </c>
+      <c r="AJ275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -32708,6 +33535,9 @@
       <c r="AI276">
         <v>17</v>
       </c>
+      <c r="AJ276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -32825,6 +33655,9 @@
       <c r="AI277">
         <v>0</v>
       </c>
+      <c r="AJ277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -32942,6 +33775,9 @@
       <c r="AI278">
         <v>0</v>
       </c>
+      <c r="AJ278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -33059,6 +33895,9 @@
       <c r="AI279">
         <v>4</v>
       </c>
+      <c r="AJ279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -33176,6 +34015,9 @@
       <c r="AI280">
         <v>12</v>
       </c>
+      <c r="AJ280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -33293,6 +34135,9 @@
       <c r="AI281">
         <v>241</v>
       </c>
+      <c r="AJ281">
+        <v>244</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -33410,6 +34255,9 @@
       <c r="AI282">
         <v>16</v>
       </c>
+      <c r="AJ282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -33527,6 +34375,9 @@
       <c r="AI283">
         <v>5</v>
       </c>
+      <c r="AJ283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -33644,6 +34495,9 @@
       <c r="AI284">
         <v>0</v>
       </c>
+      <c r="AJ284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -33761,6 +34615,9 @@
       <c r="AI285">
         <v>0</v>
       </c>
+      <c r="AJ285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -33878,6 +34735,9 @@
       <c r="AI286">
         <v>8</v>
       </c>
+      <c r="AJ286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -33995,6 +34855,9 @@
       <c r="AI287">
         <v>5</v>
       </c>
+      <c r="AJ287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -34112,6 +34975,9 @@
       <c r="AI288">
         <v>0</v>
       </c>
+      <c r="AJ288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -34229,6 +35095,9 @@
       <c r="AI289">
         <v>1</v>
       </c>
+      <c r="AJ289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -34346,6 +35215,9 @@
       <c r="AI290">
         <v>7</v>
       </c>
+      <c r="AJ290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -34463,6 +35335,9 @@
       <c r="AI291">
         <v>3</v>
       </c>
+      <c r="AJ291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -34580,6 +35455,9 @@
       <c r="AI292">
         <v>5</v>
       </c>
+      <c r="AJ292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -34697,6 +35575,9 @@
       <c r="AI293">
         <v>11</v>
       </c>
+      <c r="AJ293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -34814,6 +35695,9 @@
       <c r="AI294">
         <v>6</v>
       </c>
+      <c r="AJ294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -34931,6 +35815,9 @@
       <c r="AI295">
         <v>0</v>
       </c>
+      <c r="AJ295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -35048,6 +35935,9 @@
       <c r="AI296">
         <v>1</v>
       </c>
+      <c r="AJ296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -35165,6 +36055,9 @@
       <c r="AI297">
         <v>8</v>
       </c>
+      <c r="AJ297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -35282,6 +36175,9 @@
       <c r="AI298">
         <v>28</v>
       </c>
+      <c r="AJ298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -35399,6 +36295,9 @@
       <c r="AI299">
         <v>21</v>
       </c>
+      <c r="AJ299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -35516,6 +36415,9 @@
       <c r="AI300">
         <v>15</v>
       </c>
+      <c r="AJ300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -35633,6 +36535,9 @@
       <c r="AI301">
         <v>0</v>
       </c>
+      <c r="AJ301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -35750,6 +36655,9 @@
       <c r="AI302">
         <v>0</v>
       </c>
+      <c r="AJ302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -35867,6 +36775,9 @@
       <c r="AI303">
         <v>0</v>
       </c>
+      <c r="AJ303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -35984,6 +36895,9 @@
       <c r="AI304">
         <v>0</v>
       </c>
+      <c r="AJ304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -36101,6 +37015,9 @@
       <c r="AI305">
         <v>3</v>
       </c>
+      <c r="AJ305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -36218,6 +37135,9 @@
       <c r="AI306">
         <v>1</v>
       </c>
+      <c r="AJ306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -36335,6 +37255,9 @@
       <c r="AI307">
         <v>4</v>
       </c>
+      <c r="AJ307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -36452,6 +37375,9 @@
       <c r="AI308">
         <v>0</v>
       </c>
+      <c r="AJ308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -36569,6 +37495,9 @@
       <c r="AI309">
         <v>0</v>
       </c>
+      <c r="AJ309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -36686,6 +37615,9 @@
       <c r="AI310">
         <v>7</v>
       </c>
+      <c r="AJ310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -36803,6 +37735,9 @@
       <c r="AI311">
         <v>2</v>
       </c>
+      <c r="AJ311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -36920,6 +37855,9 @@
       <c r="AI312">
         <v>2</v>
       </c>
+      <c r="AJ312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -37037,6 +37975,9 @@
       <c r="AI313">
         <v>2</v>
       </c>
+      <c r="AJ313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -37154,6 +38095,9 @@
       <c r="AI314">
         <v>10</v>
       </c>
+      <c r="AJ314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -37271,6 +38215,9 @@
       <c r="AI315">
         <v>1</v>
       </c>
+      <c r="AJ315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -37388,6 +38335,9 @@
       <c r="AI316">
         <v>17</v>
       </c>
+      <c r="AJ316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -37505,6 +38455,9 @@
       <c r="AI317">
         <v>0</v>
       </c>
+      <c r="AJ317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -37622,6 +38575,9 @@
       <c r="AI318">
         <v>0</v>
       </c>
+      <c r="AJ318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -37739,6 +38695,9 @@
       <c r="AI319">
         <v>149</v>
       </c>
+      <c r="AJ319">
+        <v>149</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -37856,6 +38815,9 @@
       <c r="AI320">
         <v>6</v>
       </c>
+      <c r="AJ320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -37973,6 +38935,9 @@
       <c r="AI321">
         <v>5</v>
       </c>
+      <c r="AJ321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -38090,6 +39055,9 @@
       <c r="AI322">
         <v>1</v>
       </c>
+      <c r="AJ322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -38207,6 +39175,9 @@
       <c r="AI323">
         <v>3</v>
       </c>
+      <c r="AJ323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -38324,6 +39295,9 @@
       <c r="AI324">
         <v>15</v>
       </c>
+      <c r="AJ324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -38441,6 +39415,9 @@
       <c r="AI325">
         <v>1</v>
       </c>
+      <c r="AJ325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -38558,6 +39535,9 @@
       <c r="AI326">
         <v>1</v>
       </c>
+      <c r="AJ326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -38675,6 +39655,9 @@
       <c r="AI327">
         <v>0</v>
       </c>
+      <c r="AJ327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -38792,6 +39775,9 @@
       <c r="AI328">
         <v>0</v>
       </c>
+      <c r="AJ328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -38909,6 +39895,9 @@
       <c r="AI329">
         <v>3</v>
       </c>
+      <c r="AJ329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -39026,6 +40015,9 @@
       <c r="AI330">
         <v>1</v>
       </c>
+      <c r="AJ330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -39143,6 +40135,9 @@
       <c r="AI331">
         <v>2</v>
       </c>
+      <c r="AJ331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -39260,6 +40255,9 @@
       <c r="AI332">
         <v>0</v>
       </c>
+      <c r="AJ332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -39377,6 +40375,9 @@
       <c r="AI333">
         <v>0</v>
       </c>
+      <c r="AJ333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -39494,6 +40495,9 @@
       <c r="AI334">
         <v>0</v>
       </c>
+      <c r="AJ334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -39611,6 +40615,9 @@
       <c r="AI335">
         <v>16</v>
       </c>
+      <c r="AJ335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -39728,6 +40735,9 @@
       <c r="AI336">
         <v>2</v>
       </c>
+      <c r="AJ336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -39845,6 +40855,9 @@
       <c r="AI337">
         <v>1</v>
       </c>
+      <c r="AJ337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -39962,6 +40975,9 @@
       <c r="AI338">
         <v>2</v>
       </c>
+      <c r="AJ338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -40079,6 +41095,9 @@
       <c r="AI339">
         <v>0</v>
       </c>
+      <c r="AJ339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -40196,6 +41215,9 @@
       <c r="AI340">
         <v>0</v>
       </c>
+      <c r="AJ340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -40313,6 +41335,9 @@
       <c r="AI341">
         <v>1</v>
       </c>
+      <c r="AJ341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -40430,6 +41455,9 @@
       <c r="AI342">
         <v>2</v>
       </c>
+      <c r="AJ342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -40547,6 +41575,9 @@
       <c r="AI343">
         <v>0</v>
       </c>
+      <c r="AJ343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -40664,6 +41695,9 @@
       <c r="AI344">
         <v>1</v>
       </c>
+      <c r="AJ344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -40781,6 +41815,9 @@
       <c r="AI345">
         <v>0</v>
       </c>
+      <c r="AJ345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -40898,6 +41935,9 @@
       <c r="AI346">
         <v>0</v>
       </c>
+      <c r="AJ346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -41015,6 +42055,9 @@
       <c r="AI347">
         <v>3</v>
       </c>
+      <c r="AJ347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -41132,6 +42175,9 @@
       <c r="AI348">
         <v>2</v>
       </c>
+      <c r="AJ348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -41249,6 +42295,9 @@
       <c r="AI349">
         <v>4</v>
       </c>
+      <c r="AJ349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -41366,6 +42415,9 @@
       <c r="AI350">
         <v>1</v>
       </c>
+      <c r="AJ350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -41483,6 +42535,9 @@
       <c r="AI351">
         <v>0</v>
       </c>
+      <c r="AJ351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -41600,6 +42655,9 @@
       <c r="AI352">
         <v>0</v>
       </c>
+      <c r="AJ352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -41717,6 +42775,9 @@
       <c r="AI353">
         <v>0</v>
       </c>
+      <c r="AJ353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -41834,6 +42895,9 @@
       <c r="AI354">
         <v>1</v>
       </c>
+      <c r="AJ354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -41951,6 +43015,9 @@
       <c r="AI355">
         <v>1</v>
       </c>
+      <c r="AJ355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -42068,6 +43135,9 @@
       <c r="AI356">
         <v>0</v>
       </c>
+      <c r="AJ356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -42185,6 +43255,9 @@
       <c r="AI357">
         <v>4</v>
       </c>
+      <c r="AJ357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -42302,6 +43375,9 @@
       <c r="AI358">
         <v>0</v>
       </c>
+      <c r="AJ358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -42417,6 +43493,9 @@
         <v>2</v>
       </c>
       <c r="AI359">
+        <v>0</v>
+      </c>
+      <c r="AJ359">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ359"/>
+  <dimension ref="A1:AK359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,6 +538,11 @@
           <t>2020-04-24</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -658,6 +663,9 @@
       <c r="AJ2">
         <v>2272</v>
       </c>
+      <c r="AK2">
+        <v>2298</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -778,6 +786,9 @@
       <c r="AJ3">
         <v>14</v>
       </c>
+      <c r="AK3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +909,9 @@
       <c r="AJ4">
         <v>132</v>
       </c>
+      <c r="AK4">
+        <v>132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1018,6 +1032,9 @@
       <c r="AJ5">
         <v>50</v>
       </c>
+      <c r="AK5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1138,6 +1155,9 @@
       <c r="AJ6">
         <v>46</v>
       </c>
+      <c r="AK6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1258,6 +1278,9 @@
       <c r="AJ7">
         <v>5</v>
       </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1378,6 +1401,9 @@
       <c r="AJ8">
         <v>1</v>
       </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1498,6 +1524,9 @@
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1618,6 +1647,9 @@
       <c r="AJ10">
         <v>7</v>
       </c>
+      <c r="AK10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1738,6 +1770,9 @@
       <c r="AJ11">
         <v>6</v>
       </c>
+      <c r="AK11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1858,6 +1893,9 @@
       <c r="AJ12">
         <v>12</v>
       </c>
+      <c r="AK12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1978,6 +2016,9 @@
       <c r="AJ13">
         <v>13</v>
       </c>
+      <c r="AK13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2098,6 +2139,9 @@
       <c r="AJ14">
         <v>15</v>
       </c>
+      <c r="AK14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2218,6 +2262,9 @@
       <c r="AJ15">
         <v>11</v>
       </c>
+      <c r="AK15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2338,6 +2385,9 @@
       <c r="AJ16">
         <v>13</v>
       </c>
+      <c r="AK16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2458,6 +2508,9 @@
       <c r="AJ17">
         <v>0</v>
       </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2578,6 +2631,9 @@
       <c r="AJ18">
         <v>0</v>
       </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2698,6 +2754,9 @@
       <c r="AJ19">
         <v>3</v>
       </c>
+      <c r="AK19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2818,6 +2877,9 @@
       <c r="AJ20">
         <v>0</v>
       </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2938,6 +3000,9 @@
       <c r="AJ21">
         <v>1</v>
       </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3058,6 +3123,9 @@
       <c r="AJ22">
         <v>20</v>
       </c>
+      <c r="AK22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3178,6 +3246,9 @@
       <c r="AJ23">
         <v>37</v>
       </c>
+      <c r="AK23">
+        <v>37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3298,6 +3369,9 @@
       <c r="AJ24">
         <v>0</v>
       </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3418,6 +3492,9 @@
       <c r="AJ25">
         <v>11</v>
       </c>
+      <c r="AK25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3538,6 +3615,9 @@
       <c r="AJ26">
         <v>18</v>
       </c>
+      <c r="AK26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3658,6 +3738,9 @@
       <c r="AJ27">
         <v>14</v>
       </c>
+      <c r="AK27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3778,6 +3861,9 @@
       <c r="AJ28">
         <v>26</v>
       </c>
+      <c r="AK28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3898,6 +3984,9 @@
       <c r="AJ29">
         <v>1</v>
       </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4018,6 +4107,9 @@
       <c r="AJ30">
         <v>4</v>
       </c>
+      <c r="AK30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4138,6 +4230,9 @@
       <c r="AJ31">
         <v>3</v>
       </c>
+      <c r="AK31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4258,6 +4353,9 @@
       <c r="AJ32">
         <v>8</v>
       </c>
+      <c r="AK32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4378,6 +4476,9 @@
       <c r="AJ33">
         <v>2</v>
       </c>
+      <c r="AK33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4498,6 +4599,9 @@
       <c r="AJ34">
         <v>6</v>
       </c>
+      <c r="AK34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4618,6 +4722,9 @@
       <c r="AJ35">
         <v>0</v>
       </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4738,6 +4845,9 @@
       <c r="AJ36">
         <v>1</v>
       </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4858,6 +4968,9 @@
       <c r="AJ37">
         <v>6</v>
       </c>
+      <c r="AK37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4978,6 +5091,9 @@
       <c r="AJ38">
         <v>5</v>
       </c>
+      <c r="AK38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5098,6 +5214,9 @@
       <c r="AJ39">
         <v>0</v>
       </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5218,6 +5337,9 @@
       <c r="AJ40">
         <v>10</v>
       </c>
+      <c r="AK40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5338,6 +5460,9 @@
       <c r="AJ41">
         <v>0</v>
       </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5458,6 +5583,9 @@
       <c r="AJ42">
         <v>0</v>
       </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5578,6 +5706,9 @@
       <c r="AJ43">
         <v>0</v>
       </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5698,6 +5829,9 @@
       <c r="AJ44">
         <v>1</v>
       </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5818,6 +5952,9 @@
       <c r="AJ45">
         <v>2</v>
       </c>
+      <c r="AK45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5938,6 +6075,9 @@
       <c r="AJ46">
         <v>2</v>
       </c>
+      <c r="AK46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6058,6 +6198,9 @@
       <c r="AJ47">
         <v>0</v>
       </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6178,6 +6321,9 @@
       <c r="AJ48">
         <v>3</v>
       </c>
+      <c r="AK48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6298,6 +6444,9 @@
       <c r="AJ49">
         <v>4</v>
       </c>
+      <c r="AK49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6418,6 +6567,9 @@
       <c r="AJ50">
         <v>1</v>
       </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6538,6 +6690,9 @@
       <c r="AJ51">
         <v>3</v>
       </c>
+      <c r="AK51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6658,6 +6813,9 @@
       <c r="AJ52">
         <v>38</v>
       </c>
+      <c r="AK52">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6778,6 +6936,9 @@
       <c r="AJ53">
         <v>6</v>
       </c>
+      <c r="AK53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6898,6 +7059,9 @@
       <c r="AJ54">
         <v>0</v>
       </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7018,6 +7182,9 @@
       <c r="AJ55">
         <v>2</v>
       </c>
+      <c r="AK55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7138,6 +7305,9 @@
       <c r="AJ56">
         <v>5</v>
       </c>
+      <c r="AK56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7258,6 +7428,9 @@
       <c r="AJ57">
         <v>3</v>
       </c>
+      <c r="AK57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7378,6 +7551,9 @@
       <c r="AJ58">
         <v>0</v>
       </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7498,6 +7674,9 @@
       <c r="AJ59">
         <v>0</v>
       </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7618,6 +7797,9 @@
       <c r="AJ60">
         <v>2</v>
       </c>
+      <c r="AK60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7738,6 +7920,9 @@
       <c r="AJ61">
         <v>4</v>
       </c>
+      <c r="AK61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7858,6 +8043,9 @@
       <c r="AJ62">
         <v>1</v>
       </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7978,6 +8166,9 @@
       <c r="AJ63">
         <v>1</v>
       </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8098,6 +8289,9 @@
       <c r="AJ64">
         <v>0</v>
       </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8218,6 +8412,9 @@
       <c r="AJ65">
         <v>5</v>
       </c>
+      <c r="AK65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8338,6 +8535,9 @@
       <c r="AJ66">
         <v>0</v>
       </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8458,6 +8658,9 @@
       <c r="AJ67">
         <v>0</v>
       </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8578,6 +8781,9 @@
       <c r="AJ68">
         <v>4</v>
       </c>
+      <c r="AK68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8698,6 +8904,9 @@
       <c r="AJ69">
         <v>0</v>
       </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8818,6 +9027,9 @@
       <c r="AJ70">
         <v>0</v>
       </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8938,6 +9150,9 @@
       <c r="AJ71">
         <v>0</v>
       </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9058,6 +9273,9 @@
       <c r="AJ72">
         <v>5</v>
       </c>
+      <c r="AK72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9178,6 +9396,9 @@
       <c r="AJ73">
         <v>0</v>
       </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9298,6 +9519,9 @@
       <c r="AJ74">
         <v>0</v>
       </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9418,6 +9642,9 @@
       <c r="AJ75">
         <v>0</v>
       </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9538,6 +9765,9 @@
       <c r="AJ76">
         <v>2</v>
       </c>
+      <c r="AK76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9658,6 +9888,9 @@
       <c r="AJ77">
         <v>0</v>
       </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9778,6 +10011,9 @@
       <c r="AJ78">
         <v>1</v>
       </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9898,6 +10134,9 @@
       <c r="AJ79">
         <v>0</v>
       </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10018,6 +10257,9 @@
       <c r="AJ80">
         <v>0</v>
       </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10138,6 +10380,9 @@
       <c r="AJ81">
         <v>0</v>
       </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10258,6 +10503,9 @@
       <c r="AJ82">
         <v>0</v>
       </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10378,6 +10626,9 @@
       <c r="AJ83">
         <v>6</v>
       </c>
+      <c r="AK83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10498,6 +10749,9 @@
       <c r="AJ84">
         <v>13</v>
       </c>
+      <c r="AK84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10618,6 +10872,9 @@
       <c r="AJ85">
         <v>3</v>
       </c>
+      <c r="AK85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10738,6 +10995,9 @@
       <c r="AJ86">
         <v>5</v>
       </c>
+      <c r="AK86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10858,6 +11118,9 @@
       <c r="AJ87">
         <v>0</v>
       </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10978,6 +11241,9 @@
       <c r="AJ88">
         <v>0</v>
       </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11098,6 +11364,9 @@
       <c r="AJ89">
         <v>6</v>
       </c>
+      <c r="AK89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11218,6 +11487,9 @@
       <c r="AJ90">
         <v>0</v>
       </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11338,6 +11610,9 @@
       <c r="AJ91">
         <v>1</v>
       </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11458,6 +11733,9 @@
       <c r="AJ92">
         <v>0</v>
       </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11578,6 +11856,9 @@
       <c r="AJ93">
         <v>33</v>
       </c>
+      <c r="AK93">
+        <v>35</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11698,6 +11979,9 @@
       <c r="AJ94">
         <v>95</v>
       </c>
+      <c r="AK94">
+        <v>93</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11818,6 +12102,9 @@
       <c r="AJ95">
         <v>58</v>
       </c>
+      <c r="AK95">
+        <v>59</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11938,6 +12225,9 @@
       <c r="AJ96">
         <v>86</v>
       </c>
+      <c r="AK96">
+        <v>86</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12058,6 +12348,9 @@
       <c r="AJ97">
         <v>171</v>
       </c>
+      <c r="AK97">
+        <v>171</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12178,6 +12471,9 @@
       <c r="AJ98">
         <v>21</v>
       </c>
+      <c r="AK98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12298,6 +12594,9 @@
       <c r="AJ99">
         <v>10</v>
       </c>
+      <c r="AK99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12418,6 +12717,9 @@
       <c r="AJ100">
         <v>2</v>
       </c>
+      <c r="AK100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12538,6 +12840,9 @@
       <c r="AJ101">
         <v>2</v>
       </c>
+      <c r="AK101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12658,6 +12963,9 @@
       <c r="AJ102">
         <v>3</v>
       </c>
+      <c r="AK102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12778,6 +13086,9 @@
       <c r="AJ103">
         <v>47</v>
       </c>
+      <c r="AK103">
+        <v>47</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12898,6 +13209,9 @@
       <c r="AJ104">
         <v>2</v>
       </c>
+      <c r="AK104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13018,6 +13332,9 @@
       <c r="AJ105">
         <v>1</v>
       </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13138,6 +13455,9 @@
       <c r="AJ106">
         <v>2</v>
       </c>
+      <c r="AK106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13258,6 +13578,9 @@
       <c r="AJ107">
         <v>6</v>
       </c>
+      <c r="AK107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13378,6 +13701,9 @@
       <c r="AJ108">
         <v>23</v>
       </c>
+      <c r="AK108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13498,6 +13824,9 @@
       <c r="AJ109">
         <v>98</v>
       </c>
+      <c r="AK109">
+        <v>98</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13618,6 +13947,9 @@
       <c r="AJ110">
         <v>18</v>
       </c>
+      <c r="AK110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13738,6 +14070,9 @@
       <c r="AJ111">
         <v>20</v>
       </c>
+      <c r="AK111">
+        <v>21</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13858,6 +14193,9 @@
       <c r="AJ112">
         <v>46</v>
       </c>
+      <c r="AK112">
+        <v>46</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13978,6 +14316,9 @@
       <c r="AJ113">
         <v>405</v>
       </c>
+      <c r="AK113">
+        <v>406</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14098,6 +14439,9 @@
       <c r="AJ114">
         <v>173</v>
       </c>
+      <c r="AK114">
+        <v>176</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14218,6 +14562,9 @@
       <c r="AJ115">
         <v>8</v>
       </c>
+      <c r="AK115">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14338,6 +14685,9 @@
       <c r="AJ116">
         <v>25</v>
       </c>
+      <c r="AK116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14458,6 +14808,9 @@
       <c r="AJ117">
         <v>49</v>
       </c>
+      <c r="AK117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14578,6 +14931,9 @@
       <c r="AJ118">
         <v>87</v>
       </c>
+      <c r="AK118">
+        <v>90</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14698,6 +15054,9 @@
       <c r="AJ119">
         <v>152</v>
       </c>
+      <c r="AK119">
+        <v>152</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14818,6 +15177,9 @@
       <c r="AJ120">
         <v>45</v>
       </c>
+      <c r="AK120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14938,6 +15300,9 @@
       <c r="AJ121">
         <v>8</v>
       </c>
+      <c r="AK121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15058,6 +15423,9 @@
       <c r="AJ122">
         <v>58</v>
       </c>
+      <c r="AK122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15178,6 +15546,9 @@
       <c r="AJ123">
         <v>14</v>
       </c>
+      <c r="AK123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15298,6 +15669,9 @@
       <c r="AJ124">
         <v>39</v>
       </c>
+      <c r="AK124">
+        <v>39</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15418,6 +15792,9 @@
       <c r="AJ125">
         <v>17</v>
       </c>
+      <c r="AK125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15538,6 +15915,9 @@
       <c r="AJ126">
         <v>2</v>
       </c>
+      <c r="AK126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15658,6 +16038,9 @@
       <c r="AJ127">
         <v>10</v>
       </c>
+      <c r="AK127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15778,6 +16161,9 @@
       <c r="AJ128">
         <v>1</v>
       </c>
+      <c r="AK128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15898,6 +16284,9 @@
       <c r="AJ129">
         <v>7</v>
       </c>
+      <c r="AK129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16018,6 +16407,9 @@
       <c r="AJ130">
         <v>10</v>
       </c>
+      <c r="AK130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16138,6 +16530,9 @@
       <c r="AJ131">
         <v>8</v>
       </c>
+      <c r="AK131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16258,6 +16653,9 @@
       <c r="AJ132">
         <v>13</v>
       </c>
+      <c r="AK132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16378,6 +16776,9 @@
       <c r="AJ133">
         <v>44</v>
       </c>
+      <c r="AK133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16498,6 +16899,9 @@
       <c r="AJ134">
         <v>0</v>
       </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16618,6 +17022,9 @@
       <c r="AJ135">
         <v>0</v>
       </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16738,6 +17145,9 @@
       <c r="AJ136">
         <v>10</v>
       </c>
+      <c r="AK136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16858,6 +17268,9 @@
       <c r="AJ137">
         <v>5</v>
       </c>
+      <c r="AK137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16978,6 +17391,9 @@
       <c r="AJ138">
         <v>41</v>
       </c>
+      <c r="AK138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17098,6 +17514,9 @@
       <c r="AJ139">
         <v>4</v>
       </c>
+      <c r="AK139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17218,6 +17637,9 @@
       <c r="AJ140">
         <v>1</v>
       </c>
+      <c r="AK140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17338,6 +17760,9 @@
       <c r="AJ141">
         <v>3</v>
       </c>
+      <c r="AK141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17458,6 +17883,9 @@
       <c r="AJ142">
         <v>6</v>
       </c>
+      <c r="AK142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17578,6 +18006,9 @@
       <c r="AJ143">
         <v>11</v>
       </c>
+      <c r="AK143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17698,6 +18129,9 @@
       <c r="AJ144">
         <v>1</v>
       </c>
+      <c r="AK144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17818,6 +18252,9 @@
       <c r="AJ145">
         <v>82</v>
       </c>
+      <c r="AK145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17938,6 +18375,9 @@
       <c r="AJ146">
         <v>38</v>
       </c>
+      <c r="AK146">
+        <v>38</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -18058,6 +18498,9 @@
       <c r="AJ147">
         <v>20</v>
       </c>
+      <c r="AK147">
+        <v>21</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -18178,6 +18621,9 @@
       <c r="AJ148">
         <v>61</v>
       </c>
+      <c r="AK148">
+        <v>61</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -18298,6 +18744,9 @@
       <c r="AJ149">
         <v>11</v>
       </c>
+      <c r="AK149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18418,6 +18867,9 @@
       <c r="AJ150">
         <v>34</v>
       </c>
+      <c r="AK150">
+        <v>34</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18538,6 +18990,9 @@
       <c r="AJ151">
         <v>0</v>
       </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18658,6 +19113,9 @@
       <c r="AJ152">
         <v>19</v>
       </c>
+      <c r="AK152">
+        <v>19</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18778,6 +19236,9 @@
       <c r="AJ153">
         <v>4</v>
       </c>
+      <c r="AK153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18898,6 +19359,9 @@
       <c r="AJ154">
         <v>5</v>
       </c>
+      <c r="AK154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -19018,6 +19482,9 @@
       <c r="AJ155">
         <v>3</v>
       </c>
+      <c r="AK155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -19138,6 +19605,9 @@
       <c r="AJ156">
         <v>3</v>
       </c>
+      <c r="AK156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -19258,6 +19728,9 @@
       <c r="AJ157">
         <v>14</v>
       </c>
+      <c r="AK157">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19378,6 +19851,9 @@
       <c r="AJ158">
         <v>2</v>
       </c>
+      <c r="AK158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19498,6 +19974,9 @@
       <c r="AJ159">
         <v>4</v>
       </c>
+      <c r="AK159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19618,6 +20097,9 @@
       <c r="AJ160">
         <v>0</v>
       </c>
+      <c r="AK160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19738,6 +20220,9 @@
       <c r="AJ161">
         <v>0</v>
       </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19858,6 +20343,9 @@
       <c r="AJ162">
         <v>2</v>
       </c>
+      <c r="AK162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -19978,6 +20466,9 @@
       <c r="AJ163">
         <v>0</v>
       </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -20098,6 +20589,9 @@
       <c r="AJ164">
         <v>0</v>
       </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -20218,6 +20712,9 @@
       <c r="AJ165">
         <v>1</v>
       </c>
+      <c r="AK165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -20338,6 +20835,9 @@
       <c r="AJ166">
         <v>0</v>
       </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -20458,6 +20958,9 @@
       <c r="AJ167">
         <v>1</v>
       </c>
+      <c r="AK167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20578,6 +21081,9 @@
       <c r="AJ168">
         <v>5</v>
       </c>
+      <c r="AK168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20698,6 +21204,9 @@
       <c r="AJ169">
         <v>2</v>
       </c>
+      <c r="AK169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20818,6 +21327,9 @@
       <c r="AJ170">
         <v>1</v>
       </c>
+      <c r="AK170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -20938,6 +21450,9 @@
       <c r="AJ171">
         <v>3</v>
       </c>
+      <c r="AK171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -21058,6 +21573,9 @@
       <c r="AJ172">
         <v>2</v>
       </c>
+      <c r="AK172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -21178,6 +21696,9 @@
       <c r="AJ173">
         <v>13</v>
       </c>
+      <c r="AK173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -21298,6 +21819,9 @@
       <c r="AJ174">
         <v>36</v>
       </c>
+      <c r="AK174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -21418,6 +21942,9 @@
       <c r="AJ175">
         <v>1</v>
       </c>
+      <c r="AK175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21538,6 +22065,9 @@
       <c r="AJ176">
         <v>8</v>
       </c>
+      <c r="AK176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21658,6 +22188,9 @@
       <c r="AJ177">
         <v>2</v>
       </c>
+      <c r="AK177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21778,6 +22311,9 @@
       <c r="AJ178">
         <v>6</v>
       </c>
+      <c r="AK178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21898,6 +22434,9 @@
       <c r="AJ179">
         <v>4</v>
       </c>
+      <c r="AK179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -22018,6 +22557,9 @@
       <c r="AJ180">
         <v>12</v>
       </c>
+      <c r="AK180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -22138,6 +22680,9 @@
       <c r="AJ181">
         <v>11</v>
       </c>
+      <c r="AK181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -22258,6 +22803,9 @@
       <c r="AJ182">
         <v>2</v>
       </c>
+      <c r="AK182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22378,6 +22926,9 @@
       <c r="AJ183">
         <v>1</v>
       </c>
+      <c r="AK183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22498,6 +23049,9 @@
       <c r="AJ184">
         <v>0</v>
       </c>
+      <c r="AK184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22618,6 +23172,9 @@
       <c r="AJ185">
         <v>1</v>
       </c>
+      <c r="AK185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -22738,6 +23295,9 @@
       <c r="AJ186">
         <v>9</v>
       </c>
+      <c r="AK186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22858,6 +23418,9 @@
       <c r="AJ187">
         <v>0</v>
       </c>
+      <c r="AK187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -22978,6 +23541,9 @@
       <c r="AJ188">
         <v>0</v>
       </c>
+      <c r="AK188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -23098,6 +23664,9 @@
       <c r="AJ189">
         <v>0</v>
       </c>
+      <c r="AK189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -23218,6 +23787,9 @@
       <c r="AJ190">
         <v>25</v>
       </c>
+      <c r="AK190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23338,6 +23910,9 @@
       <c r="AJ191">
         <v>19</v>
       </c>
+      <c r="AK191">
+        <v>20</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -23458,6 +24033,9 @@
       <c r="AJ192">
         <v>57</v>
       </c>
+      <c r="AK192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -23578,6 +24156,9 @@
       <c r="AJ193">
         <v>38</v>
       </c>
+      <c r="AK193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23698,6 +24279,9 @@
       <c r="AJ194">
         <v>36</v>
       </c>
+      <c r="AK194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23818,6 +24402,9 @@
       <c r="AJ195">
         <v>10</v>
       </c>
+      <c r="AK195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23938,6 +24525,9 @@
       <c r="AJ196">
         <v>39</v>
       </c>
+      <c r="AK196">
+        <v>39</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -24058,6 +24648,9 @@
       <c r="AJ197">
         <v>4</v>
       </c>
+      <c r="AK197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -24178,6 +24771,9 @@
       <c r="AJ198">
         <v>22</v>
       </c>
+      <c r="AK198">
+        <v>22</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -24298,6 +24894,9 @@
       <c r="AJ199">
         <v>2</v>
       </c>
+      <c r="AK199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -24418,6 +25017,9 @@
       <c r="AJ200">
         <v>5</v>
       </c>
+      <c r="AK200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -24538,6 +25140,9 @@
       <c r="AJ201">
         <v>2</v>
       </c>
+      <c r="AK201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24658,6 +25263,9 @@
       <c r="AJ202">
         <v>1</v>
       </c>
+      <c r="AK202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24778,6 +25386,9 @@
       <c r="AJ203">
         <v>5</v>
       </c>
+      <c r="AK203">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24898,6 +25509,9 @@
       <c r="AJ204">
         <v>0</v>
       </c>
+      <c r="AK204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -25018,6 +25632,9 @@
       <c r="AJ205">
         <v>1</v>
       </c>
+      <c r="AK205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -25138,6 +25755,9 @@
       <c r="AJ206">
         <v>0</v>
       </c>
+      <c r="AK206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -25258,6 +25878,9 @@
       <c r="AJ207">
         <v>0</v>
       </c>
+      <c r="AK207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -25378,6 +26001,9 @@
       <c r="AJ208">
         <v>0</v>
       </c>
+      <c r="AK208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -25498,6 +26124,9 @@
       <c r="AJ209">
         <v>0</v>
       </c>
+      <c r="AK209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -25618,6 +26247,9 @@
       <c r="AJ210">
         <v>0</v>
       </c>
+      <c r="AK210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -25738,6 +26370,9 @@
       <c r="AJ211">
         <v>0</v>
       </c>
+      <c r="AK211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -25858,6 +26493,9 @@
       <c r="AJ212">
         <v>2</v>
       </c>
+      <c r="AK212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -25978,6 +26616,9 @@
       <c r="AJ213">
         <v>0</v>
       </c>
+      <c r="AK213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -26098,6 +26739,9 @@
       <c r="AJ214">
         <v>2</v>
       </c>
+      <c r="AK214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -26218,6 +26862,9 @@
       <c r="AJ215">
         <v>30</v>
       </c>
+      <c r="AK215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -26338,6 +26985,9 @@
       <c r="AJ216">
         <v>211</v>
       </c>
+      <c r="AK216">
+        <v>212</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -26458,6 +27108,9 @@
       <c r="AJ217">
         <v>9</v>
       </c>
+      <c r="AK217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -26578,6 +27231,9 @@
       <c r="AJ218">
         <v>11</v>
       </c>
+      <c r="AK218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -26698,6 +27354,9 @@
       <c r="AJ219">
         <v>0</v>
       </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -26818,6 +27477,9 @@
       <c r="AJ220">
         <v>2</v>
       </c>
+      <c r="AK220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -26938,6 +27600,9 @@
       <c r="AJ221">
         <v>0</v>
       </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -27058,6 +27723,9 @@
       <c r="AJ222">
         <v>1</v>
       </c>
+      <c r="AK222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -27178,6 +27846,9 @@
       <c r="AJ223">
         <v>2</v>
       </c>
+      <c r="AK223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -27298,6 +27969,9 @@
       <c r="AJ224">
         <v>8</v>
       </c>
+      <c r="AK224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -27418,6 +28092,9 @@
       <c r="AJ225">
         <v>3</v>
       </c>
+      <c r="AK225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -27538,6 +28215,9 @@
       <c r="AJ226">
         <v>1</v>
       </c>
+      <c r="AK226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -27658,6 +28338,9 @@
       <c r="AJ227">
         <v>2</v>
       </c>
+      <c r="AK227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -27778,6 +28461,9 @@
       <c r="AJ228">
         <v>2</v>
       </c>
+      <c r="AK228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -27898,6 +28584,9 @@
       <c r="AJ229">
         <v>2</v>
       </c>
+      <c r="AK229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -28018,6 +28707,9 @@
       <c r="AJ230">
         <v>0</v>
       </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -28138,6 +28830,9 @@
       <c r="AJ231">
         <v>3</v>
       </c>
+      <c r="AK231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -28258,6 +28953,9 @@
       <c r="AJ232">
         <v>20</v>
       </c>
+      <c r="AK232">
+        <v>20</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -28378,6 +29076,9 @@
       <c r="AJ233">
         <v>0</v>
       </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -28498,6 +29199,9 @@
       <c r="AJ234">
         <v>4</v>
       </c>
+      <c r="AK234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -28618,6 +29322,9 @@
       <c r="AJ235">
         <v>1</v>
       </c>
+      <c r="AK235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -28738,6 +29445,9 @@
       <c r="AJ236">
         <v>1</v>
       </c>
+      <c r="AK236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -28858,6 +29568,9 @@
       <c r="AJ237">
         <v>1</v>
       </c>
+      <c r="AK237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -28978,6 +29691,9 @@
       <c r="AJ238">
         <v>526</v>
       </c>
+      <c r="AK238">
+        <v>529</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -29098,6 +29814,9 @@
       <c r="AJ239">
         <v>9</v>
       </c>
+      <c r="AK239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -29218,6 +29937,9 @@
       <c r="AJ240">
         <v>4</v>
       </c>
+      <c r="AK240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -29338,6 +30060,9 @@
       <c r="AJ241">
         <v>4</v>
       </c>
+      <c r="AK241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -29458,6 +30183,9 @@
       <c r="AJ242">
         <v>4</v>
       </c>
+      <c r="AK242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -29578,6 +30306,9 @@
       <c r="AJ243">
         <v>6</v>
       </c>
+      <c r="AK243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -29698,6 +30429,9 @@
       <c r="AJ244">
         <v>8</v>
       </c>
+      <c r="AK244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -29818,6 +30552,9 @@
       <c r="AJ245">
         <v>0</v>
       </c>
+      <c r="AK245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -29938,6 +30675,9 @@
       <c r="AJ246">
         <v>4</v>
       </c>
+      <c r="AK246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -30058,6 +30798,9 @@
       <c r="AJ247">
         <v>0</v>
       </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -30178,6 +30921,9 @@
       <c r="AJ248">
         <v>0</v>
       </c>
+      <c r="AK248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -30298,6 +31044,9 @@
       <c r="AJ249">
         <v>2</v>
       </c>
+      <c r="AK249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -30418,6 +31167,9 @@
       <c r="AJ250">
         <v>24</v>
       </c>
+      <c r="AK250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -30538,6 +31290,9 @@
       <c r="AJ251">
         <v>9</v>
       </c>
+      <c r="AK251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -30658,6 +31413,9 @@
       <c r="AJ252">
         <v>0</v>
       </c>
+      <c r="AK252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -30778,6 +31536,9 @@
       <c r="AJ253">
         <v>17</v>
       </c>
+      <c r="AK253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -30898,6 +31659,9 @@
       <c r="AJ254">
         <v>5</v>
       </c>
+      <c r="AK254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -31018,6 +31782,9 @@
       <c r="AJ255">
         <v>53</v>
       </c>
+      <c r="AK255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -31138,6 +31905,9 @@
       <c r="AJ256">
         <v>35</v>
       </c>
+      <c r="AK256">
+        <v>35</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -31258,6 +32028,9 @@
       <c r="AJ257">
         <v>1</v>
       </c>
+      <c r="AK257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -31378,6 +32151,9 @@
       <c r="AJ258">
         <v>0</v>
       </c>
+      <c r="AK258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -31498,6 +32274,9 @@
       <c r="AJ259">
         <v>40</v>
       </c>
+      <c r="AK259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -31618,6 +32397,9 @@
       <c r="AJ260">
         <v>26</v>
       </c>
+      <c r="AK260">
+        <v>26</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -31738,6 +32520,9 @@
       <c r="AJ261">
         <v>0</v>
       </c>
+      <c r="AK261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -31858,6 +32643,9 @@
       <c r="AJ262">
         <v>0</v>
       </c>
+      <c r="AK262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -31978,6 +32766,9 @@
       <c r="AJ263">
         <v>0</v>
       </c>
+      <c r="AK263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -32098,6 +32889,9 @@
       <c r="AJ264">
         <v>1</v>
       </c>
+      <c r="AK264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -32218,6 +33012,9 @@
       <c r="AJ265">
         <v>3</v>
       </c>
+      <c r="AK265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -32338,6 +33135,9 @@
       <c r="AJ266">
         <v>0</v>
       </c>
+      <c r="AK266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -32458,6 +33258,9 @@
       <c r="AJ267">
         <v>3</v>
       </c>
+      <c r="AK267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -32578,6 +33381,9 @@
       <c r="AJ268">
         <v>0</v>
       </c>
+      <c r="AK268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -32698,6 +33504,9 @@
       <c r="AJ269">
         <v>7</v>
       </c>
+      <c r="AK269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -32818,6 +33627,9 @@
       <c r="AJ270">
         <v>0</v>
       </c>
+      <c r="AK270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -32938,6 +33750,9 @@
       <c r="AJ271">
         <v>0</v>
       </c>
+      <c r="AK271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -33058,6 +33873,9 @@
       <c r="AJ272">
         <v>1</v>
       </c>
+      <c r="AK272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -33178,6 +33996,9 @@
       <c r="AJ273">
         <v>4</v>
       </c>
+      <c r="AK273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -33298,6 +34119,9 @@
       <c r="AJ274">
         <v>0</v>
       </c>
+      <c r="AK274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -33418,6 +34242,9 @@
       <c r="AJ275">
         <v>0</v>
       </c>
+      <c r="AK275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -33538,6 +34365,9 @@
       <c r="AJ276">
         <v>17</v>
       </c>
+      <c r="AK276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -33658,6 +34488,9 @@
       <c r="AJ277">
         <v>0</v>
       </c>
+      <c r="AK277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -33778,6 +34611,9 @@
       <c r="AJ278">
         <v>0</v>
       </c>
+      <c r="AK278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -33898,6 +34734,9 @@
       <c r="AJ279">
         <v>4</v>
       </c>
+      <c r="AK279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -34018,6 +34857,9 @@
       <c r="AJ280">
         <v>12</v>
       </c>
+      <c r="AK280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -34138,6 +34980,9 @@
       <c r="AJ281">
         <v>244</v>
       </c>
+      <c r="AK281">
+        <v>253</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -34258,6 +35103,9 @@
       <c r="AJ282">
         <v>16</v>
       </c>
+      <c r="AK282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -34378,6 +35226,9 @@
       <c r="AJ283">
         <v>5</v>
       </c>
+      <c r="AK283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -34498,6 +35349,9 @@
       <c r="AJ284">
         <v>0</v>
       </c>
+      <c r="AK284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -34618,6 +35472,9 @@
       <c r="AJ285">
         <v>0</v>
       </c>
+      <c r="AK285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -34738,6 +35595,9 @@
       <c r="AJ286">
         <v>8</v>
       </c>
+      <c r="AK286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -34858,6 +35718,9 @@
       <c r="AJ287">
         <v>5</v>
       </c>
+      <c r="AK287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -34978,6 +35841,9 @@
       <c r="AJ288">
         <v>0</v>
       </c>
+      <c r="AK288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -35098,6 +35964,9 @@
       <c r="AJ289">
         <v>1</v>
       </c>
+      <c r="AK289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -35218,6 +36087,9 @@
       <c r="AJ290">
         <v>7</v>
       </c>
+      <c r="AK290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -35338,6 +36210,9 @@
       <c r="AJ291">
         <v>3</v>
       </c>
+      <c r="AK291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -35458,6 +36333,9 @@
       <c r="AJ292">
         <v>5</v>
       </c>
+      <c r="AK292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -35578,6 +36456,9 @@
       <c r="AJ293">
         <v>11</v>
       </c>
+      <c r="AK293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -35698,6 +36579,9 @@
       <c r="AJ294">
         <v>6</v>
       </c>
+      <c r="AK294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -35818,6 +36702,9 @@
       <c r="AJ295">
         <v>0</v>
       </c>
+      <c r="AK295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -35938,6 +36825,9 @@
       <c r="AJ296">
         <v>1</v>
       </c>
+      <c r="AK296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -36058,6 +36948,9 @@
       <c r="AJ297">
         <v>8</v>
       </c>
+      <c r="AK297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -36178,6 +37071,9 @@
       <c r="AJ298">
         <v>28</v>
       </c>
+      <c r="AK298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -36298,6 +37194,9 @@
       <c r="AJ299">
         <v>21</v>
       </c>
+      <c r="AK299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -36418,6 +37317,9 @@
       <c r="AJ300">
         <v>15</v>
       </c>
+      <c r="AK300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -36538,6 +37440,9 @@
       <c r="AJ301">
         <v>0</v>
       </c>
+      <c r="AK301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -36658,6 +37563,9 @@
       <c r="AJ302">
         <v>0</v>
       </c>
+      <c r="AK302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -36778,6 +37686,9 @@
       <c r="AJ303">
         <v>0</v>
       </c>
+      <c r="AK303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -36898,6 +37809,9 @@
       <c r="AJ304">
         <v>0</v>
       </c>
+      <c r="AK304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -37018,6 +37932,9 @@
       <c r="AJ305">
         <v>3</v>
       </c>
+      <c r="AK305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -37138,6 +38055,9 @@
       <c r="AJ306">
         <v>1</v>
       </c>
+      <c r="AK306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -37258,6 +38178,9 @@
       <c r="AJ307">
         <v>4</v>
       </c>
+      <c r="AK307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -37378,6 +38301,9 @@
       <c r="AJ308">
         <v>0</v>
       </c>
+      <c r="AK308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -37498,6 +38424,9 @@
       <c r="AJ309">
         <v>0</v>
       </c>
+      <c r="AK309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -37618,6 +38547,9 @@
       <c r="AJ310">
         <v>7</v>
       </c>
+      <c r="AK310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -37738,6 +38670,9 @@
       <c r="AJ311">
         <v>2</v>
       </c>
+      <c r="AK311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -37858,6 +38793,9 @@
       <c r="AJ312">
         <v>2</v>
       </c>
+      <c r="AK312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -37978,6 +38916,9 @@
       <c r="AJ313">
         <v>2</v>
       </c>
+      <c r="AK313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -38098,6 +39039,9 @@
       <c r="AJ314">
         <v>10</v>
       </c>
+      <c r="AK314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -38218,6 +39162,9 @@
       <c r="AJ315">
         <v>1</v>
       </c>
+      <c r="AK315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -38338,6 +39285,9 @@
       <c r="AJ316">
         <v>17</v>
       </c>
+      <c r="AK316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -38458,6 +39408,9 @@
       <c r="AJ317">
         <v>0</v>
       </c>
+      <c r="AK317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -38578,6 +39531,9 @@
       <c r="AJ318">
         <v>0</v>
       </c>
+      <c r="AK318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -38698,6 +39654,9 @@
       <c r="AJ319">
         <v>149</v>
       </c>
+      <c r="AK319">
+        <v>151</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -38818,6 +39777,9 @@
       <c r="AJ320">
         <v>6</v>
       </c>
+      <c r="AK320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -38938,6 +39900,9 @@
       <c r="AJ321">
         <v>5</v>
       </c>
+      <c r="AK321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -39058,6 +40023,9 @@
       <c r="AJ322">
         <v>1</v>
       </c>
+      <c r="AK322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -39178,6 +40146,9 @@
       <c r="AJ323">
         <v>3</v>
       </c>
+      <c r="AK323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -39298,6 +40269,9 @@
       <c r="AJ324">
         <v>15</v>
       </c>
+      <c r="AK324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -39418,6 +40392,9 @@
       <c r="AJ325">
         <v>1</v>
       </c>
+      <c r="AK325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -39538,6 +40515,9 @@
       <c r="AJ326">
         <v>1</v>
       </c>
+      <c r="AK326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -39658,6 +40638,9 @@
       <c r="AJ327">
         <v>0</v>
       </c>
+      <c r="AK327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -39778,6 +40761,9 @@
       <c r="AJ328">
         <v>0</v>
       </c>
+      <c r="AK328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -39898,6 +40884,9 @@
       <c r="AJ329">
         <v>3</v>
       </c>
+      <c r="AK329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -40018,6 +41007,9 @@
       <c r="AJ330">
         <v>1</v>
       </c>
+      <c r="AK330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -40138,6 +41130,9 @@
       <c r="AJ331">
         <v>2</v>
       </c>
+      <c r="AK331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -40258,6 +41253,9 @@
       <c r="AJ332">
         <v>0</v>
       </c>
+      <c r="AK332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -40378,6 +41376,9 @@
       <c r="AJ333">
         <v>0</v>
       </c>
+      <c r="AK333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -40498,6 +41499,9 @@
       <c r="AJ334">
         <v>0</v>
       </c>
+      <c r="AK334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -40618,6 +41622,9 @@
       <c r="AJ335">
         <v>16</v>
       </c>
+      <c r="AK335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -40738,6 +41745,9 @@
       <c r="AJ336">
         <v>2</v>
       </c>
+      <c r="AK336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -40858,6 +41868,9 @@
       <c r="AJ337">
         <v>1</v>
       </c>
+      <c r="AK337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -40978,6 +41991,9 @@
       <c r="AJ338">
         <v>2</v>
       </c>
+      <c r="AK338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -41098,6 +42114,9 @@
       <c r="AJ339">
         <v>0</v>
       </c>
+      <c r="AK339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -41218,6 +42237,9 @@
       <c r="AJ340">
         <v>0</v>
       </c>
+      <c r="AK340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -41338,6 +42360,9 @@
       <c r="AJ341">
         <v>1</v>
       </c>
+      <c r="AK341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -41458,6 +42483,9 @@
       <c r="AJ342">
         <v>2</v>
       </c>
+      <c r="AK342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -41578,6 +42606,9 @@
       <c r="AJ343">
         <v>0</v>
       </c>
+      <c r="AK343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -41698,6 +42729,9 @@
       <c r="AJ344">
         <v>1</v>
       </c>
+      <c r="AK344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -41818,6 +42852,9 @@
       <c r="AJ345">
         <v>0</v>
       </c>
+      <c r="AK345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -41938,6 +42975,9 @@
       <c r="AJ346">
         <v>0</v>
       </c>
+      <c r="AK346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -42058,6 +43098,9 @@
       <c r="AJ347">
         <v>3</v>
       </c>
+      <c r="AK347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -42178,6 +43221,9 @@
       <c r="AJ348">
         <v>2</v>
       </c>
+      <c r="AK348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -42298,6 +43344,9 @@
       <c r="AJ349">
         <v>4</v>
       </c>
+      <c r="AK349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -42418,6 +43467,9 @@
       <c r="AJ350">
         <v>1</v>
       </c>
+      <c r="AK350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -42538,6 +43590,9 @@
       <c r="AJ351">
         <v>0</v>
       </c>
+      <c r="AK351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -42658,6 +43713,9 @@
       <c r="AJ352">
         <v>0</v>
       </c>
+      <c r="AK352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -42778,6 +43836,9 @@
       <c r="AJ353">
         <v>0</v>
       </c>
+      <c r="AK353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -42898,6 +43959,9 @@
       <c r="AJ354">
         <v>1</v>
       </c>
+      <c r="AK354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -43018,6 +44082,9 @@
       <c r="AJ355">
         <v>1</v>
       </c>
+      <c r="AK355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -43138,6 +44205,9 @@
       <c r="AJ356">
         <v>0</v>
       </c>
+      <c r="AK356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -43258,6 +44328,9 @@
       <c r="AJ357">
         <v>4</v>
       </c>
+      <c r="AK357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -43378,6 +44451,9 @@
       <c r="AJ358">
         <v>0</v>
       </c>
+      <c r="AK358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -43496,6 +44572,9 @@
         <v>0</v>
       </c>
       <c r="AJ359">
+        <v>0</v>
+      </c>
+      <c r="AK359">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK359"/>
+  <dimension ref="A1:AL359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,6 +543,11 @@
           <t>2020-04-25</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -666,6 +671,9 @@
       <c r="AK2">
         <v>2298</v>
       </c>
+      <c r="AL2">
+        <v>2307</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -789,6 +797,9 @@
       <c r="AK3">
         <v>14</v>
       </c>
+      <c r="AL3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -912,6 +923,9 @@
       <c r="AK4">
         <v>132</v>
       </c>
+      <c r="AL4">
+        <v>132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1035,6 +1049,9 @@
       <c r="AK5">
         <v>51</v>
       </c>
+      <c r="AL5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1158,6 +1175,9 @@
       <c r="AK6">
         <v>47</v>
       </c>
+      <c r="AL6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1281,6 +1301,9 @@
       <c r="AK7">
         <v>5</v>
       </c>
+      <c r="AL7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1404,6 +1427,9 @@
       <c r="AK8">
         <v>1</v>
       </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1527,6 +1553,9 @@
       <c r="AK9">
         <v>0</v>
       </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1650,6 +1679,9 @@
       <c r="AK10">
         <v>7</v>
       </c>
+      <c r="AL10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1773,6 +1805,9 @@
       <c r="AK11">
         <v>6</v>
       </c>
+      <c r="AL11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1896,6 +1931,9 @@
       <c r="AK12">
         <v>12</v>
       </c>
+      <c r="AL12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2019,6 +2057,9 @@
       <c r="AK13">
         <v>13</v>
       </c>
+      <c r="AL13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2142,6 +2183,9 @@
       <c r="AK14">
         <v>16</v>
       </c>
+      <c r="AL14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2265,6 +2309,9 @@
       <c r="AK15">
         <v>11</v>
       </c>
+      <c r="AL15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2388,6 +2435,9 @@
       <c r="AK16">
         <v>13</v>
       </c>
+      <c r="AL16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2511,6 +2561,9 @@
       <c r="AK17">
         <v>0</v>
       </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2634,6 +2687,9 @@
       <c r="AK18">
         <v>0</v>
       </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2757,6 +2813,9 @@
       <c r="AK19">
         <v>3</v>
       </c>
+      <c r="AL19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2880,6 +2939,9 @@
       <c r="AK20">
         <v>0</v>
       </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3003,6 +3065,9 @@
       <c r="AK21">
         <v>1</v>
       </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3126,6 +3191,9 @@
       <c r="AK22">
         <v>20</v>
       </c>
+      <c r="AL22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3249,6 +3317,9 @@
       <c r="AK23">
         <v>37</v>
       </c>
+      <c r="AL23">
+        <v>37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3372,6 +3443,9 @@
       <c r="AK24">
         <v>0</v>
       </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3495,6 +3569,9 @@
       <c r="AK25">
         <v>11</v>
       </c>
+      <c r="AL25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3618,6 +3695,9 @@
       <c r="AK26">
         <v>18</v>
       </c>
+      <c r="AL26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3741,6 +3821,9 @@
       <c r="AK27">
         <v>13</v>
       </c>
+      <c r="AL27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3864,6 +3947,9 @@
       <c r="AK28">
         <v>27</v>
       </c>
+      <c r="AL28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3987,6 +4073,9 @@
       <c r="AK29">
         <v>1</v>
       </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4110,6 +4199,9 @@
       <c r="AK30">
         <v>4</v>
       </c>
+      <c r="AL30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4233,6 +4325,9 @@
       <c r="AK31">
         <v>3</v>
       </c>
+      <c r="AL31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4356,6 +4451,9 @@
       <c r="AK32">
         <v>8</v>
       </c>
+      <c r="AL32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4479,6 +4577,9 @@
       <c r="AK33">
         <v>2</v>
       </c>
+      <c r="AL33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4602,6 +4703,9 @@
       <c r="AK34">
         <v>6</v>
       </c>
+      <c r="AL34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4725,6 +4829,9 @@
       <c r="AK35">
         <v>0</v>
       </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4848,6 +4955,9 @@
       <c r="AK36">
         <v>1</v>
       </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4971,6 +5081,9 @@
       <c r="AK37">
         <v>6</v>
       </c>
+      <c r="AL37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5094,6 +5207,9 @@
       <c r="AK38">
         <v>5</v>
       </c>
+      <c r="AL38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5217,6 +5333,9 @@
       <c r="AK39">
         <v>1</v>
       </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5340,6 +5459,9 @@
       <c r="AK40">
         <v>10</v>
       </c>
+      <c r="AL40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5463,6 +5585,9 @@
       <c r="AK41">
         <v>0</v>
       </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5586,6 +5711,9 @@
       <c r="AK42">
         <v>0</v>
       </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5709,6 +5837,9 @@
       <c r="AK43">
         <v>0</v>
       </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5832,6 +5963,9 @@
       <c r="AK44">
         <v>1</v>
       </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5955,6 +6089,9 @@
       <c r="AK45">
         <v>2</v>
       </c>
+      <c r="AL45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6078,6 +6215,9 @@
       <c r="AK46">
         <v>2</v>
       </c>
+      <c r="AL46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6201,6 +6341,9 @@
       <c r="AK47">
         <v>0</v>
       </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6324,6 +6467,9 @@
       <c r="AK48">
         <v>3</v>
       </c>
+      <c r="AL48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6447,6 +6593,9 @@
       <c r="AK49">
         <v>4</v>
       </c>
+      <c r="AL49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6570,6 +6719,9 @@
       <c r="AK50">
         <v>1</v>
       </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6693,6 +6845,9 @@
       <c r="AK51">
         <v>3</v>
       </c>
+      <c r="AL51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6816,6 +6971,9 @@
       <c r="AK52">
         <v>38</v>
       </c>
+      <c r="AL52">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6939,6 +7097,9 @@
       <c r="AK53">
         <v>6</v>
       </c>
+      <c r="AL53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7062,6 +7223,9 @@
       <c r="AK54">
         <v>0</v>
       </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7185,6 +7349,9 @@
       <c r="AK55">
         <v>2</v>
       </c>
+      <c r="AL55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7308,6 +7475,9 @@
       <c r="AK56">
         <v>5</v>
       </c>
+      <c r="AL56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7431,6 +7601,9 @@
       <c r="AK57">
         <v>3</v>
       </c>
+      <c r="AL57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7554,6 +7727,9 @@
       <c r="AK58">
         <v>0</v>
       </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7677,6 +7853,9 @@
       <c r="AK59">
         <v>0</v>
       </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7800,6 +7979,9 @@
       <c r="AK60">
         <v>2</v>
       </c>
+      <c r="AL60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7923,6 +8105,9 @@
       <c r="AK61">
         <v>4</v>
       </c>
+      <c r="AL61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8046,6 +8231,9 @@
       <c r="AK62">
         <v>1</v>
       </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8169,6 +8357,9 @@
       <c r="AK63">
         <v>1</v>
       </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8292,6 +8483,9 @@
       <c r="AK64">
         <v>0</v>
       </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8415,6 +8609,9 @@
       <c r="AK65">
         <v>5</v>
       </c>
+      <c r="AL65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8538,6 +8735,9 @@
       <c r="AK66">
         <v>0</v>
       </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8661,6 +8861,9 @@
       <c r="AK67">
         <v>0</v>
       </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8784,6 +8987,9 @@
       <c r="AK68">
         <v>4</v>
       </c>
+      <c r="AL68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8907,6 +9113,9 @@
       <c r="AK69">
         <v>0</v>
       </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9030,6 +9239,9 @@
       <c r="AK70">
         <v>0</v>
       </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9153,6 +9365,9 @@
       <c r="AK71">
         <v>0</v>
       </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9276,6 +9491,9 @@
       <c r="AK72">
         <v>5</v>
       </c>
+      <c r="AL72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9399,6 +9617,9 @@
       <c r="AK73">
         <v>0</v>
       </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9522,6 +9743,9 @@
       <c r="AK74">
         <v>0</v>
       </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9645,6 +9869,9 @@
       <c r="AK75">
         <v>0</v>
       </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9768,6 +9995,9 @@
       <c r="AK76">
         <v>2</v>
       </c>
+      <c r="AL76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9891,6 +10121,9 @@
       <c r="AK77">
         <v>0</v>
       </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10014,6 +10247,9 @@
       <c r="AK78">
         <v>1</v>
       </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10137,6 +10373,9 @@
       <c r="AK79">
         <v>0</v>
       </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10260,6 +10499,9 @@
       <c r="AK80">
         <v>0</v>
       </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10383,6 +10625,9 @@
       <c r="AK81">
         <v>0</v>
       </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10506,6 +10751,9 @@
       <c r="AK82">
         <v>0</v>
       </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10629,6 +10877,9 @@
       <c r="AK83">
         <v>6</v>
       </c>
+      <c r="AL83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10752,6 +11003,9 @@
       <c r="AK84">
         <v>13</v>
       </c>
+      <c r="AL84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10875,6 +11129,9 @@
       <c r="AK85">
         <v>3</v>
       </c>
+      <c r="AL85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10998,6 +11255,9 @@
       <c r="AK86">
         <v>5</v>
       </c>
+      <c r="AL86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11121,6 +11381,9 @@
       <c r="AK87">
         <v>0</v>
       </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11244,6 +11507,9 @@
       <c r="AK88">
         <v>0</v>
       </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11367,6 +11633,9 @@
       <c r="AK89">
         <v>6</v>
       </c>
+      <c r="AL89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11490,6 +11759,9 @@
       <c r="AK90">
         <v>0</v>
       </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11613,6 +11885,9 @@
       <c r="AK91">
         <v>1</v>
       </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11736,6 +12011,9 @@
       <c r="AK92">
         <v>0</v>
       </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11859,6 +12137,9 @@
       <c r="AK93">
         <v>35</v>
       </c>
+      <c r="AL93">
+        <v>35</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11982,6 +12263,9 @@
       <c r="AK94">
         <v>93</v>
       </c>
+      <c r="AL94">
+        <v>95</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12105,6 +12389,9 @@
       <c r="AK95">
         <v>59</v>
       </c>
+      <c r="AL95">
+        <v>63</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12228,6 +12515,9 @@
       <c r="AK96">
         <v>86</v>
       </c>
+      <c r="AL96">
+        <v>87</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12351,6 +12641,9 @@
       <c r="AK97">
         <v>171</v>
       </c>
+      <c r="AL97">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12474,6 +12767,9 @@
       <c r="AK98">
         <v>21</v>
       </c>
+      <c r="AL98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12597,6 +12893,9 @@
       <c r="AK99">
         <v>10</v>
       </c>
+      <c r="AL99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12720,6 +13019,9 @@
       <c r="AK100">
         <v>2</v>
       </c>
+      <c r="AL100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12843,6 +13145,9 @@
       <c r="AK101">
         <v>2</v>
       </c>
+      <c r="AL101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12966,6 +13271,9 @@
       <c r="AK102">
         <v>3</v>
       </c>
+      <c r="AL102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13089,6 +13397,9 @@
       <c r="AK103">
         <v>47</v>
       </c>
+      <c r="AL103">
+        <v>47</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13212,6 +13523,9 @@
       <c r="AK104">
         <v>2</v>
       </c>
+      <c r="AL104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13335,6 +13649,9 @@
       <c r="AK105">
         <v>1</v>
       </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13458,6 +13775,9 @@
       <c r="AK106">
         <v>2</v>
       </c>
+      <c r="AL106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13581,6 +13901,9 @@
       <c r="AK107">
         <v>6</v>
       </c>
+      <c r="AL107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13704,6 +14027,9 @@
       <c r="AK108">
         <v>23</v>
       </c>
+      <c r="AL108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13827,6 +14153,9 @@
       <c r="AK109">
         <v>98</v>
       </c>
+      <c r="AL109">
+        <v>98</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13950,6 +14279,9 @@
       <c r="AK110">
         <v>18</v>
       </c>
+      <c r="AL110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14073,6 +14405,9 @@
       <c r="AK111">
         <v>21</v>
       </c>
+      <c r="AL111">
+        <v>21</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14196,6 +14531,9 @@
       <c r="AK112">
         <v>46</v>
       </c>
+      <c r="AL112">
+        <v>47</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14319,6 +14657,9 @@
       <c r="AK113">
         <v>406</v>
       </c>
+      <c r="AL113">
+        <v>406</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14442,6 +14783,9 @@
       <c r="AK114">
         <v>176</v>
       </c>
+      <c r="AL114">
+        <v>176</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14565,6 +14909,9 @@
       <c r="AK115">
         <v>9</v>
       </c>
+      <c r="AL115">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14688,6 +15035,9 @@
       <c r="AK116">
         <v>25</v>
       </c>
+      <c r="AL116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14811,6 +15161,9 @@
       <c r="AK117">
         <v>49</v>
       </c>
+      <c r="AL117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14934,6 +15287,9 @@
       <c r="AK118">
         <v>90</v>
       </c>
+      <c r="AL118">
+        <v>91</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15057,6 +15413,9 @@
       <c r="AK119">
         <v>152</v>
       </c>
+      <c r="AL119">
+        <v>153</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15180,6 +15539,9 @@
       <c r="AK120">
         <v>45</v>
       </c>
+      <c r="AL120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15303,6 +15665,9 @@
       <c r="AK121">
         <v>8</v>
       </c>
+      <c r="AL121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15426,6 +15791,9 @@
       <c r="AK122">
         <v>58</v>
       </c>
+      <c r="AL122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15549,6 +15917,9 @@
       <c r="AK123">
         <v>14</v>
       </c>
+      <c r="AL123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15672,6 +16043,9 @@
       <c r="AK124">
         <v>39</v>
       </c>
+      <c r="AL124">
+        <v>39</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15795,6 +16169,9 @@
       <c r="AK125">
         <v>17</v>
       </c>
+      <c r="AL125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15918,6 +16295,9 @@
       <c r="AK126">
         <v>2</v>
       </c>
+      <c r="AL126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16041,6 +16421,9 @@
       <c r="AK127">
         <v>10</v>
       </c>
+      <c r="AL127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16164,6 +16547,9 @@
       <c r="AK128">
         <v>1</v>
       </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16287,6 +16673,9 @@
       <c r="AK129">
         <v>7</v>
       </c>
+      <c r="AL129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16410,6 +16799,9 @@
       <c r="AK130">
         <v>10</v>
       </c>
+      <c r="AL130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16533,6 +16925,9 @@
       <c r="AK131">
         <v>8</v>
       </c>
+      <c r="AL131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16656,6 +17051,9 @@
       <c r="AK132">
         <v>13</v>
       </c>
+      <c r="AL132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16779,6 +17177,9 @@
       <c r="AK133">
         <v>44</v>
       </c>
+      <c r="AL133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16902,6 +17303,9 @@
       <c r="AK134">
         <v>0</v>
       </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -17025,6 +17429,9 @@
       <c r="AK135">
         <v>0</v>
       </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17148,6 +17555,9 @@
       <c r="AK136">
         <v>10</v>
       </c>
+      <c r="AL136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -17271,6 +17681,9 @@
       <c r="AK137">
         <v>5</v>
       </c>
+      <c r="AL137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -17394,6 +17807,9 @@
       <c r="AK138">
         <v>42</v>
       </c>
+      <c r="AL138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17517,6 +17933,9 @@
       <c r="AK139">
         <v>4</v>
       </c>
+      <c r="AL139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17640,6 +18059,9 @@
       <c r="AK140">
         <v>1</v>
       </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17763,6 +18185,9 @@
       <c r="AK141">
         <v>3</v>
       </c>
+      <c r="AL141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17886,6 +18311,9 @@
       <c r="AK142">
         <v>6</v>
       </c>
+      <c r="AL142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -18009,6 +18437,9 @@
       <c r="AK143">
         <v>11</v>
       </c>
+      <c r="AL143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -18132,6 +18563,9 @@
       <c r="AK144">
         <v>1</v>
       </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -18255,6 +18689,9 @@
       <c r="AK145">
         <v>82</v>
       </c>
+      <c r="AL145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -18378,6 +18815,9 @@
       <c r="AK146">
         <v>38</v>
       </c>
+      <c r="AL146">
+        <v>38</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -18501,6 +18941,9 @@
       <c r="AK147">
         <v>21</v>
       </c>
+      <c r="AL147">
+        <v>22</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -18624,6 +19067,9 @@
       <c r="AK148">
         <v>61</v>
       </c>
+      <c r="AL148">
+        <v>61</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -18747,6 +19193,9 @@
       <c r="AK149">
         <v>11</v>
       </c>
+      <c r="AL149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18870,6 +19319,9 @@
       <c r="AK150">
         <v>34</v>
       </c>
+      <c r="AL150">
+        <v>35</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18993,6 +19445,9 @@
       <c r="AK151">
         <v>0</v>
       </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -19116,6 +19571,9 @@
       <c r="AK152">
         <v>19</v>
       </c>
+      <c r="AL152">
+        <v>20</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -19239,6 +19697,9 @@
       <c r="AK153">
         <v>4</v>
       </c>
+      <c r="AL153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -19362,6 +19823,9 @@
       <c r="AK154">
         <v>5</v>
       </c>
+      <c r="AL154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -19485,6 +19949,9 @@
       <c r="AK155">
         <v>3</v>
       </c>
+      <c r="AL155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -19608,6 +20075,9 @@
       <c r="AK156">
         <v>3</v>
       </c>
+      <c r="AL156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -19731,6 +20201,9 @@
       <c r="AK157">
         <v>14</v>
       </c>
+      <c r="AL157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19854,6 +20327,9 @@
       <c r="AK158">
         <v>2</v>
       </c>
+      <c r="AL158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19977,6 +20453,9 @@
       <c r="AK159">
         <v>4</v>
       </c>
+      <c r="AL159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -20100,6 +20579,9 @@
       <c r="AK160">
         <v>0</v>
       </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -20223,6 +20705,9 @@
       <c r="AK161">
         <v>0</v>
       </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -20346,6 +20831,9 @@
       <c r="AK162">
         <v>2</v>
       </c>
+      <c r="AL162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -20469,6 +20957,9 @@
       <c r="AK163">
         <v>0</v>
       </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -20592,6 +21083,9 @@
       <c r="AK164">
         <v>0</v>
       </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -20715,6 +21209,9 @@
       <c r="AK165">
         <v>1</v>
       </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -20838,6 +21335,9 @@
       <c r="AK166">
         <v>0</v>
       </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -20961,6 +21461,9 @@
       <c r="AK167">
         <v>1</v>
       </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -21084,6 +21587,9 @@
       <c r="AK168">
         <v>5</v>
       </c>
+      <c r="AL168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -21207,6 +21713,9 @@
       <c r="AK169">
         <v>2</v>
       </c>
+      <c r="AL169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -21330,6 +21839,9 @@
       <c r="AK170">
         <v>1</v>
       </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -21453,6 +21965,9 @@
       <c r="AK171">
         <v>3</v>
       </c>
+      <c r="AL171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -21576,6 +22091,9 @@
       <c r="AK172">
         <v>2</v>
       </c>
+      <c r="AL172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -21699,6 +22217,9 @@
       <c r="AK173">
         <v>13</v>
       </c>
+      <c r="AL173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -21822,6 +22343,9 @@
       <c r="AK174">
         <v>36</v>
       </c>
+      <c r="AL174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -21945,6 +22469,9 @@
       <c r="AK175">
         <v>1</v>
       </c>
+      <c r="AL175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -22068,6 +22595,9 @@
       <c r="AK176">
         <v>8</v>
       </c>
+      <c r="AL176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -22191,6 +22721,9 @@
       <c r="AK177">
         <v>2</v>
       </c>
+      <c r="AL177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -22314,6 +22847,9 @@
       <c r="AK178">
         <v>6</v>
       </c>
+      <c r="AL178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -22437,6 +22973,9 @@
       <c r="AK179">
         <v>4</v>
       </c>
+      <c r="AL179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -22560,6 +23099,9 @@
       <c r="AK180">
         <v>12</v>
       </c>
+      <c r="AL180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -22683,6 +23225,9 @@
       <c r="AK181">
         <v>11</v>
       </c>
+      <c r="AL181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -22806,6 +23351,9 @@
       <c r="AK182">
         <v>2</v>
       </c>
+      <c r="AL182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22929,6 +23477,9 @@
       <c r="AK183">
         <v>1</v>
       </c>
+      <c r="AL183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -23052,6 +23603,9 @@
       <c r="AK184">
         <v>0</v>
       </c>
+      <c r="AL184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -23175,6 +23729,9 @@
       <c r="AK185">
         <v>1</v>
       </c>
+      <c r="AL185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -23298,6 +23855,9 @@
       <c r="AK186">
         <v>9</v>
       </c>
+      <c r="AL186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -23421,6 +23981,9 @@
       <c r="AK187">
         <v>0</v>
       </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -23544,6 +24107,9 @@
       <c r="AK188">
         <v>0</v>
       </c>
+      <c r="AL188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -23667,6 +24233,9 @@
       <c r="AK189">
         <v>0</v>
       </c>
+      <c r="AL189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -23790,6 +24359,9 @@
       <c r="AK190">
         <v>25</v>
       </c>
+      <c r="AL190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23913,6 +24485,9 @@
       <c r="AK191">
         <v>20</v>
       </c>
+      <c r="AL191">
+        <v>20</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -24036,6 +24611,9 @@
       <c r="AK192">
         <v>57</v>
       </c>
+      <c r="AL192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -24159,6 +24737,9 @@
       <c r="AK193">
         <v>38</v>
       </c>
+      <c r="AL193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -24282,6 +24863,9 @@
       <c r="AK194">
         <v>36</v>
       </c>
+      <c r="AL194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -24405,6 +24989,9 @@
       <c r="AK195">
         <v>10</v>
       </c>
+      <c r="AL195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -24528,6 +25115,9 @@
       <c r="AK196">
         <v>39</v>
       </c>
+      <c r="AL196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -24651,6 +25241,9 @@
       <c r="AK197">
         <v>4</v>
       </c>
+      <c r="AL197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -24774,6 +25367,9 @@
       <c r="AK198">
         <v>22</v>
       </c>
+      <c r="AL198">
+        <v>22</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -24897,6 +25493,9 @@
       <c r="AK199">
         <v>2</v>
       </c>
+      <c r="AL199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -25020,6 +25619,9 @@
       <c r="AK200">
         <v>5</v>
       </c>
+      <c r="AL200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -25143,6 +25745,9 @@
       <c r="AK201">
         <v>2</v>
       </c>
+      <c r="AL201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -25266,6 +25871,9 @@
       <c r="AK202">
         <v>1</v>
       </c>
+      <c r="AL202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -25389,6 +25997,9 @@
       <c r="AK203">
         <v>5</v>
       </c>
+      <c r="AL203">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -25512,6 +26123,9 @@
       <c r="AK204">
         <v>0</v>
       </c>
+      <c r="AL204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -25635,6 +26249,9 @@
       <c r="AK205">
         <v>1</v>
       </c>
+      <c r="AL205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -25758,6 +26375,9 @@
       <c r="AK206">
         <v>0</v>
       </c>
+      <c r="AL206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -25881,6 +26501,9 @@
       <c r="AK207">
         <v>0</v>
       </c>
+      <c r="AL207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -26004,6 +26627,9 @@
       <c r="AK208">
         <v>0</v>
       </c>
+      <c r="AL208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -26127,6 +26753,9 @@
       <c r="AK209">
         <v>0</v>
       </c>
+      <c r="AL209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -26250,6 +26879,9 @@
       <c r="AK210">
         <v>0</v>
       </c>
+      <c r="AL210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -26373,6 +27005,9 @@
       <c r="AK211">
         <v>0</v>
       </c>
+      <c r="AL211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -26496,6 +27131,9 @@
       <c r="AK212">
         <v>2</v>
       </c>
+      <c r="AL212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -26619,6 +27257,9 @@
       <c r="AK213">
         <v>0</v>
       </c>
+      <c r="AL213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -26742,6 +27383,9 @@
       <c r="AK214">
         <v>2</v>
       </c>
+      <c r="AL214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -26865,6 +27509,9 @@
       <c r="AK215">
         <v>30</v>
       </c>
+      <c r="AL215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -26988,6 +27635,9 @@
       <c r="AK216">
         <v>212</v>
       </c>
+      <c r="AL216">
+        <v>212</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -27111,6 +27761,9 @@
       <c r="AK217">
         <v>9</v>
       </c>
+      <c r="AL217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -27234,6 +27887,9 @@
       <c r="AK218">
         <v>11</v>
       </c>
+      <c r="AL218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -27357,6 +28013,9 @@
       <c r="AK219">
         <v>0</v>
       </c>
+      <c r="AL219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -27480,6 +28139,9 @@
       <c r="AK220">
         <v>2</v>
       </c>
+      <c r="AL220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -27603,6 +28265,9 @@
       <c r="AK221">
         <v>0</v>
       </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -27726,6 +28391,9 @@
       <c r="AK222">
         <v>1</v>
       </c>
+      <c r="AL222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -27849,6 +28517,9 @@
       <c r="AK223">
         <v>2</v>
       </c>
+      <c r="AL223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -27972,6 +28643,9 @@
       <c r="AK224">
         <v>8</v>
       </c>
+      <c r="AL224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -28095,6 +28769,9 @@
       <c r="AK225">
         <v>3</v>
       </c>
+      <c r="AL225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -28218,6 +28895,9 @@
       <c r="AK226">
         <v>1</v>
       </c>
+      <c r="AL226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -28341,6 +29021,9 @@
       <c r="AK227">
         <v>2</v>
       </c>
+      <c r="AL227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -28464,6 +29147,9 @@
       <c r="AK228">
         <v>2</v>
       </c>
+      <c r="AL228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -28587,6 +29273,9 @@
       <c r="AK229">
         <v>2</v>
       </c>
+      <c r="AL229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -28710,6 +29399,9 @@
       <c r="AK230">
         <v>0</v>
       </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -28833,6 +29525,9 @@
       <c r="AK231">
         <v>3</v>
       </c>
+      <c r="AL231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -28956,6 +29651,9 @@
       <c r="AK232">
         <v>20</v>
       </c>
+      <c r="AL232">
+        <v>20</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -29079,6 +29777,9 @@
       <c r="AK233">
         <v>0</v>
       </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -29202,6 +29903,9 @@
       <c r="AK234">
         <v>4</v>
       </c>
+      <c r="AL234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -29325,6 +30029,9 @@
       <c r="AK235">
         <v>1</v>
       </c>
+      <c r="AL235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -29448,6 +30155,9 @@
       <c r="AK236">
         <v>1</v>
       </c>
+      <c r="AL236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -29571,6 +30281,9 @@
       <c r="AK237">
         <v>1</v>
       </c>
+      <c r="AL237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -29694,6 +30407,9 @@
       <c r="AK238">
         <v>529</v>
       </c>
+      <c r="AL238">
+        <v>529</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -29817,6 +30533,9 @@
       <c r="AK239">
         <v>9</v>
       </c>
+      <c r="AL239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -29940,6 +30659,9 @@
       <c r="AK240">
         <v>4</v>
       </c>
+      <c r="AL240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -30063,6 +30785,9 @@
       <c r="AK241">
         <v>4</v>
       </c>
+      <c r="AL241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -30186,6 +30911,9 @@
       <c r="AK242">
         <v>4</v>
       </c>
+      <c r="AL242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -30309,6 +31037,9 @@
       <c r="AK243">
         <v>6</v>
       </c>
+      <c r="AL243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -30432,6 +31163,9 @@
       <c r="AK244">
         <v>8</v>
       </c>
+      <c r="AL244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -30555,6 +31289,9 @@
       <c r="AK245">
         <v>0</v>
       </c>
+      <c r="AL245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -30678,6 +31415,9 @@
       <c r="AK246">
         <v>4</v>
       </c>
+      <c r="AL246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -30801,6 +31541,9 @@
       <c r="AK247">
         <v>0</v>
       </c>
+      <c r="AL247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -30924,6 +31667,9 @@
       <c r="AK248">
         <v>0</v>
       </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -31047,6 +31793,9 @@
       <c r="AK249">
         <v>2</v>
       </c>
+      <c r="AL249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -31170,6 +31919,9 @@
       <c r="AK250">
         <v>24</v>
       </c>
+      <c r="AL250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -31293,6 +32045,9 @@
       <c r="AK251">
         <v>9</v>
       </c>
+      <c r="AL251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -31416,6 +32171,9 @@
       <c r="AK252">
         <v>0</v>
       </c>
+      <c r="AL252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -31539,6 +32297,9 @@
       <c r="AK253">
         <v>17</v>
       </c>
+      <c r="AL253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -31662,6 +32423,9 @@
       <c r="AK254">
         <v>5</v>
       </c>
+      <c r="AL254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -31785,6 +32549,9 @@
       <c r="AK255">
         <v>53</v>
       </c>
+      <c r="AL255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -31908,6 +32675,9 @@
       <c r="AK256">
         <v>35</v>
       </c>
+      <c r="AL256">
+        <v>35</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -32031,6 +32801,9 @@
       <c r="AK257">
         <v>1</v>
       </c>
+      <c r="AL257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -32154,6 +32927,9 @@
       <c r="AK258">
         <v>0</v>
       </c>
+      <c r="AL258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -32277,6 +33053,9 @@
       <c r="AK259">
         <v>40</v>
       </c>
+      <c r="AL259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -32400,6 +33179,9 @@
       <c r="AK260">
         <v>26</v>
       </c>
+      <c r="AL260">
+        <v>26</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -32523,6 +33305,9 @@
       <c r="AK261">
         <v>0</v>
       </c>
+      <c r="AL261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -32646,6 +33431,9 @@
       <c r="AK262">
         <v>0</v>
       </c>
+      <c r="AL262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -32769,6 +33557,9 @@
       <c r="AK263">
         <v>0</v>
       </c>
+      <c r="AL263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -32892,6 +33683,9 @@
       <c r="AK264">
         <v>1</v>
       </c>
+      <c r="AL264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -33015,6 +33809,9 @@
       <c r="AK265">
         <v>3</v>
       </c>
+      <c r="AL265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -33138,6 +33935,9 @@
       <c r="AK266">
         <v>0</v>
       </c>
+      <c r="AL266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -33261,6 +34061,9 @@
       <c r="AK267">
         <v>3</v>
       </c>
+      <c r="AL267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -33384,6 +34187,9 @@
       <c r="AK268">
         <v>0</v>
       </c>
+      <c r="AL268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -33507,6 +34313,9 @@
       <c r="AK269">
         <v>7</v>
       </c>
+      <c r="AL269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -33630,6 +34439,9 @@
       <c r="AK270">
         <v>0</v>
       </c>
+      <c r="AL270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -33753,6 +34565,9 @@
       <c r="AK271">
         <v>0</v>
       </c>
+      <c r="AL271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -33876,6 +34691,9 @@
       <c r="AK272">
         <v>1</v>
       </c>
+      <c r="AL272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -33999,6 +34817,9 @@
       <c r="AK273">
         <v>4</v>
       </c>
+      <c r="AL273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -34122,6 +34943,9 @@
       <c r="AK274">
         <v>0</v>
       </c>
+      <c r="AL274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -34245,6 +35069,9 @@
       <c r="AK275">
         <v>0</v>
       </c>
+      <c r="AL275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -34368,6 +35195,9 @@
       <c r="AK276">
         <v>17</v>
       </c>
+      <c r="AL276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -34491,6 +35321,9 @@
       <c r="AK277">
         <v>0</v>
       </c>
+      <c r="AL277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -34614,6 +35447,9 @@
       <c r="AK278">
         <v>0</v>
       </c>
+      <c r="AL278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -34737,6 +35573,9 @@
       <c r="AK279">
         <v>4</v>
       </c>
+      <c r="AL279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -34860,6 +35699,9 @@
       <c r="AK280">
         <v>12</v>
       </c>
+      <c r="AL280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -34983,6 +35825,9 @@
       <c r="AK281">
         <v>253</v>
       </c>
+      <c r="AL281">
+        <v>264</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -35106,6 +35951,9 @@
       <c r="AK282">
         <v>16</v>
       </c>
+      <c r="AL282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -35229,6 +36077,9 @@
       <c r="AK283">
         <v>5</v>
       </c>
+      <c r="AL283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -35352,6 +36203,9 @@
       <c r="AK284">
         <v>0</v>
       </c>
+      <c r="AL284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -35475,6 +36329,9 @@
       <c r="AK285">
         <v>0</v>
       </c>
+      <c r="AL285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -35598,6 +36455,9 @@
       <c r="AK286">
         <v>8</v>
       </c>
+      <c r="AL286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -35721,6 +36581,9 @@
       <c r="AK287">
         <v>5</v>
       </c>
+      <c r="AL287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -35844,6 +36707,9 @@
       <c r="AK288">
         <v>0</v>
       </c>
+      <c r="AL288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -35967,6 +36833,9 @@
       <c r="AK289">
         <v>1</v>
       </c>
+      <c r="AL289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -36090,6 +36959,9 @@
       <c r="AK290">
         <v>7</v>
       </c>
+      <c r="AL290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -36213,6 +37085,9 @@
       <c r="AK291">
         <v>3</v>
       </c>
+      <c r="AL291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -36336,6 +37211,9 @@
       <c r="AK292">
         <v>5</v>
       </c>
+      <c r="AL292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -36459,6 +37337,9 @@
       <c r="AK293">
         <v>11</v>
       </c>
+      <c r="AL293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -36582,6 +37463,9 @@
       <c r="AK294">
         <v>6</v>
       </c>
+      <c r="AL294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -36705,6 +37589,9 @@
       <c r="AK295">
         <v>0</v>
       </c>
+      <c r="AL295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -36828,6 +37715,9 @@
       <c r="AK296">
         <v>1</v>
       </c>
+      <c r="AL296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -36951,6 +37841,9 @@
       <c r="AK297">
         <v>8</v>
       </c>
+      <c r="AL297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -37074,6 +37967,9 @@
       <c r="AK298">
         <v>28</v>
       </c>
+      <c r="AL298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -37197,6 +38093,9 @@
       <c r="AK299">
         <v>21</v>
       </c>
+      <c r="AL299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -37320,6 +38219,9 @@
       <c r="AK300">
         <v>15</v>
       </c>
+      <c r="AL300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -37443,6 +38345,9 @@
       <c r="AK301">
         <v>0</v>
       </c>
+      <c r="AL301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -37566,6 +38471,9 @@
       <c r="AK302">
         <v>0</v>
       </c>
+      <c r="AL302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -37689,6 +38597,9 @@
       <c r="AK303">
         <v>0</v>
       </c>
+      <c r="AL303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -37812,6 +38723,9 @@
       <c r="AK304">
         <v>0</v>
       </c>
+      <c r="AL304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -37935,6 +38849,9 @@
       <c r="AK305">
         <v>3</v>
       </c>
+      <c r="AL305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -38058,6 +38975,9 @@
       <c r="AK306">
         <v>1</v>
       </c>
+      <c r="AL306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -38181,6 +39101,9 @@
       <c r="AK307">
         <v>4</v>
       </c>
+      <c r="AL307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -38304,6 +39227,9 @@
       <c r="AK308">
         <v>0</v>
       </c>
+      <c r="AL308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -38427,6 +39353,9 @@
       <c r="AK309">
         <v>0</v>
       </c>
+      <c r="AL309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -38550,6 +39479,9 @@
       <c r="AK310">
         <v>7</v>
       </c>
+      <c r="AL310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -38673,6 +39605,9 @@
       <c r="AK311">
         <v>2</v>
       </c>
+      <c r="AL311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -38796,6 +39731,9 @@
       <c r="AK312">
         <v>2</v>
       </c>
+      <c r="AL312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -38919,6 +39857,9 @@
       <c r="AK313">
         <v>2</v>
       </c>
+      <c r="AL313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -39042,6 +39983,9 @@
       <c r="AK314">
         <v>10</v>
       </c>
+      <c r="AL314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -39165,6 +40109,9 @@
       <c r="AK315">
         <v>1</v>
       </c>
+      <c r="AL315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -39288,6 +40235,9 @@
       <c r="AK316">
         <v>17</v>
       </c>
+      <c r="AL316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -39411,6 +40361,9 @@
       <c r="AK317">
         <v>0</v>
       </c>
+      <c r="AL317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -39534,6 +40487,9 @@
       <c r="AK318">
         <v>0</v>
       </c>
+      <c r="AL318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -39657,6 +40613,9 @@
       <c r="AK319">
         <v>151</v>
       </c>
+      <c r="AL319">
+        <v>151</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -39780,6 +40739,9 @@
       <c r="AK320">
         <v>6</v>
       </c>
+      <c r="AL320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -39903,6 +40865,9 @@
       <c r="AK321">
         <v>5</v>
       </c>
+      <c r="AL321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -40026,6 +40991,9 @@
       <c r="AK322">
         <v>1</v>
       </c>
+      <c r="AL322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -40149,6 +41117,9 @@
       <c r="AK323">
         <v>3</v>
       </c>
+      <c r="AL323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -40272,6 +41243,9 @@
       <c r="AK324">
         <v>15</v>
       </c>
+      <c r="AL324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -40395,6 +41369,9 @@
       <c r="AK325">
         <v>1</v>
       </c>
+      <c r="AL325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -40518,6 +41495,9 @@
       <c r="AK326">
         <v>1</v>
       </c>
+      <c r="AL326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -40641,6 +41621,9 @@
       <c r="AK327">
         <v>0</v>
       </c>
+      <c r="AL327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -40764,6 +41747,9 @@
       <c r="AK328">
         <v>0</v>
       </c>
+      <c r="AL328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -40887,6 +41873,9 @@
       <c r="AK329">
         <v>3</v>
       </c>
+      <c r="AL329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -41010,6 +41999,9 @@
       <c r="AK330">
         <v>1</v>
       </c>
+      <c r="AL330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -41133,6 +42125,9 @@
       <c r="AK331">
         <v>2</v>
       </c>
+      <c r="AL331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -41256,6 +42251,9 @@
       <c r="AK332">
         <v>0</v>
       </c>
+      <c r="AL332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -41379,6 +42377,9 @@
       <c r="AK333">
         <v>0</v>
       </c>
+      <c r="AL333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -41502,6 +42503,9 @@
       <c r="AK334">
         <v>0</v>
       </c>
+      <c r="AL334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -41625,6 +42629,9 @@
       <c r="AK335">
         <v>16</v>
       </c>
+      <c r="AL335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -41748,6 +42755,9 @@
       <c r="AK336">
         <v>2</v>
       </c>
+      <c r="AL336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -41871,6 +42881,9 @@
       <c r="AK337">
         <v>1</v>
       </c>
+      <c r="AL337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -41994,6 +43007,9 @@
       <c r="AK338">
         <v>2</v>
       </c>
+      <c r="AL338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -42117,6 +43133,9 @@
       <c r="AK339">
         <v>0</v>
       </c>
+      <c r="AL339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -42240,6 +43259,9 @@
       <c r="AK340">
         <v>0</v>
       </c>
+      <c r="AL340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -42363,6 +43385,9 @@
       <c r="AK341">
         <v>1</v>
       </c>
+      <c r="AL341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -42486,6 +43511,9 @@
       <c r="AK342">
         <v>2</v>
       </c>
+      <c r="AL342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -42609,6 +43637,9 @@
       <c r="AK343">
         <v>0</v>
       </c>
+      <c r="AL343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -42732,6 +43763,9 @@
       <c r="AK344">
         <v>1</v>
       </c>
+      <c r="AL344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -42855,6 +43889,9 @@
       <c r="AK345">
         <v>0</v>
       </c>
+      <c r="AL345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -42978,6 +44015,9 @@
       <c r="AK346">
         <v>0</v>
       </c>
+      <c r="AL346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -43101,6 +44141,9 @@
       <c r="AK347">
         <v>3</v>
       </c>
+      <c r="AL347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -43224,6 +44267,9 @@
       <c r="AK348">
         <v>2</v>
       </c>
+      <c r="AL348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -43347,6 +44393,9 @@
       <c r="AK349">
         <v>4</v>
       </c>
+      <c r="AL349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -43470,6 +44519,9 @@
       <c r="AK350">
         <v>1</v>
       </c>
+      <c r="AL350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -43593,6 +44645,9 @@
       <c r="AK351">
         <v>0</v>
       </c>
+      <c r="AL351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -43716,6 +44771,9 @@
       <c r="AK352">
         <v>0</v>
       </c>
+      <c r="AL352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -43839,6 +44897,9 @@
       <c r="AK353">
         <v>0</v>
       </c>
+      <c r="AL353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -43962,6 +45023,9 @@
       <c r="AK354">
         <v>1</v>
       </c>
+      <c r="AL354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -44085,6 +45149,9 @@
       <c r="AK355">
         <v>1</v>
       </c>
+      <c r="AL355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -44208,6 +45275,9 @@
       <c r="AK356">
         <v>0</v>
       </c>
+      <c r="AL356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -44331,6 +45401,9 @@
       <c r="AK357">
         <v>4</v>
       </c>
+      <c r="AL357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -44454,6 +45527,9 @@
       <c r="AK358">
         <v>0</v>
       </c>
+      <c r="AL358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -44575,6 +45651,9 @@
         <v>0</v>
       </c>
       <c r="AK359">
+        <v>0</v>
+      </c>
+      <c r="AL359">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL359"/>
+  <dimension ref="A1:AM359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,6 +548,11 @@
           <t>2020-04-26</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -674,6 +679,9 @@
       <c r="AL2">
         <v>2307</v>
       </c>
+      <c r="AM2">
+        <v>2323</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -800,6 +808,9 @@
       <c r="AL3">
         <v>14</v>
       </c>
+      <c r="AM3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -926,6 +937,9 @@
       <c r="AL4">
         <v>132</v>
       </c>
+      <c r="AM4">
+        <v>132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1052,6 +1066,9 @@
       <c r="AL5">
         <v>51</v>
       </c>
+      <c r="AM5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1178,6 +1195,9 @@
       <c r="AL6">
         <v>47</v>
       </c>
+      <c r="AM6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1304,6 +1324,9 @@
       <c r="AL7">
         <v>5</v>
       </c>
+      <c r="AM7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1430,6 +1453,9 @@
       <c r="AL8">
         <v>1</v>
       </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1556,6 +1582,9 @@
       <c r="AL9">
         <v>0</v>
       </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1682,6 +1711,9 @@
       <c r="AL10">
         <v>7</v>
       </c>
+      <c r="AM10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1808,6 +1840,9 @@
       <c r="AL11">
         <v>6</v>
       </c>
+      <c r="AM11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1934,6 +1969,9 @@
       <c r="AL12">
         <v>12</v>
       </c>
+      <c r="AM12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2060,6 +2098,9 @@
       <c r="AL13">
         <v>13</v>
       </c>
+      <c r="AM13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2186,6 +2227,9 @@
       <c r="AL14">
         <v>16</v>
       </c>
+      <c r="AM14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2312,6 +2356,9 @@
       <c r="AL15">
         <v>11</v>
       </c>
+      <c r="AM15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2438,6 +2485,9 @@
       <c r="AL16">
         <v>13</v>
       </c>
+      <c r="AM16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2564,6 +2614,9 @@
       <c r="AL17">
         <v>0</v>
       </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2690,6 +2743,9 @@
       <c r="AL18">
         <v>0</v>
       </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2816,6 +2872,9 @@
       <c r="AL19">
         <v>3</v>
       </c>
+      <c r="AM19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2942,6 +3001,9 @@
       <c r="AL20">
         <v>0</v>
       </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3068,6 +3130,9 @@
       <c r="AL21">
         <v>1</v>
       </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3194,6 +3259,9 @@
       <c r="AL22">
         <v>20</v>
       </c>
+      <c r="AM22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3320,6 +3388,9 @@
       <c r="AL23">
         <v>37</v>
       </c>
+      <c r="AM23">
+        <v>37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3446,6 +3517,9 @@
       <c r="AL24">
         <v>0</v>
       </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3572,6 +3646,9 @@
       <c r="AL25">
         <v>11</v>
       </c>
+      <c r="AM25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3698,6 +3775,9 @@
       <c r="AL26">
         <v>18</v>
       </c>
+      <c r="AM26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3824,6 +3904,9 @@
       <c r="AL27">
         <v>13</v>
       </c>
+      <c r="AM27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3950,6 +4033,9 @@
       <c r="AL28">
         <v>27</v>
       </c>
+      <c r="AM28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4076,6 +4162,9 @@
       <c r="AL29">
         <v>1</v>
       </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4202,6 +4291,9 @@
       <c r="AL30">
         <v>4</v>
       </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4328,6 +4420,9 @@
       <c r="AL31">
         <v>3</v>
       </c>
+      <c r="AM31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4454,6 +4549,9 @@
       <c r="AL32">
         <v>8</v>
       </c>
+      <c r="AM32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4580,6 +4678,9 @@
       <c r="AL33">
         <v>2</v>
       </c>
+      <c r="AM33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4706,6 +4807,9 @@
       <c r="AL34">
         <v>6</v>
       </c>
+      <c r="AM34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4832,6 +4936,9 @@
       <c r="AL35">
         <v>0</v>
       </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4958,6 +5065,9 @@
       <c r="AL36">
         <v>1</v>
       </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5084,6 +5194,9 @@
       <c r="AL37">
         <v>6</v>
       </c>
+      <c r="AM37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5210,6 +5323,9 @@
       <c r="AL38">
         <v>5</v>
       </c>
+      <c r="AM38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5336,6 +5452,9 @@
       <c r="AL39">
         <v>1</v>
       </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5462,6 +5581,9 @@
       <c r="AL40">
         <v>10</v>
       </c>
+      <c r="AM40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5588,6 +5710,9 @@
       <c r="AL41">
         <v>0</v>
       </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5714,6 +5839,9 @@
       <c r="AL42">
         <v>0</v>
       </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5840,6 +5968,9 @@
       <c r="AL43">
         <v>0</v>
       </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5966,6 +6097,9 @@
       <c r="AL44">
         <v>1</v>
       </c>
+      <c r="AM44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6092,6 +6226,9 @@
       <c r="AL45">
         <v>2</v>
       </c>
+      <c r="AM45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6218,6 +6355,9 @@
       <c r="AL46">
         <v>2</v>
       </c>
+      <c r="AM46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6344,6 +6484,9 @@
       <c r="AL47">
         <v>0</v>
       </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6470,6 +6613,9 @@
       <c r="AL48">
         <v>3</v>
       </c>
+      <c r="AM48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6596,6 +6742,9 @@
       <c r="AL49">
         <v>4</v>
       </c>
+      <c r="AM49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6722,6 +6871,9 @@
       <c r="AL50">
         <v>1</v>
       </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6848,6 +7000,9 @@
       <c r="AL51">
         <v>3</v>
       </c>
+      <c r="AM51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6974,6 +7129,9 @@
       <c r="AL52">
         <v>38</v>
       </c>
+      <c r="AM52">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7100,6 +7258,9 @@
       <c r="AL53">
         <v>6</v>
       </c>
+      <c r="AM53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7226,6 +7387,9 @@
       <c r="AL54">
         <v>0</v>
       </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7352,6 +7516,9 @@
       <c r="AL55">
         <v>2</v>
       </c>
+      <c r="AM55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7478,6 +7645,9 @@
       <c r="AL56">
         <v>5</v>
       </c>
+      <c r="AM56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7604,6 +7774,9 @@
       <c r="AL57">
         <v>3</v>
       </c>
+      <c r="AM57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7730,6 +7903,9 @@
       <c r="AL58">
         <v>0</v>
       </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7856,6 +8032,9 @@
       <c r="AL59">
         <v>0</v>
       </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7982,6 +8161,9 @@
       <c r="AL60">
         <v>2</v>
       </c>
+      <c r="AM60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8108,6 +8290,9 @@
       <c r="AL61">
         <v>4</v>
       </c>
+      <c r="AM61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8234,6 +8419,9 @@
       <c r="AL62">
         <v>1</v>
       </c>
+      <c r="AM62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8360,6 +8548,9 @@
       <c r="AL63">
         <v>1</v>
       </c>
+      <c r="AM63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8486,6 +8677,9 @@
       <c r="AL64">
         <v>0</v>
       </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8612,6 +8806,9 @@
       <c r="AL65">
         <v>5</v>
       </c>
+      <c r="AM65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8738,6 +8935,9 @@
       <c r="AL66">
         <v>0</v>
       </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8864,6 +9064,9 @@
       <c r="AL67">
         <v>0</v>
       </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8990,6 +9193,9 @@
       <c r="AL68">
         <v>4</v>
       </c>
+      <c r="AM68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9116,6 +9322,9 @@
       <c r="AL69">
         <v>0</v>
       </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9242,6 +9451,9 @@
       <c r="AL70">
         <v>0</v>
       </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9368,6 +9580,9 @@
       <c r="AL71">
         <v>0</v>
       </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9494,6 +9709,9 @@
       <c r="AL72">
         <v>5</v>
       </c>
+      <c r="AM72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9620,6 +9838,9 @@
       <c r="AL73">
         <v>0</v>
       </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9746,6 +9967,9 @@
       <c r="AL74">
         <v>0</v>
       </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9872,6 +10096,9 @@
       <c r="AL75">
         <v>0</v>
       </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9998,6 +10225,9 @@
       <c r="AL76">
         <v>2</v>
       </c>
+      <c r="AM76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10124,6 +10354,9 @@
       <c r="AL77">
         <v>0</v>
       </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10250,6 +10483,9 @@
       <c r="AL78">
         <v>1</v>
       </c>
+      <c r="AM78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10376,6 +10612,9 @@
       <c r="AL79">
         <v>0</v>
       </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10502,6 +10741,9 @@
       <c r="AL80">
         <v>0</v>
       </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10628,6 +10870,9 @@
       <c r="AL81">
         <v>0</v>
       </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10754,6 +10999,9 @@
       <c r="AL82">
         <v>0</v>
       </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10880,6 +11128,9 @@
       <c r="AL83">
         <v>6</v>
       </c>
+      <c r="AM83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11006,6 +11257,9 @@
       <c r="AL84">
         <v>13</v>
       </c>
+      <c r="AM84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11132,6 +11386,9 @@
       <c r="AL85">
         <v>3</v>
       </c>
+      <c r="AM85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11258,6 +11515,9 @@
       <c r="AL86">
         <v>5</v>
       </c>
+      <c r="AM86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11384,6 +11644,9 @@
       <c r="AL87">
         <v>0</v>
       </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11510,6 +11773,9 @@
       <c r="AL88">
         <v>0</v>
       </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11636,6 +11902,9 @@
       <c r="AL89">
         <v>6</v>
       </c>
+      <c r="AM89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11762,6 +12031,9 @@
       <c r="AL90">
         <v>0</v>
       </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11888,6 +12160,9 @@
       <c r="AL91">
         <v>1</v>
       </c>
+      <c r="AM91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12014,6 +12289,9 @@
       <c r="AL92">
         <v>0</v>
       </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12140,6 +12418,9 @@
       <c r="AL93">
         <v>35</v>
       </c>
+      <c r="AM93">
+        <v>35</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12266,6 +12547,9 @@
       <c r="AL94">
         <v>95</v>
       </c>
+      <c r="AM94">
+        <v>95</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12392,6 +12676,9 @@
       <c r="AL95">
         <v>63</v>
       </c>
+      <c r="AM95">
+        <v>63</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12518,6 +12805,9 @@
       <c r="AL96">
         <v>87</v>
       </c>
+      <c r="AM96">
+        <v>87</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12644,6 +12934,9 @@
       <c r="AL97">
         <v>172</v>
       </c>
+      <c r="AM97">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12770,6 +13063,9 @@
       <c r="AL98">
         <v>21</v>
       </c>
+      <c r="AM98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12896,6 +13192,9 @@
       <c r="AL99">
         <v>10</v>
       </c>
+      <c r="AM99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13022,6 +13321,9 @@
       <c r="AL100">
         <v>2</v>
       </c>
+      <c r="AM100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13148,6 +13450,9 @@
       <c r="AL101">
         <v>2</v>
       </c>
+      <c r="AM101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13274,6 +13579,9 @@
       <c r="AL102">
         <v>3</v>
       </c>
+      <c r="AM102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13400,6 +13708,9 @@
       <c r="AL103">
         <v>47</v>
       </c>
+      <c r="AM103">
+        <v>48</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13526,6 +13837,9 @@
       <c r="AL104">
         <v>2</v>
       </c>
+      <c r="AM104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13652,6 +13966,9 @@
       <c r="AL105">
         <v>1</v>
       </c>
+      <c r="AM105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13778,6 +14095,9 @@
       <c r="AL106">
         <v>2</v>
       </c>
+      <c r="AM106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13904,6 +14224,9 @@
       <c r="AL107">
         <v>6</v>
       </c>
+      <c r="AM107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14030,6 +14353,9 @@
       <c r="AL108">
         <v>23</v>
       </c>
+      <c r="AM108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14156,6 +14482,9 @@
       <c r="AL109">
         <v>98</v>
       </c>
+      <c r="AM109">
+        <v>98</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14282,6 +14611,9 @@
       <c r="AL110">
         <v>18</v>
       </c>
+      <c r="AM110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14408,6 +14740,9 @@
       <c r="AL111">
         <v>21</v>
       </c>
+      <c r="AM111">
+        <v>21</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14534,6 +14869,9 @@
       <c r="AL112">
         <v>47</v>
       </c>
+      <c r="AM112">
+        <v>47</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14660,6 +14998,9 @@
       <c r="AL113">
         <v>406</v>
       </c>
+      <c r="AM113">
+        <v>406</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14786,6 +15127,9 @@
       <c r="AL114">
         <v>176</v>
       </c>
+      <c r="AM114">
+        <v>176</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14912,6 +15256,9 @@
       <c r="AL115">
         <v>9</v>
       </c>
+      <c r="AM115">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15038,6 +15385,9 @@
       <c r="AL116">
         <v>25</v>
       </c>
+      <c r="AM116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15164,6 +15514,9 @@
       <c r="AL117">
         <v>49</v>
       </c>
+      <c r="AM117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15290,6 +15643,9 @@
       <c r="AL118">
         <v>91</v>
       </c>
+      <c r="AM118">
+        <v>92</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15416,6 +15772,9 @@
       <c r="AL119">
         <v>153</v>
       </c>
+      <c r="AM119">
+        <v>153</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15542,6 +15901,9 @@
       <c r="AL120">
         <v>45</v>
       </c>
+      <c r="AM120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15668,6 +16030,9 @@
       <c r="AL121">
         <v>8</v>
       </c>
+      <c r="AM121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15794,6 +16159,9 @@
       <c r="AL122">
         <v>58</v>
       </c>
+      <c r="AM122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15920,6 +16288,9 @@
       <c r="AL123">
         <v>14</v>
       </c>
+      <c r="AM123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16046,6 +16417,9 @@
       <c r="AL124">
         <v>39</v>
       </c>
+      <c r="AM124">
+        <v>39</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16172,6 +16546,9 @@
       <c r="AL125">
         <v>17</v>
       </c>
+      <c r="AM125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16298,6 +16675,9 @@
       <c r="AL126">
         <v>2</v>
       </c>
+      <c r="AM126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16424,6 +16804,9 @@
       <c r="AL127">
         <v>10</v>
       </c>
+      <c r="AM127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16550,6 +16933,9 @@
       <c r="AL128">
         <v>1</v>
       </c>
+      <c r="AM128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16676,6 +17062,9 @@
       <c r="AL129">
         <v>7</v>
       </c>
+      <c r="AM129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16802,6 +17191,9 @@
       <c r="AL130">
         <v>10</v>
       </c>
+      <c r="AM130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16928,6 +17320,9 @@
       <c r="AL131">
         <v>8</v>
       </c>
+      <c r="AM131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17054,6 +17449,9 @@
       <c r="AL132">
         <v>13</v>
       </c>
+      <c r="AM132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17180,6 +17578,9 @@
       <c r="AL133">
         <v>44</v>
       </c>
+      <c r="AM133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17306,6 +17707,9 @@
       <c r="AL134">
         <v>0</v>
       </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -17432,6 +17836,9 @@
       <c r="AL135">
         <v>0</v>
       </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17558,6 +17965,9 @@
       <c r="AL136">
         <v>10</v>
       </c>
+      <c r="AM136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -17684,6 +18094,9 @@
       <c r="AL137">
         <v>5</v>
       </c>
+      <c r="AM137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -17810,6 +18223,9 @@
       <c r="AL138">
         <v>42</v>
       </c>
+      <c r="AM138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17936,6 +18352,9 @@
       <c r="AL139">
         <v>4</v>
       </c>
+      <c r="AM139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -18062,6 +18481,9 @@
       <c r="AL140">
         <v>1</v>
       </c>
+      <c r="AM140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -18188,6 +18610,9 @@
       <c r="AL141">
         <v>3</v>
       </c>
+      <c r="AM141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -18314,6 +18739,9 @@
       <c r="AL142">
         <v>6</v>
       </c>
+      <c r="AM142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -18440,6 +18868,9 @@
       <c r="AL143">
         <v>11</v>
       </c>
+      <c r="AM143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -18566,6 +18997,9 @@
       <c r="AL144">
         <v>1</v>
       </c>
+      <c r="AM144">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -18692,6 +19126,9 @@
       <c r="AL145">
         <v>82</v>
       </c>
+      <c r="AM145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -18818,6 +19255,9 @@
       <c r="AL146">
         <v>38</v>
       </c>
+      <c r="AM146">
+        <v>38</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -18944,6 +19384,9 @@
       <c r="AL147">
         <v>22</v>
       </c>
+      <c r="AM147">
+        <v>22</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -19070,6 +19513,9 @@
       <c r="AL148">
         <v>61</v>
       </c>
+      <c r="AM148">
+        <v>61</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -19196,6 +19642,9 @@
       <c r="AL149">
         <v>11</v>
       </c>
+      <c r="AM149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -19322,6 +19771,9 @@
       <c r="AL150">
         <v>35</v>
       </c>
+      <c r="AM150">
+        <v>35</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -19448,6 +19900,9 @@
       <c r="AL151">
         <v>0</v>
       </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -19574,6 +20029,9 @@
       <c r="AL152">
         <v>20</v>
       </c>
+      <c r="AM152">
+        <v>20</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -19700,6 +20158,9 @@
       <c r="AL153">
         <v>4</v>
       </c>
+      <c r="AM153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -19826,6 +20287,9 @@
       <c r="AL154">
         <v>5</v>
       </c>
+      <c r="AM154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -19952,6 +20416,9 @@
       <c r="AL155">
         <v>3</v>
       </c>
+      <c r="AM155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -20078,6 +20545,9 @@
       <c r="AL156">
         <v>3</v>
       </c>
+      <c r="AM156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -20204,6 +20674,9 @@
       <c r="AL157">
         <v>16</v>
       </c>
+      <c r="AM157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -20330,6 +20803,9 @@
       <c r="AL158">
         <v>2</v>
       </c>
+      <c r="AM158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -20456,6 +20932,9 @@
       <c r="AL159">
         <v>4</v>
       </c>
+      <c r="AM159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -20582,6 +21061,9 @@
       <c r="AL160">
         <v>0</v>
       </c>
+      <c r="AM160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -20708,6 +21190,9 @@
       <c r="AL161">
         <v>0</v>
       </c>
+      <c r="AM161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -20834,6 +21319,9 @@
       <c r="AL162">
         <v>2</v>
       </c>
+      <c r="AM162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -20960,6 +21448,9 @@
       <c r="AL163">
         <v>0</v>
       </c>
+      <c r="AM163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -21086,6 +21577,9 @@
       <c r="AL164">
         <v>0</v>
       </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -21212,6 +21706,9 @@
       <c r="AL165">
         <v>1</v>
       </c>
+      <c r="AM165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -21338,6 +21835,9 @@
       <c r="AL166">
         <v>0</v>
       </c>
+      <c r="AM166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -21464,6 +21964,9 @@
       <c r="AL167">
         <v>1</v>
       </c>
+      <c r="AM167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -21590,6 +22093,9 @@
       <c r="AL168">
         <v>5</v>
       </c>
+      <c r="AM168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -21716,6 +22222,9 @@
       <c r="AL169">
         <v>2</v>
       </c>
+      <c r="AM169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -21842,6 +22351,9 @@
       <c r="AL170">
         <v>1</v>
       </c>
+      <c r="AM170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -21968,6 +22480,9 @@
       <c r="AL171">
         <v>3</v>
       </c>
+      <c r="AM171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -22094,6 +22609,9 @@
       <c r="AL172">
         <v>2</v>
       </c>
+      <c r="AM172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -22220,6 +22738,9 @@
       <c r="AL173">
         <v>13</v>
       </c>
+      <c r="AM173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -22346,6 +22867,9 @@
       <c r="AL174">
         <v>36</v>
       </c>
+      <c r="AM174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -22472,6 +22996,9 @@
       <c r="AL175">
         <v>1</v>
       </c>
+      <c r="AM175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -22598,6 +23125,9 @@
       <c r="AL176">
         <v>8</v>
       </c>
+      <c r="AM176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -22724,6 +23254,9 @@
       <c r="AL177">
         <v>2</v>
       </c>
+      <c r="AM177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -22850,6 +23383,9 @@
       <c r="AL178">
         <v>6</v>
       </c>
+      <c r="AM178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -22976,6 +23512,9 @@
       <c r="AL179">
         <v>4</v>
       </c>
+      <c r="AM179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -23102,6 +23641,9 @@
       <c r="AL180">
         <v>12</v>
       </c>
+      <c r="AM180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -23228,6 +23770,9 @@
       <c r="AL181">
         <v>11</v>
       </c>
+      <c r="AM181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -23354,6 +23899,9 @@
       <c r="AL182">
         <v>2</v>
       </c>
+      <c r="AM182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -23480,6 +24028,9 @@
       <c r="AL183">
         <v>1</v>
       </c>
+      <c r="AM183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -23606,6 +24157,9 @@
       <c r="AL184">
         <v>0</v>
       </c>
+      <c r="AM184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -23732,6 +24286,9 @@
       <c r="AL185">
         <v>1</v>
       </c>
+      <c r="AM185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -23858,6 +24415,9 @@
       <c r="AL186">
         <v>9</v>
       </c>
+      <c r="AM186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -23984,6 +24544,9 @@
       <c r="AL187">
         <v>0</v>
       </c>
+      <c r="AM187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -24110,6 +24673,9 @@
       <c r="AL188">
         <v>0</v>
       </c>
+      <c r="AM188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -24236,6 +24802,9 @@
       <c r="AL189">
         <v>0</v>
       </c>
+      <c r="AM189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -24362,6 +24931,9 @@
       <c r="AL190">
         <v>25</v>
       </c>
+      <c r="AM190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -24488,6 +25060,9 @@
       <c r="AL191">
         <v>20</v>
       </c>
+      <c r="AM191">
+        <v>20</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -24614,6 +25189,9 @@
       <c r="AL192">
         <v>57</v>
       </c>
+      <c r="AM192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -24740,6 +25318,9 @@
       <c r="AL193">
         <v>38</v>
       </c>
+      <c r="AM193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -24866,6 +25447,9 @@
       <c r="AL194">
         <v>36</v>
       </c>
+      <c r="AM194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -24992,6 +25576,9 @@
       <c r="AL195">
         <v>10</v>
       </c>
+      <c r="AM195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -25118,6 +25705,9 @@
       <c r="AL196">
         <v>40</v>
       </c>
+      <c r="AM196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -25244,6 +25834,9 @@
       <c r="AL197">
         <v>4</v>
       </c>
+      <c r="AM197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -25370,6 +25963,9 @@
       <c r="AL198">
         <v>22</v>
       </c>
+      <c r="AM198">
+        <v>22</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -25496,6 +26092,9 @@
       <c r="AL199">
         <v>2</v>
       </c>
+      <c r="AM199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -25622,6 +26221,9 @@
       <c r="AL200">
         <v>5</v>
       </c>
+      <c r="AM200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -25748,6 +26350,9 @@
       <c r="AL201">
         <v>2</v>
       </c>
+      <c r="AM201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -25874,6 +26479,9 @@
       <c r="AL202">
         <v>1</v>
       </c>
+      <c r="AM202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -26000,6 +26608,9 @@
       <c r="AL203">
         <v>5</v>
       </c>
+      <c r="AM203">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -26126,6 +26737,9 @@
       <c r="AL204">
         <v>0</v>
       </c>
+      <c r="AM204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -26252,6 +26866,9 @@
       <c r="AL205">
         <v>1</v>
       </c>
+      <c r="AM205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -26378,6 +26995,9 @@
       <c r="AL206">
         <v>1</v>
       </c>
+      <c r="AM206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -26504,6 +27124,9 @@
       <c r="AL207">
         <v>0</v>
       </c>
+      <c r="AM207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -26630,6 +27253,9 @@
       <c r="AL208">
         <v>0</v>
       </c>
+      <c r="AM208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -26756,6 +27382,9 @@
       <c r="AL209">
         <v>0</v>
       </c>
+      <c r="AM209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -26882,6 +27511,9 @@
       <c r="AL210">
         <v>0</v>
       </c>
+      <c r="AM210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -27008,6 +27640,9 @@
       <c r="AL211">
         <v>0</v>
       </c>
+      <c r="AM211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -27134,6 +27769,9 @@
       <c r="AL212">
         <v>2</v>
       </c>
+      <c r="AM212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -27260,6 +27898,9 @@
       <c r="AL213">
         <v>0</v>
       </c>
+      <c r="AM213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -27386,6 +28027,9 @@
       <c r="AL214">
         <v>2</v>
       </c>
+      <c r="AM214">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -27512,6 +28156,9 @@
       <c r="AL215">
         <v>30</v>
       </c>
+      <c r="AM215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -27638,6 +28285,9 @@
       <c r="AL216">
         <v>212</v>
       </c>
+      <c r="AM216">
+        <v>213</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -27764,6 +28414,9 @@
       <c r="AL217">
         <v>9</v>
       </c>
+      <c r="AM217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -27890,6 +28543,9 @@
       <c r="AL218">
         <v>11</v>
       </c>
+      <c r="AM218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -28016,6 +28672,9 @@
       <c r="AL219">
         <v>0</v>
       </c>
+      <c r="AM219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -28142,6 +28801,9 @@
       <c r="AL220">
         <v>2</v>
       </c>
+      <c r="AM220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -28268,6 +28930,9 @@
       <c r="AL221">
         <v>0</v>
       </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -28394,6 +29059,9 @@
       <c r="AL222">
         <v>1</v>
       </c>
+      <c r="AM222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -28520,6 +29188,9 @@
       <c r="AL223">
         <v>2</v>
       </c>
+      <c r="AM223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -28646,6 +29317,9 @@
       <c r="AL224">
         <v>8</v>
       </c>
+      <c r="AM224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -28772,6 +29446,9 @@
       <c r="AL225">
         <v>3</v>
       </c>
+      <c r="AM225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -28898,6 +29575,9 @@
       <c r="AL226">
         <v>1</v>
       </c>
+      <c r="AM226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -29024,6 +29704,9 @@
       <c r="AL227">
         <v>2</v>
       </c>
+      <c r="AM227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -29150,6 +29833,9 @@
       <c r="AL228">
         <v>2</v>
       </c>
+      <c r="AM228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -29276,6 +29962,9 @@
       <c r="AL229">
         <v>2</v>
       </c>
+      <c r="AM229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -29402,6 +30091,9 @@
       <c r="AL230">
         <v>0</v>
       </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -29528,6 +30220,9 @@
       <c r="AL231">
         <v>3</v>
       </c>
+      <c r="AM231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -29654,6 +30349,9 @@
       <c r="AL232">
         <v>20</v>
       </c>
+      <c r="AM232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -29780,6 +30478,9 @@
       <c r="AL233">
         <v>0</v>
       </c>
+      <c r="AM233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -29906,6 +30607,9 @@
       <c r="AL234">
         <v>4</v>
       </c>
+      <c r="AM234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -30032,6 +30736,9 @@
       <c r="AL235">
         <v>1</v>
       </c>
+      <c r="AM235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -30158,6 +30865,9 @@
       <c r="AL236">
         <v>1</v>
       </c>
+      <c r="AM236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -30284,6 +30994,9 @@
       <c r="AL237">
         <v>1</v>
       </c>
+      <c r="AM237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -30410,6 +31123,9 @@
       <c r="AL238">
         <v>529</v>
       </c>
+      <c r="AM238">
+        <v>531</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -30536,6 +31252,9 @@
       <c r="AL239">
         <v>9</v>
       </c>
+      <c r="AM239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -30662,6 +31381,9 @@
       <c r="AL240">
         <v>4</v>
       </c>
+      <c r="AM240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -30788,6 +31510,9 @@
       <c r="AL241">
         <v>4</v>
       </c>
+      <c r="AM241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -30914,6 +31639,9 @@
       <c r="AL242">
         <v>4</v>
       </c>
+      <c r="AM242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -31040,6 +31768,9 @@
       <c r="AL243">
         <v>6</v>
       </c>
+      <c r="AM243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -31166,6 +31897,9 @@
       <c r="AL244">
         <v>8</v>
       </c>
+      <c r="AM244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -31292,6 +32026,9 @@
       <c r="AL245">
         <v>0</v>
       </c>
+      <c r="AM245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -31418,6 +32155,9 @@
       <c r="AL246">
         <v>4</v>
       </c>
+      <c r="AM246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -31544,6 +32284,9 @@
       <c r="AL247">
         <v>0</v>
       </c>
+      <c r="AM247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -31670,6 +32413,9 @@
       <c r="AL248">
         <v>0</v>
       </c>
+      <c r="AM248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -31796,6 +32542,9 @@
       <c r="AL249">
         <v>2</v>
       </c>
+      <c r="AM249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -31922,6 +32671,9 @@
       <c r="AL250">
         <v>24</v>
       </c>
+      <c r="AM250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -32048,6 +32800,9 @@
       <c r="AL251">
         <v>9</v>
       </c>
+      <c r="AM251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -32174,6 +32929,9 @@
       <c r="AL252">
         <v>0</v>
       </c>
+      <c r="AM252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -32300,6 +33058,9 @@
       <c r="AL253">
         <v>17</v>
       </c>
+      <c r="AM253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -32426,6 +33187,9 @@
       <c r="AL254">
         <v>5</v>
       </c>
+      <c r="AM254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -32552,6 +33316,9 @@
       <c r="AL255">
         <v>53</v>
       </c>
+      <c r="AM255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -32678,6 +33445,9 @@
       <c r="AL256">
         <v>35</v>
       </c>
+      <c r="AM256">
+        <v>36</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -32804,6 +33574,9 @@
       <c r="AL257">
         <v>1</v>
       </c>
+      <c r="AM257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -32930,6 +33703,9 @@
       <c r="AL258">
         <v>0</v>
       </c>
+      <c r="AM258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -33056,6 +33832,9 @@
       <c r="AL259">
         <v>40</v>
       </c>
+      <c r="AM259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -33182,6 +33961,9 @@
       <c r="AL260">
         <v>26</v>
       </c>
+      <c r="AM260">
+        <v>26</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -33308,6 +34090,9 @@
       <c r="AL261">
         <v>0</v>
       </c>
+      <c r="AM261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -33434,6 +34219,9 @@
       <c r="AL262">
         <v>0</v>
       </c>
+      <c r="AM262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -33560,6 +34348,9 @@
       <c r="AL263">
         <v>0</v>
       </c>
+      <c r="AM263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -33686,6 +34477,9 @@
       <c r="AL264">
         <v>1</v>
       </c>
+      <c r="AM264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -33812,6 +34606,9 @@
       <c r="AL265">
         <v>3</v>
       </c>
+      <c r="AM265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -33938,6 +34735,9 @@
       <c r="AL266">
         <v>0</v>
       </c>
+      <c r="AM266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -34064,6 +34864,9 @@
       <c r="AL267">
         <v>3</v>
       </c>
+      <c r="AM267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -34190,6 +34993,9 @@
       <c r="AL268">
         <v>0</v>
       </c>
+      <c r="AM268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -34316,6 +35122,9 @@
       <c r="AL269">
         <v>7</v>
       </c>
+      <c r="AM269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -34442,6 +35251,9 @@
       <c r="AL270">
         <v>0</v>
       </c>
+      <c r="AM270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -34568,6 +35380,9 @@
       <c r="AL271">
         <v>0</v>
       </c>
+      <c r="AM271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -34694,6 +35509,9 @@
       <c r="AL272">
         <v>1</v>
       </c>
+      <c r="AM272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -34820,6 +35638,9 @@
       <c r="AL273">
         <v>4</v>
       </c>
+      <c r="AM273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -34946,6 +35767,9 @@
       <c r="AL274">
         <v>0</v>
       </c>
+      <c r="AM274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -35072,6 +35896,9 @@
       <c r="AL275">
         <v>0</v>
       </c>
+      <c r="AM275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -35198,6 +36025,9 @@
       <c r="AL276">
         <v>17</v>
       </c>
+      <c r="AM276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -35324,6 +36154,9 @@
       <c r="AL277">
         <v>0</v>
       </c>
+      <c r="AM277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -35450,6 +36283,9 @@
       <c r="AL278">
         <v>0</v>
       </c>
+      <c r="AM278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -35576,6 +36412,9 @@
       <c r="AL279">
         <v>4</v>
       </c>
+      <c r="AM279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -35702,6 +36541,9 @@
       <c r="AL280">
         <v>12</v>
       </c>
+      <c r="AM280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -35828,6 +36670,9 @@
       <c r="AL281">
         <v>264</v>
       </c>
+      <c r="AM281">
+        <v>268</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -35954,6 +36799,9 @@
       <c r="AL282">
         <v>16</v>
       </c>
+      <c r="AM282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -36080,6 +36928,9 @@
       <c r="AL283">
         <v>5</v>
       </c>
+      <c r="AM283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -36206,6 +37057,9 @@
       <c r="AL284">
         <v>0</v>
       </c>
+      <c r="AM284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -36332,6 +37186,9 @@
       <c r="AL285">
         <v>0</v>
       </c>
+      <c r="AM285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -36458,6 +37315,9 @@
       <c r="AL286">
         <v>8</v>
       </c>
+      <c r="AM286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -36584,6 +37444,9 @@
       <c r="AL287">
         <v>5</v>
       </c>
+      <c r="AM287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -36710,6 +37573,9 @@
       <c r="AL288">
         <v>0</v>
       </c>
+      <c r="AM288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -36836,6 +37702,9 @@
       <c r="AL289">
         <v>1</v>
       </c>
+      <c r="AM289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -36962,6 +37831,9 @@
       <c r="AL290">
         <v>7</v>
       </c>
+      <c r="AM290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -37088,6 +37960,9 @@
       <c r="AL291">
         <v>3</v>
       </c>
+      <c r="AM291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -37214,6 +38089,9 @@
       <c r="AL292">
         <v>5</v>
       </c>
+      <c r="AM292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -37340,6 +38218,9 @@
       <c r="AL293">
         <v>11</v>
       </c>
+      <c r="AM293">
+        <v>11</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -37466,6 +38347,9 @@
       <c r="AL294">
         <v>6</v>
       </c>
+      <c r="AM294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -37592,6 +38476,9 @@
       <c r="AL295">
         <v>0</v>
       </c>
+      <c r="AM295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -37718,6 +38605,9 @@
       <c r="AL296">
         <v>1</v>
       </c>
+      <c r="AM296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -37844,6 +38734,9 @@
       <c r="AL297">
         <v>8</v>
       </c>
+      <c r="AM297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -37970,6 +38863,9 @@
       <c r="AL298">
         <v>28</v>
       </c>
+      <c r="AM298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -38096,6 +38992,9 @@
       <c r="AL299">
         <v>21</v>
       </c>
+      <c r="AM299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -38222,6 +39121,9 @@
       <c r="AL300">
         <v>15</v>
       </c>
+      <c r="AM300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -38348,6 +39250,9 @@
       <c r="AL301">
         <v>0</v>
       </c>
+      <c r="AM301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -38474,6 +39379,9 @@
       <c r="AL302">
         <v>0</v>
       </c>
+      <c r="AM302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -38600,6 +39508,9 @@
       <c r="AL303">
         <v>0</v>
       </c>
+      <c r="AM303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -38726,6 +39637,9 @@
       <c r="AL304">
         <v>0</v>
       </c>
+      <c r="AM304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -38852,6 +39766,9 @@
       <c r="AL305">
         <v>3</v>
       </c>
+      <c r="AM305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -38978,6 +39895,9 @@
       <c r="AL306">
         <v>1</v>
       </c>
+      <c r="AM306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -39104,6 +40024,9 @@
       <c r="AL307">
         <v>4</v>
       </c>
+      <c r="AM307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -39230,6 +40153,9 @@
       <c r="AL308">
         <v>0</v>
       </c>
+      <c r="AM308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -39356,6 +40282,9 @@
       <c r="AL309">
         <v>0</v>
       </c>
+      <c r="AM309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -39482,6 +40411,9 @@
       <c r="AL310">
         <v>7</v>
       </c>
+      <c r="AM310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -39608,6 +40540,9 @@
       <c r="AL311">
         <v>2</v>
       </c>
+      <c r="AM311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -39734,6 +40669,9 @@
       <c r="AL312">
         <v>2</v>
       </c>
+      <c r="AM312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -39860,6 +40798,9 @@
       <c r="AL313">
         <v>2</v>
       </c>
+      <c r="AM313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -39986,6 +40927,9 @@
       <c r="AL314">
         <v>10</v>
       </c>
+      <c r="AM314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -40112,6 +41056,9 @@
       <c r="AL315">
         <v>1</v>
       </c>
+      <c r="AM315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -40238,6 +41185,9 @@
       <c r="AL316">
         <v>17</v>
       </c>
+      <c r="AM316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -40364,6 +41314,9 @@
       <c r="AL317">
         <v>0</v>
       </c>
+      <c r="AM317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -40490,6 +41443,9 @@
       <c r="AL318">
         <v>0</v>
       </c>
+      <c r="AM318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -40616,6 +41572,9 @@
       <c r="AL319">
         <v>151</v>
       </c>
+      <c r="AM319">
+        <v>151</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -40742,6 +41701,9 @@
       <c r="AL320">
         <v>6</v>
       </c>
+      <c r="AM320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -40868,6 +41830,9 @@
       <c r="AL321">
         <v>5</v>
       </c>
+      <c r="AM321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -40994,6 +41959,9 @@
       <c r="AL322">
         <v>1</v>
       </c>
+      <c r="AM322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -41120,6 +42088,9 @@
       <c r="AL323">
         <v>3</v>
       </c>
+      <c r="AM323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -41246,6 +42217,9 @@
       <c r="AL324">
         <v>15</v>
       </c>
+      <c r="AM324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -41372,6 +42346,9 @@
       <c r="AL325">
         <v>1</v>
       </c>
+      <c r="AM325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -41498,6 +42475,9 @@
       <c r="AL326">
         <v>1</v>
       </c>
+      <c r="AM326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -41624,6 +42604,9 @@
       <c r="AL327">
         <v>0</v>
       </c>
+      <c r="AM327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -41750,6 +42733,9 @@
       <c r="AL328">
         <v>0</v>
       </c>
+      <c r="AM328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -41876,6 +42862,9 @@
       <c r="AL329">
         <v>3</v>
       </c>
+      <c r="AM329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -42002,6 +42991,9 @@
       <c r="AL330">
         <v>1</v>
       </c>
+      <c r="AM330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -42128,6 +43120,9 @@
       <c r="AL331">
         <v>2</v>
       </c>
+      <c r="AM331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -42254,6 +43249,9 @@
       <c r="AL332">
         <v>0</v>
       </c>
+      <c r="AM332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -42380,6 +43378,9 @@
       <c r="AL333">
         <v>0</v>
       </c>
+      <c r="AM333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -42506,6 +43507,9 @@
       <c r="AL334">
         <v>0</v>
       </c>
+      <c r="AM334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -42632,6 +43636,9 @@
       <c r="AL335">
         <v>16</v>
       </c>
+      <c r="AM335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -42758,6 +43765,9 @@
       <c r="AL336">
         <v>2</v>
       </c>
+      <c r="AM336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -42884,6 +43894,9 @@
       <c r="AL337">
         <v>1</v>
       </c>
+      <c r="AM337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -43010,6 +44023,9 @@
       <c r="AL338">
         <v>2</v>
       </c>
+      <c r="AM338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -43136,6 +44152,9 @@
       <c r="AL339">
         <v>0</v>
       </c>
+      <c r="AM339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -43262,6 +44281,9 @@
       <c r="AL340">
         <v>0</v>
       </c>
+      <c r="AM340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -43388,6 +44410,9 @@
       <c r="AL341">
         <v>1</v>
       </c>
+      <c r="AM341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -43514,6 +44539,9 @@
       <c r="AL342">
         <v>2</v>
       </c>
+      <c r="AM342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -43640,6 +44668,9 @@
       <c r="AL343">
         <v>0</v>
       </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -43766,6 +44797,9 @@
       <c r="AL344">
         <v>1</v>
       </c>
+      <c r="AM344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -43892,6 +44926,9 @@
       <c r="AL345">
         <v>0</v>
       </c>
+      <c r="AM345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -44018,6 +45055,9 @@
       <c r="AL346">
         <v>0</v>
       </c>
+      <c r="AM346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -44144,6 +45184,9 @@
       <c r="AL347">
         <v>3</v>
       </c>
+      <c r="AM347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -44270,6 +45313,9 @@
       <c r="AL348">
         <v>2</v>
       </c>
+      <c r="AM348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -44396,6 +45442,9 @@
       <c r="AL349">
         <v>4</v>
       </c>
+      <c r="AM349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -44522,6 +45571,9 @@
       <c r="AL350">
         <v>1</v>
       </c>
+      <c r="AM350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -44648,6 +45700,9 @@
       <c r="AL351">
         <v>0</v>
       </c>
+      <c r="AM351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -44774,6 +45829,9 @@
       <c r="AL352">
         <v>0</v>
       </c>
+      <c r="AM352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -44900,6 +45958,9 @@
       <c r="AL353">
         <v>0</v>
       </c>
+      <c r="AM353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -45026,6 +46087,9 @@
       <c r="AL354">
         <v>1</v>
       </c>
+      <c r="AM354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -45152,6 +46216,9 @@
       <c r="AL355">
         <v>1</v>
       </c>
+      <c r="AM355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -45278,6 +46345,9 @@
       <c r="AL356">
         <v>0</v>
       </c>
+      <c r="AM356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -45404,6 +46474,9 @@
       <c r="AL357">
         <v>4</v>
       </c>
+      <c r="AM357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -45530,6 +46603,9 @@
       <c r="AL358">
         <v>0</v>
       </c>
+      <c r="AM358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -45654,6 +46730,9 @@
         <v>0</v>
       </c>
       <c r="AL359">
+        <v>0</v>
+      </c>
+      <c r="AM359">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM359"/>
+  <dimension ref="A1:AN359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,6 +553,11 @@
           <t>2020-04-27</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -682,6 +687,9 @@
       <c r="AM2">
         <v>2323</v>
       </c>
+      <c r="AN2">
+        <v>2338</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -811,6 +819,9 @@
       <c r="AM3">
         <v>14</v>
       </c>
+      <c r="AN3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -940,6 +951,9 @@
       <c r="AM4">
         <v>132</v>
       </c>
+      <c r="AN4">
+        <v>132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1069,6 +1083,9 @@
       <c r="AM5">
         <v>51</v>
       </c>
+      <c r="AN5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1198,6 +1215,9 @@
       <c r="AM6">
         <v>47</v>
       </c>
+      <c r="AN6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1327,6 +1347,9 @@
       <c r="AM7">
         <v>5</v>
       </c>
+      <c r="AN7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1456,6 +1479,9 @@
       <c r="AM8">
         <v>1</v>
       </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1585,6 +1611,9 @@
       <c r="AM9">
         <v>0</v>
       </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1714,6 +1743,9 @@
       <c r="AM10">
         <v>7</v>
       </c>
+      <c r="AN10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1843,6 +1875,9 @@
       <c r="AM11">
         <v>6</v>
       </c>
+      <c r="AN11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1972,6 +2007,9 @@
       <c r="AM12">
         <v>12</v>
       </c>
+      <c r="AN12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2101,6 +2139,9 @@
       <c r="AM13">
         <v>13</v>
       </c>
+      <c r="AN13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2230,6 +2271,9 @@
       <c r="AM14">
         <v>16</v>
       </c>
+      <c r="AN14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2359,6 +2403,9 @@
       <c r="AM15">
         <v>11</v>
       </c>
+      <c r="AN15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2488,6 +2535,9 @@
       <c r="AM16">
         <v>13</v>
       </c>
+      <c r="AN16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2617,6 +2667,9 @@
       <c r="AM17">
         <v>0</v>
       </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2746,6 +2799,9 @@
       <c r="AM18">
         <v>0</v>
       </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2875,6 +2931,9 @@
       <c r="AM19">
         <v>3</v>
       </c>
+      <c r="AN19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3004,6 +3063,9 @@
       <c r="AM20">
         <v>0</v>
       </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3133,6 +3195,9 @@
       <c r="AM21">
         <v>1</v>
       </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3262,6 +3327,9 @@
       <c r="AM22">
         <v>20</v>
       </c>
+      <c r="AN22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3391,6 +3459,9 @@
       <c r="AM23">
         <v>37</v>
       </c>
+      <c r="AN23">
+        <v>59</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3520,6 +3591,9 @@
       <c r="AM24">
         <v>0</v>
       </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3649,6 +3723,9 @@
       <c r="AM25">
         <v>11</v>
       </c>
+      <c r="AN25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3778,6 +3855,9 @@
       <c r="AM26">
         <v>18</v>
       </c>
+      <c r="AN26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3907,6 +3987,9 @@
       <c r="AM27">
         <v>13</v>
       </c>
+      <c r="AN27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4036,6 +4119,9 @@
       <c r="AM28">
         <v>27</v>
       </c>
+      <c r="AN28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4165,6 +4251,9 @@
       <c r="AM29">
         <v>1</v>
       </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4294,6 +4383,9 @@
       <c r="AM30">
         <v>4</v>
       </c>
+      <c r="AN30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4423,6 +4515,9 @@
       <c r="AM31">
         <v>3</v>
       </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4552,6 +4647,9 @@
       <c r="AM32">
         <v>8</v>
       </c>
+      <c r="AN32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4681,6 +4779,9 @@
       <c r="AM33">
         <v>2</v>
       </c>
+      <c r="AN33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4810,6 +4911,9 @@
       <c r="AM34">
         <v>6</v>
       </c>
+      <c r="AN34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4939,6 +5043,9 @@
       <c r="AM35">
         <v>0</v>
       </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5068,6 +5175,9 @@
       <c r="AM36">
         <v>1</v>
       </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5197,6 +5307,9 @@
       <c r="AM37">
         <v>6</v>
       </c>
+      <c r="AN37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5326,6 +5439,9 @@
       <c r="AM38">
         <v>5</v>
       </c>
+      <c r="AN38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5455,6 +5571,9 @@
       <c r="AM39">
         <v>1</v>
       </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5584,6 +5703,9 @@
       <c r="AM40">
         <v>10</v>
       </c>
+      <c r="AN40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5713,6 +5835,9 @@
       <c r="AM41">
         <v>0</v>
       </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5842,6 +5967,9 @@
       <c r="AM42">
         <v>0</v>
       </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5971,6 +6099,9 @@
       <c r="AM43">
         <v>0</v>
       </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6100,6 +6231,9 @@
       <c r="AM44">
         <v>1</v>
       </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6229,6 +6363,9 @@
       <c r="AM45">
         <v>2</v>
       </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6358,6 +6495,9 @@
       <c r="AM46">
         <v>2</v>
       </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6487,6 +6627,9 @@
       <c r="AM47">
         <v>0</v>
       </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6616,6 +6759,9 @@
       <c r="AM48">
         <v>3</v>
       </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6745,6 +6891,9 @@
       <c r="AM49">
         <v>4</v>
       </c>
+      <c r="AN49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6874,6 +7023,9 @@
       <c r="AM50">
         <v>1</v>
       </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7003,6 +7155,9 @@
       <c r="AM51">
         <v>3</v>
       </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7132,6 +7287,9 @@
       <c r="AM52">
         <v>38</v>
       </c>
+      <c r="AN52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7261,6 +7419,9 @@
       <c r="AM53">
         <v>6</v>
       </c>
+      <c r="AN53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7390,6 +7551,9 @@
       <c r="AM54">
         <v>0</v>
       </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7519,6 +7683,9 @@
       <c r="AM55">
         <v>2</v>
       </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7648,6 +7815,9 @@
       <c r="AM56">
         <v>5</v>
       </c>
+      <c r="AN56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7777,6 +7947,9 @@
       <c r="AM57">
         <v>3</v>
       </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7906,6 +8079,9 @@
       <c r="AM58">
         <v>0</v>
       </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8035,6 +8211,9 @@
       <c r="AM59">
         <v>0</v>
       </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8164,6 +8343,9 @@
       <c r="AM60">
         <v>2</v>
       </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8293,6 +8475,9 @@
       <c r="AM61">
         <v>4</v>
       </c>
+      <c r="AN61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8422,6 +8607,9 @@
       <c r="AM62">
         <v>1</v>
       </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8551,6 +8739,9 @@
       <c r="AM63">
         <v>1</v>
       </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8680,6 +8871,9 @@
       <c r="AM64">
         <v>0</v>
       </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8809,6 +9003,9 @@
       <c r="AM65">
         <v>5</v>
       </c>
+      <c r="AN65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8938,6 +9135,9 @@
       <c r="AM66">
         <v>0</v>
       </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9067,6 +9267,9 @@
       <c r="AM67">
         <v>0</v>
       </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9196,6 +9399,9 @@
       <c r="AM68">
         <v>4</v>
       </c>
+      <c r="AN68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9325,6 +9531,9 @@
       <c r="AM69">
         <v>0</v>
       </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9454,6 +9663,9 @@
       <c r="AM70">
         <v>0</v>
       </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9583,6 +9795,9 @@
       <c r="AM71">
         <v>0</v>
       </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9712,6 +9927,9 @@
       <c r="AM72">
         <v>5</v>
       </c>
+      <c r="AN72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9841,6 +10059,9 @@
       <c r="AM73">
         <v>0</v>
       </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9970,6 +10191,9 @@
       <c r="AM74">
         <v>0</v>
       </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10099,6 +10323,9 @@
       <c r="AM75">
         <v>0</v>
       </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10228,6 +10455,9 @@
       <c r="AM76">
         <v>2</v>
       </c>
+      <c r="AN76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10357,6 +10587,9 @@
       <c r="AM77">
         <v>0</v>
       </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10486,6 +10719,9 @@
       <c r="AM78">
         <v>1</v>
       </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10615,6 +10851,9 @@
       <c r="AM79">
         <v>0</v>
       </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10744,6 +10983,9 @@
       <c r="AM80">
         <v>0</v>
       </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10873,6 +11115,9 @@
       <c r="AM81">
         <v>0</v>
       </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11002,6 +11247,9 @@
       <c r="AM82">
         <v>0</v>
       </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11131,6 +11379,9 @@
       <c r="AM83">
         <v>6</v>
       </c>
+      <c r="AN83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11260,6 +11511,9 @@
       <c r="AM84">
         <v>13</v>
       </c>
+      <c r="AN84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11389,6 +11643,9 @@
       <c r="AM85">
         <v>3</v>
       </c>
+      <c r="AN85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11518,6 +11775,9 @@
       <c r="AM86">
         <v>5</v>
       </c>
+      <c r="AN86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11647,6 +11907,9 @@
       <c r="AM87">
         <v>0</v>
       </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11776,6 +12039,9 @@
       <c r="AM88">
         <v>0</v>
       </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11905,6 +12171,9 @@
       <c r="AM89">
         <v>6</v>
       </c>
+      <c r="AN89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12034,6 +12303,9 @@
       <c r="AM90">
         <v>0</v>
       </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12163,6 +12435,9 @@
       <c r="AM91">
         <v>1</v>
       </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12292,6 +12567,9 @@
       <c r="AM92">
         <v>0</v>
       </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12421,6 +12699,9 @@
       <c r="AM93">
         <v>35</v>
       </c>
+      <c r="AN93">
+        <v>35</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12550,6 +12831,9 @@
       <c r="AM94">
         <v>95</v>
       </c>
+      <c r="AN94">
+        <v>95</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12679,6 +12963,9 @@
       <c r="AM95">
         <v>63</v>
       </c>
+      <c r="AN95">
+        <v>64</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12808,6 +13095,9 @@
       <c r="AM96">
         <v>87</v>
       </c>
+      <c r="AN96">
+        <v>87</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12937,6 +13227,9 @@
       <c r="AM97">
         <v>172</v>
       </c>
+      <c r="AN97">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13066,6 +13359,9 @@
       <c r="AM98">
         <v>21</v>
       </c>
+      <c r="AN98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13195,6 +13491,9 @@
       <c r="AM99">
         <v>10</v>
       </c>
+      <c r="AN99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13324,6 +13623,9 @@
       <c r="AM100">
         <v>2</v>
       </c>
+      <c r="AN100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13453,6 +13755,9 @@
       <c r="AM101">
         <v>2</v>
       </c>
+      <c r="AN101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13582,6 +13887,9 @@
       <c r="AM102">
         <v>3</v>
       </c>
+      <c r="AN102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13711,6 +14019,9 @@
       <c r="AM103">
         <v>48</v>
       </c>
+      <c r="AN103">
+        <v>48</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13840,6 +14151,9 @@
       <c r="AM104">
         <v>2</v>
       </c>
+      <c r="AN104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13969,6 +14283,9 @@
       <c r="AM105">
         <v>1</v>
       </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14098,6 +14415,9 @@
       <c r="AM106">
         <v>2</v>
       </c>
+      <c r="AN106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14227,6 +14547,9 @@
       <c r="AM107">
         <v>6</v>
       </c>
+      <c r="AN107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14356,6 +14679,9 @@
       <c r="AM108">
         <v>23</v>
       </c>
+      <c r="AN108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14485,6 +14811,9 @@
       <c r="AM109">
         <v>98</v>
       </c>
+      <c r="AN109">
+        <v>98</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14614,6 +14943,9 @@
       <c r="AM110">
         <v>18</v>
       </c>
+      <c r="AN110">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14743,6 +15075,9 @@
       <c r="AM111">
         <v>21</v>
       </c>
+      <c r="AN111">
+        <v>22</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14872,6 +15207,9 @@
       <c r="AM112">
         <v>47</v>
       </c>
+      <c r="AN112">
+        <v>47</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15001,6 +15339,9 @@
       <c r="AM113">
         <v>406</v>
       </c>
+      <c r="AN113">
+        <v>407</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15130,6 +15471,9 @@
       <c r="AM114">
         <v>176</v>
       </c>
+      <c r="AN114">
+        <v>176</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15259,6 +15603,9 @@
       <c r="AM115">
         <v>9</v>
       </c>
+      <c r="AN115">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15388,6 +15735,9 @@
       <c r="AM116">
         <v>25</v>
       </c>
+      <c r="AN116">
+        <v>25</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15517,6 +15867,9 @@
       <c r="AM117">
         <v>49</v>
       </c>
+      <c r="AN117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15646,6 +15999,9 @@
       <c r="AM118">
         <v>92</v>
       </c>
+      <c r="AN118">
+        <v>92</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15775,6 +16131,9 @@
       <c r="AM119">
         <v>153</v>
       </c>
+      <c r="AN119">
+        <v>156</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15904,6 +16263,9 @@
       <c r="AM120">
         <v>45</v>
       </c>
+      <c r="AN120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16033,6 +16395,9 @@
       <c r="AM121">
         <v>8</v>
       </c>
+      <c r="AN121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16162,6 +16527,9 @@
       <c r="AM122">
         <v>58</v>
       </c>
+      <c r="AN122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16291,6 +16659,9 @@
       <c r="AM123">
         <v>14</v>
       </c>
+      <c r="AN123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16420,6 +16791,9 @@
       <c r="AM124">
         <v>39</v>
       </c>
+      <c r="AN124">
+        <v>39</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16549,6 +16923,9 @@
       <c r="AM125">
         <v>17</v>
       </c>
+      <c r="AN125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16678,6 +17055,9 @@
       <c r="AM126">
         <v>2</v>
       </c>
+      <c r="AN126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16807,6 +17187,9 @@
       <c r="AM127">
         <v>10</v>
       </c>
+      <c r="AN127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16936,6 +17319,9 @@
       <c r="AM128">
         <v>1</v>
       </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17065,6 +17451,9 @@
       <c r="AM129">
         <v>7</v>
       </c>
+      <c r="AN129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -17194,6 +17583,9 @@
       <c r="AM130">
         <v>10</v>
       </c>
+      <c r="AN130">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -17323,6 +17715,9 @@
       <c r="AM131">
         <v>8</v>
       </c>
+      <c r="AN131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17452,6 +17847,9 @@
       <c r="AM132">
         <v>13</v>
       </c>
+      <c r="AN132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17581,6 +17979,9 @@
       <c r="AM133">
         <v>44</v>
       </c>
+      <c r="AN133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17710,6 +18111,9 @@
       <c r="AM134">
         <v>0</v>
       </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -17839,6 +18243,9 @@
       <c r="AM135">
         <v>0</v>
       </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17968,6 +18375,9 @@
       <c r="AM136">
         <v>10</v>
       </c>
+      <c r="AN136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -18097,6 +18507,9 @@
       <c r="AM137">
         <v>5</v>
       </c>
+      <c r="AN137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -18226,6 +18639,9 @@
       <c r="AM138">
         <v>42</v>
       </c>
+      <c r="AN138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -18355,6 +18771,9 @@
       <c r="AM139">
         <v>4</v>
       </c>
+      <c r="AN139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -18484,6 +18903,9 @@
       <c r="AM140">
         <v>1</v>
       </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -18613,6 +19035,9 @@
       <c r="AM141">
         <v>3</v>
       </c>
+      <c r="AN141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -18742,6 +19167,9 @@
       <c r="AM142">
         <v>6</v>
       </c>
+      <c r="AN142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -18871,6 +19299,9 @@
       <c r="AM143">
         <v>11</v>
       </c>
+      <c r="AN143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -19000,6 +19431,9 @@
       <c r="AM144">
         <v>1</v>
       </c>
+      <c r="AN144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -19129,6 +19563,9 @@
       <c r="AM145">
         <v>82</v>
       </c>
+      <c r="AN145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -19258,6 +19695,9 @@
       <c r="AM146">
         <v>38</v>
       </c>
+      <c r="AN146">
+        <v>38</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -19387,6 +19827,9 @@
       <c r="AM147">
         <v>22</v>
       </c>
+      <c r="AN147">
+        <v>22</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -19516,6 +19959,9 @@
       <c r="AM148">
         <v>61</v>
       </c>
+      <c r="AN148">
+        <v>62</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -19645,6 +20091,9 @@
       <c r="AM149">
         <v>11</v>
       </c>
+      <c r="AN149">
+        <v>11</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -19774,6 +20223,9 @@
       <c r="AM150">
         <v>35</v>
       </c>
+      <c r="AN150">
+        <v>35</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -19903,6 +20355,9 @@
       <c r="AM151">
         <v>0</v>
       </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -20032,6 +20487,9 @@
       <c r="AM152">
         <v>20</v>
       </c>
+      <c r="AN152">
+        <v>20</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -20161,6 +20619,9 @@
       <c r="AM153">
         <v>4</v>
       </c>
+      <c r="AN153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -20290,6 +20751,9 @@
       <c r="AM154">
         <v>5</v>
       </c>
+      <c r="AN154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -20419,6 +20883,9 @@
       <c r="AM155">
         <v>3</v>
       </c>
+      <c r="AN155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -20548,6 +21015,9 @@
       <c r="AM156">
         <v>3</v>
       </c>
+      <c r="AN156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -20677,6 +21147,9 @@
       <c r="AM157">
         <v>16</v>
       </c>
+      <c r="AN157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -20806,6 +21279,9 @@
       <c r="AM158">
         <v>2</v>
       </c>
+      <c r="AN158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -20935,6 +21411,9 @@
       <c r="AM159">
         <v>4</v>
       </c>
+      <c r="AN159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -21064,6 +21543,9 @@
       <c r="AM160">
         <v>0</v>
       </c>
+      <c r="AN160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -21193,6 +21675,9 @@
       <c r="AM161">
         <v>0</v>
       </c>
+      <c r="AN161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -21322,6 +21807,9 @@
       <c r="AM162">
         <v>2</v>
       </c>
+      <c r="AN162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -21451,6 +21939,9 @@
       <c r="AM163">
         <v>0</v>
       </c>
+      <c r="AN163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -21580,6 +22071,9 @@
       <c r="AM164">
         <v>0</v>
       </c>
+      <c r="AN164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -21709,6 +22203,9 @@
       <c r="AM165">
         <v>1</v>
       </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -21838,6 +22335,9 @@
       <c r="AM166">
         <v>0</v>
       </c>
+      <c r="AN166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -21967,6 +22467,9 @@
       <c r="AM167">
         <v>1</v>
       </c>
+      <c r="AN167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -22096,6 +22599,9 @@
       <c r="AM168">
         <v>5</v>
       </c>
+      <c r="AN168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -22225,6 +22731,9 @@
       <c r="AM169">
         <v>2</v>
       </c>
+      <c r="AN169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -22354,6 +22863,9 @@
       <c r="AM170">
         <v>1</v>
       </c>
+      <c r="AN170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -22483,6 +22995,9 @@
       <c r="AM171">
         <v>3</v>
       </c>
+      <c r="AN171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -22612,6 +23127,9 @@
       <c r="AM172">
         <v>2</v>
       </c>
+      <c r="AN172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -22741,6 +23259,9 @@
       <c r="AM173">
         <v>13</v>
       </c>
+      <c r="AN173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -22870,6 +23391,9 @@
       <c r="AM174">
         <v>36</v>
       </c>
+      <c r="AN174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -22999,6 +23523,9 @@
       <c r="AM175">
         <v>1</v>
       </c>
+      <c r="AN175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -23128,6 +23655,9 @@
       <c r="AM176">
         <v>8</v>
       </c>
+      <c r="AN176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -23257,6 +23787,9 @@
       <c r="AM177">
         <v>2</v>
       </c>
+      <c r="AN177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -23386,6 +23919,9 @@
       <c r="AM178">
         <v>6</v>
       </c>
+      <c r="AN178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -23515,6 +24051,9 @@
       <c r="AM179">
         <v>4</v>
       </c>
+      <c r="AN179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -23644,6 +24183,9 @@
       <c r="AM180">
         <v>12</v>
       </c>
+      <c r="AN180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -23773,6 +24315,9 @@
       <c r="AM181">
         <v>11</v>
       </c>
+      <c r="AN181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -23902,6 +24447,9 @@
       <c r="AM182">
         <v>2</v>
       </c>
+      <c r="AN182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -24031,6 +24579,9 @@
       <c r="AM183">
         <v>1</v>
       </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -24160,6 +24711,9 @@
       <c r="AM184">
         <v>0</v>
       </c>
+      <c r="AN184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -24289,6 +24843,9 @@
       <c r="AM185">
         <v>1</v>
       </c>
+      <c r="AN185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -24418,6 +24975,9 @@
       <c r="AM186">
         <v>9</v>
       </c>
+      <c r="AN186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -24547,6 +25107,9 @@
       <c r="AM187">
         <v>0</v>
       </c>
+      <c r="AN187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -24676,6 +25239,9 @@
       <c r="AM188">
         <v>0</v>
       </c>
+      <c r="AN188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -24805,6 +25371,9 @@
       <c r="AM189">
         <v>0</v>
       </c>
+      <c r="AN189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -24934,6 +25503,9 @@
       <c r="AM190">
         <v>25</v>
       </c>
+      <c r="AN190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -25063,6 +25635,9 @@
       <c r="AM191">
         <v>20</v>
       </c>
+      <c r="AN191">
+        <v>20</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -25192,6 +25767,9 @@
       <c r="AM192">
         <v>57</v>
       </c>
+      <c r="AN192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -25321,6 +25899,9 @@
       <c r="AM193">
         <v>38</v>
       </c>
+      <c r="AN193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -25450,6 +26031,9 @@
       <c r="AM194">
         <v>36</v>
       </c>
+      <c r="AN194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -25579,6 +26163,9 @@
       <c r="AM195">
         <v>10</v>
       </c>
+      <c r="AN195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -25708,6 +26295,9 @@
       <c r="AM196">
         <v>40</v>
       </c>
+      <c r="AN196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -25837,6 +26427,9 @@
       <c r="AM197">
         <v>4</v>
       </c>
+      <c r="AN197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -25966,6 +26559,9 @@
       <c r="AM198">
         <v>22</v>
       </c>
+      <c r="AN198">
+        <v>22</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -26095,6 +26691,9 @@
       <c r="AM199">
         <v>2</v>
       </c>
+      <c r="AN199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -26224,6 +26823,9 @@
       <c r="AM200">
         <v>5</v>
       </c>
+      <c r="AN200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -26353,6 +26955,9 @@
       <c r="AM201">
         <v>2</v>
       </c>
+      <c r="AN201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -26482,6 +27087,9 @@
       <c r="AM202">
         <v>1</v>
       </c>
+      <c r="AN202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -26611,6 +27219,9 @@
       <c r="AM203">
         <v>5</v>
       </c>
+      <c r="AN203">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -26740,6 +27351,9 @@
       <c r="AM204">
         <v>0</v>
       </c>
+      <c r="AN204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -26869,6 +27483,9 @@
       <c r="AM205">
         <v>1</v>
       </c>
+      <c r="AN205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -26998,6 +27615,9 @@
       <c r="AM206">
         <v>1</v>
       </c>
+      <c r="AN206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -27127,6 +27747,9 @@
       <c r="AM207">
         <v>0</v>
       </c>
+      <c r="AN207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -27256,6 +27879,9 @@
       <c r="AM208">
         <v>0</v>
       </c>
+      <c r="AN208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -27385,6 +28011,9 @@
       <c r="AM209">
         <v>0</v>
       </c>
+      <c r="AN209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -27514,6 +28143,9 @@
       <c r="AM210">
         <v>0</v>
       </c>
+      <c r="AN210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -27643,6 +28275,9 @@
       <c r="AM211">
         <v>0</v>
       </c>
+      <c r="AN211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -27772,6 +28407,9 @@
       <c r="AM212">
         <v>2</v>
       </c>
+      <c r="AN212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -27901,6 +28539,9 @@
       <c r="AM213">
         <v>0</v>
       </c>
+      <c r="AN213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -28030,6 +28671,9 @@
       <c r="AM214">
         <v>2</v>
       </c>
+      <c r="AN214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -28159,6 +28803,9 @@
       <c r="AM215">
         <v>30</v>
       </c>
+      <c r="AN215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -28288,6 +28935,9 @@
       <c r="AM216">
         <v>213</v>
       </c>
+      <c r="AN216">
+        <v>216</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -28417,6 +29067,9 @@
       <c r="AM217">
         <v>9</v>
       </c>
+      <c r="AN217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -28546,6 +29199,9 @@
       <c r="AM218">
         <v>11</v>
       </c>
+      <c r="AN218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -28675,6 +29331,9 @@
       <c r="AM219">
         <v>0</v>
       </c>
+      <c r="AN219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -28804,6 +29463,9 @@
       <c r="AM220">
         <v>2</v>
       </c>
+      <c r="AN220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -28933,6 +29595,9 @@
       <c r="AM221">
         <v>0</v>
       </c>
+      <c r="AN221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -29062,6 +29727,9 @@
       <c r="AM222">
         <v>1</v>
       </c>
+      <c r="AN222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -29191,6 +29859,9 @@
       <c r="AM223">
         <v>2</v>
       </c>
+      <c r="AN223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -29320,6 +29991,9 @@
       <c r="AM224">
         <v>8</v>
       </c>
+      <c r="AN224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -29449,6 +30123,9 @@
       <c r="AM225">
         <v>3</v>
       </c>
+      <c r="AN225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -29578,6 +30255,9 @@
       <c r="AM226">
         <v>1</v>
       </c>
+      <c r="AN226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -29707,6 +30387,9 @@
       <c r="AM227">
         <v>2</v>
       </c>
+      <c r="AN227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -29836,6 +30519,9 @@
       <c r="AM228">
         <v>2</v>
       </c>
+      <c r="AN228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -29965,6 +30651,9 @@
       <c r="AM229">
         <v>2</v>
       </c>
+      <c r="AN229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -30094,6 +30783,9 @@
       <c r="AM230">
         <v>0</v>
       </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -30223,6 +30915,9 @@
       <c r="AM231">
         <v>3</v>
       </c>
+      <c r="AN231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -30352,6 +31047,9 @@
       <c r="AM232">
         <v>21</v>
       </c>
+      <c r="AN232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -30481,6 +31179,9 @@
       <c r="AM233">
         <v>0</v>
       </c>
+      <c r="AN233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -30610,6 +31311,9 @@
       <c r="AM234">
         <v>4</v>
       </c>
+      <c r="AN234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -30739,6 +31443,9 @@
       <c r="AM235">
         <v>1</v>
       </c>
+      <c r="AN235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -30868,6 +31575,9 @@
       <c r="AM236">
         <v>1</v>
       </c>
+      <c r="AN236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -30997,6 +31707,9 @@
       <c r="AM237">
         <v>1</v>
       </c>
+      <c r="AN237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -31126,6 +31839,9 @@
       <c r="AM238">
         <v>531</v>
       </c>
+      <c r="AN238">
+        <v>533</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -31255,6 +31971,9 @@
       <c r="AM239">
         <v>9</v>
       </c>
+      <c r="AN239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -31384,6 +32103,9 @@
       <c r="AM240">
         <v>4</v>
       </c>
+      <c r="AN240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -31513,6 +32235,9 @@
       <c r="AM241">
         <v>4</v>
       </c>
+      <c r="AN241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -31642,6 +32367,9 @@
       <c r="AM242">
         <v>4</v>
       </c>
+      <c r="AN242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -31771,6 +32499,9 @@
       <c r="AM243">
         <v>6</v>
       </c>
+      <c r="AN243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -31900,6 +32631,9 @@
       <c r="AM244">
         <v>8</v>
       </c>
+      <c r="AN244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -32029,6 +32763,9 @@
       <c r="AM245">
         <v>0</v>
       </c>
+      <c r="AN245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -32158,6 +32895,9 @@
       <c r="AM246">
         <v>4</v>
       </c>
+      <c r="AN246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -32287,6 +33027,9 @@
       <c r="AM247">
         <v>0</v>
       </c>
+      <c r="AN247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -32416,6 +33159,9 @@
       <c r="AM248">
         <v>0</v>
       </c>
+      <c r="AN248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -32545,6 +33291,9 @@
       <c r="AM249">
         <v>2</v>
       </c>
+      <c r="AN249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -32674,6 +33423,9 @@
       <c r="AM250">
         <v>24</v>
       </c>
+      <c r="AN250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -32803,6 +33555,9 @@
       <c r="AM251">
         <v>9</v>
       </c>
+      <c r="AN251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -32932,6 +33687,9 @@
       <c r="AM252">
         <v>0</v>
       </c>
+      <c r="AN252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -33061,6 +33819,9 @@
       <c r="AM253">
         <v>17</v>
       </c>
+      <c r="AN253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -33190,6 +33951,9 @@
       <c r="AM254">
         <v>5</v>
       </c>
+      <c r="AN254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -33319,6 +34083,9 @@
       <c r="AM255">
         <v>53</v>
       </c>
+      <c r="AN255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -33448,6 +34215,9 @@
       <c r="AM256">
         <v>36</v>
       </c>
+      <c r="AN256">
+        <v>40</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -33577,6 +34347,9 @@
       <c r="AM257">
         <v>1</v>
       </c>
+      <c r="AN257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -33706,6 +34479,9 @@
       <c r="AM258">
         <v>0</v>
       </c>
+      <c r="AN258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -33835,6 +34611,9 @@
       <c r="AM259">
         <v>40</v>
       </c>
+      <c r="AN259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -33964,6 +34743,9 @@
       <c r="AM260">
         <v>26</v>
       </c>
+      <c r="AN260">
+        <v>26</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -34093,6 +34875,9 @@
       <c r="AM261">
         <v>0</v>
       </c>
+      <c r="AN261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -34222,6 +35007,9 @@
       <c r="AM262">
         <v>0</v>
       </c>
+      <c r="AN262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -34351,6 +35139,9 @@
       <c r="AM263">
         <v>0</v>
       </c>
+      <c r="AN263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -34480,6 +35271,9 @@
       <c r="AM264">
         <v>1</v>
       </c>
+      <c r="AN264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -34609,6 +35403,9 @@
       <c r="AM265">
         <v>3</v>
       </c>
+      <c r="AN265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -34738,6 +35535,9 @@
       <c r="AM266">
         <v>0</v>
       </c>
+      <c r="AN266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -34867,6 +35667,9 @@
       <c r="AM267">
         <v>3</v>
       </c>
+      <c r="AN267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -34996,6 +35799,9 @@
       <c r="AM268">
         <v>0</v>
       </c>
+      <c r="AN268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -35125,6 +35931,9 @@
       <c r="AM269">
         <v>7</v>
       </c>
+      <c r="AN269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -35254,6 +36063,9 @@
       <c r="AM270">
         <v>0</v>
       </c>
+      <c r="AN270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -35383,6 +36195,9 @@
       <c r="AM271">
         <v>0</v>
       </c>
+      <c r="AN271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -35512,6 +36327,9 @@
       <c r="AM272">
         <v>1</v>
       </c>
+      <c r="AN272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -35641,6 +36459,9 @@
       <c r="AM273">
         <v>4</v>
       </c>
+      <c r="AN273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -35770,6 +36591,9 @@
       <c r="AM274">
         <v>0</v>
       </c>
+      <c r="AN274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -35899,6 +36723,9 @@
       <c r="AM275">
         <v>0</v>
       </c>
+      <c r="AN275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -36028,6 +36855,9 @@
       <c r="AM276">
         <v>17</v>
       </c>
+      <c r="AN276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -36157,6 +36987,9 @@
       <c r="AM277">
         <v>0</v>
       </c>
+      <c r="AN277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -36286,6 +37119,9 @@
       <c r="AM278">
         <v>0</v>
       </c>
+      <c r="AN278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -36415,6 +37251,9 @@
       <c r="AM279">
         <v>4</v>
       </c>
+      <c r="AN279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -36544,6 +37383,9 @@
       <c r="AM280">
         <v>12</v>
       </c>
+      <c r="AN280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -36673,6 +37515,9 @@
       <c r="AM281">
         <v>268</v>
       </c>
+      <c r="AN281">
+        <v>279</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -36802,6 +37647,9 @@
       <c r="AM282">
         <v>16</v>
       </c>
+      <c r="AN282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -36931,6 +37779,9 @@
       <c r="AM283">
         <v>5</v>
       </c>
+      <c r="AN283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -37060,6 +37911,9 @@
       <c r="AM284">
         <v>0</v>
       </c>
+      <c r="AN284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -37189,6 +38043,9 @@
       <c r="AM285">
         <v>0</v>
       </c>
+      <c r="AN285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -37318,6 +38175,9 @@
       <c r="AM286">
         <v>8</v>
       </c>
+      <c r="AN286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -37447,6 +38307,9 @@
       <c r="AM287">
         <v>5</v>
       </c>
+      <c r="AN287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -37576,6 +38439,9 @@
       <c r="AM288">
         <v>0</v>
       </c>
+      <c r="AN288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -37705,6 +38571,9 @@
       <c r="AM289">
         <v>1</v>
       </c>
+      <c r="AN289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -37834,6 +38703,9 @@
       <c r="AM290">
         <v>7</v>
       </c>
+      <c r="AN290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -37963,6 +38835,9 @@
       <c r="AM291">
         <v>3</v>
       </c>
+      <c r="AN291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -38092,6 +38967,9 @@
       <c r="AM292">
         <v>5</v>
       </c>
+      <c r="AN292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -38221,6 +39099,9 @@
       <c r="AM293">
         <v>11</v>
       </c>
+      <c r="AN293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -38350,6 +39231,9 @@
       <c r="AM294">
         <v>6</v>
       </c>
+      <c r="AN294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -38479,6 +39363,9 @@
       <c r="AM295">
         <v>0</v>
       </c>
+      <c r="AN295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -38608,6 +39495,9 @@
       <c r="AM296">
         <v>1</v>
       </c>
+      <c r="AN296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -38737,6 +39627,9 @@
       <c r="AM297">
         <v>8</v>
       </c>
+      <c r="AN297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -38866,6 +39759,9 @@
       <c r="AM298">
         <v>28</v>
       </c>
+      <c r="AN298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -38995,6 +39891,9 @@
       <c r="AM299">
         <v>21</v>
       </c>
+      <c r="AN299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -39124,6 +40023,9 @@
       <c r="AM300">
         <v>15</v>
       </c>
+      <c r="AN300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -39253,6 +40155,9 @@
       <c r="AM301">
         <v>1</v>
       </c>
+      <c r="AN301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -39382,6 +40287,9 @@
       <c r="AM302">
         <v>0</v>
       </c>
+      <c r="AN302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -39511,6 +40419,9 @@
       <c r="AM303">
         <v>0</v>
       </c>
+      <c r="AN303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -39640,6 +40551,9 @@
       <c r="AM304">
         <v>0</v>
       </c>
+      <c r="AN304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -39769,6 +40683,9 @@
       <c r="AM305">
         <v>3</v>
       </c>
+      <c r="AN305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -39898,6 +40815,9 @@
       <c r="AM306">
         <v>1</v>
       </c>
+      <c r="AN306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -40027,6 +40947,9 @@
       <c r="AM307">
         <v>4</v>
       </c>
+      <c r="AN307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -40156,6 +41079,9 @@
       <c r="AM308">
         <v>0</v>
       </c>
+      <c r="AN308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -40285,6 +41211,9 @@
       <c r="AM309">
         <v>0</v>
       </c>
+      <c r="AN309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -40414,6 +41343,9 @@
       <c r="AM310">
         <v>7</v>
       </c>
+      <c r="AN310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -40543,6 +41475,9 @@
       <c r="AM311">
         <v>2</v>
       </c>
+      <c r="AN311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -40672,6 +41607,9 @@
       <c r="AM312">
         <v>2</v>
       </c>
+      <c r="AN312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -40801,6 +41739,9 @@
       <c r="AM313">
         <v>2</v>
       </c>
+      <c r="AN313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -40930,6 +41871,9 @@
       <c r="AM314">
         <v>10</v>
       </c>
+      <c r="AN314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -41059,6 +42003,9 @@
       <c r="AM315">
         <v>1</v>
       </c>
+      <c r="AN315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -41188,6 +42135,9 @@
       <c r="AM316">
         <v>17</v>
       </c>
+      <c r="AN316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -41317,6 +42267,9 @@
       <c r="AM317">
         <v>0</v>
       </c>
+      <c r="AN317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -41446,6 +42399,9 @@
       <c r="AM318">
         <v>0</v>
       </c>
+      <c r="AN318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -41575,6 +42531,9 @@
       <c r="AM319">
         <v>151</v>
       </c>
+      <c r="AN319">
+        <v>152</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -41704,6 +42663,9 @@
       <c r="AM320">
         <v>6</v>
       </c>
+      <c r="AN320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -41833,6 +42795,9 @@
       <c r="AM321">
         <v>5</v>
       </c>
+      <c r="AN321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -41962,6 +42927,9 @@
       <c r="AM322">
         <v>1</v>
       </c>
+      <c r="AN322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -42091,6 +43059,9 @@
       <c r="AM323">
         <v>3</v>
       </c>
+      <c r="AN323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -42220,6 +43191,9 @@
       <c r="AM324">
         <v>15</v>
       </c>
+      <c r="AN324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -42349,6 +43323,9 @@
       <c r="AM325">
         <v>1</v>
       </c>
+      <c r="AN325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -42478,6 +43455,9 @@
       <c r="AM326">
         <v>1</v>
       </c>
+      <c r="AN326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -42607,6 +43587,9 @@
       <c r="AM327">
         <v>0</v>
       </c>
+      <c r="AN327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -42736,6 +43719,9 @@
       <c r="AM328">
         <v>0</v>
       </c>
+      <c r="AN328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -42865,6 +43851,9 @@
       <c r="AM329">
         <v>3</v>
       </c>
+      <c r="AN329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -42994,6 +43983,9 @@
       <c r="AM330">
         <v>1</v>
       </c>
+      <c r="AN330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -43123,6 +44115,9 @@
       <c r="AM331">
         <v>2</v>
       </c>
+      <c r="AN331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -43252,6 +44247,9 @@
       <c r="AM332">
         <v>0</v>
       </c>
+      <c r="AN332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -43381,6 +44379,9 @@
       <c r="AM333">
         <v>0</v>
       </c>
+      <c r="AN333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -43510,6 +44511,9 @@
       <c r="AM334">
         <v>0</v>
       </c>
+      <c r="AN334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -43639,6 +44643,9 @@
       <c r="AM335">
         <v>16</v>
       </c>
+      <c r="AN335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -43768,6 +44775,9 @@
       <c r="AM336">
         <v>2</v>
       </c>
+      <c r="AN336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -43897,6 +44907,9 @@
       <c r="AM337">
         <v>1</v>
       </c>
+      <c r="AN337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -44026,6 +45039,9 @@
       <c r="AM338">
         <v>2</v>
       </c>
+      <c r="AN338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -44155,6 +45171,9 @@
       <c r="AM339">
         <v>0</v>
       </c>
+      <c r="AN339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -44284,6 +45303,9 @@
       <c r="AM340">
         <v>0</v>
       </c>
+      <c r="AN340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -44413,6 +45435,9 @@
       <c r="AM341">
         <v>1</v>
       </c>
+      <c r="AN341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -44542,6 +45567,9 @@
       <c r="AM342">
         <v>2</v>
       </c>
+      <c r="AN342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -44671,6 +45699,9 @@
       <c r="AM343">
         <v>0</v>
       </c>
+      <c r="AN343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -44800,6 +45831,9 @@
       <c r="AM344">
         <v>1</v>
       </c>
+      <c r="AN344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -44929,6 +45963,9 @@
       <c r="AM345">
         <v>0</v>
       </c>
+      <c r="AN345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -45058,6 +46095,9 @@
       <c r="AM346">
         <v>0</v>
       </c>
+      <c r="AN346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -45187,6 +46227,9 @@
       <c r="AM347">
         <v>3</v>
       </c>
+      <c r="AN347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -45316,6 +46359,9 @@
       <c r="AM348">
         <v>2</v>
       </c>
+      <c r="AN348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -45445,6 +46491,9 @@
       <c r="AM349">
         <v>4</v>
       </c>
+      <c r="AN349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -45574,6 +46623,9 @@
       <c r="AM350">
         <v>1</v>
       </c>
+      <c r="AN350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -45703,6 +46755,9 @@
       <c r="AM351">
         <v>0</v>
       </c>
+      <c r="AN351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -45832,6 +46887,9 @@
       <c r="AM352">
         <v>0</v>
       </c>
+      <c r="AN352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -45961,6 +47019,9 @@
       <c r="AM353">
         <v>0</v>
       </c>
+      <c r="AN353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -46090,6 +47151,9 @@
       <c r="AM354">
         <v>1</v>
       </c>
+      <c r="AN354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -46219,6 +47283,9 @@
       <c r="AM355">
         <v>1</v>
       </c>
+      <c r="AN355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -46348,6 +47415,9 @@
       <c r="AM356">
         <v>0</v>
       </c>
+      <c r="AN356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -46477,6 +47547,9 @@
       <c r="AM357">
         <v>4</v>
       </c>
+      <c r="AN357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -46606,6 +47679,9 @@
       <c r="AM358">
         <v>0</v>
       </c>
+      <c r="AN358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -46733,6 +47809,9 @@
         <v>0</v>
       </c>
       <c r="AM359">
+        <v>0</v>
+      </c>
+      <c r="AN359">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN359"/>
+  <dimension ref="A1:AO359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,6 +558,11 @@
           <t>2020-04-28</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -690,6 +695,9 @@
       <c r="AN2">
         <v>2338</v>
       </c>
+      <c r="AO2">
+        <v>2353</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -822,6 +830,9 @@
       <c r="AN3">
         <v>14</v>
       </c>
+      <c r="AO3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -954,6 +965,9 @@
       <c r="AN4">
         <v>132</v>
       </c>
+      <c r="AO4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1086,6 +1100,9 @@
       <c r="AN5">
         <v>51</v>
       </c>
+      <c r="AO5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1218,6 +1235,9 @@
       <c r="AN6">
         <v>47</v>
       </c>
+      <c r="AO6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1350,6 +1370,9 @@
       <c r="AN7">
         <v>5</v>
       </c>
+      <c r="AO7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1482,6 +1505,9 @@
       <c r="AN8">
         <v>1</v>
       </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1614,6 +1640,9 @@
       <c r="AN9">
         <v>0</v>
       </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1746,6 +1775,9 @@
       <c r="AN10">
         <v>7</v>
       </c>
+      <c r="AO10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1878,6 +1910,9 @@
       <c r="AN11">
         <v>6</v>
       </c>
+      <c r="AO11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2010,6 +2045,9 @@
       <c r="AN12">
         <v>12</v>
       </c>
+      <c r="AO12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2142,6 +2180,9 @@
       <c r="AN13">
         <v>13</v>
       </c>
+      <c r="AO13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2274,6 +2315,9 @@
       <c r="AN14">
         <v>16</v>
       </c>
+      <c r="AO14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2406,6 +2450,9 @@
       <c r="AN15">
         <v>11</v>
       </c>
+      <c r="AO15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2538,6 +2585,9 @@
       <c r="AN16">
         <v>13</v>
       </c>
+      <c r="AO16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2670,6 +2720,9 @@
       <c r="AN17">
         <v>0</v>
       </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2802,6 +2855,9 @@
       <c r="AN18">
         <v>0</v>
       </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2934,6 +2990,9 @@
       <c r="AN19">
         <v>3</v>
       </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3066,6 +3125,9 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3198,6 +3260,9 @@
       <c r="AN21">
         <v>1</v>
       </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3330,6 +3395,9 @@
       <c r="AN22">
         <v>20</v>
       </c>
+      <c r="AO22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3462,6 +3530,9 @@
       <c r="AN23">
         <v>59</v>
       </c>
+      <c r="AO23">
+        <v>59</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3594,6 +3665,9 @@
       <c r="AN24">
         <v>0</v>
       </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3726,6 +3800,9 @@
       <c r="AN25">
         <v>11</v>
       </c>
+      <c r="AO25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3858,6 +3935,9 @@
       <c r="AN26">
         <v>18</v>
       </c>
+      <c r="AO26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3990,6 +4070,9 @@
       <c r="AN27">
         <v>13</v>
       </c>
+      <c r="AO27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4122,6 +4205,9 @@
       <c r="AN28">
         <v>27</v>
       </c>
+      <c r="AO28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4254,6 +4340,9 @@
       <c r="AN29">
         <v>1</v>
       </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4386,6 +4475,9 @@
       <c r="AN30">
         <v>5</v>
       </c>
+      <c r="AO30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4518,6 +4610,9 @@
       <c r="AN31">
         <v>3</v>
       </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4650,6 +4745,9 @@
       <c r="AN32">
         <v>8</v>
       </c>
+      <c r="AO32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4782,6 +4880,9 @@
       <c r="AN33">
         <v>2</v>
       </c>
+      <c r="AO33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4914,6 +5015,9 @@
       <c r="AN34">
         <v>6</v>
       </c>
+      <c r="AO34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5046,6 +5150,9 @@
       <c r="AN35">
         <v>0</v>
       </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5178,6 +5285,9 @@
       <c r="AN36">
         <v>1</v>
       </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5310,6 +5420,9 @@
       <c r="AN37">
         <v>6</v>
       </c>
+      <c r="AO37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5442,6 +5555,9 @@
       <c r="AN38">
         <v>5</v>
       </c>
+      <c r="AO38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5574,6 +5690,9 @@
       <c r="AN39">
         <v>1</v>
       </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5706,6 +5825,9 @@
       <c r="AN40">
         <v>10</v>
       </c>
+      <c r="AO40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5838,6 +5960,9 @@
       <c r="AN41">
         <v>0</v>
       </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5970,6 +6095,9 @@
       <c r="AN42">
         <v>0</v>
       </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6102,6 +6230,9 @@
       <c r="AN43">
         <v>0</v>
       </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6234,6 +6365,9 @@
       <c r="AN44">
         <v>1</v>
       </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6366,6 +6500,9 @@
       <c r="AN45">
         <v>2</v>
       </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6498,6 +6635,9 @@
       <c r="AN46">
         <v>2</v>
       </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6630,6 +6770,9 @@
       <c r="AN47">
         <v>0</v>
       </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6762,6 +6905,9 @@
       <c r="AN48">
         <v>3</v>
       </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6894,6 +7040,9 @@
       <c r="AN49">
         <v>4</v>
       </c>
+      <c r="AO49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7026,6 +7175,9 @@
       <c r="AN50">
         <v>1</v>
       </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7158,6 +7310,9 @@
       <c r="AN51">
         <v>3</v>
       </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7290,6 +7445,9 @@
       <c r="AN52">
         <v>39</v>
       </c>
+      <c r="AO52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7422,6 +7580,9 @@
       <c r="AN53">
         <v>6</v>
       </c>
+      <c r="AO53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7554,6 +7715,9 @@
       <c r="AN54">
         <v>0</v>
       </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7686,6 +7850,9 @@
       <c r="AN55">
         <v>2</v>
       </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7818,6 +7985,9 @@
       <c r="AN56">
         <v>5</v>
       </c>
+      <c r="AO56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7950,6 +8120,9 @@
       <c r="AN57">
         <v>3</v>
       </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8082,6 +8255,9 @@
       <c r="AN58">
         <v>0</v>
       </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8214,6 +8390,9 @@
       <c r="AN59">
         <v>0</v>
       </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8346,6 +8525,9 @@
       <c r="AN60">
         <v>2</v>
       </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8478,6 +8660,9 @@
       <c r="AN61">
         <v>4</v>
       </c>
+      <c r="AO61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8610,6 +8795,9 @@
       <c r="AN62">
         <v>1</v>
       </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8742,6 +8930,9 @@
       <c r="AN63">
         <v>1</v>
       </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8874,6 +9065,9 @@
       <c r="AN64">
         <v>0</v>
       </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9006,6 +9200,9 @@
       <c r="AN65">
         <v>5</v>
       </c>
+      <c r="AO65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9138,6 +9335,9 @@
       <c r="AN66">
         <v>0</v>
       </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9270,6 +9470,9 @@
       <c r="AN67">
         <v>0</v>
       </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9402,6 +9605,9 @@
       <c r="AN68">
         <v>4</v>
       </c>
+      <c r="AO68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9534,6 +9740,9 @@
       <c r="AN69">
         <v>0</v>
       </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9666,6 +9875,9 @@
       <c r="AN70">
         <v>0</v>
       </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9798,6 +10010,9 @@
       <c r="AN71">
         <v>0</v>
       </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9930,6 +10145,9 @@
       <c r="AN72">
         <v>5</v>
       </c>
+      <c r="AO72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10062,6 +10280,9 @@
       <c r="AN73">
         <v>0</v>
       </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10194,6 +10415,9 @@
       <c r="AN74">
         <v>0</v>
       </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10326,6 +10550,9 @@
       <c r="AN75">
         <v>0</v>
       </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10458,6 +10685,9 @@
       <c r="AN76">
         <v>2</v>
       </c>
+      <c r="AO76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10590,6 +10820,9 @@
       <c r="AN77">
         <v>0</v>
       </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10722,6 +10955,9 @@
       <c r="AN78">
         <v>1</v>
       </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10854,6 +11090,9 @@
       <c r="AN79">
         <v>0</v>
       </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10986,6 +11225,9 @@
       <c r="AN80">
         <v>0</v>
       </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11118,6 +11360,9 @@
       <c r="AN81">
         <v>0</v>
       </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11250,6 +11495,9 @@
       <c r="AN82">
         <v>0</v>
       </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11382,6 +11630,9 @@
       <c r="AN83">
         <v>6</v>
       </c>
+      <c r="AO83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11514,6 +11765,9 @@
       <c r="AN84">
         <v>13</v>
       </c>
+      <c r="AO84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11646,6 +11900,9 @@
       <c r="AN85">
         <v>3</v>
       </c>
+      <c r="AO85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11778,6 +12035,9 @@
       <c r="AN86">
         <v>5</v>
       </c>
+      <c r="AO86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11910,6 +12170,9 @@
       <c r="AN87">
         <v>0</v>
       </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12042,6 +12305,9 @@
       <c r="AN88">
         <v>0</v>
       </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12174,6 +12440,9 @@
       <c r="AN89">
         <v>6</v>
       </c>
+      <c r="AO89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12306,6 +12575,9 @@
       <c r="AN90">
         <v>0</v>
       </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12438,6 +12710,9 @@
       <c r="AN91">
         <v>1</v>
       </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12570,6 +12845,9 @@
       <c r="AN92">
         <v>0</v>
       </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12702,6 +12980,9 @@
       <c r="AN93">
         <v>35</v>
       </c>
+      <c r="AO93">
+        <v>36</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12834,6 +13115,9 @@
       <c r="AN94">
         <v>95</v>
       </c>
+      <c r="AO94">
+        <v>97</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12966,6 +13250,9 @@
       <c r="AN95">
         <v>64</v>
       </c>
+      <c r="AO95">
+        <v>64</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13098,6 +13385,9 @@
       <c r="AN96">
         <v>87</v>
       </c>
+      <c r="AO96">
+        <v>90</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13230,6 +13520,9 @@
       <c r="AN97">
         <v>172</v>
       </c>
+      <c r="AO97">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13362,6 +13655,9 @@
       <c r="AN98">
         <v>21</v>
       </c>
+      <c r="AO98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13494,6 +13790,9 @@
       <c r="AN99">
         <v>10</v>
       </c>
+      <c r="AO99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13626,6 +13925,9 @@
       <c r="AN100">
         <v>2</v>
       </c>
+      <c r="AO100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13758,6 +14060,9 @@
       <c r="AN101">
         <v>2</v>
       </c>
+      <c r="AO101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13890,6 +14195,9 @@
       <c r="AN102">
         <v>3</v>
       </c>
+      <c r="AO102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14022,6 +14330,9 @@
       <c r="AN103">
         <v>48</v>
       </c>
+      <c r="AO103">
+        <v>48</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14154,6 +14465,9 @@
       <c r="AN104">
         <v>2</v>
       </c>
+      <c r="AO104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14286,6 +14600,9 @@
       <c r="AN105">
         <v>1</v>
       </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14418,6 +14735,9 @@
       <c r="AN106">
         <v>2</v>
       </c>
+      <c r="AO106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14550,6 +14870,9 @@
       <c r="AN107">
         <v>6</v>
       </c>
+      <c r="AO107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14682,6 +15005,9 @@
       <c r="AN108">
         <v>23</v>
       </c>
+      <c r="AO108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14814,6 +15140,9 @@
       <c r="AN109">
         <v>98</v>
       </c>
+      <c r="AO109">
+        <v>100</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14946,6 +15275,9 @@
       <c r="AN110">
         <v>18</v>
       </c>
+      <c r="AO110">
+        <v>19</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15078,6 +15410,9 @@
       <c r="AN111">
         <v>22</v>
       </c>
+      <c r="AO111">
+        <v>26</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15210,6 +15545,9 @@
       <c r="AN112">
         <v>47</v>
       </c>
+      <c r="AO112">
+        <v>47</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15342,6 +15680,9 @@
       <c r="AN113">
         <v>407</v>
       </c>
+      <c r="AO113">
+        <v>409</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15474,6 +15815,9 @@
       <c r="AN114">
         <v>176</v>
       </c>
+      <c r="AO114">
+        <v>177</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15606,6 +15950,9 @@
       <c r="AN115">
         <v>10</v>
       </c>
+      <c r="AO115">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15738,6 +16085,9 @@
       <c r="AN116">
         <v>25</v>
       </c>
+      <c r="AO116">
+        <v>26</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15870,6 +16220,9 @@
       <c r="AN117">
         <v>49</v>
       </c>
+      <c r="AO117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16002,6 +16355,9 @@
       <c r="AN118">
         <v>92</v>
       </c>
+      <c r="AO118">
+        <v>92</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16134,6 +16490,9 @@
       <c r="AN119">
         <v>156</v>
       </c>
+      <c r="AO119">
+        <v>156</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16266,6 +16625,9 @@
       <c r="AN120">
         <v>45</v>
       </c>
+      <c r="AO120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16398,6 +16760,9 @@
       <c r="AN121">
         <v>8</v>
       </c>
+      <c r="AO121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16530,6 +16895,9 @@
       <c r="AN122">
         <v>58</v>
       </c>
+      <c r="AO122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16662,6 +17030,9 @@
       <c r="AN123">
         <v>14</v>
       </c>
+      <c r="AO123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16794,6 +17165,9 @@
       <c r="AN124">
         <v>39</v>
       </c>
+      <c r="AO124">
+        <v>39</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16926,6 +17300,9 @@
       <c r="AN125">
         <v>17</v>
       </c>
+      <c r="AO125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17058,6 +17435,9 @@
       <c r="AN126">
         <v>2</v>
       </c>
+      <c r="AO126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17190,6 +17570,9 @@
       <c r="AN127">
         <v>10</v>
       </c>
+      <c r="AO127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -17322,6 +17705,9 @@
       <c r="AN128">
         <v>1</v>
       </c>
+      <c r="AO128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17454,6 +17840,9 @@
       <c r="AN129">
         <v>7</v>
       </c>
+      <c r="AO129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -17586,6 +17975,9 @@
       <c r="AN130">
         <v>10</v>
       </c>
+      <c r="AO130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -17718,6 +18110,9 @@
       <c r="AN131">
         <v>8</v>
       </c>
+      <c r="AO131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17850,6 +18245,9 @@
       <c r="AN132">
         <v>13</v>
       </c>
+      <c r="AO132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17982,6 +18380,9 @@
       <c r="AN133">
         <v>44</v>
       </c>
+      <c r="AO133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18114,6 +18515,9 @@
       <c r="AN134">
         <v>0</v>
       </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -18246,6 +18650,9 @@
       <c r="AN135">
         <v>0</v>
       </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -18378,6 +18785,9 @@
       <c r="AN136">
         <v>10</v>
       </c>
+      <c r="AO136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -18510,6 +18920,9 @@
       <c r="AN137">
         <v>5</v>
       </c>
+      <c r="AO137">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -18642,6 +19055,9 @@
       <c r="AN138">
         <v>42</v>
       </c>
+      <c r="AO138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -18774,6 +19190,9 @@
       <c r="AN139">
         <v>4</v>
       </c>
+      <c r="AO139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -18906,6 +19325,9 @@
       <c r="AN140">
         <v>1</v>
       </c>
+      <c r="AO140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -19038,6 +19460,9 @@
       <c r="AN141">
         <v>3</v>
       </c>
+      <c r="AO141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -19170,6 +19595,9 @@
       <c r="AN142">
         <v>6</v>
       </c>
+      <c r="AO142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -19302,6 +19730,9 @@
       <c r="AN143">
         <v>11</v>
       </c>
+      <c r="AO143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -19434,6 +19865,9 @@
       <c r="AN144">
         <v>2</v>
       </c>
+      <c r="AO144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -19566,6 +20000,9 @@
       <c r="AN145">
         <v>82</v>
       </c>
+      <c r="AO145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -19698,6 +20135,9 @@
       <c r="AN146">
         <v>38</v>
       </c>
+      <c r="AO146">
+        <v>38</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -19830,6 +20270,9 @@
       <c r="AN147">
         <v>22</v>
       </c>
+      <c r="AO147">
+        <v>23</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -19962,6 +20405,9 @@
       <c r="AN148">
         <v>62</v>
       </c>
+      <c r="AO148">
+        <v>62</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -20094,6 +20540,9 @@
       <c r="AN149">
         <v>11</v>
       </c>
+      <c r="AO149">
+        <v>12</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -20226,6 +20675,9 @@
       <c r="AN150">
         <v>35</v>
       </c>
+      <c r="AO150">
+        <v>36</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -20358,6 +20810,9 @@
       <c r="AN151">
         <v>0</v>
       </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -20490,6 +20945,9 @@
       <c r="AN152">
         <v>20</v>
       </c>
+      <c r="AO152">
+        <v>21</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -20622,6 +21080,9 @@
       <c r="AN153">
         <v>4</v>
       </c>
+      <c r="AO153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -20754,6 +21215,9 @@
       <c r="AN154">
         <v>5</v>
       </c>
+      <c r="AO154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -20886,6 +21350,9 @@
       <c r="AN155">
         <v>3</v>
       </c>
+      <c r="AO155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -21018,6 +21485,9 @@
       <c r="AN156">
         <v>3</v>
       </c>
+      <c r="AO156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -21150,6 +21620,9 @@
       <c r="AN157">
         <v>16</v>
       </c>
+      <c r="AO157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -21282,6 +21755,9 @@
       <c r="AN158">
         <v>2</v>
       </c>
+      <c r="AO158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -21414,6 +21890,9 @@
       <c r="AN159">
         <v>4</v>
       </c>
+      <c r="AO159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -21546,6 +22025,9 @@
       <c r="AN160">
         <v>0</v>
       </c>
+      <c r="AO160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -21678,6 +22160,9 @@
       <c r="AN161">
         <v>0</v>
       </c>
+      <c r="AO161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -21810,6 +22295,9 @@
       <c r="AN162">
         <v>2</v>
       </c>
+      <c r="AO162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -21942,6 +22430,9 @@
       <c r="AN163">
         <v>0</v>
       </c>
+      <c r="AO163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -22074,6 +22565,9 @@
       <c r="AN164">
         <v>0</v>
       </c>
+      <c r="AO164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -22206,6 +22700,9 @@
       <c r="AN165">
         <v>1</v>
       </c>
+      <c r="AO165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -22338,6 +22835,9 @@
       <c r="AN166">
         <v>0</v>
       </c>
+      <c r="AO166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -22470,6 +22970,9 @@
       <c r="AN167">
         <v>1</v>
       </c>
+      <c r="AO167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -22602,6 +23105,9 @@
       <c r="AN168">
         <v>5</v>
       </c>
+      <c r="AO168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -22734,6 +23240,9 @@
       <c r="AN169">
         <v>2</v>
       </c>
+      <c r="AO169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -22866,6 +23375,9 @@
       <c r="AN170">
         <v>1</v>
       </c>
+      <c r="AO170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -22998,6 +23510,9 @@
       <c r="AN171">
         <v>3</v>
       </c>
+      <c r="AO171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -23130,6 +23645,9 @@
       <c r="AN172">
         <v>2</v>
       </c>
+      <c r="AO172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -23262,6 +23780,9 @@
       <c r="AN173">
         <v>13</v>
       </c>
+      <c r="AO173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -23394,6 +23915,9 @@
       <c r="AN174">
         <v>36</v>
       </c>
+      <c r="AO174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -23526,6 +24050,9 @@
       <c r="AN175">
         <v>1</v>
       </c>
+      <c r="AO175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -23658,6 +24185,9 @@
       <c r="AN176">
         <v>8</v>
       </c>
+      <c r="AO176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -23790,6 +24320,9 @@
       <c r="AN177">
         <v>2</v>
       </c>
+      <c r="AO177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -23922,6 +24455,9 @@
       <c r="AN178">
         <v>6</v>
       </c>
+      <c r="AO178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -24054,6 +24590,9 @@
       <c r="AN179">
         <v>4</v>
       </c>
+      <c r="AO179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -24186,6 +24725,9 @@
       <c r="AN180">
         <v>12</v>
       </c>
+      <c r="AO180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -24318,6 +24860,9 @@
       <c r="AN181">
         <v>11</v>
       </c>
+      <c r="AO181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -24450,6 +24995,9 @@
       <c r="AN182">
         <v>2</v>
       </c>
+      <c r="AO182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -24582,6 +25130,9 @@
       <c r="AN183">
         <v>1</v>
       </c>
+      <c r="AO183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -24714,6 +25265,9 @@
       <c r="AN184">
         <v>0</v>
       </c>
+      <c r="AO184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -24846,6 +25400,9 @@
       <c r="AN185">
         <v>1</v>
       </c>
+      <c r="AO185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -24978,6 +25535,9 @@
       <c r="AN186">
         <v>9</v>
       </c>
+      <c r="AO186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -25110,6 +25670,9 @@
       <c r="AN187">
         <v>0</v>
       </c>
+      <c r="AO187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -25242,6 +25805,9 @@
       <c r="AN188">
         <v>0</v>
       </c>
+      <c r="AO188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -25374,6 +25940,9 @@
       <c r="AN189">
         <v>0</v>
       </c>
+      <c r="AO189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -25506,6 +26075,9 @@
       <c r="AN190">
         <v>25</v>
       </c>
+      <c r="AO190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -25638,6 +26210,9 @@
       <c r="AN191">
         <v>20</v>
       </c>
+      <c r="AO191">
+        <v>20</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -25770,6 +26345,9 @@
       <c r="AN192">
         <v>57</v>
       </c>
+      <c r="AO192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -25902,6 +26480,9 @@
       <c r="AN193">
         <v>38</v>
       </c>
+      <c r="AO193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -26034,6 +26615,9 @@
       <c r="AN194">
         <v>36</v>
       </c>
+      <c r="AO194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -26166,6 +26750,9 @@
       <c r="AN195">
         <v>10</v>
       </c>
+      <c r="AO195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -26298,6 +26885,9 @@
       <c r="AN196">
         <v>40</v>
       </c>
+      <c r="AO196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -26430,6 +27020,9 @@
       <c r="AN197">
         <v>4</v>
       </c>
+      <c r="AO197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -26562,6 +27155,9 @@
       <c r="AN198">
         <v>22</v>
       </c>
+      <c r="AO198">
+        <v>23</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -26694,6 +27290,9 @@
       <c r="AN199">
         <v>2</v>
       </c>
+      <c r="AO199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -26826,6 +27425,9 @@
       <c r="AN200">
         <v>5</v>
       </c>
+      <c r="AO200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -26958,6 +27560,9 @@
       <c r="AN201">
         <v>2</v>
       </c>
+      <c r="AO201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -27090,6 +27695,9 @@
       <c r="AN202">
         <v>1</v>
       </c>
+      <c r="AO202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -27222,6 +27830,9 @@
       <c r="AN203">
         <v>5</v>
       </c>
+      <c r="AO203">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -27354,6 +27965,9 @@
       <c r="AN204">
         <v>0</v>
       </c>
+      <c r="AO204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -27486,6 +28100,9 @@
       <c r="AN205">
         <v>1</v>
       </c>
+      <c r="AO205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -27618,6 +28235,9 @@
       <c r="AN206">
         <v>1</v>
       </c>
+      <c r="AO206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -27750,6 +28370,9 @@
       <c r="AN207">
         <v>0</v>
       </c>
+      <c r="AO207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -27882,6 +28505,9 @@
       <c r="AN208">
         <v>0</v>
       </c>
+      <c r="AO208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -28014,6 +28640,9 @@
       <c r="AN209">
         <v>0</v>
       </c>
+      <c r="AO209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -28146,6 +28775,9 @@
       <c r="AN210">
         <v>0</v>
       </c>
+      <c r="AO210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -28278,6 +28910,9 @@
       <c r="AN211">
         <v>0</v>
       </c>
+      <c r="AO211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -28410,6 +29045,9 @@
       <c r="AN212">
         <v>2</v>
       </c>
+      <c r="AO212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -28542,6 +29180,9 @@
       <c r="AN213">
         <v>0</v>
       </c>
+      <c r="AO213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -28674,6 +29315,9 @@
       <c r="AN214">
         <v>3</v>
       </c>
+      <c r="AO214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -28806,6 +29450,9 @@
       <c r="AN215">
         <v>30</v>
       </c>
+      <c r="AO215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -28938,6 +29585,9 @@
       <c r="AN216">
         <v>216</v>
       </c>
+      <c r="AO216">
+        <v>217</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -29070,6 +29720,9 @@
       <c r="AN217">
         <v>9</v>
       </c>
+      <c r="AO217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -29202,6 +29855,9 @@
       <c r="AN218">
         <v>11</v>
       </c>
+      <c r="AO218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -29334,6 +29990,9 @@
       <c r="AN219">
         <v>0</v>
       </c>
+      <c r="AO219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -29466,6 +30125,9 @@
       <c r="AN220">
         <v>2</v>
       </c>
+      <c r="AO220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -29598,6 +30260,9 @@
       <c r="AN221">
         <v>0</v>
       </c>
+      <c r="AO221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -29730,6 +30395,9 @@
       <c r="AN222">
         <v>1</v>
       </c>
+      <c r="AO222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -29862,6 +30530,9 @@
       <c r="AN223">
         <v>2</v>
       </c>
+      <c r="AO223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -29994,6 +30665,9 @@
       <c r="AN224">
         <v>8</v>
       </c>
+      <c r="AO224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -30126,6 +30800,9 @@
       <c r="AN225">
         <v>3</v>
       </c>
+      <c r="AO225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -30258,6 +30935,9 @@
       <c r="AN226">
         <v>1</v>
       </c>
+      <c r="AO226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -30390,6 +31070,9 @@
       <c r="AN227">
         <v>2</v>
       </c>
+      <c r="AO227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -30522,6 +31205,9 @@
       <c r="AN228">
         <v>2</v>
       </c>
+      <c r="AO228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -30654,6 +31340,9 @@
       <c r="AN229">
         <v>2</v>
       </c>
+      <c r="AO229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -30786,6 +31475,9 @@
       <c r="AN230">
         <v>0</v>
       </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -30918,6 +31610,9 @@
       <c r="AN231">
         <v>3</v>
       </c>
+      <c r="AO231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -31050,6 +31745,9 @@
       <c r="AN232">
         <v>21</v>
       </c>
+      <c r="AO232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -31182,6 +31880,9 @@
       <c r="AN233">
         <v>0</v>
       </c>
+      <c r="AO233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -31314,6 +32015,9 @@
       <c r="AN234">
         <v>4</v>
       </c>
+      <c r="AO234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -31446,6 +32150,9 @@
       <c r="AN235">
         <v>1</v>
       </c>
+      <c r="AO235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -31578,6 +32285,9 @@
       <c r="AN236">
         <v>1</v>
       </c>
+      <c r="AO236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -31710,6 +32420,9 @@
       <c r="AN237">
         <v>1</v>
       </c>
+      <c r="AO237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -31842,6 +32555,9 @@
       <c r="AN238">
         <v>533</v>
       </c>
+      <c r="AO238">
+        <v>544</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -31974,6 +32690,9 @@
       <c r="AN239">
         <v>9</v>
       </c>
+      <c r="AO239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -32106,6 +32825,9 @@
       <c r="AN240">
         <v>4</v>
       </c>
+      <c r="AO240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -32238,6 +32960,9 @@
       <c r="AN241">
         <v>4</v>
       </c>
+      <c r="AO241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -32370,6 +33095,9 @@
       <c r="AN242">
         <v>4</v>
       </c>
+      <c r="AO242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -32502,6 +33230,9 @@
       <c r="AN243">
         <v>6</v>
       </c>
+      <c r="AO243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -32634,6 +33365,9 @@
       <c r="AN244">
         <v>8</v>
       </c>
+      <c r="AO244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -32766,6 +33500,9 @@
       <c r="AN245">
         <v>0</v>
       </c>
+      <c r="AO245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -32898,6 +33635,9 @@
       <c r="AN246">
         <v>4</v>
       </c>
+      <c r="AO246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -33030,6 +33770,9 @@
       <c r="AN247">
         <v>0</v>
       </c>
+      <c r="AO247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -33162,6 +33905,9 @@
       <c r="AN248">
         <v>0</v>
       </c>
+      <c r="AO248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -33294,6 +34040,9 @@
       <c r="AN249">
         <v>2</v>
       </c>
+      <c r="AO249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -33426,6 +34175,9 @@
       <c r="AN250">
         <v>24</v>
       </c>
+      <c r="AO250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -33558,6 +34310,9 @@
       <c r="AN251">
         <v>9</v>
       </c>
+      <c r="AO251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -33690,6 +34445,9 @@
       <c r="AN252">
         <v>0</v>
       </c>
+      <c r="AO252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -33822,6 +34580,9 @@
       <c r="AN253">
         <v>17</v>
       </c>
+      <c r="AO253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -33954,6 +34715,9 @@
       <c r="AN254">
         <v>5</v>
       </c>
+      <c r="AO254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -34086,6 +34850,9 @@
       <c r="AN255">
         <v>53</v>
       </c>
+      <c r="AO255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -34218,6 +34985,9 @@
       <c r="AN256">
         <v>40</v>
       </c>
+      <c r="AO256">
+        <v>41</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -34350,6 +35120,9 @@
       <c r="AN257">
         <v>1</v>
       </c>
+      <c r="AO257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -34482,6 +35255,9 @@
       <c r="AN258">
         <v>0</v>
       </c>
+      <c r="AO258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -34614,6 +35390,9 @@
       <c r="AN259">
         <v>40</v>
       </c>
+      <c r="AO259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -34746,6 +35525,9 @@
       <c r="AN260">
         <v>26</v>
       </c>
+      <c r="AO260">
+        <v>26</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -34878,6 +35660,9 @@
       <c r="AN261">
         <v>0</v>
       </c>
+      <c r="AO261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -35010,6 +35795,9 @@
       <c r="AN262">
         <v>0</v>
       </c>
+      <c r="AO262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -35142,6 +35930,9 @@
       <c r="AN263">
         <v>0</v>
       </c>
+      <c r="AO263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -35274,6 +36065,9 @@
       <c r="AN264">
         <v>1</v>
       </c>
+      <c r="AO264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -35406,6 +36200,9 @@
       <c r="AN265">
         <v>3</v>
       </c>
+      <c r="AO265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -35538,6 +36335,9 @@
       <c r="AN266">
         <v>0</v>
       </c>
+      <c r="AO266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -35670,6 +36470,9 @@
       <c r="AN267">
         <v>3</v>
       </c>
+      <c r="AO267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -35802,6 +36605,9 @@
       <c r="AN268">
         <v>0</v>
       </c>
+      <c r="AO268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -35934,6 +36740,9 @@
       <c r="AN269">
         <v>7</v>
       </c>
+      <c r="AO269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -36066,6 +36875,9 @@
       <c r="AN270">
         <v>0</v>
       </c>
+      <c r="AO270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -36198,6 +37010,9 @@
       <c r="AN271">
         <v>0</v>
       </c>
+      <c r="AO271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -36330,6 +37145,9 @@
       <c r="AN272">
         <v>1</v>
       </c>
+      <c r="AO272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -36462,6 +37280,9 @@
       <c r="AN273">
         <v>4</v>
       </c>
+      <c r="AO273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -36594,6 +37415,9 @@
       <c r="AN274">
         <v>0</v>
       </c>
+      <c r="AO274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -36726,6 +37550,9 @@
       <c r="AN275">
         <v>0</v>
       </c>
+      <c r="AO275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -36858,6 +37685,9 @@
       <c r="AN276">
         <v>17</v>
       </c>
+      <c r="AO276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -36990,6 +37820,9 @@
       <c r="AN277">
         <v>0</v>
       </c>
+      <c r="AO277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -37122,6 +37955,9 @@
       <c r="AN278">
         <v>0</v>
       </c>
+      <c r="AO278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -37254,6 +38090,9 @@
       <c r="AN279">
         <v>4</v>
       </c>
+      <c r="AO279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -37386,6 +38225,9 @@
       <c r="AN280">
         <v>12</v>
       </c>
+      <c r="AO280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -37518,6 +38360,9 @@
       <c r="AN281">
         <v>279</v>
       </c>
+      <c r="AO281">
+        <v>280</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -37650,6 +38495,9 @@
       <c r="AN282">
         <v>16</v>
       </c>
+      <c r="AO282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -37782,6 +38630,9 @@
       <c r="AN283">
         <v>5</v>
       </c>
+      <c r="AO283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -37914,6 +38765,9 @@
       <c r="AN284">
         <v>0</v>
       </c>
+      <c r="AO284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -38046,6 +38900,9 @@
       <c r="AN285">
         <v>0</v>
       </c>
+      <c r="AO285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -38178,6 +39035,9 @@
       <c r="AN286">
         <v>8</v>
       </c>
+      <c r="AO286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -38310,6 +39170,9 @@
       <c r="AN287">
         <v>5</v>
       </c>
+      <c r="AO287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -38442,6 +39305,9 @@
       <c r="AN288">
         <v>0</v>
       </c>
+      <c r="AO288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -38574,6 +39440,9 @@
       <c r="AN289">
         <v>1</v>
       </c>
+      <c r="AO289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -38706,6 +39575,9 @@
       <c r="AN290">
         <v>7</v>
       </c>
+      <c r="AO290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -38838,6 +39710,9 @@
       <c r="AN291">
         <v>3</v>
       </c>
+      <c r="AO291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -38970,6 +39845,9 @@
       <c r="AN292">
         <v>5</v>
       </c>
+      <c r="AO292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -39102,6 +39980,9 @@
       <c r="AN293">
         <v>12</v>
       </c>
+      <c r="AO293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -39234,6 +40115,9 @@
       <c r="AN294">
         <v>6</v>
       </c>
+      <c r="AO294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -39366,6 +40250,9 @@
       <c r="AN295">
         <v>0</v>
       </c>
+      <c r="AO295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -39498,6 +40385,9 @@
       <c r="AN296">
         <v>1</v>
       </c>
+      <c r="AO296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -39630,6 +40520,9 @@
       <c r="AN297">
         <v>8</v>
       </c>
+      <c r="AO297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -39762,6 +40655,9 @@
       <c r="AN298">
         <v>28</v>
       </c>
+      <c r="AO298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -39894,6 +40790,9 @@
       <c r="AN299">
         <v>21</v>
       </c>
+      <c r="AO299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -40026,6 +40925,9 @@
       <c r="AN300">
         <v>15</v>
       </c>
+      <c r="AO300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -40158,6 +41060,9 @@
       <c r="AN301">
         <v>1</v>
       </c>
+      <c r="AO301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -40290,6 +41195,9 @@
       <c r="AN302">
         <v>0</v>
       </c>
+      <c r="AO302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -40422,6 +41330,9 @@
       <c r="AN303">
         <v>0</v>
       </c>
+      <c r="AO303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -40554,6 +41465,9 @@
       <c r="AN304">
         <v>0</v>
       </c>
+      <c r="AO304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -40686,6 +41600,9 @@
       <c r="AN305">
         <v>3</v>
       </c>
+      <c r="AO305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -40818,6 +41735,9 @@
       <c r="AN306">
         <v>1</v>
       </c>
+      <c r="AO306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -40950,6 +41870,9 @@
       <c r="AN307">
         <v>4</v>
       </c>
+      <c r="AO307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -41082,6 +42005,9 @@
       <c r="AN308">
         <v>0</v>
       </c>
+      <c r="AO308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -41214,6 +42140,9 @@
       <c r="AN309">
         <v>0</v>
       </c>
+      <c r="AO309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -41346,6 +42275,9 @@
       <c r="AN310">
         <v>7</v>
       </c>
+      <c r="AO310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -41478,6 +42410,9 @@
       <c r="AN311">
         <v>2</v>
       </c>
+      <c r="AO311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -41610,6 +42545,9 @@
       <c r="AN312">
         <v>2</v>
       </c>
+      <c r="AO312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -41742,6 +42680,9 @@
       <c r="AN313">
         <v>2</v>
       </c>
+      <c r="AO313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -41874,6 +42815,9 @@
       <c r="AN314">
         <v>10</v>
       </c>
+      <c r="AO314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -42006,6 +42950,9 @@
       <c r="AN315">
         <v>1</v>
       </c>
+      <c r="AO315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -42138,6 +43085,9 @@
       <c r="AN316">
         <v>17</v>
       </c>
+      <c r="AO316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -42270,6 +43220,9 @@
       <c r="AN317">
         <v>0</v>
       </c>
+      <c r="AO317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -42402,6 +43355,9 @@
       <c r="AN318">
         <v>0</v>
       </c>
+      <c r="AO318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -42534,6 +43490,9 @@
       <c r="AN319">
         <v>152</v>
       </c>
+      <c r="AO319">
+        <v>155</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -42666,6 +43625,9 @@
       <c r="AN320">
         <v>6</v>
       </c>
+      <c r="AO320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -42798,6 +43760,9 @@
       <c r="AN321">
         <v>5</v>
       </c>
+      <c r="AO321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -42930,6 +43895,9 @@
       <c r="AN322">
         <v>1</v>
       </c>
+      <c r="AO322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -43062,6 +44030,9 @@
       <c r="AN323">
         <v>3</v>
       </c>
+      <c r="AO323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -43194,6 +44165,9 @@
       <c r="AN324">
         <v>15</v>
       </c>
+      <c r="AO324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -43326,6 +44300,9 @@
       <c r="AN325">
         <v>1</v>
       </c>
+      <c r="AO325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -43458,6 +44435,9 @@
       <c r="AN326">
         <v>1</v>
       </c>
+      <c r="AO326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -43590,6 +44570,9 @@
       <c r="AN327">
         <v>0</v>
       </c>
+      <c r="AO327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -43722,6 +44705,9 @@
       <c r="AN328">
         <v>0</v>
       </c>
+      <c r="AO328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -43854,6 +44840,9 @@
       <c r="AN329">
         <v>3</v>
       </c>
+      <c r="AO329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -43986,6 +44975,9 @@
       <c r="AN330">
         <v>1</v>
       </c>
+      <c r="AO330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -44118,6 +45110,9 @@
       <c r="AN331">
         <v>2</v>
       </c>
+      <c r="AO331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -44250,6 +45245,9 @@
       <c r="AN332">
         <v>1</v>
       </c>
+      <c r="AO332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -44382,6 +45380,9 @@
       <c r="AN333">
         <v>0</v>
       </c>
+      <c r="AO333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -44514,6 +45515,9 @@
       <c r="AN334">
         <v>0</v>
       </c>
+      <c r="AO334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -44646,6 +45650,9 @@
       <c r="AN335">
         <v>16</v>
       </c>
+      <c r="AO335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -44778,6 +45785,9 @@
       <c r="AN336">
         <v>2</v>
       </c>
+      <c r="AO336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -44910,6 +45920,9 @@
       <c r="AN337">
         <v>1</v>
       </c>
+      <c r="AO337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -45042,6 +46055,9 @@
       <c r="AN338">
         <v>2</v>
       </c>
+      <c r="AO338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -45174,6 +46190,9 @@
       <c r="AN339">
         <v>0</v>
       </c>
+      <c r="AO339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -45306,6 +46325,9 @@
       <c r="AN340">
         <v>0</v>
       </c>
+      <c r="AO340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -45438,6 +46460,9 @@
       <c r="AN341">
         <v>1</v>
       </c>
+      <c r="AO341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -45570,6 +46595,9 @@
       <c r="AN342">
         <v>2</v>
       </c>
+      <c r="AO342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -45702,6 +46730,9 @@
       <c r="AN343">
         <v>0</v>
       </c>
+      <c r="AO343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -45834,6 +46865,9 @@
       <c r="AN344">
         <v>1</v>
       </c>
+      <c r="AO344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -45966,6 +47000,9 @@
       <c r="AN345">
         <v>0</v>
       </c>
+      <c r="AO345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -46098,6 +47135,9 @@
       <c r="AN346">
         <v>0</v>
       </c>
+      <c r="AO346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -46230,6 +47270,9 @@
       <c r="AN347">
         <v>3</v>
       </c>
+      <c r="AO347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -46362,6 +47405,9 @@
       <c r="AN348">
         <v>2</v>
       </c>
+      <c r="AO348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -46494,6 +47540,9 @@
       <c r="AN349">
         <v>4</v>
       </c>
+      <c r="AO349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -46626,6 +47675,9 @@
       <c r="AN350">
         <v>1</v>
       </c>
+      <c r="AO350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -46758,6 +47810,9 @@
       <c r="AN351">
         <v>0</v>
       </c>
+      <c r="AO351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -46890,6 +47945,9 @@
       <c r="AN352">
         <v>0</v>
       </c>
+      <c r="AO352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -47022,6 +48080,9 @@
       <c r="AN353">
         <v>0</v>
       </c>
+      <c r="AO353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -47154,6 +48215,9 @@
       <c r="AN354">
         <v>1</v>
       </c>
+      <c r="AO354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -47286,6 +48350,9 @@
       <c r="AN355">
         <v>1</v>
       </c>
+      <c r="AO355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -47418,6 +48485,9 @@
       <c r="AN356">
         <v>0</v>
       </c>
+      <c r="AO356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -47550,6 +48620,9 @@
       <c r="AN357">
         <v>4</v>
       </c>
+      <c r="AO357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -47682,6 +48755,9 @@
       <c r="AN358">
         <v>0</v>
       </c>
+      <c r="AO358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -47812,6 +48888,9 @@
         <v>0</v>
       </c>
       <c r="AN359">
+        <v>0</v>
+      </c>
+      <c r="AO359">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO359"/>
+  <dimension ref="A1:AP359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,6 +563,11 @@
           <t>2020-04-29</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -698,6 +703,9 @@
       <c r="AO2">
         <v>2353</v>
       </c>
+      <c r="AP2">
+        <v>2363</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -833,6 +841,9 @@
       <c r="AO3">
         <v>14</v>
       </c>
+      <c r="AP3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -968,6 +979,9 @@
       <c r="AO4">
         <v>133</v>
       </c>
+      <c r="AP4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1103,6 +1117,9 @@
       <c r="AO5">
         <v>51</v>
       </c>
+      <c r="AP5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1238,6 +1255,9 @@
       <c r="AO6">
         <v>47</v>
       </c>
+      <c r="AP6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1373,6 +1393,9 @@
       <c r="AO7">
         <v>5</v>
       </c>
+      <c r="AP7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1508,6 +1531,9 @@
       <c r="AO8">
         <v>1</v>
       </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1643,6 +1669,9 @@
       <c r="AO9">
         <v>0</v>
       </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1778,6 +1807,9 @@
       <c r="AO10">
         <v>7</v>
       </c>
+      <c r="AP10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1913,6 +1945,9 @@
       <c r="AO11">
         <v>6</v>
       </c>
+      <c r="AP11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2048,6 +2083,9 @@
       <c r="AO12">
         <v>12</v>
       </c>
+      <c r="AP12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2183,6 +2221,9 @@
       <c r="AO13">
         <v>13</v>
       </c>
+      <c r="AP13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2318,6 +2359,9 @@
       <c r="AO14">
         <v>16</v>
       </c>
+      <c r="AP14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2453,6 +2497,9 @@
       <c r="AO15">
         <v>11</v>
       </c>
+      <c r="AP15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2588,6 +2635,9 @@
       <c r="AO16">
         <v>13</v>
       </c>
+      <c r="AP16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2723,6 +2773,9 @@
       <c r="AO17">
         <v>0</v>
       </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2858,6 +2911,9 @@
       <c r="AO18">
         <v>0</v>
       </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2993,6 +3049,9 @@
       <c r="AO19">
         <v>3</v>
       </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3128,6 +3187,9 @@
       <c r="AO20">
         <v>0</v>
       </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3263,6 +3325,9 @@
       <c r="AO21">
         <v>1</v>
       </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3398,6 +3463,9 @@
       <c r="AO22">
         <v>20</v>
       </c>
+      <c r="AP22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3533,6 +3601,9 @@
       <c r="AO23">
         <v>59</v>
       </c>
+      <c r="AP23">
+        <v>67</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3668,6 +3739,9 @@
       <c r="AO24">
         <v>0</v>
       </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3803,6 +3877,9 @@
       <c r="AO25">
         <v>11</v>
       </c>
+      <c r="AP25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3938,6 +4015,9 @@
       <c r="AO26">
         <v>18</v>
       </c>
+      <c r="AP26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4073,6 +4153,9 @@
       <c r="AO27">
         <v>13</v>
       </c>
+      <c r="AP27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4208,6 +4291,9 @@
       <c r="AO28">
         <v>27</v>
       </c>
+      <c r="AP28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4343,6 +4429,9 @@
       <c r="AO29">
         <v>1</v>
       </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4478,6 +4567,9 @@
       <c r="AO30">
         <v>5</v>
       </c>
+      <c r="AP30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4613,6 +4705,9 @@
       <c r="AO31">
         <v>3</v>
       </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4748,6 +4843,9 @@
       <c r="AO32">
         <v>8</v>
       </c>
+      <c r="AP32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4883,6 +4981,9 @@
       <c r="AO33">
         <v>2</v>
       </c>
+      <c r="AP33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5018,6 +5119,9 @@
       <c r="AO34">
         <v>6</v>
       </c>
+      <c r="AP34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5153,6 +5257,9 @@
       <c r="AO35">
         <v>0</v>
       </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5288,6 +5395,9 @@
       <c r="AO36">
         <v>1</v>
       </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5423,6 +5533,9 @@
       <c r="AO37">
         <v>6</v>
       </c>
+      <c r="AP37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5558,6 +5671,9 @@
       <c r="AO38">
         <v>5</v>
       </c>
+      <c r="AP38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5693,6 +5809,9 @@
       <c r="AO39">
         <v>1</v>
       </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5828,6 +5947,9 @@
       <c r="AO40">
         <v>10</v>
       </c>
+      <c r="AP40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5963,6 +6085,9 @@
       <c r="AO41">
         <v>0</v>
       </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6098,6 +6223,9 @@
       <c r="AO42">
         <v>0</v>
       </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6233,6 +6361,9 @@
       <c r="AO43">
         <v>1</v>
       </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6368,6 +6499,9 @@
       <c r="AO44">
         <v>1</v>
       </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6503,6 +6637,9 @@
       <c r="AO45">
         <v>2</v>
       </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6638,6 +6775,9 @@
       <c r="AO46">
         <v>2</v>
       </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6773,6 +6913,9 @@
       <c r="AO47">
         <v>0</v>
       </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6908,6 +7051,9 @@
       <c r="AO48">
         <v>3</v>
       </c>
+      <c r="AP48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7043,6 +7189,9 @@
       <c r="AO49">
         <v>4</v>
       </c>
+      <c r="AP49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7178,6 +7327,9 @@
       <c r="AO50">
         <v>1</v>
       </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7313,6 +7465,9 @@
       <c r="AO51">
         <v>3</v>
       </c>
+      <c r="AP51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7448,6 +7603,9 @@
       <c r="AO52">
         <v>39</v>
       </c>
+      <c r="AP52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7583,6 +7741,9 @@
       <c r="AO53">
         <v>6</v>
       </c>
+      <c r="AP53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7718,6 +7879,9 @@
       <c r="AO54">
         <v>0</v>
       </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7853,6 +8017,9 @@
       <c r="AO55">
         <v>2</v>
       </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7988,6 +8155,9 @@
       <c r="AO56">
         <v>5</v>
       </c>
+      <c r="AP56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8123,6 +8293,9 @@
       <c r="AO57">
         <v>3</v>
       </c>
+      <c r="AP57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8258,6 +8431,9 @@
       <c r="AO58">
         <v>0</v>
       </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8393,6 +8569,9 @@
       <c r="AO59">
         <v>0</v>
       </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8528,6 +8707,9 @@
       <c r="AO60">
         <v>2</v>
       </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8663,6 +8845,9 @@
       <c r="AO61">
         <v>4</v>
       </c>
+      <c r="AP61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8798,6 +8983,9 @@
       <c r="AO62">
         <v>1</v>
       </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8933,6 +9121,9 @@
       <c r="AO63">
         <v>1</v>
       </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9068,6 +9259,9 @@
       <c r="AO64">
         <v>0</v>
       </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9203,6 +9397,9 @@
       <c r="AO65">
         <v>5</v>
       </c>
+      <c r="AP65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9338,6 +9535,9 @@
       <c r="AO66">
         <v>0</v>
       </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9473,6 +9673,9 @@
       <c r="AO67">
         <v>0</v>
       </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9608,6 +9811,9 @@
       <c r="AO68">
         <v>4</v>
       </c>
+      <c r="AP68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9743,6 +9949,9 @@
       <c r="AO69">
         <v>0</v>
       </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9878,6 +10087,9 @@
       <c r="AO70">
         <v>0</v>
       </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10013,6 +10225,9 @@
       <c r="AO71">
         <v>0</v>
       </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10148,6 +10363,9 @@
       <c r="AO72">
         <v>5</v>
       </c>
+      <c r="AP72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10283,6 +10501,9 @@
       <c r="AO73">
         <v>0</v>
       </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10418,6 +10639,9 @@
       <c r="AO74">
         <v>0</v>
       </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10553,6 +10777,9 @@
       <c r="AO75">
         <v>0</v>
       </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10688,6 +10915,9 @@
       <c r="AO76">
         <v>2</v>
       </c>
+      <c r="AP76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10823,6 +11053,9 @@
       <c r="AO77">
         <v>0</v>
       </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10958,6 +11191,9 @@
       <c r="AO78">
         <v>1</v>
       </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11093,6 +11329,9 @@
       <c r="AO79">
         <v>0</v>
       </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11228,6 +11467,9 @@
       <c r="AO80">
         <v>0</v>
       </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11363,6 +11605,9 @@
       <c r="AO81">
         <v>0</v>
       </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11498,6 +11743,9 @@
       <c r="AO82">
         <v>0</v>
       </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11633,6 +11881,9 @@
       <c r="AO83">
         <v>6</v>
       </c>
+      <c r="AP83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11768,6 +12019,9 @@
       <c r="AO84">
         <v>13</v>
       </c>
+      <c r="AP84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11903,6 +12157,9 @@
       <c r="AO85">
         <v>3</v>
       </c>
+      <c r="AP85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12038,6 +12295,9 @@
       <c r="AO86">
         <v>5</v>
       </c>
+      <c r="AP86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12173,6 +12433,9 @@
       <c r="AO87">
         <v>0</v>
       </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12308,6 +12571,9 @@
       <c r="AO88">
         <v>0</v>
       </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12443,6 +12709,9 @@
       <c r="AO89">
         <v>6</v>
       </c>
+      <c r="AP89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12578,6 +12847,9 @@
       <c r="AO90">
         <v>0</v>
       </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12713,6 +12985,9 @@
       <c r="AO91">
         <v>1</v>
       </c>
+      <c r="AP91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12848,6 +13123,9 @@
       <c r="AO92">
         <v>0</v>
       </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12983,6 +13261,9 @@
       <c r="AO93">
         <v>36</v>
       </c>
+      <c r="AP93">
+        <v>36</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13118,6 +13399,9 @@
       <c r="AO94">
         <v>97</v>
       </c>
+      <c r="AP94">
+        <v>97</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13253,6 +13537,9 @@
       <c r="AO95">
         <v>64</v>
       </c>
+      <c r="AP95">
+        <v>66</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13388,6 +13675,9 @@
       <c r="AO96">
         <v>90</v>
       </c>
+      <c r="AP96">
+        <v>93</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13523,6 +13813,9 @@
       <c r="AO97">
         <v>172</v>
       </c>
+      <c r="AP97">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13658,6 +13951,9 @@
       <c r="AO98">
         <v>21</v>
       </c>
+      <c r="AP98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13793,6 +14089,9 @@
       <c r="AO99">
         <v>10</v>
       </c>
+      <c r="AP99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13928,6 +14227,9 @@
       <c r="AO100">
         <v>2</v>
       </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14063,6 +14365,9 @@
       <c r="AO101">
         <v>2</v>
       </c>
+      <c r="AP101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14198,6 +14503,9 @@
       <c r="AO102">
         <v>3</v>
       </c>
+      <c r="AP102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14333,6 +14641,9 @@
       <c r="AO103">
         <v>48</v>
       </c>
+      <c r="AP103">
+        <v>49</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14468,6 +14779,9 @@
       <c r="AO104">
         <v>2</v>
       </c>
+      <c r="AP104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14603,6 +14917,9 @@
       <c r="AO105">
         <v>1</v>
       </c>
+      <c r="AP105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14738,6 +15055,9 @@
       <c r="AO106">
         <v>2</v>
       </c>
+      <c r="AP106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14873,6 +15193,9 @@
       <c r="AO107">
         <v>6</v>
       </c>
+      <c r="AP107">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15008,6 +15331,9 @@
       <c r="AO108">
         <v>23</v>
       </c>
+      <c r="AP108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15143,6 +15469,9 @@
       <c r="AO109">
         <v>100</v>
       </c>
+      <c r="AP109">
+        <v>100</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15278,6 +15607,9 @@
       <c r="AO110">
         <v>19</v>
       </c>
+      <c r="AP110">
+        <v>19</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15413,6 +15745,9 @@
       <c r="AO111">
         <v>26</v>
       </c>
+      <c r="AP111">
+        <v>27</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15548,6 +15883,9 @@
       <c r="AO112">
         <v>47</v>
       </c>
+      <c r="AP112">
+        <v>48</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15683,6 +16021,9 @@
       <c r="AO113">
         <v>409</v>
       </c>
+      <c r="AP113">
+        <v>409</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15818,6 +16159,9 @@
       <c r="AO114">
         <v>177</v>
       </c>
+      <c r="AP114">
+        <v>179</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15953,6 +16297,9 @@
       <c r="AO115">
         <v>10</v>
       </c>
+      <c r="AP115">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16088,6 +16435,9 @@
       <c r="AO116">
         <v>26</v>
       </c>
+      <c r="AP116">
+        <v>26</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16223,6 +16573,9 @@
       <c r="AO117">
         <v>49</v>
       </c>
+      <c r="AP117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16358,6 +16711,9 @@
       <c r="AO118">
         <v>92</v>
       </c>
+      <c r="AP118">
+        <v>92</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16493,6 +16849,9 @@
       <c r="AO119">
         <v>156</v>
       </c>
+      <c r="AP119">
+        <v>157</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16628,6 +16987,9 @@
       <c r="AO120">
         <v>45</v>
       </c>
+      <c r="AP120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16763,6 +17125,9 @@
       <c r="AO121">
         <v>8</v>
       </c>
+      <c r="AP121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16898,6 +17263,9 @@
       <c r="AO122">
         <v>58</v>
       </c>
+      <c r="AP122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17033,6 +17401,9 @@
       <c r="AO123">
         <v>14</v>
       </c>
+      <c r="AP123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17168,6 +17539,9 @@
       <c r="AO124">
         <v>39</v>
       </c>
+      <c r="AP124">
+        <v>39</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17303,6 +17677,9 @@
       <c r="AO125">
         <v>17</v>
       </c>
+      <c r="AP125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17438,6 +17815,9 @@
       <c r="AO126">
         <v>2</v>
       </c>
+      <c r="AP126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17573,6 +17953,9 @@
       <c r="AO127">
         <v>10</v>
       </c>
+      <c r="AP127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -17708,6 +18091,9 @@
       <c r="AO128">
         <v>1</v>
       </c>
+      <c r="AP128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17843,6 +18229,9 @@
       <c r="AO129">
         <v>7</v>
       </c>
+      <c r="AP129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -17978,6 +18367,9 @@
       <c r="AO130">
         <v>11</v>
       </c>
+      <c r="AP130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18113,6 +18505,9 @@
       <c r="AO131">
         <v>8</v>
       </c>
+      <c r="AP131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -18248,6 +18643,9 @@
       <c r="AO132">
         <v>13</v>
       </c>
+      <c r="AP132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -18383,6 +18781,9 @@
       <c r="AO133">
         <v>44</v>
       </c>
+      <c r="AP133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18518,6 +18919,9 @@
       <c r="AO134">
         <v>0</v>
       </c>
+      <c r="AP134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -18653,6 +19057,9 @@
       <c r="AO135">
         <v>0</v>
       </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -18788,6 +19195,9 @@
       <c r="AO136">
         <v>10</v>
       </c>
+      <c r="AP136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -18923,6 +19333,9 @@
       <c r="AO137">
         <v>9</v>
       </c>
+      <c r="AP137">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19058,6 +19471,9 @@
       <c r="AO138">
         <v>42</v>
       </c>
+      <c r="AP138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -19193,6 +19609,9 @@
       <c r="AO139">
         <v>4</v>
       </c>
+      <c r="AP139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -19328,6 +19747,9 @@
       <c r="AO140">
         <v>1</v>
       </c>
+      <c r="AP140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -19463,6 +19885,9 @@
       <c r="AO141">
         <v>3</v>
       </c>
+      <c r="AP141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -19598,6 +20023,9 @@
       <c r="AO142">
         <v>6</v>
       </c>
+      <c r="AP142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -19733,6 +20161,9 @@
       <c r="AO143">
         <v>11</v>
       </c>
+      <c r="AP143">
+        <v>12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -19868,6 +20299,9 @@
       <c r="AO144">
         <v>2</v>
       </c>
+      <c r="AP144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20003,6 +20437,9 @@
       <c r="AO145">
         <v>82</v>
       </c>
+      <c r="AP145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20138,6 +20575,9 @@
       <c r="AO146">
         <v>38</v>
       </c>
+      <c r="AP146">
+        <v>38</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -20273,6 +20713,9 @@
       <c r="AO147">
         <v>23</v>
       </c>
+      <c r="AP147">
+        <v>23</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -20408,6 +20851,9 @@
       <c r="AO148">
         <v>62</v>
       </c>
+      <c r="AP148">
+        <v>62</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -20543,6 +20989,9 @@
       <c r="AO149">
         <v>12</v>
       </c>
+      <c r="AP149">
+        <v>12</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -20678,6 +21127,9 @@
       <c r="AO150">
         <v>36</v>
       </c>
+      <c r="AP150">
+        <v>36</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -20813,6 +21265,9 @@
       <c r="AO151">
         <v>0</v>
       </c>
+      <c r="AP151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -20948,6 +21403,9 @@
       <c r="AO152">
         <v>21</v>
       </c>
+      <c r="AP152">
+        <v>21</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21083,6 +21541,9 @@
       <c r="AO153">
         <v>4</v>
       </c>
+      <c r="AP153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -21218,6 +21679,9 @@
       <c r="AO154">
         <v>5</v>
       </c>
+      <c r="AP154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -21353,6 +21817,9 @@
       <c r="AO155">
         <v>3</v>
       </c>
+      <c r="AP155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -21488,6 +21955,9 @@
       <c r="AO156">
         <v>3</v>
       </c>
+      <c r="AP156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -21623,6 +22093,9 @@
       <c r="AO157">
         <v>16</v>
       </c>
+      <c r="AP157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -21758,6 +22231,9 @@
       <c r="AO158">
         <v>3</v>
       </c>
+      <c r="AP158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -21893,6 +22369,9 @@
       <c r="AO159">
         <v>4</v>
       </c>
+      <c r="AP159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22028,6 +22507,9 @@
       <c r="AO160">
         <v>0</v>
       </c>
+      <c r="AP160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -22163,6 +22645,9 @@
       <c r="AO161">
         <v>0</v>
       </c>
+      <c r="AP161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -22298,6 +22783,9 @@
       <c r="AO162">
         <v>2</v>
       </c>
+      <c r="AP162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -22433,6 +22921,9 @@
       <c r="AO163">
         <v>0</v>
       </c>
+      <c r="AP163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -22568,6 +23059,9 @@
       <c r="AO164">
         <v>0</v>
       </c>
+      <c r="AP164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -22703,6 +23197,9 @@
       <c r="AO165">
         <v>1</v>
       </c>
+      <c r="AP165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -22838,6 +23335,9 @@
       <c r="AO166">
         <v>0</v>
       </c>
+      <c r="AP166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -22973,6 +23473,9 @@
       <c r="AO167">
         <v>1</v>
       </c>
+      <c r="AP167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -23108,6 +23611,9 @@
       <c r="AO168">
         <v>5</v>
       </c>
+      <c r="AP168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -23243,6 +23749,9 @@
       <c r="AO169">
         <v>2</v>
       </c>
+      <c r="AP169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -23378,6 +23887,9 @@
       <c r="AO170">
         <v>1</v>
       </c>
+      <c r="AP170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -23513,6 +24025,9 @@
       <c r="AO171">
         <v>3</v>
       </c>
+      <c r="AP171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -23648,6 +24163,9 @@
       <c r="AO172">
         <v>2</v>
       </c>
+      <c r="AP172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -23783,6 +24301,9 @@
       <c r="AO173">
         <v>13</v>
       </c>
+      <c r="AP173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -23918,6 +24439,9 @@
       <c r="AO174">
         <v>36</v>
       </c>
+      <c r="AP174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -24053,6 +24577,9 @@
       <c r="AO175">
         <v>1</v>
       </c>
+      <c r="AP175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -24188,6 +24715,9 @@
       <c r="AO176">
         <v>8</v>
       </c>
+      <c r="AP176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -24323,6 +24853,9 @@
       <c r="AO177">
         <v>2</v>
       </c>
+      <c r="AP177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -24458,6 +24991,9 @@
       <c r="AO178">
         <v>6</v>
       </c>
+      <c r="AP178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -24593,6 +25129,9 @@
       <c r="AO179">
         <v>4</v>
       </c>
+      <c r="AP179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -24728,6 +25267,9 @@
       <c r="AO180">
         <v>12</v>
       </c>
+      <c r="AP180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -24863,6 +25405,9 @@
       <c r="AO181">
         <v>11</v>
       </c>
+      <c r="AP181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -24998,6 +25543,9 @@
       <c r="AO182">
         <v>2</v>
       </c>
+      <c r="AP182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -25133,6 +25681,9 @@
       <c r="AO183">
         <v>1</v>
       </c>
+      <c r="AP183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -25268,6 +25819,9 @@
       <c r="AO184">
         <v>0</v>
       </c>
+      <c r="AP184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -25403,6 +25957,9 @@
       <c r="AO185">
         <v>1</v>
       </c>
+      <c r="AP185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -25538,6 +26095,9 @@
       <c r="AO186">
         <v>9</v>
       </c>
+      <c r="AP186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -25673,6 +26233,9 @@
       <c r="AO187">
         <v>0</v>
       </c>
+      <c r="AP187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -25808,6 +26371,9 @@
       <c r="AO188">
         <v>0</v>
       </c>
+      <c r="AP188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -25943,6 +26509,9 @@
       <c r="AO189">
         <v>0</v>
       </c>
+      <c r="AP189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -26078,6 +26647,9 @@
       <c r="AO190">
         <v>25</v>
       </c>
+      <c r="AP190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -26213,6 +26785,9 @@
       <c r="AO191">
         <v>20</v>
       </c>
+      <c r="AP191">
+        <v>20</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -26348,6 +26923,9 @@
       <c r="AO192">
         <v>57</v>
       </c>
+      <c r="AP192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -26483,6 +27061,9 @@
       <c r="AO193">
         <v>38</v>
       </c>
+      <c r="AP193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -26618,6 +27199,9 @@
       <c r="AO194">
         <v>36</v>
       </c>
+      <c r="AP194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -26753,6 +27337,9 @@
       <c r="AO195">
         <v>10</v>
       </c>
+      <c r="AP195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -26888,6 +27475,9 @@
       <c r="AO196">
         <v>40</v>
       </c>
+      <c r="AP196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -27023,6 +27613,9 @@
       <c r="AO197">
         <v>4</v>
       </c>
+      <c r="AP197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -27158,6 +27751,9 @@
       <c r="AO198">
         <v>23</v>
       </c>
+      <c r="AP198">
+        <v>23</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -27293,6 +27889,9 @@
       <c r="AO199">
         <v>2</v>
       </c>
+      <c r="AP199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -27428,6 +28027,9 @@
       <c r="AO200">
         <v>5</v>
       </c>
+      <c r="AP200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -27563,6 +28165,9 @@
       <c r="AO201">
         <v>2</v>
       </c>
+      <c r="AP201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -27698,6 +28303,9 @@
       <c r="AO202">
         <v>1</v>
       </c>
+      <c r="AP202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -27833,6 +28441,9 @@
       <c r="AO203">
         <v>5</v>
       </c>
+      <c r="AP203">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -27968,6 +28579,9 @@
       <c r="AO204">
         <v>0</v>
       </c>
+      <c r="AP204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -28103,6 +28717,9 @@
       <c r="AO205">
         <v>1</v>
       </c>
+      <c r="AP205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -28238,6 +28855,9 @@
       <c r="AO206">
         <v>1</v>
       </c>
+      <c r="AP206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -28373,6 +28993,9 @@
       <c r="AO207">
         <v>0</v>
       </c>
+      <c r="AP207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -28508,6 +29131,9 @@
       <c r="AO208">
         <v>0</v>
       </c>
+      <c r="AP208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -28643,6 +29269,9 @@
       <c r="AO209">
         <v>0</v>
       </c>
+      <c r="AP209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -28778,6 +29407,9 @@
       <c r="AO210">
         <v>0</v>
       </c>
+      <c r="AP210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -28913,6 +29545,9 @@
       <c r="AO211">
         <v>0</v>
       </c>
+      <c r="AP211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -29048,6 +29683,9 @@
       <c r="AO212">
         <v>2</v>
       </c>
+      <c r="AP212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -29183,6 +29821,9 @@
       <c r="AO213">
         <v>0</v>
       </c>
+      <c r="AP213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -29318,6 +29959,9 @@
       <c r="AO214">
         <v>3</v>
       </c>
+      <c r="AP214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -29453,6 +30097,9 @@
       <c r="AO215">
         <v>30</v>
       </c>
+      <c r="AP215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -29588,6 +30235,9 @@
       <c r="AO216">
         <v>217</v>
       </c>
+      <c r="AP216">
+        <v>218</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -29723,6 +30373,9 @@
       <c r="AO217">
         <v>9</v>
       </c>
+      <c r="AP217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -29858,6 +30511,9 @@
       <c r="AO218">
         <v>11</v>
       </c>
+      <c r="AP218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -29993,6 +30649,9 @@
       <c r="AO219">
         <v>0</v>
       </c>
+      <c r="AP219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -30128,6 +30787,9 @@
       <c r="AO220">
         <v>2</v>
       </c>
+      <c r="AP220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -30263,6 +30925,9 @@
       <c r="AO221">
         <v>0</v>
       </c>
+      <c r="AP221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -30398,6 +31063,9 @@
       <c r="AO222">
         <v>1</v>
       </c>
+      <c r="AP222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -30533,6 +31201,9 @@
       <c r="AO223">
         <v>2</v>
       </c>
+      <c r="AP223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -30668,6 +31339,9 @@
       <c r="AO224">
         <v>8</v>
       </c>
+      <c r="AP224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -30803,6 +31477,9 @@
       <c r="AO225">
         <v>3</v>
       </c>
+      <c r="AP225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -30938,6 +31615,9 @@
       <c r="AO226">
         <v>1</v>
       </c>
+      <c r="AP226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -31073,6 +31753,9 @@
       <c r="AO227">
         <v>2</v>
       </c>
+      <c r="AP227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -31208,6 +31891,9 @@
       <c r="AO228">
         <v>2</v>
       </c>
+      <c r="AP228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -31343,6 +32029,9 @@
       <c r="AO229">
         <v>2</v>
       </c>
+      <c r="AP229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -31478,6 +32167,9 @@
       <c r="AO230">
         <v>0</v>
       </c>
+      <c r="AP230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -31613,6 +32305,9 @@
       <c r="AO231">
         <v>3</v>
       </c>
+      <c r="AP231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -31748,6 +32443,9 @@
       <c r="AO232">
         <v>21</v>
       </c>
+      <c r="AP232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -31883,6 +32581,9 @@
       <c r="AO233">
         <v>0</v>
       </c>
+      <c r="AP233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -32018,6 +32719,9 @@
       <c r="AO234">
         <v>4</v>
       </c>
+      <c r="AP234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -32153,6 +32857,9 @@
       <c r="AO235">
         <v>1</v>
       </c>
+      <c r="AP235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -32288,6 +32995,9 @@
       <c r="AO236">
         <v>1</v>
       </c>
+      <c r="AP236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -32423,6 +33133,9 @@
       <c r="AO237">
         <v>1</v>
       </c>
+      <c r="AP237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -32558,6 +33271,9 @@
       <c r="AO238">
         <v>544</v>
       </c>
+      <c r="AP238">
+        <v>546</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -32693,6 +33409,9 @@
       <c r="AO239">
         <v>9</v>
       </c>
+      <c r="AP239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -32828,6 +33547,9 @@
       <c r="AO240">
         <v>4</v>
       </c>
+      <c r="AP240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -32963,6 +33685,9 @@
       <c r="AO241">
         <v>4</v>
       </c>
+      <c r="AP241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -33098,6 +33823,9 @@
       <c r="AO242">
         <v>4</v>
       </c>
+      <c r="AP242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -33233,6 +33961,9 @@
       <c r="AO243">
         <v>6</v>
       </c>
+      <c r="AP243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -33368,6 +34099,9 @@
       <c r="AO244">
         <v>8</v>
       </c>
+      <c r="AP244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -33503,6 +34237,9 @@
       <c r="AO245">
         <v>0</v>
       </c>
+      <c r="AP245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -33638,6 +34375,9 @@
       <c r="AO246">
         <v>4</v>
       </c>
+      <c r="AP246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -33773,6 +34513,9 @@
       <c r="AO247">
         <v>0</v>
       </c>
+      <c r="AP247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -33908,6 +34651,9 @@
       <c r="AO248">
         <v>0</v>
       </c>
+      <c r="AP248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -34043,6 +34789,9 @@
       <c r="AO249">
         <v>2</v>
       </c>
+      <c r="AP249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -34178,6 +34927,9 @@
       <c r="AO250">
         <v>24</v>
       </c>
+      <c r="AP250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -34313,6 +35065,9 @@
       <c r="AO251">
         <v>9</v>
       </c>
+      <c r="AP251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -34448,6 +35203,9 @@
       <c r="AO252">
         <v>0</v>
       </c>
+      <c r="AP252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -34583,6 +35341,9 @@
       <c r="AO253">
         <v>17</v>
       </c>
+      <c r="AP253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -34718,6 +35479,9 @@
       <c r="AO254">
         <v>5</v>
       </c>
+      <c r="AP254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -34853,6 +35617,9 @@
       <c r="AO255">
         <v>53</v>
       </c>
+      <c r="AP255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -34988,6 +35755,9 @@
       <c r="AO256">
         <v>41</v>
       </c>
+      <c r="AP256">
+        <v>41</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -35123,6 +35893,9 @@
       <c r="AO257">
         <v>1</v>
       </c>
+      <c r="AP257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -35258,6 +36031,9 @@
       <c r="AO258">
         <v>0</v>
       </c>
+      <c r="AP258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -35393,6 +36169,9 @@
       <c r="AO259">
         <v>40</v>
       </c>
+      <c r="AP259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -35528,6 +36307,9 @@
       <c r="AO260">
         <v>26</v>
       </c>
+      <c r="AP260">
+        <v>27</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -35663,6 +36445,9 @@
       <c r="AO261">
         <v>0</v>
       </c>
+      <c r="AP261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -35798,6 +36583,9 @@
       <c r="AO262">
         <v>0</v>
       </c>
+      <c r="AP262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -35933,6 +36721,9 @@
       <c r="AO263">
         <v>0</v>
       </c>
+      <c r="AP263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -36068,6 +36859,9 @@
       <c r="AO264">
         <v>1</v>
       </c>
+      <c r="AP264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -36203,6 +36997,9 @@
       <c r="AO265">
         <v>3</v>
       </c>
+      <c r="AP265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -36338,6 +37135,9 @@
       <c r="AO266">
         <v>0</v>
       </c>
+      <c r="AP266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -36473,6 +37273,9 @@
       <c r="AO267">
         <v>3</v>
       </c>
+      <c r="AP267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -36608,6 +37411,9 @@
       <c r="AO268">
         <v>0</v>
       </c>
+      <c r="AP268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -36743,6 +37549,9 @@
       <c r="AO269">
         <v>7</v>
       </c>
+      <c r="AP269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -36878,6 +37687,9 @@
       <c r="AO270">
         <v>0</v>
       </c>
+      <c r="AP270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -37013,6 +37825,9 @@
       <c r="AO271">
         <v>0</v>
       </c>
+      <c r="AP271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -37148,6 +37963,9 @@
       <c r="AO272">
         <v>1</v>
       </c>
+      <c r="AP272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -37283,6 +38101,9 @@
       <c r="AO273">
         <v>4</v>
       </c>
+      <c r="AP273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -37418,6 +38239,9 @@
       <c r="AO274">
         <v>0</v>
       </c>
+      <c r="AP274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -37553,6 +38377,9 @@
       <c r="AO275">
         <v>0</v>
       </c>
+      <c r="AP275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -37688,6 +38515,9 @@
       <c r="AO276">
         <v>17</v>
       </c>
+      <c r="AP276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -37823,6 +38653,9 @@
       <c r="AO277">
         <v>0</v>
       </c>
+      <c r="AP277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -37958,6 +38791,9 @@
       <c r="AO278">
         <v>0</v>
       </c>
+      <c r="AP278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -38093,6 +38929,9 @@
       <c r="AO279">
         <v>4</v>
       </c>
+      <c r="AP279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -38228,6 +39067,9 @@
       <c r="AO280">
         <v>12</v>
       </c>
+      <c r="AP280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -38363,6 +39205,9 @@
       <c r="AO281">
         <v>280</v>
       </c>
+      <c r="AP281">
+        <v>285</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -38498,6 +39343,9 @@
       <c r="AO282">
         <v>16</v>
       </c>
+      <c r="AP282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -38633,6 +39481,9 @@
       <c r="AO283">
         <v>5</v>
       </c>
+      <c r="AP283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -38768,6 +39619,9 @@
       <c r="AO284">
         <v>0</v>
       </c>
+      <c r="AP284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -38903,6 +39757,9 @@
       <c r="AO285">
         <v>0</v>
       </c>
+      <c r="AP285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -39038,6 +39895,9 @@
       <c r="AO286">
         <v>8</v>
       </c>
+      <c r="AP286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -39173,6 +40033,9 @@
       <c r="AO287">
         <v>5</v>
       </c>
+      <c r="AP287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -39308,6 +40171,9 @@
       <c r="AO288">
         <v>0</v>
       </c>
+      <c r="AP288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -39443,6 +40309,9 @@
       <c r="AO289">
         <v>1</v>
       </c>
+      <c r="AP289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -39578,6 +40447,9 @@
       <c r="AO290">
         <v>7</v>
       </c>
+      <c r="AP290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -39713,6 +40585,9 @@
       <c r="AO291">
         <v>3</v>
       </c>
+      <c r="AP291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -39848,6 +40723,9 @@
       <c r="AO292">
         <v>5</v>
       </c>
+      <c r="AP292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -39983,6 +40861,9 @@
       <c r="AO293">
         <v>12</v>
       </c>
+      <c r="AP293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -40118,6 +40999,9 @@
       <c r="AO294">
         <v>6</v>
       </c>
+      <c r="AP294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -40253,6 +41137,9 @@
       <c r="AO295">
         <v>0</v>
       </c>
+      <c r="AP295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -40388,6 +41275,9 @@
       <c r="AO296">
         <v>1</v>
       </c>
+      <c r="AP296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -40523,6 +41413,9 @@
       <c r="AO297">
         <v>8</v>
       </c>
+      <c r="AP297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -40658,6 +41551,9 @@
       <c r="AO298">
         <v>28</v>
       </c>
+      <c r="AP298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -40793,6 +41689,9 @@
       <c r="AO299">
         <v>21</v>
       </c>
+      <c r="AP299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -40928,6 +41827,9 @@
       <c r="AO300">
         <v>15</v>
       </c>
+      <c r="AP300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -41063,6 +41965,9 @@
       <c r="AO301">
         <v>1</v>
       </c>
+      <c r="AP301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -41198,6 +42103,9 @@
       <c r="AO302">
         <v>0</v>
       </c>
+      <c r="AP302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -41333,6 +42241,9 @@
       <c r="AO303">
         <v>0</v>
       </c>
+      <c r="AP303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -41468,6 +42379,9 @@
       <c r="AO304">
         <v>0</v>
       </c>
+      <c r="AP304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -41603,6 +42517,9 @@
       <c r="AO305">
         <v>3</v>
       </c>
+      <c r="AP305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -41738,6 +42655,9 @@
       <c r="AO306">
         <v>1</v>
       </c>
+      <c r="AP306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -41873,6 +42793,9 @@
       <c r="AO307">
         <v>4</v>
       </c>
+      <c r="AP307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -42008,6 +42931,9 @@
       <c r="AO308">
         <v>0</v>
       </c>
+      <c r="AP308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -42143,6 +43069,9 @@
       <c r="AO309">
         <v>0</v>
       </c>
+      <c r="AP309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -42278,6 +43207,9 @@
       <c r="AO310">
         <v>7</v>
       </c>
+      <c r="AP310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -42413,6 +43345,9 @@
       <c r="AO311">
         <v>2</v>
       </c>
+      <c r="AP311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -42548,6 +43483,9 @@
       <c r="AO312">
         <v>2</v>
       </c>
+      <c r="AP312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -42683,6 +43621,9 @@
       <c r="AO313">
         <v>2</v>
       </c>
+      <c r="AP313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -42818,6 +43759,9 @@
       <c r="AO314">
         <v>10</v>
       </c>
+      <c r="AP314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -42953,6 +43897,9 @@
       <c r="AO315">
         <v>1</v>
       </c>
+      <c r="AP315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -43088,6 +44035,9 @@
       <c r="AO316">
         <v>17</v>
       </c>
+      <c r="AP316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -43223,6 +44173,9 @@
       <c r="AO317">
         <v>0</v>
       </c>
+      <c r="AP317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -43358,6 +44311,9 @@
       <c r="AO318">
         <v>0</v>
       </c>
+      <c r="AP318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -43493,6 +44449,9 @@
       <c r="AO319">
         <v>155</v>
       </c>
+      <c r="AP319">
+        <v>158</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -43628,6 +44587,9 @@
       <c r="AO320">
         <v>6</v>
       </c>
+      <c r="AP320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -43763,6 +44725,9 @@
       <c r="AO321">
         <v>5</v>
       </c>
+      <c r="AP321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -43898,6 +44863,9 @@
       <c r="AO322">
         <v>1</v>
       </c>
+      <c r="AP322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -44033,6 +45001,9 @@
       <c r="AO323">
         <v>3</v>
       </c>
+      <c r="AP323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -44168,6 +45139,9 @@
       <c r="AO324">
         <v>15</v>
       </c>
+      <c r="AP324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -44303,6 +45277,9 @@
       <c r="AO325">
         <v>1</v>
       </c>
+      <c r="AP325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -44438,6 +45415,9 @@
       <c r="AO326">
         <v>1</v>
       </c>
+      <c r="AP326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -44573,6 +45553,9 @@
       <c r="AO327">
         <v>0</v>
       </c>
+      <c r="AP327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -44708,6 +45691,9 @@
       <c r="AO328">
         <v>0</v>
       </c>
+      <c r="AP328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -44843,6 +45829,9 @@
       <c r="AO329">
         <v>3</v>
       </c>
+      <c r="AP329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -44978,6 +45967,9 @@
       <c r="AO330">
         <v>1</v>
       </c>
+      <c r="AP330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -45113,6 +46105,9 @@
       <c r="AO331">
         <v>2</v>
       </c>
+      <c r="AP331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -45248,6 +46243,9 @@
       <c r="AO332">
         <v>1</v>
       </c>
+      <c r="AP332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -45383,6 +46381,9 @@
       <c r="AO333">
         <v>0</v>
       </c>
+      <c r="AP333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -45518,6 +46519,9 @@
       <c r="AO334">
         <v>0</v>
       </c>
+      <c r="AP334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -45653,6 +46657,9 @@
       <c r="AO335">
         <v>16</v>
       </c>
+      <c r="AP335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -45788,6 +46795,9 @@
       <c r="AO336">
         <v>2</v>
       </c>
+      <c r="AP336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -45923,6 +46933,9 @@
       <c r="AO337">
         <v>1</v>
       </c>
+      <c r="AP337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -46058,6 +47071,9 @@
       <c r="AO338">
         <v>2</v>
       </c>
+      <c r="AP338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -46193,6 +47209,9 @@
       <c r="AO339">
         <v>0</v>
       </c>
+      <c r="AP339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -46328,6 +47347,9 @@
       <c r="AO340">
         <v>0</v>
       </c>
+      <c r="AP340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -46463,6 +47485,9 @@
       <c r="AO341">
         <v>1</v>
       </c>
+      <c r="AP341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -46598,6 +47623,9 @@
       <c r="AO342">
         <v>2</v>
       </c>
+      <c r="AP342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -46733,6 +47761,9 @@
       <c r="AO343">
         <v>0</v>
       </c>
+      <c r="AP343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -46868,6 +47899,9 @@
       <c r="AO344">
         <v>1</v>
       </c>
+      <c r="AP344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -47003,6 +48037,9 @@
       <c r="AO345">
         <v>0</v>
       </c>
+      <c r="AP345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -47138,6 +48175,9 @@
       <c r="AO346">
         <v>0</v>
       </c>
+      <c r="AP346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -47273,6 +48313,9 @@
       <c r="AO347">
         <v>3</v>
       </c>
+      <c r="AP347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -47408,6 +48451,9 @@
       <c r="AO348">
         <v>2</v>
       </c>
+      <c r="AP348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -47543,6 +48589,9 @@
       <c r="AO349">
         <v>4</v>
       </c>
+      <c r="AP349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -47678,6 +48727,9 @@
       <c r="AO350">
         <v>1</v>
       </c>
+      <c r="AP350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -47813,6 +48865,9 @@
       <c r="AO351">
         <v>0</v>
       </c>
+      <c r="AP351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -47948,6 +49003,9 @@
       <c r="AO352">
         <v>0</v>
       </c>
+      <c r="AP352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -48083,6 +49141,9 @@
       <c r="AO353">
         <v>0</v>
       </c>
+      <c r="AP353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -48218,6 +49279,9 @@
       <c r="AO354">
         <v>1</v>
       </c>
+      <c r="AP354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -48353,6 +49417,9 @@
       <c r="AO355">
         <v>1</v>
       </c>
+      <c r="AP355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -48488,6 +49555,9 @@
       <c r="AO356">
         <v>0</v>
       </c>
+      <c r="AP356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -48623,6 +49693,9 @@
       <c r="AO357">
         <v>4</v>
       </c>
+      <c r="AP357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -48758,6 +49831,9 @@
       <c r="AO358">
         <v>0</v>
       </c>
+      <c r="AP358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -48891,6 +49967,9 @@
         <v>0</v>
       </c>
       <c r="AO359">
+        <v>0</v>
+      </c>
+      <c r="AP359">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP359"/>
+  <dimension ref="A1:AQ359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +568,11 @@
           <t>2020-04-30</t>
         </is>
       </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -706,6 +711,9 @@
       <c r="AP2">
         <v>2363</v>
       </c>
+      <c r="AQ2">
+        <v>2381</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -844,6 +852,9 @@
       <c r="AP3">
         <v>14</v>
       </c>
+      <c r="AQ3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -982,6 +993,9 @@
       <c r="AP4">
         <v>133</v>
       </c>
+      <c r="AQ4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1120,6 +1134,9 @@
       <c r="AP5">
         <v>51</v>
       </c>
+      <c r="AQ5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1258,6 +1275,9 @@
       <c r="AP6">
         <v>47</v>
       </c>
+      <c r="AQ6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1396,6 +1416,9 @@
       <c r="AP7">
         <v>5</v>
       </c>
+      <c r="AQ7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1534,6 +1557,9 @@
       <c r="AP8">
         <v>1</v>
       </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1672,6 +1698,9 @@
       <c r="AP9">
         <v>0</v>
       </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1810,6 +1839,9 @@
       <c r="AP10">
         <v>7</v>
       </c>
+      <c r="AQ10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1948,6 +1980,9 @@
       <c r="AP11">
         <v>6</v>
       </c>
+      <c r="AQ11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2086,6 +2121,9 @@
       <c r="AP12">
         <v>12</v>
       </c>
+      <c r="AQ12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2224,6 +2262,9 @@
       <c r="AP13">
         <v>13</v>
       </c>
+      <c r="AQ13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2362,6 +2403,9 @@
       <c r="AP14">
         <v>16</v>
       </c>
+      <c r="AQ14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2500,6 +2544,9 @@
       <c r="AP15">
         <v>11</v>
       </c>
+      <c r="AQ15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2638,6 +2685,9 @@
       <c r="AP16">
         <v>13</v>
       </c>
+      <c r="AQ16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2776,6 +2826,9 @@
       <c r="AP17">
         <v>0</v>
       </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2914,6 +2967,9 @@
       <c r="AP18">
         <v>0</v>
       </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3052,6 +3108,9 @@
       <c r="AP19">
         <v>3</v>
       </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3190,6 +3249,9 @@
       <c r="AP20">
         <v>0</v>
       </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3328,6 +3390,9 @@
       <c r="AP21">
         <v>1</v>
       </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3466,6 +3531,9 @@
       <c r="AP22">
         <v>20</v>
       </c>
+      <c r="AQ22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3604,6 +3672,9 @@
       <c r="AP23">
         <v>67</v>
       </c>
+      <c r="AQ23">
+        <v>67</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3742,6 +3813,9 @@
       <c r="AP24">
         <v>0</v>
       </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3880,6 +3954,9 @@
       <c r="AP25">
         <v>11</v>
       </c>
+      <c r="AQ25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4018,6 +4095,9 @@
       <c r="AP26">
         <v>18</v>
       </c>
+      <c r="AQ26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4156,6 +4236,9 @@
       <c r="AP27">
         <v>13</v>
       </c>
+      <c r="AQ27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4294,6 +4377,9 @@
       <c r="AP28">
         <v>27</v>
       </c>
+      <c r="AQ28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4432,6 +4518,9 @@
       <c r="AP29">
         <v>1</v>
       </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4570,6 +4659,9 @@
       <c r="AP30">
         <v>5</v>
       </c>
+      <c r="AQ30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4708,6 +4800,9 @@
       <c r="AP31">
         <v>3</v>
       </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4846,6 +4941,9 @@
       <c r="AP32">
         <v>8</v>
       </c>
+      <c r="AQ32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4984,6 +5082,9 @@
       <c r="AP33">
         <v>2</v>
       </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5122,6 +5223,9 @@
       <c r="AP34">
         <v>6</v>
       </c>
+      <c r="AQ34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5260,6 +5364,9 @@
       <c r="AP35">
         <v>0</v>
       </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5398,6 +5505,9 @@
       <c r="AP36">
         <v>1</v>
       </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5536,6 +5646,9 @@
       <c r="AP37">
         <v>6</v>
       </c>
+      <c r="AQ37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5674,6 +5787,9 @@
       <c r="AP38">
         <v>5</v>
       </c>
+      <c r="AQ38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5812,6 +5928,9 @@
       <c r="AP39">
         <v>1</v>
       </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5950,6 +6069,9 @@
       <c r="AP40">
         <v>10</v>
       </c>
+      <c r="AQ40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6088,6 +6210,9 @@
       <c r="AP41">
         <v>0</v>
       </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6226,6 +6351,9 @@
       <c r="AP42">
         <v>0</v>
       </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6364,6 +6492,9 @@
       <c r="AP43">
         <v>1</v>
       </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6502,6 +6633,9 @@
       <c r="AP44">
         <v>1</v>
       </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6640,6 +6774,9 @@
       <c r="AP45">
         <v>2</v>
       </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6778,6 +6915,9 @@
       <c r="AP46">
         <v>2</v>
       </c>
+      <c r="AQ46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6916,6 +7056,9 @@
       <c r="AP47">
         <v>0</v>
       </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7054,6 +7197,9 @@
       <c r="AP48">
         <v>3</v>
       </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7192,6 +7338,9 @@
       <c r="AP49">
         <v>4</v>
       </c>
+      <c r="AQ49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7330,6 +7479,9 @@
       <c r="AP50">
         <v>1</v>
       </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7468,6 +7620,9 @@
       <c r="AP51">
         <v>3</v>
       </c>
+      <c r="AQ51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7606,6 +7761,9 @@
       <c r="AP52">
         <v>39</v>
       </c>
+      <c r="AQ52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7744,6 +7902,9 @@
       <c r="AP53">
         <v>6</v>
       </c>
+      <c r="AQ53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7882,6 +8043,9 @@
       <c r="AP54">
         <v>0</v>
       </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8020,6 +8184,9 @@
       <c r="AP55">
         <v>2</v>
       </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8158,6 +8325,9 @@
       <c r="AP56">
         <v>5</v>
       </c>
+      <c r="AQ56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8296,6 +8466,9 @@
       <c r="AP57">
         <v>3</v>
       </c>
+      <c r="AQ57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8434,6 +8607,9 @@
       <c r="AP58">
         <v>0</v>
       </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8572,6 +8748,9 @@
       <c r="AP59">
         <v>0</v>
       </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8710,6 +8889,9 @@
       <c r="AP60">
         <v>2</v>
       </c>
+      <c r="AQ60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8848,6 +9030,9 @@
       <c r="AP61">
         <v>4</v>
       </c>
+      <c r="AQ61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8986,6 +9171,9 @@
       <c r="AP62">
         <v>1</v>
       </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9124,6 +9312,9 @@
       <c r="AP63">
         <v>1</v>
       </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9262,6 +9453,9 @@
       <c r="AP64">
         <v>0</v>
       </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9400,6 +9594,9 @@
       <c r="AP65">
         <v>5</v>
       </c>
+      <c r="AQ65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9538,6 +9735,9 @@
       <c r="AP66">
         <v>0</v>
       </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9676,6 +9876,9 @@
       <c r="AP67">
         <v>0</v>
       </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9814,6 +10017,9 @@
       <c r="AP68">
         <v>4</v>
       </c>
+      <c r="AQ68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9952,6 +10158,9 @@
       <c r="AP69">
         <v>0</v>
       </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10090,6 +10299,9 @@
       <c r="AP70">
         <v>0</v>
       </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10228,6 +10440,9 @@
       <c r="AP71">
         <v>0</v>
       </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10366,6 +10581,9 @@
       <c r="AP72">
         <v>5</v>
       </c>
+      <c r="AQ72">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10504,6 +10722,9 @@
       <c r="AP73">
         <v>0</v>
       </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10642,6 +10863,9 @@
       <c r="AP74">
         <v>0</v>
       </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10780,6 +11004,9 @@
       <c r="AP75">
         <v>0</v>
       </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10918,6 +11145,9 @@
       <c r="AP76">
         <v>2</v>
       </c>
+      <c r="AQ76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11056,6 +11286,9 @@
       <c r="AP77">
         <v>0</v>
       </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11194,6 +11427,9 @@
       <c r="AP78">
         <v>1</v>
       </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11332,6 +11568,9 @@
       <c r="AP79">
         <v>0</v>
       </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11470,6 +11709,9 @@
       <c r="AP80">
         <v>0</v>
       </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11608,6 +11850,9 @@
       <c r="AP81">
         <v>0</v>
       </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11746,6 +11991,9 @@
       <c r="AP82">
         <v>0</v>
       </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11884,6 +12132,9 @@
       <c r="AP83">
         <v>6</v>
       </c>
+      <c r="AQ83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12022,6 +12273,9 @@
       <c r="AP84">
         <v>13</v>
       </c>
+      <c r="AQ84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12160,6 +12414,9 @@
       <c r="AP85">
         <v>3</v>
       </c>
+      <c r="AQ85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12298,6 +12555,9 @@
       <c r="AP86">
         <v>5</v>
       </c>
+      <c r="AQ86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12436,6 +12696,9 @@
       <c r="AP87">
         <v>0</v>
       </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12574,6 +12837,9 @@
       <c r="AP88">
         <v>0</v>
       </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12712,6 +12978,9 @@
       <c r="AP89">
         <v>6</v>
       </c>
+      <c r="AQ89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12850,6 +13119,9 @@
       <c r="AP90">
         <v>0</v>
       </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12988,6 +13260,9 @@
       <c r="AP91">
         <v>1</v>
       </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13126,6 +13401,9 @@
       <c r="AP92">
         <v>0</v>
       </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13264,6 +13542,9 @@
       <c r="AP93">
         <v>36</v>
       </c>
+      <c r="AQ93">
+        <v>36</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13402,6 +13683,9 @@
       <c r="AP94">
         <v>97</v>
       </c>
+      <c r="AQ94">
+        <v>97</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13540,6 +13824,9 @@
       <c r="AP95">
         <v>66</v>
       </c>
+      <c r="AQ95">
+        <v>66</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13678,6 +13965,9 @@
       <c r="AP96">
         <v>93</v>
       </c>
+      <c r="AQ96">
+        <v>94</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13816,6 +14106,9 @@
       <c r="AP97">
         <v>172</v>
       </c>
+      <c r="AQ97">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13954,6 +14247,9 @@
       <c r="AP98">
         <v>21</v>
       </c>
+      <c r="AQ98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14092,6 +14388,9 @@
       <c r="AP99">
         <v>10</v>
       </c>
+      <c r="AQ99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14230,6 +14529,9 @@
       <c r="AP100">
         <v>2</v>
       </c>
+      <c r="AQ100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14368,6 +14670,9 @@
       <c r="AP101">
         <v>2</v>
       </c>
+      <c r="AQ101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14506,6 +14811,9 @@
       <c r="AP102">
         <v>3</v>
       </c>
+      <c r="AQ102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14644,6 +14952,9 @@
       <c r="AP103">
         <v>49</v>
       </c>
+      <c r="AQ103">
+        <v>49</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14782,6 +15093,9 @@
       <c r="AP104">
         <v>2</v>
       </c>
+      <c r="AQ104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14920,6 +15234,9 @@
       <c r="AP105">
         <v>1</v>
       </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15058,6 +15375,9 @@
       <c r="AP106">
         <v>2</v>
       </c>
+      <c r="AQ106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15196,6 +15516,9 @@
       <c r="AP107">
         <v>7</v>
       </c>
+      <c r="AQ107">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15334,6 +15657,9 @@
       <c r="AP108">
         <v>23</v>
       </c>
+      <c r="AQ108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15472,6 +15798,9 @@
       <c r="AP109">
         <v>100</v>
       </c>
+      <c r="AQ109">
+        <v>101</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15610,6 +15939,9 @@
       <c r="AP110">
         <v>19</v>
       </c>
+      <c r="AQ110">
+        <v>20</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15748,6 +16080,9 @@
       <c r="AP111">
         <v>27</v>
       </c>
+      <c r="AQ111">
+        <v>28</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15886,6 +16221,9 @@
       <c r="AP112">
         <v>48</v>
       </c>
+      <c r="AQ112">
+        <v>49</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16024,6 +16362,9 @@
       <c r="AP113">
         <v>409</v>
       </c>
+      <c r="AQ113">
+        <v>411</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16162,6 +16503,9 @@
       <c r="AP114">
         <v>179</v>
       </c>
+      <c r="AQ114">
+        <v>182</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16300,6 +16644,9 @@
       <c r="AP115">
         <v>10</v>
       </c>
+      <c r="AQ115">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16438,6 +16785,9 @@
       <c r="AP116">
         <v>26</v>
       </c>
+      <c r="AQ116">
+        <v>26</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16576,6 +16926,9 @@
       <c r="AP117">
         <v>49</v>
       </c>
+      <c r="AQ117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16714,6 +17067,9 @@
       <c r="AP118">
         <v>92</v>
       </c>
+      <c r="AQ118">
+        <v>92</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16852,6 +17208,9 @@
       <c r="AP119">
         <v>157</v>
       </c>
+      <c r="AQ119">
+        <v>158</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16990,6 +17349,9 @@
       <c r="AP120">
         <v>45</v>
       </c>
+      <c r="AQ120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17128,6 +17490,9 @@
       <c r="AP121">
         <v>8</v>
       </c>
+      <c r="AQ121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17266,6 +17631,9 @@
       <c r="AP122">
         <v>58</v>
       </c>
+      <c r="AQ122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17404,6 +17772,9 @@
       <c r="AP123">
         <v>14</v>
       </c>
+      <c r="AQ123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17542,6 +17913,9 @@
       <c r="AP124">
         <v>39</v>
       </c>
+      <c r="AQ124">
+        <v>40</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17680,6 +18054,9 @@
       <c r="AP125">
         <v>17</v>
       </c>
+      <c r="AQ125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17818,6 +18195,9 @@
       <c r="AP126">
         <v>2</v>
       </c>
+      <c r="AQ126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17956,6 +18336,9 @@
       <c r="AP127">
         <v>10</v>
       </c>
+      <c r="AQ127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18094,6 +18477,9 @@
       <c r="AP128">
         <v>1</v>
       </c>
+      <c r="AQ128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18232,6 +18618,9 @@
       <c r="AP129">
         <v>7</v>
       </c>
+      <c r="AQ129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18370,6 +18759,9 @@
       <c r="AP130">
         <v>11</v>
       </c>
+      <c r="AQ130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18508,6 +18900,9 @@
       <c r="AP131">
         <v>8</v>
       </c>
+      <c r="AQ131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -18646,6 +19041,9 @@
       <c r="AP132">
         <v>13</v>
       </c>
+      <c r="AQ132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -18784,6 +19182,9 @@
       <c r="AP133">
         <v>44</v>
       </c>
+      <c r="AQ133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18922,6 +19323,9 @@
       <c r="AP134">
         <v>0</v>
       </c>
+      <c r="AQ134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19060,6 +19464,9 @@
       <c r="AP135">
         <v>0</v>
       </c>
+      <c r="AQ135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19198,6 +19605,9 @@
       <c r="AP136">
         <v>10</v>
       </c>
+      <c r="AQ136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19336,6 +19746,9 @@
       <c r="AP137">
         <v>9</v>
       </c>
+      <c r="AQ137">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19474,6 +19887,9 @@
       <c r="AP138">
         <v>42</v>
       </c>
+      <c r="AQ138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -19612,6 +20028,9 @@
       <c r="AP139">
         <v>4</v>
       </c>
+      <c r="AQ139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -19750,6 +20169,9 @@
       <c r="AP140">
         <v>1</v>
       </c>
+      <c r="AQ140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -19888,6 +20310,9 @@
       <c r="AP141">
         <v>3</v>
       </c>
+      <c r="AQ141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20026,6 +20451,9 @@
       <c r="AP142">
         <v>6</v>
       </c>
+      <c r="AQ142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20164,6 +20592,9 @@
       <c r="AP143">
         <v>12</v>
       </c>
+      <c r="AQ143">
+        <v>12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20302,6 +20733,9 @@
       <c r="AP144">
         <v>2</v>
       </c>
+      <c r="AQ144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20440,6 +20874,9 @@
       <c r="AP145">
         <v>82</v>
       </c>
+      <c r="AQ145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20578,6 +21015,9 @@
       <c r="AP146">
         <v>38</v>
       </c>
+      <c r="AQ146">
+        <v>39</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -20716,6 +21156,9 @@
       <c r="AP147">
         <v>23</v>
       </c>
+      <c r="AQ147">
+        <v>24</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -20854,6 +21297,9 @@
       <c r="AP148">
         <v>62</v>
       </c>
+      <c r="AQ148">
+        <v>63</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -20992,6 +21438,9 @@
       <c r="AP149">
         <v>12</v>
       </c>
+      <c r="AQ149">
+        <v>12</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21130,6 +21579,9 @@
       <c r="AP150">
         <v>36</v>
       </c>
+      <c r="AQ150">
+        <v>36</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21268,6 +21720,9 @@
       <c r="AP151">
         <v>0</v>
       </c>
+      <c r="AQ151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21406,6 +21861,9 @@
       <c r="AP152">
         <v>21</v>
       </c>
+      <c r="AQ152">
+        <v>21</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21544,6 +22002,9 @@
       <c r="AP153">
         <v>4</v>
       </c>
+      <c r="AQ153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -21682,6 +22143,9 @@
       <c r="AP154">
         <v>5</v>
       </c>
+      <c r="AQ154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -21820,6 +22284,9 @@
       <c r="AP155">
         <v>3</v>
       </c>
+      <c r="AQ155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -21958,6 +22425,9 @@
       <c r="AP156">
         <v>3</v>
       </c>
+      <c r="AQ156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22096,6 +22566,9 @@
       <c r="AP157">
         <v>16</v>
       </c>
+      <c r="AQ157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22234,6 +22707,9 @@
       <c r="AP158">
         <v>3</v>
       </c>
+      <c r="AQ158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22372,6 +22848,9 @@
       <c r="AP159">
         <v>4</v>
       </c>
+      <c r="AQ159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22510,6 +22989,9 @@
       <c r="AP160">
         <v>0</v>
       </c>
+      <c r="AQ160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -22648,6 +23130,9 @@
       <c r="AP161">
         <v>0</v>
       </c>
+      <c r="AQ161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -22786,6 +23271,9 @@
       <c r="AP162">
         <v>2</v>
       </c>
+      <c r="AQ162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -22924,6 +23412,9 @@
       <c r="AP163">
         <v>0</v>
       </c>
+      <c r="AQ163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23062,6 +23553,9 @@
       <c r="AP164">
         <v>0</v>
       </c>
+      <c r="AQ164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23200,6 +23694,9 @@
       <c r="AP165">
         <v>1</v>
       </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23338,6 +23835,9 @@
       <c r="AP166">
         <v>0</v>
       </c>
+      <c r="AQ166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23476,6 +23976,9 @@
       <c r="AP167">
         <v>1</v>
       </c>
+      <c r="AQ167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -23614,6 +24117,9 @@
       <c r="AP168">
         <v>5</v>
       </c>
+      <c r="AQ168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -23752,6 +24258,9 @@
       <c r="AP169">
         <v>2</v>
       </c>
+      <c r="AQ169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -23890,6 +24399,9 @@
       <c r="AP170">
         <v>1</v>
       </c>
+      <c r="AQ170">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -24028,6 +24540,9 @@
       <c r="AP171">
         <v>3</v>
       </c>
+      <c r="AQ171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24166,6 +24681,9 @@
       <c r="AP172">
         <v>2</v>
       </c>
+      <c r="AQ172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24304,6 +24822,9 @@
       <c r="AP173">
         <v>13</v>
       </c>
+      <c r="AQ173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24442,6 +24963,9 @@
       <c r="AP174">
         <v>36</v>
       </c>
+      <c r="AQ174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -24580,6 +25104,9 @@
       <c r="AP175">
         <v>1</v>
       </c>
+      <c r="AQ175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -24718,6 +25245,9 @@
       <c r="AP176">
         <v>8</v>
       </c>
+      <c r="AQ176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -24856,6 +25386,9 @@
       <c r="AP177">
         <v>2</v>
       </c>
+      <c r="AQ177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -24994,6 +25527,9 @@
       <c r="AP178">
         <v>6</v>
       </c>
+      <c r="AQ178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -25132,6 +25668,9 @@
       <c r="AP179">
         <v>4</v>
       </c>
+      <c r="AQ179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25270,6 +25809,9 @@
       <c r="AP180">
         <v>12</v>
       </c>
+      <c r="AQ180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25408,6 +25950,9 @@
       <c r="AP181">
         <v>11</v>
       </c>
+      <c r="AQ181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -25546,6 +26091,9 @@
       <c r="AP182">
         <v>2</v>
       </c>
+      <c r="AQ182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -25684,6 +26232,9 @@
       <c r="AP183">
         <v>1</v>
       </c>
+      <c r="AQ183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -25822,6 +26373,9 @@
       <c r="AP184">
         <v>0</v>
       </c>
+      <c r="AQ184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -25960,6 +26514,9 @@
       <c r="AP185">
         <v>1</v>
       </c>
+      <c r="AQ185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -26098,6 +26655,9 @@
       <c r="AP186">
         <v>9</v>
       </c>
+      <c r="AQ186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26236,6 +26796,9 @@
       <c r="AP187">
         <v>0</v>
       </c>
+      <c r="AQ187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26374,6 +26937,9 @@
       <c r="AP188">
         <v>0</v>
       </c>
+      <c r="AQ188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -26512,6 +27078,9 @@
       <c r="AP189">
         <v>0</v>
       </c>
+      <c r="AQ189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -26650,6 +27219,9 @@
       <c r="AP190">
         <v>25</v>
       </c>
+      <c r="AQ190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -26788,6 +27360,9 @@
       <c r="AP191">
         <v>20</v>
       </c>
+      <c r="AQ191">
+        <v>20</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -26926,6 +27501,9 @@
       <c r="AP192">
         <v>57</v>
       </c>
+      <c r="AQ192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -27064,6 +27642,9 @@
       <c r="AP193">
         <v>38</v>
       </c>
+      <c r="AQ193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -27202,6 +27783,9 @@
       <c r="AP194">
         <v>36</v>
       </c>
+      <c r="AQ194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27340,6 +27924,9 @@
       <c r="AP195">
         <v>10</v>
       </c>
+      <c r="AQ195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -27478,6 +28065,9 @@
       <c r="AP196">
         <v>40</v>
       </c>
+      <c r="AQ196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -27616,6 +28206,9 @@
       <c r="AP197">
         <v>4</v>
       </c>
+      <c r="AQ197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -27754,6 +28347,9 @@
       <c r="AP198">
         <v>23</v>
       </c>
+      <c r="AQ198">
+        <v>23</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -27892,6 +28488,9 @@
       <c r="AP199">
         <v>2</v>
       </c>
+      <c r="AQ199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -28030,6 +28629,9 @@
       <c r="AP200">
         <v>5</v>
       </c>
+      <c r="AQ200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -28168,6 +28770,9 @@
       <c r="AP201">
         <v>2</v>
       </c>
+      <c r="AQ201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28306,6 +28911,9 @@
       <c r="AP202">
         <v>1</v>
       </c>
+      <c r="AQ202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -28444,6 +29052,9 @@
       <c r="AP203">
         <v>5</v>
       </c>
+      <c r="AQ203">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -28582,6 +29193,9 @@
       <c r="AP204">
         <v>0</v>
       </c>
+      <c r="AQ204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -28720,6 +29334,9 @@
       <c r="AP205">
         <v>1</v>
       </c>
+      <c r="AQ205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -28858,6 +29475,9 @@
       <c r="AP206">
         <v>1</v>
       </c>
+      <c r="AQ206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -28996,6 +29616,9 @@
       <c r="AP207">
         <v>0</v>
       </c>
+      <c r="AQ207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -29134,6 +29757,9 @@
       <c r="AP208">
         <v>0</v>
       </c>
+      <c r="AQ208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29272,6 +29898,9 @@
       <c r="AP209">
         <v>0</v>
       </c>
+      <c r="AQ209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -29410,6 +30039,9 @@
       <c r="AP210">
         <v>0</v>
       </c>
+      <c r="AQ210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -29548,6 +30180,9 @@
       <c r="AP211">
         <v>0</v>
       </c>
+      <c r="AQ211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -29686,6 +30321,9 @@
       <c r="AP212">
         <v>2</v>
       </c>
+      <c r="AQ212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -29824,6 +30462,9 @@
       <c r="AP213">
         <v>0</v>
       </c>
+      <c r="AQ213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -29962,6 +30603,9 @@
       <c r="AP214">
         <v>3</v>
       </c>
+      <c r="AQ214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30100,6 +30744,9 @@
       <c r="AP215">
         <v>30</v>
       </c>
+      <c r="AQ215">
+        <v>30</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30238,6 +30885,9 @@
       <c r="AP216">
         <v>218</v>
       </c>
+      <c r="AQ216">
+        <v>219</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -30376,6 +31026,9 @@
       <c r="AP217">
         <v>9</v>
       </c>
+      <c r="AQ217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -30514,6 +31167,9 @@
       <c r="AP218">
         <v>11</v>
       </c>
+      <c r="AQ218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -30652,6 +31308,9 @@
       <c r="AP219">
         <v>0</v>
       </c>
+      <c r="AQ219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -30790,6 +31449,9 @@
       <c r="AP220">
         <v>2</v>
       </c>
+      <c r="AQ220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -30928,6 +31590,9 @@
       <c r="AP221">
         <v>0</v>
       </c>
+      <c r="AQ221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31066,6 +31731,9 @@
       <c r="AP222">
         <v>1</v>
       </c>
+      <c r="AQ222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -31204,6 +31872,9 @@
       <c r="AP223">
         <v>2</v>
       </c>
+      <c r="AQ223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -31342,6 +32013,9 @@
       <c r="AP224">
         <v>8</v>
       </c>
+      <c r="AQ224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -31480,6 +32154,9 @@
       <c r="AP225">
         <v>3</v>
       </c>
+      <c r="AQ225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -31618,6 +32295,9 @@
       <c r="AP226">
         <v>1</v>
       </c>
+      <c r="AQ226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -31756,6 +32436,9 @@
       <c r="AP227">
         <v>2</v>
       </c>
+      <c r="AQ227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -31894,6 +32577,9 @@
       <c r="AP228">
         <v>2</v>
       </c>
+      <c r="AQ228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -32032,6 +32718,9 @@
       <c r="AP229">
         <v>2</v>
       </c>
+      <c r="AQ229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -32170,6 +32859,9 @@
       <c r="AP230">
         <v>0</v>
       </c>
+      <c r="AQ230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -32308,6 +33000,9 @@
       <c r="AP231">
         <v>3</v>
       </c>
+      <c r="AQ231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -32446,6 +33141,9 @@
       <c r="AP232">
         <v>21</v>
       </c>
+      <c r="AQ232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -32584,6 +33282,9 @@
       <c r="AP233">
         <v>0</v>
       </c>
+      <c r="AQ233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -32722,6 +33423,9 @@
       <c r="AP234">
         <v>4</v>
       </c>
+      <c r="AQ234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -32860,6 +33564,9 @@
       <c r="AP235">
         <v>1</v>
       </c>
+      <c r="AQ235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -32998,6 +33705,9 @@
       <c r="AP236">
         <v>1</v>
       </c>
+      <c r="AQ236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33136,6 +33846,9 @@
       <c r="AP237">
         <v>1</v>
       </c>
+      <c r="AQ237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -33274,6 +33987,9 @@
       <c r="AP238">
         <v>546</v>
       </c>
+      <c r="AQ238">
+        <v>552</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -33412,6 +34128,9 @@
       <c r="AP239">
         <v>9</v>
       </c>
+      <c r="AQ239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -33550,6 +34269,9 @@
       <c r="AP240">
         <v>4</v>
       </c>
+      <c r="AQ240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -33688,6 +34410,9 @@
       <c r="AP241">
         <v>4</v>
       </c>
+      <c r="AQ241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -33826,6 +34551,9 @@
       <c r="AP242">
         <v>4</v>
       </c>
+      <c r="AQ242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -33964,6 +34692,9 @@
       <c r="AP243">
         <v>6</v>
       </c>
+      <c r="AQ243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -34102,6 +34833,9 @@
       <c r="AP244">
         <v>8</v>
       </c>
+      <c r="AQ244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -34240,6 +34974,9 @@
       <c r="AP245">
         <v>0</v>
       </c>
+      <c r="AQ245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -34378,6 +35115,9 @@
       <c r="AP246">
         <v>4</v>
       </c>
+      <c r="AQ246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -34516,6 +35256,9 @@
       <c r="AP247">
         <v>0</v>
       </c>
+      <c r="AQ247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -34654,6 +35397,9 @@
       <c r="AP248">
         <v>0</v>
       </c>
+      <c r="AQ248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -34792,6 +35538,9 @@
       <c r="AP249">
         <v>2</v>
       </c>
+      <c r="AQ249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -34930,6 +35679,9 @@
       <c r="AP250">
         <v>24</v>
       </c>
+      <c r="AQ250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -35068,6 +35820,9 @@
       <c r="AP251">
         <v>9</v>
       </c>
+      <c r="AQ251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -35206,6 +35961,9 @@
       <c r="AP252">
         <v>0</v>
       </c>
+      <c r="AQ252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -35344,6 +36102,9 @@
       <c r="AP253">
         <v>17</v>
       </c>
+      <c r="AQ253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -35482,6 +36243,9 @@
       <c r="AP254">
         <v>5</v>
       </c>
+      <c r="AQ254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -35620,6 +36384,9 @@
       <c r="AP255">
         <v>53</v>
       </c>
+      <c r="AQ255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -35758,6 +36525,9 @@
       <c r="AP256">
         <v>41</v>
       </c>
+      <c r="AQ256">
+        <v>41</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -35896,6 +36666,9 @@
       <c r="AP257">
         <v>1</v>
       </c>
+      <c r="AQ257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -36034,6 +36807,9 @@
       <c r="AP258">
         <v>0</v>
       </c>
+      <c r="AQ258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -36172,6 +36948,9 @@
       <c r="AP259">
         <v>40</v>
       </c>
+      <c r="AQ259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -36310,6 +37089,9 @@
       <c r="AP260">
         <v>27</v>
       </c>
+      <c r="AQ260">
+        <v>27</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -36448,6 +37230,9 @@
       <c r="AP261">
         <v>0</v>
       </c>
+      <c r="AQ261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -36586,6 +37371,9 @@
       <c r="AP262">
         <v>0</v>
       </c>
+      <c r="AQ262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -36724,6 +37512,9 @@
       <c r="AP263">
         <v>0</v>
       </c>
+      <c r="AQ263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -36862,6 +37653,9 @@
       <c r="AP264">
         <v>1</v>
       </c>
+      <c r="AQ264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -37000,6 +37794,9 @@
       <c r="AP265">
         <v>3</v>
       </c>
+      <c r="AQ265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -37138,6 +37935,9 @@
       <c r="AP266">
         <v>0</v>
       </c>
+      <c r="AQ266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -37276,6 +38076,9 @@
       <c r="AP267">
         <v>3</v>
       </c>
+      <c r="AQ267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -37414,6 +38217,9 @@
       <c r="AP268">
         <v>0</v>
       </c>
+      <c r="AQ268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -37552,6 +38358,9 @@
       <c r="AP269">
         <v>7</v>
       </c>
+      <c r="AQ269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -37690,6 +38499,9 @@
       <c r="AP270">
         <v>0</v>
       </c>
+      <c r="AQ270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -37828,6 +38640,9 @@
       <c r="AP271">
         <v>0</v>
       </c>
+      <c r="AQ271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -37966,6 +38781,9 @@
       <c r="AP272">
         <v>1</v>
       </c>
+      <c r="AQ272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -38104,6 +38922,9 @@
       <c r="AP273">
         <v>4</v>
       </c>
+      <c r="AQ273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -38242,6 +39063,9 @@
       <c r="AP274">
         <v>0</v>
       </c>
+      <c r="AQ274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -38380,6 +39204,9 @@
       <c r="AP275">
         <v>0</v>
       </c>
+      <c r="AQ275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -38518,6 +39345,9 @@
       <c r="AP276">
         <v>17</v>
       </c>
+      <c r="AQ276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -38656,6 +39486,9 @@
       <c r="AP277">
         <v>0</v>
       </c>
+      <c r="AQ277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -38794,6 +39627,9 @@
       <c r="AP278">
         <v>0</v>
       </c>
+      <c r="AQ278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -38932,6 +39768,9 @@
       <c r="AP279">
         <v>4</v>
       </c>
+      <c r="AQ279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -39070,6 +39909,9 @@
       <c r="AP280">
         <v>12</v>
       </c>
+      <c r="AQ280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -39208,6 +40050,9 @@
       <c r="AP281">
         <v>285</v>
       </c>
+      <c r="AQ281">
+        <v>289</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -39346,6 +40191,9 @@
       <c r="AP282">
         <v>16</v>
       </c>
+      <c r="AQ282">
+        <v>16</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -39484,6 +40332,9 @@
       <c r="AP283">
         <v>5</v>
       </c>
+      <c r="AQ283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -39622,6 +40473,9 @@
       <c r="AP284">
         <v>0</v>
       </c>
+      <c r="AQ284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -39760,6 +40614,9 @@
       <c r="AP285">
         <v>0</v>
       </c>
+      <c r="AQ285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -39898,6 +40755,9 @@
       <c r="AP286">
         <v>8</v>
       </c>
+      <c r="AQ286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -40036,6 +40896,9 @@
       <c r="AP287">
         <v>5</v>
       </c>
+      <c r="AQ287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -40174,6 +41037,9 @@
       <c r="AP288">
         <v>0</v>
       </c>
+      <c r="AQ288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -40312,6 +41178,9 @@
       <c r="AP289">
         <v>1</v>
       </c>
+      <c r="AQ289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -40450,6 +41319,9 @@
       <c r="AP290">
         <v>7</v>
       </c>
+      <c r="AQ290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -40588,6 +41460,9 @@
       <c r="AP291">
         <v>3</v>
       </c>
+      <c r="AQ291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -40726,6 +41601,9 @@
       <c r="AP292">
         <v>5</v>
       </c>
+      <c r="AQ292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -40864,6 +41742,9 @@
       <c r="AP293">
         <v>12</v>
       </c>
+      <c r="AQ293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -41002,6 +41883,9 @@
       <c r="AP294">
         <v>6</v>
       </c>
+      <c r="AQ294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -41140,6 +42024,9 @@
       <c r="AP295">
         <v>0</v>
       </c>
+      <c r="AQ295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -41278,6 +42165,9 @@
       <c r="AP296">
         <v>1</v>
       </c>
+      <c r="AQ296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -41416,6 +42306,9 @@
       <c r="AP297">
         <v>8</v>
       </c>
+      <c r="AQ297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -41554,6 +42447,9 @@
       <c r="AP298">
         <v>28</v>
       </c>
+      <c r="AQ298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -41692,6 +42588,9 @@
       <c r="AP299">
         <v>21</v>
       </c>
+      <c r="AQ299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -41830,6 +42729,9 @@
       <c r="AP300">
         <v>15</v>
       </c>
+      <c r="AQ300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -41968,6 +42870,9 @@
       <c r="AP301">
         <v>1</v>
       </c>
+      <c r="AQ301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -42106,6 +43011,9 @@
       <c r="AP302">
         <v>0</v>
       </c>
+      <c r="AQ302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -42244,6 +43152,9 @@
       <c r="AP303">
         <v>0</v>
       </c>
+      <c r="AQ303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -42382,6 +43293,9 @@
       <c r="AP304">
         <v>0</v>
       </c>
+      <c r="AQ304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -42520,6 +43434,9 @@
       <c r="AP305">
         <v>3</v>
       </c>
+      <c r="AQ305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -42658,6 +43575,9 @@
       <c r="AP306">
         <v>1</v>
       </c>
+      <c r="AQ306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -42796,6 +43716,9 @@
       <c r="AP307">
         <v>4</v>
       </c>
+      <c r="AQ307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -42934,6 +43857,9 @@
       <c r="AP308">
         <v>0</v>
       </c>
+      <c r="AQ308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -43072,6 +43998,9 @@
       <c r="AP309">
         <v>0</v>
       </c>
+      <c r="AQ309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -43210,6 +44139,9 @@
       <c r="AP310">
         <v>7</v>
       </c>
+      <c r="AQ310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -43348,6 +44280,9 @@
       <c r="AP311">
         <v>2</v>
       </c>
+      <c r="AQ311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -43486,6 +44421,9 @@
       <c r="AP312">
         <v>2</v>
       </c>
+      <c r="AQ312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -43624,6 +44562,9 @@
       <c r="AP313">
         <v>2</v>
       </c>
+      <c r="AQ313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -43762,6 +44703,9 @@
       <c r="AP314">
         <v>10</v>
       </c>
+      <c r="AQ314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -43900,6 +44844,9 @@
       <c r="AP315">
         <v>1</v>
       </c>
+      <c r="AQ315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -44038,6 +44985,9 @@
       <c r="AP316">
         <v>17</v>
       </c>
+      <c r="AQ316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -44176,6 +45126,9 @@
       <c r="AP317">
         <v>0</v>
       </c>
+      <c r="AQ317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -44314,6 +45267,9 @@
       <c r="AP318">
         <v>0</v>
       </c>
+      <c r="AQ318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -44452,6 +45408,9 @@
       <c r="AP319">
         <v>158</v>
       </c>
+      <c r="AQ319">
+        <v>158</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -44590,6 +45549,9 @@
       <c r="AP320">
         <v>6</v>
       </c>
+      <c r="AQ320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -44728,6 +45690,9 @@
       <c r="AP321">
         <v>5</v>
       </c>
+      <c r="AQ321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -44866,6 +45831,9 @@
       <c r="AP322">
         <v>1</v>
       </c>
+      <c r="AQ322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -45004,6 +45972,9 @@
       <c r="AP323">
         <v>3</v>
       </c>
+      <c r="AQ323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -45142,6 +46113,9 @@
       <c r="AP324">
         <v>15</v>
       </c>
+      <c r="AQ324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -45280,6 +46254,9 @@
       <c r="AP325">
         <v>1</v>
       </c>
+      <c r="AQ325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -45418,6 +46395,9 @@
       <c r="AP326">
         <v>1</v>
       </c>
+      <c r="AQ326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -45556,6 +46536,9 @@
       <c r="AP327">
         <v>0</v>
       </c>
+      <c r="AQ327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -45694,6 +46677,9 @@
       <c r="AP328">
         <v>0</v>
       </c>
+      <c r="AQ328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -45832,6 +46818,9 @@
       <c r="AP329">
         <v>3</v>
       </c>
+      <c r="AQ329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -45970,6 +46959,9 @@
       <c r="AP330">
         <v>1</v>
       </c>
+      <c r="AQ330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -46108,6 +47100,9 @@
       <c r="AP331">
         <v>2</v>
       </c>
+      <c r="AQ331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -46246,6 +47241,9 @@
       <c r="AP332">
         <v>1</v>
       </c>
+      <c r="AQ332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -46384,6 +47382,9 @@
       <c r="AP333">
         <v>0</v>
       </c>
+      <c r="AQ333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -46522,6 +47523,9 @@
       <c r="AP334">
         <v>0</v>
       </c>
+      <c r="AQ334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -46660,6 +47664,9 @@
       <c r="AP335">
         <v>16</v>
       </c>
+      <c r="AQ335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -46798,6 +47805,9 @@
       <c r="AP336">
         <v>2</v>
       </c>
+      <c r="AQ336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -46936,6 +47946,9 @@
       <c r="AP337">
         <v>1</v>
       </c>
+      <c r="AQ337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -47074,6 +48087,9 @@
       <c r="AP338">
         <v>2</v>
       </c>
+      <c r="AQ338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -47212,6 +48228,9 @@
       <c r="AP339">
         <v>0</v>
       </c>
+      <c r="AQ339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -47350,6 +48369,9 @@
       <c r="AP340">
         <v>0</v>
       </c>
+      <c r="AQ340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -47488,6 +48510,9 @@
       <c r="AP341">
         <v>1</v>
       </c>
+      <c r="AQ341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -47626,6 +48651,9 @@
       <c r="AP342">
         <v>2</v>
       </c>
+      <c r="AQ342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -47764,6 +48792,9 @@
       <c r="AP343">
         <v>0</v>
       </c>
+      <c r="AQ343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -47902,6 +48933,9 @@
       <c r="AP344">
         <v>1</v>
       </c>
+      <c r="AQ344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -48040,6 +49074,9 @@
       <c r="AP345">
         <v>0</v>
       </c>
+      <c r="AQ345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -48178,6 +49215,9 @@
       <c r="AP346">
         <v>0</v>
       </c>
+      <c r="AQ346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -48316,6 +49356,9 @@
       <c r="AP347">
         <v>3</v>
       </c>
+      <c r="AQ347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -48454,6 +49497,9 @@
       <c r="AP348">
         <v>2</v>
       </c>
+      <c r="AQ348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -48592,6 +49638,9 @@
       <c r="AP349">
         <v>4</v>
       </c>
+      <c r="AQ349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -48730,6 +49779,9 @@
       <c r="AP350">
         <v>1</v>
       </c>
+      <c r="AQ350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -48868,6 +49920,9 @@
       <c r="AP351">
         <v>0</v>
       </c>
+      <c r="AQ351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -49006,6 +50061,9 @@
       <c r="AP352">
         <v>0</v>
       </c>
+      <c r="AQ352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -49144,6 +50202,9 @@
       <c r="AP353">
         <v>0</v>
       </c>
+      <c r="AQ353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -49282,6 +50343,9 @@
       <c r="AP354">
         <v>1</v>
       </c>
+      <c r="AQ354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -49420,6 +50484,9 @@
       <c r="AP355">
         <v>1</v>
       </c>
+      <c r="AQ355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -49558,6 +50625,9 @@
       <c r="AP356">
         <v>0</v>
       </c>
+      <c r="AQ356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -49696,6 +50766,9 @@
       <c r="AP357">
         <v>4</v>
       </c>
+      <c r="AQ357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -49834,6 +50907,9 @@
       <c r="AP358">
         <v>0</v>
       </c>
+      <c r="AQ358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -49971,6 +51047,9 @@
       </c>
       <c r="AP359">
         <v>0</v>
+      </c>
+      <c r="AQ359">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ359"/>
+  <dimension ref="A1:AR359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,6 +573,11 @@
           <t>2020-05-01</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -714,6 +719,9 @@
       <c r="AQ2">
         <v>2381</v>
       </c>
+      <c r="AR2">
+        <v>2385</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -855,6 +863,9 @@
       <c r="AQ3">
         <v>14</v>
       </c>
+      <c r="AR3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -996,6 +1007,9 @@
       <c r="AQ4">
         <v>133</v>
       </c>
+      <c r="AR4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1137,6 +1151,9 @@
       <c r="AQ5">
         <v>51</v>
       </c>
+      <c r="AR5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1278,6 +1295,9 @@
       <c r="AQ6">
         <v>47</v>
       </c>
+      <c r="AR6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1419,6 +1439,9 @@
       <c r="AQ7">
         <v>5</v>
       </c>
+      <c r="AR7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1560,6 +1583,9 @@
       <c r="AQ8">
         <v>1</v>
       </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1701,6 +1727,9 @@
       <c r="AQ9">
         <v>0</v>
       </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1842,6 +1871,9 @@
       <c r="AQ10">
         <v>7</v>
       </c>
+      <c r="AR10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1983,6 +2015,9 @@
       <c r="AQ11">
         <v>6</v>
       </c>
+      <c r="AR11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2124,6 +2159,9 @@
       <c r="AQ12">
         <v>12</v>
       </c>
+      <c r="AR12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2265,6 +2303,9 @@
       <c r="AQ13">
         <v>13</v>
       </c>
+      <c r="AR13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2406,6 +2447,9 @@
       <c r="AQ14">
         <v>16</v>
       </c>
+      <c r="AR14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2547,6 +2591,9 @@
       <c r="AQ15">
         <v>11</v>
       </c>
+      <c r="AR15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2688,6 +2735,9 @@
       <c r="AQ16">
         <v>13</v>
       </c>
+      <c r="AR16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2829,6 +2879,9 @@
       <c r="AQ17">
         <v>0</v>
       </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2970,6 +3023,9 @@
       <c r="AQ18">
         <v>0</v>
       </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3111,6 +3167,9 @@
       <c r="AQ19">
         <v>3</v>
       </c>
+      <c r="AR19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3252,6 +3311,9 @@
       <c r="AQ20">
         <v>0</v>
       </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3393,6 +3455,9 @@
       <c r="AQ21">
         <v>1</v>
       </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3534,6 +3599,9 @@
       <c r="AQ22">
         <v>20</v>
       </c>
+      <c r="AR22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3675,6 +3743,9 @@
       <c r="AQ23">
         <v>67</v>
       </c>
+      <c r="AR23">
+        <v>67</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3816,6 +3887,9 @@
       <c r="AQ24">
         <v>0</v>
       </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3957,6 +4031,9 @@
       <c r="AQ25">
         <v>11</v>
       </c>
+      <c r="AR25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4098,6 +4175,9 @@
       <c r="AQ26">
         <v>18</v>
       </c>
+      <c r="AR26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4239,6 +4319,9 @@
       <c r="AQ27">
         <v>13</v>
       </c>
+      <c r="AR27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4380,6 +4463,9 @@
       <c r="AQ28">
         <v>27</v>
       </c>
+      <c r="AR28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4521,6 +4607,9 @@
       <c r="AQ29">
         <v>1</v>
       </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4662,6 +4751,9 @@
       <c r="AQ30">
         <v>5</v>
       </c>
+      <c r="AR30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4803,6 +4895,9 @@
       <c r="AQ31">
         <v>3</v>
       </c>
+      <c r="AR31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4944,6 +5039,9 @@
       <c r="AQ32">
         <v>8</v>
       </c>
+      <c r="AR32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5085,6 +5183,9 @@
       <c r="AQ33">
         <v>2</v>
       </c>
+      <c r="AR33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5226,6 +5327,9 @@
       <c r="AQ34">
         <v>6</v>
       </c>
+      <c r="AR34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5367,6 +5471,9 @@
       <c r="AQ35">
         <v>0</v>
       </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5508,6 +5615,9 @@
       <c r="AQ36">
         <v>1</v>
       </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5649,6 +5759,9 @@
       <c r="AQ37">
         <v>6</v>
       </c>
+      <c r="AR37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5790,6 +5903,9 @@
       <c r="AQ38">
         <v>5</v>
       </c>
+      <c r="AR38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5931,6 +6047,9 @@
       <c r="AQ39">
         <v>1</v>
       </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6072,6 +6191,9 @@
       <c r="AQ40">
         <v>10</v>
       </c>
+      <c r="AR40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6213,6 +6335,9 @@
       <c r="AQ41">
         <v>0</v>
       </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6354,6 +6479,9 @@
       <c r="AQ42">
         <v>0</v>
       </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6495,6 +6623,9 @@
       <c r="AQ43">
         <v>1</v>
       </c>
+      <c r="AR43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6636,6 +6767,9 @@
       <c r="AQ44">
         <v>1</v>
       </c>
+      <c r="AR44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6777,6 +6911,9 @@
       <c r="AQ45">
         <v>2</v>
       </c>
+      <c r="AR45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6918,6 +7055,9 @@
       <c r="AQ46">
         <v>2</v>
       </c>
+      <c r="AR46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7059,6 +7199,9 @@
       <c r="AQ47">
         <v>0</v>
       </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7200,6 +7343,9 @@
       <c r="AQ48">
         <v>3</v>
       </c>
+      <c r="AR48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7341,6 +7487,9 @@
       <c r="AQ49">
         <v>4</v>
       </c>
+      <c r="AR49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7482,6 +7631,9 @@
       <c r="AQ50">
         <v>1</v>
       </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7623,6 +7775,9 @@
       <c r="AQ51">
         <v>3</v>
       </c>
+      <c r="AR51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7764,6 +7919,9 @@
       <c r="AQ52">
         <v>39</v>
       </c>
+      <c r="AR52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7905,6 +8063,9 @@
       <c r="AQ53">
         <v>6</v>
       </c>
+      <c r="AR53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8046,6 +8207,9 @@
       <c r="AQ54">
         <v>0</v>
       </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8187,6 +8351,9 @@
       <c r="AQ55">
         <v>2</v>
       </c>
+      <c r="AR55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8328,6 +8495,9 @@
       <c r="AQ56">
         <v>5</v>
       </c>
+      <c r="AR56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8469,6 +8639,9 @@
       <c r="AQ57">
         <v>3</v>
       </c>
+      <c r="AR57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8610,6 +8783,9 @@
       <c r="AQ58">
         <v>0</v>
       </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8751,6 +8927,9 @@
       <c r="AQ59">
         <v>0</v>
       </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8892,6 +9071,9 @@
       <c r="AQ60">
         <v>2</v>
       </c>
+      <c r="AR60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9033,6 +9215,9 @@
       <c r="AQ61">
         <v>4</v>
       </c>
+      <c r="AR61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9174,6 +9359,9 @@
       <c r="AQ62">
         <v>1</v>
       </c>
+      <c r="AR62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9315,6 +9503,9 @@
       <c r="AQ63">
         <v>1</v>
       </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9456,6 +9647,9 @@
       <c r="AQ64">
         <v>0</v>
       </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9597,6 +9791,9 @@
       <c r="AQ65">
         <v>5</v>
       </c>
+      <c r="AR65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9738,6 +9935,9 @@
       <c r="AQ66">
         <v>0</v>
       </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9879,6 +10079,9 @@
       <c r="AQ67">
         <v>0</v>
       </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10020,6 +10223,9 @@
       <c r="AQ68">
         <v>4</v>
       </c>
+      <c r="AR68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10161,6 +10367,9 @@
       <c r="AQ69">
         <v>0</v>
       </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10302,6 +10511,9 @@
       <c r="AQ70">
         <v>0</v>
       </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10443,6 +10655,9 @@
       <c r="AQ71">
         <v>0</v>
       </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10584,6 +10799,9 @@
       <c r="AQ72">
         <v>6</v>
       </c>
+      <c r="AR72">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10725,6 +10943,9 @@
       <c r="AQ73">
         <v>0</v>
       </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10866,6 +11087,9 @@
       <c r="AQ74">
         <v>0</v>
       </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11007,6 +11231,9 @@
       <c r="AQ75">
         <v>0</v>
       </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11148,6 +11375,9 @@
       <c r="AQ76">
         <v>2</v>
       </c>
+      <c r="AR76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11289,6 +11519,9 @@
       <c r="AQ77">
         <v>0</v>
       </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11430,6 +11663,9 @@
       <c r="AQ78">
         <v>1</v>
       </c>
+      <c r="AR78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11571,6 +11807,9 @@
       <c r="AQ79">
         <v>0</v>
       </c>
+      <c r="AR79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11712,6 +11951,9 @@
       <c r="AQ80">
         <v>0</v>
       </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11853,6 +12095,9 @@
       <c r="AQ81">
         <v>0</v>
       </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11994,6 +12239,9 @@
       <c r="AQ82">
         <v>0</v>
       </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12135,6 +12383,9 @@
       <c r="AQ83">
         <v>6</v>
       </c>
+      <c r="AR83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12276,6 +12527,9 @@
       <c r="AQ84">
         <v>13</v>
       </c>
+      <c r="AR84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12417,6 +12671,9 @@
       <c r="AQ85">
         <v>3</v>
       </c>
+      <c r="AR85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12558,6 +12815,9 @@
       <c r="AQ86">
         <v>5</v>
       </c>
+      <c r="AR86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12699,6 +12959,9 @@
       <c r="AQ87">
         <v>0</v>
       </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12840,6 +13103,9 @@
       <c r="AQ88">
         <v>0</v>
       </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12981,6 +13247,9 @@
       <c r="AQ89">
         <v>6</v>
       </c>
+      <c r="AR89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13122,6 +13391,9 @@
       <c r="AQ90">
         <v>0</v>
       </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -13263,6 +13535,9 @@
       <c r="AQ91">
         <v>1</v>
       </c>
+      <c r="AR91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13404,6 +13679,9 @@
       <c r="AQ92">
         <v>0</v>
       </c>
+      <c r="AR92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13545,6 +13823,9 @@
       <c r="AQ93">
         <v>36</v>
       </c>
+      <c r="AR93">
+        <v>36</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13686,6 +13967,9 @@
       <c r="AQ94">
         <v>97</v>
       </c>
+      <c r="AR94">
+        <v>97</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13827,6 +14111,9 @@
       <c r="AQ95">
         <v>66</v>
       </c>
+      <c r="AR95">
+        <v>66</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13968,6 +14255,9 @@
       <c r="AQ96">
         <v>94</v>
       </c>
+      <c r="AR96">
+        <v>94</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14109,6 +14399,9 @@
       <c r="AQ97">
         <v>172</v>
       </c>
+      <c r="AR97">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -14250,6 +14543,9 @@
       <c r="AQ98">
         <v>21</v>
       </c>
+      <c r="AR98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14391,6 +14687,9 @@
       <c r="AQ99">
         <v>10</v>
       </c>
+      <c r="AR99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14532,6 +14831,9 @@
       <c r="AQ100">
         <v>2</v>
       </c>
+      <c r="AR100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14673,6 +14975,9 @@
       <c r="AQ101">
         <v>2</v>
       </c>
+      <c r="AR101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14814,6 +15119,9 @@
       <c r="AQ102">
         <v>3</v>
       </c>
+      <c r="AR102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14955,6 +15263,9 @@
       <c r="AQ103">
         <v>49</v>
       </c>
+      <c r="AR103">
+        <v>50</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15096,6 +15407,9 @@
       <c r="AQ104">
         <v>2</v>
       </c>
+      <c r="AR104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -15237,6 +15551,9 @@
       <c r="AQ105">
         <v>1</v>
       </c>
+      <c r="AR105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15378,6 +15695,9 @@
       <c r="AQ106">
         <v>2</v>
       </c>
+      <c r="AR106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15519,6 +15839,9 @@
       <c r="AQ107">
         <v>7</v>
       </c>
+      <c r="AR107">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15660,6 +15983,9 @@
       <c r="AQ108">
         <v>23</v>
       </c>
+      <c r="AR108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15801,6 +16127,9 @@
       <c r="AQ109">
         <v>101</v>
       </c>
+      <c r="AR109">
+        <v>102</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15942,6 +16271,9 @@
       <c r="AQ110">
         <v>20</v>
       </c>
+      <c r="AR110">
+        <v>20</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -16083,6 +16415,9 @@
       <c r="AQ111">
         <v>28</v>
       </c>
+      <c r="AR111">
+        <v>29</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -16224,6 +16559,9 @@
       <c r="AQ112">
         <v>49</v>
       </c>
+      <c r="AR112">
+        <v>49</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16365,6 +16703,9 @@
       <c r="AQ113">
         <v>411</v>
       </c>
+      <c r="AR113">
+        <v>411</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16506,6 +16847,9 @@
       <c r="AQ114">
         <v>182</v>
       </c>
+      <c r="AR114">
+        <v>183</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16647,6 +16991,9 @@
       <c r="AQ115">
         <v>10</v>
       </c>
+      <c r="AR115">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16788,6 +17135,9 @@
       <c r="AQ116">
         <v>26</v>
       </c>
+      <c r="AR116">
+        <v>26</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16929,6 +17279,9 @@
       <c r="AQ117">
         <v>49</v>
       </c>
+      <c r="AR117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17070,6 +17423,9 @@
       <c r="AQ118">
         <v>92</v>
       </c>
+      <c r="AR118">
+        <v>92</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -17211,6 +17567,9 @@
       <c r="AQ119">
         <v>158</v>
       </c>
+      <c r="AR119">
+        <v>158</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -17352,6 +17711,9 @@
       <c r="AQ120">
         <v>45</v>
       </c>
+      <c r="AR120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17493,6 +17855,9 @@
       <c r="AQ121">
         <v>8</v>
       </c>
+      <c r="AR121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17634,6 +17999,9 @@
       <c r="AQ122">
         <v>58</v>
       </c>
+      <c r="AR122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17775,6 +18143,9 @@
       <c r="AQ123">
         <v>14</v>
       </c>
+      <c r="AR123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17916,6 +18287,9 @@
       <c r="AQ124">
         <v>40</v>
       </c>
+      <c r="AR124">
+        <v>41</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -18057,6 +18431,9 @@
       <c r="AQ125">
         <v>17</v>
       </c>
+      <c r="AR125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -18198,6 +18575,9 @@
       <c r="AQ126">
         <v>2</v>
       </c>
+      <c r="AR126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -18339,6 +18719,9 @@
       <c r="AQ127">
         <v>10</v>
       </c>
+      <c r="AR127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18480,6 +18863,9 @@
       <c r="AQ128">
         <v>1</v>
       </c>
+      <c r="AR128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18621,6 +19007,9 @@
       <c r="AQ129">
         <v>7</v>
       </c>
+      <c r="AR129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18762,6 +19151,9 @@
       <c r="AQ130">
         <v>11</v>
       </c>
+      <c r="AR130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18903,6 +19295,9 @@
       <c r="AQ131">
         <v>8</v>
       </c>
+      <c r="AR131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -19044,6 +19439,9 @@
       <c r="AQ132">
         <v>13</v>
       </c>
+      <c r="AR132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -19185,6 +19583,9 @@
       <c r="AQ133">
         <v>44</v>
       </c>
+      <c r="AR133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -19326,6 +19727,9 @@
       <c r="AQ134">
         <v>0</v>
       </c>
+      <c r="AR134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19467,6 +19871,9 @@
       <c r="AQ135">
         <v>0</v>
       </c>
+      <c r="AR135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19608,6 +20015,9 @@
       <c r="AQ136">
         <v>10</v>
       </c>
+      <c r="AR136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19749,6 +20159,9 @@
       <c r="AQ137">
         <v>9</v>
       </c>
+      <c r="AR137">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19890,6 +20303,9 @@
       <c r="AQ138">
         <v>42</v>
       </c>
+      <c r="AR138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -20031,6 +20447,9 @@
       <c r="AQ139">
         <v>4</v>
       </c>
+      <c r="AR139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -20172,6 +20591,9 @@
       <c r="AQ140">
         <v>1</v>
       </c>
+      <c r="AR140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -20313,6 +20735,9 @@
       <c r="AQ141">
         <v>3</v>
       </c>
+      <c r="AR141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20454,6 +20879,9 @@
       <c r="AQ142">
         <v>6</v>
       </c>
+      <c r="AR142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20595,6 +21023,9 @@
       <c r="AQ143">
         <v>12</v>
       </c>
+      <c r="AR143">
+        <v>12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20736,6 +21167,9 @@
       <c r="AQ144">
         <v>2</v>
       </c>
+      <c r="AR144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20877,6 +21311,9 @@
       <c r="AQ145">
         <v>82</v>
       </c>
+      <c r="AR145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -21018,6 +21455,9 @@
       <c r="AQ146">
         <v>39</v>
       </c>
+      <c r="AR146">
+        <v>39</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -21159,6 +21599,9 @@
       <c r="AQ147">
         <v>24</v>
       </c>
+      <c r="AR147">
+        <v>24</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -21300,6 +21743,9 @@
       <c r="AQ148">
         <v>63</v>
       </c>
+      <c r="AR148">
+        <v>63</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -21441,6 +21887,9 @@
       <c r="AQ149">
         <v>12</v>
       </c>
+      <c r="AR149">
+        <v>12</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21582,6 +22031,9 @@
       <c r="AQ150">
         <v>36</v>
       </c>
+      <c r="AR150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21723,6 +22175,9 @@
       <c r="AQ151">
         <v>0</v>
       </c>
+      <c r="AR151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21864,6 +22319,9 @@
       <c r="AQ152">
         <v>21</v>
       </c>
+      <c r="AR152">
+        <v>21</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -22005,6 +22463,9 @@
       <c r="AQ153">
         <v>4</v>
       </c>
+      <c r="AR153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -22146,6 +22607,9 @@
       <c r="AQ154">
         <v>5</v>
       </c>
+      <c r="AR154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -22287,6 +22751,9 @@
       <c r="AQ155">
         <v>3</v>
       </c>
+      <c r="AR155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -22428,6 +22895,9 @@
       <c r="AQ156">
         <v>3</v>
       </c>
+      <c r="AR156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22569,6 +23039,9 @@
       <c r="AQ157">
         <v>16</v>
       </c>
+      <c r="AR157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22710,6 +23183,9 @@
       <c r="AQ158">
         <v>3</v>
       </c>
+      <c r="AR158">
+        <v>6</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22851,6 +23327,9 @@
       <c r="AQ159">
         <v>4</v>
       </c>
+      <c r="AR159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22992,6 +23471,9 @@
       <c r="AQ160">
         <v>0</v>
       </c>
+      <c r="AR160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -23133,6 +23615,9 @@
       <c r="AQ161">
         <v>0</v>
       </c>
+      <c r="AR161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -23274,6 +23759,9 @@
       <c r="AQ162">
         <v>2</v>
       </c>
+      <c r="AR162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -23415,6 +23903,9 @@
       <c r="AQ163">
         <v>0</v>
       </c>
+      <c r="AR163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23556,6 +24047,9 @@
       <c r="AQ164">
         <v>0</v>
       </c>
+      <c r="AR164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23697,6 +24191,9 @@
       <c r="AQ165">
         <v>1</v>
       </c>
+      <c r="AR165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23838,6 +24335,9 @@
       <c r="AQ166">
         <v>0</v>
       </c>
+      <c r="AR166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23979,6 +24479,9 @@
       <c r="AQ167">
         <v>1</v>
       </c>
+      <c r="AR167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -24120,6 +24623,9 @@
       <c r="AQ168">
         <v>5</v>
       </c>
+      <c r="AR168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -24261,6 +24767,9 @@
       <c r="AQ169">
         <v>2</v>
       </c>
+      <c r="AR169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -24402,6 +24911,9 @@
       <c r="AQ170">
         <v>1</v>
       </c>
+      <c r="AR170">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -24543,6 +25055,9 @@
       <c r="AQ171">
         <v>3</v>
       </c>
+      <c r="AR171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24684,6 +25199,9 @@
       <c r="AQ172">
         <v>2</v>
       </c>
+      <c r="AR172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24825,6 +25343,9 @@
       <c r="AQ173">
         <v>13</v>
       </c>
+      <c r="AR173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24966,6 +25487,9 @@
       <c r="AQ174">
         <v>36</v>
       </c>
+      <c r="AR174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -25107,6 +25631,9 @@
       <c r="AQ175">
         <v>1</v>
       </c>
+      <c r="AR175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -25248,6 +25775,9 @@
       <c r="AQ176">
         <v>8</v>
       </c>
+      <c r="AR176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -25389,6 +25919,9 @@
       <c r="AQ177">
         <v>2</v>
       </c>
+      <c r="AR177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -25530,6 +26063,9 @@
       <c r="AQ178">
         <v>6</v>
       </c>
+      <c r="AR178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -25671,6 +26207,9 @@
       <c r="AQ179">
         <v>4</v>
       </c>
+      <c r="AR179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25812,6 +26351,9 @@
       <c r="AQ180">
         <v>12</v>
       </c>
+      <c r="AR180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25953,6 +26495,9 @@
       <c r="AQ181">
         <v>11</v>
       </c>
+      <c r="AR181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -26094,6 +26639,9 @@
       <c r="AQ182">
         <v>2</v>
       </c>
+      <c r="AR182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -26235,6 +26783,9 @@
       <c r="AQ183">
         <v>1</v>
       </c>
+      <c r="AR183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -26376,6 +26927,9 @@
       <c r="AQ184">
         <v>0</v>
       </c>
+      <c r="AR184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -26517,6 +27071,9 @@
       <c r="AQ185">
         <v>1</v>
       </c>
+      <c r="AR185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -26658,6 +27215,9 @@
       <c r="AQ186">
         <v>9</v>
       </c>
+      <c r="AR186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26799,6 +27359,9 @@
       <c r="AQ187">
         <v>0</v>
       </c>
+      <c r="AR187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26940,6 +27503,9 @@
       <c r="AQ188">
         <v>0</v>
       </c>
+      <c r="AR188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -27081,6 +27647,9 @@
       <c r="AQ189">
         <v>0</v>
       </c>
+      <c r="AR189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -27222,6 +27791,9 @@
       <c r="AQ190">
         <v>25</v>
       </c>
+      <c r="AR190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -27363,6 +27935,9 @@
       <c r="AQ191">
         <v>20</v>
       </c>
+      <c r="AR191">
+        <v>21</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -27504,6 +28079,9 @@
       <c r="AQ192">
         <v>57</v>
       </c>
+      <c r="AR192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -27645,6 +28223,9 @@
       <c r="AQ193">
         <v>38</v>
       </c>
+      <c r="AR193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -27786,6 +28367,9 @@
       <c r="AQ194">
         <v>36</v>
       </c>
+      <c r="AR194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27927,6 +28511,9 @@
       <c r="AQ195">
         <v>10</v>
       </c>
+      <c r="AR195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -28068,6 +28655,9 @@
       <c r="AQ196">
         <v>40</v>
       </c>
+      <c r="AR196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -28209,6 +28799,9 @@
       <c r="AQ197">
         <v>4</v>
       </c>
+      <c r="AR197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -28350,6 +28943,9 @@
       <c r="AQ198">
         <v>23</v>
       </c>
+      <c r="AR198">
+        <v>23</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -28491,6 +29087,9 @@
       <c r="AQ199">
         <v>2</v>
       </c>
+      <c r="AR199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -28632,6 +29231,9 @@
       <c r="AQ200">
         <v>5</v>
       </c>
+      <c r="AR200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -28773,6 +29375,9 @@
       <c r="AQ201">
         <v>2</v>
       </c>
+      <c r="AR201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28914,6 +29519,9 @@
       <c r="AQ202">
         <v>1</v>
       </c>
+      <c r="AR202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -29055,6 +29663,9 @@
       <c r="AQ203">
         <v>7</v>
       </c>
+      <c r="AR203">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -29196,6 +29807,9 @@
       <c r="AQ204">
         <v>0</v>
       </c>
+      <c r="AR204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -29337,6 +29951,9 @@
       <c r="AQ205">
         <v>1</v>
       </c>
+      <c r="AR205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -29478,6 +30095,9 @@
       <c r="AQ206">
         <v>1</v>
       </c>
+      <c r="AR206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -29619,6 +30239,9 @@
       <c r="AQ207">
         <v>1</v>
       </c>
+      <c r="AR207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -29760,6 +30383,9 @@
       <c r="AQ208">
         <v>0</v>
       </c>
+      <c r="AR208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29901,6 +30527,9 @@
       <c r="AQ209">
         <v>0</v>
       </c>
+      <c r="AR209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -30042,6 +30671,9 @@
       <c r="AQ210">
         <v>0</v>
       </c>
+      <c r="AR210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -30183,6 +30815,9 @@
       <c r="AQ211">
         <v>0</v>
       </c>
+      <c r="AR211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -30324,6 +30959,9 @@
       <c r="AQ212">
         <v>2</v>
       </c>
+      <c r="AR212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -30465,6 +31103,9 @@
       <c r="AQ213">
         <v>0</v>
       </c>
+      <c r="AR213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -30606,6 +31247,9 @@
       <c r="AQ214">
         <v>3</v>
       </c>
+      <c r="AR214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30747,6 +31391,9 @@
       <c r="AQ215">
         <v>30</v>
       </c>
+      <c r="AR215">
+        <v>31</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30888,6 +31535,9 @@
       <c r="AQ216">
         <v>219</v>
       </c>
+      <c r="AR216">
+        <v>220</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -31029,6 +31679,9 @@
       <c r="AQ217">
         <v>9</v>
       </c>
+      <c r="AR217">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -31170,6 +31823,9 @@
       <c r="AQ218">
         <v>11</v>
       </c>
+      <c r="AR218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -31311,6 +31967,9 @@
       <c r="AQ219">
         <v>0</v>
       </c>
+      <c r="AR219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -31452,6 +32111,9 @@
       <c r="AQ220">
         <v>2</v>
       </c>
+      <c r="AR220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -31593,6 +32255,9 @@
       <c r="AQ221">
         <v>0</v>
       </c>
+      <c r="AR221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31734,6 +32399,9 @@
       <c r="AQ222">
         <v>1</v>
       </c>
+      <c r="AR222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -31875,6 +32543,9 @@
       <c r="AQ223">
         <v>2</v>
       </c>
+      <c r="AR223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -32016,6 +32687,9 @@
       <c r="AQ224">
         <v>8</v>
       </c>
+      <c r="AR224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -32157,6 +32831,9 @@
       <c r="AQ225">
         <v>3</v>
       </c>
+      <c r="AR225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -32298,6 +32975,9 @@
       <c r="AQ226">
         <v>1</v>
       </c>
+      <c r="AR226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -32439,6 +33119,9 @@
       <c r="AQ227">
         <v>2</v>
       </c>
+      <c r="AR227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -32580,6 +33263,9 @@
       <c r="AQ228">
         <v>2</v>
       </c>
+      <c r="AR228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -32721,6 +33407,9 @@
       <c r="AQ229">
         <v>2</v>
       </c>
+      <c r="AR229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -32862,6 +33551,9 @@
       <c r="AQ230">
         <v>0</v>
       </c>
+      <c r="AR230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -33003,6 +33695,9 @@
       <c r="AQ231">
         <v>3</v>
       </c>
+      <c r="AR231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -33144,6 +33839,9 @@
       <c r="AQ232">
         <v>21</v>
       </c>
+      <c r="AR232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -33285,6 +33983,9 @@
       <c r="AQ233">
         <v>0</v>
       </c>
+      <c r="AR233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -33426,6 +34127,9 @@
       <c r="AQ234">
         <v>4</v>
       </c>
+      <c r="AR234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -33567,6 +34271,9 @@
       <c r="AQ235">
         <v>1</v>
       </c>
+      <c r="AR235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -33708,6 +34415,9 @@
       <c r="AQ236">
         <v>1</v>
       </c>
+      <c r="AR236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33849,6 +34559,9 @@
       <c r="AQ237">
         <v>1</v>
       </c>
+      <c r="AR237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -33990,6 +34703,9 @@
       <c r="AQ238">
         <v>552</v>
       </c>
+      <c r="AR238">
+        <v>553</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -34131,6 +34847,9 @@
       <c r="AQ239">
         <v>9</v>
       </c>
+      <c r="AR239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -34272,6 +34991,9 @@
       <c r="AQ240">
         <v>4</v>
       </c>
+      <c r="AR240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -34413,6 +35135,9 @@
       <c r="AQ241">
         <v>4</v>
       </c>
+      <c r="AR241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -34554,6 +35279,9 @@
       <c r="AQ242">
         <v>4</v>
       </c>
+      <c r="AR242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -34695,6 +35423,9 @@
       <c r="AQ243">
         <v>6</v>
       </c>
+      <c r="AR243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -34836,6 +35567,9 @@
       <c r="AQ244">
         <v>8</v>
       </c>
+      <c r="AR244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -34977,6 +35711,9 @@
       <c r="AQ245">
         <v>0</v>
       </c>
+      <c r="AR245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -35118,6 +35855,9 @@
       <c r="AQ246">
         <v>4</v>
       </c>
+      <c r="AR246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -35259,6 +35999,9 @@
       <c r="AQ247">
         <v>0</v>
       </c>
+      <c r="AR247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -35400,6 +36143,9 @@
       <c r="AQ248">
         <v>0</v>
       </c>
+      <c r="AR248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -35541,6 +36287,9 @@
       <c r="AQ249">
         <v>2</v>
       </c>
+      <c r="AR249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -35682,6 +36431,9 @@
       <c r="AQ250">
         <v>24</v>
       </c>
+      <c r="AR250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -35823,6 +36575,9 @@
       <c r="AQ251">
         <v>9</v>
       </c>
+      <c r="AR251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -35964,6 +36719,9 @@
       <c r="AQ252">
         <v>0</v>
       </c>
+      <c r="AR252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -36105,6 +36863,9 @@
       <c r="AQ253">
         <v>17</v>
       </c>
+      <c r="AR253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -36246,6 +37007,9 @@
       <c r="AQ254">
         <v>5</v>
       </c>
+      <c r="AR254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -36387,6 +37151,9 @@
       <c r="AQ255">
         <v>53</v>
       </c>
+      <c r="AR255">
+        <v>53</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -36528,6 +37295,9 @@
       <c r="AQ256">
         <v>41</v>
       </c>
+      <c r="AR256">
+        <v>41</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -36669,6 +37439,9 @@
       <c r="AQ257">
         <v>1</v>
       </c>
+      <c r="AR257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -36810,6 +37583,9 @@
       <c r="AQ258">
         <v>0</v>
       </c>
+      <c r="AR258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -36951,6 +37727,9 @@
       <c r="AQ259">
         <v>40</v>
       </c>
+      <c r="AR259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -37092,6 +37871,9 @@
       <c r="AQ260">
         <v>27</v>
       </c>
+      <c r="AR260">
+        <v>27</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -37233,6 +38015,9 @@
       <c r="AQ261">
         <v>0</v>
       </c>
+      <c r="AR261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -37374,6 +38159,9 @@
       <c r="AQ262">
         <v>0</v>
       </c>
+      <c r="AR262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -37515,6 +38303,9 @@
       <c r="AQ263">
         <v>0</v>
       </c>
+      <c r="AR263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -37656,6 +38447,9 @@
       <c r="AQ264">
         <v>1</v>
       </c>
+      <c r="AR264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -37797,6 +38591,9 @@
       <c r="AQ265">
         <v>3</v>
       </c>
+      <c r="AR265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -37938,6 +38735,9 @@
       <c r="AQ266">
         <v>0</v>
       </c>
+      <c r="AR266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -38079,6 +38879,9 @@
       <c r="AQ267">
         <v>3</v>
       </c>
+      <c r="AR267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -38220,6 +39023,9 @@
       <c r="AQ268">
         <v>0</v>
       </c>
+      <c r="AR268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -38361,6 +39167,9 @@
       <c r="AQ269">
         <v>7</v>
       </c>
+      <c r="AR269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -38502,6 +39311,9 @@
       <c r="AQ270">
         <v>0</v>
       </c>
+      <c r="AR270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -38643,6 +39455,9 @@
       <c r="AQ271">
         <v>0</v>
       </c>
+      <c r="AR271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -38784,6 +39599,9 @@
       <c r="AQ272">
         <v>1</v>
       </c>
+      <c r="AR272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -38925,6 +39743,9 @@
       <c r="AQ273">
         <v>4</v>
       </c>
+      <c r="AR273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -39066,6 +39887,9 @@
       <c r="AQ274">
         <v>0</v>
       </c>
+      <c r="AR274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -39207,6 +40031,9 @@
       <c r="AQ275">
         <v>0</v>
       </c>
+      <c r="AR275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -39348,6 +40175,9 @@
       <c r="AQ276">
         <v>17</v>
       </c>
+      <c r="AR276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -39489,6 +40319,9 @@
       <c r="AQ277">
         <v>0</v>
       </c>
+      <c r="AR277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -39630,6 +40463,9 @@
       <c r="AQ278">
         <v>0</v>
       </c>
+      <c r="AR278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -39771,6 +40607,9 @@
       <c r="AQ279">
         <v>4</v>
       </c>
+      <c r="AR279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -39912,6 +40751,9 @@
       <c r="AQ280">
         <v>12</v>
       </c>
+      <c r="AR280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -40053,6 +40895,9 @@
       <c r="AQ281">
         <v>289</v>
       </c>
+      <c r="AR281">
+        <v>293</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -40194,6 +41039,9 @@
       <c r="AQ282">
         <v>16</v>
       </c>
+      <c r="AR282">
+        <v>17</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -40335,6 +41183,9 @@
       <c r="AQ283">
         <v>5</v>
       </c>
+      <c r="AR283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -40476,6 +41327,9 @@
       <c r="AQ284">
         <v>0</v>
       </c>
+      <c r="AR284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -40617,6 +41471,9 @@
       <c r="AQ285">
         <v>0</v>
       </c>
+      <c r="AR285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -40758,6 +41615,9 @@
       <c r="AQ286">
         <v>8</v>
       </c>
+      <c r="AR286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -40899,6 +41759,9 @@
       <c r="AQ287">
         <v>5</v>
       </c>
+      <c r="AR287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -41040,6 +41903,9 @@
       <c r="AQ288">
         <v>0</v>
       </c>
+      <c r="AR288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -41181,6 +42047,9 @@
       <c r="AQ289">
         <v>1</v>
       </c>
+      <c r="AR289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -41322,6 +42191,9 @@
       <c r="AQ290">
         <v>7</v>
       </c>
+      <c r="AR290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -41463,6 +42335,9 @@
       <c r="AQ291">
         <v>3</v>
       </c>
+      <c r="AR291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -41604,6 +42479,9 @@
       <c r="AQ292">
         <v>5</v>
       </c>
+      <c r="AR292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -41745,6 +42623,9 @@
       <c r="AQ293">
         <v>12</v>
       </c>
+      <c r="AR293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -41886,6 +42767,9 @@
       <c r="AQ294">
         <v>6</v>
       </c>
+      <c r="AR294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -42027,6 +42911,9 @@
       <c r="AQ295">
         <v>0</v>
       </c>
+      <c r="AR295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -42168,6 +43055,9 @@
       <c r="AQ296">
         <v>1</v>
       </c>
+      <c r="AR296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -42309,6 +43199,9 @@
       <c r="AQ297">
         <v>8</v>
       </c>
+      <c r="AR297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -42450,6 +43343,9 @@
       <c r="AQ298">
         <v>28</v>
       </c>
+      <c r="AR298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -42591,6 +43487,9 @@
       <c r="AQ299">
         <v>21</v>
       </c>
+      <c r="AR299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -42732,6 +43631,9 @@
       <c r="AQ300">
         <v>15</v>
       </c>
+      <c r="AR300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -42873,6 +43775,9 @@
       <c r="AQ301">
         <v>1</v>
       </c>
+      <c r="AR301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -43014,6 +43919,9 @@
       <c r="AQ302">
         <v>0</v>
       </c>
+      <c r="AR302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -43155,6 +44063,9 @@
       <c r="AQ303">
         <v>0</v>
       </c>
+      <c r="AR303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -43296,6 +44207,9 @@
       <c r="AQ304">
         <v>0</v>
       </c>
+      <c r="AR304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -43437,6 +44351,9 @@
       <c r="AQ305">
         <v>3</v>
       </c>
+      <c r="AR305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -43578,6 +44495,9 @@
       <c r="AQ306">
         <v>1</v>
       </c>
+      <c r="AR306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -43719,6 +44639,9 @@
       <c r="AQ307">
         <v>4</v>
       </c>
+      <c r="AR307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -43860,6 +44783,9 @@
       <c r="AQ308">
         <v>0</v>
       </c>
+      <c r="AR308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -44001,6 +44927,9 @@
       <c r="AQ309">
         <v>0</v>
       </c>
+      <c r="AR309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -44142,6 +45071,9 @@
       <c r="AQ310">
         <v>7</v>
       </c>
+      <c r="AR310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -44283,6 +45215,9 @@
       <c r="AQ311">
         <v>2</v>
       </c>
+      <c r="AR311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -44424,6 +45359,9 @@
       <c r="AQ312">
         <v>2</v>
       </c>
+      <c r="AR312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -44565,6 +45503,9 @@
       <c r="AQ313">
         <v>2</v>
       </c>
+      <c r="AR313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -44706,6 +45647,9 @@
       <c r="AQ314">
         <v>10</v>
       </c>
+      <c r="AR314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -44847,6 +45791,9 @@
       <c r="AQ315">
         <v>1</v>
       </c>
+      <c r="AR315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -44988,6 +45935,9 @@
       <c r="AQ316">
         <v>17</v>
       </c>
+      <c r="AR316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -45129,6 +46079,9 @@
       <c r="AQ317">
         <v>0</v>
       </c>
+      <c r="AR317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -45270,6 +46223,9 @@
       <c r="AQ318">
         <v>0</v>
       </c>
+      <c r="AR318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -45411,6 +46367,9 @@
       <c r="AQ319">
         <v>158</v>
       </c>
+      <c r="AR319">
+        <v>159</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -45552,6 +46511,9 @@
       <c r="AQ320">
         <v>6</v>
       </c>
+      <c r="AR320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -45693,6 +46655,9 @@
       <c r="AQ321">
         <v>5</v>
       </c>
+      <c r="AR321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -45834,6 +46799,9 @@
       <c r="AQ322">
         <v>1</v>
       </c>
+      <c r="AR322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -45975,6 +46943,9 @@
       <c r="AQ323">
         <v>3</v>
       </c>
+      <c r="AR323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -46116,6 +47087,9 @@
       <c r="AQ324">
         <v>15</v>
       </c>
+      <c r="AR324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -46257,6 +47231,9 @@
       <c r="AQ325">
         <v>1</v>
       </c>
+      <c r="AR325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -46398,6 +47375,9 @@
       <c r="AQ326">
         <v>1</v>
       </c>
+      <c r="AR326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -46539,6 +47519,9 @@
       <c r="AQ327">
         <v>0</v>
       </c>
+      <c r="AR327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -46680,6 +47663,9 @@
       <c r="AQ328">
         <v>0</v>
       </c>
+      <c r="AR328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -46821,6 +47807,9 @@
       <c r="AQ329">
         <v>3</v>
       </c>
+      <c r="AR329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -46962,6 +47951,9 @@
       <c r="AQ330">
         <v>1</v>
       </c>
+      <c r="AR330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -47103,6 +48095,9 @@
       <c r="AQ331">
         <v>2</v>
       </c>
+      <c r="AR331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -47244,6 +48239,9 @@
       <c r="AQ332">
         <v>1</v>
       </c>
+      <c r="AR332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -47385,6 +48383,9 @@
       <c r="AQ333">
         <v>0</v>
       </c>
+      <c r="AR333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -47526,6 +48527,9 @@
       <c r="AQ334">
         <v>0</v>
       </c>
+      <c r="AR334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -47667,6 +48671,9 @@
       <c r="AQ335">
         <v>16</v>
       </c>
+      <c r="AR335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -47808,6 +48815,9 @@
       <c r="AQ336">
         <v>2</v>
       </c>
+      <c r="AR336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -47949,6 +48959,9 @@
       <c r="AQ337">
         <v>1</v>
       </c>
+      <c r="AR337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -48090,6 +49103,9 @@
       <c r="AQ338">
         <v>2</v>
       </c>
+      <c r="AR338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -48231,6 +49247,9 @@
       <c r="AQ339">
         <v>0</v>
       </c>
+      <c r="AR339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -48372,6 +49391,9 @@
       <c r="AQ340">
         <v>0</v>
       </c>
+      <c r="AR340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -48513,6 +49535,9 @@
       <c r="AQ341">
         <v>1</v>
       </c>
+      <c r="AR341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -48654,6 +49679,9 @@
       <c r="AQ342">
         <v>2</v>
       </c>
+      <c r="AR342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -48795,6 +49823,9 @@
       <c r="AQ343">
         <v>0</v>
       </c>
+      <c r="AR343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -48936,6 +49967,9 @@
       <c r="AQ344">
         <v>1</v>
       </c>
+      <c r="AR344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -49077,6 +50111,9 @@
       <c r="AQ345">
         <v>0</v>
       </c>
+      <c r="AR345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -49218,6 +50255,9 @@
       <c r="AQ346">
         <v>0</v>
       </c>
+      <c r="AR346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -49359,6 +50399,9 @@
       <c r="AQ347">
         <v>3</v>
       </c>
+      <c r="AR347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -49500,6 +50543,9 @@
       <c r="AQ348">
         <v>2</v>
       </c>
+      <c r="AR348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -49641,6 +50687,9 @@
       <c r="AQ349">
         <v>4</v>
       </c>
+      <c r="AR349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -49782,6 +50831,9 @@
       <c r="AQ350">
         <v>1</v>
       </c>
+      <c r="AR350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -49923,6 +50975,9 @@
       <c r="AQ351">
         <v>0</v>
       </c>
+      <c r="AR351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -50064,6 +51119,9 @@
       <c r="AQ352">
         <v>0</v>
       </c>
+      <c r="AR352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -50205,6 +51263,9 @@
       <c r="AQ353">
         <v>0</v>
       </c>
+      <c r="AR353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -50346,6 +51407,9 @@
       <c r="AQ354">
         <v>1</v>
       </c>
+      <c r="AR354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -50487,6 +51551,9 @@
       <c r="AQ355">
         <v>1</v>
       </c>
+      <c r="AR355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -50628,6 +51695,9 @@
       <c r="AQ356">
         <v>0</v>
       </c>
+      <c r="AR356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -50769,6 +51839,9 @@
       <c r="AQ357">
         <v>4</v>
       </c>
+      <c r="AR357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -50910,6 +51983,9 @@
       <c r="AQ358">
         <v>0</v>
       </c>
+      <c r="AR358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -51049,6 +52125,9 @@
         <v>0</v>
       </c>
       <c r="AQ359">
+        <v>1</v>
+      </c>
+      <c r="AR359">
         <v>1</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR359"/>
+  <dimension ref="A1:AS359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,6 +578,11 @@
           <t>2020-05-02</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -722,6 +727,9 @@
       <c r="AR2">
         <v>2385</v>
       </c>
+      <c r="AS2">
+        <v>2399</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -866,6 +874,9 @@
       <c r="AR3">
         <v>14</v>
       </c>
+      <c r="AS3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1010,6 +1021,9 @@
       <c r="AR4">
         <v>133</v>
       </c>
+      <c r="AS4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1154,6 +1168,9 @@
       <c r="AR5">
         <v>51</v>
       </c>
+      <c r="AS5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1298,6 +1315,9 @@
       <c r="AR6">
         <v>47</v>
       </c>
+      <c r="AS6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1442,6 +1462,9 @@
       <c r="AR7">
         <v>5</v>
       </c>
+      <c r="AS7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1586,6 +1609,9 @@
       <c r="AR8">
         <v>1</v>
       </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1730,6 +1756,9 @@
       <c r="AR9">
         <v>0</v>
       </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1874,6 +1903,9 @@
       <c r="AR10">
         <v>7</v>
       </c>
+      <c r="AS10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2018,6 +2050,9 @@
       <c r="AR11">
         <v>6</v>
       </c>
+      <c r="AS11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2162,6 +2197,9 @@
       <c r="AR12">
         <v>12</v>
       </c>
+      <c r="AS12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2306,6 +2344,9 @@
       <c r="AR13">
         <v>13</v>
       </c>
+      <c r="AS13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2450,6 +2491,9 @@
       <c r="AR14">
         <v>16</v>
       </c>
+      <c r="AS14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2594,6 +2638,9 @@
       <c r="AR15">
         <v>11</v>
       </c>
+      <c r="AS15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2738,6 +2785,9 @@
       <c r="AR16">
         <v>13</v>
       </c>
+      <c r="AS16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2882,6 +2932,9 @@
       <c r="AR17">
         <v>0</v>
       </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3026,6 +3079,9 @@
       <c r="AR18">
         <v>0</v>
       </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3170,6 +3226,9 @@
       <c r="AR19">
         <v>3</v>
       </c>
+      <c r="AS19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3314,6 +3373,9 @@
       <c r="AR20">
         <v>0</v>
       </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3458,6 +3520,9 @@
       <c r="AR21">
         <v>1</v>
       </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3602,6 +3667,9 @@
       <c r="AR22">
         <v>20</v>
       </c>
+      <c r="AS22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3746,6 +3814,9 @@
       <c r="AR23">
         <v>67</v>
       </c>
+      <c r="AS23">
+        <v>67</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3890,6 +3961,9 @@
       <c r="AR24">
         <v>0</v>
       </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4034,6 +4108,9 @@
       <c r="AR25">
         <v>11</v>
       </c>
+      <c r="AS25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4178,6 +4255,9 @@
       <c r="AR26">
         <v>18</v>
       </c>
+      <c r="AS26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4322,6 +4402,9 @@
       <c r="AR27">
         <v>13</v>
       </c>
+      <c r="AS27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4466,6 +4549,9 @@
       <c r="AR28">
         <v>27</v>
       </c>
+      <c r="AS28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4610,6 +4696,9 @@
       <c r="AR29">
         <v>1</v>
       </c>
+      <c r="AS29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4754,6 +4843,9 @@
       <c r="AR30">
         <v>5</v>
       </c>
+      <c r="AS30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4898,6 +4990,9 @@
       <c r="AR31">
         <v>3</v>
       </c>
+      <c r="AS31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5042,6 +5137,9 @@
       <c r="AR32">
         <v>8</v>
       </c>
+      <c r="AS32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5186,6 +5284,9 @@
       <c r="AR33">
         <v>2</v>
       </c>
+      <c r="AS33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5330,6 +5431,9 @@
       <c r="AR34">
         <v>6</v>
       </c>
+      <c r="AS34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5474,6 +5578,9 @@
       <c r="AR35">
         <v>0</v>
       </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5618,6 +5725,9 @@
       <c r="AR36">
         <v>1</v>
       </c>
+      <c r="AS36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5762,6 +5872,9 @@
       <c r="AR37">
         <v>6</v>
       </c>
+      <c r="AS37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5906,6 +6019,9 @@
       <c r="AR38">
         <v>5</v>
       </c>
+      <c r="AS38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6050,6 +6166,9 @@
       <c r="AR39">
         <v>1</v>
       </c>
+      <c r="AS39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6194,6 +6313,9 @@
       <c r="AR40">
         <v>10</v>
       </c>
+      <c r="AS40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6338,6 +6460,9 @@
       <c r="AR41">
         <v>0</v>
       </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6482,6 +6607,9 @@
       <c r="AR42">
         <v>0</v>
       </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6626,6 +6754,9 @@
       <c r="AR43">
         <v>1</v>
       </c>
+      <c r="AS43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6770,6 +6901,9 @@
       <c r="AR44">
         <v>1</v>
       </c>
+      <c r="AS44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6914,6 +7048,9 @@
       <c r="AR45">
         <v>2</v>
       </c>
+      <c r="AS45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7058,6 +7195,9 @@
       <c r="AR46">
         <v>2</v>
       </c>
+      <c r="AS46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7202,6 +7342,9 @@
       <c r="AR47">
         <v>0</v>
       </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7346,6 +7489,9 @@
       <c r="AR48">
         <v>3</v>
       </c>
+      <c r="AS48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7490,6 +7636,9 @@
       <c r="AR49">
         <v>4</v>
       </c>
+      <c r="AS49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7634,6 +7783,9 @@
       <c r="AR50">
         <v>1</v>
       </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7778,6 +7930,9 @@
       <c r="AR51">
         <v>3</v>
       </c>
+      <c r="AS51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7922,6 +8077,9 @@
       <c r="AR52">
         <v>39</v>
       </c>
+      <c r="AS52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8066,6 +8224,9 @@
       <c r="AR53">
         <v>6</v>
       </c>
+      <c r="AS53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8210,6 +8371,9 @@
       <c r="AR54">
         <v>0</v>
       </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8354,6 +8518,9 @@
       <c r="AR55">
         <v>2</v>
       </c>
+      <c r="AS55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8498,6 +8665,9 @@
       <c r="AR56">
         <v>5</v>
       </c>
+      <c r="AS56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8642,6 +8812,9 @@
       <c r="AR57">
         <v>3</v>
       </c>
+      <c r="AS57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8786,6 +8959,9 @@
       <c r="AR58">
         <v>0</v>
       </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8930,6 +9106,9 @@
       <c r="AR59">
         <v>0</v>
       </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9074,6 +9253,9 @@
       <c r="AR60">
         <v>2</v>
       </c>
+      <c r="AS60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9218,6 +9400,9 @@
       <c r="AR61">
         <v>4</v>
       </c>
+      <c r="AS61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9362,6 +9547,9 @@
       <c r="AR62">
         <v>1</v>
       </c>
+      <c r="AS62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9506,6 +9694,9 @@
       <c r="AR63">
         <v>1</v>
       </c>
+      <c r="AS63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9650,6 +9841,9 @@
       <c r="AR64">
         <v>0</v>
       </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9794,6 +9988,9 @@
       <c r="AR65">
         <v>5</v>
       </c>
+      <c r="AS65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9938,6 +10135,9 @@
       <c r="AR66">
         <v>0</v>
       </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10082,6 +10282,9 @@
       <c r="AR67">
         <v>0</v>
       </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10226,6 +10429,9 @@
       <c r="AR68">
         <v>4</v>
       </c>
+      <c r="AS68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10370,6 +10576,9 @@
       <c r="AR69">
         <v>0</v>
       </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10514,6 +10723,9 @@
       <c r="AR70">
         <v>0</v>
       </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10658,6 +10870,9 @@
       <c r="AR71">
         <v>0</v>
       </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10802,6 +11017,9 @@
       <c r="AR72">
         <v>6</v>
       </c>
+      <c r="AS72">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10946,6 +11164,9 @@
       <c r="AR73">
         <v>0</v>
       </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11090,6 +11311,9 @@
       <c r="AR74">
         <v>0</v>
       </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11234,6 +11458,9 @@
       <c r="AR75">
         <v>0</v>
       </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11378,6 +11605,9 @@
       <c r="AR76">
         <v>2</v>
       </c>
+      <c r="AS76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11522,6 +11752,9 @@
       <c r="AR77">
         <v>0</v>
       </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11666,6 +11899,9 @@
       <c r="AR78">
         <v>1</v>
       </c>
+      <c r="AS78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11810,6 +12046,9 @@
       <c r="AR79">
         <v>0</v>
       </c>
+      <c r="AS79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11954,6 +12193,9 @@
       <c r="AR80">
         <v>0</v>
       </c>
+      <c r="AS80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12098,6 +12340,9 @@
       <c r="AR81">
         <v>0</v>
       </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12242,6 +12487,9 @@
       <c r="AR82">
         <v>0</v>
       </c>
+      <c r="AS82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12386,6 +12634,9 @@
       <c r="AR83">
         <v>6</v>
       </c>
+      <c r="AS83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12530,6 +12781,9 @@
       <c r="AR84">
         <v>13</v>
       </c>
+      <c r="AS84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12674,6 +12928,9 @@
       <c r="AR85">
         <v>3</v>
       </c>
+      <c r="AS85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12818,6 +13075,9 @@
       <c r="AR86">
         <v>5</v>
       </c>
+      <c r="AS86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12962,6 +13222,9 @@
       <c r="AR87">
         <v>0</v>
       </c>
+      <c r="AS87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13106,6 +13369,9 @@
       <c r="AR88">
         <v>0</v>
       </c>
+      <c r="AS88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -13250,6 +13516,9 @@
       <c r="AR89">
         <v>6</v>
       </c>
+      <c r="AS89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13394,6 +13663,9 @@
       <c r="AR90">
         <v>0</v>
       </c>
+      <c r="AS90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -13538,6 +13810,9 @@
       <c r="AR91">
         <v>1</v>
       </c>
+      <c r="AS91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13682,6 +13957,9 @@
       <c r="AR92">
         <v>0</v>
       </c>
+      <c r="AS92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13826,6 +14104,9 @@
       <c r="AR93">
         <v>36</v>
       </c>
+      <c r="AS93">
+        <v>36</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13970,6 +14251,9 @@
       <c r="AR94">
         <v>97</v>
       </c>
+      <c r="AS94">
+        <v>97</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14114,6 +14398,9 @@
       <c r="AR95">
         <v>66</v>
       </c>
+      <c r="AS95">
+        <v>67</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -14258,6 +14545,9 @@
       <c r="AR96">
         <v>94</v>
       </c>
+      <c r="AS96">
+        <v>95</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14402,6 +14692,9 @@
       <c r="AR97">
         <v>172</v>
       </c>
+      <c r="AS97">
+        <v>174</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -14546,6 +14839,9 @@
       <c r="AR98">
         <v>21</v>
       </c>
+      <c r="AS98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14690,6 +14986,9 @@
       <c r="AR99">
         <v>10</v>
       </c>
+      <c r="AS99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14834,6 +15133,9 @@
       <c r="AR100">
         <v>2</v>
       </c>
+      <c r="AS100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14978,6 +15280,9 @@
       <c r="AR101">
         <v>2</v>
       </c>
+      <c r="AS101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -15122,6 +15427,9 @@
       <c r="AR102">
         <v>3</v>
       </c>
+      <c r="AS102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -15266,6 +15574,9 @@
       <c r="AR103">
         <v>50</v>
       </c>
+      <c r="AS103">
+        <v>50</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15410,6 +15721,9 @@
       <c r="AR104">
         <v>2</v>
       </c>
+      <c r="AS104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -15554,6 +15868,9 @@
       <c r="AR105">
         <v>1</v>
       </c>
+      <c r="AS105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15698,6 +16015,9 @@
       <c r="AR106">
         <v>2</v>
       </c>
+      <c r="AS106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15842,6 +16162,9 @@
       <c r="AR107">
         <v>7</v>
       </c>
+      <c r="AS107">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15986,6 +16309,9 @@
       <c r="AR108">
         <v>23</v>
       </c>
+      <c r="AS108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -16130,6 +16456,9 @@
       <c r="AR109">
         <v>102</v>
       </c>
+      <c r="AS109">
+        <v>102</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -16274,6 +16603,9 @@
       <c r="AR110">
         <v>20</v>
       </c>
+      <c r="AS110">
+        <v>20</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -16418,6 +16750,9 @@
       <c r="AR111">
         <v>29</v>
       </c>
+      <c r="AS111">
+        <v>29</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -16562,6 +16897,9 @@
       <c r="AR112">
         <v>49</v>
       </c>
+      <c r="AS112">
+        <v>49</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16706,6 +17044,9 @@
       <c r="AR113">
         <v>411</v>
       </c>
+      <c r="AS113">
+        <v>411</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16850,6 +17191,9 @@
       <c r="AR114">
         <v>183</v>
       </c>
+      <c r="AS114">
+        <v>183</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16994,6 +17338,9 @@
       <c r="AR115">
         <v>10</v>
       </c>
+      <c r="AS115">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -17138,6 +17485,9 @@
       <c r="AR116">
         <v>26</v>
       </c>
+      <c r="AS116">
+        <v>26</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -17282,6 +17632,9 @@
       <c r="AR117">
         <v>49</v>
       </c>
+      <c r="AS117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17426,6 +17779,9 @@
       <c r="AR118">
         <v>92</v>
       </c>
+      <c r="AS118">
+        <v>92</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -17570,6 +17926,9 @@
       <c r="AR119">
         <v>158</v>
       </c>
+      <c r="AS119">
+        <v>158</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -17714,6 +18073,9 @@
       <c r="AR120">
         <v>45</v>
       </c>
+      <c r="AS120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17858,6 +18220,9 @@
       <c r="AR121">
         <v>8</v>
       </c>
+      <c r="AS121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -18002,6 +18367,9 @@
       <c r="AR122">
         <v>58</v>
       </c>
+      <c r="AS122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -18146,6 +18514,9 @@
       <c r="AR123">
         <v>14</v>
       </c>
+      <c r="AS123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -18290,6 +18661,9 @@
       <c r="AR124">
         <v>41</v>
       </c>
+      <c r="AS124">
+        <v>41</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -18434,6 +18808,9 @@
       <c r="AR125">
         <v>17</v>
       </c>
+      <c r="AS125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -18578,6 +18955,9 @@
       <c r="AR126">
         <v>2</v>
       </c>
+      <c r="AS126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -18722,6 +19102,9 @@
       <c r="AR127">
         <v>10</v>
       </c>
+      <c r="AS127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18866,6 +19249,9 @@
       <c r="AR128">
         <v>1</v>
       </c>
+      <c r="AS128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -19010,6 +19396,9 @@
       <c r="AR129">
         <v>7</v>
       </c>
+      <c r="AS129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -19154,6 +19543,9 @@
       <c r="AR130">
         <v>11</v>
       </c>
+      <c r="AS130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -19298,6 +19690,9 @@
       <c r="AR131">
         <v>8</v>
       </c>
+      <c r="AS131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -19442,6 +19837,9 @@
       <c r="AR132">
         <v>13</v>
       </c>
+      <c r="AS132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -19586,6 +19984,9 @@
       <c r="AR133">
         <v>44</v>
       </c>
+      <c r="AS133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -19730,6 +20131,9 @@
       <c r="AR134">
         <v>0</v>
       </c>
+      <c r="AS134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19874,6 +20278,9 @@
       <c r="AR135">
         <v>0</v>
       </c>
+      <c r="AS135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -20018,6 +20425,9 @@
       <c r="AR136">
         <v>10</v>
       </c>
+      <c r="AS136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -20162,6 +20572,9 @@
       <c r="AR137">
         <v>9</v>
       </c>
+      <c r="AS137">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -20306,6 +20719,9 @@
       <c r="AR138">
         <v>42</v>
       </c>
+      <c r="AS138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -20450,6 +20866,9 @@
       <c r="AR139">
         <v>4</v>
       </c>
+      <c r="AS139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -20594,6 +21013,9 @@
       <c r="AR140">
         <v>1</v>
       </c>
+      <c r="AS140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -20738,6 +21160,9 @@
       <c r="AR141">
         <v>3</v>
       </c>
+      <c r="AS141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20882,6 +21307,9 @@
       <c r="AR142">
         <v>6</v>
       </c>
+      <c r="AS142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -21026,6 +21454,9 @@
       <c r="AR143">
         <v>12</v>
       </c>
+      <c r="AS143">
+        <v>12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -21170,6 +21601,9 @@
       <c r="AR144">
         <v>2</v>
       </c>
+      <c r="AS144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -21314,6 +21748,9 @@
       <c r="AR145">
         <v>82</v>
       </c>
+      <c r="AS145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -21458,6 +21895,9 @@
       <c r="AR146">
         <v>39</v>
       </c>
+      <c r="AS146">
+        <v>39</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -21602,6 +22042,9 @@
       <c r="AR147">
         <v>24</v>
       </c>
+      <c r="AS147">
+        <v>24</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -21746,6 +22189,9 @@
       <c r="AR148">
         <v>63</v>
       </c>
+      <c r="AS148">
+        <v>63</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -21890,6 +22336,9 @@
       <c r="AR149">
         <v>12</v>
       </c>
+      <c r="AS149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -22034,6 +22483,9 @@
       <c r="AR150">
         <v>0</v>
       </c>
+      <c r="AS150">
+        <v>36</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -22178,6 +22630,9 @@
       <c r="AR151">
         <v>0</v>
       </c>
+      <c r="AS151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -22322,6 +22777,9 @@
       <c r="AR152">
         <v>21</v>
       </c>
+      <c r="AS152">
+        <v>21</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -22466,6 +22924,9 @@
       <c r="AR153">
         <v>4</v>
       </c>
+      <c r="AS153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -22610,6 +23071,9 @@
       <c r="AR154">
         <v>5</v>
       </c>
+      <c r="AS154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -22754,6 +23218,9 @@
       <c r="AR155">
         <v>3</v>
       </c>
+      <c r="AS155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -22898,6 +23365,9 @@
       <c r="AR156">
         <v>3</v>
       </c>
+      <c r="AS156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -23042,6 +23512,9 @@
       <c r="AR157">
         <v>16</v>
       </c>
+      <c r="AS157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -23186,6 +23659,9 @@
       <c r="AR158">
         <v>6</v>
       </c>
+      <c r="AS158">
+        <v>7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -23330,6 +23806,9 @@
       <c r="AR159">
         <v>4</v>
       </c>
+      <c r="AS159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -23474,6 +23953,9 @@
       <c r="AR160">
         <v>0</v>
       </c>
+      <c r="AS160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -23618,6 +24100,9 @@
       <c r="AR161">
         <v>0</v>
       </c>
+      <c r="AS161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -23762,6 +24247,9 @@
       <c r="AR162">
         <v>2</v>
       </c>
+      <c r="AS162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -23906,6 +24394,9 @@
       <c r="AR163">
         <v>0</v>
       </c>
+      <c r="AS163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -24050,6 +24541,9 @@
       <c r="AR164">
         <v>0</v>
       </c>
+      <c r="AS164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -24194,6 +24688,9 @@
       <c r="AR165">
         <v>1</v>
       </c>
+      <c r="AS165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -24338,6 +24835,9 @@
       <c r="AR166">
         <v>0</v>
       </c>
+      <c r="AS166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -24482,6 +24982,9 @@
       <c r="AR167">
         <v>1</v>
       </c>
+      <c r="AS167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -24626,6 +25129,9 @@
       <c r="AR168">
         <v>5</v>
       </c>
+      <c r="AS168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -24770,6 +25276,9 @@
       <c r="AR169">
         <v>2</v>
       </c>
+      <c r="AS169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -24914,6 +25423,9 @@
       <c r="AR170">
         <v>2</v>
       </c>
+      <c r="AS170">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -25058,6 +25570,9 @@
       <c r="AR171">
         <v>3</v>
       </c>
+      <c r="AS171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -25202,6 +25717,9 @@
       <c r="AR172">
         <v>2</v>
       </c>
+      <c r="AS172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -25346,6 +25864,9 @@
       <c r="AR173">
         <v>13</v>
       </c>
+      <c r="AS173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -25490,6 +26011,9 @@
       <c r="AR174">
         <v>36</v>
       </c>
+      <c r="AS174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -25634,6 +26158,9 @@
       <c r="AR175">
         <v>1</v>
       </c>
+      <c r="AS175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -25778,6 +26305,9 @@
       <c r="AR176">
         <v>8</v>
       </c>
+      <c r="AS176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -25922,6 +26452,9 @@
       <c r="AR177">
         <v>2</v>
       </c>
+      <c r="AS177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -26066,6 +26599,9 @@
       <c r="AR178">
         <v>6</v>
       </c>
+      <c r="AS178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -26210,6 +26746,9 @@
       <c r="AR179">
         <v>4</v>
       </c>
+      <c r="AS179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -26354,6 +26893,9 @@
       <c r="AR180">
         <v>12</v>
       </c>
+      <c r="AS180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -26498,6 +27040,9 @@
       <c r="AR181">
         <v>11</v>
       </c>
+      <c r="AS181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -26642,6 +27187,9 @@
       <c r="AR182">
         <v>2</v>
       </c>
+      <c r="AS182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -26786,6 +27334,9 @@
       <c r="AR183">
         <v>1</v>
       </c>
+      <c r="AS183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -26930,6 +27481,9 @@
       <c r="AR184">
         <v>0</v>
       </c>
+      <c r="AS184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -27074,6 +27628,9 @@
       <c r="AR185">
         <v>1</v>
       </c>
+      <c r="AS185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -27218,6 +27775,9 @@
       <c r="AR186">
         <v>9</v>
       </c>
+      <c r="AS186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -27362,6 +27922,9 @@
       <c r="AR187">
         <v>0</v>
       </c>
+      <c r="AS187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -27506,6 +28069,9 @@
       <c r="AR188">
         <v>0</v>
       </c>
+      <c r="AS188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -27650,6 +28216,9 @@
       <c r="AR189">
         <v>0</v>
       </c>
+      <c r="AS189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -27794,6 +28363,9 @@
       <c r="AR190">
         <v>25</v>
       </c>
+      <c r="AS190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -27938,6 +28510,9 @@
       <c r="AR191">
         <v>21</v>
       </c>
+      <c r="AS191">
+        <v>21</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -28082,6 +28657,9 @@
       <c r="AR192">
         <v>57</v>
       </c>
+      <c r="AS192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -28226,6 +28804,9 @@
       <c r="AR193">
         <v>38</v>
       </c>
+      <c r="AS193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -28370,6 +28951,9 @@
       <c r="AR194">
         <v>36</v>
       </c>
+      <c r="AS194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -28514,6 +29098,9 @@
       <c r="AR195">
         <v>10</v>
       </c>
+      <c r="AS195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -28658,6 +29245,9 @@
       <c r="AR196">
         <v>40</v>
       </c>
+      <c r="AS196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -28802,6 +29392,9 @@
       <c r="AR197">
         <v>4</v>
       </c>
+      <c r="AS197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -28946,6 +29539,9 @@
       <c r="AR198">
         <v>23</v>
       </c>
+      <c r="AS198">
+        <v>23</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -29090,6 +29686,9 @@
       <c r="AR199">
         <v>2</v>
       </c>
+      <c r="AS199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -29234,6 +29833,9 @@
       <c r="AR200">
         <v>5</v>
       </c>
+      <c r="AS200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -29378,6 +29980,9 @@
       <c r="AR201">
         <v>2</v>
       </c>
+      <c r="AS201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -29522,6 +30127,9 @@
       <c r="AR202">
         <v>1</v>
       </c>
+      <c r="AS202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -29666,6 +30274,9 @@
       <c r="AR203">
         <v>7</v>
       </c>
+      <c r="AS203">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -29810,6 +30421,9 @@
       <c r="AR204">
         <v>0</v>
       </c>
+      <c r="AS204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -29954,6 +30568,9 @@
       <c r="AR205">
         <v>1</v>
       </c>
+      <c r="AS205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -30098,6 +30715,9 @@
       <c r="AR206">
         <v>1</v>
       </c>
+      <c r="AS206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -30242,6 +30862,9 @@
       <c r="AR207">
         <v>1</v>
       </c>
+      <c r="AS207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -30386,6 +31009,9 @@
       <c r="AR208">
         <v>0</v>
       </c>
+      <c r="AS208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -30530,6 +31156,9 @@
       <c r="AR209">
         <v>0</v>
       </c>
+      <c r="AS209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -30674,6 +31303,9 @@
       <c r="AR210">
         <v>0</v>
       </c>
+      <c r="AS210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -30818,6 +31450,9 @@
       <c r="AR211">
         <v>0</v>
       </c>
+      <c r="AS211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -30962,6 +31597,9 @@
       <c r="AR212">
         <v>2</v>
       </c>
+      <c r="AS212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -31106,6 +31744,9 @@
       <c r="AR213">
         <v>0</v>
       </c>
+      <c r="AS213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -31250,6 +31891,9 @@
       <c r="AR214">
         <v>3</v>
       </c>
+      <c r="AS214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -31394,6 +32038,9 @@
       <c r="AR215">
         <v>31</v>
       </c>
+      <c r="AS215">
+        <v>31</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -31538,6 +32185,9 @@
       <c r="AR216">
         <v>220</v>
       </c>
+      <c r="AS216">
+        <v>220</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -31682,6 +32332,9 @@
       <c r="AR217">
         <v>9</v>
       </c>
+      <c r="AS217">
+        <v>10</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -31826,6 +32479,9 @@
       <c r="AR218">
         <v>11</v>
       </c>
+      <c r="AS218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -31970,6 +32626,9 @@
       <c r="AR219">
         <v>0</v>
       </c>
+      <c r="AS219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -32114,6 +32773,9 @@
       <c r="AR220">
         <v>2</v>
       </c>
+      <c r="AS220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -32258,6 +32920,9 @@
       <c r="AR221">
         <v>0</v>
       </c>
+      <c r="AS221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -32402,6 +33067,9 @@
       <c r="AR222">
         <v>1</v>
       </c>
+      <c r="AS222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -32546,6 +33214,9 @@
       <c r="AR223">
         <v>2</v>
       </c>
+      <c r="AS223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -32690,6 +33361,9 @@
       <c r="AR224">
         <v>8</v>
       </c>
+      <c r="AS224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -32834,6 +33508,9 @@
       <c r="AR225">
         <v>3</v>
       </c>
+      <c r="AS225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -32978,6 +33655,9 @@
       <c r="AR226">
         <v>1</v>
       </c>
+      <c r="AS226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -33122,6 +33802,9 @@
       <c r="AR227">
         <v>2</v>
       </c>
+      <c r="AS227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -33266,6 +33949,9 @@
       <c r="AR228">
         <v>2</v>
       </c>
+      <c r="AS228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -33410,6 +34096,9 @@
       <c r="AR229">
         <v>2</v>
       </c>
+      <c r="AS229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -33554,6 +34243,9 @@
       <c r="AR230">
         <v>0</v>
       </c>
+      <c r="AS230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -33698,6 +34390,9 @@
       <c r="AR231">
         <v>3</v>
       </c>
+      <c r="AS231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -33842,6 +34537,9 @@
       <c r="AR232">
         <v>21</v>
       </c>
+      <c r="AS232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -33986,6 +34684,9 @@
       <c r="AR233">
         <v>0</v>
       </c>
+      <c r="AS233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -34130,6 +34831,9 @@
       <c r="AR234">
         <v>4</v>
       </c>
+      <c r="AS234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -34274,6 +34978,9 @@
       <c r="AR235">
         <v>1</v>
       </c>
+      <c r="AS235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -34418,6 +35125,9 @@
       <c r="AR236">
         <v>1</v>
       </c>
+      <c r="AS236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -34562,6 +35272,9 @@
       <c r="AR237">
         <v>1</v>
       </c>
+      <c r="AS237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -34706,6 +35419,9 @@
       <c r="AR238">
         <v>553</v>
       </c>
+      <c r="AS238">
+        <v>553</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -34850,6 +35566,9 @@
       <c r="AR239">
         <v>9</v>
       </c>
+      <c r="AS239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -34994,6 +35713,9 @@
       <c r="AR240">
         <v>4</v>
       </c>
+      <c r="AS240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -35138,6 +35860,9 @@
       <c r="AR241">
         <v>4</v>
       </c>
+      <c r="AS241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -35282,6 +36007,9 @@
       <c r="AR242">
         <v>4</v>
       </c>
+      <c r="AS242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -35426,6 +36154,9 @@
       <c r="AR243">
         <v>6</v>
       </c>
+      <c r="AS243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -35570,6 +36301,9 @@
       <c r="AR244">
         <v>8</v>
       </c>
+      <c r="AS244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -35714,6 +36448,9 @@
       <c r="AR245">
         <v>0</v>
       </c>
+      <c r="AS245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -35858,6 +36595,9 @@
       <c r="AR246">
         <v>4</v>
       </c>
+      <c r="AS246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -36002,6 +36742,9 @@
       <c r="AR247">
         <v>0</v>
       </c>
+      <c r="AS247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -36146,6 +36889,9 @@
       <c r="AR248">
         <v>0</v>
       </c>
+      <c r="AS248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -36290,6 +37036,9 @@
       <c r="AR249">
         <v>2</v>
       </c>
+      <c r="AS249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -36434,6 +37183,9 @@
       <c r="AR250">
         <v>24</v>
       </c>
+      <c r="AS250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -36578,6 +37330,9 @@
       <c r="AR251">
         <v>9</v>
       </c>
+      <c r="AS251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -36722,6 +37477,9 @@
       <c r="AR252">
         <v>0</v>
       </c>
+      <c r="AS252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -36866,6 +37624,9 @@
       <c r="AR253">
         <v>17</v>
       </c>
+      <c r="AS253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -37010,6 +37771,9 @@
       <c r="AR254">
         <v>5</v>
       </c>
+      <c r="AS254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -37154,6 +37918,9 @@
       <c r="AR255">
         <v>53</v>
       </c>
+      <c r="AS255">
+        <v>54</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -37298,6 +38065,9 @@
       <c r="AR256">
         <v>41</v>
       </c>
+      <c r="AS256">
+        <v>41</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -37442,6 +38212,9 @@
       <c r="AR257">
         <v>1</v>
       </c>
+      <c r="AS257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -37586,6 +38359,9 @@
       <c r="AR258">
         <v>0</v>
       </c>
+      <c r="AS258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -37730,6 +38506,9 @@
       <c r="AR259">
         <v>40</v>
       </c>
+      <c r="AS259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -37874,6 +38653,9 @@
       <c r="AR260">
         <v>27</v>
       </c>
+      <c r="AS260">
+        <v>27</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -38018,6 +38800,9 @@
       <c r="AR261">
         <v>0</v>
       </c>
+      <c r="AS261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -38162,6 +38947,9 @@
       <c r="AR262">
         <v>0</v>
       </c>
+      <c r="AS262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -38306,6 +39094,9 @@
       <c r="AR263">
         <v>0</v>
       </c>
+      <c r="AS263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -38450,6 +39241,9 @@
       <c r="AR264">
         <v>1</v>
       </c>
+      <c r="AS264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -38594,6 +39388,9 @@
       <c r="AR265">
         <v>3</v>
       </c>
+      <c r="AS265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -38738,6 +39535,9 @@
       <c r="AR266">
         <v>0</v>
       </c>
+      <c r="AS266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -38882,6 +39682,9 @@
       <c r="AR267">
         <v>3</v>
       </c>
+      <c r="AS267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -39026,6 +39829,9 @@
       <c r="AR268">
         <v>0</v>
       </c>
+      <c r="AS268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -39170,6 +39976,9 @@
       <c r="AR269">
         <v>7</v>
       </c>
+      <c r="AS269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -39314,6 +40123,9 @@
       <c r="AR270">
         <v>0</v>
       </c>
+      <c r="AS270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -39458,6 +40270,9 @@
       <c r="AR271">
         <v>0</v>
       </c>
+      <c r="AS271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -39602,6 +40417,9 @@
       <c r="AR272">
         <v>1</v>
       </c>
+      <c r="AS272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -39746,6 +40564,9 @@
       <c r="AR273">
         <v>4</v>
       </c>
+      <c r="AS273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -39890,6 +40711,9 @@
       <c r="AR274">
         <v>0</v>
       </c>
+      <c r="AS274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -40034,6 +40858,9 @@
       <c r="AR275">
         <v>0</v>
       </c>
+      <c r="AS275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -40178,6 +41005,9 @@
       <c r="AR276">
         <v>17</v>
       </c>
+      <c r="AS276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -40322,6 +41152,9 @@
       <c r="AR277">
         <v>0</v>
       </c>
+      <c r="AS277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -40466,6 +41299,9 @@
       <c r="AR278">
         <v>0</v>
       </c>
+      <c r="AS278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -40610,6 +41446,9 @@
       <c r="AR279">
         <v>4</v>
       </c>
+      <c r="AS279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -40754,6 +41593,9 @@
       <c r="AR280">
         <v>12</v>
       </c>
+      <c r="AS280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -40898,6 +41740,9 @@
       <c r="AR281">
         <v>293</v>
       </c>
+      <c r="AS281">
+        <v>295</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -41042,6 +41887,9 @@
       <c r="AR282">
         <v>17</v>
       </c>
+      <c r="AS282">
+        <v>17</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -41186,6 +42034,9 @@
       <c r="AR283">
         <v>5</v>
       </c>
+      <c r="AS283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -41330,6 +42181,9 @@
       <c r="AR284">
         <v>0</v>
       </c>
+      <c r="AS284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -41474,6 +42328,9 @@
       <c r="AR285">
         <v>0</v>
       </c>
+      <c r="AS285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -41618,6 +42475,9 @@
       <c r="AR286">
         <v>8</v>
       </c>
+      <c r="AS286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -41762,6 +42622,9 @@
       <c r="AR287">
         <v>5</v>
       </c>
+      <c r="AS287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -41906,6 +42769,9 @@
       <c r="AR288">
         <v>0</v>
       </c>
+      <c r="AS288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -42050,6 +42916,9 @@
       <c r="AR289">
         <v>1</v>
       </c>
+      <c r="AS289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -42194,6 +43063,9 @@
       <c r="AR290">
         <v>7</v>
       </c>
+      <c r="AS290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -42338,6 +43210,9 @@
       <c r="AR291">
         <v>3</v>
       </c>
+      <c r="AS291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -42482,6 +43357,9 @@
       <c r="AR292">
         <v>5</v>
       </c>
+      <c r="AS292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -42626,6 +43504,9 @@
       <c r="AR293">
         <v>12</v>
       </c>
+      <c r="AS293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -42770,6 +43651,9 @@
       <c r="AR294">
         <v>6</v>
       </c>
+      <c r="AS294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -42914,6 +43798,9 @@
       <c r="AR295">
         <v>0</v>
       </c>
+      <c r="AS295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -43058,6 +43945,9 @@
       <c r="AR296">
         <v>1</v>
       </c>
+      <c r="AS296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -43202,6 +44092,9 @@
       <c r="AR297">
         <v>8</v>
       </c>
+      <c r="AS297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -43346,6 +44239,9 @@
       <c r="AR298">
         <v>28</v>
       </c>
+      <c r="AS298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -43490,6 +44386,9 @@
       <c r="AR299">
         <v>21</v>
       </c>
+      <c r="AS299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -43634,6 +44533,9 @@
       <c r="AR300">
         <v>15</v>
       </c>
+      <c r="AS300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -43778,6 +44680,9 @@
       <c r="AR301">
         <v>1</v>
       </c>
+      <c r="AS301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -43922,6 +44827,9 @@
       <c r="AR302">
         <v>0</v>
       </c>
+      <c r="AS302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -44066,6 +44974,9 @@
       <c r="AR303">
         <v>0</v>
       </c>
+      <c r="AS303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -44210,6 +45121,9 @@
       <c r="AR304">
         <v>0</v>
       </c>
+      <c r="AS304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -44354,6 +45268,9 @@
       <c r="AR305">
         <v>3</v>
       </c>
+      <c r="AS305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -44498,6 +45415,9 @@
       <c r="AR306">
         <v>1</v>
       </c>
+      <c r="AS306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -44642,6 +45562,9 @@
       <c r="AR307">
         <v>4</v>
       </c>
+      <c r="AS307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -44786,6 +45709,9 @@
       <c r="AR308">
         <v>0</v>
       </c>
+      <c r="AS308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -44930,6 +45856,9 @@
       <c r="AR309">
         <v>0</v>
       </c>
+      <c r="AS309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -45074,6 +46003,9 @@
       <c r="AR310">
         <v>7</v>
       </c>
+      <c r="AS310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -45218,6 +46150,9 @@
       <c r="AR311">
         <v>2</v>
       </c>
+      <c r="AS311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -45362,6 +46297,9 @@
       <c r="AR312">
         <v>2</v>
       </c>
+      <c r="AS312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -45506,6 +46444,9 @@
       <c r="AR313">
         <v>2</v>
       </c>
+      <c r="AS313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -45650,6 +46591,9 @@
       <c r="AR314">
         <v>10</v>
       </c>
+      <c r="AS314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -45794,6 +46738,9 @@
       <c r="AR315">
         <v>1</v>
       </c>
+      <c r="AS315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -45938,6 +46885,9 @@
       <c r="AR316">
         <v>17</v>
       </c>
+      <c r="AS316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -46082,6 +47032,9 @@
       <c r="AR317">
         <v>0</v>
       </c>
+      <c r="AS317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -46226,6 +47179,9 @@
       <c r="AR318">
         <v>0</v>
       </c>
+      <c r="AS318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -46370,6 +47326,9 @@
       <c r="AR319">
         <v>159</v>
       </c>
+      <c r="AS319">
+        <v>161</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -46514,6 +47473,9 @@
       <c r="AR320">
         <v>6</v>
       </c>
+      <c r="AS320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -46658,6 +47620,9 @@
       <c r="AR321">
         <v>5</v>
       </c>
+      <c r="AS321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -46802,6 +47767,9 @@
       <c r="AR322">
         <v>1</v>
       </c>
+      <c r="AS322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -46946,6 +47914,9 @@
       <c r="AR323">
         <v>3</v>
       </c>
+      <c r="AS323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -47090,6 +48061,9 @@
       <c r="AR324">
         <v>15</v>
       </c>
+      <c r="AS324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -47234,6 +48208,9 @@
       <c r="AR325">
         <v>1</v>
       </c>
+      <c r="AS325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -47378,6 +48355,9 @@
       <c r="AR326">
         <v>1</v>
       </c>
+      <c r="AS326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -47522,6 +48502,9 @@
       <c r="AR327">
         <v>0</v>
       </c>
+      <c r="AS327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -47666,6 +48649,9 @@
       <c r="AR328">
         <v>0</v>
       </c>
+      <c r="AS328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -47810,6 +48796,9 @@
       <c r="AR329">
         <v>3</v>
       </c>
+      <c r="AS329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -47954,6 +48943,9 @@
       <c r="AR330">
         <v>1</v>
       </c>
+      <c r="AS330">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -48098,6 +49090,9 @@
       <c r="AR331">
         <v>2</v>
       </c>
+      <c r="AS331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -48242,6 +49237,9 @@
       <c r="AR332">
         <v>1</v>
       </c>
+      <c r="AS332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -48386,6 +49384,9 @@
       <c r="AR333">
         <v>0</v>
       </c>
+      <c r="AS333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -48530,6 +49531,9 @@
       <c r="AR334">
         <v>0</v>
       </c>
+      <c r="AS334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -48674,6 +49678,9 @@
       <c r="AR335">
         <v>16</v>
       </c>
+      <c r="AS335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -48818,6 +49825,9 @@
       <c r="AR336">
         <v>2</v>
       </c>
+      <c r="AS336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -48962,6 +49972,9 @@
       <c r="AR337">
         <v>2</v>
       </c>
+      <c r="AS337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -49106,6 +50119,9 @@
       <c r="AR338">
         <v>2</v>
       </c>
+      <c r="AS338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -49250,6 +50266,9 @@
       <c r="AR339">
         <v>0</v>
       </c>
+      <c r="AS339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -49394,6 +50413,9 @@
       <c r="AR340">
         <v>0</v>
       </c>
+      <c r="AS340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -49538,6 +50560,9 @@
       <c r="AR341">
         <v>1</v>
       </c>
+      <c r="AS341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -49682,6 +50707,9 @@
       <c r="AR342">
         <v>2</v>
       </c>
+      <c r="AS342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -49826,6 +50854,9 @@
       <c r="AR343">
         <v>0</v>
       </c>
+      <c r="AS343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -49970,6 +51001,9 @@
       <c r="AR344">
         <v>1</v>
       </c>
+      <c r="AS344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -50114,6 +51148,9 @@
       <c r="AR345">
         <v>0</v>
       </c>
+      <c r="AS345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -50258,6 +51295,9 @@
       <c r="AR346">
         <v>0</v>
       </c>
+      <c r="AS346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -50402,6 +51442,9 @@
       <c r="AR347">
         <v>3</v>
       </c>
+      <c r="AS347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -50546,6 +51589,9 @@
       <c r="AR348">
         <v>2</v>
       </c>
+      <c r="AS348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -50690,6 +51736,9 @@
       <c r="AR349">
         <v>4</v>
       </c>
+      <c r="AS349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -50834,6 +51883,9 @@
       <c r="AR350">
         <v>1</v>
       </c>
+      <c r="AS350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -50978,6 +52030,9 @@
       <c r="AR351">
         <v>0</v>
       </c>
+      <c r="AS351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -51122,6 +52177,9 @@
       <c r="AR352">
         <v>0</v>
       </c>
+      <c r="AS352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -51266,6 +52324,9 @@
       <c r="AR353">
         <v>0</v>
       </c>
+      <c r="AS353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -51410,6 +52471,9 @@
       <c r="AR354">
         <v>1</v>
       </c>
+      <c r="AS354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -51554,6 +52618,9 @@
       <c r="AR355">
         <v>1</v>
       </c>
+      <c r="AS355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -51698,6 +52765,9 @@
       <c r="AR356">
         <v>0</v>
       </c>
+      <c r="AS356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -51842,6 +52912,9 @@
       <c r="AR357">
         <v>4</v>
       </c>
+      <c r="AS357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -51986,6 +53059,9 @@
       <c r="AR358">
         <v>0</v>
       </c>
+      <c r="AS358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -52128,6 +53204,9 @@
         <v>1</v>
       </c>
       <c r="AR359">
+        <v>1</v>
+      </c>
+      <c r="AS359">
         <v>1</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS359"/>
+  <dimension ref="A1:AT359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,6 +583,11 @@
           <t>2020-05-03</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -730,6 +735,9 @@
       <c r="AS2">
         <v>2399</v>
       </c>
+      <c r="AT2">
+        <v>2415</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -877,6 +885,9 @@
       <c r="AS3">
         <v>14</v>
       </c>
+      <c r="AT3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1024,6 +1035,9 @@
       <c r="AS4">
         <v>133</v>
       </c>
+      <c r="AT4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1171,6 +1185,9 @@
       <c r="AS5">
         <v>51</v>
       </c>
+      <c r="AT5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1318,6 +1335,9 @@
       <c r="AS6">
         <v>47</v>
       </c>
+      <c r="AT6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1465,6 +1485,9 @@
       <c r="AS7">
         <v>5</v>
       </c>
+      <c r="AT7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1612,6 +1635,9 @@
       <c r="AS8">
         <v>1</v>
       </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1759,6 +1785,9 @@
       <c r="AS9">
         <v>0</v>
       </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1906,6 +1935,9 @@
       <c r="AS10">
         <v>7</v>
       </c>
+      <c r="AT10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2053,6 +2085,9 @@
       <c r="AS11">
         <v>6</v>
       </c>
+      <c r="AT11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2200,6 +2235,9 @@
       <c r="AS12">
         <v>12</v>
       </c>
+      <c r="AT12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2347,6 +2385,9 @@
       <c r="AS13">
         <v>13</v>
       </c>
+      <c r="AT13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2494,6 +2535,9 @@
       <c r="AS14">
         <v>16</v>
       </c>
+      <c r="AT14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2641,6 +2685,9 @@
       <c r="AS15">
         <v>11</v>
       </c>
+      <c r="AT15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2788,6 +2835,9 @@
       <c r="AS16">
         <v>13</v>
       </c>
+      <c r="AT16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2935,6 +2985,9 @@
       <c r="AS17">
         <v>0</v>
       </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3082,6 +3135,9 @@
       <c r="AS18">
         <v>0</v>
       </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3229,6 +3285,9 @@
       <c r="AS19">
         <v>3</v>
       </c>
+      <c r="AT19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3376,6 +3435,9 @@
       <c r="AS20">
         <v>0</v>
       </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3523,6 +3585,9 @@
       <c r="AS21">
         <v>1</v>
       </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3670,6 +3735,9 @@
       <c r="AS22">
         <v>20</v>
       </c>
+      <c r="AT22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3817,6 +3885,9 @@
       <c r="AS23">
         <v>67</v>
       </c>
+      <c r="AT23">
+        <v>67</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3964,6 +4035,9 @@
       <c r="AS24">
         <v>0</v>
       </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4111,6 +4185,9 @@
       <c r="AS25">
         <v>11</v>
       </c>
+      <c r="AT25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4258,6 +4335,9 @@
       <c r="AS26">
         <v>18</v>
       </c>
+      <c r="AT26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4405,6 +4485,9 @@
       <c r="AS27">
         <v>13</v>
       </c>
+      <c r="AT27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4552,6 +4635,9 @@
       <c r="AS28">
         <v>27</v>
       </c>
+      <c r="AT28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4699,6 +4785,9 @@
       <c r="AS29">
         <v>1</v>
       </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4846,6 +4935,9 @@
       <c r="AS30">
         <v>5</v>
       </c>
+      <c r="AT30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4993,6 +5085,9 @@
       <c r="AS31">
         <v>3</v>
       </c>
+      <c r="AT31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5140,6 +5235,9 @@
       <c r="AS32">
         <v>8</v>
       </c>
+      <c r="AT32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5287,6 +5385,9 @@
       <c r="AS33">
         <v>2</v>
       </c>
+      <c r="AT33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5434,6 +5535,9 @@
       <c r="AS34">
         <v>6</v>
       </c>
+      <c r="AT34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5581,6 +5685,9 @@
       <c r="AS35">
         <v>0</v>
       </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5728,6 +5835,9 @@
       <c r="AS36">
         <v>1</v>
       </c>
+      <c r="AT36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5875,6 +5985,9 @@
       <c r="AS37">
         <v>6</v>
       </c>
+      <c r="AT37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6022,6 +6135,9 @@
       <c r="AS38">
         <v>5</v>
       </c>
+      <c r="AT38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6169,6 +6285,9 @@
       <c r="AS39">
         <v>1</v>
       </c>
+      <c r="AT39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6316,6 +6435,9 @@
       <c r="AS40">
         <v>10</v>
       </c>
+      <c r="AT40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6463,6 +6585,9 @@
       <c r="AS41">
         <v>0</v>
       </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6610,6 +6735,9 @@
       <c r="AS42">
         <v>0</v>
       </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6757,6 +6885,9 @@
       <c r="AS43">
         <v>1</v>
       </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6904,6 +7035,9 @@
       <c r="AS44">
         <v>1</v>
       </c>
+      <c r="AT44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7051,6 +7185,9 @@
       <c r="AS45">
         <v>2</v>
       </c>
+      <c r="AT45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7198,6 +7335,9 @@
       <c r="AS46">
         <v>2</v>
       </c>
+      <c r="AT46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7345,6 +7485,9 @@
       <c r="AS47">
         <v>0</v>
       </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7492,6 +7635,9 @@
       <c r="AS48">
         <v>3</v>
       </c>
+      <c r="AT48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7639,6 +7785,9 @@
       <c r="AS49">
         <v>4</v>
       </c>
+      <c r="AT49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7786,6 +7935,9 @@
       <c r="AS50">
         <v>1</v>
       </c>
+      <c r="AT50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7933,6 +8085,9 @@
       <c r="AS51">
         <v>3</v>
       </c>
+      <c r="AT51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8080,6 +8235,9 @@
       <c r="AS52">
         <v>39</v>
       </c>
+      <c r="AT52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8227,6 +8385,9 @@
       <c r="AS53">
         <v>6</v>
       </c>
+      <c r="AT53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8374,6 +8535,9 @@
       <c r="AS54">
         <v>0</v>
       </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8521,6 +8685,9 @@
       <c r="AS55">
         <v>2</v>
       </c>
+      <c r="AT55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8668,6 +8835,9 @@
       <c r="AS56">
         <v>5</v>
       </c>
+      <c r="AT56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8815,6 +8985,9 @@
       <c r="AS57">
         <v>3</v>
       </c>
+      <c r="AT57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8962,6 +9135,9 @@
       <c r="AS58">
         <v>0</v>
       </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9109,6 +9285,9 @@
       <c r="AS59">
         <v>0</v>
       </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9256,6 +9435,9 @@
       <c r="AS60">
         <v>2</v>
       </c>
+      <c r="AT60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9403,6 +9585,9 @@
       <c r="AS61">
         <v>4</v>
       </c>
+      <c r="AT61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9550,6 +9735,9 @@
       <c r="AS62">
         <v>1</v>
       </c>
+      <c r="AT62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9697,6 +9885,9 @@
       <c r="AS63">
         <v>1</v>
       </c>
+      <c r="AT63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9844,6 +10035,9 @@
       <c r="AS64">
         <v>0</v>
       </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9991,6 +10185,9 @@
       <c r="AS65">
         <v>5</v>
       </c>
+      <c r="AT65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10138,6 +10335,9 @@
       <c r="AS66">
         <v>0</v>
       </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10285,6 +10485,9 @@
       <c r="AS67">
         <v>0</v>
       </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10432,6 +10635,9 @@
       <c r="AS68">
         <v>4</v>
       </c>
+      <c r="AT68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10579,6 +10785,9 @@
       <c r="AS69">
         <v>0</v>
       </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10726,6 +10935,9 @@
       <c r="AS70">
         <v>0</v>
       </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10873,6 +11085,9 @@
       <c r="AS71">
         <v>0</v>
       </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11020,6 +11235,9 @@
       <c r="AS72">
         <v>6</v>
       </c>
+      <c r="AT72">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11167,6 +11385,9 @@
       <c r="AS73">
         <v>0</v>
       </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11314,6 +11535,9 @@
       <c r="AS74">
         <v>0</v>
       </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11461,6 +11685,9 @@
       <c r="AS75">
         <v>0</v>
       </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11608,6 +11835,9 @@
       <c r="AS76">
         <v>2</v>
       </c>
+      <c r="AT76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11755,6 +11985,9 @@
       <c r="AS77">
         <v>0</v>
       </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11902,6 +12135,9 @@
       <c r="AS78">
         <v>1</v>
       </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12049,6 +12285,9 @@
       <c r="AS79">
         <v>0</v>
       </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12196,6 +12435,9 @@
       <c r="AS80">
         <v>0</v>
       </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12343,6 +12585,9 @@
       <c r="AS81">
         <v>0</v>
       </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12490,6 +12735,9 @@
       <c r="AS82">
         <v>0</v>
       </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12637,6 +12885,9 @@
       <c r="AS83">
         <v>6</v>
       </c>
+      <c r="AT83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12784,6 +13035,9 @@
       <c r="AS84">
         <v>13</v>
       </c>
+      <c r="AT84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12931,6 +13185,9 @@
       <c r="AS85">
         <v>3</v>
       </c>
+      <c r="AT85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13078,6 +13335,9 @@
       <c r="AS86">
         <v>5</v>
       </c>
+      <c r="AT86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -13225,6 +13485,9 @@
       <c r="AS87">
         <v>0</v>
       </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13372,6 +13635,9 @@
       <c r="AS88">
         <v>0</v>
       </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -13519,6 +13785,9 @@
       <c r="AS89">
         <v>6</v>
       </c>
+      <c r="AT89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13666,6 +13935,9 @@
       <c r="AS90">
         <v>0</v>
       </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -13813,6 +14085,9 @@
       <c r="AS91">
         <v>1</v>
       </c>
+      <c r="AT91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13960,6 +14235,9 @@
       <c r="AS92">
         <v>0</v>
       </c>
+      <c r="AT92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14107,6 +14385,9 @@
       <c r="AS93">
         <v>36</v>
       </c>
+      <c r="AT93">
+        <v>36</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -14254,6 +14535,9 @@
       <c r="AS94">
         <v>97</v>
       </c>
+      <c r="AT94">
+        <v>97</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14401,6 +14685,9 @@
       <c r="AS95">
         <v>67</v>
       </c>
+      <c r="AT95">
+        <v>70</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -14548,6 +14835,9 @@
       <c r="AS96">
         <v>95</v>
       </c>
+      <c r="AT96">
+        <v>96</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14695,6 +14985,9 @@
       <c r="AS97">
         <v>174</v>
       </c>
+      <c r="AT97">
+        <v>174</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -14842,6 +15135,9 @@
       <c r="AS98">
         <v>21</v>
       </c>
+      <c r="AT98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14989,6 +15285,9 @@
       <c r="AS99">
         <v>10</v>
       </c>
+      <c r="AT99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -15136,6 +15435,9 @@
       <c r="AS100">
         <v>2</v>
       </c>
+      <c r="AT100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -15283,6 +15585,9 @@
       <c r="AS101">
         <v>2</v>
       </c>
+      <c r="AT101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -15430,6 +15735,9 @@
       <c r="AS102">
         <v>3</v>
       </c>
+      <c r="AT102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -15577,6 +15885,9 @@
       <c r="AS103">
         <v>50</v>
       </c>
+      <c r="AT103">
+        <v>50</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15724,6 +16035,9 @@
       <c r="AS104">
         <v>2</v>
       </c>
+      <c r="AT104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -15871,6 +16185,9 @@
       <c r="AS105">
         <v>1</v>
       </c>
+      <c r="AT105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16018,6 +16335,9 @@
       <c r="AS106">
         <v>2</v>
       </c>
+      <c r="AT106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -16165,6 +16485,9 @@
       <c r="AS107">
         <v>7</v>
       </c>
+      <c r="AT107">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16312,6 +16635,9 @@
       <c r="AS108">
         <v>23</v>
       </c>
+      <c r="AT108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -16459,6 +16785,9 @@
       <c r="AS109">
         <v>102</v>
       </c>
+      <c r="AT109">
+        <v>102</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -16606,6 +16935,9 @@
       <c r="AS110">
         <v>20</v>
       </c>
+      <c r="AT110">
+        <v>20</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -16753,6 +17085,9 @@
       <c r="AS111">
         <v>29</v>
       </c>
+      <c r="AT111">
+        <v>29</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -16900,6 +17235,9 @@
       <c r="AS112">
         <v>49</v>
       </c>
+      <c r="AT112">
+        <v>49</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -17047,6 +17385,9 @@
       <c r="AS113">
         <v>411</v>
       </c>
+      <c r="AT113">
+        <v>411</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -17194,6 +17535,9 @@
       <c r="AS114">
         <v>183</v>
       </c>
+      <c r="AT114">
+        <v>183</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -17341,6 +17685,9 @@
       <c r="AS115">
         <v>10</v>
       </c>
+      <c r="AT115">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -17488,6 +17835,9 @@
       <c r="AS116">
         <v>26</v>
       </c>
+      <c r="AT116">
+        <v>26</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -17635,6 +17985,9 @@
       <c r="AS117">
         <v>49</v>
       </c>
+      <c r="AT117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17782,6 +18135,9 @@
       <c r="AS118">
         <v>92</v>
       </c>
+      <c r="AT118">
+        <v>93</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -17929,6 +18285,9 @@
       <c r="AS119">
         <v>158</v>
       </c>
+      <c r="AT119">
+        <v>160</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -18076,6 +18435,9 @@
       <c r="AS120">
         <v>45</v>
       </c>
+      <c r="AT120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -18223,6 +18585,9 @@
       <c r="AS121">
         <v>8</v>
       </c>
+      <c r="AT121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -18370,6 +18735,9 @@
       <c r="AS122">
         <v>58</v>
       </c>
+      <c r="AT122">
+        <v>58</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -18517,6 +18885,9 @@
       <c r="AS123">
         <v>14</v>
       </c>
+      <c r="AT123">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -18664,6 +19035,9 @@
       <c r="AS124">
         <v>41</v>
       </c>
+      <c r="AT124">
+        <v>41</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -18811,6 +19185,9 @@
       <c r="AS125">
         <v>17</v>
       </c>
+      <c r="AT125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -18958,6 +19335,9 @@
       <c r="AS126">
         <v>2</v>
       </c>
+      <c r="AT126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -19105,6 +19485,9 @@
       <c r="AS127">
         <v>10</v>
       </c>
+      <c r="AT127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -19252,6 +19635,9 @@
       <c r="AS128">
         <v>1</v>
       </c>
+      <c r="AT128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -19399,6 +19785,9 @@
       <c r="AS129">
         <v>7</v>
       </c>
+      <c r="AT129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -19546,6 +19935,9 @@
       <c r="AS130">
         <v>11</v>
       </c>
+      <c r="AT130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -19693,6 +20085,9 @@
       <c r="AS131">
         <v>8</v>
       </c>
+      <c r="AT131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -19840,6 +20235,9 @@
       <c r="AS132">
         <v>13</v>
       </c>
+      <c r="AT132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -19987,6 +20385,9 @@
       <c r="AS133">
         <v>44</v>
       </c>
+      <c r="AT133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -20134,6 +20535,9 @@
       <c r="AS134">
         <v>0</v>
       </c>
+      <c r="AT134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -20281,6 +20685,9 @@
       <c r="AS135">
         <v>0</v>
       </c>
+      <c r="AT135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -20428,6 +20835,9 @@
       <c r="AS136">
         <v>10</v>
       </c>
+      <c r="AT136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -20575,6 +20985,9 @@
       <c r="AS137">
         <v>9</v>
       </c>
+      <c r="AT137">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -20722,6 +21135,9 @@
       <c r="AS138">
         <v>42</v>
       </c>
+      <c r="AT138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -20869,6 +21285,9 @@
       <c r="AS139">
         <v>4</v>
       </c>
+      <c r="AT139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -21016,6 +21435,9 @@
       <c r="AS140">
         <v>1</v>
       </c>
+      <c r="AT140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -21163,6 +21585,9 @@
       <c r="AS141">
         <v>3</v>
       </c>
+      <c r="AT141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -21310,6 +21735,9 @@
       <c r="AS142">
         <v>6</v>
       </c>
+      <c r="AT142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -21457,6 +21885,9 @@
       <c r="AS143">
         <v>12</v>
       </c>
+      <c r="AT143">
+        <v>12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -21604,6 +22035,9 @@
       <c r="AS144">
         <v>2</v>
       </c>
+      <c r="AT144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -21751,6 +22185,9 @@
       <c r="AS145">
         <v>82</v>
       </c>
+      <c r="AT145">
+        <v>82</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -21898,6 +22335,9 @@
       <c r="AS146">
         <v>39</v>
       </c>
+      <c r="AT146">
+        <v>39</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -22045,6 +22485,9 @@
       <c r="AS147">
         <v>24</v>
       </c>
+      <c r="AT147">
+        <v>24</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -22192,6 +22635,9 @@
       <c r="AS148">
         <v>63</v>
       </c>
+      <c r="AT148">
+        <v>63</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -22339,6 +22785,9 @@
       <c r="AS149">
         <v>13</v>
       </c>
+      <c r="AT149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -22486,6 +22935,9 @@
       <c r="AS150">
         <v>36</v>
       </c>
+      <c r="AT150">
+        <v>36</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -22633,6 +23085,9 @@
       <c r="AS151">
         <v>0</v>
       </c>
+      <c r="AT151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -22780,6 +23235,9 @@
       <c r="AS152">
         <v>21</v>
       </c>
+      <c r="AT152">
+        <v>21</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -22927,6 +23385,9 @@
       <c r="AS153">
         <v>4</v>
       </c>
+      <c r="AT153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -23074,6 +23535,9 @@
       <c r="AS154">
         <v>5</v>
       </c>
+      <c r="AT154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -23221,6 +23685,9 @@
       <c r="AS155">
         <v>3</v>
       </c>
+      <c r="AT155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -23368,6 +23835,9 @@
       <c r="AS156">
         <v>3</v>
       </c>
+      <c r="AT156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -23515,6 +23985,9 @@
       <c r="AS157">
         <v>16</v>
       </c>
+      <c r="AT157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -23662,6 +24135,9 @@
       <c r="AS158">
         <v>7</v>
       </c>
+      <c r="AT158">
+        <v>7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -23809,6 +24285,9 @@
       <c r="AS159">
         <v>4</v>
       </c>
+      <c r="AT159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -23956,6 +24435,9 @@
       <c r="AS160">
         <v>0</v>
       </c>
+      <c r="AT160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -24103,6 +24585,9 @@
       <c r="AS161">
         <v>0</v>
       </c>
+      <c r="AT161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -24250,6 +24735,9 @@
       <c r="AS162">
         <v>2</v>
       </c>
+      <c r="AT162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -24397,6 +24885,9 @@
       <c r="AS163">
         <v>0</v>
       </c>
+      <c r="AT163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -24544,6 +25035,9 @@
       <c r="AS164">
         <v>0</v>
       </c>
+      <c r="AT164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -24691,6 +25185,9 @@
       <c r="AS165">
         <v>1</v>
       </c>
+      <c r="AT165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -24838,6 +25335,9 @@
       <c r="AS166">
         <v>0</v>
       </c>
+      <c r="AT166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -24985,6 +25485,9 @@
       <c r="AS167">
         <v>1</v>
       </c>
+      <c r="AT167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -25132,6 +25635,9 @@
       <c r="AS168">
         <v>5</v>
       </c>
+      <c r="AT168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -25279,6 +25785,9 @@
       <c r="AS169">
         <v>2</v>
       </c>
+      <c r="AT169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -25426,6 +25935,9 @@
       <c r="AS170">
         <v>2</v>
       </c>
+      <c r="AT170">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -25573,6 +26085,9 @@
       <c r="AS171">
         <v>3</v>
       </c>
+      <c r="AT171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -25720,6 +26235,9 @@
       <c r="AS172">
         <v>2</v>
       </c>
+      <c r="AT172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -25867,6 +26385,9 @@
       <c r="AS173">
         <v>13</v>
       </c>
+      <c r="AT173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -26014,6 +26535,9 @@
       <c r="AS174">
         <v>36</v>
       </c>
+      <c r="AT174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -26161,6 +26685,9 @@
       <c r="AS175">
         <v>1</v>
       </c>
+      <c r="AT175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -26308,6 +26835,9 @@
       <c r="AS176">
         <v>8</v>
       </c>
+      <c r="AT176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -26455,6 +26985,9 @@
       <c r="AS177">
         <v>2</v>
       </c>
+      <c r="AT177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -26602,6 +27135,9 @@
       <c r="AS178">
         <v>6</v>
       </c>
+      <c r="AT178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -26749,6 +27285,9 @@
       <c r="AS179">
         <v>4</v>
       </c>
+      <c r="AT179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -26896,6 +27435,9 @@
       <c r="AS180">
         <v>12</v>
       </c>
+      <c r="AT180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -27043,6 +27585,9 @@
       <c r="AS181">
         <v>11</v>
       </c>
+      <c r="AT181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -27190,6 +27735,9 @@
       <c r="AS182">
         <v>2</v>
       </c>
+      <c r="AT182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -27337,6 +27885,9 @@
       <c r="AS183">
         <v>1</v>
       </c>
+      <c r="AT183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -27484,6 +28035,9 @@
       <c r="AS184">
         <v>0</v>
       </c>
+      <c r="AT184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -27631,6 +28185,9 @@
       <c r="AS185">
         <v>1</v>
       </c>
+      <c r="AT185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -27778,6 +28335,9 @@
       <c r="AS186">
         <v>9</v>
       </c>
+      <c r="AT186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -27925,6 +28485,9 @@
       <c r="AS187">
         <v>0</v>
       </c>
+      <c r="AT187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -28072,6 +28635,9 @@
       <c r="AS188">
         <v>0</v>
       </c>
+      <c r="AT188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -28219,6 +28785,9 @@
       <c r="AS189">
         <v>0</v>
       </c>
+      <c r="AT189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -28366,6 +28935,9 @@
       <c r="AS190">
         <v>25</v>
       </c>
+      <c r="AT190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -28513,6 +29085,9 @@
       <c r="AS191">
         <v>21</v>
       </c>
+      <c r="AT191">
+        <v>21</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -28660,6 +29235,9 @@
       <c r="AS192">
         <v>57</v>
       </c>
+      <c r="AT192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -28807,6 +29385,9 @@
       <c r="AS193">
         <v>38</v>
       </c>
+      <c r="AT193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -28954,6 +29535,9 @@
       <c r="AS194">
         <v>36</v>
       </c>
+      <c r="AT194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -29101,6 +29685,9 @@
       <c r="AS195">
         <v>10</v>
       </c>
+      <c r="AT195">
+        <v>10</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -29248,6 +29835,9 @@
       <c r="AS196">
         <v>40</v>
       </c>
+      <c r="AT196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -29395,6 +29985,9 @@
       <c r="AS197">
         <v>4</v>
       </c>
+      <c r="AT197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -29542,6 +30135,9 @@
       <c r="AS198">
         <v>23</v>
       </c>
+      <c r="AT198">
+        <v>23</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -29689,6 +30285,9 @@
       <c r="AS199">
         <v>2</v>
       </c>
+      <c r="AT199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -29836,6 +30435,9 @@
       <c r="AS200">
         <v>5</v>
       </c>
+      <c r="AT200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -29983,6 +30585,9 @@
       <c r="AS201">
         <v>2</v>
       </c>
+      <c r="AT201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -30130,6 +30735,9 @@
       <c r="AS202">
         <v>1</v>
       </c>
+      <c r="AT202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -30277,6 +30885,9 @@
       <c r="AS203">
         <v>7</v>
       </c>
+      <c r="AT203">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -30424,6 +31035,9 @@
       <c r="AS204">
         <v>0</v>
       </c>
+      <c r="AT204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -30571,6 +31185,9 @@
       <c r="AS205">
         <v>1</v>
       </c>
+      <c r="AT205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -30718,6 +31335,9 @@
       <c r="AS206">
         <v>1</v>
       </c>
+      <c r="AT206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -30865,6 +31485,9 @@
       <c r="AS207">
         <v>1</v>
       </c>
+      <c r="AT207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -31012,6 +31635,9 @@
       <c r="AS208">
         <v>0</v>
       </c>
+      <c r="AT208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -31159,6 +31785,9 @@
       <c r="AS209">
         <v>0</v>
       </c>
+      <c r="AT209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -31306,6 +31935,9 @@
       <c r="AS210">
         <v>0</v>
       </c>
+      <c r="AT210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -31453,6 +32085,9 @@
       <c r="AS211">
         <v>0</v>
       </c>
+      <c r="AT211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -31600,6 +32235,9 @@
       <c r="AS212">
         <v>2</v>
       </c>
+      <c r="AT212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -31747,6 +32385,9 @@
       <c r="AS213">
         <v>0</v>
       </c>
+      <c r="AT213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -31894,6 +32535,9 @@
       <c r="AS214">
         <v>3</v>
       </c>
+      <c r="AT214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -32041,6 +32685,9 @@
       <c r="AS215">
         <v>31</v>
       </c>
+      <c r="AT215">
+        <v>31</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -32188,6 +32835,9 @@
       <c r="AS216">
         <v>220</v>
       </c>
+      <c r="AT216">
+        <v>220</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -32335,6 +32985,9 @@
       <c r="AS217">
         <v>10</v>
       </c>
+      <c r="AT217">
+        <v>11</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -32482,6 +33135,9 @@
       <c r="AS218">
         <v>11</v>
       </c>
+      <c r="AT218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -32629,6 +33285,9 @@
       <c r="AS219">
         <v>0</v>
       </c>
+      <c r="AT219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -32776,6 +33435,9 @@
       <c r="AS220">
         <v>2</v>
       </c>
+      <c r="AT220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -32923,6 +33585,9 @@
       <c r="AS221">
         <v>0</v>
       </c>
+      <c r="AT221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -33070,6 +33735,9 @@
       <c r="AS222">
         <v>1</v>
       </c>
+      <c r="AT222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -33217,6 +33885,9 @@
       <c r="AS223">
         <v>2</v>
       </c>
+      <c r="AT223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -33364,6 +34035,9 @@
       <c r="AS224">
         <v>8</v>
       </c>
+      <c r="AT224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -33511,6 +34185,9 @@
       <c r="AS225">
         <v>3</v>
       </c>
+      <c r="AT225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -33658,6 +34335,9 @@
       <c r="AS226">
         <v>1</v>
       </c>
+      <c r="AT226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -33805,6 +34485,9 @@
       <c r="AS227">
         <v>2</v>
       </c>
+      <c r="AT227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -33952,6 +34635,9 @@
       <c r="AS228">
         <v>2</v>
       </c>
+      <c r="AT228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -34099,6 +34785,9 @@
       <c r="AS229">
         <v>2</v>
       </c>
+      <c r="AT229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -34246,6 +34935,9 @@
       <c r="AS230">
         <v>0</v>
       </c>
+      <c r="AT230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -34393,6 +35085,9 @@
       <c r="AS231">
         <v>3</v>
       </c>
+      <c r="AT231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -34540,6 +35235,9 @@
       <c r="AS232">
         <v>21</v>
       </c>
+      <c r="AT232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -34687,6 +35385,9 @@
       <c r="AS233">
         <v>0</v>
       </c>
+      <c r="AT233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -34834,6 +35535,9 @@
       <c r="AS234">
         <v>4</v>
       </c>
+      <c r="AT234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -34981,6 +35685,9 @@
       <c r="AS235">
         <v>1</v>
       </c>
+      <c r="AT235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -35128,6 +35835,9 @@
       <c r="AS236">
         <v>1</v>
       </c>
+      <c r="AT236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -35275,6 +35985,9 @@
       <c r="AS237">
         <v>1</v>
       </c>
+      <c r="AT237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -35422,6 +36135,9 @@
       <c r="AS238">
         <v>553</v>
       </c>
+      <c r="AT238">
+        <v>555</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -35569,6 +36285,9 @@
       <c r="AS239">
         <v>9</v>
       </c>
+      <c r="AT239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -35716,6 +36435,9 @@
       <c r="AS240">
         <v>4</v>
       </c>
+      <c r="AT240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -35863,6 +36585,9 @@
       <c r="AS241">
         <v>4</v>
       </c>
+      <c r="AT241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -36010,6 +36735,9 @@
       <c r="AS242">
         <v>4</v>
       </c>
+      <c r="AT242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -36157,6 +36885,9 @@
       <c r="AS243">
         <v>6</v>
       </c>
+      <c r="AT243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -36304,6 +37035,9 @@
       <c r="AS244">
         <v>8</v>
       </c>
+      <c r="AT244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -36451,6 +37185,9 @@
       <c r="AS245">
         <v>0</v>
       </c>
+      <c r="AT245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -36598,6 +37335,9 @@
       <c r="AS246">
         <v>4</v>
       </c>
+      <c r="AT246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -36745,6 +37485,9 @@
       <c r="AS247">
         <v>0</v>
       </c>
+      <c r="AT247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -36892,6 +37635,9 @@
       <c r="AS248">
         <v>0</v>
       </c>
+      <c r="AT248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -37039,6 +37785,9 @@
       <c r="AS249">
         <v>2</v>
       </c>
+      <c r="AT249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -37186,6 +37935,9 @@
       <c r="AS250">
         <v>24</v>
       </c>
+      <c r="AT250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -37333,6 +38085,9 @@
       <c r="AS251">
         <v>9</v>
       </c>
+      <c r="AT251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -37480,6 +38235,9 @@
       <c r="AS252">
         <v>0</v>
       </c>
+      <c r="AT252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -37627,6 +38385,9 @@
       <c r="AS253">
         <v>17</v>
       </c>
+      <c r="AT253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -37774,6 +38535,9 @@
       <c r="AS254">
         <v>5</v>
       </c>
+      <c r="AT254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -37921,6 +38685,9 @@
       <c r="AS255">
         <v>54</v>
       </c>
+      <c r="AT255">
+        <v>54</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -38068,6 +38835,9 @@
       <c r="AS256">
         <v>41</v>
       </c>
+      <c r="AT256">
+        <v>41</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -38215,6 +38985,9 @@
       <c r="AS257">
         <v>1</v>
       </c>
+      <c r="AT257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -38362,6 +39135,9 @@
       <c r="AS258">
         <v>0</v>
       </c>
+      <c r="AT258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -38509,6 +39285,9 @@
       <c r="AS259">
         <v>40</v>
       </c>
+      <c r="AT259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -38656,6 +39435,9 @@
       <c r="AS260">
         <v>27</v>
       </c>
+      <c r="AT260">
+        <v>27</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -38803,6 +39585,9 @@
       <c r="AS261">
         <v>0</v>
       </c>
+      <c r="AT261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -38950,6 +39735,9 @@
       <c r="AS262">
         <v>0</v>
       </c>
+      <c r="AT262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -39097,6 +39885,9 @@
       <c r="AS263">
         <v>0</v>
       </c>
+      <c r="AT263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -39244,6 +40035,9 @@
       <c r="AS264">
         <v>1</v>
       </c>
+      <c r="AT264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -39391,6 +40185,9 @@
       <c r="AS265">
         <v>3</v>
       </c>
+      <c r="AT265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -39538,6 +40335,9 @@
       <c r="AS266">
         <v>0</v>
       </c>
+      <c r="AT266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -39685,6 +40485,9 @@
       <c r="AS267">
         <v>3</v>
       </c>
+      <c r="AT267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -39832,6 +40635,9 @@
       <c r="AS268">
         <v>0</v>
       </c>
+      <c r="AT268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -39979,6 +40785,9 @@
       <c r="AS269">
         <v>7</v>
       </c>
+      <c r="AT269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -40126,6 +40935,9 @@
       <c r="AS270">
         <v>0</v>
       </c>
+      <c r="AT270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -40273,6 +41085,9 @@
       <c r="AS271">
         <v>0</v>
       </c>
+      <c r="AT271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -40420,6 +41235,9 @@
       <c r="AS272">
         <v>1</v>
       </c>
+      <c r="AT272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -40567,6 +41385,9 @@
       <c r="AS273">
         <v>4</v>
       </c>
+      <c r="AT273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -40714,6 +41535,9 @@
       <c r="AS274">
         <v>0</v>
       </c>
+      <c r="AT274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -40861,6 +41685,9 @@
       <c r="AS275">
         <v>0</v>
       </c>
+      <c r="AT275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -41008,6 +41835,9 @@
       <c r="AS276">
         <v>17</v>
       </c>
+      <c r="AT276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -41155,6 +41985,9 @@
       <c r="AS277">
         <v>0</v>
       </c>
+      <c r="AT277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -41302,6 +42135,9 @@
       <c r="AS278">
         <v>0</v>
       </c>
+      <c r="AT278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -41449,6 +42285,9 @@
       <c r="AS279">
         <v>4</v>
       </c>
+      <c r="AT279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -41596,6 +42435,9 @@
       <c r="AS280">
         <v>12</v>
       </c>
+      <c r="AT280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -41743,6 +42585,9 @@
       <c r="AS281">
         <v>295</v>
       </c>
+      <c r="AT281">
+        <v>305</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -41890,6 +42735,9 @@
       <c r="AS282">
         <v>17</v>
       </c>
+      <c r="AT282">
+        <v>17</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -42037,6 +42885,9 @@
       <c r="AS283">
         <v>5</v>
       </c>
+      <c r="AT283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -42184,6 +43035,9 @@
       <c r="AS284">
         <v>0</v>
       </c>
+      <c r="AT284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -42331,6 +43185,9 @@
       <c r="AS285">
         <v>0</v>
       </c>
+      <c r="AT285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -42478,6 +43335,9 @@
       <c r="AS286">
         <v>8</v>
       </c>
+      <c r="AT286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -42625,6 +43485,9 @@
       <c r="AS287">
         <v>5</v>
       </c>
+      <c r="AT287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -42772,6 +43635,9 @@
       <c r="AS288">
         <v>0</v>
       </c>
+      <c r="AT288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -42919,6 +43785,9 @@
       <c r="AS289">
         <v>1</v>
       </c>
+      <c r="AT289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -43066,6 +43935,9 @@
       <c r="AS290">
         <v>7</v>
       </c>
+      <c r="AT290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -43213,6 +44085,9 @@
       <c r="AS291">
         <v>3</v>
       </c>
+      <c r="AT291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -43360,6 +44235,9 @@
       <c r="AS292">
         <v>5</v>
       </c>
+      <c r="AT292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -43507,6 +44385,9 @@
       <c r="AS293">
         <v>12</v>
       </c>
+      <c r="AT293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -43654,6 +44535,9 @@
       <c r="AS294">
         <v>6</v>
       </c>
+      <c r="AT294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -43801,6 +44685,9 @@
       <c r="AS295">
         <v>0</v>
       </c>
+      <c r="AT295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -43948,6 +44835,9 @@
       <c r="AS296">
         <v>1</v>
       </c>
+      <c r="AT296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -44095,6 +44985,9 @@
       <c r="AS297">
         <v>8</v>
       </c>
+      <c r="AT297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -44242,6 +45135,9 @@
       <c r="AS298">
         <v>28</v>
       </c>
+      <c r="AT298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -44389,6 +45285,9 @@
       <c r="AS299">
         <v>21</v>
       </c>
+      <c r="AT299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -44536,6 +45435,9 @@
       <c r="AS300">
         <v>15</v>
       </c>
+      <c r="AT300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -44683,6 +45585,9 @@
       <c r="AS301">
         <v>1</v>
       </c>
+      <c r="AT301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -44830,6 +45735,9 @@
       <c r="AS302">
         <v>0</v>
       </c>
+      <c r="AT302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -44977,6 +45885,9 @@
       <c r="AS303">
         <v>0</v>
       </c>
+      <c r="AT303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -45124,6 +46035,9 @@
       <c r="AS304">
         <v>0</v>
       </c>
+      <c r="AT304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -45271,6 +46185,9 @@
       <c r="AS305">
         <v>3</v>
       </c>
+      <c r="AT305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -45418,6 +46335,9 @@
       <c r="AS306">
         <v>1</v>
       </c>
+      <c r="AT306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -45565,6 +46485,9 @@
       <c r="AS307">
         <v>4</v>
       </c>
+      <c r="AT307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -45712,6 +46635,9 @@
       <c r="AS308">
         <v>0</v>
       </c>
+      <c r="AT308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -45859,6 +46785,9 @@
       <c r="AS309">
         <v>0</v>
       </c>
+      <c r="AT309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -46006,6 +46935,9 @@
       <c r="AS310">
         <v>7</v>
       </c>
+      <c r="AT310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -46153,6 +47085,9 @@
       <c r="AS311">
         <v>2</v>
       </c>
+      <c r="AT311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -46300,6 +47235,9 @@
       <c r="AS312">
         <v>2</v>
       </c>
+      <c r="AT312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -46447,6 +47385,9 @@
       <c r="AS313">
         <v>2</v>
       </c>
+      <c r="AT313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -46594,6 +47535,9 @@
       <c r="AS314">
         <v>10</v>
       </c>
+      <c r="AT314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -46741,6 +47685,9 @@
       <c r="AS315">
         <v>1</v>
       </c>
+      <c r="AT315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -46888,6 +47835,9 @@
       <c r="AS316">
         <v>17</v>
       </c>
+      <c r="AT316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -47035,6 +47985,9 @@
       <c r="AS317">
         <v>0</v>
       </c>
+      <c r="AT317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -47182,6 +48135,9 @@
       <c r="AS318">
         <v>0</v>
       </c>
+      <c r="AT318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -47329,6 +48285,9 @@
       <c r="AS319">
         <v>161</v>
       </c>
+      <c r="AT319">
+        <v>161</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -47476,6 +48435,9 @@
       <c r="AS320">
         <v>6</v>
       </c>
+      <c r="AT320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -47623,6 +48585,9 @@
       <c r="AS321">
         <v>5</v>
       </c>
+      <c r="AT321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -47770,6 +48735,9 @@
       <c r="AS322">
         <v>1</v>
       </c>
+      <c r="AT322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -47917,6 +48885,9 @@
       <c r="AS323">
         <v>3</v>
       </c>
+      <c r="AT323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -48064,6 +49035,9 @@
       <c r="AS324">
         <v>15</v>
       </c>
+      <c r="AT324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -48211,6 +49185,9 @@
       <c r="AS325">
         <v>1</v>
       </c>
+      <c r="AT325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -48358,6 +49335,9 @@
       <c r="AS326">
         <v>1</v>
       </c>
+      <c r="AT326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -48505,6 +49485,9 @@
       <c r="AS327">
         <v>0</v>
       </c>
+      <c r="AT327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -48652,6 +49635,9 @@
       <c r="AS328">
         <v>0</v>
       </c>
+      <c r="AT328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -48799,6 +49785,9 @@
       <c r="AS329">
         <v>3</v>
       </c>
+      <c r="AT329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -48946,6 +49935,9 @@
       <c r="AS330">
         <v>1</v>
       </c>
+      <c r="AT330">
+        <v>2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -49093,6 +50085,9 @@
       <c r="AS331">
         <v>2</v>
       </c>
+      <c r="AT331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -49240,6 +50235,9 @@
       <c r="AS332">
         <v>1</v>
       </c>
+      <c r="AT332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -49387,6 +50385,9 @@
       <c r="AS333">
         <v>0</v>
       </c>
+      <c r="AT333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -49534,6 +50535,9 @@
       <c r="AS334">
         <v>0</v>
       </c>
+      <c r="AT334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -49681,6 +50685,9 @@
       <c r="AS335">
         <v>16</v>
       </c>
+      <c r="AT335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -49828,6 +50835,9 @@
       <c r="AS336">
         <v>2</v>
       </c>
+      <c r="AT336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -49975,6 +50985,9 @@
       <c r="AS337">
         <v>2</v>
       </c>
+      <c r="AT337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -50122,6 +51135,9 @@
       <c r="AS338">
         <v>2</v>
       </c>
+      <c r="AT338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -50269,6 +51285,9 @@
       <c r="AS339">
         <v>0</v>
       </c>
+      <c r="AT339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -50416,6 +51435,9 @@
       <c r="AS340">
         <v>0</v>
       </c>
+      <c r="AT340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -50563,6 +51585,9 @@
       <c r="AS341">
         <v>1</v>
       </c>
+      <c r="AT341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -50710,6 +51735,9 @@
       <c r="AS342">
         <v>2</v>
       </c>
+      <c r="AT342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -50857,6 +51885,9 @@
       <c r="AS343">
         <v>0</v>
       </c>
+      <c r="AT343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -51004,6 +52035,9 @@
       <c r="AS344">
         <v>1</v>
       </c>
+      <c r="AT344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -51151,6 +52185,9 @@
       <c r="AS345">
         <v>0</v>
       </c>
+      <c r="AT345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -51298,6 +52335,9 @@
       <c r="AS346">
         <v>0</v>
       </c>
+      <c r="AT346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -51445,6 +52485,9 @@
       <c r="AS347">
         <v>3</v>
       </c>
+      <c r="AT347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -51592,6 +52635,9 @@
       <c r="AS348">
         <v>2</v>
       </c>
+      <c r="AT348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -51739,6 +52785,9 @@
       <c r="AS349">
         <v>4</v>
       </c>
+      <c r="AT349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -51886,6 +52935,9 @@
       <c r="AS350">
         <v>1</v>
       </c>
+      <c r="AT350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -52033,6 +53085,9 @@
       <c r="AS351">
         <v>0</v>
       </c>
+      <c r="AT351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -52180,6 +53235,9 @@
       <c r="AS352">
         <v>0</v>
       </c>
+      <c r="AT352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -52327,6 +53385,9 @@
       <c r="AS353">
         <v>0</v>
       </c>
+      <c r="AT353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -52474,6 +53535,9 @@
       <c r="AS354">
         <v>1</v>
       </c>
+      <c r="AT354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -52621,6 +53685,9 @@
       <c r="AS355">
         <v>1</v>
       </c>
+      <c r="AT355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -52768,6 +53835,9 @@
       <c r="AS356">
         <v>0</v>
       </c>
+      <c r="AT356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -52915,6 +53985,9 @@
       <c r="AS357">
         <v>4</v>
       </c>
+      <c r="AT357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -53062,6 +54135,9 @@
       <c r="AS358">
         <v>0</v>
       </c>
+      <c r="AT358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -53208,6 +54284,9 @@
       </c>
       <c r="AS359">
         <v>1</v>
+      </c>
+      <c r="AT359">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT359"/>
+  <dimension ref="A1:AU359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +588,11 @@
           <t>2020-05-04</t>
         </is>
       </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -738,6 +743,9 @@
       <c r="AT2">
         <v>2415</v>
       </c>
+      <c r="AU2">
+        <v>2445</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -888,6 +896,9 @@
       <c r="AT3">
         <v>14</v>
       </c>
+      <c r="AU3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1038,6 +1049,9 @@
       <c r="AT4">
         <v>133</v>
       </c>
+      <c r="AU4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1188,6 +1202,9 @@
       <c r="AT5">
         <v>51</v>
       </c>
+      <c r="AU5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1338,6 +1355,9 @@
       <c r="AT6">
         <v>47</v>
       </c>
+      <c r="AU6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1488,6 +1508,9 @@
       <c r="AT7">
         <v>5</v>
       </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1638,6 +1661,9 @@
       <c r="AT8">
         <v>1</v>
       </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1788,6 +1814,9 @@
       <c r="AT9">
         <v>0</v>
       </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1938,6 +1967,9 @@
       <c r="AT10">
         <v>7</v>
       </c>
+      <c r="AU10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2088,6 +2120,9 @@
       <c r="AT11">
         <v>6</v>
       </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2238,6 +2273,9 @@
       <c r="AT12">
         <v>12</v>
       </c>
+      <c r="AU12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2388,6 +2426,9 @@
       <c r="AT13">
         <v>13</v>
       </c>
+      <c r="AU13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2538,6 +2579,9 @@
       <c r="AT14">
         <v>16</v>
       </c>
+      <c r="AU14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2688,6 +2732,9 @@
       <c r="AT15">
         <v>11</v>
       </c>
+      <c r="AU15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2838,6 +2885,9 @@
       <c r="AT16">
         <v>13</v>
       </c>
+      <c r="AU16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2988,6 +3038,9 @@
       <c r="AT17">
         <v>0</v>
       </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3138,6 +3191,9 @@
       <c r="AT18">
         <v>0</v>
       </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3288,6 +3344,9 @@
       <c r="AT19">
         <v>3</v>
       </c>
+      <c r="AU19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3438,6 +3497,9 @@
       <c r="AT20">
         <v>0</v>
       </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3588,6 +3650,9 @@
       <c r="AT21">
         <v>1</v>
       </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3738,6 +3803,9 @@
       <c r="AT22">
         <v>20</v>
       </c>
+      <c r="AU22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3888,6 +3956,9 @@
       <c r="AT23">
         <v>67</v>
       </c>
+      <c r="AU23">
+        <v>71</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4038,6 +4109,9 @@
       <c r="AT24">
         <v>0</v>
       </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4188,6 +4262,9 @@
       <c r="AT25">
         <v>11</v>
       </c>
+      <c r="AU25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4338,6 +4415,9 @@
       <c r="AT26">
         <v>18</v>
       </c>
+      <c r="AU26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4488,6 +4568,9 @@
       <c r="AT27">
         <v>13</v>
       </c>
+      <c r="AU27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4638,6 +4721,9 @@
       <c r="AT28">
         <v>27</v>
       </c>
+      <c r="AU28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4788,6 +4874,9 @@
       <c r="AT29">
         <v>1</v>
       </c>
+      <c r="AU29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4938,6 +5027,9 @@
       <c r="AT30">
         <v>5</v>
       </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5088,6 +5180,9 @@
       <c r="AT31">
         <v>3</v>
       </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5238,6 +5333,9 @@
       <c r="AT32">
         <v>8</v>
       </c>
+      <c r="AU32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5388,6 +5486,9 @@
       <c r="AT33">
         <v>2</v>
       </c>
+      <c r="AU33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5538,6 +5639,9 @@
       <c r="AT34">
         <v>6</v>
       </c>
+      <c r="AU34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5688,6 +5792,9 @@
       <c r="AT35">
         <v>0</v>
       </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5838,6 +5945,9 @@
       <c r="AT36">
         <v>1</v>
       </c>
+      <c r="AU36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5988,6 +6098,9 @@
       <c r="AT37">
         <v>6</v>
       </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6138,6 +6251,9 @@
       <c r="AT38">
         <v>5</v>
       </c>
+      <c r="AU38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6288,6 +6404,9 @@
       <c r="AT39">
         <v>1</v>
       </c>
+      <c r="AU39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6438,6 +6557,9 @@
       <c r="AT40">
         <v>10</v>
       </c>
+      <c r="AU40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6588,6 +6710,9 @@
       <c r="AT41">
         <v>0</v>
       </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6738,6 +6863,9 @@
       <c r="AT42">
         <v>0</v>
       </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6888,6 +7016,9 @@
       <c r="AT43">
         <v>1</v>
       </c>
+      <c r="AU43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7038,6 +7169,9 @@
       <c r="AT44">
         <v>1</v>
       </c>
+      <c r="AU44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7188,6 +7322,9 @@
       <c r="AT45">
         <v>2</v>
       </c>
+      <c r="AU45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7338,6 +7475,9 @@
       <c r="AT46">
         <v>2</v>
       </c>
+      <c r="AU46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7488,6 +7628,9 @@
       <c r="AT47">
         <v>0</v>
       </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7638,6 +7781,9 @@
       <c r="AT48">
         <v>3</v>
       </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7788,6 +7934,9 @@
       <c r="AT49">
         <v>4</v>
       </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7938,6 +8087,9 @@
       <c r="AT50">
         <v>1</v>
       </c>
+      <c r="AU50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8088,6 +8240,9 @@
       <c r="AT51">
         <v>3</v>
       </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8238,6 +8393,9 @@
       <c r="AT52">
         <v>39</v>
       </c>
+      <c r="AU52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8388,6 +8546,9 @@
       <c r="AT53">
         <v>6</v>
       </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8538,6 +8699,9 @@
       <c r="AT54">
         <v>0</v>
       </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8688,6 +8852,9 @@
       <c r="AT55">
         <v>2</v>
       </c>
+      <c r="AU55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8838,6 +9005,9 @@
       <c r="AT56">
         <v>5</v>
       </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8988,6 +9158,9 @@
       <c r="AT57">
         <v>3</v>
       </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9138,6 +9311,9 @@
       <c r="AT58">
         <v>0</v>
       </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9288,6 +9464,9 @@
       <c r="AT59">
         <v>0</v>
       </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9438,6 +9617,9 @@
       <c r="AT60">
         <v>2</v>
       </c>
+      <c r="AU60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9588,6 +9770,9 @@
       <c r="AT61">
         <v>4</v>
       </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9738,6 +9923,9 @@
       <c r="AT62">
         <v>1</v>
       </c>
+      <c r="AU62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9888,6 +10076,9 @@
       <c r="AT63">
         <v>1</v>
       </c>
+      <c r="AU63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10038,6 +10229,9 @@
       <c r="AT64">
         <v>0</v>
       </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10188,6 +10382,9 @@
       <c r="AT65">
         <v>5</v>
       </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10338,6 +10535,9 @@
       <c r="AT66">
         <v>0</v>
       </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10488,6 +10688,9 @@
       <c r="AT67">
         <v>0</v>
       </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10638,6 +10841,9 @@
       <c r="AT68">
         <v>4</v>
       </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10788,6 +10994,9 @@
       <c r="AT69">
         <v>0</v>
       </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10938,6 +11147,9 @@
       <c r="AT70">
         <v>0</v>
       </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11088,6 +11300,9 @@
       <c r="AT71">
         <v>0</v>
       </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11238,6 +11453,9 @@
       <c r="AT72">
         <v>6</v>
       </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11388,6 +11606,9 @@
       <c r="AT73">
         <v>0</v>
       </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11538,6 +11759,9 @@
       <c r="AT74">
         <v>0</v>
       </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11688,6 +11912,9 @@
       <c r="AT75">
         <v>0</v>
       </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11838,6 +12065,9 @@
       <c r="AT76">
         <v>2</v>
       </c>
+      <c r="AU76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11988,6 +12218,9 @@
       <c r="AT77">
         <v>0</v>
       </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12138,6 +12371,9 @@
       <c r="AT78">
         <v>1</v>
       </c>
+      <c r="AU78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12288,6 +12524,9 @@
       <c r="AT79">
         <v>0</v>
       </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12438,6 +12677,9 @@
       <c r="AT80">
         <v>0</v>
       </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12588,6 +12830,9 @@
       <c r="AT81">
         <v>0</v>
       </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12738,6 +12983,9 @@
       <c r="AT82">
         <v>0</v>
       </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12888,6 +13136,9 @@
       <c r="AT83">
         <v>6</v>
       </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13038,6 +13289,9 @@
       <c r="AT84">
         <v>13</v>
       </c>
+      <c r="AU84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13188,6 +13442,9 @@
       <c r="AT85">
         <v>3</v>
       </c>
+      <c r="AU85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13338,6 +13595,9 @@
       <c r="AT86">
         <v>5</v>
       </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -13488,6 +13748,9 @@
       <c r="AT87">
         <v>0</v>
       </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13638,6 +13901,9 @@
       <c r="AT88">
         <v>0</v>
       </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -13788,6 +14054,9 @@
       <c r="AT89">
         <v>6</v>
       </c>
+      <c r="AU89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13938,6 +14207,9 @@
       <c r="AT90">
         <v>0</v>
       </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14088,6 +14360,9 @@
       <c r="AT91">
         <v>1</v>
       </c>
+      <c r="AU91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14238,6 +14513,9 @@
       <c r="AT92">
         <v>0</v>
       </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14388,6 +14666,9 @@
       <c r="AT93">
         <v>36</v>
       </c>
+      <c r="AU93">
+        <v>37</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -14538,6 +14819,9 @@
       <c r="AT94">
         <v>97</v>
       </c>
+      <c r="AU94">
+        <v>98</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14688,6 +14972,9 @@
       <c r="AT95">
         <v>70</v>
       </c>
+      <c r="AU95">
+        <v>71</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -14838,6 +15125,9 @@
       <c r="AT96">
         <v>96</v>
       </c>
+      <c r="AU96">
+        <v>99</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14988,6 +15278,9 @@
       <c r="AT97">
         <v>174</v>
       </c>
+      <c r="AU97">
+        <v>174</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15138,6 +15431,9 @@
       <c r="AT98">
         <v>21</v>
       </c>
+      <c r="AU98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15288,6 +15584,9 @@
       <c r="AT99">
         <v>10</v>
       </c>
+      <c r="AU99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -15438,6 +15737,9 @@
       <c r="AT100">
         <v>2</v>
       </c>
+      <c r="AU100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -15588,6 +15890,9 @@
       <c r="AT101">
         <v>2</v>
       </c>
+      <c r="AU101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -15738,6 +16043,9 @@
       <c r="AT102">
         <v>3</v>
       </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -15888,6 +16196,9 @@
       <c r="AT103">
         <v>50</v>
       </c>
+      <c r="AU103">
+        <v>50</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16038,6 +16349,9 @@
       <c r="AT104">
         <v>2</v>
       </c>
+      <c r="AU104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -16188,6 +16502,9 @@
       <c r="AT105">
         <v>1</v>
       </c>
+      <c r="AU105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16338,6 +16655,9 @@
       <c r="AT106">
         <v>2</v>
       </c>
+      <c r="AU106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -16488,6 +16808,9 @@
       <c r="AT107">
         <v>7</v>
       </c>
+      <c r="AU107">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16638,6 +16961,9 @@
       <c r="AT108">
         <v>23</v>
       </c>
+      <c r="AU108">
+        <v>23</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -16788,6 +17114,9 @@
       <c r="AT109">
         <v>102</v>
       </c>
+      <c r="AU109">
+        <v>102</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -16938,6 +17267,9 @@
       <c r="AT110">
         <v>20</v>
       </c>
+      <c r="AU110">
+        <v>20</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -17088,6 +17420,9 @@
       <c r="AT111">
         <v>29</v>
       </c>
+      <c r="AU111">
+        <v>29</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -17238,6 +17573,9 @@
       <c r="AT112">
         <v>49</v>
       </c>
+      <c r="AU112">
+        <v>49</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -17388,6 +17726,9 @@
       <c r="AT113">
         <v>411</v>
       </c>
+      <c r="AU113">
+        <v>412</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -17538,6 +17879,9 @@
       <c r="AT114">
         <v>183</v>
       </c>
+      <c r="AU114">
+        <v>184</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -17688,6 +18032,9 @@
       <c r="AT115">
         <v>10</v>
       </c>
+      <c r="AU115">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -17838,6 +18185,9 @@
       <c r="AT116">
         <v>26</v>
       </c>
+      <c r="AU116">
+        <v>27</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -17988,6 +18338,9 @@
       <c r="AT117">
         <v>49</v>
       </c>
+      <c r="AU117">
+        <v>49</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -18138,6 +18491,9 @@
       <c r="AT118">
         <v>93</v>
       </c>
+      <c r="AU118">
+        <v>93</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -18288,6 +18644,9 @@
       <c r="AT119">
         <v>160</v>
       </c>
+      <c r="AU119">
+        <v>160</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -18438,6 +18797,9 @@
       <c r="AT120">
         <v>45</v>
       </c>
+      <c r="AU120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -18588,6 +18950,9 @@
       <c r="AT121">
         <v>8</v>
       </c>
+      <c r="AU121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -18738,6 +19103,9 @@
       <c r="AT122">
         <v>58</v>
       </c>
+      <c r="AU122">
+        <v>59</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -18888,6 +19256,9 @@
       <c r="AT123">
         <v>14</v>
       </c>
+      <c r="AU123">
+        <v>15</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -19038,6 +19409,9 @@
       <c r="AT124">
         <v>41</v>
       </c>
+      <c r="AU124">
+        <v>41</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -19188,6 +19562,9 @@
       <c r="AT125">
         <v>17</v>
       </c>
+      <c r="AU125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -19338,6 +19715,9 @@
       <c r="AT126">
         <v>2</v>
       </c>
+      <c r="AU126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -19488,6 +19868,9 @@
       <c r="AT127">
         <v>10</v>
       </c>
+      <c r="AU127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -19638,6 +20021,9 @@
       <c r="AT128">
         <v>1</v>
       </c>
+      <c r="AU128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -19788,6 +20174,9 @@
       <c r="AT129">
         <v>7</v>
       </c>
+      <c r="AU129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -19938,6 +20327,9 @@
       <c r="AT130">
         <v>11</v>
       </c>
+      <c r="AU130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -20088,6 +20480,9 @@
       <c r="AT131">
         <v>8</v>
       </c>
+      <c r="AU131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -20238,6 +20633,9 @@
       <c r="AT132">
         <v>13</v>
       </c>
+      <c r="AU132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -20388,6 +20786,9 @@
       <c r="AT133">
         <v>44</v>
       </c>
+      <c r="AU133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -20538,6 +20939,9 @@
       <c r="AT134">
         <v>0</v>
       </c>
+      <c r="AU134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -20688,6 +21092,9 @@
       <c r="AT135">
         <v>0</v>
       </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -20838,6 +21245,9 @@
       <c r="AT136">
         <v>10</v>
       </c>
+      <c r="AU136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -20988,6 +21398,9 @@
       <c r="AT137">
         <v>9</v>
       </c>
+      <c r="AU137">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -21138,6 +21551,9 @@
       <c r="AT138">
         <v>42</v>
       </c>
+      <c r="AU138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -21288,6 +21704,9 @@
       <c r="AT139">
         <v>4</v>
       </c>
+      <c r="AU139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -21438,6 +21857,9 @@
       <c r="AT140">
         <v>1</v>
       </c>
+      <c r="AU140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -21588,6 +22010,9 @@
       <c r="AT141">
         <v>3</v>
       </c>
+      <c r="AU141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -21738,6 +22163,9 @@
       <c r="AT142">
         <v>6</v>
       </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -21888,6 +22316,9 @@
       <c r="AT143">
         <v>12</v>
       </c>
+      <c r="AU143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -22038,6 +22469,9 @@
       <c r="AT144">
         <v>2</v>
       </c>
+      <c r="AU144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -22188,6 +22622,9 @@
       <c r="AT145">
         <v>82</v>
       </c>
+      <c r="AU145">
+        <v>83</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -22338,6 +22775,9 @@
       <c r="AT146">
         <v>39</v>
       </c>
+      <c r="AU146">
+        <v>39</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -22488,6 +22928,9 @@
       <c r="AT147">
         <v>24</v>
       </c>
+      <c r="AU147">
+        <v>24</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -22638,6 +23081,9 @@
       <c r="AT148">
         <v>63</v>
       </c>
+      <c r="AU148">
+        <v>63</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -22788,6 +23234,9 @@
       <c r="AT149">
         <v>13</v>
       </c>
+      <c r="AU149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -22938,6 +23387,9 @@
       <c r="AT150">
         <v>36</v>
       </c>
+      <c r="AU150">
+        <v>36</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -23088,6 +23540,9 @@
       <c r="AT151">
         <v>0</v>
       </c>
+      <c r="AU151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -23238,6 +23693,9 @@
       <c r="AT152">
         <v>21</v>
       </c>
+      <c r="AU152">
+        <v>21</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -23388,6 +23846,9 @@
       <c r="AT153">
         <v>4</v>
       </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -23538,6 +23999,9 @@
       <c r="AT154">
         <v>5</v>
       </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -23688,6 +24152,9 @@
       <c r="AT155">
         <v>3</v>
       </c>
+      <c r="AU155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -23838,6 +24305,9 @@
       <c r="AT156">
         <v>3</v>
       </c>
+      <c r="AU156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -23988,6 +24458,9 @@
       <c r="AT157">
         <v>16</v>
       </c>
+      <c r="AU157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -24138,6 +24611,9 @@
       <c r="AT158">
         <v>7</v>
       </c>
+      <c r="AU158">
+        <v>7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -24288,6 +24764,9 @@
       <c r="AT159">
         <v>4</v>
       </c>
+      <c r="AU159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -24438,6 +24917,9 @@
       <c r="AT160">
         <v>0</v>
       </c>
+      <c r="AU160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -24588,6 +25070,9 @@
       <c r="AT161">
         <v>0</v>
       </c>
+      <c r="AU161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -24738,6 +25223,9 @@
       <c r="AT162">
         <v>2</v>
       </c>
+      <c r="AU162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -24888,6 +25376,9 @@
       <c r="AT163">
         <v>0</v>
       </c>
+      <c r="AU163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -25038,6 +25529,9 @@
       <c r="AT164">
         <v>0</v>
       </c>
+      <c r="AU164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -25188,6 +25682,9 @@
       <c r="AT165">
         <v>1</v>
       </c>
+      <c r="AU165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -25338,6 +25835,9 @@
       <c r="AT166">
         <v>0</v>
       </c>
+      <c r="AU166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -25488,6 +25988,9 @@
       <c r="AT167">
         <v>1</v>
       </c>
+      <c r="AU167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -25638,6 +26141,9 @@
       <c r="AT168">
         <v>5</v>
       </c>
+      <c r="AU168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -25788,6 +26294,9 @@
       <c r="AT169">
         <v>2</v>
       </c>
+      <c r="AU169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -25938,6 +26447,9 @@
       <c r="AT170">
         <v>2</v>
       </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -26088,6 +26600,9 @@
       <c r="AT171">
         <v>3</v>
       </c>
+      <c r="AU171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -26238,6 +26753,9 @@
       <c r="AT172">
         <v>2</v>
       </c>
+      <c r="AU172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -26388,6 +26906,9 @@
       <c r="AT173">
         <v>13</v>
       </c>
+      <c r="AU173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -26538,6 +27059,9 @@
       <c r="AT174">
         <v>36</v>
       </c>
+      <c r="AU174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -26688,6 +27212,9 @@
       <c r="AT175">
         <v>1</v>
       </c>
+      <c r="AU175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -26838,6 +27365,9 @@
       <c r="AT176">
         <v>8</v>
       </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -26988,6 +27518,9 @@
       <c r="AT177">
         <v>2</v>
       </c>
+      <c r="AU177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -27138,6 +27671,9 @@
       <c r="AT178">
         <v>6</v>
       </c>
+      <c r="AU178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -27288,6 +27824,9 @@
       <c r="AT179">
         <v>4</v>
       </c>
+      <c r="AU179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -27438,6 +27977,9 @@
       <c r="AT180">
         <v>12</v>
       </c>
+      <c r="AU180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -27588,6 +28130,9 @@
       <c r="AT181">
         <v>11</v>
       </c>
+      <c r="AU181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -27738,6 +28283,9 @@
       <c r="AT182">
         <v>2</v>
       </c>
+      <c r="AU182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -27888,6 +28436,9 @@
       <c r="AT183">
         <v>1</v>
       </c>
+      <c r="AU183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -28038,6 +28589,9 @@
       <c r="AT184">
         <v>0</v>
       </c>
+      <c r="AU184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -28188,6 +28742,9 @@
       <c r="AT185">
         <v>1</v>
       </c>
+      <c r="AU185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -28338,6 +28895,9 @@
       <c r="AT186">
         <v>9</v>
       </c>
+      <c r="AU186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -28488,6 +29048,9 @@
       <c r="AT187">
         <v>0</v>
       </c>
+      <c r="AU187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -28638,6 +29201,9 @@
       <c r="AT188">
         <v>0</v>
       </c>
+      <c r="AU188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -28788,6 +29354,9 @@
       <c r="AT189">
         <v>0</v>
       </c>
+      <c r="AU189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -28938,6 +29507,9 @@
       <c r="AT190">
         <v>25</v>
       </c>
+      <c r="AU190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -29088,6 +29660,9 @@
       <c r="AT191">
         <v>21</v>
       </c>
+      <c r="AU191">
+        <v>21</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -29238,6 +29813,9 @@
       <c r="AT192">
         <v>57</v>
       </c>
+      <c r="AU192">
+        <v>57</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -29388,6 +29966,9 @@
       <c r="AT193">
         <v>38</v>
       </c>
+      <c r="AU193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -29538,6 +30119,9 @@
       <c r="AT194">
         <v>36</v>
       </c>
+      <c r="AU194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -29688,6 +30272,9 @@
       <c r="AT195">
         <v>10</v>
       </c>
+      <c r="AU195">
+        <v>11</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -29838,6 +30425,9 @@
       <c r="AT196">
         <v>40</v>
       </c>
+      <c r="AU196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -29988,6 +30578,9 @@
       <c r="AT197">
         <v>4</v>
       </c>
+      <c r="AU197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -30138,6 +30731,9 @@
       <c r="AT198">
         <v>23</v>
       </c>
+      <c r="AU198">
+        <v>23</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -30288,6 +30884,9 @@
       <c r="AT199">
         <v>2</v>
       </c>
+      <c r="AU199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -30438,6 +31037,9 @@
       <c r="AT200">
         <v>5</v>
       </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -30588,6 +31190,9 @@
       <c r="AT201">
         <v>2</v>
       </c>
+      <c r="AU201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -30738,6 +31343,9 @@
       <c r="AT202">
         <v>1</v>
       </c>
+      <c r="AU202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -30888,6 +31496,9 @@
       <c r="AT203">
         <v>7</v>
       </c>
+      <c r="AU203">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -31038,6 +31649,9 @@
       <c r="AT204">
         <v>0</v>
       </c>
+      <c r="AU204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -31188,6 +31802,9 @@
       <c r="AT205">
         <v>1</v>
       </c>
+      <c r="AU205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -31338,6 +31955,9 @@
       <c r="AT206">
         <v>1</v>
       </c>
+      <c r="AU206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -31488,6 +32108,9 @@
       <c r="AT207">
         <v>1</v>
       </c>
+      <c r="AU207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -31638,6 +32261,9 @@
       <c r="AT208">
         <v>0</v>
       </c>
+      <c r="AU208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -31788,6 +32414,9 @@
       <c r="AT209">
         <v>0</v>
       </c>
+      <c r="AU209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -31938,6 +32567,9 @@
       <c r="AT210">
         <v>0</v>
       </c>
+      <c r="AU210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -32088,6 +32720,9 @@
       <c r="AT211">
         <v>0</v>
       </c>
+      <c r="AU211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -32238,6 +32873,9 @@
       <c r="AT212">
         <v>2</v>
       </c>
+      <c r="AU212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -32388,6 +33026,9 @@
       <c r="AT213">
         <v>0</v>
       </c>
+      <c r="AU213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -32538,6 +33179,9 @@
       <c r="AT214">
         <v>3</v>
       </c>
+      <c r="AU214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -32688,6 +33332,9 @@
       <c r="AT215">
         <v>31</v>
       </c>
+      <c r="AU215">
+        <v>31</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -32838,6 +33485,9 @@
       <c r="AT216">
         <v>220</v>
       </c>
+      <c r="AU216">
+        <v>222</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -32988,6 +33638,9 @@
       <c r="AT217">
         <v>11</v>
       </c>
+      <c r="AU217">
+        <v>11</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -33138,6 +33791,9 @@
       <c r="AT218">
         <v>11</v>
       </c>
+      <c r="AU218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -33288,6 +33944,9 @@
       <c r="AT219">
         <v>0</v>
       </c>
+      <c r="AU219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -33438,6 +34097,9 @@
       <c r="AT220">
         <v>2</v>
       </c>
+      <c r="AU220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -33588,6 +34250,9 @@
       <c r="AT221">
         <v>0</v>
       </c>
+      <c r="AU221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -33738,6 +34403,9 @@
       <c r="AT222">
         <v>1</v>
       </c>
+      <c r="AU222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -33888,6 +34556,9 @@
       <c r="AT223">
         <v>2</v>
       </c>
+      <c r="AU223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -34038,6 +34709,9 @@
       <c r="AT224">
         <v>8</v>
       </c>
+      <c r="AU224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -34188,6 +34862,9 @@
       <c r="AT225">
         <v>3</v>
       </c>
+      <c r="AU225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -34338,6 +35015,9 @@
       <c r="AT226">
         <v>1</v>
       </c>
+      <c r="AU226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -34488,6 +35168,9 @@
       <c r="AT227">
         <v>2</v>
       </c>
+      <c r="AU227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -34638,6 +35321,9 @@
       <c r="AT228">
         <v>2</v>
       </c>
+      <c r="AU228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -34788,6 +35474,9 @@
       <c r="AT229">
         <v>2</v>
       </c>
+      <c r="AU229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -34938,6 +35627,9 @@
       <c r="AT230">
         <v>0</v>
       </c>
+      <c r="AU230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -35088,6 +35780,9 @@
       <c r="AT231">
         <v>3</v>
       </c>
+      <c r="AU231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -35238,6 +35933,9 @@
       <c r="AT232">
         <v>21</v>
       </c>
+      <c r="AU232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -35388,6 +36086,9 @@
       <c r="AT233">
         <v>0</v>
       </c>
+      <c r="AU233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -35538,6 +36239,9 @@
       <c r="AT234">
         <v>4</v>
       </c>
+      <c r="AU234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -35688,6 +36392,9 @@
       <c r="AT235">
         <v>1</v>
       </c>
+      <c r="AU235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -35838,6 +36545,9 @@
       <c r="AT236">
         <v>1</v>
       </c>
+      <c r="AU236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -35988,6 +36698,9 @@
       <c r="AT237">
         <v>1</v>
       </c>
+      <c r="AU237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -36138,6 +36851,9 @@
       <c r="AT238">
         <v>555</v>
       </c>
+      <c r="AU238">
+        <v>560</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -36288,6 +37004,9 @@
       <c r="AT239">
         <v>9</v>
       </c>
+      <c r="AU239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -36438,6 +37157,9 @@
       <c r="AT240">
         <v>4</v>
       </c>
+      <c r="AU240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -36588,6 +37310,9 @@
       <c r="AT241">
         <v>4</v>
       </c>
+      <c r="AU241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -36738,6 +37463,9 @@
       <c r="AT242">
         <v>4</v>
       </c>
+      <c r="AU242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -36888,6 +37616,9 @@
       <c r="AT243">
         <v>6</v>
       </c>
+      <c r="AU243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -37038,6 +37769,9 @@
       <c r="AT244">
         <v>8</v>
       </c>
+      <c r="AU244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -37188,6 +37922,9 @@
       <c r="AT245">
         <v>0</v>
       </c>
+      <c r="AU245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -37338,6 +38075,9 @@
       <c r="AT246">
         <v>4</v>
       </c>
+      <c r="AU246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -37488,6 +38228,9 @@
       <c r="AT247">
         <v>0</v>
       </c>
+      <c r="AU247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -37638,6 +38381,9 @@
       <c r="AT248">
         <v>0</v>
       </c>
+      <c r="AU248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -37788,6 +38534,9 @@
       <c r="AT249">
         <v>2</v>
       </c>
+      <c r="AU249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -37938,6 +38687,9 @@
       <c r="AT250">
         <v>24</v>
       </c>
+      <c r="AU250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -38088,6 +38840,9 @@
       <c r="AT251">
         <v>9</v>
       </c>
+      <c r="AU251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -38238,6 +38993,9 @@
       <c r="AT252">
         <v>0</v>
       </c>
+      <c r="AU252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -38388,6 +39146,9 @@
       <c r="AT253">
         <v>17</v>
       </c>
+      <c r="AU253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -38538,6 +39299,9 @@
       <c r="AT254">
         <v>5</v>
       </c>
+      <c r="AU254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -38688,6 +39452,9 @@
       <c r="AT255">
         <v>54</v>
       </c>
+      <c r="AU255">
+        <v>54</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -38838,6 +39605,9 @@
       <c r="AT256">
         <v>41</v>
       </c>
+      <c r="AU256">
+        <v>41</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -38988,6 +39758,9 @@
       <c r="AT257">
         <v>1</v>
       </c>
+      <c r="AU257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -39138,6 +39911,9 @@
       <c r="AT258">
         <v>0</v>
       </c>
+      <c r="AU258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -39288,6 +40064,9 @@
       <c r="AT259">
         <v>40</v>
       </c>
+      <c r="AU259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -39438,6 +40217,9 @@
       <c r="AT260">
         <v>27</v>
       </c>
+      <c r="AU260">
+        <v>27</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -39588,6 +40370,9 @@
       <c r="AT261">
         <v>0</v>
       </c>
+      <c r="AU261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -39738,6 +40523,9 @@
       <c r="AT262">
         <v>0</v>
       </c>
+      <c r="AU262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -39888,6 +40676,9 @@
       <c r="AT263">
         <v>0</v>
       </c>
+      <c r="AU263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -40038,6 +40829,9 @@
       <c r="AT264">
         <v>1</v>
       </c>
+      <c r="AU264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -40188,6 +40982,9 @@
       <c r="AT265">
         <v>3</v>
       </c>
+      <c r="AU265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -40338,6 +41135,9 @@
       <c r="AT266">
         <v>0</v>
       </c>
+      <c r="AU266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -40488,6 +41288,9 @@
       <c r="AT267">
         <v>3</v>
       </c>
+      <c r="AU267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -40638,6 +41441,9 @@
       <c r="AT268">
         <v>0</v>
       </c>
+      <c r="AU268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -40788,6 +41594,9 @@
       <c r="AT269">
         <v>7</v>
       </c>
+      <c r="AU269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -40938,6 +41747,9 @@
       <c r="AT270">
         <v>0</v>
       </c>
+      <c r="AU270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -41088,6 +41900,9 @@
       <c r="AT271">
         <v>0</v>
       </c>
+      <c r="AU271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -41238,6 +42053,9 @@
       <c r="AT272">
         <v>1</v>
       </c>
+      <c r="AU272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -41388,6 +42206,9 @@
       <c r="AT273">
         <v>4</v>
       </c>
+      <c r="AU273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -41538,6 +42359,9 @@
       <c r="AT274">
         <v>0</v>
       </c>
+      <c r="AU274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -41688,6 +42512,9 @@
       <c r="AT275">
         <v>0</v>
       </c>
+      <c r="AU275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -41838,6 +42665,9 @@
       <c r="AT276">
         <v>17</v>
       </c>
+      <c r="AU276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -41988,6 +42818,9 @@
       <c r="AT277">
         <v>0</v>
       </c>
+      <c r="AU277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -42138,6 +42971,9 @@
       <c r="AT278">
         <v>0</v>
       </c>
+      <c r="AU278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -42288,6 +43124,9 @@
       <c r="AT279">
         <v>4</v>
       </c>
+      <c r="AU279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -42438,6 +43277,9 @@
       <c r="AT280">
         <v>12</v>
       </c>
+      <c r="AU280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -42588,6 +43430,9 @@
       <c r="AT281">
         <v>305</v>
       </c>
+      <c r="AU281">
+        <v>307</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -42738,6 +43583,9 @@
       <c r="AT282">
         <v>17</v>
       </c>
+      <c r="AU282">
+        <v>17</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -42888,6 +43736,9 @@
       <c r="AT283">
         <v>5</v>
       </c>
+      <c r="AU283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -43038,6 +43889,9 @@
       <c r="AT284">
         <v>0</v>
       </c>
+      <c r="AU284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -43188,6 +44042,9 @@
       <c r="AT285">
         <v>0</v>
       </c>
+      <c r="AU285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -43338,6 +44195,9 @@
       <c r="AT286">
         <v>8</v>
       </c>
+      <c r="AU286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -43488,6 +44348,9 @@
       <c r="AT287">
         <v>5</v>
       </c>
+      <c r="AU287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -43638,6 +44501,9 @@
       <c r="AT288">
         <v>0</v>
       </c>
+      <c r="AU288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -43788,6 +44654,9 @@
       <c r="AT289">
         <v>1</v>
       </c>
+      <c r="AU289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -43938,6 +44807,9 @@
       <c r="AT290">
         <v>7</v>
       </c>
+      <c r="AU290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -44088,6 +44960,9 @@
       <c r="AT291">
         <v>3</v>
       </c>
+      <c r="AU291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -44238,6 +45113,9 @@
       <c r="AT292">
         <v>5</v>
       </c>
+      <c r="AU292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -44388,6 +45266,9 @@
       <c r="AT293">
         <v>12</v>
       </c>
+      <c r="AU293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -44538,6 +45419,9 @@
       <c r="AT294">
         <v>6</v>
       </c>
+      <c r="AU294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -44688,6 +45572,9 @@
       <c r="AT295">
         <v>0</v>
       </c>
+      <c r="AU295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -44838,6 +45725,9 @@
       <c r="AT296">
         <v>1</v>
       </c>
+      <c r="AU296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -44988,6 +45878,9 @@
       <c r="AT297">
         <v>8</v>
       </c>
+      <c r="AU297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -45138,6 +46031,9 @@
       <c r="AT298">
         <v>28</v>
       </c>
+      <c r="AU298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -45288,6 +46184,9 @@
       <c r="AT299">
         <v>21</v>
       </c>
+      <c r="AU299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -45438,6 +46337,9 @@
       <c r="AT300">
         <v>15</v>
       </c>
+      <c r="AU300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -45588,6 +46490,9 @@
       <c r="AT301">
         <v>1</v>
       </c>
+      <c r="AU301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -45738,6 +46643,9 @@
       <c r="AT302">
         <v>0</v>
       </c>
+      <c r="AU302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -45888,6 +46796,9 @@
       <c r="AT303">
         <v>0</v>
       </c>
+      <c r="AU303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -46038,6 +46949,9 @@
       <c r="AT304">
         <v>0</v>
       </c>
+      <c r="AU304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -46188,6 +47102,9 @@
       <c r="AT305">
         <v>3</v>
       </c>
+      <c r="AU305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -46338,6 +47255,9 @@
       <c r="AT306">
         <v>1</v>
       </c>
+      <c r="AU306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -46488,6 +47408,9 @@
       <c r="AT307">
         <v>4</v>
       </c>
+      <c r="AU307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -46638,6 +47561,9 @@
       <c r="AT308">
         <v>0</v>
       </c>
+      <c r="AU308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -46788,6 +47714,9 @@
       <c r="AT309">
         <v>0</v>
       </c>
+      <c r="AU309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -46938,6 +47867,9 @@
       <c r="AT310">
         <v>7</v>
       </c>
+      <c r="AU310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -47088,6 +48020,9 @@
       <c r="AT311">
         <v>2</v>
       </c>
+      <c r="AU311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -47238,6 +48173,9 @@
       <c r="AT312">
         <v>2</v>
       </c>
+      <c r="AU312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -47388,6 +48326,9 @@
       <c r="AT313">
         <v>2</v>
       </c>
+      <c r="AU313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -47538,6 +48479,9 @@
       <c r="AT314">
         <v>10</v>
       </c>
+      <c r="AU314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -47688,6 +48632,9 @@
       <c r="AT315">
         <v>1</v>
       </c>
+      <c r="AU315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -47838,6 +48785,9 @@
       <c r="AT316">
         <v>17</v>
       </c>
+      <c r="AU316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -47988,6 +48938,9 @@
       <c r="AT317">
         <v>0</v>
       </c>
+      <c r="AU317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -48138,6 +49091,9 @@
       <c r="AT318">
         <v>0</v>
       </c>
+      <c r="AU318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -48288,6 +49244,9 @@
       <c r="AT319">
         <v>161</v>
       </c>
+      <c r="AU319">
+        <v>162</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -48438,6 +49397,9 @@
       <c r="AT320">
         <v>6</v>
       </c>
+      <c r="AU320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -48588,6 +49550,9 @@
       <c r="AT321">
         <v>5</v>
       </c>
+      <c r="AU321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -48738,6 +49703,9 @@
       <c r="AT322">
         <v>1</v>
       </c>
+      <c r="AU322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -48888,6 +49856,9 @@
       <c r="AT323">
         <v>3</v>
       </c>
+      <c r="AU323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -49038,6 +50009,9 @@
       <c r="AT324">
         <v>15</v>
       </c>
+      <c r="AU324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -49188,6 +50162,9 @@
       <c r="AT325">
         <v>1</v>
       </c>
+      <c r="AU325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -49338,6 +50315,9 @@
       <c r="AT326">
         <v>1</v>
       </c>
+      <c r="AU326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -49488,6 +50468,9 @@
       <c r="AT327">
         <v>0</v>
       </c>
+      <c r="AU327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -49638,6 +50621,9 @@
       <c r="AT328">
         <v>0</v>
       </c>
+      <c r="AU328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -49788,6 +50774,9 @@
       <c r="AT329">
         <v>3</v>
       </c>
+      <c r="AU329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -49938,6 +50927,9 @@
       <c r="AT330">
         <v>2</v>
       </c>
+      <c r="AU330">
+        <v>2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -50088,6 +51080,9 @@
       <c r="AT331">
         <v>2</v>
       </c>
+      <c r="AU331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -50238,6 +51233,9 @@
       <c r="AT332">
         <v>1</v>
       </c>
+      <c r="AU332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -50388,6 +51386,9 @@
       <c r="AT333">
         <v>0</v>
       </c>
+      <c r="AU333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -50538,6 +51539,9 @@
       <c r="AT334">
         <v>0</v>
       </c>
+      <c r="AU334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -50688,6 +51692,9 @@
       <c r="AT335">
         <v>16</v>
       </c>
+      <c r="AU335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -50838,6 +51845,9 @@
       <c r="AT336">
         <v>2</v>
       </c>
+      <c r="AU336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -50988,6 +51998,9 @@
       <c r="AT337">
         <v>2</v>
       </c>
+      <c r="AU337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -51138,6 +52151,9 @@
       <c r="AT338">
         <v>2</v>
       </c>
+      <c r="AU338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -51288,6 +52304,9 @@
       <c r="AT339">
         <v>0</v>
       </c>
+      <c r="AU339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -51438,6 +52457,9 @@
       <c r="AT340">
         <v>0</v>
       </c>
+      <c r="AU340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -51588,6 +52610,9 @@
       <c r="AT341">
         <v>1</v>
       </c>
+      <c r="AU341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -51738,6 +52763,9 @@
       <c r="AT342">
         <v>2</v>
       </c>
+      <c r="AU342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -51888,6 +52916,9 @@
       <c r="AT343">
         <v>0</v>
       </c>
+      <c r="AU343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -52038,6 +53069,9 @@
       <c r="AT344">
         <v>1</v>
       </c>
+      <c r="AU344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -52188,6 +53222,9 @@
       <c r="AT345">
         <v>0</v>
       </c>
+      <c r="AU345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -52338,6 +53375,9 @@
       <c r="AT346">
         <v>0</v>
       </c>
+      <c r="AU346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -52488,6 +53528,9 @@
       <c r="AT347">
         <v>3</v>
       </c>
+      <c r="AU347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -52638,6 +53681,9 @@
       <c r="AT348">
         <v>2</v>
       </c>
+      <c r="AU348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -52788,6 +53834,9 @@
       <c r="AT349">
         <v>4</v>
       </c>
+      <c r="AU349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -52938,6 +53987,9 @@
       <c r="AT350">
         <v>1</v>
       </c>
+      <c r="AU350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -53088,6 +54140,9 @@
       <c r="AT351">
         <v>0</v>
       </c>
+      <c r="AU351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -53238,6 +54293,9 @@
       <c r="AT352">
         <v>0</v>
       </c>
+      <c r="AU352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -53388,6 +54446,9 @@
       <c r="AT353">
         <v>0</v>
       </c>
+      <c r="AU353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -53538,6 +54599,9 @@
       <c r="AT354">
         <v>1</v>
       </c>
+      <c r="AU354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -53688,6 +54752,9 @@
       <c r="AT355">
         <v>1</v>
       </c>
+      <c r="AU355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -53838,6 +54905,9 @@
       <c r="AT356">
         <v>0</v>
       </c>
+      <c r="AU356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -53988,6 +55058,9 @@
       <c r="AT357">
         <v>4</v>
       </c>
+      <c r="AU357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -54138,6 +55211,9 @@
       <c r="AT358">
         <v>0</v>
       </c>
+      <c r="AU358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -54287,6 +55363,9 @@
       </c>
       <c r="AT359">
         <v>2</v>
+      </c>
+      <c r="AU359">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU359"/>
+  <dimension ref="A1:AV359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,6 +593,11 @@
           <t>2020-05-05</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -746,6 +751,9 @@
       <c r="AU2">
         <v>2445</v>
       </c>
+      <c r="AV2">
+        <v>2468</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -899,6 +907,9 @@
       <c r="AU3">
         <v>14</v>
       </c>
+      <c r="AV3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1052,6 +1063,9 @@
       <c r="AU4">
         <v>133</v>
       </c>
+      <c r="AV4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1205,6 +1219,9 @@
       <c r="AU5">
         <v>51</v>
       </c>
+      <c r="AV5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1358,6 +1375,9 @@
       <c r="AU6">
         <v>47</v>
       </c>
+      <c r="AV6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1511,6 +1531,9 @@
       <c r="AU7">
         <v>5</v>
       </c>
+      <c r="AV7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1664,6 +1687,9 @@
       <c r="AU8">
         <v>1</v>
       </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1817,6 +1843,9 @@
       <c r="AU9">
         <v>0</v>
       </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1970,6 +1999,9 @@
       <c r="AU10">
         <v>7</v>
       </c>
+      <c r="AV10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2123,6 +2155,9 @@
       <c r="AU11">
         <v>6</v>
       </c>
+      <c r="AV11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2276,6 +2311,9 @@
       <c r="AU12">
         <v>12</v>
       </c>
+      <c r="AV12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2429,6 +2467,9 @@
       <c r="AU13">
         <v>13</v>
       </c>
+      <c r="AV13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2582,6 +2623,9 @@
       <c r="AU14">
         <v>16</v>
       </c>
+      <c r="AV14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2735,6 +2779,9 @@
       <c r="AU15">
         <v>11</v>
       </c>
+      <c r="AV15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2888,6 +2935,9 @@
       <c r="AU16">
         <v>13</v>
       </c>
+      <c r="AV16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3041,6 +3091,9 @@
       <c r="AU17">
         <v>0</v>
       </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3194,6 +3247,9 @@
       <c r="AU18">
         <v>0</v>
       </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3347,6 +3403,9 @@
       <c r="AU19">
         <v>3</v>
       </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3500,6 +3559,9 @@
       <c r="AU20">
         <v>0</v>
       </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3653,6 +3715,9 @@
       <c r="AU21">
         <v>1</v>
       </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3806,6 +3871,9 @@
       <c r="AU22">
         <v>20</v>
       </c>
+      <c r="AV22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3959,6 +4027,9 @@
       <c r="AU23">
         <v>71</v>
       </c>
+      <c r="AV23">
+        <v>71</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4112,6 +4183,9 @@
       <c r="AU24">
         <v>0</v>
       </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4265,6 +4339,9 @@
       <c r="AU25">
         <v>11</v>
       </c>
+      <c r="AV25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4418,6 +4495,9 @@
       <c r="AU26">
         <v>18</v>
       </c>
+      <c r="AV26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4571,6 +4651,9 @@
       <c r="AU27">
         <v>13</v>
       </c>
+      <c r="AV27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4724,6 +4807,9 @@
       <c r="AU28">
         <v>27</v>
       </c>
+      <c r="AV28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4877,6 +4963,9 @@
       <c r="AU29">
         <v>1</v>
       </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5030,6 +5119,9 @@
       <c r="AU30">
         <v>5</v>
       </c>
+      <c r="AV30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5183,6 +5275,9 @@
       <c r="AU31">
         <v>3</v>
       </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5336,6 +5431,9 @@
       <c r="AU32">
         <v>8</v>
       </c>
+      <c r="AV32">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5489,6 +5587,9 @@
       <c r="AU33">
         <v>2</v>
       </c>
+      <c r="AV33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5642,6 +5743,9 @@
       <c r="AU34">
         <v>6</v>
       </c>
+      <c r="AV34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5795,6 +5899,9 @@
       <c r="AU35">
         <v>0</v>
       </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5948,6 +6055,9 @@
       <c r="AU36">
         <v>1</v>
       </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6101,6 +6211,9 @@
       <c r="AU37">
         <v>6</v>
       </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6254,6 +6367,9 @@
       <c r="AU38">
         <v>5</v>
       </c>
+      <c r="AV38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6407,6 +6523,9 @@
       <c r="AU39">
         <v>1</v>
       </c>
+      <c r="AV39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6560,6 +6679,9 @@
       <c r="AU40">
         <v>10</v>
       </c>
+      <c r="AV40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6713,6 +6835,9 @@
       <c r="AU41">
         <v>0</v>
       </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6866,6 +6991,9 @@
       <c r="AU42">
         <v>0</v>
       </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7019,6 +7147,9 @@
       <c r="AU43">
         <v>1</v>
       </c>
+      <c r="AV43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7172,6 +7303,9 @@
       <c r="AU44">
         <v>1</v>
       </c>
+      <c r="AV44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7325,6 +7459,9 @@
       <c r="AU45">
         <v>2</v>
       </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7478,6 +7615,9 @@
       <c r="AU46">
         <v>2</v>
       </c>
+      <c r="AV46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7631,6 +7771,9 @@
       <c r="AU47">
         <v>0</v>
       </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7784,6 +7927,9 @@
       <c r="AU48">
         <v>3</v>
       </c>
+      <c r="AV48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7937,6 +8083,9 @@
       <c r="AU49">
         <v>4</v>
       </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8090,6 +8239,9 @@
       <c r="AU50">
         <v>1</v>
       </c>
+      <c r="AV50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8243,6 +8395,9 @@
       <c r="AU51">
         <v>3</v>
       </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8396,6 +8551,9 @@
       <c r="AU52">
         <v>39</v>
       </c>
+      <c r="AV52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8549,6 +8707,9 @@
       <c r="AU53">
         <v>6</v>
       </c>
+      <c r="AV53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8702,6 +8863,9 @@
       <c r="AU54">
         <v>0</v>
       </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8855,6 +9019,9 @@
       <c r="AU55">
         <v>2</v>
       </c>
+      <c r="AV55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9008,6 +9175,9 @@
       <c r="AU56">
         <v>5</v>
       </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9161,6 +9331,9 @@
       <c r="AU57">
         <v>3</v>
       </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9314,6 +9487,9 @@
       <c r="AU58">
         <v>0</v>
       </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9467,6 +9643,9 @@
       <c r="AU59">
         <v>0</v>
       </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9620,6 +9799,9 @@
       <c r="AU60">
         <v>2</v>
       </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9773,6 +9955,9 @@
       <c r="AU61">
         <v>4</v>
       </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9926,6 +10111,9 @@
       <c r="AU62">
         <v>1</v>
       </c>
+      <c r="AV62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10079,6 +10267,9 @@
       <c r="AU63">
         <v>1</v>
       </c>
+      <c r="AV63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10232,6 +10423,9 @@
       <c r="AU64">
         <v>0</v>
       </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10385,6 +10579,9 @@
       <c r="AU65">
         <v>5</v>
       </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10538,6 +10735,9 @@
       <c r="AU66">
         <v>0</v>
       </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10691,6 +10891,9 @@
       <c r="AU67">
         <v>0</v>
       </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10844,6 +11047,9 @@
       <c r="AU68">
         <v>4</v>
       </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10997,6 +11203,9 @@
       <c r="AU69">
         <v>0</v>
       </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11150,6 +11359,9 @@
       <c r="AU70">
         <v>0</v>
       </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11303,6 +11515,9 @@
       <c r="AU71">
         <v>0</v>
       </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11456,6 +11671,9 @@
       <c r="AU72">
         <v>6</v>
       </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11609,6 +11827,9 @@
       <c r="AU73">
         <v>0</v>
       </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11762,6 +11983,9 @@
       <c r="AU74">
         <v>0</v>
       </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11915,6 +12139,9 @@
       <c r="AU75">
         <v>0</v>
       </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12068,6 +12295,9 @@
       <c r="AU76">
         <v>2</v>
       </c>
+      <c r="AV76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12221,6 +12451,9 @@
       <c r="AU77">
         <v>0</v>
       </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12374,6 +12607,9 @@
       <c r="AU78">
         <v>1</v>
       </c>
+      <c r="AV78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12527,6 +12763,9 @@
       <c r="AU79">
         <v>0</v>
       </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12680,6 +12919,9 @@
       <c r="AU80">
         <v>0</v>
       </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12833,6 +13075,9 @@
       <c r="AU81">
         <v>0</v>
       </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12986,6 +13231,9 @@
       <c r="AU82">
         <v>0</v>
       </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13139,6 +13387,9 @@
       <c r="AU83">
         <v>6</v>
       </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13292,6 +13543,9 @@
       <c r="AU84">
         <v>13</v>
       </c>
+      <c r="AV84">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13445,6 +13699,9 @@
       <c r="AU85">
         <v>3</v>
       </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13598,6 +13855,9 @@
       <c r="AU86">
         <v>5</v>
       </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -13751,6 +14011,9 @@
       <c r="AU87">
         <v>0</v>
       </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13904,6 +14167,9 @@
       <c r="AU88">
         <v>0</v>
       </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -14057,6 +14323,9 @@
       <c r="AU89">
         <v>6</v>
       </c>
+      <c r="AV89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -14210,6 +14479,9 @@
       <c r="AU90">
         <v>0</v>
       </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14363,6 +14635,9 @@
       <c r="AU91">
         <v>1</v>
       </c>
+      <c r="AV91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14516,6 +14791,9 @@
       <c r="AU92">
         <v>0</v>
       </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14669,6 +14947,9 @@
       <c r="AU93">
         <v>37</v>
       </c>
+      <c r="AV93">
+        <v>38</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -14822,6 +15103,9 @@
       <c r="AU94">
         <v>98</v>
       </c>
+      <c r="AV94">
+        <v>98</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14975,6 +15259,9 @@
       <c r="AU95">
         <v>71</v>
       </c>
+      <c r="AV95">
+        <v>72</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -15128,6 +15415,9 @@
       <c r="AU96">
         <v>99</v>
       </c>
+      <c r="AV96">
+        <v>99</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -15281,6 +15571,9 @@
       <c r="AU97">
         <v>174</v>
       </c>
+      <c r="AV97">
+        <v>175</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15434,6 +15727,9 @@
       <c r="AU98">
         <v>21</v>
       </c>
+      <c r="AV98">
+        <v>21</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15587,6 +15883,9 @@
       <c r="AU99">
         <v>10</v>
       </c>
+      <c r="AV99">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -15740,6 +16039,9 @@
       <c r="AU100">
         <v>2</v>
       </c>
+      <c r="AV100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -15893,6 +16195,9 @@
       <c r="AU101">
         <v>2</v>
       </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -16046,6 +16351,9 @@
       <c r="AU102">
         <v>3</v>
       </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -16199,6 +16507,9 @@
       <c r="AU103">
         <v>50</v>
       </c>
+      <c r="AV103">
+        <v>51</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16352,6 +16663,9 @@
       <c r="AU104">
         <v>2</v>
       </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -16505,6 +16819,9 @@
       <c r="AU105">
         <v>1</v>
       </c>
+      <c r="AV105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16658,6 +16975,9 @@
       <c r="AU106">
         <v>2</v>
       </c>
+      <c r="AV106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -16811,6 +17131,9 @@
       <c r="AU107">
         <v>7</v>
       </c>
+      <c r="AV107">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16964,6 +17287,9 @@
       <c r="AU108">
         <v>23</v>
       </c>
+      <c r="AV108">
+        <v>24</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -17117,6 +17443,9 @@
       <c r="AU109">
         <v>102</v>
       </c>
+      <c r="AV109">
+        <v>102</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -17270,6 +17599,9 @@
       <c r="AU110">
         <v>20</v>
       </c>
+      <c r="AV110">
+        <v>20</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -17423,6 +17755,9 @@
       <c r="AU111">
         <v>29</v>
       </c>
+      <c r="AV111">
+        <v>29</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -17576,6 +17911,9 @@
       <c r="AU112">
         <v>49</v>
       </c>
+      <c r="AV112">
+        <v>49</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -17729,6 +18067,9 @@
       <c r="AU113">
         <v>412</v>
       </c>
+      <c r="AV113">
+        <v>413</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -17882,6 +18223,9 @@
       <c r="AU114">
         <v>184</v>
       </c>
+      <c r="AV114">
+        <v>186</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -18035,6 +18379,9 @@
       <c r="AU115">
         <v>10</v>
       </c>
+      <c r="AV115">
+        <v>11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -18188,6 +18535,9 @@
       <c r="AU116">
         <v>27</v>
       </c>
+      <c r="AV116">
+        <v>29</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -18341,6 +18691,9 @@
       <c r="AU117">
         <v>49</v>
       </c>
+      <c r="AV117">
+        <v>50</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -18494,6 +18847,9 @@
       <c r="AU118">
         <v>93</v>
       </c>
+      <c r="AV118">
+        <v>94</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -18647,6 +19003,9 @@
       <c r="AU119">
         <v>160</v>
       </c>
+      <c r="AV119">
+        <v>160</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -18800,6 +19159,9 @@
       <c r="AU120">
         <v>45</v>
       </c>
+      <c r="AV120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -18953,6 +19315,9 @@
       <c r="AU121">
         <v>8</v>
       </c>
+      <c r="AV121">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -19106,6 +19471,9 @@
       <c r="AU122">
         <v>59</v>
       </c>
+      <c r="AV122">
+        <v>59</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -19259,6 +19627,9 @@
       <c r="AU123">
         <v>15</v>
       </c>
+      <c r="AV123">
+        <v>15</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -19412,6 +19783,9 @@
       <c r="AU124">
         <v>41</v>
       </c>
+      <c r="AV124">
+        <v>41</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -19565,6 +19939,9 @@
       <c r="AU125">
         <v>17</v>
       </c>
+      <c r="AV125">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -19718,6 +20095,9 @@
       <c r="AU126">
         <v>2</v>
       </c>
+      <c r="AV126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -19871,6 +20251,9 @@
       <c r="AU127">
         <v>10</v>
       </c>
+      <c r="AV127">
+        <v>10</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -20024,6 +20407,9 @@
       <c r="AU128">
         <v>1</v>
       </c>
+      <c r="AV128">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -20177,6 +20563,9 @@
       <c r="AU129">
         <v>7</v>
       </c>
+      <c r="AV129">
+        <v>7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -20330,6 +20719,9 @@
       <c r="AU130">
         <v>11</v>
       </c>
+      <c r="AV130">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -20483,6 +20875,9 @@
       <c r="AU131">
         <v>8</v>
       </c>
+      <c r="AV131">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -20636,6 +21031,9 @@
       <c r="AU132">
         <v>13</v>
       </c>
+      <c r="AV132">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -20789,6 +21187,9 @@
       <c r="AU133">
         <v>44</v>
       </c>
+      <c r="AV133">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -20942,6 +21343,9 @@
       <c r="AU134">
         <v>0</v>
       </c>
+      <c r="AV134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -21095,6 +21499,9 @@
       <c r="AU135">
         <v>0</v>
       </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -21248,6 +21655,9 @@
       <c r="AU136">
         <v>10</v>
       </c>
+      <c r="AV136">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -21401,6 +21811,9 @@
       <c r="AU137">
         <v>9</v>
       </c>
+      <c r="AV137">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -21554,6 +21967,9 @@
       <c r="AU138">
         <v>42</v>
       </c>
+      <c r="AV138">
+        <v>42</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -21707,6 +22123,9 @@
       <c r="AU139">
         <v>4</v>
       </c>
+      <c r="AV139">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -21860,6 +22279,9 @@
       <c r="AU140">
         <v>1</v>
       </c>
+      <c r="AV140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -22013,6 +22435,9 @@
       <c r="AU141">
         <v>3</v>
       </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -22166,6 +22591,9 @@
       <c r="AU142">
         <v>6</v>
       </c>
+      <c r="AV142">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -22319,6 +22747,9 @@
       <c r="AU143">
         <v>11</v>
       </c>
+      <c r="AV143">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -22472,6 +22903,9 @@
       <c r="AU144">
         <v>2</v>
       </c>
+      <c r="AV144">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -22625,6 +23059,9 @@
       <c r="AU145">
         <v>83</v>
       </c>
+      <c r="AV145">
+        <v>84</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -22778,6 +23215,9 @@
       <c r="AU146">
         <v>39</v>
       </c>
+      <c r="AV146">
+        <v>39</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -22931,6 +23371,9 @@
       <c r="AU147">
         <v>24</v>
       </c>
+      <c r="AV147">
+        <v>25</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -23084,6 +23527,9 @@
       <c r="AU148">
         <v>63</v>
       </c>
+      <c r="AV148">
+        <v>63</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -23237,6 +23683,9 @@
       <c r="AU149">
         <v>13</v>
       </c>
+      <c r="AV149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -23390,6 +23839,9 @@
       <c r="AU150">
         <v>36</v>
       </c>
+      <c r="AV150">
+        <v>36</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -23543,6 +23995,9 @@
       <c r="AU151">
         <v>0</v>
       </c>
+      <c r="AV151">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -23696,6 +24151,9 @@
       <c r="AU152">
         <v>21</v>
       </c>
+      <c r="AV152">
+        <v>24</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -23849,6 +24307,9 @@
       <c r="AU153">
         <v>4</v>
       </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -24002,6 +24463,9 @@
       <c r="AU154">
         <v>5</v>
       </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -24155,6 +24619,9 @@
       <c r="AU155">
         <v>3</v>
       </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -24308,6 +24775,9 @@
       <c r="AU156">
         <v>3</v>
       </c>
+      <c r="AV156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -24461,6 +24931,9 @@
       <c r="AU157">
         <v>16</v>
       </c>
+      <c r="AV157">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -24614,6 +25087,9 @@
       <c r="AU158">
         <v>7</v>
       </c>
+      <c r="AV158">
+        <v>7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -24767,6 +25243,9 @@
       <c r="AU159">
         <v>4</v>
       </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -24920,6 +25399,9 @@
       <c r="AU160">
         <v>0</v>
       </c>
+      <c r="AV160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -25073,6 +25555,9 @@
       <c r="AU161">
         <v>0</v>
       </c>
+      <c r="AV161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -25226,6 +25711,9 @@
       <c r="AU162">
         <v>2</v>
       </c>
+      <c r="AV162">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -25379,6 +25867,9 @@
       <c r="AU163">
         <v>0</v>
       </c>
+      <c r="AV163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -25532,6 +26023,9 @@
       <c r="AU164">
         <v>0</v>
       </c>
+      <c r="AV164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -25685,6 +26179,9 @@
       <c r="AU165">
         <v>1</v>
       </c>
+      <c r="AV165">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -25838,6 +26335,9 @@
       <c r="AU166">
         <v>0</v>
       </c>
+      <c r="AV166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -25991,6 +26491,9 @@
       <c r="AU167">
         <v>1</v>
       </c>
+      <c r="AV167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -26144,6 +26647,9 @@
       <c r="AU168">
         <v>5</v>
       </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -26297,6 +26803,9 @@
       <c r="AU169">
         <v>2</v>
       </c>
+      <c r="AV169">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -26450,6 +26959,9 @@
       <c r="AU170">
         <v>2</v>
       </c>
+      <c r="AV170">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -26603,6 +27115,9 @@
       <c r="AU171">
         <v>3</v>
       </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -26756,6 +27271,9 @@
       <c r="AU172">
         <v>2</v>
       </c>
+      <c r="AV172">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -26909,6 +27427,9 @@
       <c r="AU173">
         <v>13</v>
       </c>
+      <c r="AV173">
+        <v>13</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -27062,6 +27583,9 @@
       <c r="AU174">
         <v>36</v>
       </c>
+      <c r="AV174">
+        <v>36</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -27215,6 +27739,9 @@
       <c r="AU175">
         <v>1</v>
       </c>
+      <c r="AV175">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -27368,6 +27895,9 @@
       <c r="AU176">
         <v>8</v>
       </c>
+      <c r="AV176">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -27521,6 +28051,9 @@
       <c r="AU177">
         <v>2</v>
       </c>
+      <c r="AV177">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -27674,6 +28207,9 @@
       <c r="AU178">
         <v>6</v>
       </c>
+      <c r="AV178">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -27827,6 +28363,9 @@
       <c r="AU179">
         <v>4</v>
       </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -27980,6 +28519,9 @@
       <c r="AU180">
         <v>12</v>
       </c>
+      <c r="AV180">
+        <v>12</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -28133,6 +28675,9 @@
       <c r="AU181">
         <v>11</v>
       </c>
+      <c r="AV181">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -28286,6 +28831,9 @@
       <c r="AU182">
         <v>2</v>
       </c>
+      <c r="AV182">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -28439,6 +28987,9 @@
       <c r="AU183">
         <v>1</v>
       </c>
+      <c r="AV183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -28592,6 +29143,9 @@
       <c r="AU184">
         <v>0</v>
       </c>
+      <c r="AV184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -28745,6 +29299,9 @@
       <c r="AU185">
         <v>1</v>
       </c>
+      <c r="AV185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -28898,6 +29455,9 @@
       <c r="AU186">
         <v>9</v>
       </c>
+      <c r="AV186">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -29051,6 +29611,9 @@
       <c r="AU187">
         <v>0</v>
       </c>
+      <c r="AV187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -29204,6 +29767,9 @@
       <c r="AU188">
         <v>0</v>
       </c>
+      <c r="AV188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -29357,6 +29923,9 @@
       <c r="AU189">
         <v>0</v>
       </c>
+      <c r="AV189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -29510,6 +30079,9 @@
       <c r="AU190">
         <v>25</v>
       </c>
+      <c r="AV190">
+        <v>25</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -29663,6 +30235,9 @@
       <c r="AU191">
         <v>21</v>
       </c>
+      <c r="AV191">
+        <v>21</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -29816,6 +30391,9 @@
       <c r="AU192">
         <v>57</v>
       </c>
+      <c r="AV192">
+        <v>58</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -29969,6 +30547,9 @@
       <c r="AU193">
         <v>38</v>
       </c>
+      <c r="AV193">
+        <v>38</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -30122,6 +30703,9 @@
       <c r="AU194">
         <v>36</v>
       </c>
+      <c r="AV194">
+        <v>36</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -30275,6 +30859,9 @@
       <c r="AU195">
         <v>11</v>
       </c>
+      <c r="AV195">
+        <v>11</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -30428,6 +31015,9 @@
       <c r="AU196">
         <v>40</v>
       </c>
+      <c r="AV196">
+        <v>40</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -30581,6 +31171,9 @@
       <c r="AU197">
         <v>4</v>
       </c>
+      <c r="AV197">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -30734,6 +31327,9 @@
       <c r="AU198">
         <v>23</v>
       </c>
+      <c r="AV198">
+        <v>23</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -30887,6 +31483,9 @@
       <c r="AU199">
         <v>2</v>
       </c>
+      <c r="AV199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -31040,6 +31639,9 @@
       <c r="AU200">
         <v>5</v>
       </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -31193,6 +31795,9 @@
       <c r="AU201">
         <v>2</v>
       </c>
+      <c r="AV201">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -31346,6 +31951,9 @@
       <c r="AU202">
         <v>1</v>
       </c>
+      <c r="AV202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -31499,6 +32107,9 @@
       <c r="AU203">
         <v>7</v>
       </c>
+      <c r="AV203">
+        <v>7</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -31652,6 +32263,9 @@
       <c r="AU204">
         <v>0</v>
       </c>
+      <c r="AV204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -31805,6 +32419,9 @@
       <c r="AU205">
         <v>1</v>
       </c>
+      <c r="AV205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -31958,6 +32575,9 @@
       <c r="AU206">
         <v>1</v>
       </c>
+      <c r="AV206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -32111,6 +32731,9 @@
       <c r="AU207">
         <v>1</v>
       </c>
+      <c r="AV207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -32264,6 +32887,9 @@
       <c r="AU208">
         <v>0</v>
       </c>
+      <c r="AV208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -32417,6 +33043,9 @@
       <c r="AU209">
         <v>0</v>
       </c>
+      <c r="AV209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -32570,6 +33199,9 @@
       <c r="AU210">
         <v>0</v>
       </c>
+      <c r="AV210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -32723,6 +33355,9 @@
       <c r="AU211">
         <v>0</v>
       </c>
+      <c r="AV211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -32876,6 +33511,9 @@
       <c r="AU212">
         <v>2</v>
       </c>
+      <c r="AV212">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -33029,6 +33667,9 @@
       <c r="AU213">
         <v>0</v>
       </c>
+      <c r="AV213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -33182,6 +33823,9 @@
       <c r="AU214">
         <v>3</v>
       </c>
+      <c r="AV214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -33335,6 +33979,9 @@
       <c r="AU215">
         <v>31</v>
       </c>
+      <c r="AV215">
+        <v>32</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -33488,6 +34135,9 @@
       <c r="AU216">
         <v>222</v>
       </c>
+      <c r="AV216">
+        <v>222</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -33641,6 +34291,9 @@
       <c r="AU217">
         <v>11</v>
       </c>
+      <c r="AV217">
+        <v>11</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -33794,6 +34447,9 @@
       <c r="AU218">
         <v>11</v>
       </c>
+      <c r="AV218">
+        <v>11</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -33947,6 +34603,9 @@
       <c r="AU219">
         <v>0</v>
       </c>
+      <c r="AV219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -34100,6 +34759,9 @@
       <c r="AU220">
         <v>2</v>
       </c>
+      <c r="AV220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -34253,6 +34915,9 @@
       <c r="AU221">
         <v>0</v>
       </c>
+      <c r="AV221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -34406,6 +35071,9 @@
       <c r="AU222">
         <v>1</v>
       </c>
+      <c r="AV222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -34559,6 +35227,9 @@
       <c r="AU223">
         <v>2</v>
       </c>
+      <c r="AV223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -34712,6 +35383,9 @@
       <c r="AU224">
         <v>8</v>
       </c>
+      <c r="AV224">
+        <v>8</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -34865,6 +35539,9 @@
       <c r="AU225">
         <v>3</v>
       </c>
+      <c r="AV225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -35018,6 +35695,9 @@
       <c r="AU226">
         <v>1</v>
       </c>
+      <c r="AV226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -35171,6 +35851,9 @@
       <c r="AU227">
         <v>2</v>
       </c>
+      <c r="AV227">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -35324,6 +36007,9 @@
       <c r="AU228">
         <v>2</v>
       </c>
+      <c r="AV228">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -35477,6 +36163,9 @@
       <c r="AU229">
         <v>2</v>
       </c>
+      <c r="AV229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -35630,6 +36319,9 @@
       <c r="AU230">
         <v>0</v>
       </c>
+      <c r="AV230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -35783,6 +36475,9 @@
       <c r="AU231">
         <v>3</v>
       </c>
+      <c r="AV231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -35936,6 +36631,9 @@
       <c r="AU232">
         <v>21</v>
       </c>
+      <c r="AV232">
+        <v>21</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -36089,6 +36787,9 @@
       <c r="AU233">
         <v>0</v>
       </c>
+      <c r="AV233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -36242,6 +36943,9 @@
       <c r="AU234">
         <v>4</v>
       </c>
+      <c r="AV234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -36395,6 +37099,9 @@
       <c r="AU235">
         <v>1</v>
       </c>
+      <c r="AV235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -36548,6 +37255,9 @@
       <c r="AU236">
         <v>1</v>
       </c>
+      <c r="AV236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -36701,6 +37411,9 @@
       <c r="AU237">
         <v>1</v>
       </c>
+      <c r="AV237">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -36854,6 +37567,9 @@
       <c r="AU238">
         <v>560</v>
       </c>
+      <c r="AV238">
+        <v>560</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -37007,6 +37723,9 @@
       <c r="AU239">
         <v>9</v>
       </c>
+      <c r="AV239">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -37160,6 +37879,9 @@
       <c r="AU240">
         <v>4</v>
       </c>
+      <c r="AV240">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -37313,6 +38035,9 @@
       <c r="AU241">
         <v>4</v>
       </c>
+      <c r="AV241">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -37466,6 +38191,9 @@
       <c r="AU242">
         <v>4</v>
       </c>
+      <c r="AV242">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -37619,6 +38347,9 @@
       <c r="AU243">
         <v>6</v>
       </c>
+      <c r="AV243">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -37772,6 +38503,9 @@
       <c r="AU244">
         <v>8</v>
       </c>
+      <c r="AV244">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -37925,6 +38659,9 @@
       <c r="AU245">
         <v>0</v>
       </c>
+      <c r="AV245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -38078,6 +38815,9 @@
       <c r="AU246">
         <v>4</v>
       </c>
+      <c r="AV246">
+        <v>4</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -38231,6 +38971,9 @@
       <c r="AU247">
         <v>0</v>
       </c>
+      <c r="AV247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -38384,6 +39127,9 @@
       <c r="AU248">
         <v>0</v>
       </c>
+      <c r="AV248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -38537,6 +39283,9 @@
       <c r="AU249">
         <v>2</v>
       </c>
+      <c r="AV249">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -38690,6 +39439,9 @@
       <c r="AU250">
         <v>24</v>
       </c>
+      <c r="AV250">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -38843,6 +39595,9 @@
       <c r="AU251">
         <v>9</v>
       </c>
+      <c r="AV251">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -38996,6 +39751,9 @@
       <c r="AU252">
         <v>0</v>
       </c>
+      <c r="AV252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -39149,6 +39907,9 @@
       <c r="AU253">
         <v>17</v>
       </c>
+      <c r="AV253">
+        <v>17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -39302,6 +40063,9 @@
       <c r="AU254">
         <v>5</v>
       </c>
+      <c r="AV254">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -39455,6 +40219,9 @@
       <c r="AU255">
         <v>54</v>
       </c>
+      <c r="AV255">
+        <v>54</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -39608,6 +40375,9 @@
       <c r="AU256">
         <v>41</v>
       </c>
+      <c r="AV256">
+        <v>41</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -39761,6 +40531,9 @@
       <c r="AU257">
         <v>1</v>
       </c>
+      <c r="AV257">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -39914,6 +40687,9 @@
       <c r="AU258">
         <v>0</v>
       </c>
+      <c r="AV258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -40067,6 +40843,9 @@
       <c r="AU259">
         <v>40</v>
       </c>
+      <c r="AV259">
+        <v>40</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -40220,6 +40999,9 @@
       <c r="AU260">
         <v>27</v>
       </c>
+      <c r="AV260">
+        <v>27</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -40373,6 +41155,9 @@
       <c r="AU261">
         <v>0</v>
       </c>
+      <c r="AV261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -40526,6 +41311,9 @@
       <c r="AU262">
         <v>0</v>
       </c>
+      <c r="AV262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -40679,6 +41467,9 @@
       <c r="AU263">
         <v>0</v>
       </c>
+      <c r="AV263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -40832,6 +41623,9 @@
       <c r="AU264">
         <v>1</v>
       </c>
+      <c r="AV264">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -40985,6 +41779,9 @@
       <c r="AU265">
         <v>3</v>
       </c>
+      <c r="AV265">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -41138,6 +41935,9 @@
       <c r="AU266">
         <v>0</v>
       </c>
+      <c r="AV266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -41291,6 +42091,9 @@
       <c r="AU267">
         <v>3</v>
       </c>
+      <c r="AV267">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -41444,6 +42247,9 @@
       <c r="AU268">
         <v>0</v>
       </c>
+      <c r="AV268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -41597,6 +42403,9 @@
       <c r="AU269">
         <v>7</v>
       </c>
+      <c r="AV269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -41750,6 +42559,9 @@
       <c r="AU270">
         <v>0</v>
       </c>
+      <c r="AV270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -41903,6 +42715,9 @@
       <c r="AU271">
         <v>0</v>
       </c>
+      <c r="AV271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -42056,6 +42871,9 @@
       <c r="AU272">
         <v>1</v>
       </c>
+      <c r="AV272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -42209,6 +43027,9 @@
       <c r="AU273">
         <v>4</v>
       </c>
+      <c r="AV273">
+        <v>4</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -42362,6 +43183,9 @@
       <c r="AU274">
         <v>0</v>
       </c>
+      <c r="AV274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -42515,6 +43339,9 @@
       <c r="AU275">
         <v>0</v>
       </c>
+      <c r="AV275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -42668,6 +43495,9 @@
       <c r="AU276">
         <v>17</v>
       </c>
+      <c r="AV276">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -42821,6 +43651,9 @@
       <c r="AU277">
         <v>0</v>
       </c>
+      <c r="AV277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -42974,6 +43807,9 @@
       <c r="AU278">
         <v>0</v>
       </c>
+      <c r="AV278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -43127,6 +43963,9 @@
       <c r="AU279">
         <v>4</v>
       </c>
+      <c r="AV279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -43280,6 +44119,9 @@
       <c r="AU280">
         <v>12</v>
       </c>
+      <c r="AV280">
+        <v>12</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -43433,6 +44275,9 @@
       <c r="AU281">
         <v>307</v>
       </c>
+      <c r="AV281">
+        <v>312</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -43586,6 +44431,9 @@
       <c r="AU282">
         <v>17</v>
       </c>
+      <c r="AV282">
+        <v>17</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -43739,6 +44587,9 @@
       <c r="AU283">
         <v>5</v>
       </c>
+      <c r="AV283">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -43892,6 +44743,9 @@
       <c r="AU284">
         <v>0</v>
       </c>
+      <c r="AV284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -44045,6 +44899,9 @@
       <c r="AU285">
         <v>0</v>
       </c>
+      <c r="AV285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -44198,6 +45055,9 @@
       <c r="AU286">
         <v>8</v>
       </c>
+      <c r="AV286">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -44351,6 +45211,9 @@
       <c r="AU287">
         <v>5</v>
       </c>
+      <c r="AV287">
+        <v>5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -44504,6 +45367,9 @@
       <c r="AU288">
         <v>0</v>
       </c>
+      <c r="AV288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -44657,6 +45523,9 @@
       <c r="AU289">
         <v>1</v>
       </c>
+      <c r="AV289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -44810,6 +45679,9 @@
       <c r="AU290">
         <v>7</v>
       </c>
+      <c r="AV290">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -44963,6 +45835,9 @@
       <c r="AU291">
         <v>3</v>
       </c>
+      <c r="AV291">
+        <v>3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -45116,6 +45991,9 @@
       <c r="AU292">
         <v>5</v>
       </c>
+      <c r="AV292">
+        <v>5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -45269,6 +46147,9 @@
       <c r="AU293">
         <v>12</v>
       </c>
+      <c r="AV293">
+        <v>12</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -45422,6 +46303,9 @@
       <c r="AU294">
         <v>6</v>
       </c>
+      <c r="AV294">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -45575,6 +46459,9 @@
       <c r="AU295">
         <v>0</v>
       </c>
+      <c r="AV295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -45728,6 +46615,9 @@
       <c r="AU296">
         <v>1</v>
       </c>
+      <c r="AV296">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -45881,6 +46771,9 @@
       <c r="AU297">
         <v>8</v>
       </c>
+      <c r="AV297">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -46034,6 +46927,9 @@
       <c r="AU298">
         <v>28</v>
       </c>
+      <c r="AV298">
+        <v>28</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -46187,6 +47083,9 @@
       <c r="AU299">
         <v>21</v>
       </c>
+      <c r="AV299">
+        <v>21</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -46340,6 +47239,9 @@
       <c r="AU300">
         <v>15</v>
       </c>
+      <c r="AV300">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -46493,6 +47395,9 @@
       <c r="AU301">
         <v>1</v>
       </c>
+      <c r="AV301">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -46646,6 +47551,9 @@
       <c r="AU302">
         <v>0</v>
       </c>
+      <c r="AV302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -46799,6 +47707,9 @@
       <c r="AU303">
         <v>0</v>
       </c>
+      <c r="AV303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -46952,6 +47863,9 @@
       <c r="AU304">
         <v>0</v>
       </c>
+      <c r="AV304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -47105,6 +48019,9 @@
       <c r="AU305">
         <v>3</v>
       </c>
+      <c r="AV305">
+        <v>3</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -47258,6 +48175,9 @@
       <c r="AU306">
         <v>1</v>
       </c>
+      <c r="AV306">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -47411,6 +48331,9 @@
       <c r="AU307">
         <v>4</v>
       </c>
+      <c r="AV307">
+        <v>4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -47564,6 +48487,9 @@
       <c r="AU308">
         <v>0</v>
       </c>
+      <c r="AV308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -47717,6 +48643,9 @@
       <c r="AU309">
         <v>0</v>
       </c>
+      <c r="AV309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -47870,6 +48799,9 @@
       <c r="AU310">
         <v>7</v>
       </c>
+      <c r="AV310">
+        <v>7</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -48023,6 +48955,9 @@
       <c r="AU311">
         <v>2</v>
       </c>
+      <c r="AV311">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -48176,6 +49111,9 @@
       <c r="AU312">
         <v>2</v>
       </c>
+      <c r="AV312">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -48329,6 +49267,9 @@
       <c r="AU313">
         <v>2</v>
       </c>
+      <c r="AV313">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -48482,6 +49423,9 @@
       <c r="AU314">
         <v>10</v>
       </c>
+      <c r="AV314">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -48635,6 +49579,9 @@
       <c r="AU315">
         <v>1</v>
       </c>
+      <c r="AV315">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -48788,6 +49735,9 @@
       <c r="AU316">
         <v>17</v>
       </c>
+      <c r="AV316">
+        <v>17</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -48941,6 +49891,9 @@
       <c r="AU317">
         <v>0</v>
       </c>
+      <c r="AV317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -49094,6 +50047,9 @@
       <c r="AU318">
         <v>0</v>
       </c>
+      <c r="AV318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -49247,6 +50203,9 @@
       <c r="AU319">
         <v>162</v>
       </c>
+      <c r="AV319">
+        <v>163</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -49400,6 +50359,9 @@
       <c r="AU320">
         <v>6</v>
       </c>
+      <c r="AV320">
+        <v>6</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -49553,6 +50515,9 @@
       <c r="AU321">
         <v>5</v>
       </c>
+      <c r="AV321">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -49706,6 +50671,9 @@
       <c r="AU322">
         <v>1</v>
       </c>
+      <c r="AV322">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -49859,6 +50827,9 @@
       <c r="AU323">
         <v>3</v>
       </c>
+      <c r="AV323">
+        <v>3</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -50012,6 +50983,9 @@
       <c r="AU324">
         <v>15</v>
       </c>
+      <c r="AV324">
+        <v>15</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -50165,6 +51139,9 @@
       <c r="AU325">
         <v>1</v>
       </c>
+      <c r="AV325">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -50318,6 +51295,9 @@
       <c r="AU326">
         <v>1</v>
       </c>
+      <c r="AV326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -50471,6 +51451,9 @@
       <c r="AU327">
         <v>0</v>
       </c>
+      <c r="AV327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -50624,6 +51607,9 @@
       <c r="AU328">
         <v>0</v>
       </c>
+      <c r="AV328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -50777,6 +51763,9 @@
       <c r="AU329">
         <v>3</v>
       </c>
+      <c r="AV329">
+        <v>3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -50930,6 +51919,9 @@
       <c r="AU330">
         <v>2</v>
       </c>
+      <c r="AV330">
+        <v>2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -51083,6 +52075,9 @@
       <c r="AU331">
         <v>2</v>
       </c>
+      <c r="AV331">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -51236,6 +52231,9 @@
       <c r="AU332">
         <v>1</v>
       </c>
+      <c r="AV332">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -51389,6 +52387,9 @@
       <c r="AU333">
         <v>0</v>
       </c>
+      <c r="AV333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -51542,6 +52543,9 @@
       <c r="AU334">
         <v>0</v>
       </c>
+      <c r="AV334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -51695,6 +52699,9 @@
       <c r="AU335">
         <v>16</v>
       </c>
+      <c r="AV335">
+        <v>16</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -51848,6 +52855,9 @@
       <c r="AU336">
         <v>2</v>
       </c>
+      <c r="AV336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -52001,6 +53011,9 @@
       <c r="AU337">
         <v>2</v>
       </c>
+      <c r="AV337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -52154,6 +53167,9 @@
       <c r="AU338">
         <v>2</v>
       </c>
+      <c r="AV338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -52307,6 +53323,9 @@
       <c r="AU339">
         <v>0</v>
       </c>
+      <c r="AV339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -52460,6 +53479,9 @@
       <c r="AU340">
         <v>0</v>
       </c>
+      <c r="AV340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -52613,6 +53635,9 @@
       <c r="AU341">
         <v>1</v>
       </c>
+      <c r="AV341">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -52766,6 +53791,9 @@
       <c r="AU342">
         <v>2</v>
       </c>
+      <c r="AV342">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -52919,6 +53947,9 @@
       <c r="AU343">
         <v>0</v>
       </c>
+      <c r="AV343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -53072,6 +54103,9 @@
       <c r="AU344">
         <v>1</v>
       </c>
+      <c r="AV344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -53225,6 +54259,9 @@
       <c r="AU345">
         <v>0</v>
       </c>
+      <c r="AV345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -53378,6 +54415,9 @@
       <c r="AU346">
         <v>0</v>
       </c>
+      <c r="AV346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -53531,6 +54571,9 @@
       <c r="AU347">
         <v>3</v>
       </c>
+      <c r="AV347">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -53684,6 +54727,9 @@
       <c r="AU348">
         <v>2</v>
       </c>
+      <c r="AV348">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -53837,6 +54883,9 @@
       <c r="AU349">
         <v>4</v>
       </c>
+      <c r="AV349">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -53990,6 +55039,9 @@
       <c r="AU350">
         <v>1</v>
       </c>
+      <c r="AV350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -54143,6 +55195,9 @@
       <c r="AU351">
         <v>0</v>
       </c>
+      <c r="AV351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -54296,6 +55351,9 @@
       <c r="AU352">
         <v>0</v>
       </c>
+      <c r="AV352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -54449,6 +55507,9 @@
       <c r="AU353">
         <v>0</v>
       </c>
+      <c r="AV353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -54602,6 +55663,9 @@
       <c r="AU354">
         <v>1</v>
       </c>
+      <c r="AV354">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -54755,6 +55819,9 @@
       <c r="AU355">
         <v>1</v>
       </c>
+      <c r="AV355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -54908,6 +55975,9 @@
       <c r="AU356">
         <v>0</v>
       </c>
+      <c r="AV356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -55061,6 +56131,9 @@
       <c r="AU357">
         <v>4</v>
       </c>
+      <c r="AV357">
+        <v>4</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -55214,6 +56287,9 @@
       <c r="AU358">
         <v>0</v>
       </c>
+      <c r="AV358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -55365,6 +56441,9 @@
         <v>2</v>
       </c>
       <c r="AU359">
+        <v>0</v>
+      </c>
+      <c r="AV359">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_wide.xlsx
+++ b/data/01_infected/msis/municipality_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV359"/>
+  <dimension ref="A1:AW359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,6 +598,11 @@
           <t>2020-05-06</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -754,6 +759,9 @@
       <c r="AV2">
         <v>2468</v>
       </c>
+      <c r="AW2">
+        <v>2482</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -910,6 +918,9 @@
       <c r="AV3">
         <v>14</v>
       </c>
+      <c r="AW3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1066,6 +1077,9 @@
       <c r="AV4">
         <v>133</v>
       </c>
+      <c r="AW4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1222,6 +1236,9 @@
       <c r="AV5">
         <v>51</v>
       </c>
+      <c r="AW5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1378,6 +1395,9 @@
       <c r="AV6">
         <v>47</v>
       </c>
+      <c r="AW6">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1534,6 +1554,9 @@
       <c r="AV7">
         <v>5</v>
       </c>
+      <c r="AW7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1690,6 +1713,9 @@
       <c r="AV8">
         <v>1</v>
       </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1846,6 +1872,9 @@
       <c r="AV9">
         <v>0</v>
       </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2002,6 +2031,9 @@
       <c r="AV10">
         <v>7</v>
       </c>
+      <c r="AW10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2158,6 +2190,9 @@
       <c r="AV11">
         <v>6</v>
       </c>
+      <c r="AW11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2314,6 +2349,9 @@
       <c r="AV12">
         <v>12</v>
       </c>
+      <c r="AW12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2470,6 +2508,9 @@
       <c r="AV13">
         <v>13</v>
       </c>
+      <c r="AW13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2626,6 +2667,9 @@
       <c r="AV14">
         <v>16</v>
       </c>
+      <c r="AW14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2782,6 +2826,9 @@
       <c r="AV15">
         <v>11</v>
       </c>
+      <c r="AW15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2938,6 +2985,9 @@
       <c r="AV16">
         <v>13</v>
       </c>
+      <c r="AW16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3094,6 +3144,9 @@
       <c r="AV17">
         <v>0</v>
       </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3250,6 +3303,9 @@
       <c r="AV18">
         <v>0</v>
       </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3406,6 +3462,9 @@
       <c r="AV19">
         <v>3</v>
       </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3562,6 +3621,9 @@
       <c r="AV20">
         <v>0</v>
       </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3718,6 +3780,9 @@
       <c r="AV21">
         <v>1</v>
       </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3874,6 +3939,9 @@
       <c r="AV22">
         <v>20</v>
       </c>
+      <c r="AW22">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4030,6 +4098,9 @@
       <c r="AV23">
         <v>71</v>
       </c>
+      <c r="AW23">
+        <v>72</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4186,6 +4257,9 @@
       <c r="AV24">
         <v>0</v>
       </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4342,6 +4416,9 @@
       <c r="AV25">
         <v>11</v>
       </c>
+      <c r="AW25">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4498,6 +4575,9 @@
       <c r="AV26">
         <v>18</v>
       </c>
+      <c r="AW26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4654,6 +4734,9 @@
       <c r="AV27">
         <v>13</v>
       </c>
+      <c r="AW27">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4810,6 +4893,9 @@
       <c r="AV28">
         <v>27</v>
       </c>
+      <c r="AW28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4966,6 +5052,9 @@
       <c r="AV29">
         <v>1</v>
       </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5122,6 +5211,9 @@
       <c r="AV30">
         <v>5</v>
       </c>
+      <c r="AW30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5278,6 +5370,9 @@
       <c r="AV31">
         <v>3</v>
       </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5434,6 +5529,9 @@
       <c r="AV32">
         <v>8</v>
       </c>
+      <c r="AW32">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5590,6 +5688,9 @@
       <c r="AV33">
         <v>2</v>
       </c>
+      <c r="AW33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5746,6 +5847,9 @@
       <c r="AV34">
         <v>6</v>
       </c>
+      <c r="AW34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5902,6 +6006,9 @@
       <c r="AV35">
         <v>0</v>
       </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6058,6 +6165,9 @@
       <c r="AV36">
         <v>1</v>
       </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6214,6 +6324,9 @@
       <c r="AV37">
         <v>6</v>
       </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6370,6 +6483,9 @@
       <c r="AV38">
         <v>5</v>
       </c>
+      <c r="AW38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6526,6 +6642,9 @@
       <c r="AV39">
         <v>1</v>
       </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6682,6 +6801,9 @@
       <c r="AV40">
         <v>10</v>
       </c>
+      <c r="AW40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6838,6 +6960,9 @@
       <c r="AV41">
         <v>0</v>
       </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6994,6 +7119,9 @@
       <c r="AV42">
         <v>0</v>
       </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7150,6 +7278,9 @@
       <c r="AV43">
         <v>1</v>
       </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7306,6 +7437,9 @@
       <c r="AV44">
         <v>1</v>
       </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7462,6 +7596,9 @@
       <c r="AV45">
         <v>2</v>
       </c>
+      <c r="AW45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7618,6 +7755,9 @@
       <c r="AV46">
         <v>2</v>
       </c>
+      <c r="AW46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7774,6 +7914,9 @@
       <c r="AV47">
         <v>0</v>
       </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7930,6 +8073,9 @@
       <c r="AV48">
         <v>3</v>
       </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8086,6 +8232,9 @@
       <c r="AV49">
         <v>4</v>
       </c>
+      <c r="AW49">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8242,6 +8391,9 @@
       <c r="AV50">
         <v>1</v>
       </c>
+      <c r="AW50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8398,6 +8550,9 @@
       <c r="AV51">
         <v>3</v>
       </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8554,6 +8709,9 @@
       <c r="AV52">
         <v>39</v>
       </c>
+      <c r="AW52">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8710,6 +8868,9 @@
       <c r="AV53">
         <v>6</v>
       </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8866,6 +9027,9 @@
       <c r="AV54">
         <v>0</v>
       </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9022,6 +9186,9 @@
       <c r="AV55">
         <v>2</v>
       </c>
+      <c r="AW55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9178,6 +9345,9 @@
       <c r="AV56">
         <v>5</v>
       </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9334,6 +9504,9 @@
       <c r="AV57">
         <v>3</v>
       </c>
+      <c r="AW57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9490,6 +9663,9 @@
       <c r="AV58">
         <v>0</v>
       </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9646,6 +9822,9 @@
       <c r="AV59">
         <v>0</v>
       </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9802,6 +9981,9 @@
       <c r="AV60">
         <v>2</v>
       </c>
+      <c r="AW60">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9958,6 +10140,9 @@
       <c r="AV61">
         <v>4</v>
       </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10114,6 +10299,9 @@
       <c r="AV62">
         <v>1</v>
       </c>
+      <c r="AW62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10270,6 +10458,9 @@
       <c r="AV63">
         <v>1</v>
       </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10426,6 +10617,9 @@
       <c r="AV64">
         <v>0</v>
       </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10582,6 +10776,9 @@
       <c r="AV65">
         <v>5</v>
       </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10738,6 +10935,9 @@
       <c r="AV66">
         <v>0</v>
       </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10894,6 +11094,9 @@
       <c r="AV67">
         <v>0</v>
       </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11050,6 +11253,9 @@
       <c r="AV68">
         <v>4</v>
       </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11206,6 +11412,9 @@
       <c r="AV69">
         <v>0</v>
       </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>